--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="211">
   <si>
     <t>学期</t>
   </si>
@@ -768,10 +768,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>数据库系统应用开发实践</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1034,10 +1030,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <r>
       <t>Windows</t>
     </r>
@@ -1210,6 +1202,34 @@
   </si>
   <si>
     <t>其中：专业实践（学分）</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
@@ -2266,7 +2286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2480,8 +2500,38 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3415,40 +3465,127 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3481,127 +3618,83 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="81">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -3636,41 +3729,11 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3694,19 +3757,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_521" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_522" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_523" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_519" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_524" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3714,35 +3777,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_519" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_519" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_524" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_519" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_523" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_522" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_521" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4000,7 +4063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4010,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:K105"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4030,41 +4093,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="362" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="363" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="314" t="s">
+      <c r="B2" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="317" t="s">
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="368" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="319"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="370"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="313"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4097,7 +4160,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="350" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5">
@@ -4130,7 +4193,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="321"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="8">
         <v>310016</v>
       </c>
@@ -4162,7 +4225,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="321"/>
+      <c r="A6" s="351"/>
       <c r="B6" s="15">
         <v>330001</v>
       </c>
@@ -4195,21 +4258,21 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="321"/>
+      <c r="A7" s="351"/>
       <c r="B7" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="E7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="213" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="221"/>
       <c r="H7" s="19"/>
@@ -4218,7 +4281,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="321"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="15">
         <v>310017</v>
       </c>
@@ -4242,7 +4305,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="321"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="21">
         <v>199186</v>
       </c>
@@ -4265,7 +4328,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="321"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
         <v>19</v>
@@ -4282,7 +4345,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="321"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="122"/>
       <c r="C11" s="22" t="s">
         <v>21</v>
@@ -4299,7 +4362,7 @@
       <c r="K11" s="125"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="322"/>
+      <c r="A12" s="371"/>
       <c r="B12" s="181"/>
       <c r="C12" s="295" t="s">
         <v>69</v>
@@ -4320,7 +4383,7 @@
       <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="322"/>
+      <c r="A13" s="371"/>
       <c r="B13" s="182"/>
       <c r="C13" s="296"/>
       <c r="D13" s="162"/>
@@ -4333,7 +4396,7 @@
       <c r="K13" s="125"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="A14" s="323"/>
+      <c r="A14" s="352"/>
       <c r="B14" s="26"/>
       <c r="C14" s="297"/>
       <c r="D14" s="27"/>
@@ -4346,7 +4409,7 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="16">
-      <c r="A15" s="320" t="s">
+      <c r="A15" s="350" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="32">
@@ -4368,10 +4431,10 @@
         <v>198328</v>
       </c>
       <c r="H15" s="285" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="230" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="277">
         <v>2</v>
@@ -4379,7 +4442,7 @@
       <c r="K15" s="247"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="321"/>
+      <c r="A16" s="351"/>
       <c r="B16" s="8">
         <v>310009</v>
       </c>
@@ -4411,7 +4474,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="321"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="8">
         <v>310013</v>
       </c>
@@ -4443,7 +4506,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="321"/>
+      <c r="A18" s="351"/>
       <c r="B18" s="105"/>
       <c r="C18" s="299" t="s">
         <v>25</v>
@@ -4459,25 +4522,25 @@
       </c>
       <c r="G18" s="248"/>
       <c r="H18" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J18" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="321"/>
+      <c r="A19" s="351"/>
       <c r="B19" s="21">
         <v>199645</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="128">
         <v>32</v>
@@ -4486,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="227"/>
       <c r="H19" s="286" t="s">
@@ -4503,39 +4566,39 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="321"/>
+      <c r="A20" s="351"/>
       <c r="B20" s="37"/>
       <c r="C20" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="248"/>
       <c r="H20" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="321"/>
+      <c r="A21" s="351"/>
       <c r="B21" s="37"/>
       <c r="C21" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="39">
         <v>80</v>
@@ -4547,34 +4610,26 @@
         <v>11</v>
       </c>
       <c r="G21" s="248"/>
-      <c r="H21" s="286" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="245" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="278" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="175" t="s">
-        <v>114</v>
+      <c r="H21" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="131">
+        <v>64</v>
+      </c>
+      <c r="J21" s="131">
+        <v>2</v>
+      </c>
+      <c r="K21" s="138" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="321"/>
+      <c r="A22" s="351"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="131">
-        <v>64</v>
-      </c>
-      <c r="E22" s="131">
-        <v>2</v>
-      </c>
-      <c r="F22" s="138" t="s">
-        <v>73</v>
-      </c>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="227"/>
       <c r="H22" s="111" t="s">
         <v>91</v>
@@ -4590,21 +4645,21 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="16">
-      <c r="A23" s="321"/>
+      <c r="A23" s="351"/>
       <c r="B23" s="21">
         <v>199639</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="129">
         <v>3</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="248"/>
       <c r="H23" s="288" t="s">
@@ -4617,23 +4672,23 @@
         <v>3</v>
       </c>
       <c r="K23" s="279" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="321"/>
+      <c r="A24" s="351"/>
       <c r="B24" s="37"/>
       <c r="C24" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="248"/>
       <c r="H24" s="288" t="s">
@@ -4646,23 +4701,23 @@
         <v>3</v>
       </c>
       <c r="K24" s="279" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="321"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>113</v>
-      </c>
       <c r="F25" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="228"/>
       <c r="H25" s="111" t="s">
@@ -4679,61 +4734,61 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="321"/>
+      <c r="A26" s="351"/>
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
       <c r="F26" s="36"/>
       <c r="G26" s="248" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="286" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="286" t="s">
-        <v>115</v>
-      </c>
       <c r="I26" s="245" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J26" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1">
-      <c r="A27" s="323"/>
+      <c r="A27" s="352"/>
       <c r="B27" s="26"/>
       <c r="C27" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>120</v>
-      </c>
       <c r="F27" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="280" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="289" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="289" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>147</v>
-      </c>
       <c r="J27" s="281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K27" s="282" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="320" t="s">
+      <c r="A28" s="350" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="32">
@@ -4766,7 +4821,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="321"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="8">
         <v>310015</v>
       </c>
@@ -4785,25 +4840,25 @@
       </c>
       <c r="G29" s="190"/>
       <c r="H29" s="286" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="232" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J29" s="233" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" s="234" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="321"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="21">
         <v>199654</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="126">
         <v>48</v>
@@ -4812,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="184" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="191"/>
       <c r="H30" s="286" t="s">
@@ -4829,12 +4884,12 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="321"/>
+      <c r="A31" s="351"/>
       <c r="B31" s="136">
         <v>199655</v>
       </c>
       <c r="C31" s="301" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="137">
         <v>32</v>
@@ -4843,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" s="191"/>
       <c r="H31" s="287" t="s">
@@ -4860,10 +4915,10 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="321"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="21"/>
       <c r="C32" s="87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="126">
         <v>64</v>
@@ -4889,7 +4944,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="321"/>
+      <c r="A33" s="351"/>
       <c r="B33" s="21"/>
       <c r="C33" s="135" t="s">
         <v>75</v>
@@ -4905,20 +4960,20 @@
       </c>
       <c r="G33" s="248"/>
       <c r="H33" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J33" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K33" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="321"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="45"/>
       <c r="C34" s="22" t="s">
         <v>96</v>
@@ -4930,44 +4985,46 @@
         <v>3</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="248"/>
-      <c r="H34" s="286" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="245" t="s">
-        <v>114</v>
-      </c>
-      <c r="J34" s="278" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="175" t="s">
-        <v>114</v>
+        <v>164</v>
+      </c>
+      <c r="G34" s="45">
+        <v>199628</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="12">
+        <v>32</v>
+      </c>
+      <c r="J34" s="13">
+        <v>2</v>
+      </c>
+      <c r="K34" s="234" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1">
-      <c r="A35" s="321"/>
-      <c r="B35" s="45">
-        <v>199628</v>
+      <c r="A35" s="351"/>
+      <c r="B35" s="45" t="s">
+        <v>208</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="12">
-        <v>32</v>
-      </c>
-      <c r="E35" s="13">
-        <v>2</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>166</v>
+        <v>209</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="372" t="s">
+        <v>210</v>
       </c>
       <c r="G35" s="272">
         <v>199629</v>
       </c>
       <c r="H35" s="291" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I35" s="273">
         <v>48</v>
@@ -4978,27 +5035,27 @@
       <c r="K35" s="275"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="321"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="186" t="s">
         <v>114</v>
-      </c>
-      <c r="F36" s="186" t="s">
-        <v>115</v>
       </c>
       <c r="G36" s="269">
         <v>199648</v>
       </c>
       <c r="H36" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I36" s="264">
         <v>48</v>
@@ -5006,10 +5063,12 @@
       <c r="J36" s="265">
         <v>3</v>
       </c>
-      <c r="K36" s="234"/>
+      <c r="K36" s="234" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="321"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="45"/>
       <c r="C37" s="22"/>
       <c r="D37" s="12"/>
@@ -5022,7 +5081,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1">
-      <c r="A38" s="323"/>
+      <c r="A38" s="352"/>
       <c r="B38" s="26"/>
       <c r="C38" s="297" t="s">
         <v>33</v>
@@ -5039,7 +5098,7 @@
       <c r="K38" s="31"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="320" t="s">
+      <c r="A39" s="350" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="197">
@@ -5072,7 +5131,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="321"/>
+      <c r="A40" s="351"/>
       <c r="B40" s="199">
         <v>310014</v>
       </c>
@@ -5091,20 +5150,20 @@
       </c>
       <c r="G40" s="242"/>
       <c r="H40" s="243" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I40" s="244" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J40" s="245" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K40" s="234" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="321"/>
+      <c r="A41" s="351"/>
       <c r="B41" s="201"/>
       <c r="C41" s="299" t="s">
         <v>37</v>
@@ -5133,43 +5192,45 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" thickBot="1">
-      <c r="A42" s="321"/>
-      <c r="B42" s="203">
+      <c r="A42" s="351"/>
+      <c r="B42" s="203" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="204" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="203">
         <v>199653</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="12">
+      <c r="H42" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="12">
         <v>48</v>
       </c>
-      <c r="E42" s="13">
+      <c r="J42" s="13">
         <v>3</v>
       </c>
-      <c r="F42" s="204" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="242"/>
-      <c r="H42" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>115</v>
+      <c r="K42" s="234" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="321"/>
+      <c r="A43" s="351"/>
       <c r="B43" s="203">
         <v>199635</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="12">
         <v>40</v>
@@ -5178,13 +5239,13 @@
         <v>2.5</v>
       </c>
       <c r="F43" s="204" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="248">
         <v>199626</v>
       </c>
       <c r="H43" s="243" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I43" s="244">
         <v>24</v>
@@ -5197,12 +5258,12 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="321"/>
+      <c r="A44" s="351"/>
       <c r="B44" s="203">
         <v>199636</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="12">
         <v>32</v>
@@ -5211,13 +5272,13 @@
         <v>1</v>
       </c>
       <c r="F44" s="204" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="248">
         <v>199627</v>
       </c>
       <c r="H44" s="243" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I44" s="244">
         <v>32</v>
@@ -5230,25 +5291,25 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="321"/>
+      <c r="A45" s="351"/>
       <c r="B45" s="203"/>
       <c r="C45" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="204" t="s">
         <v>114</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="204" t="s">
-        <v>115</v>
       </c>
       <c r="G45" s="248">
         <v>199630</v>
       </c>
       <c r="H45" s="243" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I45" s="244">
         <v>40</v>
@@ -5261,25 +5322,25 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="321"/>
+      <c r="A46" s="351"/>
       <c r="B46" s="205"/>
       <c r="C46" s="146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="194" t="s">
         <v>114</v>
-      </c>
-      <c r="E46" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="194" t="s">
-        <v>115</v>
       </c>
       <c r="G46" s="248">
         <v>199631</v>
       </c>
       <c r="H46" s="243" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I46" s="244">
         <v>16</v>
@@ -5288,48 +5349,48 @@
         <v>0.5</v>
       </c>
       <c r="K46" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="321"/>
+      <c r="A47" s="351"/>
       <c r="B47" s="206" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" s="303" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47" s="207" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" s="242"/>
       <c r="H47" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="14" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="321"/>
+      <c r="A48" s="351"/>
       <c r="B48" s="208"/>
       <c r="C48" s="153" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="196" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="152">
         <v>1</v>
@@ -5344,7 +5405,7 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="321"/>
+      <c r="A49" s="351"/>
       <c r="B49" s="190"/>
       <c r="C49" s="38"/>
       <c r="D49" s="43"/>
@@ -5357,7 +5418,7 @@
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1">
-      <c r="A50" s="323"/>
+      <c r="A50" s="352"/>
       <c r="B50" s="210"/>
       <c r="C50" s="297" t="s">
         <v>39</v>
@@ -5374,7 +5435,7 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="320" t="s">
+      <c r="A51" s="350" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="55">
@@ -5407,7 +5468,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="321"/>
+      <c r="A52" s="351"/>
       <c r="B52" s="59"/>
       <c r="C52" s="142" t="s">
         <v>78</v>
@@ -5425,7 +5486,7 @@
         <v>199625</v>
       </c>
       <c r="H52" s="292" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="268">
         <v>32</v>
@@ -5436,7 +5497,7 @@
       <c r="K52" s="271"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="321"/>
+      <c r="A53" s="351"/>
       <c r="B53" s="59"/>
       <c r="C53" s="135" t="s">
         <v>79</v>
@@ -5454,7 +5515,7 @@
         <v>199624</v>
       </c>
       <c r="H53" s="158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="180">
         <v>48</v>
@@ -5465,7 +5526,7 @@
       <c r="K53" s="257"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="321"/>
+      <c r="A54" s="351"/>
       <c r="B54" s="59"/>
       <c r="C54" s="305" t="s">
         <v>80</v>
@@ -5481,20 +5542,20 @@
       </c>
       <c r="G54" s="269"/>
       <c r="H54" s="263" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I54" s="264" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J54" s="265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K54" s="234" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="321"/>
+      <c r="A55" s="351"/>
       <c r="B55" s="59"/>
       <c r="C55" s="306" t="s">
         <v>81</v>
@@ -5510,20 +5571,20 @@
       </c>
       <c r="G55" s="269"/>
       <c r="H55" s="263" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="264" t="s">
+        <v>113</v>
+      </c>
+      <c r="J55" s="265" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" s="234" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="264" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" s="265" t="s">
-        <v>114</v>
-      </c>
-      <c r="K55" s="234" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="321"/>
+      <c r="A56" s="351"/>
       <c r="B56" s="59"/>
       <c r="C56" s="305" t="s">
         <v>82</v>
@@ -5539,20 +5600,20 @@
       </c>
       <c r="G56" s="269"/>
       <c r="H56" s="263" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" s="264" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" s="265" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56" s="234" t="s">
         <v>114</v>
       </c>
-      <c r="I56" s="264" t="s">
-        <v>114</v>
-      </c>
-      <c r="J56" s="265" t="s">
-        <v>114</v>
-      </c>
-      <c r="K56" s="234" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="321"/>
+      <c r="A57" s="351"/>
       <c r="B57" s="59"/>
       <c r="C57" s="306" t="s">
         <v>83</v>
@@ -5567,42 +5628,42 @@
         <v>76</v>
       </c>
       <c r="G57" s="269" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H57" s="263" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I57" s="264" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J57" s="265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K57" s="234"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="321"/>
+      <c r="A58" s="351"/>
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="43"/>
       <c r="E58" s="61"/>
       <c r="F58" s="36"/>
       <c r="G58" s="269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H58" s="263" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I58" s="264" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J58" s="265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K58" s="234"/>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1">
-      <c r="A59" s="323"/>
+      <c r="A59" s="352"/>
       <c r="B59" s="26"/>
       <c r="C59" s="297" t="s">
         <v>42</v>
@@ -5619,7 +5680,7 @@
       <c r="K59" s="234"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="321" t="s">
+      <c r="A60" s="351" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="55"/>
@@ -5650,7 +5711,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="321"/>
+      <c r="A61" s="351"/>
       <c r="B61" s="105"/>
       <c r="C61" s="299" t="s">
         <v>45</v>
@@ -5679,7 +5740,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="321"/>
+      <c r="A62" s="351"/>
       <c r="B62" s="21"/>
       <c r="C62" s="151" t="s">
         <v>84</v>
@@ -5707,26 +5768,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16">
+    <row r="63" spans="1:11">
       <c r="A63" s="121"/>
-      <c r="B63" s="203">
-        <v>199641</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="12">
-        <v>32</v>
-      </c>
-      <c r="E63" s="13">
-        <v>2</v>
-      </c>
+      <c r="B63" s="203"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="186"/>
       <c r="G63" s="269">
         <v>199173</v>
       </c>
       <c r="H63" s="263" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I63" s="264">
         <v>32</v>
@@ -5742,7 +5795,7 @@
         <v>199783</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D64" s="12">
         <v>48</v>
@@ -5755,7 +5808,7 @@
         <v>199621</v>
       </c>
       <c r="H64" s="263" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I64" s="264">
         <v>32</v>
@@ -5771,7 +5824,7 @@
         <v>199784</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65" s="12">
         <v>32</v>
@@ -5784,7 +5837,7 @@
         <v>199622</v>
       </c>
       <c r="H65" s="263" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I65" s="264">
         <v>32</v>
@@ -5794,26 +5847,26 @@
       </c>
       <c r="K65" s="234"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="16">
       <c r="A66" s="66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="38"/>
       <c r="D66" s="43"/>
       <c r="E66" s="65"/>
       <c r="F66" s="252"/>
-      <c r="G66" s="270" t="s">
-        <v>111</v>
-      </c>
-      <c r="H66" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="I66" s="268" t="s">
-        <v>118</v>
-      </c>
-      <c r="J66" s="177" t="s">
-        <v>163</v>
-      </c>
-      <c r="K66" s="271"/>
+      <c r="G66" s="203">
+        <v>199641</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I66" s="12">
+        <v>32</v>
+      </c>
+      <c r="J66" s="13">
+        <v>2</v>
+      </c>
+      <c r="K66" s="186"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1">
       <c r="A67" s="67"/>
@@ -5827,21 +5880,21 @@
         <v>20</v>
       </c>
       <c r="G67" s="269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H67" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I67" s="180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J67" s="180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K67" s="257"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="320" t="s">
+      <c r="A68" s="350" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="105"/>
@@ -5872,7 +5925,7 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="321"/>
+      <c r="A69" s="351"/>
       <c r="B69" s="105"/>
       <c r="C69" s="299" t="s">
         <v>51</v>
@@ -5901,7 +5954,7 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="321"/>
+      <c r="A70" s="351"/>
       <c r="B70" s="106"/>
       <c r="C70" s="308" t="s">
         <v>52</v>
@@ -5914,23 +5967,23 @@
         <v>32</v>
       </c>
       <c r="G70" s="269" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="H70" s="168" t="s">
-        <v>115</v>
-      </c>
       <c r="I70" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J70" s="170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K70" s="226" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="321"/>
+      <c r="A71" s="351"/>
       <c r="B71" s="106"/>
       <c r="C71" s="308" t="s">
         <v>53</v>
@@ -5943,110 +5996,110 @@
         <v>32</v>
       </c>
       <c r="G71" s="269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H71" s="171" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I71" s="172" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J71" s="173" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="K71" s="164" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="321"/>
+      <c r="A72" s="351"/>
       <c r="B72" s="21"/>
       <c r="C72" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="269" t="s">
+        <v>117</v>
+      </c>
+      <c r="H72" s="158" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="H72" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="I72" s="180" t="s">
-        <v>119</v>
-      </c>
       <c r="J72" s="180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K72" s="257"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="321"/>
+      <c r="A73" s="351"/>
       <c r="B73" s="21"/>
       <c r="C73" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F73" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" s="269" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" s="158" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="G73" s="269" t="s">
-        <v>160</v>
-      </c>
-      <c r="H73" s="158" t="s">
-        <v>114</v>
-      </c>
-      <c r="I73" s="180" t="s">
-        <v>119</v>
-      </c>
       <c r="J73" s="180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K73" s="257"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="321"/>
+      <c r="A74" s="351"/>
       <c r="B74" s="21"/>
       <c r="C74" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E74" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="269" t="s">
+        <v>160</v>
+      </c>
+      <c r="H74" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G74" s="269" t="s">
-        <v>161</v>
-      </c>
-      <c r="H74" s="158" t="s">
-        <v>130</v>
-      </c>
-      <c r="I74" s="180" t="s">
-        <v>119</v>
-      </c>
       <c r="J74" s="180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K74" s="257"/>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1">
-      <c r="A75" s="323"/>
+      <c r="A75" s="352"/>
       <c r="B75" s="21"/>
       <c r="C75" s="38"/>
       <c r="D75" s="43"/>
@@ -6056,7 +6109,7 @@
         <v>199650</v>
       </c>
       <c r="H75" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I75" s="72">
         <v>24</v>
@@ -6109,7 +6162,7 @@
       <c r="D78" s="81"/>
       <c r="E78" s="81">
         <f>SUM(E4:E77)</f>
-        <v>101.5</v>
+        <v>92.5</v>
       </c>
       <c r="F78" s="82">
         <f>SUM(F4:F77)</f>
@@ -6120,7 +6173,7 @@
       <c r="I78" s="81"/>
       <c r="J78" s="83">
         <f>SUM(J4:J77)</f>
-        <v>72.5</v>
+        <v>81.5</v>
       </c>
       <c r="K78" s="84"/>
     </row>
@@ -6196,10 +6249,10 @@
       <c r="K82" s="99"/>
     </row>
     <row r="83" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A83" s="324">
+      <c r="A83" s="353">
         <v>2</v>
       </c>
-      <c r="B83" s="328" t="s">
+      <c r="B83" s="357" t="s">
         <v>59</v>
       </c>
       <c r="C83" s="299" t="s">
@@ -6218,8 +6271,8 @@
       <c r="K83" s="94"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="325"/>
-      <c r="B84" s="329"/>
+      <c r="A84" s="354"/>
+      <c r="B84" s="358"/>
       <c r="C84" s="299" t="s">
         <v>61</v>
       </c>
@@ -6233,15 +6286,15 @@
       <c r="K84" s="94"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="326"/>
-      <c r="B85" s="330"/>
+      <c r="A85" s="355"/>
+      <c r="B85" s="359"/>
       <c r="C85" s="310" t="s">
         <v>62</v>
       </c>
       <c r="D85" s="106"/>
       <c r="E85" s="159">
         <f>SUM(E22,E70:E71)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F85" s="106"/>
       <c r="G85" s="106"/>
@@ -6251,10 +6304,10 @@
       <c r="K85" s="94"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="324">
+      <c r="A86" s="353">
         <v>3</v>
       </c>
-      <c r="B86" s="331" t="s">
+      <c r="B86" s="360" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="70" t="s">
@@ -6263,7 +6316,7 @@
       <c r="D86" s="52"/>
       <c r="E86" s="100">
         <f>SUM(E9,E12,E19:E21,E30,E32,E34,E35,E43,E52,E54,E56,E64)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F86" s="70" t="s">
         <v>64</v>
@@ -6278,15 +6331,15 @@
       <c r="K86" s="94"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="326"/>
-      <c r="B87" s="332"/>
+      <c r="A87" s="355"/>
+      <c r="B87" s="361"/>
       <c r="C87" s="70" t="s">
         <v>65</v>
       </c>
       <c r="D87" s="52"/>
       <c r="E87" s="100">
         <f>SUM(E19,E23,E31,E33,E42,E44,E53,E55,E57,E63,E65)</f>
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="F87" s="70" t="s">
         <v>13</v>
@@ -6298,30 +6351,30 @@
       </c>
       <c r="I87" s="116"/>
       <c r="J87" s="116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K87" s="94"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="324" t="s">
+      <c r="A88" s="353" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="356" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="160" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" s="327" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="160" t="s">
-        <v>170</v>
       </c>
       <c r="D88" s="52"/>
       <c r="E88" s="100" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" s="160" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" s="52"/>
       <c r="H88" s="100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I88" s="116"/>
       <c r="J88" s="174" t="s">
@@ -6330,21 +6383,21 @@
       <c r="K88" s="94"/>
     </row>
     <row r="89" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A89" s="325"/>
-      <c r="B89" s="327"/>
+      <c r="A89" s="354"/>
+      <c r="B89" s="356"/>
       <c r="C89" s="161" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D89" s="52"/>
       <c r="E89" s="100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F89" s="161" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" s="52"/>
       <c r="H89" s="100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I89" s="116"/>
       <c r="J89" s="174" t="s">
@@ -6353,14 +6406,14 @@
       <c r="K89" s="94"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="326"/>
-      <c r="B90" s="327"/>
+      <c r="A90" s="355"/>
+      <c r="B90" s="356"/>
       <c r="C90" s="153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" s="52"/>
       <c r="E90" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F90" s="70"/>
       <c r="G90" s="52"/>
@@ -6381,7 +6434,7 @@
       <c r="D91" s="52"/>
       <c r="E91" s="102">
         <f>E82+E83+E85+E86+E87</f>
-        <v>94.5</v>
+        <v>85.5</v>
       </c>
       <c r="F91" s="70"/>
       <c r="G91" s="52"/>
@@ -6440,34 +6493,34 @@
       <c r="J95" s="94"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="333" t="s">
+      <c r="A96" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="334"/>
-      <c r="C96" s="335" t="s">
+      <c r="B96" s="312"/>
+      <c r="C96" s="341" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" s="342"/>
+      <c r="E96" s="343"/>
+      <c r="F96" s="341" t="s">
+        <v>188</v>
+      </c>
+      <c r="G96" s="342"/>
+      <c r="H96" s="343"/>
+      <c r="I96" s="344" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="336"/>
-      <c r="E96" s="337"/>
-      <c r="F96" s="335" t="s">
+      <c r="J96" s="344"/>
+      <c r="K96" s="345"/>
+    </row>
+    <row r="97" spans="1:11" ht="26">
+      <c r="A97" s="313">
+        <v>1</v>
+      </c>
+      <c r="B97" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="336"/>
-      <c r="H96" s="337"/>
-      <c r="I96" s="338" t="s">
-        <v>191</v>
-      </c>
-      <c r="J96" s="338"/>
-      <c r="K96" s="339"/>
-    </row>
-    <row r="97" spans="1:11" ht="26">
-      <c r="A97" s="340">
-        <v>1</v>
-      </c>
-      <c r="B97" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="341" t="s">
+      <c r="C97" s="314" t="s">
         <v>57</v>
       </c>
       <c r="D97" s="97">
@@ -6478,129 +6531,129 @@
         <f>SUM(E40:E41,E48:E50,E56:E57,E64:E65)</f>
         <v>15.5</v>
       </c>
-      <c r="F97" s="342" t="s">
+      <c r="F97" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="G97" s="343">
+      <c r="G97" s="316">
         <f>SUM(D42:D44,D72,D80)</f>
-        <v>120</v>
-      </c>
-      <c r="H97" s="344">
+        <v>72</v>
+      </c>
+      <c r="H97" s="317">
         <f>SUM(E42:E44,E72,E80)</f>
-        <v>6.5</v>
-      </c>
-      <c r="I97" s="345" t="s">
-        <v>193</v>
-      </c>
-      <c r="J97" s="346"/>
-      <c r="K97" s="347"/>
+        <v>3.5</v>
+      </c>
+      <c r="I97" s="346" t="s">
+        <v>191</v>
+      </c>
+      <c r="J97" s="347"/>
+      <c r="K97" s="348"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="348">
+      <c r="A98" s="333">
         <v>2</v>
       </c>
       <c r="B98" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="350"/>
-      <c r="D98" s="350"/>
-      <c r="E98" s="350"/>
-      <c r="F98" s="351" t="s">
+      <c r="C98" s="318"/>
+      <c r="D98" s="318"/>
+      <c r="E98" s="318"/>
+      <c r="F98" s="319" t="s">
         <v>60</v>
       </c>
-      <c r="G98" s="350"/>
-      <c r="H98" s="352">
+      <c r="G98" s="318"/>
+      <c r="H98" s="320">
         <f>SUM(E51,E81,E87:E89,E91)</f>
-        <v>112</v>
-      </c>
-      <c r="I98" s="353"/>
-      <c r="J98" s="353"/>
-      <c r="K98" s="354"/>
+        <v>98</v>
+      </c>
+      <c r="I98" s="337"/>
+      <c r="J98" s="337"/>
+      <c r="K98" s="338"/>
     </row>
     <row r="99" spans="1:11" ht="26">
-      <c r="A99" s="348"/>
-      <c r="B99" s="355"/>
-      <c r="C99" s="356"/>
-      <c r="D99" s="357"/>
-      <c r="E99" s="357"/>
-      <c r="F99" s="358" t="s">
-        <v>203</v>
-      </c>
-      <c r="G99" s="357"/>
-      <c r="H99" s="357"/>
-      <c r="I99" s="353"/>
-      <c r="J99" s="353"/>
-      <c r="K99" s="354"/>
+      <c r="A99" s="333"/>
+      <c r="B99" s="334"/>
+      <c r="C99" s="321"/>
+      <c r="D99" s="322"/>
+      <c r="E99" s="322"/>
+      <c r="F99" s="323" t="s">
+        <v>201</v>
+      </c>
+      <c r="G99" s="322"/>
+      <c r="H99" s="322"/>
+      <c r="I99" s="337"/>
+      <c r="J99" s="337"/>
+      <c r="K99" s="338"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="348">
+      <c r="A100" s="333">
         <v>3</v>
       </c>
-      <c r="B100" s="355" t="s">
-        <v>195</v>
-      </c>
-      <c r="C100" s="359" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" s="360"/>
-      <c r="E100" s="361">
+      <c r="B100" s="334" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="324" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="325"/>
+      <c r="E100" s="326">
         <f>SUM(E45)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="362" t="s">
-        <v>197</v>
-      </c>
-      <c r="G100" s="363"/>
-      <c r="H100" s="363"/>
-      <c r="I100" s="364"/>
-      <c r="J100" s="364"/>
-      <c r="K100" s="365"/>
+      <c r="F100" s="327" t="s">
+        <v>195</v>
+      </c>
+      <c r="G100" s="328"/>
+      <c r="H100" s="328"/>
+      <c r="I100" s="335"/>
+      <c r="J100" s="335"/>
+      <c r="K100" s="336"/>
     </row>
     <row r="101" spans="1:11" ht="26">
-      <c r="A101" s="348"/>
-      <c r="B101" s="355"/>
-      <c r="C101" s="359" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="360"/>
-      <c r="E101" s="361"/>
-      <c r="F101" s="366" t="s">
-        <v>205</v>
+      <c r="A101" s="333"/>
+      <c r="B101" s="334"/>
+      <c r="C101" s="324" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="325"/>
+      <c r="E101" s="326"/>
+      <c r="F101" s="329" t="s">
+        <v>203</v>
       </c>
       <c r="G101" s="52"/>
       <c r="H101" s="100"/>
-      <c r="I101" s="353"/>
-      <c r="J101" s="353"/>
-      <c r="K101" s="354"/>
+      <c r="I101" s="337"/>
+      <c r="J101" s="337"/>
+      <c r="K101" s="338"/>
     </row>
     <row r="102" spans="1:11" ht="15" thickBot="1">
-      <c r="A102" s="367" t="s">
+      <c r="A102" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="B102" s="368">
+      <c r="B102" s="331">
         <v>140</v>
       </c>
-      <c r="C102" s="369">
+      <c r="C102" s="332">
         <f>24+10+3+32+15</f>
         <v>84</v>
       </c>
-      <c r="D102" s="369"/>
-      <c r="E102" s="368">
+      <c r="D102" s="332"/>
+      <c r="E102" s="331">
         <f>SUM(E97:E100)</f>
         <v>15.5</v>
       </c>
-      <c r="F102" s="369">
+      <c r="F102" s="332">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G102" s="369"/>
-      <c r="H102" s="368">
+      <c r="G102" s="332"/>
+      <c r="H102" s="331">
         <f>SUM(H97:H101)</f>
-        <v>118.5</v>
-      </c>
-      <c r="I102" s="370"/>
-      <c r="J102" s="370"/>
-      <c r="K102" s="371"/>
+        <v>101.5</v>
+      </c>
+      <c r="I102" s="339"/>
+      <c r="J102" s="339"/>
+      <c r="K102" s="340"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="93"/>
@@ -6622,16 +6675,16 @@
       <c r="D104" s="94"/>
       <c r="E104" s="94"/>
       <c r="F104" s="94" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" s="94"/>
       <c r="H104" s="95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I104" s="94"/>
       <c r="J104" s="94"/>
       <c r="K104" s="94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -6648,19 +6701,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="I101:K101"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="I96:K96"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A14"/>
     <mergeCell ref="A68:A75"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="B88:B90"/>
@@ -6673,11 +6718,19 @@
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="A51:A59"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="I96:K96"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="I102:K102"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6718,41 +6771,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="311" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
+      <c r="A1" s="362" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="363" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="314" t="s">
+      <c r="B2" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="317" t="s">
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="368" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="319"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="370"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="313"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6785,7 +6838,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="350" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5">
@@ -6818,7 +6871,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="321"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="8">
         <v>310016</v>
       </c>
@@ -6850,7 +6903,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="321"/>
+      <c r="A6" s="351"/>
       <c r="B6" s="15">
         <v>330001</v>
       </c>
@@ -6867,23 +6920,23 @@
         <v>15</v>
       </c>
       <c r="G6" s="220" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="K6" s="219" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="321"/>
+      <c r="A7" s="351"/>
       <c r="B7" s="220">
         <v>199023</v>
       </c>
@@ -6906,7 +6959,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="321"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="15">
         <v>310017</v>
       </c>
@@ -6930,7 +6983,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="321"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="21">
         <v>199186</v>
       </c>
@@ -6953,7 +7006,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="321"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
         <v>19</v>
@@ -6970,7 +7023,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="321"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="122"/>
       <c r="C11" s="22" t="s">
         <v>21</v>
@@ -6987,7 +7040,7 @@
       <c r="K11" s="125"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="322"/>
+      <c r="A12" s="371"/>
       <c r="B12" s="181"/>
       <c r="C12" s="295" t="s">
         <v>69</v>
@@ -7008,7 +7061,7 @@
       <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="322"/>
+      <c r="A13" s="371"/>
       <c r="B13" s="182"/>
       <c r="C13" s="296"/>
       <c r="D13" s="162"/>
@@ -7021,7 +7074,7 @@
       <c r="K13" s="125"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="A14" s="323"/>
+      <c r="A14" s="352"/>
       <c r="B14" s="26"/>
       <c r="C14" s="297"/>
       <c r="D14" s="27"/>
@@ -7034,7 +7087,7 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="16">
-      <c r="A15" s="320" t="s">
+      <c r="A15" s="350" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="32">
@@ -7056,10 +7109,10 @@
         <v>198328</v>
       </c>
       <c r="H15" s="285" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="230" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="277">
         <v>2</v>
@@ -7067,7 +7120,7 @@
       <c r="K15" s="247"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="321"/>
+      <c r="A16" s="351"/>
       <c r="B16" s="8">
         <v>310009</v>
       </c>
@@ -7099,7 +7152,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="321"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="8">
         <v>310013</v>
       </c>
@@ -7131,7 +7184,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="321"/>
+      <c r="A18" s="351"/>
       <c r="B18" s="105"/>
       <c r="C18" s="299" t="s">
         <v>25</v>
@@ -7149,7 +7202,7 @@
         <v>199645</v>
       </c>
       <c r="H18" s="127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="128">
         <v>32</v>
@@ -7162,21 +7215,21 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="321"/>
+      <c r="A19" s="351"/>
       <c r="B19" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" s="129" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="227"/>
       <c r="H19" s="286" t="s">
@@ -7193,39 +7246,39 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="321"/>
+      <c r="A20" s="351"/>
       <c r="B20" s="37"/>
       <c r="C20" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="248"/>
       <c r="H20" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="321"/>
+      <c r="A21" s="351"/>
       <c r="B21" s="37"/>
       <c r="C21" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="39">
         <v>80</v>
@@ -7238,20 +7291,20 @@
       </c>
       <c r="G21" s="248"/>
       <c r="H21" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J21" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K21" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="321"/>
+      <c r="A22" s="351"/>
       <c r="B22" s="21"/>
       <c r="C22" s="130" t="s">
         <v>73</v>
@@ -7280,30 +7333,30 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="16">
-      <c r="A23" s="321"/>
+      <c r="A23" s="351"/>
       <c r="B23" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="128" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" s="129" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="21">
         <v>199639</v>
       </c>
       <c r="H23" s="127" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J23" s="129">
         <v>3</v>
@@ -7313,7 +7366,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="321"/>
+      <c r="A24" s="351"/>
       <c r="B24" s="37"/>
       <c r="C24" s="288" t="s">
         <v>71</v>
@@ -7329,20 +7382,20 @@
       </c>
       <c r="G24" s="248"/>
       <c r="H24" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" s="235" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J24" s="278" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K24" s="279" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="321"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="37"/>
       <c r="C25" s="288" t="s">
         <v>72</v>
@@ -7358,20 +7411,20 @@
       </c>
       <c r="G25" s="228"/>
       <c r="H25" s="111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I25" s="238" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="321"/>
+      <c r="A26" s="351"/>
       <c r="B26" s="37"/>
       <c r="C26" s="111" t="s">
         <v>70</v>
@@ -7386,54 +7439,54 @@
         <v>74</v>
       </c>
       <c r="G26" s="248" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="286" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="286" t="s">
-        <v>115</v>
-      </c>
       <c r="I26" s="245" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J26" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1">
-      <c r="A27" s="323"/>
+      <c r="A27" s="352"/>
       <c r="B27" s="26"/>
       <c r="C27" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>120</v>
-      </c>
       <c r="F27" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="280" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="289" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="289" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>147</v>
-      </c>
       <c r="J27" s="281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K27" s="282" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="320" t="s">
+      <c r="A28" s="350" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="32">
@@ -7466,7 +7519,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="321"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="8">
         <v>310015</v>
       </c>
@@ -7485,25 +7538,25 @@
       </c>
       <c r="G29" s="190"/>
       <c r="H29" s="286" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="232" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J29" s="233" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" s="234" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="321"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="21">
         <v>199654</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="126">
         <v>48</v>
@@ -7512,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="184" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="191"/>
       <c r="H30" s="286" t="s">
@@ -7529,12 +7582,12 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="321"/>
+      <c r="A31" s="351"/>
       <c r="B31" s="136">
         <v>199655</v>
       </c>
       <c r="C31" s="301" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="137">
         <v>32</v>
@@ -7543,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" s="191"/>
       <c r="H31" s="287" t="s">
@@ -7560,10 +7613,10 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="321"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="21"/>
       <c r="C32" s="87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="126">
         <v>64</v>
@@ -7589,7 +7642,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="321"/>
+      <c r="A33" s="351"/>
       <c r="B33" s="21"/>
       <c r="C33" s="135" t="s">
         <v>75</v>
@@ -7605,20 +7658,20 @@
       </c>
       <c r="G33" s="248"/>
       <c r="H33" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J33" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K33" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="321"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="45"/>
       <c r="C34" s="22" t="s">
         <v>96</v>
@@ -7630,29 +7683,29 @@
         <v>3</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G34" s="248"/>
       <c r="H34" s="286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I34" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J34" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K34" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1">
-      <c r="A35" s="321"/>
+      <c r="A35" s="351"/>
       <c r="B35" s="45">
         <v>199628</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D35" s="12">
         <v>32</v>
@@ -7661,13 +7714,13 @@
         <v>2</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G35" s="272">
         <v>199629</v>
       </c>
       <c r="H35" s="291" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I35" s="273">
         <v>48</v>
@@ -7678,27 +7731,27 @@
       <c r="K35" s="275"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="321"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="186" t="s">
         <v>114</v>
-      </c>
-      <c r="F36" s="186" t="s">
-        <v>115</v>
       </c>
       <c r="G36" s="269">
         <v>199648</v>
       </c>
       <c r="H36" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I36" s="264">
         <v>48</v>
@@ -7709,7 +7762,7 @@
       <c r="K36" s="234"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="321"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="45"/>
       <c r="C37" s="22"/>
       <c r="D37" s="12"/>
@@ -7722,7 +7775,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1">
-      <c r="A38" s="323"/>
+      <c r="A38" s="352"/>
       <c r="B38" s="26"/>
       <c r="C38" s="297" t="s">
         <v>33</v>
@@ -7739,7 +7792,7 @@
       <c r="K38" s="31"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="320" t="s">
+      <c r="A39" s="350" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="197">
@@ -7772,7 +7825,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="321"/>
+      <c r="A40" s="351"/>
       <c r="B40" s="199">
         <v>310014</v>
       </c>
@@ -7791,20 +7844,20 @@
       </c>
       <c r="G40" s="242"/>
       <c r="H40" s="243" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I40" s="244" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J40" s="245" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K40" s="234" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="321"/>
+      <c r="A41" s="351"/>
       <c r="B41" s="201"/>
       <c r="C41" s="299" t="s">
         <v>37</v>
@@ -7833,27 +7886,27 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" thickBot="1">
-      <c r="A42" s="321"/>
+      <c r="A42" s="351"/>
       <c r="B42" s="203" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F42" s="204" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="203">
         <v>199653</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="12">
         <v>48</v>
@@ -7862,14 +7915,14 @@
         <v>3</v>
       </c>
       <c r="K42" s="204" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="321"/>
+      <c r="A43" s="351"/>
       <c r="B43" s="203"/>
       <c r="C43" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D43" s="12">
         <v>48</v>
@@ -7878,13 +7931,13 @@
         <v>3</v>
       </c>
       <c r="F43" s="204" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="248">
         <v>199626</v>
       </c>
       <c r="H43" s="243" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I43" s="244">
         <v>24</v>
@@ -7897,10 +7950,10 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="321"/>
+      <c r="A44" s="351"/>
       <c r="B44" s="203"/>
       <c r="C44" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" s="12">
         <v>32</v>
@@ -7909,13 +7962,13 @@
         <v>1</v>
       </c>
       <c r="F44" s="204" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="248">
         <v>199627</v>
       </c>
       <c r="H44" s="243" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I44" s="244">
         <v>32</v>
@@ -7928,25 +7981,25 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="321"/>
+      <c r="A45" s="351"/>
       <c r="B45" s="203"/>
       <c r="C45" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="204" t="s">
         <v>114</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="204" t="s">
-        <v>115</v>
       </c>
       <c r="G45" s="248">
         <v>199630</v>
       </c>
       <c r="H45" s="243" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I45" s="244">
         <v>40</v>
@@ -7959,25 +8012,25 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="321"/>
+      <c r="A46" s="351"/>
       <c r="B46" s="205"/>
       <c r="C46" s="146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="194" t="s">
         <v>114</v>
-      </c>
-      <c r="E46" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="194" t="s">
-        <v>115</v>
       </c>
       <c r="G46" s="248">
         <v>199631</v>
       </c>
       <c r="H46" s="243" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I46" s="244">
         <v>16</v>
@@ -7986,48 +8039,48 @@
         <v>0.5</v>
       </c>
       <c r="K46" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="321"/>
+      <c r="A47" s="351"/>
       <c r="B47" s="206" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" s="303" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47" s="207" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" s="242"/>
       <c r="H47" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="14" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="321"/>
+      <c r="A48" s="351"/>
       <c r="B48" s="208"/>
       <c r="C48" s="153" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="196" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="152">
         <v>1</v>
@@ -8042,7 +8095,7 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="321"/>
+      <c r="A49" s="351"/>
       <c r="B49" s="190"/>
       <c r="C49" s="38"/>
       <c r="D49" s="43"/>
@@ -8055,7 +8108,7 @@
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1">
-      <c r="A50" s="323"/>
+      <c r="A50" s="352"/>
       <c r="B50" s="210"/>
       <c r="C50" s="297" t="s">
         <v>39</v>
@@ -8072,7 +8125,7 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="320" t="s">
+      <c r="A51" s="350" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="55">
@@ -8105,7 +8158,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="321"/>
+      <c r="A52" s="351"/>
       <c r="B52" s="59"/>
       <c r="C52" s="142" t="s">
         <v>78</v>
@@ -8123,7 +8176,7 @@
         <v>199625</v>
       </c>
       <c r="H52" s="292" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="268">
         <v>32</v>
@@ -8134,7 +8187,7 @@
       <c r="K52" s="271"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="321"/>
+      <c r="A53" s="351"/>
       <c r="B53" s="59"/>
       <c r="C53" s="135" t="s">
         <v>79</v>
@@ -8152,7 +8205,7 @@
         <v>199624</v>
       </c>
       <c r="H53" s="158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="180">
         <v>48</v>
@@ -8163,7 +8216,7 @@
       <c r="K53" s="257"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="321"/>
+      <c r="A54" s="351"/>
       <c r="B54" s="59"/>
       <c r="C54" s="305" t="s">
         <v>80</v>
@@ -8179,20 +8232,20 @@
       </c>
       <c r="G54" s="269"/>
       <c r="H54" s="263" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I54" s="264" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J54" s="265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K54" s="234" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="321"/>
+      <c r="A55" s="351"/>
       <c r="B55" s="59"/>
       <c r="C55" s="306" t="s">
         <v>81</v>
@@ -8208,20 +8261,20 @@
       </c>
       <c r="G55" s="269"/>
       <c r="H55" s="263" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="264" t="s">
+        <v>113</v>
+      </c>
+      <c r="J55" s="265" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" s="234" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="264" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" s="265" t="s">
-        <v>114</v>
-      </c>
-      <c r="K55" s="234" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="321"/>
+      <c r="A56" s="351"/>
       <c r="B56" s="59"/>
       <c r="C56" s="305" t="s">
         <v>82</v>
@@ -8237,20 +8290,20 @@
       </c>
       <c r="G56" s="269"/>
       <c r="H56" s="263" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" s="264" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" s="265" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56" s="234" t="s">
         <v>114</v>
       </c>
-      <c r="I56" s="264" t="s">
-        <v>114</v>
-      </c>
-      <c r="J56" s="265" t="s">
-        <v>114</v>
-      </c>
-      <c r="K56" s="234" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="321"/>
+      <c r="A57" s="351"/>
       <c r="B57" s="59"/>
       <c r="C57" s="306" t="s">
         <v>83</v>
@@ -8265,42 +8318,42 @@
         <v>76</v>
       </c>
       <c r="G57" s="269" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H57" s="263" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I57" s="264" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J57" s="265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K57" s="234"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="321"/>
+      <c r="A58" s="351"/>
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="43"/>
       <c r="E58" s="61"/>
       <c r="F58" s="36"/>
       <c r="G58" s="269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H58" s="263" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I58" s="264" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J58" s="265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K58" s="234"/>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1">
-      <c r="A59" s="323"/>
+      <c r="A59" s="352"/>
       <c r="B59" s="26"/>
       <c r="C59" s="297" t="s">
         <v>42</v>
@@ -8317,7 +8370,7 @@
       <c r="K59" s="234"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="321" t="s">
+      <c r="A60" s="351" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="55"/>
@@ -8348,7 +8401,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="321"/>
+      <c r="A61" s="351"/>
       <c r="B61" s="105"/>
       <c r="C61" s="299" t="s">
         <v>45</v>
@@ -8377,7 +8430,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="321"/>
+      <c r="A62" s="351"/>
       <c r="B62" s="21"/>
       <c r="C62" s="151" t="s">
         <v>84</v>
@@ -8408,23 +8461,23 @@
     <row r="63" spans="1:11">
       <c r="A63" s="178"/>
       <c r="B63" s="203" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="F63" s="186"/>
       <c r="G63" s="269">
         <v>199173</v>
       </c>
       <c r="H63" s="263" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I63" s="264">
         <v>32</v>
@@ -8437,10 +8490,10 @@
     <row r="64" spans="1:11">
       <c r="A64" s="178"/>
       <c r="B64" s="203" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="12">
         <v>48</v>
@@ -8453,7 +8506,7 @@
         <v>199621</v>
       </c>
       <c r="H64" s="263" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I64" s="264">
         <v>32</v>
@@ -8466,10 +8519,10 @@
     <row r="65" spans="1:11">
       <c r="A65" s="178"/>
       <c r="B65" s="203" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" s="12">
         <v>32</v>
@@ -8482,7 +8535,7 @@
         <v>199622</v>
       </c>
       <c r="H65" s="263" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I65" s="264">
         <v>32</v>
@@ -8503,7 +8556,7 @@
         <v>199641</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I66" s="12">
         <v>32</v>
@@ -8525,21 +8578,21 @@
         <v>20</v>
       </c>
       <c r="G67" s="269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H67" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I67" s="180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J67" s="180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K67" s="257"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="320" t="s">
+      <c r="A68" s="350" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="105"/>
@@ -8570,7 +8623,7 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="321"/>
+      <c r="A69" s="351"/>
       <c r="B69" s="105"/>
       <c r="C69" s="299" t="s">
         <v>51</v>
@@ -8599,7 +8652,7 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="321"/>
+      <c r="A70" s="351"/>
       <c r="B70" s="106"/>
       <c r="C70" s="308" t="s">
         <v>52</v>
@@ -8612,23 +8665,23 @@
         <v>32</v>
       </c>
       <c r="G70" s="269" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="H70" s="168" t="s">
-        <v>115</v>
-      </c>
       <c r="I70" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J70" s="170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K70" s="226" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="321"/>
+      <c r="A71" s="351"/>
       <c r="B71" s="106"/>
       <c r="C71" s="308" t="s">
         <v>53</v>
@@ -8641,110 +8694,110 @@
         <v>32</v>
       </c>
       <c r="G71" s="269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H71" s="171" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I71" s="172" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J71" s="173" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="K71" s="164" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="321"/>
+      <c r="A72" s="351"/>
       <c r="B72" s="21"/>
       <c r="C72" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="269" t="s">
+        <v>117</v>
+      </c>
+      <c r="H72" s="158" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="H72" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="I72" s="180" t="s">
-        <v>119</v>
-      </c>
       <c r="J72" s="180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K72" s="257"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="321"/>
+      <c r="A73" s="351"/>
       <c r="B73" s="21"/>
       <c r="C73" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F73" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" s="269" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" s="158" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="G73" s="269" t="s">
-        <v>160</v>
-      </c>
-      <c r="H73" s="158" t="s">
-        <v>114</v>
-      </c>
-      <c r="I73" s="180" t="s">
-        <v>119</v>
-      </c>
       <c r="J73" s="180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K73" s="257"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="321"/>
+      <c r="A74" s="351"/>
       <c r="B74" s="21"/>
       <c r="C74" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E74" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="269" t="s">
+        <v>160</v>
+      </c>
+      <c r="H74" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G74" s="269" t="s">
-        <v>161</v>
-      </c>
-      <c r="H74" s="158" t="s">
-        <v>130</v>
-      </c>
-      <c r="I74" s="180" t="s">
-        <v>119</v>
-      </c>
       <c r="J74" s="180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K74" s="257"/>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1">
-      <c r="A75" s="323"/>
+      <c r="A75" s="352"/>
       <c r="B75" s="21"/>
       <c r="C75" s="38"/>
       <c r="D75" s="43"/>
@@ -8754,7 +8807,7 @@
         <v>199650</v>
       </c>
       <c r="H75" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I75" s="72">
         <v>24</v>
@@ -8894,10 +8947,10 @@
       <c r="K82" s="99"/>
     </row>
     <row r="83" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A83" s="324">
+      <c r="A83" s="353">
         <v>2</v>
       </c>
-      <c r="B83" s="328" t="s">
+      <c r="B83" s="357" t="s">
         <v>59</v>
       </c>
       <c r="C83" s="299" t="s">
@@ -8916,8 +8969,8 @@
       <c r="K83" s="94"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="325"/>
-      <c r="B84" s="329"/>
+      <c r="A84" s="354"/>
+      <c r="B84" s="358"/>
       <c r="C84" s="299" t="s">
         <v>61</v>
       </c>
@@ -8931,8 +8984,8 @@
       <c r="K84" s="94"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="326"/>
-      <c r="B85" s="330"/>
+      <c r="A85" s="355"/>
+      <c r="B85" s="359"/>
       <c r="C85" s="310" t="s">
         <v>62</v>
       </c>
@@ -8949,10 +9002,10 @@
       <c r="K85" s="94"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="324">
+      <c r="A86" s="353">
         <v>3</v>
       </c>
-      <c r="B86" s="331" t="s">
+      <c r="B86" s="360" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="70" t="s">
@@ -8976,8 +9029,8 @@
       <c r="K86" s="94"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="326"/>
-      <c r="B87" s="332"/>
+      <c r="A87" s="355"/>
+      <c r="B87" s="361"/>
       <c r="C87" s="70" t="s">
         <v>65</v>
       </c>
@@ -8996,30 +9049,30 @@
       </c>
       <c r="I87" s="116"/>
       <c r="J87" s="116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K87" s="94"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="324" t="s">
+      <c r="A88" s="353" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="356" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="160" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" s="327" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="160" t="s">
-        <v>170</v>
       </c>
       <c r="D88" s="52"/>
       <c r="E88" s="100" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" s="160" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" s="52"/>
       <c r="H88" s="100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I88" s="116"/>
       <c r="J88" s="174" t="s">
@@ -9028,21 +9081,21 @@
       <c r="K88" s="94"/>
     </row>
     <row r="89" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A89" s="325"/>
-      <c r="B89" s="327"/>
+      <c r="A89" s="354"/>
+      <c r="B89" s="356"/>
       <c r="C89" s="161" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D89" s="52"/>
       <c r="E89" s="100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F89" s="161" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" s="52"/>
       <c r="H89" s="100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I89" s="116"/>
       <c r="J89" s="174" t="s">
@@ -9051,14 +9104,14 @@
       <c r="K89" s="94"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="326"/>
-      <c r="B90" s="327"/>
+      <c r="A90" s="355"/>
+      <c r="B90" s="356"/>
       <c r="C90" s="153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" s="52"/>
       <c r="E90" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F90" s="70"/>
       <c r="G90" s="52"/>
@@ -9126,34 +9179,34 @@
       <c r="J94" s="94"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="333" t="s">
+      <c r="A95" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="334"/>
-      <c r="C95" s="335" t="s">
+      <c r="B95" s="312"/>
+      <c r="C95" s="341" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="342"/>
+      <c r="E95" s="343"/>
+      <c r="F95" s="341" t="s">
+        <v>188</v>
+      </c>
+      <c r="G95" s="342"/>
+      <c r="H95" s="343"/>
+      <c r="I95" s="344" t="s">
         <v>189</v>
       </c>
-      <c r="D95" s="336"/>
-      <c r="E95" s="337"/>
-      <c r="F95" s="335" t="s">
+      <c r="J95" s="344"/>
+      <c r="K95" s="345"/>
+    </row>
+    <row r="96" spans="1:11" ht="26">
+      <c r="A96" s="313">
+        <v>1</v>
+      </c>
+      <c r="B96" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="G95" s="336"/>
-      <c r="H95" s="337"/>
-      <c r="I95" s="338" t="s">
-        <v>191</v>
-      </c>
-      <c r="J95" s="338"/>
-      <c r="K95" s="339"/>
-    </row>
-    <row r="96" spans="1:11" ht="26">
-      <c r="A96" s="340">
-        <v>1</v>
-      </c>
-      <c r="B96" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" s="341" t="s">
+      <c r="C96" s="314" t="s">
         <v>57</v>
       </c>
       <c r="D96" s="97">
@@ -9164,129 +9217,129 @@
         <f>SUM(E39:E40,E47:E49,E55:E56,E63:E64)</f>
         <v>16</v>
       </c>
-      <c r="F96" s="342" t="s">
+      <c r="F96" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="G96" s="343">
+      <c r="G96" s="316">
         <f>SUM(D41:D43,D71,D79)</f>
         <v>48</v>
       </c>
-      <c r="H96" s="344">
+      <c r="H96" s="317">
         <f>SUM(E41:E43,E71,E79)</f>
         <v>5</v>
       </c>
-      <c r="I96" s="345" t="s">
-        <v>193</v>
-      </c>
-      <c r="J96" s="346"/>
-      <c r="K96" s="347"/>
+      <c r="I96" s="346" t="s">
+        <v>191</v>
+      </c>
+      <c r="J96" s="347"/>
+      <c r="K96" s="348"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="348">
+      <c r="A97" s="333">
         <v>2</v>
       </c>
       <c r="B97" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="350"/>
-      <c r="D97" s="350"/>
-      <c r="E97" s="350"/>
-      <c r="F97" s="351" t="s">
+      <c r="C97" s="318"/>
+      <c r="D97" s="318"/>
+      <c r="E97" s="318"/>
+      <c r="F97" s="319" t="s">
         <v>60</v>
       </c>
-      <c r="G97" s="350"/>
-      <c r="H97" s="352">
+      <c r="G97" s="318"/>
+      <c r="H97" s="320">
         <f>SUM(E50,E80,E86:E88,E90)</f>
         <v>44</v>
       </c>
-      <c r="I97" s="353"/>
-      <c r="J97" s="353"/>
-      <c r="K97" s="354"/>
+      <c r="I97" s="337"/>
+      <c r="J97" s="337"/>
+      <c r="K97" s="338"/>
     </row>
     <row r="98" spans="1:11" ht="26">
-      <c r="A98" s="348"/>
-      <c r="B98" s="355"/>
-      <c r="C98" s="356"/>
-      <c r="D98" s="357"/>
-      <c r="E98" s="357"/>
-      <c r="F98" s="358" t="s">
+      <c r="A98" s="333"/>
+      <c r="B98" s="334"/>
+      <c r="C98" s="321"/>
+      <c r="D98" s="322"/>
+      <c r="E98" s="322"/>
+      <c r="F98" s="323" t="s">
+        <v>192</v>
+      </c>
+      <c r="G98" s="322"/>
+      <c r="H98" s="322"/>
+      <c r="I98" s="337"/>
+      <c r="J98" s="337"/>
+      <c r="K98" s="338"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="333">
+        <v>3</v>
+      </c>
+      <c r="B99" s="334" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="G98" s="357"/>
-      <c r="H98" s="357"/>
-      <c r="I98" s="353"/>
-      <c r="J98" s="353"/>
-      <c r="K98" s="354"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="348">
-        <v>3</v>
-      </c>
-      <c r="B99" s="355" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="359" t="s">
-        <v>196</v>
-      </c>
-      <c r="D99" s="360"/>
-      <c r="E99" s="361">
+      <c r="D99" s="325"/>
+      <c r="E99" s="326">
         <f>SUM(E44)</f>
         <v>1</v>
       </c>
-      <c r="F99" s="362" t="s">
+      <c r="F99" s="327" t="s">
+        <v>195</v>
+      </c>
+      <c r="G99" s="328"/>
+      <c r="H99" s="328"/>
+      <c r="I99" s="335"/>
+      <c r="J99" s="335"/>
+      <c r="K99" s="336"/>
+    </row>
+    <row r="100" spans="1:11" ht="26">
+      <c r="A100" s="333"/>
+      <c r="B100" s="334"/>
+      <c r="C100" s="324" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="325"/>
+      <c r="E100" s="326"/>
+      <c r="F100" s="329" t="s">
         <v>197</v>
-      </c>
-      <c r="G99" s="363"/>
-      <c r="H99" s="363"/>
-      <c r="I99" s="364"/>
-      <c r="J99" s="364"/>
-      <c r="K99" s="365"/>
-    </row>
-    <row r="100" spans="1:11" ht="26">
-      <c r="A100" s="348"/>
-      <c r="B100" s="355"/>
-      <c r="C100" s="359" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100" s="360"/>
-      <c r="E100" s="361"/>
-      <c r="F100" s="366" t="s">
-        <v>199</v>
       </c>
       <c r="G100" s="52"/>
       <c r="H100" s="100"/>
-      <c r="I100" s="353"/>
-      <c r="J100" s="353"/>
-      <c r="K100" s="354"/>
+      <c r="I100" s="337"/>
+      <c r="J100" s="337"/>
+      <c r="K100" s="338"/>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1">
-      <c r="A101" s="367" t="s">
+      <c r="A101" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="368">
+      <c r="B101" s="331">
         <v>140</v>
       </c>
-      <c r="C101" s="369">
+      <c r="C101" s="332">
         <f>24+10+3+32+15</f>
         <v>84</v>
       </c>
-      <c r="D101" s="369"/>
-      <c r="E101" s="368">
+      <c r="D101" s="332"/>
+      <c r="E101" s="331">
         <f>SUM(E96:E99)</f>
         <v>17</v>
       </c>
-      <c r="F101" s="369">
+      <c r="F101" s="332">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G101" s="369"/>
-      <c r="H101" s="368">
+      <c r="G101" s="332"/>
+      <c r="H101" s="331">
         <f>SUM(H96:H100)</f>
         <v>49</v>
       </c>
-      <c r="I101" s="370"/>
-      <c r="J101" s="370"/>
-      <c r="K101" s="371"/>
+      <c r="I101" s="339"/>
+      <c r="J101" s="339"/>
+      <c r="K101" s="340"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="93"/>
@@ -9308,16 +9361,16 @@
       <c r="D103" s="94"/>
       <c r="E103" s="94"/>
       <c r="F103" s="94" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" s="94"/>
       <c r="H103" s="95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I103" s="94"/>
       <c r="J103" s="94"/>
       <c r="K103" s="94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -9334,11 +9387,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A83:A85"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="F95:H95"/>
     <mergeCell ref="I95:K95"/>
@@ -9347,23 +9412,11 @@
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="I97:K97"/>
     <mergeCell ref="I98:K98"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="I101:K101"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="241">
   <si>
     <t>学期</t>
   </si>
@@ -1446,6 +1446,10 @@
   <si>
     <t>软件工程实验</t>
     <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业必修</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
 </file>
@@ -2534,7 +2538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2542,6 +2546,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4365,7 +4411,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="159">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -4439,6 +4485,13 @@
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -4510,6 +4563,13 @@
     <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4862,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5330,11 +5390,21 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="350"/>
-      <c r="B18" s="416"/>
-      <c r="C18" s="417"/>
-      <c r="D18" s="418"/>
-      <c r="E18" s="418"/>
-      <c r="F18" s="419"/>
+      <c r="B18" s="203">
+        <v>199645</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="12">
+        <v>32</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="408" t="s">
+        <v>232</v>
+      </c>
       <c r="G18" s="451"/>
       <c r="H18" s="286" t="s">
         <v>71</v>
@@ -5387,21 +5457,6 @@
       <c r="D20" s="431"/>
       <c r="E20" s="430"/>
       <c r="F20" s="455"/>
-      <c r="G20" s="453">
-        <v>199645</v>
-      </c>
-      <c r="H20" s="266" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" s="237">
-        <v>32</v>
-      </c>
-      <c r="J20" s="177">
-        <v>2</v>
-      </c>
-      <c r="K20" s="407" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
       <c r="A21" s="352"/>
@@ -6182,6 +6237,21 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="350"/>
+      <c r="B48" s="203">
+        <v>199783</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="12">
+        <v>48</v>
+      </c>
+      <c r="E48" s="13">
+        <v>3</v>
+      </c>
+      <c r="F48" s="408" t="s">
+        <v>232</v>
+      </c>
       <c r="G48" s="406"/>
       <c r="H48" s="266" t="s">
         <v>223</v>
@@ -6198,6 +6268,21 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="121"/>
+      <c r="B49" s="203">
+        <v>199784</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="12">
+        <v>32</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
+      <c r="F49" s="408" t="s">
+        <v>232</v>
+      </c>
       <c r="G49" s="269">
         <v>199173</v>
       </c>
@@ -6284,21 +6369,6 @@
       <c r="D53" s="458"/>
       <c r="E53" s="459"/>
       <c r="F53" s="460"/>
-      <c r="G53" s="203">
-        <v>199783</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="12">
-        <v>48</v>
-      </c>
-      <c r="J53" s="13">
-        <v>3</v>
-      </c>
-      <c r="K53" s="408" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="338"/>
@@ -6307,21 +6377,6 @@
       <c r="D54" s="458"/>
       <c r="E54" s="459"/>
       <c r="F54" s="460"/>
-      <c r="G54" s="203">
-        <v>199784</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="12">
-        <v>32</v>
-      </c>
-      <c r="J54" s="13">
-        <v>1</v>
-      </c>
-      <c r="K54" s="408" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="55" spans="1:11" ht="15" thickBot="1">
       <c r="A55" s="67"/>
@@ -6637,7 +6692,7 @@
       <c r="D66" s="81"/>
       <c r="E66" s="81">
         <f>SUM(E4:E65)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F66" s="82">
         <f>SUM(F4:F65)</f>
@@ -6648,7 +6703,7 @@
       <c r="I66" s="81"/>
       <c r="J66" s="83">
         <f>SUM(J4:J65)</f>
-        <v>82.5</v>
+        <v>76.5</v>
       </c>
       <c r="K66" s="84"/>
     </row>
@@ -6822,7 +6877,7 @@
       </c>
       <c r="D76" s="325"/>
       <c r="E76" s="326">
-        <f>SUM(E9+E12+E17+E24+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+J53+J54)</f>
+        <f>SUM(E9+E12+E17+E24+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+E48+E49)</f>
         <v>42</v>
       </c>
       <c r="F76" s="327" t="s">
@@ -6965,10 +7020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6976,7 +7031,7 @@
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="103" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" style="115" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="103" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="103" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="103" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" style="103" customWidth="1"/>
@@ -7449,7 +7504,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="234" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -7465,361 +7520,351 @@
         <v>3</v>
       </c>
       <c r="F20" s="234" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="453">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="350"/>
+      <c r="B21" s="193">
         <v>199645</v>
       </c>
-      <c r="H20" s="266" t="s">
+      <c r="C21" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="I20" s="237">
+      <c r="D21" s="23">
         <v>32</v>
       </c>
-      <c r="J20" s="177">
+      <c r="E21" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="407" t="s">
+      <c r="F21" s="402" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="352"/>
-      <c r="B21" s="210"/>
-      <c r="C21" s="379" t="s">
+      <c r="G21" s="453"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="237"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="407"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1">
+      <c r="A22" s="352"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="379" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="411" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="380"/>
+      <c r="F22" s="411" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="453">
+      <c r="G22" s="453">
         <v>199639</v>
       </c>
-      <c r="H21" s="266" t="s">
+      <c r="H22" s="266" t="s">
         <v>233</v>
       </c>
-      <c r="I21" s="237" t="s">
+      <c r="I22" s="237" t="s">
         <v>231</v>
       </c>
-      <c r="J21" s="177">
+      <c r="J22" s="177">
         <v>3</v>
       </c>
-      <c r="K21" s="407" t="s">
+      <c r="K22" s="407" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="349" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" s="349" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="197">
+      <c r="B23" s="197">
         <v>309003</v>
       </c>
-      <c r="C22" s="302" t="s">
+      <c r="C23" s="302" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>36</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>2</v>
       </c>
-      <c r="F22" s="198" t="s">
+      <c r="F23" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="188"/>
-      <c r="H22" s="290" t="s">
+      <c r="G23" s="188"/>
+      <c r="H23" s="290" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="229">
+      <c r="I23" s="229">
         <v>68</v>
       </c>
-      <c r="J22" s="230">
+      <c r="J23" s="230">
         <v>3</v>
       </c>
-      <c r="K22" s="231" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="350"/>
-      <c r="B23" s="199">
-        <v>310015</v>
-      </c>
-      <c r="C23" s="294" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="9">
-        <f>18*E23</f>
-        <v>36</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2</v>
-      </c>
-      <c r="F23" s="200" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="191"/>
-      <c r="H23" s="286" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="232">
-        <v>40</v>
-      </c>
-      <c r="J23" s="235">
-        <v>2.5</v>
-      </c>
-      <c r="K23" s="234" t="s">
+      <c r="K23" s="231" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="350"/>
-      <c r="B24" s="193">
-        <v>199654</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="23">
-        <v>48</v>
-      </c>
-      <c r="E24" s="13">
-        <v>3</v>
-      </c>
-      <c r="F24" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="406">
-        <v>199629</v>
-      </c>
-      <c r="H24" s="266" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" s="237">
-        <v>48</v>
-      </c>
-      <c r="J24" s="177">
-        <v>3</v>
-      </c>
-      <c r="K24" s="407"/>
+      <c r="B24" s="199">
+        <v>310015</v>
+      </c>
+      <c r="C24" s="294" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9">
+        <f>18*E24</f>
+        <v>36</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="191"/>
+      <c r="H24" s="286" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="232">
+        <v>40</v>
+      </c>
+      <c r="J24" s="235">
+        <v>2.5</v>
+      </c>
+      <c r="K24" s="234" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="350"/>
-      <c r="B25" s="412">
-        <v>199655</v>
-      </c>
-      <c r="C25" s="430" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="413">
-        <v>32</v>
-      </c>
-      <c r="E25" s="431">
-        <v>1</v>
-      </c>
-      <c r="F25" s="430" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="406"/>
+      <c r="B25" s="193">
+        <v>199654</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="23">
+        <v>48</v>
+      </c>
+      <c r="E25" s="13">
+        <v>3</v>
+      </c>
+      <c r="F25" s="402" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="406">
+        <v>199629</v>
+      </c>
       <c r="H25" s="266" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="I25" s="237">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J25" s="177">
-        <v>1</v>
-      </c>
-      <c r="K25" s="407" t="s">
-        <v>219</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K25" s="407"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="350"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="23">
-        <v>64</v>
-      </c>
-      <c r="E26" s="13">
-        <v>4</v>
-      </c>
-      <c r="F26" s="402" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="403"/>
-      <c r="H26" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="238">
-        <v>16</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="B26" s="412">
+        <v>199655</v>
+      </c>
+      <c r="C26" s="430" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="413">
+        <v>32</v>
+      </c>
+      <c r="E26" s="431">
         <v>1</v>
       </c>
-      <c r="K26" s="219" t="s">
-        <v>15</v>
+      <c r="F26" s="430" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="406"/>
+      <c r="H26" s="266" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="237">
+        <v>32</v>
+      </c>
+      <c r="J26" s="177">
+        <v>1</v>
+      </c>
+      <c r="K26" s="407" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="350"/>
       <c r="B27" s="193"/>
-      <c r="C27" s="430" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="413">
-        <v>32</v>
-      </c>
-      <c r="E27" s="431">
+      <c r="C27" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="23">
+        <v>64</v>
+      </c>
+      <c r="E27" s="13">
+        <v>4</v>
+      </c>
+      <c r="F27" s="402" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="403"/>
+      <c r="H27" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="238">
+        <v>16</v>
+      </c>
+      <c r="J27" s="16">
         <v>1</v>
       </c>
-      <c r="F27" s="430" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="269">
-        <v>199628</v>
-      </c>
-      <c r="H27" s="461" t="s">
-        <v>236</v>
-      </c>
-      <c r="I27" s="264">
-        <v>32</v>
-      </c>
-      <c r="J27" s="265">
-        <v>2</v>
-      </c>
-      <c r="K27" s="234" t="s">
-        <v>93</v>
+      <c r="K27" s="219" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="350"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="430" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="413">
+        <v>32</v>
+      </c>
+      <c r="E28" s="431">
+        <v>1</v>
+      </c>
+      <c r="F28" s="430" t="s">
+        <v>76</v>
+      </c>
       <c r="G28" s="269">
-        <v>199648</v>
-      </c>
-      <c r="H28" s="263" t="s">
-        <v>151</v>
+        <v>199628</v>
+      </c>
+      <c r="H28" s="461" t="s">
+        <v>236</v>
       </c>
       <c r="I28" s="264">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J28" s="265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="234" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1">
-      <c r="A29" s="352"/>
-      <c r="B29" s="210"/>
-      <c r="C29" s="297" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="350"/>
+      <c r="G29" s="269">
+        <v>199648</v>
+      </c>
+      <c r="H29" s="263" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="264">
+        <v>48</v>
+      </c>
+      <c r="J29" s="265">
+        <v>3</v>
+      </c>
+      <c r="K29" s="234" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1">
+      <c r="A30" s="352"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="211" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="203"/>
-      <c r="H29" s="22" t="s">
+      <c r="G30" s="203"/>
+      <c r="H30" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I30" s="12">
         <v>48</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="13">
         <v>3</v>
       </c>
-      <c r="K29" s="408" t="s">
+      <c r="K30" s="408" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="349" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="197">
+      <c r="B31" s="197">
         <v>3009004</v>
       </c>
-      <c r="C30" s="414" t="s">
+      <c r="C31" s="414" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>36</v>
       </c>
-      <c r="E30" s="415">
+      <c r="E31" s="415">
         <v>2</v>
       </c>
-      <c r="F30" s="198" t="s">
+      <c r="F31" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="239"/>
-      <c r="H30" s="240" t="s">
+      <c r="G31" s="239"/>
+      <c r="H31" s="240" t="s">
         <v>99</v>
       </c>
-      <c r="I30" s="229">
+      <c r="I31" s="229">
         <v>64</v>
       </c>
-      <c r="J30" s="241">
+      <c r="J31" s="241">
         <v>3</v>
       </c>
-      <c r="K30" s="231" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="350"/>
-      <c r="B31" s="199">
-        <v>3100014</v>
-      </c>
-      <c r="C31" s="397" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="9">
-        <f>18*E31</f>
-        <v>108</v>
-      </c>
-      <c r="E31" s="398">
-        <v>6</v>
-      </c>
-      <c r="F31" s="200" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="269">
-        <v>199653</v>
-      </c>
-      <c r="H31" s="400" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="462">
-        <v>48</v>
-      </c>
-      <c r="J31" s="463">
-        <v>3</v>
-      </c>
-      <c r="K31" s="234" t="s">
+      <c r="K31" s="231" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="350"/>
+      <c r="B32" s="199">
+        <v>3100014</v>
+      </c>
+      <c r="C32" s="397" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="9">
+        <f>18*E32</f>
+        <v>108</v>
+      </c>
+      <c r="E32" s="398">
+        <v>6</v>
+      </c>
+      <c r="F32" s="200" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="269">
-        <v>199626</v>
-      </c>
-      <c r="H32" s="399" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="244">
-        <v>24</v>
-      </c>
-      <c r="J32" s="245">
-        <v>1.5</v>
+        <v>199653</v>
+      </c>
+      <c r="H32" s="400" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="462">
+        <v>48</v>
+      </c>
+      <c r="J32" s="463">
+        <v>3</v>
       </c>
       <c r="K32" s="234" t="s">
         <v>93</v>
@@ -7827,17 +7872,30 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="350"/>
+      <c r="B33" s="203" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="12">
+        <v>48</v>
+      </c>
+      <c r="E33" s="13">
+        <v>3</v>
+      </c>
+      <c r="F33" s="186"/>
       <c r="G33" s="269">
-        <v>199627</v>
+        <v>199626</v>
       </c>
       <c r="H33" s="399" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I33" s="244">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J33" s="245">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K33" s="234" t="s">
         <v>93</v>
@@ -7845,22 +7903,30 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="350"/>
-      <c r="B34" s="416"/>
-      <c r="C34" s="417"/>
-      <c r="D34" s="418"/>
-      <c r="E34" s="418"/>
-      <c r="F34" s="419"/>
+      <c r="B34" s="203" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="12">
+        <v>32</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="186"/>
       <c r="G34" s="269">
-        <v>199630</v>
+        <v>199627</v>
       </c>
       <c r="H34" s="399" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="I34" s="244">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J34" s="245">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K34" s="234" t="s">
         <v>93</v>
@@ -7874,182 +7940,176 @@
       <c r="E35" s="418"/>
       <c r="F35" s="419"/>
       <c r="G35" s="269">
-        <v>199631</v>
-      </c>
-      <c r="H35" s="243" t="s">
-        <v>142</v>
+        <v>199630</v>
+      </c>
+      <c r="H35" s="399" t="s">
+        <v>143</v>
       </c>
       <c r="I35" s="244">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J35" s="245">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="K35" s="234" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="352"/>
-      <c r="B36" s="210"/>
-      <c r="C36" s="297" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="350"/>
+      <c r="B36" s="416"/>
+      <c r="C36" s="417"/>
+      <c r="D36" s="418"/>
+      <c r="E36" s="418"/>
+      <c r="F36" s="419"/>
+      <c r="G36" s="269">
+        <v>199631</v>
+      </c>
+      <c r="H36" s="243" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="244">
+        <v>16</v>
+      </c>
+      <c r="J36" s="245">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="234" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1">
+      <c r="A37" s="352"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="297" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="211" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="433">
+      <c r="G37" s="433">
         <v>199641</v>
       </c>
-      <c r="H36" s="434" t="s">
+      <c r="H37" s="434" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="435">
+      <c r="I37" s="435">
         <v>32</v>
       </c>
-      <c r="J36" s="274">
+      <c r="J37" s="274">
         <v>2</v>
       </c>
-      <c r="K36" s="436" t="s">
+      <c r="K37" s="436" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="349" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="349" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="420">
+      <c r="B38" s="420">
         <v>3300003</v>
       </c>
-      <c r="C37" s="421" t="s">
+      <c r="C38" s="421" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="422">
+      <c r="D38" s="422">
         <v>18</v>
       </c>
-      <c r="E37" s="423">
+      <c r="E38" s="423">
         <v>1</v>
       </c>
-      <c r="F37" s="424" t="s">
+      <c r="F38" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="437"/>
-      <c r="H37" s="290" t="s">
+      <c r="G38" s="437"/>
+      <c r="H38" s="290" t="s">
         <v>100</v>
       </c>
-      <c r="I37" s="229">
+      <c r="I38" s="229">
         <v>32</v>
       </c>
-      <c r="J37" s="230">
+      <c r="J38" s="230">
         <v>2</v>
       </c>
-      <c r="K37" s="231" t="s">
+      <c r="K38" s="231" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="350"/>
-      <c r="B38" s="425"/>
-      <c r="C38" s="426" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="427">
-        <v>48</v>
-      </c>
-      <c r="E38" s="428">
-        <v>3</v>
-      </c>
-      <c r="F38" s="402" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="270">
-        <v>199625</v>
-      </c>
-      <c r="H38" s="292" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="268">
-        <v>32</v>
-      </c>
-      <c r="J38" s="177">
-        <v>2</v>
-      </c>
-      <c r="K38" s="271"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="350"/>
       <c r="B39" s="425"/>
-      <c r="C39" s="430" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="413">
+      <c r="C39" s="426" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="427">
+        <v>48</v>
+      </c>
+      <c r="E39" s="428">
+        <v>3</v>
+      </c>
+      <c r="F39" s="402" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="270">
+        <v>199625</v>
+      </c>
+      <c r="H39" s="292" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="268">
         <v>32</v>
       </c>
-      <c r="E39" s="431">
-        <v>1</v>
-      </c>
-      <c r="F39" s="430" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="269">
-        <v>199624</v>
-      </c>
-      <c r="H39" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39" s="334">
-        <v>48</v>
-      </c>
-      <c r="J39" s="334">
-        <v>3</v>
-      </c>
-      <c r="K39" s="335"/>
+      <c r="J39" s="177">
+        <v>2</v>
+      </c>
+      <c r="K39" s="271"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="350"/>
       <c r="B40" s="425"/>
-      <c r="C40" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="12">
-        <v>64</v>
-      </c>
-      <c r="E40" s="429">
-        <v>4</v>
-      </c>
-      <c r="F40" s="402" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="269"/>
-      <c r="H40" s="263" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="264" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" s="265" t="s">
-        <v>110</v>
-      </c>
-      <c r="K40" s="234" t="s">
-        <v>110</v>
-      </c>
+      <c r="C40" s="430" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="413">
+        <v>32</v>
+      </c>
+      <c r="E40" s="431">
+        <v>1</v>
+      </c>
+      <c r="F40" s="430" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="269">
+        <v>199624</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="334">
+        <v>48</v>
+      </c>
+      <c r="J40" s="334">
+        <v>3</v>
+      </c>
+      <c r="K40" s="335"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="350"/>
       <c r="B41" s="425"/>
-      <c r="C41" s="430" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="413">
-        <v>40</v>
-      </c>
-      <c r="E41" s="431">
-        <v>1</v>
-      </c>
-      <c r="F41" s="430" t="s">
-        <v>227</v>
+      <c r="C41" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="12">
+        <v>64</v>
+      </c>
+      <c r="E41" s="429">
+        <v>4</v>
+      </c>
+      <c r="F41" s="402" t="s">
+        <v>11</v>
       </c>
       <c r="G41" s="269"/>
       <c r="H41" s="263" t="s">
@@ -8062,23 +8122,23 @@
         <v>110</v>
       </c>
       <c r="K41" s="234" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="350"/>
       <c r="B42" s="425"/>
-      <c r="C42" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="12">
-        <v>48</v>
-      </c>
-      <c r="E42" s="429">
-        <v>3</v>
-      </c>
-      <c r="F42" s="402" t="s">
-        <v>11</v>
+      <c r="C42" s="430" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="413">
+        <v>40</v>
+      </c>
+      <c r="E42" s="431">
+        <v>1</v>
+      </c>
+      <c r="F42" s="430" t="s">
+        <v>227</v>
       </c>
       <c r="G42" s="269"/>
       <c r="H42" s="263" t="s">
@@ -8097,23 +8157,21 @@
     <row r="43" spans="1:11">
       <c r="A43" s="350"/>
       <c r="B43" s="425"/>
-      <c r="C43" s="430" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="413">
-        <v>16</v>
-      </c>
-      <c r="E43" s="431">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="430" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="269" t="s">
+      <c r="C43" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="12">
+        <v>48</v>
+      </c>
+      <c r="E43" s="429">
+        <v>3</v>
+      </c>
+      <c r="F43" s="402" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="269"/>
+      <c r="H43" s="263" t="s">
         <v>110</v>
-      </c>
-      <c r="H43" s="263" t="s">
-        <v>160</v>
       </c>
       <c r="I43" s="264" t="s">
         <v>110</v>
@@ -8121,20 +8179,30 @@
       <c r="J43" s="265" t="s">
         <v>110</v>
       </c>
-      <c r="K43" s="234"/>
+      <c r="K43" s="234" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="350"/>
       <c r="B44" s="425"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="410"/>
+      <c r="C44" s="430" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="413">
+        <v>16</v>
+      </c>
+      <c r="E44" s="431">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="430" t="s">
+        <v>229</v>
+      </c>
       <c r="G44" s="269" t="s">
         <v>110</v>
       </c>
       <c r="H44" s="263" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="I44" s="264" t="s">
         <v>110</v>
@@ -8144,161 +8212,161 @@
       </c>
       <c r="K44" s="234"/>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="352"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="297" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="350"/>
+      <c r="B45" s="425"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="410"/>
+      <c r="G45" s="269" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="263" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="264" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="265" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" s="234"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" thickBot="1">
+      <c r="A46" s="352"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="297" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="432" t="s">
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="432" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="404"/>
-      <c r="H45" s="438"/>
-      <c r="I45" s="439"/>
-      <c r="J45" s="440"/>
-      <c r="K45" s="405"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="350" t="s">
+      <c r="G46" s="404"/>
+      <c r="H46" s="438"/>
+      <c r="I46" s="439"/>
+      <c r="J46" s="440"/>
+      <c r="K46" s="405"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="350" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="420">
+      <c r="B47" s="420">
         <v>3300005</v>
       </c>
-      <c r="C46" s="445" t="s">
+      <c r="C47" s="445" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="422">
+      <c r="D47" s="422">
         <v>18</v>
       </c>
-      <c r="E46" s="423">
+      <c r="E47" s="423">
         <v>1</v>
       </c>
-      <c r="F46" s="424" t="s">
+      <c r="F47" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="188"/>
-      <c r="H46" s="290" t="s">
+      <c r="G47" s="188"/>
+      <c r="H47" s="290" t="s">
         <v>89</v>
       </c>
-      <c r="I46" s="229">
+      <c r="I47" s="229">
         <v>16</v>
       </c>
-      <c r="J46" s="229">
+      <c r="J47" s="229">
         <v>1</v>
       </c>
-      <c r="K46" s="231" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="350"/>
-      <c r="B47" s="446">
-        <v>1900103</v>
-      </c>
-      <c r="C47" s="319" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="318" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="447">
-        <v>1</v>
-      </c>
-      <c r="F47" s="448" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" s="262"/>
-      <c r="H47" s="263" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="264">
-        <v>48</v>
-      </c>
-      <c r="J47" s="265">
-        <v>3</v>
-      </c>
-      <c r="K47" s="234" t="s">
+      <c r="K47" s="231" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="350"/>
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="446">
+        <v>1900103</v>
+      </c>
+      <c r="C48" s="319" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="318" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="447">
+        <v>1</v>
+      </c>
+      <c r="F48" s="448" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="262"/>
+      <c r="H48" s="263" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" s="264">
+        <v>48</v>
+      </c>
+      <c r="J48" s="265">
+        <v>3</v>
+      </c>
+      <c r="K48" s="234" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="350"/>
+      <c r="B49" s="203" t="s">
         <v>237</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>48</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>3</v>
-      </c>
-      <c r="F48" s="408" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="406"/>
-      <c r="H48" s="266" t="s">
-        <v>223</v>
-      </c>
-      <c r="I48" s="237">
-        <v>16</v>
-      </c>
-      <c r="J48" s="177">
-        <v>1</v>
-      </c>
-      <c r="K48" s="407" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="338"/>
-      <c r="B49" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="12">
-        <v>32</v>
-      </c>
-      <c r="E49" s="13">
-        <v>1</v>
       </c>
       <c r="F49" s="408" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="269">
-        <v>199173</v>
-      </c>
-      <c r="H49" s="263" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="264">
-        <v>32</v>
-      </c>
-      <c r="J49" s="265">
-        <v>2</v>
-      </c>
-      <c r="K49" s="234"/>
+      <c r="G49" s="406"/>
+      <c r="H49" s="266" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="237">
+        <v>16</v>
+      </c>
+      <c r="J49" s="177">
+        <v>1</v>
+      </c>
+      <c r="K49" s="407" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="338"/>
-      <c r="B50" s="416"/>
-      <c r="C50" s="417"/>
-      <c r="D50" s="418"/>
-      <c r="E50" s="418"/>
-      <c r="F50" s="419"/>
+      <c r="B50" s="203" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="12">
+        <v>32</v>
+      </c>
+      <c r="E50" s="13">
+        <v>1</v>
+      </c>
+      <c r="F50" s="408" t="s">
+        <v>232</v>
+      </c>
       <c r="G50" s="269">
-        <v>199621</v>
+        <v>199173</v>
       </c>
       <c r="H50" s="263" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I50" s="264">
         <v>32</v>
@@ -8316,63 +8384,61 @@
       <c r="E51" s="418"/>
       <c r="F51" s="419"/>
       <c r="G51" s="269">
-        <v>199622</v>
+        <v>199621</v>
       </c>
       <c r="H51" s="263" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I51" s="264">
         <v>32</v>
       </c>
       <c r="J51" s="265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="234"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="338"/>
-      <c r="B52" s="193"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="410"/>
-      <c r="G52" s="406">
-        <v>199641</v>
-      </c>
-      <c r="H52" s="266" t="s">
-        <v>222</v>
-      </c>
-      <c r="I52" s="237">
+      <c r="B52" s="416"/>
+      <c r="C52" s="417"/>
+      <c r="D52" s="418"/>
+      <c r="E52" s="418"/>
+      <c r="F52" s="419"/>
+      <c r="G52" s="269">
+        <v>199622</v>
+      </c>
+      <c r="H52" s="263" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="264">
         <v>32</v>
       </c>
-      <c r="J52" s="177">
-        <v>2</v>
-      </c>
-      <c r="K52" s="407" t="s">
-        <v>219</v>
-      </c>
+      <c r="J52" s="265">
+        <v>1</v>
+      </c>
+      <c r="K52" s="234"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="338"/>
-      <c r="B53" s="456"/>
-      <c r="C53" s="457"/>
-      <c r="D53" s="458"/>
-      <c r="E53" s="459"/>
-      <c r="F53" s="460"/>
-      <c r="G53" s="203">
-        <v>199783</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="12">
-        <v>48</v>
-      </c>
-      <c r="J53" s="13">
-        <v>3</v>
-      </c>
-      <c r="K53" s="408" t="s">
-        <v>232</v>
+      <c r="B53" s="193"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="410"/>
+      <c r="G53" s="406">
+        <v>199641</v>
+      </c>
+      <c r="H53" s="266" t="s">
+        <v>222</v>
+      </c>
+      <c r="I53" s="237">
+        <v>32</v>
+      </c>
+      <c r="J53" s="177">
+        <v>2</v>
+      </c>
+      <c r="K53" s="407" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -8383,120 +8449,112 @@
       <c r="E54" s="459"/>
       <c r="F54" s="460"/>
       <c r="G54" s="203">
-        <v>199784</v>
+        <v>199783</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I54" s="12">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J54" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54" s="408" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1">
-      <c r="A55" s="339"/>
-      <c r="B55" s="210"/>
-      <c r="C55" s="297" t="s">
+    <row r="55" spans="1:11">
+      <c r="A55" s="338"/>
+      <c r="B55" s="456"/>
+      <c r="C55" s="457"/>
+      <c r="D55" s="458"/>
+      <c r="E55" s="459"/>
+      <c r="F55" s="460"/>
+      <c r="G55" s="203">
+        <v>199784</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="12">
+        <v>32</v>
+      </c>
+      <c r="J55" s="13">
+        <v>1</v>
+      </c>
+      <c r="K55" s="408" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" thickBot="1">
+      <c r="A56" s="339"/>
+      <c r="B56" s="210"/>
+      <c r="C56" s="297" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="211" t="s">
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="404" t="s">
+      <c r="G56" s="404" t="s">
         <v>110</v>
       </c>
-      <c r="H55" s="71" t="s">
+      <c r="H56" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="72" t="s">
+      <c r="I56" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J56" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="K55" s="31"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="349" t="s">
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="349" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="381">
+      <c r="B57" s="381">
         <v>1900104</v>
       </c>
-      <c r="C56" s="382" t="s">
+      <c r="C57" s="382" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="381" t="s">
+      <c r="D57" s="381" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="383">
+      <c r="E57" s="383">
         <v>3</v>
       </c>
-      <c r="F56" s="442" t="s">
+      <c r="F57" s="442" t="s">
         <v>205</v>
       </c>
-      <c r="G56" s="444"/>
-      <c r="H56" s="290" t="s">
+      <c r="G57" s="444"/>
+      <c r="H57" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="I56" s="229">
+      <c r="I57" s="229">
         <v>16</v>
       </c>
-      <c r="J56" s="241">
+      <c r="J57" s="241">
         <v>1</v>
       </c>
-      <c r="K56" s="231" t="s">
+      <c r="K57" s="231" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="350"/>
-      <c r="B57" s="381">
-        <v>1900105</v>
-      </c>
-      <c r="C57" s="382" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="381" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="383">
-        <v>1</v>
-      </c>
-      <c r="F57" s="441" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="269"/>
-      <c r="H57" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="I57" s="334" t="s">
-        <v>226</v>
-      </c>
-      <c r="J57" s="334" t="s">
-        <v>226</v>
-      </c>
-      <c r="K57" s="335" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="350"/>
       <c r="B58" s="381">
-        <v>1900107</v>
+        <v>1900105</v>
       </c>
       <c r="C58" s="382" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D58" s="381" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E58" s="383">
         <v>1</v>
@@ -8504,9 +8562,7 @@
       <c r="F58" s="441" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="269" t="s">
-        <v>226</v>
-      </c>
+      <c r="G58" s="269"/>
       <c r="H58" s="70" t="s">
         <v>226</v>
       </c>
@@ -8517,23 +8573,25 @@
         <v>226</v>
       </c>
       <c r="K58" s="335" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="350"/>
-      <c r="B59" s="385"/>
-      <c r="C59" s="386" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="387" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="388">
-        <v>2</v>
-      </c>
-      <c r="F59" s="443" t="s">
-        <v>32</v>
+      <c r="B59" s="381">
+        <v>1900107</v>
+      </c>
+      <c r="C59" s="382" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="381" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="383">
+        <v>1</v>
+      </c>
+      <c r="F59" s="441" t="s">
+        <v>27</v>
       </c>
       <c r="G59" s="269" t="s">
         <v>226</v>
@@ -8548,23 +8606,23 @@
         <v>226</v>
       </c>
       <c r="K59" s="335" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="350"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="252" t="s">
-        <v>110</v>
+      <c r="B60" s="385"/>
+      <c r="C60" s="386" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="387" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="388">
+        <v>2</v>
+      </c>
+      <c r="F60" s="443" t="s">
+        <v>32</v>
       </c>
       <c r="G60" s="269" t="s">
         <v>226</v>
@@ -8578,42 +8636,44 @@
       <c r="J60" s="334" t="s">
         <v>226</v>
       </c>
-      <c r="K60" s="335"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="335" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" thickBot="1">
       <c r="A61" s="350"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="252" t="s">
-        <v>110</v>
-      </c>
-      <c r="G61" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I61" s="12">
-        <v>48</v>
-      </c>
-      <c r="J61" s="13">
-        <v>3</v>
-      </c>
-      <c r="K61" s="186"/>
+      <c r="B61" s="404">
+        <v>199650</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="72">
+        <v>32</v>
+      </c>
+      <c r="E61" s="72">
+        <v>2</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="269" t="s">
+        <v>226</v>
+      </c>
+      <c r="H61" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="I61" s="334" t="s">
+        <v>226</v>
+      </c>
+      <c r="J61" s="334" t="s">
+        <v>226</v>
+      </c>
+      <c r="K61" s="335"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="350"/>
       <c r="B62" s="21"/>
       <c r="C62" s="38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>110</v>
@@ -8624,154 +8684,144 @@
       <c r="F62" s="252" t="s">
         <v>110</v>
       </c>
-      <c r="G62" s="203" t="s">
-        <v>169</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I62" s="12">
-        <v>32</v>
-      </c>
-      <c r="J62" s="13">
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="350"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="252" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1">
+      <c r="A64" s="352"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="252"/>
+      <c r="G64" s="404">
+        <v>199650</v>
+      </c>
+      <c r="H64" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I64" s="72">
+        <v>24</v>
+      </c>
+      <c r="J64" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="K64" s="31"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="338" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="389">
+        <v>1900106</v>
+      </c>
+      <c r="C65" s="390" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="389" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="391">
+        <v>3</v>
+      </c>
+      <c r="F65" s="384" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="259"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="260"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" thickBot="1">
+      <c r="A66" s="76"/>
+      <c r="B66" s="392"/>
+      <c r="C66" s="393" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="394" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="395">
         <v>1</v>
       </c>
-      <c r="K62" s="186"/>
-    </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1">
-      <c r="A63" s="352"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="252"/>
-      <c r="G63" s="404">
-        <v>199650</v>
-      </c>
-      <c r="H63" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="I63" s="72">
-        <v>24</v>
-      </c>
-      <c r="J63" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="K63" s="31"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="338" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="389">
-        <v>1900106</v>
-      </c>
-      <c r="C64" s="390" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="389" t="s">
-        <v>209</v>
-      </c>
-      <c r="E64" s="391">
-        <v>3</v>
-      </c>
-      <c r="F64" s="384" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" s="259"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="260"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="392"/>
-      <c r="C65" s="393" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="394" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65" s="395">
-        <v>1</v>
-      </c>
-      <c r="F65" s="396" t="s">
+      <c r="F66" s="396" t="s">
         <v>211</v>
       </c>
-      <c r="G65" s="258"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="261"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1">
-      <c r="A66" s="78"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81">
-        <f>SUM(E4:E65)</f>
-        <v>91.5</v>
-      </c>
-      <c r="F66" s="82">
-        <f>SUM(F4:F65)</f>
+      <c r="G66" s="258"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="261"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" thickBot="1">
+      <c r="A67" s="78"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81">
+        <f>SUM(E4:E66)</f>
+        <v>99.5</v>
+      </c>
+      <c r="F67" s="82">
+        <f>SUM(F4:F66)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="79"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="83">
-        <f>SUM(J4:J65)</f>
-        <v>79.5</v>
-      </c>
-      <c r="K66" s="84"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="85" t="s">
+      <c r="G67" s="79"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="83">
+        <f>SUM(J4:J66)</f>
+        <v>73.5</v>
+      </c>
+      <c r="K67" s="84"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="88"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="89"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="92"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="88"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="93"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="96"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="92"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="93"/>
       <c r="B70" s="94"/>
-      <c r="C70" s="114"/>
+      <c r="C70" s="95"/>
       <c r="D70" s="94"/>
       <c r="E70" s="94"/>
       <c r="F70" s="94"/>
@@ -8779,8 +8829,9 @@
       <c r="H70" s="95"/>
       <c r="I70" s="94"/>
       <c r="J70" s="94"/>
-    </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1">
+      <c r="K70" s="96"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="93"/>
       <c r="B71" s="94"/>
       <c r="C71" s="114"/>
@@ -8792,181 +8843,180 @@
       <c r="I71" s="94"/>
       <c r="J71" s="94"/>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="311" t="s">
+    <row r="72" spans="1:11" ht="15" thickBot="1">
+      <c r="A72" s="93"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="337"/>
-      <c r="C72" s="362" t="s">
+      <c r="B73" s="337"/>
+      <c r="C73" s="362" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="363"/>
-      <c r="E72" s="364"/>
-      <c r="F72" s="362" t="s">
+      <c r="D73" s="363"/>
+      <c r="E73" s="364"/>
+      <c r="F73" s="362" t="s">
         <v>183</v>
       </c>
-      <c r="G72" s="363"/>
-      <c r="H72" s="364"/>
-      <c r="I72" s="365" t="s">
+      <c r="G73" s="363"/>
+      <c r="H73" s="364"/>
+      <c r="I73" s="365" t="s">
         <v>184</v>
       </c>
-      <c r="J72" s="365"/>
-      <c r="K72" s="366"/>
-    </row>
-    <row r="73" spans="1:11" ht="26">
-      <c r="A73" s="333">
+      <c r="J73" s="365"/>
+      <c r="K73" s="366"/>
+    </row>
+    <row r="74" spans="1:11" ht="26">
+      <c r="A74" s="333">
         <v>1</v>
       </c>
-      <c r="B73" s="97" t="s">
+      <c r="B74" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="314" t="s">
+      <c r="C74" s="314" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="98">
-        <f>SUM(D4,D5,D13,D14,D15,D22,D23,D30,D31)</f>
+      <c r="D74" s="98">
+        <f>SUM(D4,D5,D13,D14,D15,D23,D24,D31,D32)</f>
         <v>432</v>
       </c>
-      <c r="E73" s="98">
-        <f>SUM(E4,E5,E13,E14,E15,E22,E23,E30,E31)</f>
+      <c r="E74" s="98">
+        <f>SUM(E4,E5,E13,E14,E15,E23,E24,E31,E32)</f>
         <v>24</v>
       </c>
-      <c r="F73" s="315" t="s">
+      <c r="F74" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="G73" s="316">
-        <f>SUM(D48:D49,D60,D68)</f>
-        <v>80</v>
-      </c>
-      <c r="H73" s="317">
-        <f>SUM(E6+E8+E46)</f>
+      <c r="G74" s="316">
+        <f>SUM(D49:D50,D61,D69)</f>
+        <v>112</v>
+      </c>
+      <c r="H74" s="317">
+        <f>SUM(E6+E8+E47)</f>
         <v>4</v>
       </c>
-      <c r="I73" s="367" t="s">
+      <c r="I74" s="367" t="s">
         <v>186</v>
       </c>
-      <c r="J73" s="368"/>
-      <c r="K73" s="369"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="370">
+      <c r="J74" s="368"/>
+      <c r="K74" s="369"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="370">
         <v>2</v>
       </c>
-      <c r="B74" s="371" t="s">
+      <c r="B75" s="371" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="318"/>
-      <c r="D74" s="318"/>
-      <c r="E74" s="318"/>
-      <c r="F74" s="319" t="s">
+      <c r="C75" s="318"/>
+      <c r="D75" s="318"/>
+      <c r="E75" s="318"/>
+      <c r="F75" s="319" t="s">
         <v>60</v>
       </c>
-      <c r="G74" s="318"/>
-      <c r="H74" s="320">
-        <f>SUM(E16+E47+E56+E57+E58+E64)</f>
+      <c r="G75" s="318"/>
+      <c r="H75" s="320">
+        <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I74" s="373"/>
-      <c r="J74" s="373"/>
-      <c r="K74" s="374"/>
-    </row>
-    <row r="75" spans="1:11" ht="26">
-      <c r="A75" s="370"/>
-      <c r="B75" s="372"/>
-      <c r="C75" s="321"/>
-      <c r="D75" s="322"/>
-      <c r="E75" s="322"/>
-      <c r="F75" s="323" t="s">
-        <v>196</v>
-      </c>
-      <c r="G75" s="322"/>
-      <c r="H75" s="322"/>
       <c r="I75" s="373"/>
       <c r="J75" s="373"/>
       <c r="K75" s="374"/>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="370">
+    <row r="76" spans="1:11" ht="26">
+      <c r="A76" s="370"/>
+      <c r="B76" s="372"/>
+      <c r="C76" s="321"/>
+      <c r="D76" s="322"/>
+      <c r="E76" s="322"/>
+      <c r="F76" s="323" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" s="322"/>
+      <c r="H76" s="322"/>
+      <c r="I76" s="373"/>
+      <c r="J76" s="373"/>
+      <c r="K76" s="374"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="370">
         <v>3</v>
       </c>
-      <c r="B76" s="372" t="s">
+      <c r="B77" s="372" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="324" t="s">
+      <c r="C77" s="324" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="325"/>
-      <c r="E76" s="326">
-        <f>SUM(E9+E12+E17+E24+E25+E26+E27+J29+E48+E49+E38+E39+E40+E41+E42+E43+J53+J54)</f>
+      <c r="D77" s="325"/>
+      <c r="E77" s="326">
+        <f>SUM(E9+E12+E17+E25+E26+E27+E28+J30+E49+E50+E39+E40+E41+E42+E43+E44+J54+J55)</f>
         <v>42.5</v>
       </c>
-      <c r="F76" s="327" t="s">
+      <c r="F77" s="327" t="s">
         <v>190</v>
       </c>
-      <c r="G76" s="328"/>
-      <c r="H76" s="328"/>
-      <c r="I76" s="375"/>
-      <c r="J76" s="375"/>
-      <c r="K76" s="376"/>
-    </row>
-    <row r="77" spans="1:11" ht="26">
-      <c r="A77" s="370"/>
-      <c r="B77" s="372"/>
-      <c r="C77" s="324" t="s">
+      <c r="G77" s="328"/>
+      <c r="H77" s="328"/>
+      <c r="I77" s="375"/>
+      <c r="J77" s="375"/>
+      <c r="K77" s="376"/>
+    </row>
+    <row r="78" spans="1:11" ht="26">
+      <c r="A78" s="370"/>
+      <c r="B78" s="372"/>
+      <c r="C78" s="324" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="325"/>
-      <c r="E77" s="326"/>
-      <c r="F77" s="329" t="s">
+      <c r="D78" s="325"/>
+      <c r="E78" s="326"/>
+      <c r="F78" s="329" t="s">
         <v>198</v>
       </c>
-      <c r="G77" s="334"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="373"/>
-      <c r="J77" s="373"/>
-      <c r="K77" s="374"/>
-    </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1">
-      <c r="A78" s="330" t="s">
+      <c r="G78" s="334"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="373"/>
+      <c r="J78" s="373"/>
+      <c r="K78" s="374"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" thickBot="1">
+      <c r="A79" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="331">
+      <c r="B79" s="331">
         <v>140</v>
       </c>
-      <c r="C78" s="336">
+      <c r="C79" s="336">
         <f>24+10+3+32+15</f>
         <v>84</v>
       </c>
-      <c r="D78" s="336"/>
-      <c r="E78" s="331">
-        <f>SUM(E73:E76)</f>
+      <c r="D79" s="336"/>
+      <c r="E79" s="331">
+        <f>SUM(E74:E77)</f>
         <v>66.5</v>
       </c>
-      <c r="F78" s="336">
+      <c r="F79" s="336">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G78" s="336"/>
-      <c r="H78" s="331">
-        <f>SUM(H73:H77)</f>
+      <c r="G79" s="336"/>
+      <c r="H79" s="331">
+        <f>SUM(H74:H78)</f>
         <v>14</v>
       </c>
-      <c r="I78" s="377"/>
-      <c r="J78" s="377"/>
-      <c r="K78" s="378"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="93"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="94"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="94"/>
+      <c r="I79" s="377"/>
+      <c r="J79" s="377"/>
+      <c r="K79" s="378"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="93"/>
@@ -8974,57 +9024,71 @@
       <c r="C80" s="114"/>
       <c r="D80" s="94"/>
       <c r="E80" s="94"/>
-      <c r="F80" s="94" t="s">
-        <v>193</v>
-      </c>
+      <c r="F80" s="94"/>
       <c r="G80" s="94"/>
-      <c r="H80" s="95" t="s">
-        <v>194</v>
-      </c>
+      <c r="H80" s="95"/>
       <c r="I80" s="94"/>
       <c r="J80" s="94"/>
-      <c r="K80" s="94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" customFormat="1">
+      <c r="K80" s="94"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="93"/>
       <c r="B81" s="94"/>
       <c r="C81" s="114"/>
       <c r="D81" s="94"/>
       <c r="E81" s="94"/>
-      <c r="F81" s="95"/>
+      <c r="F81" s="94" t="s">
+        <v>193</v>
+      </c>
       <c r="G81" s="94"/>
-      <c r="H81" s="95"/>
+      <c r="H81" s="95" t="s">
+        <v>194</v>
+      </c>
       <c r="I81" s="94"/>
       <c r="J81" s="94"/>
+      <c r="K81" s="94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="93"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="94"/>
+      <c r="K82"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
     <mergeCell ref="I77:K77"/>
     <mergeCell ref="I78:K78"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="F73:H73"/>
     <mergeCell ref="I73:K73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
     <mergeCell ref="I74:K74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="C73:E73"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A13:A22"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9042,7 +9106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B64" sqref="B64:F65"/>
     </sheetView>
   </sheetViews>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="182">
   <si>
     <t>学期</t>
   </si>
@@ -1011,6 +1011,22 @@
   </si>
   <si>
     <t>专业必修</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>必修部分（&lt;=60%,68学分)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET高级应用开发实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>综合创新实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>综合创新实践（竞赛、发明创造）</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
@@ -1900,7 +1916,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2378,8 +2394,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3247,8 +3269,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="161">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -3330,6 +3358,7 @@
     <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -3408,6 +3437,7 @@
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3719,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4756,7 +4786,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="15" thickBot="1">
       <c r="A38" s="276"/>
       <c r="B38" s="219"/>
       <c r="C38" s="220" t="s">
@@ -4783,9 +4813,11 @@
       <c r="J38" s="82">
         <v>2</v>
       </c>
-      <c r="K38" s="132"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" s="230" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1">
       <c r="A39" s="276"/>
       <c r="B39" s="219"/>
       <c r="C39" s="224" t="s">
@@ -4800,19 +4832,21 @@
       <c r="F39" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="130">
+      <c r="G39" s="131">
         <v>199624</v>
       </c>
-      <c r="H39" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="I39" s="168">
+      <c r="H39" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="129">
         <v>48</v>
       </c>
-      <c r="J39" s="168">
+      <c r="J39" s="82">
         <v>3</v>
       </c>
-      <c r="K39" s="169"/>
+      <c r="K39" s="230" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="276"/>
@@ -5456,10 +5490,16 @@
         <v>41</v>
       </c>
       <c r="G64" s="121"/>
-      <c r="H64" s="44"/>
+      <c r="H64" s="44" t="s">
+        <v>181</v>
+      </c>
       <c r="I64" s="45"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="122"/>
+      <c r="J64" s="46">
+        <v>5</v>
+      </c>
+      <c r="K64" s="122" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1">
       <c r="A65" s="47"/>
@@ -5500,7 +5540,7 @@
       <c r="I66" s="51"/>
       <c r="J66" s="53">
         <f>SUM(J4:J65)</f>
-        <v>76.5</v>
+        <v>81.5</v>
       </c>
       <c r="K66" s="54"/>
     </row>
@@ -5575,7 +5615,7 @@
       </c>
       <c r="B72" s="146"/>
       <c r="C72" s="266" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="D72" s="267"/>
       <c r="E72" s="268"/>
@@ -5638,7 +5678,10 @@
       <c r="F74" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="152"/>
+      <c r="G74" s="241">
+        <f>E64+E58+E57+E56+E47+E16</f>
+        <v>10</v>
+      </c>
       <c r="H74" s="154">
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
@@ -5656,7 +5699,10 @@
       <c r="F75" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="156"/>
+      <c r="G75" s="290">
+        <f>J64</f>
+        <v>5</v>
+      </c>
       <c r="H75" s="156"/>
       <c r="I75" s="262"/>
       <c r="J75" s="262"/>
@@ -5680,7 +5726,10 @@
       <c r="F76" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="G76" s="162"/>
+      <c r="G76" s="289">
+        <f>SUM(J63+J56+J51+J50+J49+J47+J46+J37+J35+J34+J33+J32+J31+J30+J28+J27+J23+J22+J19+J18+J14+J13)</f>
+        <v>46.5</v>
+      </c>
       <c r="H76" s="162"/>
       <c r="I76" s="260"/>
       <c r="J76" s="260"/>
@@ -5697,7 +5746,10 @@
       <c r="F77" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="G77" s="31"/>
+      <c r="G77" s="31">
+        <f>J4+J15+J21+J24+J25+J36+J38+J48+J52</f>
+        <v>18</v>
+      </c>
       <c r="H77" s="69"/>
       <c r="I77" s="262"/>
       <c r="J77" s="262"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="25600" windowHeight="19620" activeTab="1"/>
+    <workbookView xWindow="28300" yWindow="640" windowWidth="25600" windowHeight="19620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="242">
   <si>
     <t>学期</t>
   </si>
@@ -1450,6 +1450,10 @@
   <si>
     <t>专业必修</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业教育（66.5+4=70.3学分）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4038,6 +4042,318 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4065,355 +4381,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -4492,85 +4575,6 @@
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4590,15 +4594,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_519" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_523" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_522" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_521" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4606,19 +4610,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_521" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_522" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_523" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_519" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_524" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4626,7 +4630,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4634,7 +4638,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4642,7 +4646,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4650,11 +4654,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_524" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4912,7 +4916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4922,8 +4926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A60" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4942,41 +4946,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="444" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="445" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="447" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="346" t="s">
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="348"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="451"/>
+      <c r="J2" s="451"/>
+      <c r="K2" s="452"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="342"/>
+      <c r="A3" s="446"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5009,7 +5013,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="453" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="197">
@@ -5042,7 +5046,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="351"/>
+      <c r="A5" s="454"/>
       <c r="B5" s="199">
         <v>310016</v>
       </c>
@@ -5074,7 +5078,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="351"/>
+      <c r="A6" s="454"/>
       <c r="B6" s="220">
         <v>330001</v>
       </c>
@@ -5107,7 +5111,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="351"/>
+      <c r="A7" s="454"/>
       <c r="B7" s="220">
         <v>199023</v>
       </c>
@@ -5130,7 +5134,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="351"/>
+      <c r="A8" s="454"/>
       <c r="B8" s="220">
         <v>310017</v>
       </c>
@@ -5154,7 +5158,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="351"/>
+      <c r="A9" s="454"/>
       <c r="B9" s="193">
         <v>199186</v>
       </c>
@@ -5167,7 +5171,7 @@
       <c r="E9" s="119">
         <v>2</v>
       </c>
-      <c r="F9" s="402" t="s">
+      <c r="F9" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="221"/>
@@ -5177,14 +5181,14 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="351"/>
+      <c r="A10" s="454"/>
       <c r="B10" s="193"/>
       <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="402" t="s">
+      <c r="F10" s="362" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="221"/>
@@ -5194,14 +5198,14 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="351"/>
+      <c r="A11" s="454"/>
       <c r="B11" s="193"/>
       <c r="C11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="119"/>
-      <c r="F11" s="402" t="s">
+      <c r="F11" s="362" t="s">
         <v>68</v>
       </c>
       <c r="G11" s="222"/>
@@ -5211,7 +5215,7 @@
       <c r="K11" s="125"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="351"/>
+      <c r="A12" s="454"/>
       <c r="B12" s="193"/>
       <c r="C12" s="22" t="s">
         <v>69</v>
@@ -5222,7 +5226,7 @@
       <c r="E12" s="24">
         <v>4</v>
       </c>
-      <c r="F12" s="402" t="s">
+      <c r="F12" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="222"/>
@@ -5232,7 +5236,7 @@
       <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="349" t="s">
+      <c r="A13" s="441" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="197">
@@ -5250,7 +5254,7 @@
       <c r="F13" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="450">
+      <c r="G13" s="410">
         <v>198328</v>
       </c>
       <c r="H13" s="285" t="s">
@@ -5265,7 +5269,7 @@
       <c r="K13" s="231"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="350"/>
+      <c r="A14" s="442"/>
       <c r="B14" s="199">
         <v>310009</v>
       </c>
@@ -5282,7 +5286,7 @@
       <c r="F14" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="451"/>
+      <c r="G14" s="411"/>
       <c r="H14" s="286" t="s">
         <v>87</v>
       </c>
@@ -5297,7 +5301,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="350"/>
+      <c r="A15" s="442"/>
       <c r="B15" s="199">
         <v>310013</v>
       </c>
@@ -5329,8 +5333,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="350"/>
-      <c r="B16" s="446">
+      <c r="A16" s="442"/>
+      <c r="B16" s="406">
         <v>1900102</v>
       </c>
       <c r="C16" s="319" t="s">
@@ -5339,13 +5343,13 @@
       <c r="D16" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="449">
+      <c r="E16" s="409">
         <v>1</v>
       </c>
-      <c r="F16" s="448" t="s">
+      <c r="F16" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="452"/>
+      <c r="G16" s="412"/>
       <c r="H16" s="111" t="s">
         <v>70</v>
       </c>
@@ -5360,8 +5364,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="350"/>
-      <c r="B17" s="409"/>
+      <c r="A17" s="442"/>
+      <c r="B17" s="369"/>
       <c r="C17" s="38" t="s">
         <v>117</v>
       </c>
@@ -5371,10 +5375,10 @@
       <c r="E17" s="40">
         <v>4</v>
       </c>
-      <c r="F17" s="410" t="s">
+      <c r="F17" s="370" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="452"/>
+      <c r="G17" s="412"/>
       <c r="H17" s="111" t="s">
         <v>90</v>
       </c>
@@ -5389,7 +5393,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="350"/>
+      <c r="A18" s="442"/>
       <c r="B18" s="203">
         <v>199645</v>
       </c>
@@ -5402,10 +5406,10 @@
       <c r="E18" s="13">
         <v>2</v>
       </c>
-      <c r="F18" s="408" t="s">
+      <c r="F18" s="368" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="451"/>
+      <c r="G18" s="411"/>
       <c r="H18" s="286" t="s">
         <v>71</v>
       </c>
@@ -5420,23 +5424,23 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="350"/>
-      <c r="B19" s="454" t="s">
+      <c r="A19" s="442"/>
+      <c r="B19" s="414" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="430" t="s">
+      <c r="C19" s="390" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="431" t="s">
+      <c r="D19" s="391" t="s">
         <v>220</v>
       </c>
-      <c r="E19" s="430" t="s">
+      <c r="E19" s="390" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="455" t="s">
+      <c r="F19" s="415" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="451"/>
+      <c r="G19" s="411"/>
       <c r="H19" s="286" t="s">
         <v>72</v>
       </c>
@@ -5451,25 +5455,25 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="350"/>
-      <c r="B20" s="454"/>
-      <c r="C20" s="430"/>
-      <c r="D20" s="431"/>
-      <c r="E20" s="430"/>
-      <c r="F20" s="455"/>
+      <c r="A20" s="442"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="390"/>
+      <c r="D20" s="391"/>
+      <c r="E20" s="390"/>
+      <c r="F20" s="415"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="352"/>
+      <c r="A21" s="443"/>
       <c r="B21" s="210"/>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="340" t="s">
         <v>203</v>
       </c>
       <c r="D21" s="41"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="411" t="s">
+      <c r="E21" s="341"/>
+      <c r="F21" s="371" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="453">
+      <c r="G21" s="413">
         <v>199639</v>
       </c>
       <c r="H21" s="266" t="s">
@@ -5481,12 +5485,12 @@
       <c r="J21" s="177">
         <v>3</v>
       </c>
-      <c r="K21" s="407" t="s">
+      <c r="K21" s="367" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="349" t="s">
+      <c r="A22" s="441" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="197">
@@ -5519,7 +5523,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="350"/>
+      <c r="A23" s="442"/>
       <c r="B23" s="199">
         <v>310015</v>
       </c>
@@ -5551,7 +5555,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="350"/>
+      <c r="A24" s="442"/>
       <c r="B24" s="193">
         <v>199654</v>
       </c>
@@ -5564,10 +5568,10 @@
       <c r="E24" s="13">
         <v>3</v>
       </c>
-      <c r="F24" s="402" t="s">
+      <c r="F24" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="406">
+      <c r="G24" s="366">
         <v>199629</v>
       </c>
       <c r="H24" s="266" t="s">
@@ -5579,26 +5583,26 @@
       <c r="J24" s="177">
         <v>3</v>
       </c>
-      <c r="K24" s="407"/>
+      <c r="K24" s="367"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="350"/>
-      <c r="B25" s="412">
+      <c r="A25" s="442"/>
+      <c r="B25" s="372">
         <v>199655</v>
       </c>
-      <c r="C25" s="430" t="s">
+      <c r="C25" s="390" t="s">
         <v>230</v>
       </c>
-      <c r="D25" s="413">
+      <c r="D25" s="373">
         <v>32</v>
       </c>
-      <c r="E25" s="431">
+      <c r="E25" s="391">
         <v>1</v>
       </c>
-      <c r="F25" s="430" t="s">
+      <c r="F25" s="390" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="406"/>
+      <c r="G25" s="366"/>
       <c r="H25" s="266" t="s">
         <v>225</v>
       </c>
@@ -5608,12 +5612,12 @@
       <c r="J25" s="177">
         <v>1</v>
       </c>
-      <c r="K25" s="407" t="s">
+      <c r="K25" s="367" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="350"/>
+      <c r="A26" s="442"/>
       <c r="B26" s="193"/>
       <c r="C26" s="70" t="s">
         <v>122</v>
@@ -5624,10 +5628,10 @@
       <c r="E26" s="13">
         <v>4</v>
       </c>
-      <c r="F26" s="402" t="s">
+      <c r="F26" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="403"/>
+      <c r="G26" s="363"/>
       <c r="H26" s="111" t="s">
         <v>98</v>
       </c>
@@ -5642,24 +5646,24 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="350"/>
+      <c r="A27" s="442"/>
       <c r="B27" s="193"/>
-      <c r="C27" s="430" t="s">
+      <c r="C27" s="390" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="413">
+      <c r="D27" s="373">
         <v>32</v>
       </c>
-      <c r="E27" s="431">
+      <c r="E27" s="391">
         <v>1</v>
       </c>
-      <c r="F27" s="430" t="s">
+      <c r="F27" s="390" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="269">
         <v>199628</v>
       </c>
-      <c r="H27" s="461" t="s">
+      <c r="H27" s="421" t="s">
         <v>236</v>
       </c>
       <c r="I27" s="264">
@@ -5673,7 +5677,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="350"/>
+      <c r="A28" s="442"/>
       <c r="B28" s="203"/>
       <c r="C28" s="22" t="s">
         <v>95</v>
@@ -5684,7 +5688,7 @@
       <c r="E28" s="13">
         <v>3</v>
       </c>
-      <c r="F28" s="408" t="s">
+      <c r="F28" s="368" t="s">
         <v>232</v>
       </c>
       <c r="G28" s="269">
@@ -5704,7 +5708,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
-      <c r="A29" s="352"/>
+      <c r="A29" s="443"/>
       <c r="B29" s="210"/>
       <c r="C29" s="297" t="s">
         <v>33</v>
@@ -5721,19 +5725,19 @@
       <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="349" t="s">
+      <c r="A30" s="441" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="197">
         <v>3009004</v>
       </c>
-      <c r="C30" s="414" t="s">
+      <c r="C30" s="374" t="s">
         <v>214</v>
       </c>
       <c r="D30" s="6">
         <v>36</v>
       </c>
-      <c r="E30" s="415">
+      <c r="E30" s="375">
         <v>2</v>
       </c>
       <c r="F30" s="198" t="s">
@@ -5754,18 +5758,18 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="350"/>
+      <c r="A31" s="442"/>
       <c r="B31" s="199">
         <v>3100014</v>
       </c>
-      <c r="C31" s="397" t="s">
+      <c r="C31" s="358" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="9">
         <f>18*E31</f>
         <v>108</v>
       </c>
-      <c r="E31" s="398">
+      <c r="E31" s="359">
         <v>6</v>
       </c>
       <c r="F31" s="200" t="s">
@@ -5774,13 +5778,13 @@
       <c r="G31" s="269">
         <v>199653</v>
       </c>
-      <c r="H31" s="400" t="s">
+      <c r="H31" s="361" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="462">
+      <c r="I31" s="422">
         <v>48</v>
       </c>
-      <c r="J31" s="463">
+      <c r="J31" s="423">
         <v>3</v>
       </c>
       <c r="K31" s="234" t="s">
@@ -5788,7 +5792,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="350"/>
+      <c r="A32" s="442"/>
       <c r="B32" s="203">
         <v>199635</v>
       </c>
@@ -5801,13 +5805,13 @@
       <c r="E32" s="13">
         <v>2.5</v>
       </c>
-      <c r="F32" s="408" t="s">
+      <c r="F32" s="368" t="s">
         <v>232</v>
       </c>
       <c r="G32" s="269">
         <v>199626</v>
       </c>
-      <c r="H32" s="399" t="s">
+      <c r="H32" s="360" t="s">
         <v>216</v>
       </c>
       <c r="I32" s="244">
@@ -5821,7 +5825,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="350"/>
+      <c r="A33" s="442"/>
       <c r="B33" s="203">
         <v>199636</v>
       </c>
@@ -5834,13 +5838,13 @@
       <c r="E33" s="13">
         <v>1</v>
       </c>
-      <c r="F33" s="408" t="s">
+      <c r="F33" s="368" t="s">
         <v>232</v>
       </c>
       <c r="G33" s="269">
         <v>199627</v>
       </c>
-      <c r="H33" s="399" t="s">
+      <c r="H33" s="360" t="s">
         <v>217</v>
       </c>
       <c r="I33" s="244">
@@ -5854,16 +5858,16 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="350"/>
-      <c r="B34" s="416"/>
-      <c r="C34" s="417"/>
-      <c r="D34" s="418"/>
-      <c r="E34" s="418"/>
-      <c r="F34" s="419"/>
+      <c r="A34" s="442"/>
+      <c r="B34" s="376"/>
+      <c r="C34" s="377"/>
+      <c r="D34" s="378"/>
+      <c r="E34" s="378"/>
+      <c r="F34" s="379"/>
       <c r="G34" s="269">
         <v>199630</v>
       </c>
-      <c r="H34" s="399" t="s">
+      <c r="H34" s="360" t="s">
         <v>143</v>
       </c>
       <c r="I34" s="244">
@@ -5877,12 +5881,12 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="350"/>
-      <c r="B35" s="416"/>
-      <c r="C35" s="417"/>
-      <c r="D35" s="418"/>
-      <c r="E35" s="418"/>
-      <c r="F35" s="419"/>
+      <c r="A35" s="442"/>
+      <c r="B35" s="376"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="378"/>
+      <c r="F35" s="379"/>
       <c r="G35" s="269">
         <v>199631</v>
       </c>
@@ -5900,7 +5904,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="352"/>
+      <c r="A36" s="443"/>
       <c r="B36" s="210"/>
       <c r="C36" s="297" t="s">
         <v>39</v>
@@ -5910,42 +5914,42 @@
       <c r="F36" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="433">
+      <c r="G36" s="393">
         <v>199641</v>
       </c>
-      <c r="H36" s="434" t="s">
+      <c r="H36" s="394" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="435">
+      <c r="I36" s="395">
         <v>32</v>
       </c>
       <c r="J36" s="274">
         <v>2</v>
       </c>
-      <c r="K36" s="436" t="s">
+      <c r="K36" s="396" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="349" t="s">
+      <c r="A37" s="441" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="420">
+      <c r="B37" s="380">
         <v>3300003</v>
       </c>
-      <c r="C37" s="421" t="s">
+      <c r="C37" s="381" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="422">
+      <c r="D37" s="382">
         <v>18</v>
       </c>
-      <c r="E37" s="423">
+      <c r="E37" s="383">
         <v>1</v>
       </c>
-      <c r="F37" s="424" t="s">
+      <c r="F37" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="437"/>
+      <c r="G37" s="397"/>
       <c r="H37" s="290" t="s">
         <v>100</v>
       </c>
@@ -5960,18 +5964,18 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="350"/>
-      <c r="B38" s="425"/>
-      <c r="C38" s="426" t="s">
+      <c r="A38" s="442"/>
+      <c r="B38" s="385"/>
+      <c r="C38" s="386" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="427">
+      <c r="D38" s="387">
         <v>48</v>
       </c>
-      <c r="E38" s="428">
+      <c r="E38" s="388">
         <v>3</v>
       </c>
-      <c r="F38" s="402" t="s">
+      <c r="F38" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="270">
@@ -5989,18 +5993,18 @@
       <c r="K38" s="271"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="350"/>
-      <c r="B39" s="425"/>
-      <c r="C39" s="430" t="s">
+      <c r="A39" s="442"/>
+      <c r="B39" s="385"/>
+      <c r="C39" s="390" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="413">
+      <c r="D39" s="373">
         <v>32</v>
       </c>
-      <c r="E39" s="431">
+      <c r="E39" s="391">
         <v>1</v>
       </c>
-      <c r="F39" s="430" t="s">
+      <c r="F39" s="390" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="269">
@@ -6018,18 +6022,18 @@
       <c r="K39" s="335"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="350"/>
-      <c r="B40" s="425"/>
+      <c r="A40" s="442"/>
+      <c r="B40" s="385"/>
       <c r="C40" s="50" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="12">
         <v>64</v>
       </c>
-      <c r="E40" s="429">
+      <c r="E40" s="389">
         <v>4</v>
       </c>
-      <c r="F40" s="402" t="s">
+      <c r="F40" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="269"/>
@@ -6047,18 +6051,18 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="350"/>
-      <c r="B41" s="425"/>
-      <c r="C41" s="430" t="s">
+      <c r="A41" s="442"/>
+      <c r="B41" s="385"/>
+      <c r="C41" s="390" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="413">
+      <c r="D41" s="373">
         <v>40</v>
       </c>
-      <c r="E41" s="431">
+      <c r="E41" s="391">
         <v>1</v>
       </c>
-      <c r="F41" s="430" t="s">
+      <c r="F41" s="390" t="s">
         <v>227</v>
       </c>
       <c r="G41" s="269"/>
@@ -6076,18 +6080,18 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="350"/>
-      <c r="B42" s="425"/>
+      <c r="A42" s="442"/>
+      <c r="B42" s="385"/>
       <c r="C42" s="50" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="12">
         <v>48</v>
       </c>
-      <c r="E42" s="429">
+      <c r="E42" s="389">
         <v>3</v>
       </c>
-      <c r="F42" s="402" t="s">
+      <c r="F42" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="269"/>
@@ -6105,18 +6109,18 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="350"/>
-      <c r="B43" s="425"/>
-      <c r="C43" s="430" t="s">
+      <c r="A43" s="442"/>
+      <c r="B43" s="385"/>
+      <c r="C43" s="390" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="413">
+      <c r="D43" s="373">
         <v>16</v>
       </c>
-      <c r="E43" s="431">
+      <c r="E43" s="391">
         <v>0.5</v>
       </c>
-      <c r="F43" s="430" t="s">
+      <c r="F43" s="390" t="s">
         <v>229</v>
       </c>
       <c r="G43" s="269" t="s">
@@ -6134,12 +6138,12 @@
       <c r="K43" s="234"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="350"/>
-      <c r="B44" s="425"/>
+      <c r="A44" s="442"/>
+      <c r="B44" s="385"/>
       <c r="C44" s="60"/>
       <c r="D44" s="43"/>
       <c r="E44" s="61"/>
-      <c r="F44" s="410"/>
+      <c r="F44" s="370"/>
       <c r="G44" s="269" t="s">
         <v>115</v>
       </c>
@@ -6155,39 +6159,39 @@
       <c r="K44" s="234"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="352"/>
+      <c r="A45" s="443"/>
       <c r="B45" s="210"/>
       <c r="C45" s="297" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="62"/>
       <c r="E45" s="63"/>
-      <c r="F45" s="432" t="s">
+      <c r="F45" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="404"/>
-      <c r="H45" s="438"/>
-      <c r="I45" s="439"/>
-      <c r="J45" s="440"/>
-      <c r="K45" s="405"/>
+      <c r="G45" s="364"/>
+      <c r="H45" s="398"/>
+      <c r="I45" s="399"/>
+      <c r="J45" s="400"/>
+      <c r="K45" s="365"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="350" t="s">
+      <c r="A46" s="442" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="420">
+      <c r="B46" s="380">
         <v>3300005</v>
       </c>
-      <c r="C46" s="445" t="s">
+      <c r="C46" s="405" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="422">
+      <c r="D46" s="382">
         <v>18</v>
       </c>
-      <c r="E46" s="423">
+      <c r="E46" s="383">
         <v>1</v>
       </c>
-      <c r="F46" s="424" t="s">
+      <c r="F46" s="384" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="188"/>
@@ -6205,8 +6209,8 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="350"/>
-      <c r="B47" s="446">
+      <c r="A47" s="442"/>
+      <c r="B47" s="406">
         <v>1900103</v>
       </c>
       <c r="C47" s="319" t="s">
@@ -6215,10 +6219,10 @@
       <c r="D47" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="447">
+      <c r="E47" s="407">
         <v>1</v>
       </c>
-      <c r="F47" s="448" t="s">
+      <c r="F47" s="408" t="s">
         <v>46</v>
       </c>
       <c r="G47" s="262"/>
@@ -6236,7 +6240,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="350"/>
+      <c r="A48" s="442"/>
       <c r="B48" s="203">
         <v>199783</v>
       </c>
@@ -6249,10 +6253,10 @@
       <c r="E48" s="13">
         <v>3</v>
       </c>
-      <c r="F48" s="408" t="s">
+      <c r="F48" s="368" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="406"/>
+      <c r="G48" s="366"/>
       <c r="H48" s="266" t="s">
         <v>223</v>
       </c>
@@ -6262,7 +6266,7 @@
       <c r="J48" s="177">
         <v>1</v>
       </c>
-      <c r="K48" s="407" t="s">
+      <c r="K48" s="367" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6280,7 +6284,7 @@
       <c r="E49" s="13">
         <v>1</v>
       </c>
-      <c r="F49" s="408" t="s">
+      <c r="F49" s="368" t="s">
         <v>232</v>
       </c>
       <c r="G49" s="269">
@@ -6299,11 +6303,11 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="66"/>
-      <c r="B50" s="416"/>
-      <c r="C50" s="417"/>
-      <c r="D50" s="418"/>
-      <c r="E50" s="418"/>
-      <c r="F50" s="419"/>
+      <c r="B50" s="376"/>
+      <c r="C50" s="377"/>
+      <c r="D50" s="378"/>
+      <c r="E50" s="378"/>
+      <c r="F50" s="379"/>
       <c r="G50" s="269">
         <v>199621</v>
       </c>
@@ -6320,11 +6324,11 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="66"/>
-      <c r="B51" s="416"/>
-      <c r="C51" s="417"/>
-      <c r="D51" s="418"/>
-      <c r="E51" s="418"/>
-      <c r="F51" s="419"/>
+      <c r="B51" s="376"/>
+      <c r="C51" s="377"/>
+      <c r="D51" s="378"/>
+      <c r="E51" s="378"/>
+      <c r="F51" s="379"/>
       <c r="G51" s="269">
         <v>199622</v>
       </c>
@@ -6345,8 +6349,8 @@
       <c r="C52" s="38"/>
       <c r="D52" s="43"/>
       <c r="E52" s="65"/>
-      <c r="F52" s="410"/>
-      <c r="G52" s="406">
+      <c r="F52" s="370"/>
+      <c r="G52" s="366">
         <v>199641</v>
       </c>
       <c r="H52" s="266" t="s">
@@ -6358,25 +6362,25 @@
       <c r="J52" s="177">
         <v>2</v>
       </c>
-      <c r="K52" s="407" t="s">
+      <c r="K52" s="367" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="338"/>
-      <c r="B53" s="456"/>
-      <c r="C53" s="457"/>
-      <c r="D53" s="458"/>
-      <c r="E53" s="459"/>
-      <c r="F53" s="460"/>
+      <c r="B53" s="416"/>
+      <c r="C53" s="417"/>
+      <c r="D53" s="418"/>
+      <c r="E53" s="419"/>
+      <c r="F53" s="420"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="338"/>
-      <c r="B54" s="456"/>
-      <c r="C54" s="457"/>
-      <c r="D54" s="458"/>
-      <c r="E54" s="459"/>
-      <c r="F54" s="460"/>
+      <c r="B54" s="416"/>
+      <c r="C54" s="417"/>
+      <c r="D54" s="418"/>
+      <c r="E54" s="419"/>
+      <c r="F54" s="420"/>
     </row>
     <row r="55" spans="1:11" ht="15" thickBot="1">
       <c r="A55" s="67"/>
@@ -6389,7 +6393,7 @@
       <c r="F55" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="404" t="s">
+      <c r="G55" s="364" t="s">
         <v>115</v>
       </c>
       <c r="H55" s="71" t="s">
@@ -6404,25 +6408,25 @@
       <c r="K55" s="31"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="349" t="s">
+      <c r="A56" s="441" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="381">
+      <c r="B56" s="342">
         <v>1900104</v>
       </c>
-      <c r="C56" s="382" t="s">
+      <c r="C56" s="343" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="381" t="s">
+      <c r="D56" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="383">
+      <c r="E56" s="344">
         <v>3</v>
       </c>
-      <c r="F56" s="442" t="s">
+      <c r="F56" s="402" t="s">
         <v>205</v>
       </c>
-      <c r="G56" s="444"/>
+      <c r="G56" s="404"/>
       <c r="H56" s="290" t="s">
         <v>101</v>
       </c>
@@ -6437,20 +6441,20 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="350"/>
-      <c r="B57" s="381">
+      <c r="A57" s="442"/>
+      <c r="B57" s="342">
         <v>1900105</v>
       </c>
-      <c r="C57" s="382" t="s">
+      <c r="C57" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="381" t="s">
+      <c r="D57" s="342" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="383">
+      <c r="E57" s="344">
         <v>1</v>
       </c>
-      <c r="F57" s="441" t="s">
+      <c r="F57" s="401" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="269"/>
@@ -6468,20 +6472,20 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="350"/>
-      <c r="B58" s="381">
+      <c r="A58" s="442"/>
+      <c r="B58" s="342">
         <v>1900107</v>
       </c>
-      <c r="C58" s="382" t="s">
+      <c r="C58" s="343" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="381" t="s">
+      <c r="D58" s="342" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="383">
+      <c r="E58" s="344">
         <v>1</v>
       </c>
-      <c r="F58" s="441" t="s">
+      <c r="F58" s="401" t="s">
         <v>27</v>
       </c>
       <c r="G58" s="269" t="s">
@@ -6501,18 +6505,18 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="350"/>
-      <c r="B59" s="385"/>
-      <c r="C59" s="386" t="s">
+      <c r="A59" s="442"/>
+      <c r="B59" s="346"/>
+      <c r="C59" s="347" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="387" t="s">
+      <c r="D59" s="348" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="388">
+      <c r="E59" s="349">
         <v>2</v>
       </c>
-      <c r="F59" s="443" t="s">
+      <c r="F59" s="403" t="s">
         <v>32</v>
       </c>
       <c r="G59" s="269" t="s">
@@ -6532,7 +6536,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="350"/>
+      <c r="A60" s="442"/>
       <c r="B60" s="21"/>
       <c r="C60" s="38" t="s">
         <v>137</v>
@@ -6561,7 +6565,7 @@
       <c r="K60" s="335"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="350"/>
+      <c r="A61" s="442"/>
       <c r="B61" s="21"/>
       <c r="C61" s="38" t="s">
         <v>112</v>
@@ -6590,7 +6594,7 @@
       <c r="K61" s="335"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="350"/>
+      <c r="A62" s="442"/>
       <c r="B62" s="21"/>
       <c r="C62" s="38" t="s">
         <v>128</v>
@@ -6619,13 +6623,13 @@
       <c r="K62" s="335"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1">
-      <c r="A63" s="352"/>
+      <c r="A63" s="443"/>
       <c r="B63" s="21"/>
       <c r="C63" s="38"/>
       <c r="D63" s="43"/>
       <c r="E63" s="65"/>
       <c r="F63" s="252"/>
-      <c r="G63" s="404">
+      <c r="G63" s="364">
         <v>199650</v>
       </c>
       <c r="H63" s="71" t="s">
@@ -6643,19 +6647,19 @@
       <c r="A64" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="389">
+      <c r="B64" s="350">
         <v>1900106</v>
       </c>
-      <c r="C64" s="390" t="s">
+      <c r="C64" s="351" t="s">
         <v>208</v>
       </c>
-      <c r="D64" s="389" t="s">
+      <c r="D64" s="350" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="391">
+      <c r="E64" s="352">
         <v>3</v>
       </c>
-      <c r="F64" s="384" t="s">
+      <c r="F64" s="345" t="s">
         <v>46</v>
       </c>
       <c r="G64" s="259"/>
@@ -6666,17 +6670,17 @@
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1">
       <c r="A65" s="76"/>
-      <c r="B65" s="392"/>
-      <c r="C65" s="393" t="s">
+      <c r="B65" s="353"/>
+      <c r="C65" s="354" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="394" t="s">
+      <c r="D65" s="355" t="s">
         <v>210</v>
       </c>
-      <c r="E65" s="395">
+      <c r="E65" s="356">
         <v>1</v>
       </c>
-      <c r="F65" s="396" t="s">
+      <c r="F65" s="357" t="s">
         <v>211</v>
       </c>
       <c r="G65" s="258"/>
@@ -6777,21 +6781,21 @@
         <v>56</v>
       </c>
       <c r="B72" s="312"/>
-      <c r="C72" s="362" t="s">
+      <c r="C72" s="432" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="363"/>
-      <c r="E72" s="364"/>
-      <c r="F72" s="362" t="s">
+      <c r="D72" s="433"/>
+      <c r="E72" s="434"/>
+      <c r="F72" s="432" t="s">
         <v>183</v>
       </c>
-      <c r="G72" s="363"/>
-      <c r="H72" s="364"/>
-      <c r="I72" s="365" t="s">
+      <c r="G72" s="433"/>
+      <c r="H72" s="434"/>
+      <c r="I72" s="435" t="s">
         <v>184</v>
       </c>
-      <c r="J72" s="365"/>
-      <c r="K72" s="366"/>
+      <c r="J72" s="435"/>
+      <c r="K72" s="436"/>
     </row>
     <row r="73" spans="1:11" ht="26">
       <c r="A73" s="313">
@@ -6819,20 +6823,19 @@
         <v>72</v>
       </c>
       <c r="H73" s="317">
-        <f>SUM(E6+E8+E46)</f>
-        <v>4</v>
-      </c>
-      <c r="I73" s="367" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="437" t="s">
         <v>186</v>
       </c>
-      <c r="J73" s="368"/>
-      <c r="K73" s="369"/>
+      <c r="J73" s="438"/>
+      <c r="K73" s="439"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="370">
+      <c r="A74" s="424">
         <v>2</v>
       </c>
-      <c r="B74" s="371" t="s">
+      <c r="B74" s="440" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="318"/>
@@ -6846,13 +6849,13 @@
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="I74" s="373"/>
-      <c r="J74" s="373"/>
-      <c r="K74" s="374"/>
+      <c r="I74" s="428"/>
+      <c r="J74" s="428"/>
+      <c r="K74" s="429"/>
     </row>
     <row r="75" spans="1:11" ht="26">
-      <c r="A75" s="370"/>
-      <c r="B75" s="372"/>
+      <c r="A75" s="424"/>
+      <c r="B75" s="425"/>
       <c r="C75" s="321"/>
       <c r="D75" s="322"/>
       <c r="E75" s="322"/>
@@ -6860,16 +6863,18 @@
         <v>196</v>
       </c>
       <c r="G75" s="322"/>
-      <c r="H75" s="322"/>
-      <c r="I75" s="373"/>
-      <c r="J75" s="373"/>
-      <c r="K75" s="374"/>
+      <c r="H75" s="322">
+        <v>5</v>
+      </c>
+      <c r="I75" s="428"/>
+      <c r="J75" s="428"/>
+      <c r="K75" s="429"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="370">
+      <c r="A76" s="424">
         <v>3</v>
       </c>
-      <c r="B76" s="372" t="s">
+      <c r="B76" s="425" t="s">
         <v>188</v>
       </c>
       <c r="C76" s="324" t="s">
@@ -6884,14 +6889,16 @@
         <v>190</v>
       </c>
       <c r="G76" s="328"/>
-      <c r="H76" s="328"/>
-      <c r="I76" s="375"/>
-      <c r="J76" s="375"/>
-      <c r="K76" s="376"/>
+      <c r="H76" s="328">
+        <v>26</v>
+      </c>
+      <c r="I76" s="426"/>
+      <c r="J76" s="426"/>
+      <c r="K76" s="427"/>
     </row>
     <row r="77" spans="1:11" ht="26">
-      <c r="A77" s="370"/>
-      <c r="B77" s="372"/>
+      <c r="A77" s="424"/>
+      <c r="B77" s="425"/>
       <c r="C77" s="324" t="s">
         <v>197</v>
       </c>
@@ -6902,16 +6909,17 @@
       </c>
       <c r="G77" s="52"/>
       <c r="H77" s="100"/>
-      <c r="I77" s="373"/>
-      <c r="J77" s="373"/>
-      <c r="K77" s="374"/>
+      <c r="I77" s="428"/>
+      <c r="J77" s="428"/>
+      <c r="K77" s="429"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1">
       <c r="A78" s="330" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="331">
-        <v>140</v>
+        <f>E78+H74+H73+H75+H76</f>
+        <v>125</v>
       </c>
       <c r="C78" s="332">
         <f>24+10+3+32+15</f>
@@ -6929,11 +6937,11 @@
       <c r="G78" s="332"/>
       <c r="H78" s="331">
         <f>SUM(H73:H77)</f>
-        <v>14</v>
-      </c>
-      <c r="I78" s="377"/>
-      <c r="J78" s="377"/>
-      <c r="K78" s="378"/>
+        <v>59</v>
+      </c>
+      <c r="I78" s="430"/>
+      <c r="J78" s="430"/>
+      <c r="K78" s="431"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="93"/>
@@ -6981,11 +6989,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="F72:H72"/>
     <mergeCell ref="I72:K72"/>
@@ -6994,17 +7008,11 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="I74:K74"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7022,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7042,41 +7050,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="444" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="445" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="447" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="346" t="s">
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="348"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="451"/>
+      <c r="J2" s="451"/>
+      <c r="K2" s="452"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="342"/>
+      <c r="A3" s="446"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7109,7 +7117,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="453" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="197">
@@ -7142,7 +7150,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="351"/>
+      <c r="A5" s="454"/>
       <c r="B5" s="199">
         <v>310016</v>
       </c>
@@ -7174,7 +7182,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="351"/>
+      <c r="A6" s="454"/>
       <c r="B6" s="220">
         <v>330001</v>
       </c>
@@ -7207,7 +7215,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="351"/>
+      <c r="A7" s="454"/>
       <c r="B7" s="220">
         <v>199023</v>
       </c>
@@ -7230,7 +7238,7 @@
       <c r="K7" s="335"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="351"/>
+      <c r="A8" s="454"/>
       <c r="B8" s="220">
         <v>310017</v>
       </c>
@@ -7254,7 +7262,7 @@
       <c r="K8" s="335"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="351"/>
+      <c r="A9" s="454"/>
       <c r="B9" s="193">
         <v>199186</v>
       </c>
@@ -7267,7 +7275,7 @@
       <c r="E9" s="119">
         <v>2</v>
       </c>
-      <c r="F9" s="402" t="s">
+      <c r="F9" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="221"/>
@@ -7277,14 +7285,14 @@
       <c r="K9" s="335"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="351"/>
+      <c r="A10" s="454"/>
       <c r="B10" s="193"/>
       <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="402" t="s">
+      <c r="F10" s="362" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="221"/>
@@ -7294,14 +7302,14 @@
       <c r="K10" s="335"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="351"/>
+      <c r="A11" s="454"/>
       <c r="B11" s="193"/>
       <c r="C11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="119"/>
-      <c r="F11" s="402" t="s">
+      <c r="F11" s="362" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="222"/>
@@ -7311,7 +7319,7 @@
       <c r="K11" s="125"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="351"/>
+      <c r="A12" s="454"/>
       <c r="B12" s="193"/>
       <c r="C12" s="22" t="s">
         <v>69</v>
@@ -7322,7 +7330,7 @@
       <c r="E12" s="24">
         <v>4</v>
       </c>
-      <c r="F12" s="402" t="s">
+      <c r="F12" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="222"/>
@@ -7332,7 +7340,7 @@
       <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="349" t="s">
+      <c r="A13" s="441" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="197">
@@ -7350,7 +7358,7 @@
       <c r="F13" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="450">
+      <c r="G13" s="410">
         <v>198328</v>
       </c>
       <c r="H13" s="285" t="s">
@@ -7365,7 +7373,7 @@
       <c r="K13" s="231"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="350"/>
+      <c r="A14" s="442"/>
       <c r="B14" s="199">
         <v>310009</v>
       </c>
@@ -7382,7 +7390,7 @@
       <c r="F14" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="451"/>
+      <c r="G14" s="411"/>
       <c r="H14" s="286" t="s">
         <v>87</v>
       </c>
@@ -7397,7 +7405,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="350"/>
+      <c r="A15" s="442"/>
       <c r="B15" s="199">
         <v>310013</v>
       </c>
@@ -7429,8 +7437,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="350"/>
-      <c r="B16" s="446">
+      <c r="A16" s="442"/>
+      <c r="B16" s="406">
         <v>1900102</v>
       </c>
       <c r="C16" s="319" t="s">
@@ -7439,16 +7447,16 @@
       <c r="D16" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="449">
+      <c r="E16" s="409">
         <v>1</v>
       </c>
-      <c r="F16" s="448" t="s">
+      <c r="F16" s="408" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="350"/>
-      <c r="B17" s="409"/>
+      <c r="A17" s="442"/>
+      <c r="B17" s="369"/>
       <c r="C17" s="38" t="s">
         <v>117</v>
       </c>
@@ -7458,10 +7466,10 @@
       <c r="E17" s="40">
         <v>4</v>
       </c>
-      <c r="F17" s="410" t="s">
+      <c r="F17" s="370" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="452"/>
+      <c r="G17" s="412"/>
       <c r="H17" s="111" t="s">
         <v>90</v>
       </c>
@@ -7476,8 +7484,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="350"/>
-      <c r="B18" s="452"/>
+      <c r="A18" s="442"/>
+      <c r="B18" s="412"/>
       <c r="C18" s="111" t="s">
         <v>70</v>
       </c>
@@ -7492,8 +7500,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="350"/>
-      <c r="B19" s="451"/>
+      <c r="A19" s="442"/>
+      <c r="B19" s="411"/>
       <c r="C19" s="286" t="s">
         <v>71</v>
       </c>
@@ -7508,8 +7516,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="350"/>
-      <c r="B20" s="451"/>
+      <c r="A20" s="442"/>
+      <c r="B20" s="411"/>
       <c r="C20" s="286" t="s">
         <v>72</v>
       </c>
@@ -7524,7 +7532,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="350"/>
+      <c r="A21" s="442"/>
       <c r="B21" s="193">
         <v>199645</v>
       </c>
@@ -7537,27 +7545,27 @@
       <c r="E21" s="13">
         <v>2</v>
       </c>
-      <c r="F21" s="402" t="s">
+      <c r="F21" s="362" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="453"/>
+      <c r="G21" s="413"/>
       <c r="H21" s="266"/>
       <c r="I21" s="237"/>
       <c r="J21" s="177"/>
-      <c r="K21" s="407"/>
+      <c r="K21" s="367"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="352"/>
+      <c r="A22" s="443"/>
       <c r="B22" s="210"/>
-      <c r="C22" s="379" t="s">
+      <c r="C22" s="340" t="s">
         <v>203</v>
       </c>
       <c r="D22" s="41"/>
-      <c r="E22" s="380"/>
-      <c r="F22" s="411" t="s">
+      <c r="E22" s="341"/>
+      <c r="F22" s="371" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="453">
+      <c r="G22" s="413">
         <v>199639</v>
       </c>
       <c r="H22" s="266" t="s">
@@ -7569,12 +7577,12 @@
       <c r="J22" s="177">
         <v>3</v>
       </c>
-      <c r="K22" s="407" t="s">
+      <c r="K22" s="367" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="349" t="s">
+      <c r="A23" s="441" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="197">
@@ -7607,7 +7615,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="350"/>
+      <c r="A24" s="442"/>
       <c r="B24" s="199">
         <v>310015</v>
       </c>
@@ -7639,7 +7647,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="350"/>
+      <c r="A25" s="442"/>
       <c r="B25" s="193">
         <v>199654</v>
       </c>
@@ -7652,10 +7660,10 @@
       <c r="E25" s="13">
         <v>3</v>
       </c>
-      <c r="F25" s="402" t="s">
+      <c r="F25" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="406">
+      <c r="G25" s="366">
         <v>199629</v>
       </c>
       <c r="H25" s="266" t="s">
@@ -7667,26 +7675,26 @@
       <c r="J25" s="177">
         <v>3</v>
       </c>
-      <c r="K25" s="407"/>
+      <c r="K25" s="367"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="350"/>
-      <c r="B26" s="412">
+      <c r="A26" s="442"/>
+      <c r="B26" s="372">
         <v>199655</v>
       </c>
-      <c r="C26" s="430" t="s">
+      <c r="C26" s="390" t="s">
         <v>230</v>
       </c>
-      <c r="D26" s="413">
+      <c r="D26" s="373">
         <v>32</v>
       </c>
-      <c r="E26" s="431">
+      <c r="E26" s="391">
         <v>1</v>
       </c>
-      <c r="F26" s="430" t="s">
+      <c r="F26" s="390" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="406"/>
+      <c r="G26" s="366"/>
       <c r="H26" s="266" t="s">
         <v>225</v>
       </c>
@@ -7696,12 +7704,12 @@
       <c r="J26" s="177">
         <v>1</v>
       </c>
-      <c r="K26" s="407" t="s">
+      <c r="K26" s="367" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="350"/>
+      <c r="A27" s="442"/>
       <c r="B27" s="193"/>
       <c r="C27" s="70" t="s">
         <v>122</v>
@@ -7712,10 +7720,10 @@
       <c r="E27" s="13">
         <v>4</v>
       </c>
-      <c r="F27" s="402" t="s">
+      <c r="F27" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="403"/>
+      <c r="G27" s="363"/>
       <c r="H27" s="111" t="s">
         <v>98</v>
       </c>
@@ -7730,24 +7738,24 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="350"/>
+      <c r="A28" s="442"/>
       <c r="B28" s="193"/>
-      <c r="C28" s="430" t="s">
+      <c r="C28" s="390" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="413">
+      <c r="D28" s="373">
         <v>32</v>
       </c>
-      <c r="E28" s="431">
+      <c r="E28" s="391">
         <v>1</v>
       </c>
-      <c r="F28" s="430" t="s">
+      <c r="F28" s="390" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="269">
         <v>199628</v>
       </c>
-      <c r="H28" s="461" t="s">
+      <c r="H28" s="421" t="s">
         <v>236</v>
       </c>
       <c r="I28" s="264">
@@ -7761,7 +7769,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="350"/>
+      <c r="A29" s="442"/>
       <c r="G29" s="269">
         <v>199648</v>
       </c>
@@ -7779,7 +7787,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="352"/>
+      <c r="A30" s="443"/>
       <c r="B30" s="210"/>
       <c r="C30" s="297" t="s">
         <v>33</v>
@@ -7799,24 +7807,24 @@
       <c r="J30" s="13">
         <v>3</v>
       </c>
-      <c r="K30" s="408" t="s">
+      <c r="K30" s="368" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="349" t="s">
+      <c r="A31" s="441" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="197">
         <v>3009004</v>
       </c>
-      <c r="C31" s="414" t="s">
+      <c r="C31" s="374" t="s">
         <v>214</v>
       </c>
       <c r="D31" s="6">
         <v>36</v>
       </c>
-      <c r="E31" s="415">
+      <c r="E31" s="375">
         <v>2</v>
       </c>
       <c r="F31" s="198" t="s">
@@ -7837,18 +7845,18 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="350"/>
+      <c r="A32" s="442"/>
       <c r="B32" s="199">
         <v>3100014</v>
       </c>
-      <c r="C32" s="397" t="s">
+      <c r="C32" s="358" t="s">
         <v>215</v>
       </c>
       <c r="D32" s="9">
         <f>18*E32</f>
         <v>108</v>
       </c>
-      <c r="E32" s="398">
+      <c r="E32" s="359">
         <v>6</v>
       </c>
       <c r="F32" s="200" t="s">
@@ -7857,13 +7865,13 @@
       <c r="G32" s="269">
         <v>199653</v>
       </c>
-      <c r="H32" s="400" t="s">
+      <c r="H32" s="361" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="462">
+      <c r="I32" s="422">
         <v>48</v>
       </c>
-      <c r="J32" s="463">
+      <c r="J32" s="423">
         <v>3</v>
       </c>
       <c r="K32" s="234" t="s">
@@ -7871,7 +7879,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="350"/>
+      <c r="A33" s="442"/>
       <c r="B33" s="203" t="s">
         <v>168</v>
       </c>
@@ -7888,7 +7896,7 @@
       <c r="G33" s="269">
         <v>199626</v>
       </c>
-      <c r="H33" s="399" t="s">
+      <c r="H33" s="360" t="s">
         <v>216</v>
       </c>
       <c r="I33" s="244">
@@ -7902,7 +7910,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="350"/>
+      <c r="A34" s="442"/>
       <c r="B34" s="203" t="s">
         <v>169</v>
       </c>
@@ -7919,7 +7927,7 @@
       <c r="G34" s="269">
         <v>199627</v>
       </c>
-      <c r="H34" s="399" t="s">
+      <c r="H34" s="360" t="s">
         <v>217</v>
       </c>
       <c r="I34" s="244">
@@ -7933,16 +7941,16 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="350"/>
-      <c r="B35" s="416"/>
-      <c r="C35" s="417"/>
-      <c r="D35" s="418"/>
-      <c r="E35" s="418"/>
-      <c r="F35" s="419"/>
+      <c r="A35" s="442"/>
+      <c r="B35" s="376"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="378"/>
+      <c r="F35" s="379"/>
       <c r="G35" s="269">
         <v>199630</v>
       </c>
-      <c r="H35" s="399" t="s">
+      <c r="H35" s="360" t="s">
         <v>143</v>
       </c>
       <c r="I35" s="244">
@@ -7956,12 +7964,12 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="350"/>
-      <c r="B36" s="416"/>
-      <c r="C36" s="417"/>
-      <c r="D36" s="418"/>
-      <c r="E36" s="418"/>
-      <c r="F36" s="419"/>
+      <c r="A36" s="442"/>
+      <c r="B36" s="376"/>
+      <c r="C36" s="377"/>
+      <c r="D36" s="378"/>
+      <c r="E36" s="378"/>
+      <c r="F36" s="379"/>
       <c r="G36" s="269">
         <v>199631</v>
       </c>
@@ -7979,7 +7987,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="352"/>
+      <c r="A37" s="443"/>
       <c r="B37" s="210"/>
       <c r="C37" s="297" t="s">
         <v>39</v>
@@ -7989,42 +7997,42 @@
       <c r="F37" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="433">
+      <c r="G37" s="393">
         <v>199641</v>
       </c>
-      <c r="H37" s="434" t="s">
+      <c r="H37" s="394" t="s">
         <v>221</v>
       </c>
-      <c r="I37" s="435">
+      <c r="I37" s="395">
         <v>32</v>
       </c>
       <c r="J37" s="274">
         <v>2</v>
       </c>
-      <c r="K37" s="436" t="s">
+      <c r="K37" s="396" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="349" t="s">
+      <c r="A38" s="441" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="420">
+      <c r="B38" s="380">
         <v>3300003</v>
       </c>
-      <c r="C38" s="421" t="s">
+      <c r="C38" s="381" t="s">
         <v>213</v>
       </c>
-      <c r="D38" s="422">
+      <c r="D38" s="382">
         <v>18</v>
       </c>
-      <c r="E38" s="423">
+      <c r="E38" s="383">
         <v>1</v>
       </c>
-      <c r="F38" s="424" t="s">
+      <c r="F38" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="437"/>
+      <c r="G38" s="397"/>
       <c r="H38" s="290" t="s">
         <v>100</v>
       </c>
@@ -8039,18 +8047,18 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="350"/>
-      <c r="B39" s="425"/>
-      <c r="C39" s="426" t="s">
+      <c r="A39" s="442"/>
+      <c r="B39" s="385"/>
+      <c r="C39" s="386" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="427">
+      <c r="D39" s="387">
         <v>48</v>
       </c>
-      <c r="E39" s="428">
+      <c r="E39" s="388">
         <v>3</v>
       </c>
-      <c r="F39" s="402" t="s">
+      <c r="F39" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="270">
@@ -8068,18 +8076,18 @@
       <c r="K39" s="271"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="350"/>
-      <c r="B40" s="425"/>
-      <c r="C40" s="430" t="s">
+      <c r="A40" s="442"/>
+      <c r="B40" s="385"/>
+      <c r="C40" s="390" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="413">
+      <c r="D40" s="373">
         <v>32</v>
       </c>
-      <c r="E40" s="431">
+      <c r="E40" s="391">
         <v>1</v>
       </c>
-      <c r="F40" s="430" t="s">
+      <c r="F40" s="390" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="269">
@@ -8097,18 +8105,18 @@
       <c r="K40" s="335"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="350"/>
-      <c r="B41" s="425"/>
+      <c r="A41" s="442"/>
+      <c r="B41" s="385"/>
       <c r="C41" s="50" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="12">
         <v>64</v>
       </c>
-      <c r="E41" s="429">
+      <c r="E41" s="389">
         <v>4</v>
       </c>
-      <c r="F41" s="402" t="s">
+      <c r="F41" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="269"/>
@@ -8126,18 +8134,18 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="350"/>
-      <c r="B42" s="425"/>
-      <c r="C42" s="430" t="s">
+      <c r="A42" s="442"/>
+      <c r="B42" s="385"/>
+      <c r="C42" s="390" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="413">
+      <c r="D42" s="373">
         <v>40</v>
       </c>
-      <c r="E42" s="431">
+      <c r="E42" s="391">
         <v>1</v>
       </c>
-      <c r="F42" s="430" t="s">
+      <c r="F42" s="390" t="s">
         <v>227</v>
       </c>
       <c r="G42" s="269"/>
@@ -8155,18 +8163,18 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="350"/>
-      <c r="B43" s="425"/>
+      <c r="A43" s="442"/>
+      <c r="B43" s="385"/>
       <c r="C43" s="50" t="s">
         <v>82</v>
       </c>
       <c r="D43" s="12">
         <v>48</v>
       </c>
-      <c r="E43" s="429">
+      <c r="E43" s="389">
         <v>3</v>
       </c>
-      <c r="F43" s="402" t="s">
+      <c r="F43" s="362" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="269"/>
@@ -8184,18 +8192,18 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="350"/>
-      <c r="B44" s="425"/>
-      <c r="C44" s="430" t="s">
+      <c r="A44" s="442"/>
+      <c r="B44" s="385"/>
+      <c r="C44" s="390" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="413">
+      <c r="D44" s="373">
         <v>16</v>
       </c>
-      <c r="E44" s="431">
+      <c r="E44" s="391">
         <v>0.5</v>
       </c>
-      <c r="F44" s="430" t="s">
+      <c r="F44" s="390" t="s">
         <v>229</v>
       </c>
       <c r="G44" s="269" t="s">
@@ -8213,12 +8221,12 @@
       <c r="K44" s="234"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="350"/>
-      <c r="B45" s="425"/>
+      <c r="A45" s="442"/>
+      <c r="B45" s="385"/>
       <c r="C45" s="60"/>
       <c r="D45" s="43"/>
       <c r="E45" s="61"/>
-      <c r="F45" s="410"/>
+      <c r="F45" s="370"/>
       <c r="G45" s="269" t="s">
         <v>110</v>
       </c>
@@ -8234,39 +8242,39 @@
       <c r="K45" s="234"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1">
-      <c r="A46" s="352"/>
+      <c r="A46" s="443"/>
       <c r="B46" s="210"/>
       <c r="C46" s="297" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="62"/>
       <c r="E46" s="63"/>
-      <c r="F46" s="432" t="s">
+      <c r="F46" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="404"/>
-      <c r="H46" s="438"/>
-      <c r="I46" s="439"/>
-      <c r="J46" s="440"/>
-      <c r="K46" s="405"/>
+      <c r="G46" s="364"/>
+      <c r="H46" s="398"/>
+      <c r="I46" s="399"/>
+      <c r="J46" s="400"/>
+      <c r="K46" s="365"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="350" t="s">
+      <c r="A47" s="442" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="420">
+      <c r="B47" s="380">
         <v>3300005</v>
       </c>
-      <c r="C47" s="445" t="s">
+      <c r="C47" s="405" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="422">
+      <c r="D47" s="382">
         <v>18</v>
       </c>
-      <c r="E47" s="423">
+      <c r="E47" s="383">
         <v>1</v>
       </c>
-      <c r="F47" s="424" t="s">
+      <c r="F47" s="384" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="188"/>
@@ -8284,8 +8292,8 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="350"/>
-      <c r="B48" s="446">
+      <c r="A48" s="442"/>
+      <c r="B48" s="406">
         <v>1900103</v>
       </c>
       <c r="C48" s="319" t="s">
@@ -8294,10 +8302,10 @@
       <c r="D48" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="447">
+      <c r="E48" s="407">
         <v>1</v>
       </c>
-      <c r="F48" s="448" t="s">
+      <c r="F48" s="408" t="s">
         <v>46</v>
       </c>
       <c r="G48" s="262"/>
@@ -8315,7 +8323,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="350"/>
+      <c r="A49" s="442"/>
       <c r="B49" s="203" t="s">
         <v>237</v>
       </c>
@@ -8328,10 +8336,10 @@
       <c r="E49" s="13">
         <v>3</v>
       </c>
-      <c r="F49" s="408" t="s">
+      <c r="F49" s="368" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="406"/>
+      <c r="G49" s="366"/>
       <c r="H49" s="266" t="s">
         <v>223</v>
       </c>
@@ -8341,7 +8349,7 @@
       <c r="J49" s="177">
         <v>1</v>
       </c>
-      <c r="K49" s="407" t="s">
+      <c r="K49" s="367" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8359,7 +8367,7 @@
       <c r="E50" s="13">
         <v>1</v>
       </c>
-      <c r="F50" s="408" t="s">
+      <c r="F50" s="368" t="s">
         <v>232</v>
       </c>
       <c r="G50" s="269">
@@ -8378,11 +8386,11 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="338"/>
-      <c r="B51" s="416"/>
-      <c r="C51" s="417"/>
-      <c r="D51" s="418"/>
-      <c r="E51" s="418"/>
-      <c r="F51" s="419"/>
+      <c r="B51" s="376"/>
+      <c r="C51" s="377"/>
+      <c r="D51" s="378"/>
+      <c r="E51" s="378"/>
+      <c r="F51" s="379"/>
       <c r="G51" s="269">
         <v>199621</v>
       </c>
@@ -8399,11 +8407,11 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="338"/>
-      <c r="B52" s="416"/>
-      <c r="C52" s="417"/>
-      <c r="D52" s="418"/>
-      <c r="E52" s="418"/>
-      <c r="F52" s="419"/>
+      <c r="B52" s="376"/>
+      <c r="C52" s="377"/>
+      <c r="D52" s="378"/>
+      <c r="E52" s="378"/>
+      <c r="F52" s="379"/>
       <c r="G52" s="269">
         <v>199622</v>
       </c>
@@ -8424,8 +8432,8 @@
       <c r="C53" s="38"/>
       <c r="D53" s="43"/>
       <c r="E53" s="65"/>
-      <c r="F53" s="410"/>
-      <c r="G53" s="406">
+      <c r="F53" s="370"/>
+      <c r="G53" s="366">
         <v>199641</v>
       </c>
       <c r="H53" s="266" t="s">
@@ -8437,17 +8445,17 @@
       <c r="J53" s="177">
         <v>2</v>
       </c>
-      <c r="K53" s="407" t="s">
+      <c r="K53" s="367" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="338"/>
-      <c r="B54" s="456"/>
-      <c r="C54" s="457"/>
-      <c r="D54" s="458"/>
-      <c r="E54" s="459"/>
-      <c r="F54" s="460"/>
+      <c r="B54" s="416"/>
+      <c r="C54" s="417"/>
+      <c r="D54" s="418"/>
+      <c r="E54" s="419"/>
+      <c r="F54" s="420"/>
       <c r="G54" s="203">
         <v>199783</v>
       </c>
@@ -8460,17 +8468,17 @@
       <c r="J54" s="13">
         <v>3</v>
       </c>
-      <c r="K54" s="408" t="s">
+      <c r="K54" s="368" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="338"/>
-      <c r="B55" s="456"/>
-      <c r="C55" s="457"/>
-      <c r="D55" s="458"/>
-      <c r="E55" s="459"/>
-      <c r="F55" s="460"/>
+      <c r="B55" s="416"/>
+      <c r="C55" s="417"/>
+      <c r="D55" s="418"/>
+      <c r="E55" s="419"/>
+      <c r="F55" s="420"/>
       <c r="G55" s="203">
         <v>199784</v>
       </c>
@@ -8483,7 +8491,7 @@
       <c r="J55" s="13">
         <v>1</v>
       </c>
-      <c r="K55" s="408" t="s">
+      <c r="K55" s="368" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8498,7 +8506,7 @@
       <c r="F56" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="404" t="s">
+      <c r="G56" s="364" t="s">
         <v>110</v>
       </c>
       <c r="H56" s="71" t="s">
@@ -8513,25 +8521,25 @@
       <c r="K56" s="31"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="349" t="s">
+      <c r="A57" s="441" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="381">
+      <c r="B57" s="342">
         <v>1900104</v>
       </c>
-      <c r="C57" s="382" t="s">
+      <c r="C57" s="343" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="381" t="s">
+      <c r="D57" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="383">
+      <c r="E57" s="344">
         <v>3</v>
       </c>
-      <c r="F57" s="442" t="s">
+      <c r="F57" s="402" t="s">
         <v>205</v>
       </c>
-      <c r="G57" s="444"/>
+      <c r="G57" s="404"/>
       <c r="H57" s="290" t="s">
         <v>101</v>
       </c>
@@ -8546,20 +8554,20 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="350"/>
-      <c r="B58" s="381">
+      <c r="A58" s="442"/>
+      <c r="B58" s="342">
         <v>1900105</v>
       </c>
-      <c r="C58" s="382" t="s">
+      <c r="C58" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="381" t="s">
+      <c r="D58" s="342" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="383">
+      <c r="E58" s="344">
         <v>1</v>
       </c>
-      <c r="F58" s="441" t="s">
+      <c r="F58" s="401" t="s">
         <v>27</v>
       </c>
       <c r="G58" s="269"/>
@@ -8577,20 +8585,20 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="350"/>
-      <c r="B59" s="381">
+      <c r="A59" s="442"/>
+      <c r="B59" s="342">
         <v>1900107</v>
       </c>
-      <c r="C59" s="382" t="s">
+      <c r="C59" s="343" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="381" t="s">
+      <c r="D59" s="342" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="383">
+      <c r="E59" s="344">
         <v>1</v>
       </c>
-      <c r="F59" s="441" t="s">
+      <c r="F59" s="401" t="s">
         <v>27</v>
       </c>
       <c r="G59" s="269" t="s">
@@ -8610,18 +8618,18 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="350"/>
-      <c r="B60" s="385"/>
-      <c r="C60" s="386" t="s">
+      <c r="A60" s="442"/>
+      <c r="B60" s="346"/>
+      <c r="C60" s="347" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="387" t="s">
+      <c r="D60" s="348" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="388">
+      <c r="E60" s="349">
         <v>2</v>
       </c>
-      <c r="F60" s="443" t="s">
+      <c r="F60" s="403" t="s">
         <v>32</v>
       </c>
       <c r="G60" s="269" t="s">
@@ -8641,8 +8649,8 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1">
-      <c r="A61" s="350"/>
-      <c r="B61" s="404">
+      <c r="A61" s="442"/>
+      <c r="B61" s="364">
         <v>199650</v>
       </c>
       <c r="C61" s="71" t="s">
@@ -8670,7 +8678,7 @@
       <c r="K61" s="335"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="350"/>
+      <c r="A62" s="442"/>
       <c r="B62" s="21"/>
       <c r="C62" s="38" t="s">
         <v>112</v>
@@ -8686,7 +8694,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="350"/>
+      <c r="A63" s="442"/>
       <c r="B63" s="21"/>
       <c r="C63" s="38" t="s">
         <v>110</v>
@@ -8702,13 +8710,13 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="352"/>
+      <c r="A64" s="443"/>
       <c r="B64" s="21"/>
       <c r="C64" s="38"/>
       <c r="D64" s="43"/>
       <c r="E64" s="65"/>
       <c r="F64" s="252"/>
-      <c r="G64" s="404">
+      <c r="G64" s="364">
         <v>199650</v>
       </c>
       <c r="H64" s="71" t="s">
@@ -8726,19 +8734,19 @@
       <c r="A65" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="389">
+      <c r="B65" s="350">
         <v>1900106</v>
       </c>
-      <c r="C65" s="390" t="s">
+      <c r="C65" s="351" t="s">
         <v>208</v>
       </c>
-      <c r="D65" s="389" t="s">
+      <c r="D65" s="350" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="391">
+      <c r="E65" s="352">
         <v>3</v>
       </c>
-      <c r="F65" s="384" t="s">
+      <c r="F65" s="345" t="s">
         <v>46</v>
       </c>
       <c r="G65" s="259"/>
@@ -8749,17 +8757,17 @@
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1">
       <c r="A66" s="76"/>
-      <c r="B66" s="392"/>
-      <c r="C66" s="393" t="s">
+      <c r="B66" s="353"/>
+      <c r="C66" s="354" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="394" t="s">
+      <c r="D66" s="355" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="395">
+      <c r="E66" s="356">
         <v>1</v>
       </c>
-      <c r="F66" s="396" t="s">
+      <c r="F66" s="357" t="s">
         <v>211</v>
       </c>
       <c r="G66" s="258"/>
@@ -8860,21 +8868,21 @@
         <v>56</v>
       </c>
       <c r="B73" s="337"/>
-      <c r="C73" s="362" t="s">
+      <c r="C73" s="432" t="s">
         <v>182</v>
       </c>
-      <c r="D73" s="363"/>
-      <c r="E73" s="364"/>
-      <c r="F73" s="362" t="s">
+      <c r="D73" s="433"/>
+      <c r="E73" s="434"/>
+      <c r="F73" s="432" t="s">
         <v>183</v>
       </c>
-      <c r="G73" s="363"/>
-      <c r="H73" s="364"/>
-      <c r="I73" s="365" t="s">
+      <c r="G73" s="433"/>
+      <c r="H73" s="434"/>
+      <c r="I73" s="435" t="s">
         <v>184</v>
       </c>
-      <c r="J73" s="365"/>
-      <c r="K73" s="366"/>
+      <c r="J73" s="435"/>
+      <c r="K73" s="436"/>
     </row>
     <row r="74" spans="1:11" ht="26">
       <c r="A74" s="333">
@@ -8902,20 +8910,19 @@
         <v>112</v>
       </c>
       <c r="H74" s="317">
-        <f>SUM(E6+E8+E47)</f>
-        <v>4</v>
-      </c>
-      <c r="I74" s="367" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="437" t="s">
         <v>186</v>
       </c>
-      <c r="J74" s="368"/>
-      <c r="K74" s="369"/>
+      <c r="J74" s="438"/>
+      <c r="K74" s="439"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="370">
+      <c r="A75" s="424">
         <v>2</v>
       </c>
-      <c r="B75" s="371" t="s">
+      <c r="B75" s="440" t="s">
         <v>59</v>
       </c>
       <c r="C75" s="318"/>
@@ -8929,13 +8936,13 @@
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I75" s="373"/>
-      <c r="J75" s="373"/>
-      <c r="K75" s="374"/>
+      <c r="I75" s="428"/>
+      <c r="J75" s="428"/>
+      <c r="K75" s="429"/>
     </row>
     <row r="76" spans="1:11" ht="26">
-      <c r="A76" s="370"/>
-      <c r="B76" s="372"/>
+      <c r="A76" s="424"/>
+      <c r="B76" s="425"/>
       <c r="C76" s="321"/>
       <c r="D76" s="322"/>
       <c r="E76" s="322"/>
@@ -8943,17 +8950,19 @@
         <v>196</v>
       </c>
       <c r="G76" s="322"/>
-      <c r="H76" s="322"/>
-      <c r="I76" s="373"/>
-      <c r="J76" s="373"/>
-      <c r="K76" s="374"/>
+      <c r="H76" s="322">
+        <v>5</v>
+      </c>
+      <c r="I76" s="428"/>
+      <c r="J76" s="428"/>
+      <c r="K76" s="429"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="370">
+      <c r="A77" s="424">
         <v>3</v>
       </c>
-      <c r="B77" s="372" t="s">
-        <v>188</v>
+      <c r="B77" s="425" t="s">
+        <v>241</v>
       </c>
       <c r="C77" s="324" t="s">
         <v>189</v>
@@ -8967,14 +8976,16 @@
         <v>190</v>
       </c>
       <c r="G77" s="328"/>
-      <c r="H77" s="328"/>
-      <c r="I77" s="375"/>
-      <c r="J77" s="375"/>
-      <c r="K77" s="376"/>
+      <c r="H77" s="328">
+        <v>30.5</v>
+      </c>
+      <c r="I77" s="426"/>
+      <c r="J77" s="426"/>
+      <c r="K77" s="427"/>
     </row>
     <row r="78" spans="1:11" ht="26">
-      <c r="A78" s="370"/>
-      <c r="B78" s="372"/>
+      <c r="A78" s="424"/>
+      <c r="B78" s="425"/>
       <c r="C78" s="324" t="s">
         <v>197</v>
       </c>
@@ -8985,20 +8996,20 @@
       </c>
       <c r="G78" s="334"/>
       <c r="H78" s="100"/>
-      <c r="I78" s="373"/>
-      <c r="J78" s="373"/>
-      <c r="K78" s="374"/>
+      <c r="I78" s="428"/>
+      <c r="J78" s="428"/>
+      <c r="K78" s="429"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1">
       <c r="A79" s="330" t="s">
         <v>66</v>
       </c>
       <c r="B79" s="331">
-        <v>140</v>
+        <f>E79+H74+H75+H76+H77</f>
+        <v>130</v>
       </c>
       <c r="C79" s="336">
-        <f>24+10+3+32+15</f>
-        <v>84</v>
+        <v>66.5</v>
       </c>
       <c r="D79" s="336"/>
       <c r="E79" s="331">
@@ -9012,11 +9023,11 @@
       <c r="G79" s="336"/>
       <c r="H79" s="331">
         <f>SUM(H74:H78)</f>
-        <v>14</v>
-      </c>
-      <c r="I79" s="377"/>
-      <c r="J79" s="377"/>
-      <c r="K79" s="378"/>
+        <v>63.5</v>
+      </c>
+      <c r="I79" s="430"/>
+      <c r="J79" s="430"/>
+      <c r="K79" s="431"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="93"/>
@@ -9065,11 +9076,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
     <mergeCell ref="F73:H73"/>
     <mergeCell ref="I73:K73"/>
     <mergeCell ref="I74:K74"/>
@@ -9077,18 +9094,12 @@
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="I75:K75"/>
     <mergeCell ref="I76:K76"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9126,41 +9137,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="444" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="445" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="447" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="346" t="s">
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="348"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="451"/>
+      <c r="J2" s="451"/>
+      <c r="K2" s="452"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="342"/>
+      <c r="A3" s="446"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9193,7 +9204,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="349" t="s">
+      <c r="A4" s="441" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5">
@@ -9226,7 +9237,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="350"/>
+      <c r="A5" s="442"/>
       <c r="B5" s="8">
         <v>310016</v>
       </c>
@@ -9258,7 +9269,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="350"/>
+      <c r="A6" s="442"/>
       <c r="B6" s="15">
         <v>330001</v>
       </c>
@@ -9291,7 +9302,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="350"/>
+      <c r="A7" s="442"/>
       <c r="B7" s="220">
         <v>199023</v>
       </c>
@@ -9314,7 +9325,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="350"/>
+      <c r="A8" s="442"/>
       <c r="B8" s="15">
         <v>310017</v>
       </c>
@@ -9338,7 +9349,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="350"/>
+      <c r="A9" s="442"/>
       <c r="B9" s="21">
         <v>199186</v>
       </c>
@@ -9361,7 +9372,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="350"/>
+      <c r="A10" s="442"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
         <v>19</v>
@@ -9378,7 +9389,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="350"/>
+      <c r="A11" s="442"/>
       <c r="B11" s="122"/>
       <c r="C11" s="22" t="s">
         <v>21</v>
@@ -9395,7 +9406,7 @@
       <c r="K11" s="125"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="351"/>
+      <c r="A12" s="454"/>
       <c r="B12" s="181"/>
       <c r="C12" s="295" t="s">
         <v>69</v>
@@ -9416,7 +9427,7 @@
       <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="351"/>
+      <c r="A13" s="454"/>
       <c r="B13" s="182"/>
       <c r="C13" s="296"/>
       <c r="D13" s="162"/>
@@ -9429,7 +9440,7 @@
       <c r="K13" s="125"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="A14" s="352"/>
+      <c r="A14" s="443"/>
       <c r="B14" s="26"/>
       <c r="C14" s="297"/>
       <c r="D14" s="27"/>
@@ -9442,7 +9453,7 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="16">
-      <c r="A15" s="349" t="s">
+      <c r="A15" s="441" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="32">
@@ -9475,7 +9486,7 @@
       <c r="K15" s="247"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="350"/>
+      <c r="A16" s="442"/>
       <c r="B16" s="8">
         <v>310009</v>
       </c>
@@ -9507,7 +9518,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="350"/>
+      <c r="A17" s="442"/>
       <c r="B17" s="8">
         <v>310013</v>
       </c>
@@ -9539,7 +9550,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="350"/>
+      <c r="A18" s="442"/>
       <c r="B18" s="105"/>
       <c r="C18" s="299" t="s">
         <v>25</v>
@@ -9570,7 +9581,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="350"/>
+      <c r="A19" s="442"/>
       <c r="B19" s="21" t="s">
         <v>173</v>
       </c>
@@ -9601,7 +9612,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="350"/>
+      <c r="A20" s="442"/>
       <c r="B20" s="37"/>
       <c r="C20" s="38" t="s">
         <v>110</v>
@@ -9630,7 +9641,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="350"/>
+      <c r="A21" s="442"/>
       <c r="B21" s="37"/>
       <c r="C21" s="38" t="s">
         <v>117</v>
@@ -9659,7 +9670,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="350"/>
+      <c r="A22" s="442"/>
       <c r="B22" s="21"/>
       <c r="C22" s="130" t="s">
         <v>73</v>
@@ -9688,7 +9699,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="16">
-      <c r="A23" s="350"/>
+      <c r="A23" s="442"/>
       <c r="B23" s="21" t="s">
         <v>169</v>
       </c>
@@ -9721,7 +9732,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="350"/>
+      <c r="A24" s="442"/>
       <c r="B24" s="37"/>
       <c r="C24" s="288" t="s">
         <v>71</v>
@@ -9750,7 +9761,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="350"/>
+      <c r="A25" s="442"/>
       <c r="B25" s="37"/>
       <c r="C25" s="288" t="s">
         <v>72</v>
@@ -9779,7 +9790,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="350"/>
+      <c r="A26" s="442"/>
       <c r="B26" s="37"/>
       <c r="C26" s="111" t="s">
         <v>70</v>
@@ -9810,7 +9821,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1">
-      <c r="A27" s="352"/>
+      <c r="A27" s="443"/>
       <c r="B27" s="26"/>
       <c r="C27" s="297" t="s">
         <v>115</v>
@@ -9841,7 +9852,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="349" t="s">
+      <c r="A28" s="441" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="32">
@@ -9874,7 +9885,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="350"/>
+      <c r="A29" s="442"/>
       <c r="B29" s="8">
         <v>310015</v>
       </c>
@@ -9906,7 +9917,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="350"/>
+      <c r="A30" s="442"/>
       <c r="B30" s="21">
         <v>199654</v>
       </c>
@@ -9937,7 +9948,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="350"/>
+      <c r="A31" s="442"/>
       <c r="B31" s="136">
         <v>199655</v>
       </c>
@@ -9968,7 +9979,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="350"/>
+      <c r="A32" s="442"/>
       <c r="B32" s="21"/>
       <c r="C32" s="87" t="s">
         <v>122</v>
@@ -9997,7 +10008,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="350"/>
+      <c r="A33" s="442"/>
       <c r="B33" s="21"/>
       <c r="C33" s="135" t="s">
         <v>75</v>
@@ -10026,7 +10037,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="350"/>
+      <c r="A34" s="442"/>
       <c r="B34" s="45"/>
       <c r="C34" s="22" t="s">
         <v>95</v>
@@ -10055,7 +10066,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1">
-      <c r="A35" s="350"/>
+      <c r="A35" s="442"/>
       <c r="B35" s="45">
         <v>199628</v>
       </c>
@@ -10086,7 +10097,7 @@
       <c r="K35" s="275"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="350"/>
+      <c r="A36" s="442"/>
       <c r="B36" s="45" t="s">
         <v>127</v>
       </c>
@@ -10117,7 +10128,7 @@
       <c r="K36" s="234"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="350"/>
+      <c r="A37" s="442"/>
       <c r="B37" s="45"/>
       <c r="C37" s="22"/>
       <c r="D37" s="12"/>
@@ -10130,7 +10141,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1">
-      <c r="A38" s="352"/>
+      <c r="A38" s="443"/>
       <c r="B38" s="26"/>
       <c r="C38" s="297" t="s">
         <v>33</v>
@@ -10147,7 +10158,7 @@
       <c r="K38" s="31"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="349" t="s">
+      <c r="A39" s="441" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="197">
@@ -10180,7 +10191,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="350"/>
+      <c r="A40" s="442"/>
       <c r="B40" s="199">
         <v>310014</v>
       </c>
@@ -10212,7 +10223,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="350"/>
+      <c r="A41" s="442"/>
       <c r="B41" s="201"/>
       <c r="C41" s="299" t="s">
         <v>37</v>
@@ -10241,7 +10252,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" thickBot="1">
-      <c r="A42" s="350"/>
+      <c r="A42" s="442"/>
       <c r="B42" s="203" t="s">
         <v>179</v>
       </c>
@@ -10274,7 +10285,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="350"/>
+      <c r="A43" s="442"/>
       <c r="B43" s="203"/>
       <c r="C43" s="22" t="s">
         <v>174</v>
@@ -10305,7 +10316,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="350"/>
+      <c r="A44" s="442"/>
       <c r="B44" s="203"/>
       <c r="C44" s="22" t="s">
         <v>175</v>
@@ -10336,7 +10347,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="350"/>
+      <c r="A45" s="442"/>
       <c r="B45" s="203"/>
       <c r="C45" s="22" t="s">
         <v>112</v>
@@ -10367,7 +10378,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="350"/>
+      <c r="A46" s="442"/>
       <c r="B46" s="205"/>
       <c r="C46" s="146" t="s">
         <v>112</v>
@@ -10398,7 +10409,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="350"/>
+      <c r="A47" s="442"/>
       <c r="B47" s="206" t="s">
         <v>111</v>
       </c>
@@ -10429,7 +10440,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="350"/>
+      <c r="A48" s="442"/>
       <c r="B48" s="208"/>
       <c r="C48" s="153" t="s">
         <v>37</v>
@@ -10450,7 +10461,7 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="350"/>
+      <c r="A49" s="442"/>
       <c r="B49" s="190"/>
       <c r="C49" s="38"/>
       <c r="D49" s="43"/>
@@ -10463,7 +10474,7 @@
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1">
-      <c r="A50" s="352"/>
+      <c r="A50" s="443"/>
       <c r="B50" s="210"/>
       <c r="C50" s="297" t="s">
         <v>39</v>
@@ -10480,7 +10491,7 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="349" t="s">
+      <c r="A51" s="441" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="55">
@@ -10513,7 +10524,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="350"/>
+      <c r="A52" s="442"/>
       <c r="B52" s="59"/>
       <c r="C52" s="142" t="s">
         <v>78</v>
@@ -10542,7 +10553,7 @@
       <c r="K52" s="271"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="350"/>
+      <c r="A53" s="442"/>
       <c r="B53" s="59"/>
       <c r="C53" s="135" t="s">
         <v>79</v>
@@ -10571,7 +10582,7 @@
       <c r="K53" s="257"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="350"/>
+      <c r="A54" s="442"/>
       <c r="B54" s="59"/>
       <c r="C54" s="305" t="s">
         <v>80</v>
@@ -10600,7 +10611,7 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="350"/>
+      <c r="A55" s="442"/>
       <c r="B55" s="59"/>
       <c r="C55" s="306" t="s">
         <v>81</v>
@@ -10629,7 +10640,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="350"/>
+      <c r="A56" s="442"/>
       <c r="B56" s="59"/>
       <c r="C56" s="305" t="s">
         <v>82</v>
@@ -10658,7 +10669,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="350"/>
+      <c r="A57" s="442"/>
       <c r="B57" s="59"/>
       <c r="C57" s="306" t="s">
         <v>83</v>
@@ -10687,7 +10698,7 @@
       <c r="K57" s="234"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="350"/>
+      <c r="A58" s="442"/>
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="43"/>
@@ -10708,7 +10719,7 @@
       <c r="K58" s="234"/>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1">
-      <c r="A59" s="352"/>
+      <c r="A59" s="443"/>
       <c r="B59" s="26"/>
       <c r="C59" s="297" t="s">
         <v>42</v>
@@ -10725,7 +10736,7 @@
       <c r="K59" s="234"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="350" t="s">
+      <c r="A60" s="442" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="55"/>
@@ -10756,7 +10767,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="350"/>
+      <c r="A61" s="442"/>
       <c r="B61" s="105"/>
       <c r="C61" s="299" t="s">
         <v>45</v>
@@ -10785,7 +10796,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="350"/>
+      <c r="A62" s="442"/>
       <c r="B62" s="21"/>
       <c r="C62" s="151" t="s">
         <v>84</v>
@@ -10947,7 +10958,7 @@
       <c r="K67" s="257"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="349" t="s">
+      <c r="A68" s="441" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="105"/>
@@ -10978,7 +10989,7 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="350"/>
+      <c r="A69" s="442"/>
       <c r="B69" s="105"/>
       <c r="C69" s="299" t="s">
         <v>51</v>
@@ -11007,7 +11018,7 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="350"/>
+      <c r="A70" s="442"/>
       <c r="B70" s="106"/>
       <c r="C70" s="308" t="s">
         <v>52</v>
@@ -11036,7 +11047,7 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="350"/>
+      <c r="A71" s="442"/>
       <c r="B71" s="106"/>
       <c r="C71" s="308" t="s">
         <v>53</v>
@@ -11065,7 +11076,7 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="350"/>
+      <c r="A72" s="442"/>
       <c r="B72" s="21"/>
       <c r="C72" s="38" t="s">
         <v>137</v>
@@ -11094,7 +11105,7 @@
       <c r="K72" s="257"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="350"/>
+      <c r="A73" s="442"/>
       <c r="B73" s="21"/>
       <c r="C73" s="38" t="s">
         <v>112</v>
@@ -11123,7 +11134,7 @@
       <c r="K73" s="257"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="350"/>
+      <c r="A74" s="442"/>
       <c r="B74" s="21"/>
       <c r="C74" s="38" t="s">
         <v>128</v>
@@ -11152,7 +11163,7 @@
       <c r="K74" s="257"/>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1">
-      <c r="A75" s="352"/>
+      <c r="A75" s="443"/>
       <c r="B75" s="21"/>
       <c r="C75" s="38"/>
       <c r="D75" s="43"/>
@@ -11302,10 +11313,10 @@
       <c r="K82" s="99"/>
     </row>
     <row r="83" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A83" s="353">
+      <c r="A83" s="458">
         <v>2</v>
       </c>
-      <c r="B83" s="357" t="s">
+      <c r="B83" s="455" t="s">
         <v>59</v>
       </c>
       <c r="C83" s="299" t="s">
@@ -11324,8 +11335,8 @@
       <c r="K83" s="94"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="354"/>
-      <c r="B84" s="358"/>
+      <c r="A84" s="462"/>
+      <c r="B84" s="456"/>
       <c r="C84" s="299" t="s">
         <v>61</v>
       </c>
@@ -11339,8 +11350,8 @@
       <c r="K84" s="94"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="355"/>
-      <c r="B85" s="359"/>
+      <c r="A85" s="459"/>
+      <c r="B85" s="457"/>
       <c r="C85" s="310" t="s">
         <v>62</v>
       </c>
@@ -11357,10 +11368,10 @@
       <c r="K85" s="94"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="353">
+      <c r="A86" s="458">
         <v>3</v>
       </c>
-      <c r="B86" s="360" t="s">
+      <c r="B86" s="460" t="s">
         <v>108</v>
       </c>
       <c r="C86" s="70" t="s">
@@ -11384,8 +11395,8 @@
       <c r="K86" s="94"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="355"/>
-      <c r="B87" s="361"/>
+      <c r="A87" s="459"/>
+      <c r="B87" s="461"/>
       <c r="C87" s="70" t="s">
         <v>65</v>
       </c>
@@ -11409,10 +11420,10 @@
       <c r="K87" s="94"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="353" t="s">
+      <c r="A88" s="458" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="356" t="s">
+      <c r="B88" s="463" t="s">
         <v>162</v>
       </c>
       <c r="C88" s="160" t="s">
@@ -11436,8 +11447,8 @@
       <c r="K88" s="94"/>
     </row>
     <row r="89" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A89" s="354"/>
-      <c r="B89" s="356"/>
+      <c r="A89" s="462"/>
+      <c r="B89" s="463"/>
       <c r="C89" s="161" t="s">
         <v>163</v>
       </c>
@@ -11459,8 +11470,8 @@
       <c r="K89" s="94"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="355"/>
-      <c r="B90" s="356"/>
+      <c r="A90" s="459"/>
+      <c r="B90" s="463"/>
       <c r="C90" s="153" t="s">
         <v>126</v>
       </c>
@@ -11538,21 +11549,21 @@
         <v>56</v>
       </c>
       <c r="B95" s="312"/>
-      <c r="C95" s="362" t="s">
+      <c r="C95" s="432" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="363"/>
-      <c r="E95" s="364"/>
-      <c r="F95" s="362" t="s">
+      <c r="D95" s="433"/>
+      <c r="E95" s="434"/>
+      <c r="F95" s="432" t="s">
         <v>183</v>
       </c>
-      <c r="G95" s="363"/>
-      <c r="H95" s="364"/>
-      <c r="I95" s="365" t="s">
+      <c r="G95" s="433"/>
+      <c r="H95" s="434"/>
+      <c r="I95" s="435" t="s">
         <v>184</v>
       </c>
-      <c r="J95" s="365"/>
-      <c r="K95" s="366"/>
+      <c r="J95" s="435"/>
+      <c r="K95" s="436"/>
     </row>
     <row r="96" spans="1:11" ht="26">
       <c r="A96" s="313">
@@ -11583,17 +11594,17 @@
         <f>SUM(E41:E43,E71,E79)</f>
         <v>5</v>
       </c>
-      <c r="I96" s="367" t="s">
+      <c r="I96" s="437" t="s">
         <v>186</v>
       </c>
-      <c r="J96" s="368"/>
-      <c r="K96" s="369"/>
+      <c r="J96" s="438"/>
+      <c r="K96" s="439"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="370">
+      <c r="A97" s="424">
         <v>2</v>
       </c>
-      <c r="B97" s="371" t="s">
+      <c r="B97" s="440" t="s">
         <v>59</v>
       </c>
       <c r="C97" s="318"/>
@@ -11607,13 +11618,13 @@
         <f>SUM(E50,E80,E86:E88,E90)</f>
         <v>44</v>
       </c>
-      <c r="I97" s="373"/>
-      <c r="J97" s="373"/>
-      <c r="K97" s="374"/>
+      <c r="I97" s="428"/>
+      <c r="J97" s="428"/>
+      <c r="K97" s="429"/>
     </row>
     <row r="98" spans="1:11" ht="26">
-      <c r="A98" s="370"/>
-      <c r="B98" s="372"/>
+      <c r="A98" s="424"/>
+      <c r="B98" s="425"/>
       <c r="C98" s="321"/>
       <c r="D98" s="322"/>
       <c r="E98" s="322"/>
@@ -11622,15 +11633,15 @@
       </c>
       <c r="G98" s="322"/>
       <c r="H98" s="322"/>
-      <c r="I98" s="373"/>
-      <c r="J98" s="373"/>
-      <c r="K98" s="374"/>
+      <c r="I98" s="428"/>
+      <c r="J98" s="428"/>
+      <c r="K98" s="429"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="370">
+      <c r="A99" s="424">
         <v>3</v>
       </c>
-      <c r="B99" s="372" t="s">
+      <c r="B99" s="425" t="s">
         <v>188</v>
       </c>
       <c r="C99" s="324" t="s">
@@ -11646,13 +11657,13 @@
       </c>
       <c r="G99" s="328"/>
       <c r="H99" s="328"/>
-      <c r="I99" s="375"/>
-      <c r="J99" s="375"/>
-      <c r="K99" s="376"/>
+      <c r="I99" s="426"/>
+      <c r="J99" s="426"/>
+      <c r="K99" s="427"/>
     </row>
     <row r="100" spans="1:11" ht="26">
-      <c r="A100" s="370"/>
-      <c r="B100" s="372"/>
+      <c r="A100" s="424"/>
+      <c r="B100" s="425"/>
       <c r="C100" s="324" t="s">
         <v>191</v>
       </c>
@@ -11663,9 +11674,9 @@
       </c>
       <c r="G100" s="52"/>
       <c r="H100" s="100"/>
-      <c r="I100" s="373"/>
-      <c r="J100" s="373"/>
-      <c r="K100" s="374"/>
+      <c r="I100" s="428"/>
+      <c r="J100" s="428"/>
+      <c r="K100" s="429"/>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1">
       <c r="A101" s="330" t="s">
@@ -11692,9 +11703,9 @@
         <f>SUM(H96:H100)</f>
         <v>49</v>
       </c>
-      <c r="I101" s="377"/>
-      <c r="J101" s="377"/>
-      <c r="K101" s="378"/>
+      <c r="I101" s="430"/>
+      <c r="J101" s="430"/>
+      <c r="K101" s="431"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="93"/>
@@ -11742,11 +11753,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A83:A85"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="F95:H95"/>
     <mergeCell ref="I95:K95"/>
@@ -11755,23 +11778,11 @@
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="I97:K97"/>
     <mergeCell ref="I98:K98"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="I101:K101"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="21600" activeTab="1"/>
+    <workbookView xWindow="42620" yWindow="0" windowWidth="36680" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="195">
   <si>
     <t>学期</t>
   </si>
@@ -1079,6 +1079,18 @@
   </si>
   <si>
     <t>软件工程与计算III</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
@@ -2014,7 +2026,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2022,6 +2034,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3464,7 +3542,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="189">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -3550,6 +3628,17 @@
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -3632,6 +3721,17 @@
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3943,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4177,7 +4277,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="290"/>
       <c r="B9" s="87">
-        <v>199186</v>
+        <v>1901000</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>17</v>
@@ -4233,7 +4333,9 @@
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
       <c r="A12" s="290"/>
-      <c r="B12" s="87"/>
+      <c r="B12" s="87">
+        <v>1901001</v>
+      </c>
       <c r="C12" s="17" t="s">
         <v>57</v>
       </c>
@@ -4382,7 +4484,9 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="278"/>
-      <c r="B17" s="203"/>
+      <c r="B17" s="203">
+        <v>1901003</v>
+      </c>
       <c r="C17" s="21" t="s">
         <v>91</v>
       </c>
@@ -4426,7 +4530,9 @@
       <c r="F18" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="245"/>
+      <c r="G18" s="245">
+        <v>1901002</v>
+      </c>
       <c r="H18" s="138" t="s">
         <v>59</v>
       </c>
@@ -6046,10 +6152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6477,7 +6583,7 @@
       <c r="J16" s="305"/>
       <c r="K16" s="307"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:11">
       <c r="A17" s="278"/>
       <c r="B17" s="203"/>
       <c r="C17" s="21" t="s">
@@ -6506,7 +6612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:11">
       <c r="A18" s="278"/>
       <c r="B18" s="246"/>
       <c r="C18" s="72" t="s">
@@ -6526,13 +6632,8 @@
       <c r="I18" s="305"/>
       <c r="J18" s="305"/>
       <c r="K18" s="307"/>
-      <c r="M18" s="310"/>
-      <c r="N18" s="311"/>
-      <c r="O18" s="312"/>
-      <c r="P18" s="313"/>
-      <c r="Q18" s="314"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="278"/>
       <c r="B19" s="245"/>
       <c r="C19" s="138" t="s">
@@ -6553,7 +6654,7 @@
       <c r="J19" s="305"/>
       <c r="K19" s="307"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:11">
       <c r="A20" s="278"/>
       <c r="B20" s="245"/>
       <c r="C20" s="138" t="s">
@@ -6574,7 +6675,7 @@
       <c r="J20" s="305"/>
       <c r="K20" s="307"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:11">
       <c r="A21" s="278"/>
       <c r="B21" s="87">
         <v>199645</v>
@@ -6597,7 +6698,7 @@
       <c r="J21" s="82"/>
       <c r="K21" s="201"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="279"/>
       <c r="B22" s="94"/>
       <c r="C22" s="174" t="s">
@@ -6624,7 +6725,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:11">
       <c r="A23" s="277" t="s">
         <v>28</v>
       </c>
@@ -6657,7 +6758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:11">
       <c r="A24" s="278"/>
       <c r="B24" s="91">
         <v>310015</v>
@@ -6689,7 +6790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:11">
       <c r="A25" s="278"/>
       <c r="B25" s="87">
         <v>199654</v>
@@ -6720,7 +6821,7 @@
       </c>
       <c r="K25" s="314"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:11">
       <c r="A26" s="278"/>
       <c r="B26" s="206">
         <v>199655</v>
@@ -6751,7 +6852,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:11">
       <c r="A27" s="278"/>
       <c r="B27" s="87"/>
       <c r="C27" s="41" t="s">
@@ -6780,7 +6881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:11">
       <c r="A28" s="278"/>
       <c r="B28" s="87"/>
       <c r="C28" s="224" t="s">
@@ -6811,7 +6912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:11">
       <c r="A29" s="278"/>
       <c r="G29" s="130">
         <v>199648</v>
@@ -6829,7 +6930,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1">
+    <row r="30" spans="1:11" ht="15" thickBot="1">
       <c r="A30" s="279"/>
       <c r="B30" s="94"/>
       <c r="C30" s="143" t="s">
@@ -6854,7 +6955,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:11">
       <c r="A31" s="277" t="s">
         <v>33</v>
       </c>
@@ -6887,7 +6988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:11">
       <c r="A32" s="278"/>
       <c r="B32" s="91">
         <v>3100014</v>
@@ -6943,10 +7044,10 @@
         <v>153</v>
       </c>
       <c r="I33" s="117">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J33" s="118">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K33" s="108" t="s">
         <v>76</v>
@@ -6967,20 +7068,20 @@
         <v>1</v>
       </c>
       <c r="F34" s="83"/>
-      <c r="G34" s="130">
-        <v>199627</v>
+      <c r="G34" s="130" t="s">
+        <v>86</v>
       </c>
       <c r="H34" s="194" t="s">
-        <v>154</v>
-      </c>
-      <c r="I34" s="117">
-        <v>32</v>
-      </c>
-      <c r="J34" s="118">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="I34" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="118" t="s">
+        <v>193</v>
       </c>
       <c r="K34" s="108" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6997,10 +7098,10 @@
         <v>106</v>
       </c>
       <c r="I35" s="117">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J35" s="118">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K35" s="108" t="s">
         <v>76</v>
@@ -7013,18 +7114,12 @@
       <c r="D36" s="212"/>
       <c r="E36" s="212"/>
       <c r="F36" s="213"/>
-      <c r="G36" s="130">
-        <v>199631</v>
-      </c>
-      <c r="H36" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" s="117">
-        <v>16</v>
-      </c>
-      <c r="J36" s="118">
-        <v>0.5</v>
-      </c>
+      <c r="G36" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="116"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
       <c r="K36" s="108" t="s">
         <v>76</v>
       </c>
@@ -7851,7 +7946,7 @@
       <c r="I67" s="51"/>
       <c r="J67" s="53">
         <f>SUM(J4:J66)</f>
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="K67" s="54"/>
     </row>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42620" yWindow="0" windowWidth="36680" windowHeight="21060"/>
+    <workbookView xWindow="27700" yWindow="180" windowWidth="35520" windowHeight="17680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="204">
   <si>
     <t>学期</t>
   </si>
@@ -695,10 +695,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>计算机图形学实验</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>计算机图形学</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -907,10 +903,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>Web应用程序设计实验</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>UI设计开发实践</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1091,6 +1083,50 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>网络概论</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>网络概论实验</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>java基础编程</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
@@ -3376,170 +3412,170 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="189">
@@ -3751,7 +3787,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3759,7 +3795,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3767,7 +3803,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3775,7 +3811,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4033,7 +4069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4043,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="B7" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4063,41 +4099,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="283" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="283"/>
+      <c r="K1" s="283"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="286" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="288"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="291"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="282"/>
+      <c r="A3" s="285"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4130,7 +4166,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="292" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -4163,7 +4199,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="290"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -4195,7 +4231,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="290"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="101">
         <v>330001</v>
       </c>
@@ -4212,23 +4248,23 @@
         <v>14</v>
       </c>
       <c r="G6" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="I6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="100" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="290"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="101">
         <v>199023</v>
       </c>
@@ -4251,7 +4287,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="290"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="101">
         <v>310017</v>
       </c>
@@ -4275,7 +4311,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="290"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -4298,7 +4334,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="290"/>
+      <c r="A10" s="293"/>
       <c r="B10" s="87"/>
       <c r="C10" s="17" t="s">
         <v>18</v>
@@ -4315,7 +4351,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="290"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -4332,7 +4368,7 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="290"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -4355,7 +4391,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="277" t="s">
+      <c r="A13" s="294" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -4388,7 +4424,7 @@
       <c r="K13" s="106"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="278"/>
+      <c r="A14" s="295"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -4420,7 +4456,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="278"/>
+      <c r="A15" s="295"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -4452,7 +4488,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="278"/>
+      <c r="A16" s="295"/>
       <c r="B16" s="240">
         <v>1900102</v>
       </c>
@@ -4482,8 +4518,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="278"/>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="A17" s="295"/>
       <c r="B17" s="203">
         <v>1901003</v>
       </c>
@@ -4514,12 +4550,12 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="278"/>
+      <c r="A18" s="295"/>
       <c r="B18" s="93">
-        <v>199645</v>
+        <v>1905045</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="9">
         <v>32</v>
@@ -4528,9 +4564,9 @@
         <v>2</v>
       </c>
       <c r="F18" s="202" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="245">
+        <v>167</v>
+      </c>
+      <c r="G18" s="244">
         <v>1901002</v>
       </c>
       <c r="H18" s="138" t="s">
@@ -4547,21 +4583,21 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="278"/>
+      <c r="A19" s="295"/>
       <c r="B19" s="248" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="224" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="225" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="224" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="249" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="245"/>
       <c r="H19" s="138" t="s">
@@ -4578,7 +4614,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="278"/>
+      <c r="A20" s="295"/>
       <c r="B20" s="248"/>
       <c r="C20" s="224"/>
       <c r="D20" s="225"/>
@@ -4586,10 +4622,10 @@
       <c r="F20" s="249"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="279"/>
+      <c r="A21" s="296"/>
       <c r="B21" s="94"/>
       <c r="C21" s="174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="175"/>
@@ -4597,23 +4633,23 @@
         <v>27</v>
       </c>
       <c r="G21" s="247">
-        <v>199639</v>
+        <v>1905039</v>
       </c>
       <c r="H21" s="128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I21" s="111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J21" s="82">
         <v>3</v>
       </c>
       <c r="K21" s="201" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="277" t="s">
+      <c r="A22" s="294" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
@@ -4631,7 +4667,9 @@
       <c r="F22" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="84"/>
+      <c r="G22" s="84">
+        <v>1901027</v>
+      </c>
       <c r="H22" s="139" t="s">
         <v>77</v>
       </c>
@@ -4646,7 +4684,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="278"/>
+      <c r="A23" s="295"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
@@ -4678,9 +4716,9 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="278"/>
+      <c r="A24" s="295"/>
       <c r="B24" s="87">
-        <v>199654</v>
+        <v>1905007</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>93</v>
@@ -4695,10 +4733,10 @@
         <v>94</v>
       </c>
       <c r="G24" s="200">
-        <v>199629</v>
+        <v>1905029</v>
       </c>
       <c r="H24" s="128" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I24" s="111">
         <v>48</v>
@@ -4709,12 +4747,12 @@
       <c r="K24" s="201"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="278"/>
+      <c r="A25" s="295"/>
       <c r="B25" s="206">
-        <v>199655</v>
+        <v>1905008</v>
       </c>
       <c r="C25" s="224" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" s="207">
         <v>32</v>
@@ -4727,7 +4765,7 @@
       </c>
       <c r="G25" s="200"/>
       <c r="H25" s="128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I25" s="111">
         <v>32</v>
@@ -4736,12 +4774,14 @@
         <v>1</v>
       </c>
       <c r="K25" s="201" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="278"/>
-      <c r="B26" s="87"/>
+      <c r="A26" s="295"/>
+      <c r="B26" s="87">
+        <v>1901006</v>
+      </c>
       <c r="C26" s="41" t="s">
         <v>92</v>
       </c>
@@ -4769,8 +4809,10 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="278"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="295"/>
+      <c r="B27" s="87">
+        <v>1901007</v>
+      </c>
       <c r="C27" s="224" t="s">
         <v>62</v>
       </c>
@@ -4784,10 +4826,10 @@
         <v>63</v>
       </c>
       <c r="G27" s="130">
-        <v>199628</v>
+        <v>1905028</v>
       </c>
       <c r="H27" s="255" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I27" s="126">
         <v>32</v>
@@ -4800,25 +4842,27 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="278"/>
-      <c r="B28" s="93"/>
+      <c r="A28" s="295"/>
+      <c r="B28" s="93">
+        <v>1901028</v>
+      </c>
       <c r="C28" s="17" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="D28" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E28" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G28" s="130">
-        <v>199648</v>
+        <v>1905048</v>
       </c>
       <c r="H28" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="126">
         <v>48</v>
@@ -4831,7 +4875,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
-      <c r="A29" s="279"/>
+      <c r="A29" s="296"/>
       <c r="B29" s="94"/>
       <c r="C29" s="143" t="s">
         <v>32</v>
@@ -4848,14 +4892,14 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="294" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
         <v>3009004</v>
       </c>
       <c r="C30" s="208" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="5">
         <v>36</v>
@@ -4866,7 +4910,9 @@
       <c r="F30" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="113"/>
+      <c r="G30" s="113">
+        <v>1901035</v>
+      </c>
       <c r="H30" s="114" t="s">
         <v>81</v>
       </c>
@@ -4881,12 +4927,12 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="278"/>
+      <c r="A31" s="295"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
       <c r="C31" s="192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" s="7">
         <f>18*E31</f>
@@ -4899,10 +4945,10 @@
         <v>10</v>
       </c>
       <c r="G31" s="130">
-        <v>199653</v>
+        <v>1905053</v>
       </c>
       <c r="H31" s="195" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I31" s="256">
         <v>48</v>
@@ -4915,9 +4961,9 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="278"/>
+      <c r="A32" s="295"/>
       <c r="B32" s="93">
-        <v>199635</v>
+        <v>1905035</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>98</v>
@@ -4929,28 +4975,28 @@
         <v>2.5</v>
       </c>
       <c r="F32" s="202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G32" s="130">
-        <v>199626</v>
+        <v>1905026</v>
       </c>
       <c r="H32" s="194" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I32" s="117">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J32" s="118">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K32" s="108" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="278"/>
+      <c r="A33" s="295"/>
       <c r="B33" s="93">
-        <v>199636</v>
+        <v>1905036</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>99</v>
@@ -4962,72 +5008,72 @@
         <v>1</v>
       </c>
       <c r="F33" s="202" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="130">
-        <v>199627</v>
+        <v>167</v>
+      </c>
+      <c r="G33" s="130" t="s">
+        <v>193</v>
       </c>
       <c r="H33" s="194" t="s">
-        <v>154</v>
-      </c>
-      <c r="I33" s="117">
-        <v>32</v>
-      </c>
-      <c r="J33" s="118">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="I33" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="J33" s="118" t="s">
+        <v>196</v>
       </c>
       <c r="K33" s="108" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="278"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="210"/>
       <c r="C34" s="211"/>
       <c r="D34" s="212"/>
       <c r="E34" s="212"/>
       <c r="F34" s="213"/>
       <c r="G34" s="130">
-        <v>199630</v>
+        <v>1905030</v>
       </c>
       <c r="H34" s="194" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="117">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J34" s="118">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K34" s="108" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="278"/>
+      <c r="A35" s="295"/>
       <c r="B35" s="210"/>
       <c r="C35" s="211"/>
       <c r="D35" s="212"/>
       <c r="E35" s="212"/>
       <c r="F35" s="213"/>
-      <c r="G35" s="130">
-        <v>199631</v>
+      <c r="G35" s="130" t="s">
+        <v>193</v>
       </c>
       <c r="H35" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="117">
-        <v>16</v>
-      </c>
-      <c r="J35" s="118">
-        <v>0.5</v>
+        <v>194</v>
+      </c>
+      <c r="I35" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="118" t="s">
+        <v>196</v>
       </c>
       <c r="K35" s="108" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="279"/>
+      <c r="A36" s="296"/>
       <c r="B36" s="94"/>
       <c r="C36" s="143" t="s">
         <v>36</v>
@@ -5038,10 +5084,10 @@
         <v>19</v>
       </c>
       <c r="G36" s="227">
-        <v>199641</v>
+        <v>1905041</v>
       </c>
       <c r="H36" s="228" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I36" s="229">
         <v>32</v>
@@ -5050,18 +5096,18 @@
         <v>2</v>
       </c>
       <c r="K36" s="230" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="277" t="s">
+      <c r="A37" s="294" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="214">
         <v>3300003</v>
       </c>
       <c r="C37" s="215" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="216">
         <v>18</v>
@@ -5087,8 +5133,10 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="278"/>
-      <c r="B38" s="219"/>
+      <c r="A38" s="295"/>
+      <c r="B38" s="219">
+        <v>1905046</v>
+      </c>
       <c r="C38" s="220" t="s">
         <v>64</v>
       </c>
@@ -5102,10 +5150,10 @@
         <v>11</v>
       </c>
       <c r="G38" s="131">
-        <v>199625</v>
+        <v>1905025</v>
       </c>
       <c r="H38" s="140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I38" s="129">
         <v>32</v>
@@ -5116,8 +5164,10 @@
       <c r="K38" s="132"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="278"/>
-      <c r="B39" s="219"/>
+      <c r="A39" s="295"/>
+      <c r="B39" s="219">
+        <v>1905047</v>
+      </c>
       <c r="C39" s="224" t="s">
         <v>65</v>
       </c>
@@ -5131,10 +5181,10 @@
         <v>63</v>
       </c>
       <c r="G39" s="130">
-        <v>199624</v>
+        <v>1905024</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I39" s="168">
         <v>48</v>
@@ -5145,8 +5195,10 @@
       <c r="K39" s="169"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="278"/>
-      <c r="B40" s="219"/>
+      <c r="A40" s="295"/>
+      <c r="B40" s="219">
+        <v>1901015</v>
+      </c>
       <c r="C40" s="30" t="s">
         <v>66</v>
       </c>
@@ -5174,8 +5226,10 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="278"/>
-      <c r="B41" s="219"/>
+      <c r="A41" s="295"/>
+      <c r="B41" s="219">
+        <v>1901016</v>
+      </c>
       <c r="C41" s="224" t="s">
         <v>67</v>
       </c>
@@ -5186,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="224" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G41" s="130"/>
       <c r="H41" s="125" t="s">
@@ -5203,10 +5257,12 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="278"/>
-      <c r="B42" s="219"/>
+      <c r="A42" s="295"/>
+      <c r="B42" s="219">
+        <v>1904020</v>
+      </c>
       <c r="C42" s="30" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="D42" s="9">
         <v>48</v>
@@ -5232,10 +5288,12 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="278"/>
-      <c r="B43" s="219"/>
+      <c r="A43" s="295"/>
+      <c r="B43" s="219">
+        <v>1904021</v>
+      </c>
       <c r="C43" s="224" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="D43" s="207">
         <v>16</v>
@@ -5244,13 +5302,13 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="224" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G43" s="130" t="s">
         <v>87</v>
       </c>
       <c r="H43" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" s="126" t="s">
         <v>87</v>
@@ -5261,7 +5319,7 @@
       <c r="K43" s="108"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="278"/>
+      <c r="A44" s="295"/>
       <c r="B44" s="219"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
@@ -5282,7 +5340,7 @@
       <c r="K44" s="108"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="279"/>
+      <c r="A45" s="296"/>
       <c r="B45" s="94"/>
       <c r="C45" s="143" t="s">
         <v>38</v>
@@ -5299,14 +5357,14 @@
       <c r="K45" s="199"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="278" t="s">
+      <c r="A46" s="295" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="214">
         <v>3300005</v>
       </c>
       <c r="C46" s="239" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="216">
         <v>18</v>
@@ -5332,7 +5390,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="278"/>
+      <c r="A47" s="295"/>
       <c r="B47" s="240">
         <v>1900103</v>
       </c>
@@ -5348,7 +5406,9 @@
       <c r="F47" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="124"/>
+      <c r="G47" s="130">
+        <v>1905037</v>
+      </c>
       <c r="H47" s="125" t="s">
         <v>84</v>
       </c>
@@ -5363,9 +5423,9 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="278"/>
+      <c r="A48" s="295"/>
       <c r="B48" s="93">
-        <v>199783</v>
+        <v>1905083</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>100</v>
@@ -5377,11 +5437,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="202" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="200"/>
+        <v>167</v>
+      </c>
+      <c r="G48" s="200">
+        <v>1905038</v>
+      </c>
       <c r="H48" s="128" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I48" s="111">
         <v>16</v>
@@ -5390,13 +5452,13 @@
         <v>1</v>
       </c>
       <c r="K48" s="201" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="77"/>
       <c r="B49" s="93">
-        <v>199784</v>
+        <v>1905084</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>101</v>
@@ -5408,13 +5470,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G49" s="130">
         <v>199173</v>
       </c>
       <c r="H49" s="125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I49" s="126">
         <v>32</v>
@@ -5435,7 +5497,7 @@
         <v>199621</v>
       </c>
       <c r="H50" s="125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I50" s="126">
         <v>32</v>
@@ -5456,7 +5518,7 @@
         <v>199622</v>
       </c>
       <c r="H51" s="125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I51" s="126">
         <v>32</v>
@@ -5474,10 +5536,10 @@
       <c r="E52" s="38"/>
       <c r="F52" s="204"/>
       <c r="G52" s="200">
-        <v>199641</v>
+        <v>1905041</v>
       </c>
       <c r="H52" s="128" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I52" s="111">
         <v>32</v>
@@ -5486,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="201" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5520,7 +5582,7 @@
         <v>90</v>
       </c>
       <c r="H55" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I55" s="43" t="s">
         <v>90</v>
@@ -5531,7 +5593,7 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="277" t="s">
+      <c r="A56" s="294" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="176">
@@ -5541,13 +5603,13 @@
         <v>44</v>
       </c>
       <c r="D56" s="176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" s="178">
         <v>3</v>
       </c>
       <c r="F56" s="236" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="238"/>
       <c r="H56" s="139" t="s">
@@ -5564,7 +5626,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="278"/>
+      <c r="A57" s="295"/>
       <c r="B57" s="176">
         <v>1900105</v>
       </c>
@@ -5582,20 +5644,20 @@
       </c>
       <c r="G57" s="130"/>
       <c r="H57" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I57" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J57" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K57" s="169" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="278"/>
+      <c r="A58" s="295"/>
       <c r="B58" s="176">
         <v>1900107</v>
       </c>
@@ -5612,29 +5674,29 @@
         <v>26</v>
       </c>
       <c r="G58" s="130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I58" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J58" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K58" s="169" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="278"/>
+      <c r="A59" s="295"/>
       <c r="B59" s="180"/>
       <c r="C59" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="182" t="s">
         <v>143</v>
-      </c>
-      <c r="D59" s="182" t="s">
-        <v>144</v>
       </c>
       <c r="E59" s="183">
         <v>2</v>
@@ -5643,23 +5705,23 @@
         <v>31</v>
       </c>
       <c r="G59" s="130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I59" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J59" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K59" s="169" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="278"/>
+      <c r="A60" s="295"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
         <v>102</v>
@@ -5674,21 +5736,21 @@
         <v>97</v>
       </c>
       <c r="G60" s="130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I60" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J60" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K60" s="169"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="278"/>
+      <c r="A61" s="295"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
         <v>88</v>
@@ -5703,21 +5765,21 @@
         <v>89</v>
       </c>
       <c r="G61" s="130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I61" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J61" s="168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K61" s="169"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="278"/>
+      <c r="A62" s="295"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
         <v>96</v>
@@ -5732,7 +5794,7 @@
         <v>87</v>
       </c>
       <c r="G62" s="130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H62" s="41" t="s">
         <v>95</v>
@@ -5746,7 +5808,7 @@
       <c r="K62" s="169"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1">
-      <c r="A63" s="279"/>
+      <c r="A63" s="296"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
@@ -5756,7 +5818,7 @@
         <v>199650</v>
       </c>
       <c r="H63" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I63" s="43">
         <v>24</v>
@@ -5774,10 +5836,10 @@
         <v>1900106</v>
       </c>
       <c r="C64" s="185" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="184" t="s">
         <v>145</v>
-      </c>
-      <c r="D64" s="184" t="s">
-        <v>146</v>
       </c>
       <c r="E64" s="186">
         <v>3</v>
@@ -5787,7 +5849,7 @@
       </c>
       <c r="G64" s="121"/>
       <c r="H64" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I64" s="45"/>
       <c r="J64" s="46">
@@ -5802,13 +5864,13 @@
         <v>46</v>
       </c>
       <c r="D65" s="189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E65" s="190">
         <v>1</v>
       </c>
       <c r="F65" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G65" s="120"/>
       <c r="H65" s="42"/>
@@ -5823,7 +5885,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="51">
         <f>SUM(E4:E65)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="52">
         <f>SUM(F4:F65)</f>
@@ -5834,7 +5896,7 @@
       <c r="I66" s="51"/>
       <c r="J66" s="53">
         <f>SUM(J4:J65)</f>
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="K66" s="54"/>
     </row>
@@ -5908,28 +5970,28 @@
         <v>48</v>
       </c>
       <c r="B72" s="146"/>
-      <c r="C72" s="268" t="s">
+      <c r="C72" s="297" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="298"/>
+      <c r="E72" s="299"/>
+      <c r="F72" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="270"/>
-      <c r="F72" s="268" t="s">
+      <c r="G72" s="298"/>
+      <c r="H72" s="299"/>
+      <c r="I72" s="300" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="269"/>
-      <c r="H72" s="270"/>
-      <c r="I72" s="271" t="s">
-        <v>124</v>
-      </c>
-      <c r="J72" s="271"/>
-      <c r="K72" s="272"/>
+      <c r="J72" s="300"/>
+      <c r="K72" s="301"/>
     </row>
     <row r="73" spans="1:11" ht="26">
       <c r="A73" s="147">
         <v>1</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="148" t="s">
         <v>49</v>
@@ -5952,17 +6014,17 @@
       <c r="H73" s="151">
         <v>18</v>
       </c>
-      <c r="I73" s="273" t="s">
-        <v>126</v>
-      </c>
-      <c r="J73" s="274"/>
-      <c r="K73" s="275"/>
+      <c r="I73" s="302" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" s="303"/>
+      <c r="K73" s="304"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="260">
+      <c r="A74" s="305">
         <v>2</v>
       </c>
-      <c r="B74" s="276" t="s">
+      <c r="B74" s="306" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="152"/>
@@ -5976,69 +6038,69 @@
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="I74" s="264"/>
-      <c r="J74" s="264"/>
-      <c r="K74" s="265"/>
+      <c r="I74" s="308"/>
+      <c r="J74" s="308"/>
+      <c r="K74" s="309"/>
     </row>
     <row r="75" spans="1:11" ht="26">
-      <c r="A75" s="260"/>
-      <c r="B75" s="261"/>
+      <c r="A75" s="305"/>
+      <c r="B75" s="307"/>
       <c r="C75" s="155"/>
       <c r="D75" s="156"/>
       <c r="E75" s="156"/>
       <c r="F75" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G75" s="156"/>
       <c r="H75" s="156">
         <v>5</v>
       </c>
-      <c r="I75" s="264"/>
-      <c r="J75" s="264"/>
-      <c r="K75" s="265"/>
+      <c r="I75" s="308"/>
+      <c r="J75" s="308"/>
+      <c r="K75" s="309"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="260">
+      <c r="A76" s="305">
         <v>3</v>
       </c>
-      <c r="B76" s="261" t="s">
+      <c r="B76" s="307" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="158" t="s">
         <v>127</v>
-      </c>
-      <c r="C76" s="158" t="s">
-        <v>128</v>
       </c>
       <c r="D76" s="159"/>
       <c r="E76" s="160">
         <f>SUM(E9+E12+E17+E24+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+E48+E49)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F76" s="161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" s="162"/>
       <c r="H76" s="162">
         <v>26</v>
       </c>
-      <c r="I76" s="262"/>
-      <c r="J76" s="262"/>
-      <c r="K76" s="263"/>
+      <c r="I76" s="310"/>
+      <c r="J76" s="310"/>
+      <c r="K76" s="311"/>
     </row>
     <row r="77" spans="1:11" ht="26">
-      <c r="A77" s="260"/>
-      <c r="B77" s="261"/>
+      <c r="A77" s="305"/>
+      <c r="B77" s="307"/>
       <c r="C77" s="158" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="159"/>
       <c r="E77" s="160"/>
       <c r="F77" s="163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G77" s="31"/>
       <c r="H77" s="69"/>
-      <c r="I77" s="264"/>
-      <c r="J77" s="264"/>
-      <c r="K77" s="265"/>
+      <c r="I77" s="308"/>
+      <c r="J77" s="308"/>
+      <c r="K77" s="309"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1">
       <c r="A78" s="164" t="s">
@@ -6046,13 +6108,13 @@
       </c>
       <c r="B78" s="165">
         <f>E78+H74+H73+H75+H76</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" s="166"/>
       <c r="D78" s="166"/>
       <c r="E78" s="165">
         <f>SUM(E73:E76)</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F78" s="166">
         <f>18+2+18+18</f>
@@ -6063,9 +6125,9 @@
         <f>SUM(H73:H77)</f>
         <v>59</v>
       </c>
-      <c r="I78" s="266"/>
-      <c r="J78" s="266"/>
-      <c r="K78" s="267"/>
+      <c r="I78" s="312"/>
+      <c r="J78" s="312"/>
+      <c r="K78" s="313"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="63"/>
@@ -6087,16 +6149,16 @@
       <c r="D80" s="64"/>
       <c r="E80" s="64"/>
       <c r="F80" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G80" s="64"/>
       <c r="H80" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I80" s="64"/>
       <c r="J80" s="64"/>
       <c r="K80" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:10" customFormat="1">
@@ -6113,17 +6175,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="F72:H72"/>
     <mergeCell ref="I72:K72"/>
@@ -6132,11 +6188,17 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="I74:K74"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6154,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -6174,41 +6236,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="283" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="283"/>
+      <c r="K1" s="283"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="286" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="304"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="314"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="282"/>
+      <c r="A3" s="285"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6228,20 +6290,20 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="292" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -6259,22 +6321,22 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="310"/>
-      <c r="H4" s="311" t="s">
+      <c r="G4" s="278"/>
+      <c r="H4" s="279" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="280">
+        <v>32</v>
+      </c>
+      <c r="J4" s="281">
+        <v>2</v>
+      </c>
+      <c r="K4" s="282" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="312">
-        <v>32</v>
-      </c>
-      <c r="J4" s="313">
-        <v>2</v>
-      </c>
-      <c r="K4" s="314" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="290"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -6306,7 +6368,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="290"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="101">
         <v>330001</v>
       </c>
@@ -6323,23 +6385,23 @@
         <v>14</v>
       </c>
       <c r="G6" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="I6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="100" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="290"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="101">
         <v>199023</v>
       </c>
@@ -6362,7 +6424,7 @@
       <c r="K7" s="259"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="290"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="101">
         <v>310017</v>
       </c>
@@ -6386,7 +6448,7 @@
       <c r="K8" s="259"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="290"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -6409,7 +6471,7 @@
       <c r="K9" s="259"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="290"/>
+      <c r="A10" s="293"/>
       <c r="B10" s="87"/>
       <c r="C10" s="17" t="s">
         <v>18</v>
@@ -6426,7 +6488,7 @@
       <c r="K10" s="259"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="290"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -6443,7 +6505,7 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="290"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="87"/>
       <c r="C12" s="17" t="s">
         <v>57</v>
@@ -6464,7 +6526,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="277" t="s">
+      <c r="A13" s="294" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -6497,7 +6559,7 @@
       <c r="K13" s="106"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="278"/>
+      <c r="A14" s="295"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -6529,7 +6591,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="278"/>
+      <c r="A15" s="295"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -6546,22 +6608,22 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="310"/>
-      <c r="H15" s="311" t="s">
-        <v>186</v>
-      </c>
-      <c r="I15" s="312">
+      <c r="G15" s="278"/>
+      <c r="H15" s="279" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="280">
         <v>48</v>
       </c>
-      <c r="J15" s="313">
+      <c r="J15" s="281">
         <v>2</v>
       </c>
-      <c r="K15" s="314" t="s">
+      <c r="K15" s="282" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="278"/>
+      <c r="A16" s="295"/>
       <c r="B16" s="240">
         <v>1900102</v>
       </c>
@@ -6577,14 +6639,14 @@
       <c r="F16" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="305"/>
-      <c r="H16" s="306"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="307"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="274"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="275"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="278"/>
+      <c r="A17" s="295"/>
       <c r="B17" s="203"/>
       <c r="C17" s="21" t="s">
         <v>91</v>
@@ -6613,7 +6675,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="278"/>
+      <c r="A18" s="295"/>
       <c r="B18" s="246"/>
       <c r="C18" s="72" t="s">
         <v>58</v>
@@ -6627,14 +6689,14 @@
       <c r="F18" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="305"/>
-      <c r="H18" s="306"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="305"/>
-      <c r="K18" s="307"/>
+      <c r="G18" s="273"/>
+      <c r="H18" s="274"/>
+      <c r="I18" s="273"/>
+      <c r="J18" s="273"/>
+      <c r="K18" s="275"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="278"/>
+      <c r="A19" s="295"/>
       <c r="B19" s="245"/>
       <c r="C19" s="138" t="s">
         <v>59</v>
@@ -6646,16 +6708,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="305"/>
-      <c r="H19" s="306"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="305"/>
-      <c r="K19" s="307"/>
+        <v>175</v>
+      </c>
+      <c r="G19" s="273"/>
+      <c r="H19" s="274"/>
+      <c r="I19" s="273"/>
+      <c r="J19" s="273"/>
+      <c r="K19" s="275"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="278"/>
+      <c r="A20" s="295"/>
       <c r="B20" s="245"/>
       <c r="C20" s="138" t="s">
         <v>60</v>
@@ -6669,19 +6731,19 @@
       <c r="F20" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="305"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="305"/>
-      <c r="J20" s="305"/>
-      <c r="K20" s="307"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="274"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="273"/>
+      <c r="K20" s="275"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="278"/>
+      <c r="A21" s="295"/>
       <c r="B21" s="87">
         <v>199645</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" s="18">
         <v>32</v>
@@ -6690,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="196" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G21" s="247"/>
       <c r="H21" s="128"/>
@@ -6699,34 +6761,34 @@
       <c r="K21" s="201"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="279"/>
+      <c r="A22" s="296"/>
       <c r="B22" s="94"/>
       <c r="C22" s="174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="175"/>
       <c r="F22" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="310">
+      <c r="G22" s="278">
         <v>199639</v>
       </c>
-      <c r="H22" s="311" t="s">
-        <v>170</v>
-      </c>
-      <c r="I22" s="312" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="313">
+      <c r="H22" s="279" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="280" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="281">
         <v>3</v>
       </c>
-      <c r="K22" s="314" t="s">
-        <v>161</v>
+      <c r="K22" s="282" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="277" t="s">
+      <c r="A23" s="294" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
@@ -6759,7 +6821,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="278"/>
+      <c r="A24" s="295"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
@@ -6791,7 +6853,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="278"/>
+      <c r="A25" s="295"/>
       <c r="B25" s="87">
         <v>199654</v>
       </c>
@@ -6807,27 +6869,27 @@
       <c r="F25" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="310">
+      <c r="G25" s="278">
         <v>199629</v>
       </c>
-      <c r="H25" s="311" t="s">
-        <v>171</v>
-      </c>
-      <c r="I25" s="312">
+      <c r="H25" s="279" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="280">
         <v>48</v>
       </c>
-      <c r="J25" s="313">
+      <c r="J25" s="281">
         <v>3</v>
       </c>
-      <c r="K25" s="314"/>
+      <c r="K25" s="282"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="278"/>
+      <c r="A26" s="295"/>
       <c r="B26" s="206">
         <v>199655</v>
       </c>
       <c r="C26" s="224" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D26" s="207">
         <v>32</v>
@@ -6838,22 +6900,22 @@
       <c r="F26" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="310"/>
-      <c r="H26" s="311" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26" s="312">
+      <c r="G26" s="278"/>
+      <c r="H26" s="279" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="280">
         <v>32</v>
       </c>
-      <c r="J26" s="313">
+      <c r="J26" s="281">
         <v>1</v>
       </c>
-      <c r="K26" s="314" t="s">
-        <v>187</v>
+      <c r="K26" s="282" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="278"/>
+      <c r="A27" s="295"/>
       <c r="B27" s="87"/>
       <c r="C27" s="41" t="s">
         <v>92</v>
@@ -6882,7 +6944,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="278"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="87"/>
       <c r="C28" s="224" t="s">
         <v>62</v>
@@ -6900,7 +6962,7 @@
         <v>199628</v>
       </c>
       <c r="H28" s="255" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I28" s="126">
         <v>32</v>
@@ -6913,12 +6975,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="278"/>
+      <c r="A29" s="295"/>
       <c r="G29" s="130">
         <v>199648</v>
       </c>
       <c r="H29" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="126">
         <v>48</v>
@@ -6931,7 +6993,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="279"/>
+      <c r="A30" s="296"/>
       <c r="B30" s="94"/>
       <c r="C30" s="143" t="s">
         <v>32</v>
@@ -6951,19 +7013,19 @@
       <c r="J30" s="10">
         <v>3</v>
       </c>
-      <c r="K30" s="303" t="s">
-        <v>169</v>
+      <c r="K30" s="272" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="277" t="s">
+      <c r="A31" s="294" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
         <v>3009004</v>
       </c>
       <c r="C31" s="208" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
@@ -6989,12 +7051,12 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="278"/>
+      <c r="A32" s="295"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
       <c r="C32" s="192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="7">
         <f>18*E32</f>
@@ -7010,7 +7072,7 @@
         <v>199653</v>
       </c>
       <c r="H32" s="195" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I32" s="256">
         <v>48</v>
@@ -7023,12 +7085,12 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="278"/>
+      <c r="A33" s="295"/>
       <c r="B33" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="9">
         <v>48</v>
@@ -7041,7 +7103,7 @@
         <v>199626</v>
       </c>
       <c r="H33" s="194" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I33" s="117">
         <v>48</v>
@@ -7054,12 +7116,12 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="278"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="9">
         <v>32</v>
@@ -7072,20 +7134,20 @@
         <v>86</v>
       </c>
       <c r="H34" s="194" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I34" s="117" t="s">
         <v>86</v>
       </c>
       <c r="J34" s="118" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K34" s="108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="278"/>
+      <c r="A35" s="295"/>
       <c r="B35" s="210"/>
       <c r="C35" s="211"/>
       <c r="D35" s="212"/>
@@ -7095,7 +7157,7 @@
         <v>199630</v>
       </c>
       <c r="H35" s="194" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="117">
         <v>48</v>
@@ -7108,7 +7170,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="278"/>
+      <c r="A36" s="295"/>
       <c r="B36" s="210"/>
       <c r="C36" s="211"/>
       <c r="D36" s="212"/>
@@ -7125,7 +7187,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="279"/>
+      <c r="A37" s="296"/>
       <c r="B37" s="94"/>
       <c r="C37" s="143" t="s">
         <v>36</v>
@@ -7135,31 +7197,31 @@
       <c r="F37" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="310">
+      <c r="G37" s="278">
         <v>199641</v>
       </c>
-      <c r="H37" s="311" t="s">
-        <v>189</v>
-      </c>
-      <c r="I37" s="312">
+      <c r="H37" s="279" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="280">
         <v>32</v>
       </c>
-      <c r="J37" s="313">
+      <c r="J37" s="281">
         <v>2</v>
       </c>
-      <c r="K37" s="314" t="s">
-        <v>156</v>
+      <c r="K37" s="282" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="277" t="s">
+      <c r="A38" s="294" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="214">
         <v>3300003</v>
       </c>
       <c r="C38" s="215" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="216">
         <v>18</v>
@@ -7185,7 +7247,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="278"/>
+      <c r="A39" s="295"/>
       <c r="B39" s="219"/>
       <c r="C39" s="220" t="s">
         <v>64</v>
@@ -7199,22 +7261,22 @@
       <c r="F39" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="310">
+      <c r="G39" s="278">
         <v>199625</v>
       </c>
-      <c r="H39" s="311" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="312">
+      <c r="H39" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" s="280">
         <v>32</v>
       </c>
-      <c r="J39" s="313">
+      <c r="J39" s="281">
         <v>2</v>
       </c>
-      <c r="K39" s="314"/>
+      <c r="K39" s="282"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="278"/>
+      <c r="A40" s="295"/>
       <c r="B40" s="219"/>
       <c r="C40" s="224" t="s">
         <v>65</v>
@@ -7232,7 +7294,7 @@
         <v>199624</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I40" s="258">
         <v>48</v>
@@ -7243,7 +7305,7 @@
       <c r="K40" s="259"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="278"/>
+      <c r="A41" s="295"/>
       <c r="B41" s="219"/>
       <c r="C41" s="30" t="s">
         <v>66</v>
@@ -7272,7 +7334,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="278"/>
+      <c r="A42" s="295"/>
       <c r="B42" s="219"/>
       <c r="C42" s="224" t="s">
         <v>67</v>
@@ -7284,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="224" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G42" s="130"/>
       <c r="H42" s="125" t="s">
@@ -7301,7 +7363,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="278"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="219"/>
       <c r="C43" s="30" t="s">
         <v>68</v>
@@ -7330,10 +7392,10 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="278"/>
+      <c r="A44" s="295"/>
       <c r="B44" s="219"/>
       <c r="C44" s="224" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D44" s="207">
         <v>16</v>
@@ -7342,13 +7404,13 @@
         <v>0.5</v>
       </c>
       <c r="F44" s="224" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G44" s="130" t="s">
         <v>86</v>
       </c>
       <c r="H44" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" s="126" t="s">
         <v>86</v>
@@ -7359,7 +7421,7 @@
       <c r="K44" s="108"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="278"/>
+      <c r="A45" s="295"/>
       <c r="B45" s="219"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
@@ -7380,7 +7442,7 @@
       <c r="K45" s="108"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1">
-      <c r="A46" s="279"/>
+      <c r="A46" s="296"/>
       <c r="B46" s="94"/>
       <c r="C46" s="143" t="s">
         <v>38</v>
@@ -7397,14 +7459,14 @@
       <c r="K46" s="199"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="278" t="s">
+      <c r="A47" s="295" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="214">
         <v>3300005</v>
       </c>
       <c r="C47" s="239" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="216">
         <v>18</v>
@@ -7430,7 +7492,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="278"/>
+      <c r="A48" s="295"/>
       <c r="B48" s="240">
         <v>1900103</v>
       </c>
@@ -7461,12 +7523,12 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="278"/>
+      <c r="A49" s="295"/>
       <c r="B49" s="93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D49" s="9">
         <v>48</v>
@@ -7475,29 +7537,29 @@
         <v>3</v>
       </c>
       <c r="F49" s="202" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49" s="310"/>
-      <c r="H49" s="311" t="s">
-        <v>190</v>
-      </c>
-      <c r="I49" s="312">
+        <v>167</v>
+      </c>
+      <c r="G49" s="278"/>
+      <c r="H49" s="279" t="s">
+        <v>188</v>
+      </c>
+      <c r="I49" s="280">
         <v>16</v>
       </c>
-      <c r="J49" s="313">
+      <c r="J49" s="281">
         <v>1</v>
       </c>
-      <c r="K49" s="314" t="s">
-        <v>161</v>
+      <c r="K49" s="282" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="172"/>
       <c r="B50" s="93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D50" s="9">
         <v>32</v>
@@ -7506,13 +7568,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G50" s="130">
         <v>199173</v>
       </c>
       <c r="H50" s="125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I50" s="126">
         <v>32</v>
@@ -7533,7 +7595,7 @@
         <v>199621</v>
       </c>
       <c r="H51" s="125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I51" s="126">
         <v>32</v>
@@ -7554,7 +7616,7 @@
         <v>199622</v>
       </c>
       <c r="H52" s="125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I52" s="126">
         <v>32</v>
@@ -7571,20 +7633,20 @@
       <c r="D53" s="25"/>
       <c r="E53" s="38"/>
       <c r="F53" s="204"/>
-      <c r="G53" s="310">
+      <c r="G53" s="278">
         <v>199641</v>
       </c>
-      <c r="H53" s="311" t="s">
-        <v>191</v>
-      </c>
-      <c r="I53" s="312">
+      <c r="H53" s="279" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" s="280">
         <v>32</v>
       </c>
-      <c r="J53" s="313">
+      <c r="J53" s="281">
         <v>2</v>
       </c>
-      <c r="K53" s="314" t="s">
-        <v>187</v>
+      <c r="K53" s="282" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7606,8 +7668,8 @@
       <c r="J54" s="10">
         <v>3</v>
       </c>
-      <c r="K54" s="303" t="s">
-        <v>169</v>
+      <c r="K54" s="272" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7629,8 +7691,8 @@
       <c r="J55" s="10">
         <v>1</v>
       </c>
-      <c r="K55" s="303" t="s">
-        <v>169</v>
+      <c r="K55" s="272" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1">
@@ -7659,23 +7721,23 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="277" t="s">
+      <c r="A57" s="294" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="291">
+      <c r="B57" s="260">
         <v>1900104</v>
       </c>
-      <c r="C57" s="292" t="s">
+      <c r="C57" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="293" t="s">
+      <c r="D57" s="262" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="263">
+        <v>3</v>
+      </c>
+      <c r="F57" s="264" t="s">
         <v>141</v>
-      </c>
-      <c r="E57" s="294">
-        <v>3</v>
-      </c>
-      <c r="F57" s="295" t="s">
-        <v>142</v>
       </c>
       <c r="G57" s="238"/>
       <c r="H57" s="139" t="s">
@@ -7692,7 +7754,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="278"/>
+      <c r="A58" s="295"/>
       <c r="B58" s="240">
         <v>1900105</v>
       </c>
@@ -7710,20 +7772,20 @@
       </c>
       <c r="G58" s="130"/>
       <c r="H58" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I58" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J58" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K58" s="259" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="278"/>
+      <c r="A59" s="295"/>
       <c r="B59" s="240">
         <v>1900107</v>
       </c>
@@ -7740,59 +7802,59 @@
         <v>26</v>
       </c>
       <c r="G59" s="130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I59" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J59" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K59" s="259" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="278"/>
-      <c r="B60" s="296"/>
+      <c r="A60" s="295"/>
+      <c r="B60" s="265"/>
       <c r="C60" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="156" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="297">
+      <c r="E60" s="266">
         <v>2</v>
       </c>
-      <c r="F60" s="298" t="s">
+      <c r="F60" s="267" t="s">
         <v>31</v>
       </c>
       <c r="G60" s="130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I60" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J60" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K60" s="259" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="278"/>
+      <c r="A61" s="295"/>
       <c r="B61" s="130">
         <v>199650</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" s="258">
         <v>32</v>
@@ -7802,21 +7864,21 @@
       </c>
       <c r="F61" s="259"/>
       <c r="G61" s="130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I61" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J61" s="258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K61" s="259"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="278"/>
+      <c r="A62" s="295"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
         <v>88</v>
@@ -7831,13 +7893,13 @@
         <v>86</v>
       </c>
       <c r="G62" s="210"/>
-      <c r="H62" s="302"/>
+      <c r="H62" s="271"/>
       <c r="I62" s="212"/>
       <c r="J62" s="212"/>
       <c r="K62" s="213"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="278"/>
+      <c r="A63" s="295"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
         <v>86</v>
@@ -7852,23 +7914,23 @@
         <v>86</v>
       </c>
       <c r="G63" s="210"/>
-      <c r="H63" s="302"/>
+      <c r="H63" s="271"/>
       <c r="I63" s="212"/>
       <c r="J63" s="212"/>
       <c r="K63" s="213"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="279"/>
+      <c r="A64" s="296"/>
       <c r="B64" s="94"/>
-      <c r="C64" s="299"/>
+      <c r="C64" s="268"/>
       <c r="D64" s="36"/>
-      <c r="E64" s="300"/>
-      <c r="F64" s="301"/>
+      <c r="E64" s="269"/>
+      <c r="F64" s="270"/>
       <c r="G64" s="198">
         <v>199650</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I64" s="43">
         <v>24</v>
@@ -7886,10 +7948,10 @@
         <v>1900106</v>
       </c>
       <c r="C65" s="185" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="184" t="s">
         <v>145</v>
-      </c>
-      <c r="D65" s="184" t="s">
-        <v>146</v>
       </c>
       <c r="E65" s="186">
         <v>3</v>
@@ -7899,13 +7961,13 @@
       </c>
       <c r="G65" s="121"/>
       <c r="H65" s="44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I65" s="45"/>
       <c r="J65" s="46">
         <v>5</v>
       </c>
-      <c r="K65" s="308"/>
+      <c r="K65" s="276"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1">
       <c r="A66" s="47"/>
@@ -7914,19 +7976,19 @@
         <v>46</v>
       </c>
       <c r="D66" s="189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E66" s="190">
         <v>1</v>
       </c>
       <c r="F66" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G66" s="120"/>
       <c r="H66" s="42"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
-      <c r="K66" s="309"/>
+      <c r="K66" s="277"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1">
       <c r="A67" s="48"/>
@@ -8020,28 +8082,28 @@
         <v>48</v>
       </c>
       <c r="B73" s="171"/>
-      <c r="C73" s="268" t="s">
+      <c r="C73" s="297" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="298"/>
+      <c r="E73" s="299"/>
+      <c r="F73" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="270"/>
-      <c r="F73" s="268" t="s">
+      <c r="G73" s="298"/>
+      <c r="H73" s="299"/>
+      <c r="I73" s="300" t="s">
         <v>123</v>
       </c>
-      <c r="G73" s="269"/>
-      <c r="H73" s="270"/>
-      <c r="I73" s="271" t="s">
-        <v>124</v>
-      </c>
-      <c r="J73" s="271"/>
-      <c r="K73" s="272"/>
+      <c r="J73" s="300"/>
+      <c r="K73" s="301"/>
     </row>
     <row r="74" spans="1:11" ht="26">
       <c r="A74" s="167">
         <v>1</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="148" t="s">
         <v>49</v>
@@ -8064,17 +8126,17 @@
       <c r="H74" s="151">
         <v>18</v>
       </c>
-      <c r="I74" s="273" t="s">
-        <v>126</v>
-      </c>
-      <c r="J74" s="274"/>
-      <c r="K74" s="275"/>
+      <c r="I74" s="302" t="s">
+        <v>125</v>
+      </c>
+      <c r="J74" s="303"/>
+      <c r="K74" s="304"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="260">
+      <c r="A75" s="305">
         <v>2</v>
       </c>
-      <c r="B75" s="276" t="s">
+      <c r="B75" s="306" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="152"/>
@@ -8088,36 +8150,36 @@
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I75" s="264"/>
-      <c r="J75" s="264"/>
-      <c r="K75" s="265"/>
+      <c r="I75" s="308"/>
+      <c r="J75" s="308"/>
+      <c r="K75" s="309"/>
     </row>
     <row r="76" spans="1:11" ht="26">
-      <c r="A76" s="260"/>
-      <c r="B76" s="261"/>
+      <c r="A76" s="305"/>
+      <c r="B76" s="307"/>
       <c r="C76" s="155"/>
       <c r="D76" s="156"/>
       <c r="E76" s="156"/>
       <c r="F76" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G76" s="156"/>
       <c r="H76" s="156">
         <v>5</v>
       </c>
-      <c r="I76" s="264"/>
-      <c r="J76" s="264"/>
-      <c r="K76" s="265"/>
+      <c r="I76" s="308"/>
+      <c r="J76" s="308"/>
+      <c r="K76" s="309"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="260">
+      <c r="A77" s="305">
         <v>3</v>
       </c>
-      <c r="B77" s="261" t="s">
-        <v>178</v>
+      <c r="B77" s="307" t="s">
+        <v>176</v>
       </c>
       <c r="C77" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="159"/>
       <c r="E77" s="160">
@@ -8125,32 +8187,32 @@
         <v>42.5</v>
       </c>
       <c r="F77" s="161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G77" s="162"/>
       <c r="H77" s="162">
         <v>30.5</v>
       </c>
-      <c r="I77" s="262"/>
-      <c r="J77" s="262"/>
-      <c r="K77" s="263"/>
+      <c r="I77" s="310"/>
+      <c r="J77" s="310"/>
+      <c r="K77" s="311"/>
     </row>
     <row r="78" spans="1:11" ht="26">
-      <c r="A78" s="260"/>
-      <c r="B78" s="261"/>
+      <c r="A78" s="305"/>
+      <c r="B78" s="307"/>
       <c r="C78" s="158" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D78" s="159"/>
       <c r="E78" s="160"/>
       <c r="F78" s="163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G78" s="168"/>
       <c r="H78" s="69"/>
-      <c r="I78" s="264"/>
-      <c r="J78" s="264"/>
-      <c r="K78" s="265"/>
+      <c r="I78" s="308"/>
+      <c r="J78" s="308"/>
+      <c r="K78" s="309"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1">
       <c r="A79" s="164" t="s">
@@ -8177,9 +8239,9 @@
         <f>SUM(H74:H78)</f>
         <v>63.5</v>
       </c>
-      <c r="I79" s="266"/>
-      <c r="J79" s="266"/>
-      <c r="K79" s="267"/>
+      <c r="I79" s="312"/>
+      <c r="J79" s="312"/>
+      <c r="K79" s="313"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="63"/>
@@ -8201,16 +8263,16 @@
       <c r="D81" s="64"/>
       <c r="E81" s="64"/>
       <c r="F81" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G81" s="64"/>
       <c r="H81" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I81" s="64"/>
       <c r="J81" s="64"/>
       <c r="K81" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8228,17 +8290,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
     <mergeCell ref="F73:H73"/>
     <mergeCell ref="I73:K73"/>
     <mergeCell ref="I74:K74"/>
@@ -8247,11 +8303,17 @@
     <mergeCell ref="I75:K75"/>
     <mergeCell ref="I76:K76"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27700" yWindow="180" windowWidth="35520" windowHeight="17680" activeTab="1"/>
+    <workbookView xWindow="29160" yWindow="2200" windowWidth="27320" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
   <si>
     <t>学期</t>
   </si>
@@ -541,10 +541,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>计算机网络</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>通识选修1</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -744,18 +740,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>软件测试</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -943,10 +927,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>计算机网络实验</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>学科基础实践</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -988,10 +968,6 @@
   <si>
     <t>Windows程序设计环境</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>软件工程</t>
@@ -1127,6 +1103,10 @@
   </si>
   <si>
     <t>java基础编程</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>网络概论</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
@@ -3481,46 +3461,28 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3547,31 +3509,49 @@
     <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3787,7 +3767,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3795,7 +3775,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3803,7 +3783,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3811,7 +3791,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4069,7 +4049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4079,7 +4059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4099,41 +4079,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="283" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
+      <c r="A1" s="303" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="289" t="s">
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="291"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="311"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="285"/>
+      <c r="A3" s="305"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4166,7 +4146,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="312" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -4186,7 +4166,7 @@
       </c>
       <c r="G4" s="96"/>
       <c r="H4" s="135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="97">
         <v>32</v>
@@ -4195,11 +4175,11 @@
         <v>2</v>
       </c>
       <c r="K4" s="99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="293"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -4218,7 +4198,7 @@
       </c>
       <c r="G5" s="85"/>
       <c r="H5" s="136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="12">
         <v>32</v>
@@ -4231,7 +4211,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="293"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="101">
         <v>330001</v>
       </c>
@@ -4248,23 +4228,23 @@
         <v>14</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="136" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K6" s="100" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="293"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="101">
         <v>199023</v>
       </c>
@@ -4287,7 +4267,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="293"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="101">
         <v>310017</v>
       </c>
@@ -4311,7 +4291,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="293"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -4334,7 +4314,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="293"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="87"/>
       <c r="C10" s="17" t="s">
         <v>18</v>
@@ -4351,7 +4331,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="293"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -4368,7 +4348,7 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="293"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -4391,7 +4371,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="294" t="s">
+      <c r="A13" s="300" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -4413,10 +4393,10 @@
         <v>198328</v>
       </c>
       <c r="H13" s="137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="134">
         <v>2</v>
@@ -4424,7 +4404,7 @@
       <c r="K13" s="106"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="295"/>
+      <c r="A14" s="301"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -4443,7 +4423,7 @@
       </c>
       <c r="G14" s="245"/>
       <c r="H14" s="138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="107">
         <v>54</v>
@@ -4452,11 +4432,11 @@
         <v>3</v>
       </c>
       <c r="K14" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="295"/>
+      <c r="A15" s="301"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -4475,7 +4455,7 @@
       </c>
       <c r="G15" s="81"/>
       <c r="H15" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="110">
         <v>48</v>
@@ -4484,11 +4464,11 @@
         <v>2</v>
       </c>
       <c r="K15" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="295"/>
+      <c r="A16" s="301"/>
       <c r="B16" s="240">
         <v>1900102</v>
       </c>
@@ -4519,12 +4499,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17" s="295"/>
+      <c r="A17" s="301"/>
       <c r="B17" s="203">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="22">
         <v>80</v>
@@ -4537,7 +4517,7 @@
       </c>
       <c r="G17" s="246"/>
       <c r="H17" s="72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="112">
         <v>32</v>
@@ -4550,12 +4530,12 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="295"/>
+      <c r="A18" s="301"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D18" s="9">
         <v>32</v>
@@ -4564,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G18" s="244">
         <v>1901002</v>
@@ -4579,25 +4559,25 @@
         <v>3</v>
       </c>
       <c r="K18" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="295"/>
+      <c r="A19" s="301"/>
       <c r="B19" s="248" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C19" s="224" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D19" s="225" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E19" s="224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="249" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G19" s="245"/>
       <c r="H19" s="138" t="s">
@@ -4610,11 +4590,11 @@
         <v>3</v>
       </c>
       <c r="K19" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="295"/>
+      <c r="A20" s="301"/>
       <c r="B20" s="248"/>
       <c r="C20" s="224"/>
       <c r="D20" s="225"/>
@@ -4622,10 +4602,10 @@
       <c r="F20" s="249"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="296"/>
+      <c r="A21" s="302"/>
       <c r="B21" s="94"/>
       <c r="C21" s="174" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="175"/>
@@ -4636,20 +4616,20 @@
         <v>1905039</v>
       </c>
       <c r="H21" s="128" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I21" s="111" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J21" s="82">
         <v>3</v>
       </c>
       <c r="K21" s="201" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="294" t="s">
+      <c r="A22" s="300" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
@@ -4671,7 +4651,7 @@
         <v>1901027</v>
       </c>
       <c r="H22" s="139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="104">
         <v>68</v>
@@ -4680,11 +4660,11 @@
         <v>3</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="295"/>
+      <c r="A23" s="301"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
@@ -4703,7 +4683,7 @@
       </c>
       <c r="G23" s="85"/>
       <c r="H23" s="138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="107">
         <v>40</v>
@@ -4712,16 +4692,16 @@
         <v>2.5</v>
       </c>
       <c r="K23" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="295"/>
+      <c r="A24" s="301"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="18">
         <v>48</v>
@@ -4730,13 +4710,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="196" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="200">
         <v>1905029</v>
       </c>
       <c r="H24" s="128" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I24" s="111">
         <v>48</v>
@@ -4747,12 +4727,12 @@
       <c r="K24" s="201"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="295"/>
+      <c r="A25" s="301"/>
       <c r="B25" s="206">
         <v>1905008</v>
       </c>
       <c r="C25" s="224" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D25" s="207">
         <v>32</v>
@@ -4765,7 +4745,7 @@
       </c>
       <c r="G25" s="200"/>
       <c r="H25" s="128" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I25" s="111">
         <v>32</v>
@@ -4774,16 +4754,16 @@
         <v>1</v>
       </c>
       <c r="K25" s="201" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="295"/>
+      <c r="A26" s="301"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="18">
         <v>64</v>
@@ -4796,7 +4776,7 @@
       </c>
       <c r="G26" s="197"/>
       <c r="H26" s="72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="112">
         <v>16</v>
@@ -4809,7 +4789,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="295"/>
+      <c r="A27" s="301"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
@@ -4829,7 +4809,7 @@
         <v>1905028</v>
       </c>
       <c r="H27" s="255" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I27" s="126">
         <v>32</v>
@@ -4838,16 +4818,16 @@
         <v>2</v>
       </c>
       <c r="K27" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="295"/>
+      <c r="A28" s="301"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D28" s="9">
         <v>32</v>
@@ -4856,13 +4836,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G28" s="130">
         <v>1905048</v>
       </c>
       <c r="H28" s="125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" s="126">
         <v>48</v>
@@ -4871,11 +4851,11 @@
         <v>3</v>
       </c>
       <c r="K28" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
-      <c r="A29" s="296"/>
+      <c r="A29" s="302"/>
       <c r="B29" s="94"/>
       <c r="C29" s="143" t="s">
         <v>32</v>
@@ -4892,14 +4872,14 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="294" t="s">
+      <c r="A30" s="300" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
         <v>3009004</v>
       </c>
       <c r="C30" s="208" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D30" s="5">
         <v>36</v>
@@ -4914,7 +4894,7 @@
         <v>1901035</v>
       </c>
       <c r="H30" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="104">
         <v>64</v>
@@ -4923,16 +4903,16 @@
         <v>3</v>
       </c>
       <c r="K30" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="295"/>
+      <c r="A31" s="301"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
       <c r="C31" s="192" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D31" s="7">
         <f>18*E31</f>
@@ -4948,7 +4928,7 @@
         <v>1905053</v>
       </c>
       <c r="H31" s="195" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I31" s="256">
         <v>48</v>
@@ -4957,16 +4937,16 @@
         <v>3</v>
       </c>
       <c r="K31" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="295"/>
+      <c r="A32" s="301"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="9">
         <v>40</v>
@@ -4975,13 +4955,13 @@
         <v>2.5</v>
       </c>
       <c r="F32" s="202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G32" s="130">
         <v>1905026</v>
       </c>
       <c r="H32" s="194" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I32" s="117">
         <v>32</v>
@@ -4990,16 +4970,16 @@
         <v>2</v>
       </c>
       <c r="K32" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="295"/>
+      <c r="A33" s="301"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="9">
         <v>32</v>
@@ -5008,26 +4988,26 @@
         <v>1</v>
       </c>
       <c r="F33" s="202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G33" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="194" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="117" t="s">
-        <v>199</v>
-      </c>
       <c r="J33" s="118" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K33" s="108" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="295"/>
+      <c r="A34" s="301"/>
       <c r="B34" s="210"/>
       <c r="C34" s="211"/>
       <c r="D34" s="212"/>
@@ -5037,7 +5017,7 @@
         <v>1905030</v>
       </c>
       <c r="H34" s="194" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="117">
         <v>48</v>
@@ -5046,34 +5026,34 @@
         <v>3</v>
       </c>
       <c r="K34" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="295"/>
+      <c r="A35" s="301"/>
       <c r="B35" s="210"/>
       <c r="C35" s="211"/>
       <c r="D35" s="212"/>
       <c r="E35" s="212"/>
       <c r="F35" s="213"/>
       <c r="G35" s="130" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H35" s="116" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I35" s="117" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J35" s="118" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K35" s="108" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="296"/>
+      <c r="A36" s="302"/>
       <c r="B36" s="94"/>
       <c r="C36" s="143" t="s">
         <v>36</v>
@@ -5087,7 +5067,7 @@
         <v>1905041</v>
       </c>
       <c r="H36" s="228" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I36" s="229">
         <v>32</v>
@@ -5096,18 +5076,18 @@
         <v>2</v>
       </c>
       <c r="K36" s="230" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="294" t="s">
+      <c r="A37" s="300" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="214">
         <v>3300003</v>
       </c>
       <c r="C37" s="215" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D37" s="216">
         <v>18</v>
@@ -5120,7 +5100,7 @@
       </c>
       <c r="G37" s="231"/>
       <c r="H37" s="139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" s="104">
         <v>32</v>
@@ -5129,11 +5109,11 @@
         <v>2</v>
       </c>
       <c r="K37" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="295"/>
+      <c r="A38" s="301"/>
       <c r="B38" s="219">
         <v>1905046</v>
       </c>
@@ -5153,7 +5133,7 @@
         <v>1905025</v>
       </c>
       <c r="H38" s="140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I38" s="129">
         <v>32</v>
@@ -5164,7 +5144,7 @@
       <c r="K38" s="132"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="295"/>
+      <c r="A39" s="301"/>
       <c r="B39" s="219">
         <v>1905047</v>
       </c>
@@ -5184,7 +5164,7 @@
         <v>1905024</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="168">
         <v>48</v>
@@ -5195,7 +5175,7 @@
       <c r="K39" s="169"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="295"/>
+      <c r="A40" s="301"/>
       <c r="B40" s="219">
         <v>1901015</v>
       </c>
@@ -5213,20 +5193,20 @@
       </c>
       <c r="G40" s="130"/>
       <c r="H40" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I40" s="126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40" s="127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" s="108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="295"/>
+      <c r="A41" s="301"/>
       <c r="B41" s="219">
         <v>1901016</v>
       </c>
@@ -5240,29 +5220,29 @@
         <v>1</v>
       </c>
       <c r="F41" s="224" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G41" s="130"/>
       <c r="H41" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41" s="108" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="295"/>
+      <c r="A42" s="301"/>
       <c r="B42" s="219">
         <v>1904020</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D42" s="9">
         <v>48</v>
@@ -5275,25 +5255,25 @@
       </c>
       <c r="G42" s="130"/>
       <c r="H42" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="I42" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42" s="108" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="295"/>
+      <c r="A43" s="301"/>
       <c r="B43" s="219">
         <v>1904021</v>
       </c>
       <c r="C43" s="224" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D43" s="207">
         <v>16</v>
@@ -5302,45 +5282,45 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="224" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G43" s="130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I43" s="126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43" s="127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K43" s="108"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="295"/>
+      <c r="A44" s="301"/>
       <c r="B44" s="219"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
       <c r="E44" s="35"/>
       <c r="F44" s="204"/>
       <c r="G44" s="130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H44" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I44" s="126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44" s="127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K44" s="108"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="296"/>
+      <c r="A45" s="302"/>
       <c r="B45" s="94"/>
       <c r="C45" s="143" t="s">
         <v>38</v>
@@ -5357,14 +5337,14 @@
       <c r="K45" s="199"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="295" t="s">
+      <c r="A46" s="301" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="214">
         <v>3300005</v>
       </c>
       <c r="C46" s="239" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D46" s="216">
         <v>18</v>
@@ -5377,7 +5357,7 @@
       </c>
       <c r="G46" s="84"/>
       <c r="H46" s="139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I46" s="104">
         <v>16</v>
@@ -5386,11 +5366,11 @@
         <v>1</v>
       </c>
       <c r="K46" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="295"/>
+      <c r="A47" s="301"/>
       <c r="B47" s="240">
         <v>1900103</v>
       </c>
@@ -5410,7 +5390,7 @@
         <v>1905037</v>
       </c>
       <c r="H47" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" s="126">
         <v>48</v>
@@ -5419,16 +5399,16 @@
         <v>3</v>
       </c>
       <c r="K47" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="295"/>
+      <c r="A48" s="301"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="9">
         <v>48</v>
@@ -5437,13 +5417,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G48" s="200">
         <v>1905038</v>
       </c>
       <c r="H48" s="128" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I48" s="111">
         <v>16</v>
@@ -5452,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="201" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5461,7 +5441,7 @@
         <v>1905084</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="9">
         <v>32</v>
@@ -5470,13 +5450,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G49" s="130">
         <v>199173</v>
       </c>
       <c r="H49" s="125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I49" s="126">
         <v>32</v>
@@ -5497,7 +5477,7 @@
         <v>199621</v>
       </c>
       <c r="H50" s="125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I50" s="126">
         <v>32</v>
@@ -5518,7 +5498,7 @@
         <v>199622</v>
       </c>
       <c r="H51" s="125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I51" s="126">
         <v>32</v>
@@ -5539,7 +5519,7 @@
         <v>1905041</v>
       </c>
       <c r="H52" s="128" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I52" s="111">
         <v>32</v>
@@ -5548,7 +5528,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="201" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5579,21 +5559,21 @@
         <v>19</v>
       </c>
       <c r="G55" s="198" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I55" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="294" t="s">
+      <c r="A56" s="300" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="176">
@@ -5603,17 +5583,17 @@
         <v>44</v>
       </c>
       <c r="D56" s="176" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E56" s="178">
         <v>3</v>
       </c>
       <c r="F56" s="236" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G56" s="238"/>
       <c r="H56" s="139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I56" s="104">
         <v>16</v>
@@ -5622,11 +5602,11 @@
         <v>1</v>
       </c>
       <c r="K56" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="295"/>
+      <c r="A57" s="301"/>
       <c r="B57" s="176">
         <v>1900105</v>
       </c>
@@ -5644,20 +5624,20 @@
       </c>
       <c r="G57" s="130"/>
       <c r="H57" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I57" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J57" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K57" s="169" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="295"/>
+      <c r="A58" s="301"/>
       <c r="B58" s="176">
         <v>1900107</v>
       </c>
@@ -5674,29 +5654,29 @@
         <v>26</v>
       </c>
       <c r="G58" s="130" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I58" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J58" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K58" s="169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="295"/>
+      <c r="A59" s="301"/>
       <c r="B59" s="180"/>
       <c r="C59" s="181" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D59" s="182" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E59" s="183">
         <v>2</v>
@@ -5705,110 +5685,110 @@
         <v>31</v>
       </c>
       <c r="G59" s="130" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I59" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J59" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K59" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="295"/>
+      <c r="A60" s="301"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" s="119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" s="130" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I60" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J60" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K60" s="169"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="295"/>
+      <c r="A61" s="301"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" s="119" t="s">
-        <v>89</v>
-      </c>
       <c r="G61" s="130" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I61" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J61" s="168" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K61" s="169"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="295"/>
+      <c r="A62" s="301"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>97</v>
-      </c>
       <c r="E62" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="168" t="s">
-        <v>90</v>
-      </c>
       <c r="J62" s="168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K62" s="169"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1">
-      <c r="A63" s="296"/>
+      <c r="A63" s="302"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
@@ -5818,7 +5798,7 @@
         <v>199650</v>
       </c>
       <c r="H63" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I63" s="43">
         <v>24</v>
@@ -5836,10 +5816,10 @@
         <v>1900106</v>
       </c>
       <c r="C64" s="185" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D64" s="184" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E64" s="186">
         <v>3</v>
@@ -5849,7 +5829,7 @@
       </c>
       <c r="G64" s="121"/>
       <c r="H64" s="44" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I64" s="45"/>
       <c r="J64" s="46">
@@ -5864,13 +5844,13 @@
         <v>46</v>
       </c>
       <c r="D65" s="189" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E65" s="190">
         <v>1</v>
       </c>
       <c r="F65" s="191" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G65" s="120"/>
       <c r="H65" s="42"/>
@@ -5970,28 +5950,28 @@
         <v>48</v>
       </c>
       <c r="B72" s="146"/>
-      <c r="C72" s="297" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="298"/>
-      <c r="E72" s="299"/>
-      <c r="F72" s="297" t="s">
-        <v>122</v>
-      </c>
-      <c r="G72" s="298"/>
-      <c r="H72" s="299"/>
-      <c r="I72" s="300" t="s">
-        <v>123</v>
-      </c>
-      <c r="J72" s="300"/>
-      <c r="K72" s="301"/>
+      <c r="C72" s="291" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="292"/>
+      <c r="E72" s="293"/>
+      <c r="F72" s="291" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="292"/>
+      <c r="H72" s="293"/>
+      <c r="I72" s="294" t="s">
+        <v>119</v>
+      </c>
+      <c r="J72" s="294"/>
+      <c r="K72" s="295"/>
     </row>
     <row r="73" spans="1:11" ht="26">
       <c r="A73" s="147">
         <v>1</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C73" s="148" t="s">
         <v>49</v>
@@ -6014,17 +5994,17 @@
       <c r="H73" s="151">
         <v>18</v>
       </c>
-      <c r="I73" s="302" t="s">
-        <v>125</v>
-      </c>
-      <c r="J73" s="303"/>
-      <c r="K73" s="304"/>
+      <c r="I73" s="296" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" s="297"/>
+      <c r="K73" s="298"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="305">
+      <c r="A74" s="283">
         <v>2</v>
       </c>
-      <c r="B74" s="306" t="s">
+      <c r="B74" s="299" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="152"/>
@@ -6038,36 +6018,36 @@
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="I74" s="308"/>
-      <c r="J74" s="308"/>
-      <c r="K74" s="309"/>
+      <c r="I74" s="287"/>
+      <c r="J74" s="287"/>
+      <c r="K74" s="288"/>
     </row>
     <row r="75" spans="1:11" ht="26">
-      <c r="A75" s="305"/>
-      <c r="B75" s="307"/>
+      <c r="A75" s="283"/>
+      <c r="B75" s="284"/>
       <c r="C75" s="155"/>
       <c r="D75" s="156"/>
       <c r="E75" s="156"/>
       <c r="F75" s="157" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G75" s="156"/>
       <c r="H75" s="156">
         <v>5</v>
       </c>
-      <c r="I75" s="308"/>
-      <c r="J75" s="308"/>
-      <c r="K75" s="309"/>
+      <c r="I75" s="287"/>
+      <c r="J75" s="287"/>
+      <c r="K75" s="288"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="305">
+      <c r="A76" s="283">
         <v>3</v>
       </c>
-      <c r="B76" s="307" t="s">
-        <v>126</v>
+      <c r="B76" s="284" t="s">
+        <v>122</v>
       </c>
       <c r="C76" s="158" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D76" s="159"/>
       <c r="E76" s="160">
@@ -6075,32 +6055,32 @@
         <v>40</v>
       </c>
       <c r="F76" s="161" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G76" s="162"/>
       <c r="H76" s="162">
         <v>26</v>
       </c>
-      <c r="I76" s="310"/>
-      <c r="J76" s="310"/>
-      <c r="K76" s="311"/>
+      <c r="I76" s="285"/>
+      <c r="J76" s="285"/>
+      <c r="K76" s="286"/>
     </row>
     <row r="77" spans="1:11" ht="26">
-      <c r="A77" s="305"/>
-      <c r="B77" s="307"/>
+      <c r="A77" s="283"/>
+      <c r="B77" s="284"/>
       <c r="C77" s="158" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D77" s="159"/>
       <c r="E77" s="160"/>
       <c r="F77" s="163" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G77" s="31"/>
       <c r="H77" s="69"/>
-      <c r="I77" s="308"/>
-      <c r="J77" s="308"/>
-      <c r="K77" s="309"/>
+      <c r="I77" s="287"/>
+      <c r="J77" s="287"/>
+      <c r="K77" s="288"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1">
       <c r="A78" s="164" t="s">
@@ -6125,9 +6105,9 @@
         <f>SUM(H73:H77)</f>
         <v>59</v>
       </c>
-      <c r="I78" s="312"/>
-      <c r="J78" s="312"/>
-      <c r="K78" s="313"/>
+      <c r="I78" s="289"/>
+      <c r="J78" s="289"/>
+      <c r="K78" s="290"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="63"/>
@@ -6149,16 +6129,16 @@
       <c r="D80" s="64"/>
       <c r="E80" s="64"/>
       <c r="F80" s="64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G80" s="64"/>
       <c r="H80" s="65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I80" s="64"/>
       <c r="J80" s="64"/>
       <c r="K80" s="64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:10" customFormat="1">
@@ -6175,11 +6155,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="F72:H72"/>
     <mergeCell ref="I72:K72"/>
@@ -6188,17 +6174,11 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="I74:K74"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6216,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6236,41 +6216,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="283" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
+      <c r="A1" s="303" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="289" t="s">
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
       <c r="K2" s="314"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="285"/>
+      <c r="A3" s="305"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6290,20 +6270,20 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="312" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -6323,7 +6303,7 @@
       </c>
       <c r="G4" s="278"/>
       <c r="H4" s="279" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I4" s="280">
         <v>32</v>
@@ -6332,11 +6312,11 @@
         <v>2</v>
       </c>
       <c r="K4" s="282" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="293"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -6355,7 +6335,7 @@
       </c>
       <c r="G5" s="85"/>
       <c r="H5" s="136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="12">
         <v>32</v>
@@ -6368,7 +6348,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="293"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="101">
         <v>330001</v>
       </c>
@@ -6385,23 +6365,23 @@
         <v>14</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="136" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K6" s="100" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="293"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="101">
         <v>199023</v>
       </c>
@@ -6424,7 +6404,7 @@
       <c r="K7" s="259"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="293"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="101">
         <v>310017</v>
       </c>
@@ -6448,7 +6428,7 @@
       <c r="K8" s="259"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="293"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -6471,7 +6451,7 @@
       <c r="K9" s="259"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="293"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="87"/>
       <c r="C10" s="17" t="s">
         <v>18</v>
@@ -6488,7 +6468,7 @@
       <c r="K10" s="259"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="293"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -6505,8 +6485,10 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="293"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="313"/>
+      <c r="B12" s="87">
+        <v>1901001</v>
+      </c>
       <c r="C12" s="17" t="s">
         <v>57</v>
       </c>
@@ -6526,7 +6508,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="294" t="s">
+      <c r="A13" s="300" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -6548,10 +6530,10 @@
         <v>198328</v>
       </c>
       <c r="H13" s="137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="134">
         <v>2</v>
@@ -6559,7 +6541,7 @@
       <c r="K13" s="106"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="295"/>
+      <c r="A14" s="301"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -6578,7 +6560,7 @@
       </c>
       <c r="G14" s="245"/>
       <c r="H14" s="138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="107">
         <v>54</v>
@@ -6587,11 +6569,11 @@
         <v>3</v>
       </c>
       <c r="K14" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="295"/>
+      <c r="A15" s="301"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -6610,7 +6592,7 @@
       </c>
       <c r="G15" s="278"/>
       <c r="H15" s="279" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I15" s="280">
         <v>48</v>
@@ -6619,11 +6601,11 @@
         <v>2</v>
       </c>
       <c r="K15" s="282" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="295"/>
+      <c r="A16" s="301"/>
       <c r="B16" s="240">
         <v>1900102</v>
       </c>
@@ -6646,10 +6628,12 @@
       <c r="K16" s="275"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="295"/>
-      <c r="B17" s="203"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="203">
+        <v>1901003</v>
+      </c>
       <c r="C17" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="22">
         <v>80</v>
@@ -6662,7 +6646,7 @@
       </c>
       <c r="G17" s="246"/>
       <c r="H17" s="72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="112">
         <v>32</v>
@@ -6675,7 +6659,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="295"/>
+      <c r="A18" s="301"/>
       <c r="B18" s="246"/>
       <c r="C18" s="72" t="s">
         <v>58</v>
@@ -6696,8 +6680,10 @@
       <c r="K18" s="275"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="295"/>
-      <c r="B19" s="245"/>
+      <c r="A19" s="301"/>
+      <c r="B19" s="245">
+        <v>1901002</v>
+      </c>
       <c r="C19" s="138" t="s">
         <v>59</v>
       </c>
@@ -6708,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="108" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G19" s="273"/>
       <c r="H19" s="274"/>
@@ -6717,7 +6703,7 @@
       <c r="K19" s="275"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="295"/>
+      <c r="A20" s="301"/>
       <c r="B20" s="245"/>
       <c r="C20" s="138" t="s">
         <v>60</v>
@@ -6738,12 +6724,12 @@
       <c r="K20" s="275"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="295"/>
+      <c r="A21" s="301"/>
       <c r="B21" s="87">
         <v>199645</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D21" s="18">
         <v>32</v>
@@ -6752,7 +6738,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="196" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G21" s="247"/>
       <c r="H21" s="128"/>
@@ -6761,10 +6747,10 @@
       <c r="K21" s="201"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="296"/>
+      <c r="A22" s="302"/>
       <c r="B22" s="94"/>
       <c r="C22" s="174" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="175"/>
@@ -6772,23 +6758,23 @@
         <v>27</v>
       </c>
       <c r="G22" s="278">
-        <v>199639</v>
+        <v>1905039</v>
       </c>
       <c r="H22" s="279" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I22" s="280" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J22" s="281">
         <v>3</v>
       </c>
       <c r="K22" s="282" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="294" t="s">
+      <c r="A23" s="300" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
@@ -6808,7 +6794,7 @@
       </c>
       <c r="G23" s="84"/>
       <c r="H23" s="139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="104">
         <v>68</v>
@@ -6817,11 +6803,11 @@
         <v>3</v>
       </c>
       <c r="K23" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="295"/>
+      <c r="A24" s="301"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
@@ -6840,7 +6826,7 @@
       </c>
       <c r="G24" s="85"/>
       <c r="H24" s="138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="107">
         <v>40</v>
@@ -6849,16 +6835,16 @@
         <v>2.5</v>
       </c>
       <c r="K24" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="295"/>
+      <c r="A25" s="301"/>
       <c r="B25" s="87">
         <v>199654</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="18">
         <v>48</v>
@@ -6867,13 +6853,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="196" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="278">
-        <v>199629</v>
+        <v>1905029</v>
       </c>
       <c r="H25" s="279" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I25" s="280">
         <v>48</v>
@@ -6884,12 +6870,12 @@
       <c r="K25" s="282"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="295"/>
+      <c r="A26" s="301"/>
       <c r="B26" s="206">
         <v>199655</v>
       </c>
       <c r="C26" s="224" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D26" s="207">
         <v>32</v>
@@ -6902,7 +6888,7 @@
       </c>
       <c r="G26" s="278"/>
       <c r="H26" s="279" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I26" s="280">
         <v>32</v>
@@ -6911,14 +6897,16 @@
         <v>1</v>
       </c>
       <c r="K26" s="282" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="295"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="301"/>
+      <c r="B27" s="87">
+        <v>1901006</v>
+      </c>
       <c r="C27" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="18">
         <v>64</v>
@@ -6931,7 +6919,7 @@
       </c>
       <c r="G27" s="197"/>
       <c r="H27" s="72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="112">
         <v>16</v>
@@ -6944,8 +6932,10 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="295"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="301"/>
+      <c r="B28" s="87">
+        <v>1901007</v>
+      </c>
       <c r="C28" s="224" t="s">
         <v>62</v>
       </c>
@@ -6959,10 +6949,10 @@
         <v>63</v>
       </c>
       <c r="G28" s="130">
-        <v>199628</v>
+        <v>1905028</v>
       </c>
       <c r="H28" s="255" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I28" s="126">
         <v>32</v>
@@ -6971,16 +6961,16 @@
         <v>2</v>
       </c>
       <c r="K28" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="295"/>
+      <c r="A29" s="301"/>
       <c r="G29" s="130">
-        <v>199648</v>
+        <v>1905048</v>
       </c>
       <c r="H29" s="125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" s="126">
         <v>48</v>
@@ -6989,11 +6979,11 @@
         <v>3</v>
       </c>
       <c r="K29" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="296"/>
+      <c r="A30" s="302"/>
       <c r="B30" s="94"/>
       <c r="C30" s="143" t="s">
         <v>32</v>
@@ -7005,7 +6995,7 @@
       </c>
       <c r="G30" s="93"/>
       <c r="H30" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9">
         <v>48</v>
@@ -7014,18 +7004,18 @@
         <v>3</v>
       </c>
       <c r="K30" s="272" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="294" t="s">
+      <c r="A31" s="300" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
         <v>3009004</v>
       </c>
       <c r="C31" s="208" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
@@ -7038,7 +7028,7 @@
       </c>
       <c r="G31" s="113"/>
       <c r="H31" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="104">
         <v>64</v>
@@ -7047,16 +7037,16 @@
         <v>3</v>
       </c>
       <c r="K31" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="295"/>
+      <c r="A32" s="301"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
       <c r="C32" s="192" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D32" s="7">
         <f>18*E32</f>
@@ -7069,10 +7059,10 @@
         <v>10</v>
       </c>
       <c r="G32" s="130">
-        <v>199653</v>
+        <v>1905053</v>
       </c>
       <c r="H32" s="195" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I32" s="256">
         <v>48</v>
@@ -7081,16 +7071,16 @@
         <v>3</v>
       </c>
       <c r="K32" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="295"/>
-      <c r="B33" s="93" t="s">
-        <v>116</v>
+      <c r="A33" s="301"/>
+      <c r="B33" s="93">
+        <v>1905010</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33" s="9">
         <v>48</v>
@@ -7100,10 +7090,10 @@
       </c>
       <c r="F33" s="83"/>
       <c r="G33" s="130">
-        <v>199626</v>
+        <v>1905026</v>
       </c>
       <c r="H33" s="194" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I33" s="117">
         <v>48</v>
@@ -7112,16 +7102,16 @@
         <v>3</v>
       </c>
       <c r="K33" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="295"/>
-      <c r="B34" s="93" t="s">
-        <v>117</v>
+      <c r="A34" s="301"/>
+      <c r="B34" s="93">
+        <v>1905011</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D34" s="9">
         <v>32</v>
@@ -7131,33 +7121,33 @@
       </c>
       <c r="F34" s="83"/>
       <c r="G34" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="194" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I34" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" s="118" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K34" s="108" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="295"/>
+      <c r="A35" s="301"/>
       <c r="B35" s="210"/>
       <c r="C35" s="211"/>
       <c r="D35" s="212"/>
       <c r="E35" s="212"/>
       <c r="F35" s="213"/>
       <c r="G35" s="130">
-        <v>199630</v>
+        <v>1905030</v>
       </c>
       <c r="H35" s="194" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="117">
         <v>48</v>
@@ -7166,28 +7156,28 @@
         <v>3</v>
       </c>
       <c r="K35" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="295"/>
+      <c r="A36" s="301"/>
       <c r="B36" s="210"/>
       <c r="C36" s="211"/>
       <c r="D36" s="212"/>
       <c r="E36" s="212"/>
       <c r="F36" s="213"/>
       <c r="G36" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="116"/>
       <c r="I36" s="117"/>
       <c r="J36" s="118"/>
       <c r="K36" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="296"/>
+      <c r="A37" s="302"/>
       <c r="B37" s="94"/>
       <c r="C37" s="143" t="s">
         <v>36</v>
@@ -7201,7 +7191,7 @@
         <v>199641</v>
       </c>
       <c r="H37" s="279" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I37" s="280">
         <v>32</v>
@@ -7210,18 +7200,18 @@
         <v>2</v>
       </c>
       <c r="K37" s="282" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="294" t="s">
+      <c r="A38" s="300" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="214">
         <v>3300003</v>
       </c>
       <c r="C38" s="215" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D38" s="216">
         <v>18</v>
@@ -7234,7 +7224,7 @@
       </c>
       <c r="G38" s="231"/>
       <c r="H38" s="139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" s="104">
         <v>32</v>
@@ -7243,12 +7233,14 @@
         <v>2</v>
       </c>
       <c r="K38" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="295"/>
-      <c r="B39" s="219"/>
+      <c r="A39" s="301"/>
+      <c r="B39" s="219">
+        <v>1905046</v>
+      </c>
       <c r="C39" s="220" t="s">
         <v>64</v>
       </c>
@@ -7265,7 +7257,7 @@
         <v>199625</v>
       </c>
       <c r="H39" s="279" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I39" s="280">
         <v>32</v>
@@ -7276,8 +7268,10 @@
       <c r="K39" s="282"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="295"/>
-      <c r="B40" s="219"/>
+      <c r="A40" s="301"/>
+      <c r="B40" s="219">
+        <v>1905047</v>
+      </c>
       <c r="C40" s="224" t="s">
         <v>65</v>
       </c>
@@ -7294,7 +7288,7 @@
         <v>199624</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="258">
         <v>48</v>
@@ -7305,8 +7299,10 @@
       <c r="K40" s="259"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="295"/>
-      <c r="B41" s="219"/>
+      <c r="A41" s="301"/>
+      <c r="B41" s="219">
+        <v>1901015</v>
+      </c>
       <c r="C41" s="30" t="s">
         <v>66</v>
       </c>
@@ -7321,21 +7317,23 @@
       </c>
       <c r="G41" s="130"/>
       <c r="H41" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" s="126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K41" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="295"/>
-      <c r="B42" s="219"/>
+      <c r="A42" s="301"/>
+      <c r="B42" s="219">
+        <v>1901016</v>
+      </c>
       <c r="C42" s="224" t="s">
         <v>67</v>
       </c>
@@ -7346,27 +7344,29 @@
         <v>1</v>
       </c>
       <c r="F42" s="224" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G42" s="130"/>
       <c r="H42" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K42" s="108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="295"/>
-      <c r="B43" s="219"/>
+      <c r="A43" s="301"/>
+      <c r="B43" s="219">
+        <v>1904020</v>
+      </c>
       <c r="C43" s="30" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="D43" s="9">
         <v>48</v>
@@ -7379,23 +7379,25 @@
       </c>
       <c r="G43" s="130"/>
       <c r="H43" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43" s="108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="295"/>
-      <c r="B44" s="219"/>
+      <c r="A44" s="301"/>
+      <c r="B44" s="219">
+        <v>1904021</v>
+      </c>
       <c r="C44" s="224" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D44" s="207">
         <v>16</v>
@@ -7404,45 +7406,45 @@
         <v>0.5</v>
       </c>
       <c r="F44" s="224" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G44" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I44" s="126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K44" s="108"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="295"/>
+      <c r="A45" s="301"/>
       <c r="B45" s="219"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
       <c r="E45" s="35"/>
       <c r="F45" s="204"/>
       <c r="G45" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" s="126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" s="108"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1">
-      <c r="A46" s="296"/>
+      <c r="A46" s="302"/>
       <c r="B46" s="94"/>
       <c r="C46" s="143" t="s">
         <v>38</v>
@@ -7459,14 +7461,14 @@
       <c r="K46" s="199"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="295" t="s">
+      <c r="A47" s="301" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="214">
         <v>3300005</v>
       </c>
       <c r="C47" s="239" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D47" s="216">
         <v>18</v>
@@ -7479,7 +7481,7 @@
       </c>
       <c r="G47" s="84"/>
       <c r="H47" s="139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I47" s="104">
         <v>16</v>
@@ -7488,11 +7490,11 @@
         <v>1</v>
       </c>
       <c r="K47" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="295"/>
+      <c r="A48" s="301"/>
       <c r="B48" s="240">
         <v>1900103</v>
       </c>
@@ -7508,9 +7510,11 @@
       <c r="F48" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="124"/>
+      <c r="G48" s="124">
+        <v>1905037</v>
+      </c>
       <c r="H48" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48" s="126">
         <v>48</v>
@@ -7519,16 +7523,16 @@
         <v>3</v>
       </c>
       <c r="K48" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="295"/>
-      <c r="B49" s="93" t="s">
-        <v>172</v>
+      <c r="A49" s="301"/>
+      <c r="B49" s="93">
+        <v>1905033</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D49" s="9">
         <v>48</v>
@@ -7537,11 +7541,13 @@
         <v>3</v>
       </c>
       <c r="F49" s="202" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" s="278"/>
+        <v>162</v>
+      </c>
+      <c r="G49" s="278">
+        <v>1905038</v>
+      </c>
       <c r="H49" s="279" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I49" s="280">
         <v>16</v>
@@ -7550,16 +7556,16 @@
         <v>1</v>
       </c>
       <c r="K49" s="282" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="172"/>
-      <c r="B50" s="93" t="s">
-        <v>118</v>
+      <c r="B50" s="93">
+        <v>1905034</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D50" s="9">
         <v>32</v>
@@ -7568,13 +7574,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G50" s="130">
         <v>199173</v>
       </c>
       <c r="H50" s="125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I50" s="126">
         <v>32</v>
@@ -7595,7 +7601,7 @@
         <v>199621</v>
       </c>
       <c r="H51" s="125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I51" s="126">
         <v>32</v>
@@ -7616,7 +7622,7 @@
         <v>199622</v>
       </c>
       <c r="H52" s="125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I52" s="126">
         <v>32</v>
@@ -7637,7 +7643,7 @@
         <v>199641</v>
       </c>
       <c r="H53" s="279" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I53" s="280">
         <v>32</v>
@@ -7646,7 +7652,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="282" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7660,7 +7666,7 @@
         <v>199783</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I54" s="9">
         <v>48</v>
@@ -7669,7 +7675,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="272" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7683,7 +7689,7 @@
         <v>199784</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I55" s="9">
         <v>32</v>
@@ -7692,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="272" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1">
@@ -7707,21 +7713,21 @@
         <v>19</v>
       </c>
       <c r="G56" s="198" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="294" t="s">
+      <c r="A57" s="300" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="260">
@@ -7731,17 +7737,17 @@
         <v>44</v>
       </c>
       <c r="D57" s="262" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E57" s="263">
         <v>3</v>
       </c>
       <c r="F57" s="264" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G57" s="238"/>
       <c r="H57" s="139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I57" s="104">
         <v>16</v>
@@ -7750,11 +7756,11 @@
         <v>1</v>
       </c>
       <c r="K57" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="295"/>
+      <c r="A58" s="301"/>
       <c r="B58" s="240">
         <v>1900105</v>
       </c>
@@ -7772,20 +7778,20 @@
       </c>
       <c r="G58" s="130"/>
       <c r="H58" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I58" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J58" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K58" s="259" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="295"/>
+      <c r="A59" s="301"/>
       <c r="B59" s="240">
         <v>1900107</v>
       </c>
@@ -7802,29 +7808,29 @@
         <v>26</v>
       </c>
       <c r="G59" s="130" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I59" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J59" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K59" s="259" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="295"/>
+      <c r="A60" s="301"/>
       <c r="B60" s="265"/>
       <c r="C60" s="155" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D60" s="156" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E60" s="266">
         <v>2</v>
@@ -7833,28 +7839,28 @@
         <v>31</v>
       </c>
       <c r="G60" s="130" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I60" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J60" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K60" s="259" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="295"/>
+      <c r="A61" s="301"/>
       <c r="B61" s="130">
-        <v>199650</v>
+        <v>1905050</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" s="258">
         <v>32</v>
@@ -7864,33 +7870,33 @@
       </c>
       <c r="F61" s="259"/>
       <c r="G61" s="130" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I61" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J61" s="258" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K61" s="259"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="295"/>
+      <c r="A62" s="301"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F62" s="204" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62" s="210"/>
       <c r="H62" s="271"/>
@@ -7899,19 +7905,19 @@
       <c r="K62" s="213"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="295"/>
+      <c r="A63" s="301"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F63" s="204" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G63" s="210"/>
       <c r="H63" s="271"/>
@@ -7920,7 +7926,7 @@
       <c r="K63" s="213"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="296"/>
+      <c r="A64" s="302"/>
       <c r="B64" s="94"/>
       <c r="C64" s="268"/>
       <c r="D64" s="36"/>
@@ -7930,7 +7936,7 @@
         <v>199650</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I64" s="43">
         <v>24</v>
@@ -7948,10 +7954,10 @@
         <v>1900106</v>
       </c>
       <c r="C65" s="185" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D65" s="184" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E65" s="186">
         <v>3</v>
@@ -7961,7 +7967,7 @@
       </c>
       <c r="G65" s="121"/>
       <c r="H65" s="44" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I65" s="45"/>
       <c r="J65" s="46">
@@ -7976,13 +7982,13 @@
         <v>46</v>
       </c>
       <c r="D66" s="189" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E66" s="190">
         <v>1</v>
       </c>
       <c r="F66" s="191" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G66" s="120"/>
       <c r="H66" s="42"/>
@@ -8082,28 +8088,28 @@
         <v>48</v>
       </c>
       <c r="B73" s="171"/>
-      <c r="C73" s="297" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="298"/>
-      <c r="E73" s="299"/>
-      <c r="F73" s="297" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="298"/>
-      <c r="H73" s="299"/>
-      <c r="I73" s="300" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="300"/>
-      <c r="K73" s="301"/>
+      <c r="C73" s="291" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="292"/>
+      <c r="E73" s="293"/>
+      <c r="F73" s="291" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="292"/>
+      <c r="H73" s="293"/>
+      <c r="I73" s="294" t="s">
+        <v>119</v>
+      </c>
+      <c r="J73" s="294"/>
+      <c r="K73" s="295"/>
     </row>
     <row r="74" spans="1:11" ht="26">
       <c r="A74" s="167">
         <v>1</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C74" s="148" t="s">
         <v>49</v>
@@ -8126,17 +8132,17 @@
       <c r="H74" s="151">
         <v>18</v>
       </c>
-      <c r="I74" s="302" t="s">
-        <v>125</v>
-      </c>
-      <c r="J74" s="303"/>
-      <c r="K74" s="304"/>
+      <c r="I74" s="296" t="s">
+        <v>121</v>
+      </c>
+      <c r="J74" s="297"/>
+      <c r="K74" s="298"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="305">
+      <c r="A75" s="283">
         <v>2</v>
       </c>
-      <c r="B75" s="306" t="s">
+      <c r="B75" s="299" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="152"/>
@@ -8150,36 +8156,36 @@
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I75" s="308"/>
-      <c r="J75" s="308"/>
-      <c r="K75" s="309"/>
+      <c r="I75" s="287"/>
+      <c r="J75" s="287"/>
+      <c r="K75" s="288"/>
     </row>
     <row r="76" spans="1:11" ht="26">
-      <c r="A76" s="305"/>
-      <c r="B76" s="307"/>
+      <c r="A76" s="283"/>
+      <c r="B76" s="284"/>
       <c r="C76" s="155"/>
       <c r="D76" s="156"/>
       <c r="E76" s="156"/>
       <c r="F76" s="157" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G76" s="156"/>
       <c r="H76" s="156">
         <v>5</v>
       </c>
-      <c r="I76" s="308"/>
-      <c r="J76" s="308"/>
-      <c r="K76" s="309"/>
+      <c r="I76" s="287"/>
+      <c r="J76" s="287"/>
+      <c r="K76" s="288"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="305">
+      <c r="A77" s="283">
         <v>3</v>
       </c>
-      <c r="B77" s="307" t="s">
-        <v>176</v>
+      <c r="B77" s="284" t="s">
+        <v>170</v>
       </c>
       <c r="C77" s="158" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D77" s="159"/>
       <c r="E77" s="160">
@@ -8187,32 +8193,32 @@
         <v>42.5</v>
       </c>
       <c r="F77" s="161" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G77" s="162"/>
       <c r="H77" s="162">
         <v>30.5</v>
       </c>
-      <c r="I77" s="310"/>
-      <c r="J77" s="310"/>
-      <c r="K77" s="311"/>
+      <c r="I77" s="285"/>
+      <c r="J77" s="285"/>
+      <c r="K77" s="286"/>
     </row>
     <row r="78" spans="1:11" ht="26">
-      <c r="A78" s="305"/>
-      <c r="B78" s="307"/>
+      <c r="A78" s="283"/>
+      <c r="B78" s="284"/>
       <c r="C78" s="158" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="159"/>
       <c r="E78" s="160"/>
       <c r="F78" s="163" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G78" s="168"/>
       <c r="H78" s="69"/>
-      <c r="I78" s="308"/>
-      <c r="J78" s="308"/>
-      <c r="K78" s="309"/>
+      <c r="I78" s="287"/>
+      <c r="J78" s="287"/>
+      <c r="K78" s="288"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1">
       <c r="A79" s="164" t="s">
@@ -8239,9 +8245,9 @@
         <f>SUM(H74:H78)</f>
         <v>63.5</v>
       </c>
-      <c r="I79" s="312"/>
-      <c r="J79" s="312"/>
-      <c r="K79" s="313"/>
+      <c r="I79" s="289"/>
+      <c r="J79" s="289"/>
+      <c r="K79" s="290"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="63"/>
@@ -8263,16 +8269,16 @@
       <c r="D81" s="64"/>
       <c r="E81" s="64"/>
       <c r="F81" s="64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G81" s="64"/>
       <c r="H81" s="65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I81" s="64"/>
       <c r="J81" s="64"/>
       <c r="K81" s="64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8290,11 +8296,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
     <mergeCell ref="F73:H73"/>
     <mergeCell ref="I73:K73"/>
     <mergeCell ref="I74:K74"/>
@@ -8303,17 +8315,11 @@
     <mergeCell ref="I75:K75"/>
     <mergeCell ref="I76:K76"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="2200" windowWidth="27320" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="202">
   <si>
     <t>学期</t>
   </si>
@@ -962,10 +962,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>数据库系统应用开发实践</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>Windows程序设计环境</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1094,19 +1090,35 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>网络概论</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
-    <t>网络概论实验</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>java基础编程</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>网络概论</t>
+    <t>学科基础,不计基点</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>数据库系统应用开发</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>计算机网络实验</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>大学物理1</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>网络安全</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>网络安全实验</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
@@ -2042,7 +2054,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2610,8 +2622,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2984,9 +3008,6 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3461,104 +3482,104 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="193">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -3655,6 +3676,8 @@
     <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -3748,6 +3771,8 @@
     <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3767,7 +3792,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3775,7 +3800,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3783,7 +3808,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3791,7 +3816,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4049,7 +4074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4059,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4079,41 +4104,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="282" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="309" t="s">
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="311"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="290"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="305"/>
+      <c r="A3" s="284"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4146,13 +4171,13 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="291" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
         <v>309001</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5">
@@ -4165,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="96"/>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="134" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="97">
@@ -4179,11 +4204,11 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="313"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="141" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7">
@@ -4197,7 +4222,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="85"/>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="135" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="12">
@@ -4211,11 +4236,11 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="313"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="101">
         <v>330001</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="135" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12">
@@ -4230,7 +4255,7 @@
       <c r="G6" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="135" t="s">
         <v>132</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -4244,11 +4269,11 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="313"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="101">
         <v>199023</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="135" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12">
@@ -4267,11 +4292,11 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="313"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="101">
         <v>310017</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="135" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12">
@@ -4291,7 +4316,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="313"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -4304,7 +4329,7 @@
       <c r="E9" s="76">
         <v>2</v>
       </c>
-      <c r="F9" s="196" t="s">
+      <c r="F9" s="195" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="102"/>
@@ -4314,15 +4339,15 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="313"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="87"/>
       <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="196" t="s">
-        <v>19</v>
+      <c r="F10" s="195" t="s">
+        <v>195</v>
       </c>
       <c r="G10" s="102"/>
       <c r="H10" s="14"/>
@@ -4331,14 +4356,14 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="313"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="196" t="s">
+      <c r="F11" s="195" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="103"/>
@@ -4348,7 +4373,7 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="313"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -4361,7 +4386,7 @@
       <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="196" t="s">
+      <c r="F12" s="195" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="103"/>
@@ -4371,13 +4396,13 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="300" t="s">
+      <c r="A13" s="293" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
         <v>309002</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5">
@@ -4389,26 +4414,26 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="244">
+      <c r="G13" s="243">
         <v>198328</v>
       </c>
-      <c r="H13" s="137" t="s">
+      <c r="H13" s="136" t="s">
         <v>103</v>
       </c>
       <c r="I13" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="134">
+      <c r="J13" s="133">
         <v>2</v>
       </c>
       <c r="K13" s="106"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="301"/>
+      <c r="A14" s="294"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7">
@@ -4421,8 +4446,8 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="245"/>
-      <c r="H14" s="138" t="s">
+      <c r="G14" s="244"/>
+      <c r="H14" s="137" t="s">
         <v>69</v>
       </c>
       <c r="I14" s="107">
@@ -4436,11 +4461,11 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="301"/>
+      <c r="A15" s="294"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="141" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -4454,7 +4479,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="81"/>
-      <c r="H15" s="128" t="s">
+      <c r="H15" s="127" t="s">
         <v>70</v>
       </c>
       <c r="I15" s="110">
@@ -4468,23 +4493,23 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="301"/>
-      <c r="B16" s="240">
+      <c r="A16" s="294"/>
+      <c r="B16" s="239">
         <v>1900102</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="243">
+      <c r="E16" s="242">
         <v>1</v>
       </c>
-      <c r="F16" s="242" t="s">
+      <c r="F16" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="246"/>
+      <c r="G16" s="245"/>
       <c r="H16" s="72" t="s">
         <v>58</v>
       </c>
@@ -4499,8 +4524,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17" s="301"/>
-      <c r="B17" s="203">
+      <c r="A17" s="294"/>
+      <c r="B17" s="202">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -4512,10 +4537,10 @@
       <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="F17" s="204" t="s">
+      <c r="F17" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="246"/>
+      <c r="G17" s="245"/>
       <c r="H17" s="72" t="s">
         <v>72</v>
       </c>
@@ -4530,12 +4555,12 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="301"/>
+      <c r="A18" s="294"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D18" s="9">
         <v>32</v>
@@ -4543,13 +4568,13 @@
       <c r="E18" s="10">
         <v>2</v>
       </c>
-      <c r="F18" s="202" t="s">
+      <c r="F18" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="244">
+      <c r="G18" s="243">
         <v>1901002</v>
       </c>
-      <c r="H18" s="138" t="s">
+      <c r="H18" s="137" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="107">
@@ -4563,24 +4588,24 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="301"/>
-      <c r="B19" s="248" t="s">
+      <c r="A19" s="294"/>
+      <c r="B19" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="224" t="s">
+      <c r="C19" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="225" t="s">
+      <c r="D19" s="224" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="224" t="s">
+      <c r="E19" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="249" t="s">
+      <c r="F19" s="248" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="245"/>
-      <c r="H19" s="138" t="s">
+      <c r="G19" s="244"/>
+      <c r="H19" s="137" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="107">
@@ -4594,28 +4619,28 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="301"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="249"/>
+      <c r="A20" s="294"/>
+      <c r="B20" s="247"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="248"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="302"/>
+      <c r="A21" s="295"/>
       <c r="B21" s="94"/>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="173" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="205" t="s">
+      <c r="E21" s="174"/>
+      <c r="F21" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="247">
+      <c r="G21" s="246">
         <v>1905039</v>
       </c>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="127" t="s">
         <v>163</v>
       </c>
       <c r="I21" s="111" t="s">
@@ -4624,18 +4649,18 @@
       <c r="J21" s="82">
         <v>3</v>
       </c>
-      <c r="K21" s="201" t="s">
+      <c r="K21" s="200" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="300" t="s">
+      <c r="A22" s="293" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
         <v>309003</v>
       </c>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="143" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="5">
@@ -4650,7 +4675,7 @@
       <c r="G22" s="84">
         <v>1901027</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="138" t="s">
         <v>76</v>
       </c>
       <c r="I22" s="104">
@@ -4664,11 +4689,11 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="301"/>
+      <c r="A23" s="294"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="141" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="7">
@@ -4682,7 +4707,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="85"/>
-      <c r="H23" s="138" t="s">
+      <c r="H23" s="137" t="s">
         <v>78</v>
       </c>
       <c r="I23" s="107">
@@ -4696,7 +4721,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="301"/>
+      <c r="A24" s="294"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
@@ -4709,13 +4734,13 @@
       <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="196" t="s">
+      <c r="F24" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="200">
+      <c r="G24" s="199">
         <v>1905029</v>
       </c>
-      <c r="H24" s="128" t="s">
+      <c r="H24" s="127" t="s">
         <v>164</v>
       </c>
       <c r="I24" s="111">
@@ -4724,27 +4749,27 @@
       <c r="J24" s="82">
         <v>3</v>
       </c>
-      <c r="K24" s="201"/>
+      <c r="K24" s="200"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="301"/>
-      <c r="B25" s="206">
+      <c r="A25" s="294"/>
+      <c r="B25" s="205">
         <v>1905008</v>
       </c>
-      <c r="C25" s="224" t="s">
+      <c r="C25" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="207">
+      <c r="D25" s="206">
         <v>32</v>
       </c>
-      <c r="E25" s="225">
+      <c r="E25" s="224">
         <v>1</v>
       </c>
-      <c r="F25" s="224" t="s">
+      <c r="F25" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="200"/>
-      <c r="H25" s="128" t="s">
+      <c r="G25" s="199"/>
+      <c r="H25" s="127" t="s">
         <v>156</v>
       </c>
       <c r="I25" s="111">
@@ -4753,12 +4778,12 @@
       <c r="J25" s="82">
         <v>1</v>
       </c>
-      <c r="K25" s="201" t="s">
+      <c r="K25" s="200" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="301"/>
+      <c r="A26" s="294"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
@@ -4771,10 +4796,10 @@
       <c r="E26" s="10">
         <v>4</v>
       </c>
-      <c r="F26" s="196" t="s">
+      <c r="F26" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="197"/>
+      <c r="G26" s="196"/>
       <c r="H26" s="72" t="s">
         <v>79</v>
       </c>
@@ -4789,32 +4814,32 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="301"/>
+      <c r="A27" s="294"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
-      <c r="C27" s="224" t="s">
+      <c r="C27" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="207">
+      <c r="D27" s="206">
         <v>32</v>
       </c>
-      <c r="E27" s="225">
+      <c r="E27" s="224">
         <v>1</v>
       </c>
-      <c r="F27" s="224" t="s">
+      <c r="F27" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="130">
+      <c r="G27" s="129">
         <v>1905028</v>
       </c>
-      <c r="H27" s="255" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="126">
+      <c r="H27" s="254" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="125">
         <v>32</v>
       </c>
-      <c r="J27" s="127">
+      <c r="J27" s="126">
         <v>2</v>
       </c>
       <c r="K27" s="108" t="s">
@@ -4822,12 +4847,12 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="301"/>
+      <c r="A28" s="294"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D28" s="9">
         <v>32</v>
@@ -4835,19 +4860,19 @@
       <c r="E28" s="10">
         <v>1</v>
       </c>
-      <c r="F28" s="202" t="s">
+      <c r="F28" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="130">
+      <c r="G28" s="129">
         <v>1905048</v>
       </c>
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="126">
+      <c r="I28" s="125">
         <v>48</v>
       </c>
-      <c r="J28" s="127">
+      <c r="J28" s="126">
         <v>3</v>
       </c>
       <c r="K28" s="108" t="s">
@@ -4855,9 +4880,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
-      <c r="A29" s="302"/>
+      <c r="A29" s="295"/>
       <c r="B29" s="94"/>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="142" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="26"/>
@@ -4872,19 +4897,19 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="300" t="s">
+      <c r="A30" s="293" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
         <v>3009004</v>
       </c>
-      <c r="C30" s="208" t="s">
+      <c r="C30" s="207" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="5">
         <v>36</v>
       </c>
-      <c r="E30" s="209">
+      <c r="E30" s="208">
         <v>2</v>
       </c>
       <c r="F30" s="90" t="s">
@@ -4907,33 +4932,33 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="301"/>
+      <c r="A31" s="294"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
-      <c r="C31" s="192" t="s">
+      <c r="C31" s="191" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="7">
         <f>18*E31</f>
         <v>108</v>
       </c>
-      <c r="E31" s="193">
+      <c r="E31" s="192">
         <v>6</v>
       </c>
       <c r="F31" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="130">
+      <c r="G31" s="129">
         <v>1905053</v>
       </c>
-      <c r="H31" s="195" t="s">
+      <c r="H31" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="256">
+      <c r="I31" s="255">
         <v>48</v>
       </c>
-      <c r="J31" s="257">
+      <c r="J31" s="256">
         <v>3</v>
       </c>
       <c r="K31" s="108" t="s">
@@ -4941,7 +4966,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="301"/>
+      <c r="A32" s="294"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
@@ -4954,13 +4979,13 @@
       <c r="E32" s="10">
         <v>2.5</v>
       </c>
-      <c r="F32" s="202" t="s">
+      <c r="F32" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="130">
+      <c r="G32" s="129">
         <v>1905026</v>
       </c>
-      <c r="H32" s="194" t="s">
+      <c r="H32" s="193" t="s">
         <v>148</v>
       </c>
       <c r="I32" s="117">
@@ -4974,7 +4999,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="301"/>
+      <c r="A33" s="294"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
@@ -4987,36 +5012,36 @@
       <c r="E33" s="10">
         <v>1</v>
       </c>
-      <c r="F33" s="202" t="s">
+      <c r="F33" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" s="194" t="s">
+      <c r="G33" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="193" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="117" t="s">
+      <c r="J33" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="J33" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="K33" s="108" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="301"/>
-      <c r="B34" s="210"/>
-      <c r="C34" s="211"/>
-      <c r="D34" s="212"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="130">
+      <c r="A34" s="294"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="129">
         <v>1905030</v>
       </c>
-      <c r="H34" s="194" t="s">
+      <c r="H34" s="193" t="s">
         <v>104</v>
       </c>
       <c r="I34" s="117">
@@ -5030,32 +5055,32 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="301"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="211"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="130" t="s">
+      <c r="A35" s="294"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="116" t="s">
+      <c r="I35" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="I35" s="117" t="s">
+      <c r="J35" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="J35" s="118" t="s">
+      <c r="K35" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="108" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="302"/>
+      <c r="A36" s="295"/>
       <c r="B36" s="94"/>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="142" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="26"/>
@@ -5063,43 +5088,43 @@
       <c r="F36" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="227">
+      <c r="G36" s="226">
         <v>1905041</v>
       </c>
-      <c r="H36" s="228" t="s">
+      <c r="H36" s="227" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="229">
+      <c r="I36" s="228">
         <v>32</v>
       </c>
-      <c r="J36" s="133">
+      <c r="J36" s="132">
         <v>2</v>
       </c>
-      <c r="K36" s="230" t="s">
+      <c r="K36" s="229" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="300" t="s">
+      <c r="A37" s="293" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="214">
+      <c r="B37" s="213">
         <v>3300003</v>
       </c>
-      <c r="C37" s="215" t="s">
+      <c r="C37" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="216">
+      <c r="D37" s="215">
         <v>18</v>
       </c>
-      <c r="E37" s="217">
+      <c r="E37" s="216">
         <v>1</v>
       </c>
-      <c r="F37" s="218" t="s">
+      <c r="F37" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="231"/>
-      <c r="H37" s="139" t="s">
+      <c r="G37" s="230"/>
+      <c r="H37" s="138" t="s">
         <v>81</v>
       </c>
       <c r="I37" s="104">
@@ -5113,70 +5138,70 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="301"/>
-      <c r="B38" s="219">
+      <c r="A38" s="294"/>
+      <c r="B38" s="218">
         <v>1905046</v>
       </c>
-      <c r="C38" s="220" t="s">
+      <c r="C38" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="221">
+      <c r="D38" s="220">
         <v>48</v>
       </c>
-      <c r="E38" s="222">
+      <c r="E38" s="221">
         <v>3</v>
       </c>
-      <c r="F38" s="196" t="s">
+      <c r="F38" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="131">
+      <c r="G38" s="130">
         <v>1905025</v>
       </c>
-      <c r="H38" s="140" t="s">
+      <c r="H38" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="129">
+      <c r="I38" s="128">
         <v>32</v>
       </c>
       <c r="J38" s="82">
         <v>2</v>
       </c>
-      <c r="K38" s="132"/>
+      <c r="K38" s="131"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="301"/>
-      <c r="B39" s="219">
+      <c r="A39" s="294"/>
+      <c r="B39" s="218">
         <v>1905047</v>
       </c>
-      <c r="C39" s="224" t="s">
+      <c r="C39" s="223" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="207">
+      <c r="D39" s="206">
         <v>32</v>
       </c>
-      <c r="E39" s="225">
+      <c r="E39" s="224">
         <v>1</v>
       </c>
-      <c r="F39" s="224" t="s">
+      <c r="F39" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="130">
+      <c r="G39" s="129">
         <v>1905024</v>
       </c>
       <c r="H39" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="168">
+      <c r="I39" s="167">
         <v>48</v>
       </c>
-      <c r="J39" s="168">
+      <c r="J39" s="167">
         <v>3</v>
       </c>
-      <c r="K39" s="169"/>
+      <c r="K39" s="168"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="301"/>
-      <c r="B40" s="219">
+      <c r="A40" s="294"/>
+      <c r="B40" s="218">
         <v>1901015</v>
       </c>
       <c r="C40" s="30" t="s">
@@ -5185,20 +5210,20 @@
       <c r="D40" s="9">
         <v>64</v>
       </c>
-      <c r="E40" s="223">
+      <c r="E40" s="222">
         <v>4</v>
       </c>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="130"/>
-      <c r="H40" s="125" t="s">
+      <c r="G40" s="129"/>
+      <c r="H40" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="126" t="s">
+      <c r="I40" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="127" t="s">
+      <c r="J40" s="126" t="s">
         <v>86</v>
       </c>
       <c r="K40" s="108" t="s">
@@ -5206,30 +5231,30 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="301"/>
-      <c r="B41" s="219">
+      <c r="A41" s="294"/>
+      <c r="B41" s="218">
         <v>1901016</v>
       </c>
-      <c r="C41" s="224" t="s">
+      <c r="C41" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="207">
+      <c r="D41" s="206">
         <v>40</v>
       </c>
-      <c r="E41" s="225">
+      <c r="E41" s="224">
         <v>1</v>
       </c>
-      <c r="F41" s="224" t="s">
+      <c r="F41" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="130"/>
-      <c r="H41" s="125" t="s">
+      <c r="G41" s="129"/>
+      <c r="H41" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="126" t="s">
+      <c r="I41" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="127" t="s">
+      <c r="J41" s="126" t="s">
         <v>86</v>
       </c>
       <c r="K41" s="108" t="s">
@@ -5237,30 +5262,30 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="301"/>
-      <c r="B42" s="219">
-        <v>1904020</v>
+      <c r="A42" s="294"/>
+      <c r="B42" s="218">
+        <v>1901013</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D42" s="9">
         <v>48</v>
       </c>
-      <c r="E42" s="223">
+      <c r="E42" s="222">
         <v>3</v>
       </c>
-      <c r="F42" s="196" t="s">
+      <c r="F42" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="130"/>
-      <c r="H42" s="125" t="s">
+      <c r="G42" s="129"/>
+      <c r="H42" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="126" t="s">
+      <c r="I42" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="127" t="s">
+      <c r="J42" s="126" t="s">
         <v>86</v>
       </c>
       <c r="K42" s="108" t="s">
@@ -5268,95 +5293,95 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="301"/>
-      <c r="B43" s="219">
-        <v>1904021</v>
-      </c>
-      <c r="C43" s="224" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="207">
+      <c r="A43" s="294"/>
+      <c r="B43" s="218">
+        <v>1901014</v>
+      </c>
+      <c r="C43" s="223" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="206">
         <v>16</v>
       </c>
-      <c r="E43" s="225">
+      <c r="E43" s="224">
         <v>0.5</v>
       </c>
-      <c r="F43" s="224" t="s">
+      <c r="F43" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="G43" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="125" t="s">
+      <c r="H43" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="126" t="s">
+      <c r="I43" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="J43" s="127" t="s">
+      <c r="J43" s="126" t="s">
         <v>86</v>
       </c>
       <c r="K43" s="108"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="301"/>
-      <c r="B44" s="219"/>
+      <c r="A44" s="294"/>
+      <c r="B44" s="218"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="204"/>
-      <c r="G44" s="130" t="s">
+      <c r="F44" s="203"/>
+      <c r="G44" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="125" t="s">
+      <c r="H44" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="126" t="s">
+      <c r="I44" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="127" t="s">
+      <c r="J44" s="126" t="s">
         <v>86</v>
       </c>
       <c r="K44" s="108"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="302"/>
+      <c r="A45" s="295"/>
       <c r="B45" s="94"/>
-      <c r="C45" s="143" t="s">
+      <c r="C45" s="142" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="226" t="s">
+      <c r="F45" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="198"/>
-      <c r="H45" s="232"/>
-      <c r="I45" s="233"/>
-      <c r="J45" s="234"/>
-      <c r="K45" s="199"/>
+      <c r="G45" s="197"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="232"/>
+      <c r="J45" s="233"/>
+      <c r="K45" s="198"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="301" t="s">
+      <c r="A46" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="214">
+      <c r="B46" s="213">
         <v>3300005</v>
       </c>
-      <c r="C46" s="239" t="s">
+      <c r="C46" s="238" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="216">
+      <c r="D46" s="215">
         <v>18</v>
       </c>
-      <c r="E46" s="217">
+      <c r="E46" s="216">
         <v>1</v>
       </c>
-      <c r="F46" s="218" t="s">
+      <c r="F46" s="217" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="84"/>
-      <c r="H46" s="139" t="s">
+      <c r="H46" s="138" t="s">
         <v>71</v>
       </c>
       <c r="I46" s="104">
@@ -5370,32 +5395,32 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="301"/>
-      <c r="B47" s="240">
+      <c r="A47" s="294"/>
+      <c r="B47" s="239">
         <v>1900103</v>
       </c>
-      <c r="C47" s="153" t="s">
+      <c r="C47" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="152" t="s">
+      <c r="D47" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="241">
+      <c r="E47" s="240">
         <v>1</v>
       </c>
-      <c r="F47" s="242" t="s">
+      <c r="F47" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="130">
+      <c r="G47" s="129">
         <v>1905037</v>
       </c>
-      <c r="H47" s="125" t="s">
+      <c r="H47" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="126">
+      <c r="I47" s="125">
         <v>48</v>
       </c>
-      <c r="J47" s="127">
+      <c r="J47" s="126">
         <v>3</v>
       </c>
       <c r="K47" s="108" t="s">
@@ -5403,7 +5428,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="301"/>
+      <c r="A48" s="294"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
@@ -5416,13 +5441,13 @@
       <c r="E48" s="10">
         <v>3</v>
       </c>
-      <c r="F48" s="202" t="s">
+      <c r="F48" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="200">
+      <c r="G48" s="199">
         <v>1905038</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="127" t="s">
         <v>154</v>
       </c>
       <c r="I48" s="111">
@@ -5431,7 +5456,7 @@
       <c r="J48" s="82">
         <v>1</v>
       </c>
-      <c r="K48" s="201" t="s">
+      <c r="K48" s="200" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5449,61 +5474,61 @@
       <c r="E49" s="10">
         <v>1</v>
       </c>
-      <c r="F49" s="202" t="s">
+      <c r="F49" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="130">
+      <c r="G49" s="129">
         <v>199173</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="126">
+      <c r="I49" s="125">
         <v>32</v>
       </c>
-      <c r="J49" s="127">
+      <c r="J49" s="126">
         <v>2</v>
       </c>
       <c r="K49" s="108"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="39"/>
-      <c r="B50" s="210"/>
-      <c r="C50" s="211"/>
-      <c r="D50" s="212"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="213"/>
-      <c r="G50" s="130">
+      <c r="B50" s="209"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="129">
         <v>199621</v>
       </c>
-      <c r="H50" s="125" t="s">
+      <c r="H50" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="125">
         <v>32</v>
       </c>
-      <c r="J50" s="127">
+      <c r="J50" s="126">
         <v>2</v>
       </c>
       <c r="K50" s="108"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="39"/>
-      <c r="B51" s="210"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="212"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="130">
+      <c r="B51" s="209"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="211"/>
+      <c r="E51" s="211"/>
+      <c r="F51" s="212"/>
+      <c r="G51" s="129">
         <v>199622</v>
       </c>
-      <c r="H51" s="125" t="s">
+      <c r="H51" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="125">
         <v>32</v>
       </c>
-      <c r="J51" s="127">
+      <c r="J51" s="126">
         <v>1</v>
       </c>
       <c r="K51" s="108"/>
@@ -5514,11 +5539,11 @@
       <c r="C52" s="21"/>
       <c r="D52" s="25"/>
       <c r="E52" s="38"/>
-      <c r="F52" s="204"/>
-      <c r="G52" s="200">
+      <c r="F52" s="203"/>
+      <c r="G52" s="199">
         <v>1905041</v>
       </c>
-      <c r="H52" s="128" t="s">
+      <c r="H52" s="127" t="s">
         <v>153</v>
       </c>
       <c r="I52" s="111">
@@ -5527,30 +5552,30 @@
       <c r="J52" s="82">
         <v>2</v>
       </c>
-      <c r="K52" s="201" t="s">
+      <c r="K52" s="200" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="172"/>
-      <c r="B53" s="250"/>
-      <c r="C53" s="251"/>
-      <c r="D53" s="252"/>
-      <c r="E53" s="253"/>
-      <c r="F53" s="254"/>
+      <c r="A53" s="171"/>
+      <c r="B53" s="249"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="251"/>
+      <c r="E53" s="252"/>
+      <c r="F53" s="253"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="172"/>
-      <c r="B54" s="250"/>
-      <c r="C54" s="251"/>
-      <c r="D54" s="252"/>
-      <c r="E54" s="253"/>
-      <c r="F54" s="254"/>
+      <c r="A54" s="171"/>
+      <c r="B54" s="249"/>
+      <c r="C54" s="250"/>
+      <c r="D54" s="251"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="253"/>
     </row>
     <row r="55" spans="1:11" ht="15" thickBot="1">
       <c r="A55" s="40"/>
       <c r="B55" s="94"/>
-      <c r="C55" s="143" t="s">
+      <c r="C55" s="142" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="32"/>
@@ -5558,7 +5583,7 @@
       <c r="F55" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="198" t="s">
+      <c r="G55" s="197" t="s">
         <v>89</v>
       </c>
       <c r="H55" s="42" t="s">
@@ -5573,26 +5598,26 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="300" t="s">
+      <c r="A56" s="293" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="176">
+      <c r="B56" s="175">
         <v>1900104</v>
       </c>
-      <c r="C56" s="177" t="s">
+      <c r="C56" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="176" t="s">
+      <c r="D56" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="178">
+      <c r="E56" s="177">
         <v>3</v>
       </c>
-      <c r="F56" s="236" t="s">
+      <c r="F56" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="238"/>
-      <c r="H56" s="139" t="s">
+      <c r="G56" s="237"/>
+      <c r="H56" s="138" t="s">
         <v>82</v>
       </c>
       <c r="I56" s="104">
@@ -5606,102 +5631,102 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="301"/>
-      <c r="B57" s="176">
+      <c r="A57" s="294"/>
+      <c r="B57" s="175">
         <v>1900105</v>
       </c>
-      <c r="C57" s="177" t="s">
+      <c r="C57" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="176" t="s">
+      <c r="D57" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="178">
+      <c r="E57" s="177">
         <v>1</v>
       </c>
-      <c r="F57" s="235" t="s">
+      <c r="F57" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="130"/>
+      <c r="G57" s="129"/>
       <c r="H57" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I57" s="168" t="s">
+      <c r="I57" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="J57" s="168" t="s">
+      <c r="J57" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="K57" s="169" t="s">
+      <c r="K57" s="168" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="301"/>
-      <c r="B58" s="176">
+      <c r="A58" s="294"/>
+      <c r="B58" s="175">
         <v>1900107</v>
       </c>
-      <c r="C58" s="177" t="s">
+      <c r="C58" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="176" t="s">
+      <c r="D58" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="178">
+      <c r="E58" s="177">
         <v>1</v>
       </c>
-      <c r="F58" s="235" t="s">
+      <c r="F58" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="130" t="s">
+      <c r="G58" s="129" t="s">
         <v>157</v>
       </c>
       <c r="H58" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I58" s="168" t="s">
+      <c r="I58" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="168" t="s">
+      <c r="J58" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="K58" s="169" t="s">
+      <c r="K58" s="168" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="301"/>
-      <c r="B59" s="180"/>
-      <c r="C59" s="181" t="s">
+      <c r="A59" s="294"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="180" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="182" t="s">
+      <c r="D59" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="183">
+      <c r="E59" s="182">
         <v>2</v>
       </c>
-      <c r="F59" s="237" t="s">
+      <c r="F59" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="130" t="s">
+      <c r="G59" s="129" t="s">
         <v>157</v>
       </c>
       <c r="H59" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I59" s="168" t="s">
+      <c r="I59" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="J59" s="168" t="s">
+      <c r="J59" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="K59" s="169" t="s">
+      <c r="K59" s="168" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="301"/>
+      <c r="A60" s="294"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
         <v>101</v>
@@ -5715,22 +5740,22 @@
       <c r="F60" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="130" t="s">
+      <c r="G60" s="129" t="s">
         <v>157</v>
       </c>
       <c r="H60" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I60" s="168" t="s">
+      <c r="I60" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="J60" s="168" t="s">
+      <c r="J60" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="K60" s="169"/>
+      <c r="K60" s="168"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="301"/>
+      <c r="A61" s="294"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
         <v>87</v>
@@ -5744,22 +5769,22 @@
       <c r="F61" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="130" t="s">
+      <c r="G61" s="129" t="s">
         <v>157</v>
       </c>
       <c r="H61" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I61" s="168" t="s">
+      <c r="I61" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="J61" s="168" t="s">
+      <c r="J61" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="K61" s="169"/>
+      <c r="K61" s="168"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="301"/>
+      <c r="A62" s="294"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
         <v>95</v>
@@ -5773,28 +5798,28 @@
       <c r="F62" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="G62" s="130" t="s">
+      <c r="G62" s="129" t="s">
         <v>112</v>
       </c>
       <c r="H62" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I62" s="168" t="s">
+      <c r="I62" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="J62" s="168" t="s">
+      <c r="J62" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="K62" s="169"/>
+      <c r="K62" s="168"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1">
-      <c r="A63" s="302"/>
+      <c r="A63" s="295"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
       <c r="E63" s="38"/>
       <c r="F63" s="119"/>
-      <c r="G63" s="198">
+      <c r="G63" s="197">
         <v>199650</v>
       </c>
       <c r="H63" s="42" t="s">
@@ -5812,24 +5837,24 @@
       <c r="A64" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="184">
+      <c r="B64" s="183">
         <v>1900106</v>
       </c>
-      <c r="C64" s="185" t="s">
+      <c r="C64" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="184" t="s">
+      <c r="D64" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="186">
+      <c r="E64" s="185">
         <v>3</v>
       </c>
-      <c r="F64" s="179" t="s">
+      <c r="F64" s="178" t="s">
         <v>41</v>
       </c>
       <c r="G64" s="121"/>
       <c r="H64" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I64" s="45"/>
       <c r="J64" s="46">
@@ -5839,17 +5864,17 @@
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1">
       <c r="A65" s="47"/>
-      <c r="B65" s="187"/>
-      <c r="C65" s="188" t="s">
+      <c r="B65" s="186"/>
+      <c r="C65" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="189" t="s">
+      <c r="D65" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="190">
+      <c r="E65" s="189">
         <v>1</v>
       </c>
-      <c r="F65" s="191" t="s">
+      <c r="F65" s="190" t="s">
         <v>143</v>
       </c>
       <c r="G65" s="120"/>
@@ -5946,34 +5971,34 @@
       <c r="J71" s="64"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="145" t="s">
+      <c r="A72" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="146"/>
-      <c r="C72" s="291" t="s">
+      <c r="B72" s="145"/>
+      <c r="C72" s="296" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="292"/>
-      <c r="E72" s="293"/>
-      <c r="F72" s="291" t="s">
+      <c r="D72" s="297"/>
+      <c r="E72" s="298"/>
+      <c r="F72" s="296" t="s">
         <v>118</v>
       </c>
-      <c r="G72" s="292"/>
-      <c r="H72" s="293"/>
-      <c r="I72" s="294" t="s">
+      <c r="G72" s="297"/>
+      <c r="H72" s="298"/>
+      <c r="I72" s="299" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="294"/>
-      <c r="K72" s="295"/>
+      <c r="J72" s="299"/>
+      <c r="K72" s="300"/>
     </row>
     <row r="73" spans="1:11" ht="26">
-      <c r="A73" s="147">
+      <c r="A73" s="146">
         <v>1</v>
       </c>
       <c r="B73" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="148" t="s">
+      <c r="C73" s="147" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="68">
@@ -5984,130 +6009,130 @@
         <f>SUM(E4,E5,E13,E14,E15,E22,E23,E30,E31)</f>
         <v>24</v>
       </c>
-      <c r="F73" s="149" t="s">
+      <c r="F73" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="150">
+      <c r="G73" s="149">
         <f>SUM(D32:D33,D60,D68)</f>
         <v>72</v>
       </c>
-      <c r="H73" s="151">
+      <c r="H73" s="150">
         <v>18</v>
       </c>
-      <c r="I73" s="296" t="s">
+      <c r="I73" s="301" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="297"/>
-      <c r="K73" s="298"/>
+      <c r="J73" s="302"/>
+      <c r="K73" s="303"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="283">
+      <c r="A74" s="304">
         <v>2</v>
       </c>
-      <c r="B74" s="299" t="s">
+      <c r="B74" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="152"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="152"/>
-      <c r="F74" s="153" t="s">
+      <c r="C74" s="151"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="152"/>
-      <c r="H74" s="154">
+      <c r="G74" s="151"/>
+      <c r="H74" s="153">
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="I74" s="287"/>
-      <c r="J74" s="287"/>
-      <c r="K74" s="288"/>
+      <c r="I74" s="307"/>
+      <c r="J74" s="307"/>
+      <c r="K74" s="308"/>
     </row>
     <row r="75" spans="1:11" ht="26">
-      <c r="A75" s="283"/>
-      <c r="B75" s="284"/>
-      <c r="C75" s="155"/>
-      <c r="D75" s="156"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="157" t="s">
+      <c r="A75" s="304"/>
+      <c r="B75" s="306"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="G75" s="156"/>
-      <c r="H75" s="156">
+      <c r="G75" s="155"/>
+      <c r="H75" s="155">
         <v>5</v>
       </c>
-      <c r="I75" s="287"/>
-      <c r="J75" s="287"/>
-      <c r="K75" s="288"/>
+      <c r="I75" s="307"/>
+      <c r="J75" s="307"/>
+      <c r="K75" s="308"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="283">
+      <c r="A76" s="304">
         <v>3</v>
       </c>
-      <c r="B76" s="284" t="s">
+      <c r="B76" s="306" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="158" t="s">
+      <c r="C76" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="D76" s="159"/>
-      <c r="E76" s="160">
+      <c r="D76" s="158"/>
+      <c r="E76" s="159">
         <f>SUM(E9+E12+E17+E24+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+E48+E49)</f>
         <v>40</v>
       </c>
-      <c r="F76" s="161" t="s">
+      <c r="F76" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="G76" s="162"/>
-      <c r="H76" s="162">
+      <c r="G76" s="161"/>
+      <c r="H76" s="161">
         <v>26</v>
       </c>
-      <c r="I76" s="285"/>
-      <c r="J76" s="285"/>
-      <c r="K76" s="286"/>
+      <c r="I76" s="309"/>
+      <c r="J76" s="309"/>
+      <c r="K76" s="310"/>
     </row>
     <row r="77" spans="1:11" ht="26">
-      <c r="A77" s="283"/>
-      <c r="B77" s="284"/>
-      <c r="C77" s="158" t="s">
+      <c r="A77" s="304"/>
+      <c r="B77" s="306"/>
+      <c r="C77" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="159"/>
-      <c r="E77" s="160"/>
-      <c r="F77" s="163" t="s">
+      <c r="D77" s="158"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="162" t="s">
         <v>130</v>
       </c>
       <c r="G77" s="31"/>
       <c r="H77" s="69"/>
-      <c r="I77" s="287"/>
-      <c r="J77" s="287"/>
-      <c r="K77" s="288"/>
+      <c r="I77" s="307"/>
+      <c r="J77" s="307"/>
+      <c r="K77" s="308"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1">
-      <c r="A78" s="164" t="s">
+      <c r="A78" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="165">
+      <c r="B78" s="164">
         <f>E78+H74+H73+H75+H76</f>
         <v>123</v>
       </c>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
-      <c r="E78" s="165">
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="164">
         <f>SUM(E73:E76)</f>
         <v>64</v>
       </c>
-      <c r="F78" s="166">
+      <c r="F78" s="165">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G78" s="166"/>
-      <c r="H78" s="165">
+      <c r="G78" s="165"/>
+      <c r="H78" s="164">
         <f>SUM(H73:H77)</f>
         <v>59</v>
       </c>
-      <c r="I78" s="289"/>
-      <c r="J78" s="289"/>
-      <c r="K78" s="290"/>
+      <c r="I78" s="311"/>
+      <c r="J78" s="311"/>
+      <c r="K78" s="312"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="63"/>
@@ -6155,17 +6180,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="F72:H72"/>
     <mergeCell ref="I72:K72"/>
@@ -6174,11 +6193,17 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="I74:K74"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,8 +6221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6216,41 +6241,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="282" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="309" t="s">
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="314"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="313"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="305"/>
+      <c r="A3" s="284"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6270,26 +6295,26 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="291" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
         <v>309001</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5">
@@ -6301,26 +6326,28 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="278"/>
-      <c r="H4" s="279" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="280">
+      <c r="G4" s="277">
+        <v>1901023</v>
+      </c>
+      <c r="H4" s="278" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="279">
         <v>32</v>
       </c>
-      <c r="J4" s="281">
-        <v>2</v>
-      </c>
-      <c r="K4" s="282" t="s">
-        <v>179</v>
+      <c r="J4" s="280">
+        <v>1</v>
+      </c>
+      <c r="K4" s="281" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="313"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="141" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7">
@@ -6334,7 +6361,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="85"/>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="135" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="12">
@@ -6348,11 +6375,11 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="313"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="101">
         <v>330001</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="135" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12">
@@ -6367,7 +6394,7 @@
       <c r="G6" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="135" t="s">
         <v>132</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -6381,15 +6408,15 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="313"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="101">
-        <v>199023</v>
-      </c>
-      <c r="C7" s="136" t="s">
+        <v>1900110</v>
+      </c>
+      <c r="C7" s="135" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E7" s="13">
         <v>4</v>
@@ -6401,14 +6428,14 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="259"/>
+      <c r="K7" s="258"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="313"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="101">
         <v>310017</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="135" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12">
@@ -6425,10 +6452,10 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="259"/>
+      <c r="K8" s="258"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="313"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -6441,41 +6468,43 @@
       <c r="E9" s="76">
         <v>2</v>
       </c>
-      <c r="F9" s="196" t="s">
+      <c r="F9" s="195" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="102"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="259"/>
+      <c r="K9" s="258"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="313"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="292"/>
+      <c r="B10" s="87">
+        <v>1900101</v>
+      </c>
       <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="196" t="s">
+      <c r="F10" s="195" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="102"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="259"/>
+      <c r="K10" s="258"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="313"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="196" t="s">
+      <c r="F11" s="195" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="103"/>
@@ -6485,7 +6514,7 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="313"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -6498,7 +6527,7 @@
       <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="196" t="s">
+      <c r="F12" s="195" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="103"/>
@@ -6507,14 +6536,14 @@
       <c r="J12" s="79"/>
       <c r="K12" s="80"/>
     </row>
-    <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="300" t="s">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
+      <c r="A13" s="293" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
         <v>309002</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5">
@@ -6526,26 +6555,26 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="244">
-        <v>198328</v>
-      </c>
-      <c r="H13" s="137" t="s">
+      <c r="G13" s="243">
+        <v>1902060</v>
+      </c>
+      <c r="H13" s="136" t="s">
         <v>103</v>
       </c>
       <c r="I13" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="134">
+      <c r="J13" s="133">
         <v>2</v>
       </c>
       <c r="K13" s="106"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="301"/>
+      <c r="A14" s="294"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7">
@@ -6558,9 +6587,11 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="245"/>
-      <c r="H14" s="138" t="s">
-        <v>69</v>
+      <c r="G14" s="243">
+        <v>1300004</v>
+      </c>
+      <c r="H14" s="137" t="s">
+        <v>199</v>
       </c>
       <c r="I14" s="107">
         <v>54</v>
@@ -6573,11 +6604,11 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="301"/>
+      <c r="A15" s="294"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="141" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -6590,46 +6621,48 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="280">
-        <v>48</v>
-      </c>
-      <c r="J15" s="281">
-        <v>2</v>
-      </c>
-      <c r="K15" s="282" t="s">
+      <c r="G15" s="277">
+        <v>1300008</v>
+      </c>
+      <c r="H15" s="278" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="279">
+        <v>32</v>
+      </c>
+      <c r="J15" s="280">
+        <v>1</v>
+      </c>
+      <c r="K15" s="281" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="301"/>
-      <c r="B16" s="240">
+      <c r="A16" s="294"/>
+      <c r="B16" s="239">
         <v>1900102</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="243">
+      <c r="E16" s="242">
         <v>1</v>
       </c>
-      <c r="F16" s="242" t="s">
+      <c r="F16" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="273"/>
-      <c r="H16" s="274"/>
-      <c r="I16" s="273"/>
-      <c r="J16" s="273"/>
-      <c r="K16" s="275"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="272"/>
+      <c r="K16" s="274"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="301"/>
-      <c r="B17" s="203">
+      <c r="A17" s="294"/>
+      <c r="B17" s="202">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -6641,10 +6674,10 @@
       <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="F17" s="204" t="s">
+      <c r="F17" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="246"/>
+      <c r="G17" s="245"/>
       <c r="H17" s="72" t="s">
         <v>72</v>
       </c>
@@ -6659,13 +6692,15 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="301"/>
-      <c r="B18" s="246"/>
+      <c r="A18" s="294"/>
+      <c r="B18" s="245">
+        <v>1900111</v>
+      </c>
       <c r="C18" s="72" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="112">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E18" s="12">
         <v>4</v>
@@ -6673,18 +6708,18 @@
       <c r="F18" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="273"/>
-      <c r="H18" s="274"/>
-      <c r="I18" s="273"/>
-      <c r="J18" s="273"/>
-      <c r="K18" s="275"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="272"/>
+      <c r="J18" s="272"/>
+      <c r="K18" s="274"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="301"/>
-      <c r="B19" s="245">
+      <c r="A19" s="294"/>
+      <c r="B19" s="87">
         <v>1901002</v>
       </c>
-      <c r="C19" s="138" t="s">
+      <c r="C19" s="137" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="107">
@@ -6694,22 +6729,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="273"/>
-      <c r="H19" s="274"/>
-      <c r="I19" s="273"/>
-      <c r="J19" s="273"/>
-      <c r="K19" s="275"/>
+        <v>168</v>
+      </c>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="272"/>
+      <c r="J19" s="272"/>
+      <c r="K19" s="274"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="301"/>
-      <c r="B20" s="245"/>
-      <c r="C20" s="138" t="s">
+      <c r="A20" s="294"/>
+      <c r="B20" s="87">
+        <v>1900112</v>
+      </c>
+      <c r="C20" s="137" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="107">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20" s="109">
         <v>3</v>
@@ -6717,19 +6754,19 @@
       <c r="F20" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="273"/>
-      <c r="H20" s="274"/>
-      <c r="I20" s="273"/>
-      <c r="J20" s="273"/>
-      <c r="K20" s="275"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="272"/>
+      <c r="J20" s="272"/>
+      <c r="K20" s="274"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="301"/>
+      <c r="A21" s="294"/>
       <c r="B21" s="87">
-        <v>199645</v>
+        <v>1905045</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D21" s="18">
         <v>32</v>
@@ -6737,50 +6774,50 @@
       <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="196" t="s">
+      <c r="F21" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="247"/>
-      <c r="H21" s="128"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="127"/>
       <c r="I21" s="111"/>
       <c r="J21" s="82"/>
-      <c r="K21" s="201"/>
+      <c r="K21" s="200"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="302"/>
+      <c r="A22" s="295"/>
       <c r="B22" s="94"/>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="173" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="205" t="s">
+      <c r="E22" s="174"/>
+      <c r="F22" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="278">
+      <c r="G22" s="277">
         <v>1905039</v>
       </c>
-      <c r="H22" s="279" t="s">
+      <c r="H22" s="278" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="280" t="s">
-        <v>173</v>
-      </c>
-      <c r="J22" s="281">
+      <c r="I22" s="279" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="280">
         <v>3</v>
       </c>
-      <c r="K22" s="282" t="s">
+      <c r="K22" s="281" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="300" t="s">
+      <c r="A23" s="293" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
         <v>309003</v>
       </c>
-      <c r="C23" s="144" t="s">
+      <c r="C23" s="143" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="5">
@@ -6792,12 +6829,14 @@
       <c r="F23" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="139" t="s">
+      <c r="G23" s="84">
+        <v>1900113</v>
+      </c>
+      <c r="H23" s="138" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="104">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J23" s="105">
         <v>3</v>
@@ -6807,11 +6846,11 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="301"/>
+      <c r="A24" s="294"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="141" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="7">
@@ -6825,7 +6864,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="85"/>
-      <c r="H24" s="138" t="s">
+      <c r="H24" s="137" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="107">
@@ -6839,9 +6878,9 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="301"/>
+      <c r="A25" s="294"/>
       <c r="B25" s="87">
-        <v>199654</v>
+        <v>1901007</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>92</v>
@@ -6852,56 +6891,56 @@
       <c r="E25" s="10">
         <v>3</v>
       </c>
-      <c r="F25" s="196" t="s">
+      <c r="F25" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="278">
+      <c r="G25" s="277">
         <v>1905029</v>
       </c>
-      <c r="H25" s="279" t="s">
+      <c r="H25" s="278" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="280">
+      <c r="I25" s="279">
         <v>48</v>
       </c>
-      <c r="J25" s="281">
+      <c r="J25" s="280">
         <v>3</v>
       </c>
-      <c r="K25" s="282"/>
+      <c r="K25" s="281"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="301"/>
-      <c r="B26" s="206">
-        <v>199655</v>
-      </c>
-      <c r="C26" s="224" t="s">
+      <c r="A26" s="294"/>
+      <c r="B26" s="205">
+        <v>1901008</v>
+      </c>
+      <c r="C26" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="207">
+      <c r="D26" s="206">
         <v>32</v>
       </c>
-      <c r="E26" s="225">
+      <c r="E26" s="224">
         <v>1</v>
       </c>
-      <c r="F26" s="224" t="s">
+      <c r="F26" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="278"/>
-      <c r="H26" s="279" t="s">
-        <v>180</v>
-      </c>
-      <c r="I26" s="280">
+      <c r="G26" s="277"/>
+      <c r="H26" s="278" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="279">
         <v>32</v>
       </c>
-      <c r="J26" s="281">
+      <c r="J26" s="280">
         <v>1</v>
       </c>
-      <c r="K26" s="282" t="s">
-        <v>179</v>
+      <c r="K26" s="281" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="301"/>
+      <c r="A27" s="294"/>
       <c r="B27" s="87">
         <v>1901006</v>
       </c>
@@ -6914,10 +6953,10 @@
       <c r="E27" s="10">
         <v>4</v>
       </c>
-      <c r="F27" s="196" t="s">
+      <c r="F27" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="197"/>
+      <c r="G27" s="196"/>
       <c r="H27" s="72" t="s">
         <v>79</v>
       </c>
@@ -6932,32 +6971,32 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="301"/>
+      <c r="A28" s="294"/>
       <c r="B28" s="87">
         <v>1901007</v>
       </c>
-      <c r="C28" s="224" t="s">
+      <c r="C28" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="207">
+      <c r="D28" s="206">
         <v>32</v>
       </c>
-      <c r="E28" s="225">
+      <c r="E28" s="224">
         <v>1</v>
       </c>
-      <c r="F28" s="224" t="s">
+      <c r="F28" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="130">
+      <c r="G28" s="129">
         <v>1905028</v>
       </c>
-      <c r="H28" s="255" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="126">
+      <c r="H28" s="254" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="125">
         <v>32</v>
       </c>
-      <c r="J28" s="127">
+      <c r="J28" s="126">
         <v>2</v>
       </c>
       <c r="K28" s="108" t="s">
@@ -6965,17 +7004,17 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="301"/>
-      <c r="G29" s="130">
+      <c r="A29" s="294"/>
+      <c r="G29" s="129">
         <v>1905048</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="126">
+      <c r="I29" s="125">
         <v>48</v>
       </c>
-      <c r="J29" s="127">
+      <c r="J29" s="126">
         <v>3</v>
       </c>
       <c r="K29" s="108" t="s">
@@ -6983,9 +7022,9 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="302"/>
+      <c r="A30" s="295"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="142" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="26"/>
@@ -7003,24 +7042,24 @@
       <c r="J30" s="10">
         <v>3</v>
       </c>
-      <c r="K30" s="272" t="s">
+      <c r="K30" s="271" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="300" t="s">
+      <c r="A31" s="293" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
         <v>3009004</v>
       </c>
-      <c r="C31" s="208" t="s">
+      <c r="C31" s="207" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
       </c>
-      <c r="E31" s="209">
+      <c r="E31" s="208">
         <v>2</v>
       </c>
       <c r="F31" s="90" t="s">
@@ -7041,33 +7080,33 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="301"/>
+      <c r="A32" s="294"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
-      <c r="C32" s="192" t="s">
+      <c r="C32" s="191" t="s">
         <v>147</v>
       </c>
       <c r="D32" s="7">
         <f>18*E32</f>
         <v>108</v>
       </c>
-      <c r="E32" s="193">
+      <c r="E32" s="192">
         <v>6</v>
       </c>
       <c r="F32" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="130">
+      <c r="G32" s="129">
         <v>1905053</v>
       </c>
-      <c r="H32" s="195" t="s">
+      <c r="H32" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="256">
+      <c r="I32" s="255">
         <v>48</v>
       </c>
-      <c r="J32" s="257">
+      <c r="J32" s="256">
         <v>3</v>
       </c>
       <c r="K32" s="108" t="s">
@@ -7075,7 +7114,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="301"/>
+      <c r="A33" s="294"/>
       <c r="B33" s="93">
         <v>1905010</v>
       </c>
@@ -7089,10 +7128,10 @@
         <v>3</v>
       </c>
       <c r="F33" s="83"/>
-      <c r="G33" s="130">
+      <c r="G33" s="129">
         <v>1905026</v>
       </c>
-      <c r="H33" s="194" t="s">
+      <c r="H33" s="193" t="s">
         <v>148</v>
       </c>
       <c r="I33" s="117">
@@ -7106,7 +7145,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="301"/>
+      <c r="A34" s="294"/>
       <c r="B34" s="93">
         <v>1905011</v>
       </c>
@@ -7120,33 +7159,33 @@
         <v>1</v>
       </c>
       <c r="F34" s="83"/>
-      <c r="G34" s="130" t="s">
+      <c r="G34" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="194" t="s">
-        <v>184</v>
+      <c r="H34" s="193" t="s">
+        <v>183</v>
       </c>
       <c r="I34" s="117" t="s">
         <v>85</v>
       </c>
       <c r="J34" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="K34" s="108" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="301"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="211"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="130">
+      <c r="A35" s="294"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="129">
         <v>1905030</v>
       </c>
-      <c r="H35" s="194" t="s">
+      <c r="H35" s="193" t="s">
         <v>104</v>
       </c>
       <c r="I35" s="117">
@@ -7160,13 +7199,13 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="301"/>
-      <c r="B36" s="210"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="212"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="130" t="s">
+      <c r="A36" s="294"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="129" t="s">
         <v>85</v>
       </c>
       <c r="H36" s="116"/>
@@ -7177,9 +7216,9 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="302"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="94"/>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="142" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="26"/>
@@ -7187,43 +7226,43 @@
       <c r="F37" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="278">
+      <c r="G37" s="277">
         <v>199641</v>
       </c>
-      <c r="H37" s="279" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" s="280">
+      <c r="H37" s="278" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="279">
         <v>32</v>
       </c>
-      <c r="J37" s="281">
+      <c r="J37" s="280">
         <v>2</v>
       </c>
-      <c r="K37" s="282" t="s">
+      <c r="K37" s="281" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="300" t="s">
+      <c r="A38" s="293" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="214">
+      <c r="B38" s="213">
         <v>3300003</v>
       </c>
-      <c r="C38" s="215" t="s">
+      <c r="C38" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="216">
+      <c r="D38" s="215">
         <v>18</v>
       </c>
-      <c r="E38" s="217">
+      <c r="E38" s="216">
         <v>1</v>
       </c>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="231"/>
-      <c r="H38" s="139" t="s">
+      <c r="G38" s="230"/>
+      <c r="H38" s="138" t="s">
         <v>81</v>
       </c>
       <c r="I38" s="104">
@@ -7237,70 +7276,70 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="301"/>
-      <c r="B39" s="219">
+      <c r="A39" s="294"/>
+      <c r="B39" s="218">
         <v>1905046</v>
       </c>
-      <c r="C39" s="220" t="s">
+      <c r="C39" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="221">
+      <c r="D39" s="220">
         <v>48</v>
       </c>
-      <c r="E39" s="222">
+      <c r="E39" s="221">
         <v>3</v>
       </c>
-      <c r="F39" s="196" t="s">
+      <c r="F39" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="278">
+      <c r="G39" s="277">
         <v>199625</v>
       </c>
-      <c r="H39" s="279" t="s">
+      <c r="H39" s="278" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="280">
+      <c r="I39" s="279">
         <v>32</v>
       </c>
-      <c r="J39" s="281">
+      <c r="J39" s="280">
         <v>2</v>
       </c>
-      <c r="K39" s="282"/>
+      <c r="K39" s="281"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="301"/>
-      <c r="B40" s="219">
+      <c r="A40" s="294"/>
+      <c r="B40" s="218">
         <v>1905047</v>
       </c>
-      <c r="C40" s="224" t="s">
+      <c r="C40" s="223" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="207">
+      <c r="D40" s="206">
         <v>32</v>
       </c>
-      <c r="E40" s="225">
+      <c r="E40" s="224">
         <v>1</v>
       </c>
-      <c r="F40" s="224" t="s">
+      <c r="F40" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="130">
+      <c r="G40" s="129">
         <v>199624</v>
       </c>
       <c r="H40" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="258">
+      <c r="I40" s="257">
         <v>48</v>
       </c>
-      <c r="J40" s="258">
+      <c r="J40" s="257">
         <v>3</v>
       </c>
-      <c r="K40" s="259"/>
+      <c r="K40" s="258"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="301"/>
-      <c r="B41" s="219">
+      <c r="A41" s="294"/>
+      <c r="B41" s="218">
         <v>1901015</v>
       </c>
       <c r="C41" s="30" t="s">
@@ -7309,20 +7348,20 @@
       <c r="D41" s="9">
         <v>64</v>
       </c>
-      <c r="E41" s="223">
+      <c r="E41" s="222">
         <v>4</v>
       </c>
-      <c r="F41" s="196" t="s">
+      <c r="F41" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="130"/>
-      <c r="H41" s="125" t="s">
+      <c r="G41" s="129"/>
+      <c r="H41" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="126" t="s">
+      <c r="I41" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="J41" s="127" t="s">
+      <c r="J41" s="126" t="s">
         <v>85</v>
       </c>
       <c r="K41" s="108" t="s">
@@ -7330,30 +7369,30 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="301"/>
-      <c r="B42" s="219">
+      <c r="A42" s="294"/>
+      <c r="B42" s="218">
         <v>1901016</v>
       </c>
-      <c r="C42" s="224" t="s">
+      <c r="C42" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="207">
+      <c r="D42" s="206">
         <v>40</v>
       </c>
-      <c r="E42" s="225">
+      <c r="E42" s="224">
         <v>1</v>
       </c>
-      <c r="F42" s="224" t="s">
+      <c r="F42" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="130"/>
-      <c r="H42" s="125" t="s">
+      <c r="G42" s="129"/>
+      <c r="H42" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I42" s="126" t="s">
+      <c r="I42" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="J42" s="127" t="s">
+      <c r="J42" s="126" t="s">
         <v>85</v>
       </c>
       <c r="K42" s="108" t="s">
@@ -7361,30 +7400,30 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="301"/>
-      <c r="B43" s="219">
-        <v>1904020</v>
+      <c r="A43" s="294"/>
+      <c r="B43" s="218">
+        <v>1901013</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="9">
         <v>48</v>
       </c>
-      <c r="E43" s="223">
+      <c r="E43" s="222">
         <v>3</v>
       </c>
-      <c r="F43" s="196" t="s">
+      <c r="F43" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="130"/>
-      <c r="H43" s="125" t="s">
+      <c r="G43" s="129"/>
+      <c r="H43" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="126" t="s">
+      <c r="I43" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="J43" s="127" t="s">
+      <c r="J43" s="126" t="s">
         <v>85</v>
       </c>
       <c r="K43" s="108" t="s">
@@ -7392,95 +7431,95 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="301"/>
-      <c r="B44" s="219">
-        <v>1904021</v>
-      </c>
-      <c r="C44" s="224" t="s">
-        <v>196</v>
-      </c>
-      <c r="D44" s="207">
+      <c r="A44" s="294"/>
+      <c r="B44" s="218">
+        <v>1901014</v>
+      </c>
+      <c r="C44" s="223" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="206">
         <v>16</v>
       </c>
-      <c r="E44" s="225">
+      <c r="E44" s="224">
         <v>0.5</v>
       </c>
-      <c r="F44" s="224" t="s">
+      <c r="F44" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="130" t="s">
+      <c r="G44" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="125" t="s">
+      <c r="H44" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="126" t="s">
+      <c r="I44" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="J44" s="127" t="s">
+      <c r="J44" s="126" t="s">
         <v>85</v>
       </c>
       <c r="K44" s="108"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="301"/>
-      <c r="B45" s="219"/>
+      <c r="A45" s="294"/>
+      <c r="B45" s="218"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="130" t="s">
+      <c r="F45" s="203"/>
+      <c r="G45" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="125" t="s">
+      <c r="H45" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I45" s="126" t="s">
+      <c r="I45" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="J45" s="127" t="s">
+      <c r="J45" s="126" t="s">
         <v>85</v>
       </c>
       <c r="K45" s="108"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1">
-      <c r="A46" s="302"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="94"/>
-      <c r="C46" s="143" t="s">
+      <c r="C46" s="142" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="226" t="s">
+      <c r="F46" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="198"/>
-      <c r="H46" s="232"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
-      <c r="K46" s="199"/>
+      <c r="G46" s="197"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="232"/>
+      <c r="J46" s="233"/>
+      <c r="K46" s="198"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="301" t="s">
+      <c r="A47" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="214">
+      <c r="B47" s="213">
         <v>3300005</v>
       </c>
-      <c r="C47" s="239" t="s">
+      <c r="C47" s="238" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="216">
+      <c r="D47" s="215">
         <v>18</v>
       </c>
-      <c r="E47" s="217">
+      <c r="E47" s="216">
         <v>1</v>
       </c>
-      <c r="F47" s="218" t="s">
+      <c r="F47" s="217" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="84"/>
-      <c r="H47" s="139" t="s">
+      <c r="H47" s="138" t="s">
         <v>71</v>
       </c>
       <c r="I47" s="104">
@@ -7494,32 +7533,32 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="301"/>
-      <c r="B48" s="240">
+      <c r="A48" s="294"/>
+      <c r="B48" s="239">
         <v>1900103</v>
       </c>
-      <c r="C48" s="153" t="s">
+      <c r="C48" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="152" t="s">
+      <c r="D48" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="241">
+      <c r="E48" s="240">
         <v>1</v>
       </c>
-      <c r="F48" s="242" t="s">
+      <c r="F48" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="124">
+      <c r="G48" s="129">
         <v>1905037</v>
       </c>
-      <c r="H48" s="125" t="s">
+      <c r="H48" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="126">
+      <c r="I48" s="125">
         <v>48</v>
       </c>
-      <c r="J48" s="127">
+      <c r="J48" s="126">
         <v>3</v>
       </c>
       <c r="K48" s="108" t="s">
@@ -7527,12 +7566,12 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="301"/>
+      <c r="A49" s="294"/>
       <c r="B49" s="93">
         <v>1905033</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D49" s="9">
         <v>48</v>
@@ -7540,32 +7579,32 @@
       <c r="E49" s="10">
         <v>3</v>
       </c>
-      <c r="F49" s="202" t="s">
+      <c r="F49" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="278">
+      <c r="G49" s="277">
         <v>1905038</v>
       </c>
-      <c r="H49" s="279" t="s">
-        <v>182</v>
-      </c>
-      <c r="I49" s="280">
+      <c r="H49" s="278" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" s="279">
         <v>16</v>
       </c>
-      <c r="J49" s="281">
+      <c r="J49" s="280">
         <v>1</v>
       </c>
-      <c r="K49" s="282" t="s">
+      <c r="K49" s="281" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="172"/>
+      <c r="A50" s="171"/>
       <c r="B50" s="93">
         <v>1905034</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="9">
         <v>32</v>
@@ -7573,95 +7612,95 @@
       <c r="E50" s="10">
         <v>1</v>
       </c>
-      <c r="F50" s="202" t="s">
+      <c r="F50" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="130">
-        <v>199173</v>
-      </c>
-      <c r="H50" s="125" t="s">
+      <c r="G50" s="129">
+        <v>1901036</v>
+      </c>
+      <c r="H50" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="125">
         <v>32</v>
       </c>
-      <c r="J50" s="127">
+      <c r="J50" s="126">
         <v>2</v>
       </c>
       <c r="K50" s="108"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="172"/>
-      <c r="B51" s="210"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="212"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="130">
-        <v>199621</v>
-      </c>
-      <c r="H51" s="125" t="s">
-        <v>106</v>
-      </c>
-      <c r="I51" s="126">
+      <c r="A51" s="171"/>
+      <c r="B51" s="209"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="211"/>
+      <c r="E51" s="211"/>
+      <c r="F51" s="212"/>
+      <c r="G51" s="129">
+        <v>1904020</v>
+      </c>
+      <c r="H51" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="125">
         <v>32</v>
       </c>
-      <c r="J51" s="127">
+      <c r="J51" s="126">
         <v>2</v>
       </c>
       <c r="K51" s="108"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="172"/>
-      <c r="B52" s="210"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="130">
-        <v>199622</v>
-      </c>
-      <c r="H52" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="I52" s="126">
+      <c r="A52" s="171"/>
+      <c r="B52" s="209"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="211"/>
+      <c r="E52" s="211"/>
+      <c r="F52" s="212"/>
+      <c r="G52" s="129">
+        <v>1904021</v>
+      </c>
+      <c r="H52" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="125">
         <v>32</v>
       </c>
-      <c r="J52" s="127">
+      <c r="J52" s="126">
         <v>1</v>
       </c>
       <c r="K52" s="108"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="172"/>
+      <c r="A53" s="171"/>
       <c r="B53" s="87"/>
       <c r="C53" s="21"/>
       <c r="D53" s="25"/>
       <c r="E53" s="38"/>
-      <c r="F53" s="204"/>
-      <c r="G53" s="278">
+      <c r="F53" s="203"/>
+      <c r="G53" s="277">
         <v>199641</v>
       </c>
-      <c r="H53" s="279" t="s">
-        <v>183</v>
-      </c>
-      <c r="I53" s="280">
+      <c r="H53" s="278" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53" s="279">
         <v>32</v>
       </c>
-      <c r="J53" s="281">
+      <c r="J53" s="280">
         <v>2</v>
       </c>
-      <c r="K53" s="282" t="s">
-        <v>179</v>
+      <c r="K53" s="281" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="172"/>
-      <c r="B54" s="250"/>
-      <c r="C54" s="251"/>
-      <c r="D54" s="252"/>
-      <c r="E54" s="253"/>
-      <c r="F54" s="254"/>
+      <c r="A54" s="171"/>
+      <c r="B54" s="249"/>
+      <c r="C54" s="250"/>
+      <c r="D54" s="251"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="253"/>
       <c r="G54" s="93">
         <v>199783</v>
       </c>
@@ -7674,17 +7713,17 @@
       <c r="J54" s="10">
         <v>3</v>
       </c>
-      <c r="K54" s="272" t="s">
+      <c r="K54" s="271" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="172"/>
-      <c r="B55" s="250"/>
-      <c r="C55" s="251"/>
-      <c r="D55" s="252"/>
-      <c r="E55" s="253"/>
-      <c r="F55" s="254"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="249"/>
+      <c r="C55" s="250"/>
+      <c r="D55" s="251"/>
+      <c r="E55" s="252"/>
+      <c r="F55" s="253"/>
       <c r="G55" s="93">
         <v>199784</v>
       </c>
@@ -7697,14 +7736,14 @@
       <c r="J55" s="10">
         <v>1</v>
       </c>
-      <c r="K55" s="272" t="s">
+      <c r="K55" s="271" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1">
-      <c r="A56" s="173"/>
+      <c r="A56" s="172"/>
       <c r="B56" s="94"/>
-      <c r="C56" s="143" t="s">
+      <c r="C56" s="142" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="32"/>
@@ -7712,7 +7751,7 @@
       <c r="F56" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="198" t="s">
+      <c r="G56" s="197" t="s">
         <v>85</v>
       </c>
       <c r="H56" s="42" t="s">
@@ -7727,26 +7766,26 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="300" t="s">
+      <c r="A57" s="293" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="260">
+      <c r="B57" s="259">
         <v>1900104</v>
       </c>
-      <c r="C57" s="261" t="s">
+      <c r="C57" s="260" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="262" t="s">
+      <c r="D57" s="261" t="s">
         <v>136</v>
       </c>
-      <c r="E57" s="263">
+      <c r="E57" s="262">
         <v>3</v>
       </c>
-      <c r="F57" s="264" t="s">
+      <c r="F57" s="263" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="238"/>
-      <c r="H57" s="139" t="s">
+      <c r="G57" s="237"/>
+      <c r="H57" s="138" t="s">
         <v>82</v>
       </c>
       <c r="I57" s="104">
@@ -7760,131 +7799,131 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="301"/>
-      <c r="B58" s="240">
+      <c r="A58" s="294"/>
+      <c r="B58" s="239">
         <v>1900105</v>
       </c>
-      <c r="C58" s="153" t="s">
+      <c r="C58" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="152" t="s">
+      <c r="D58" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="241">
+      <c r="E58" s="240">
         <v>1</v>
       </c>
-      <c r="F58" s="242" t="s">
+      <c r="F58" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="130"/>
+      <c r="G58" s="129"/>
       <c r="H58" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I58" s="258" t="s">
+      <c r="I58" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="258" t="s">
+      <c r="J58" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="K58" s="259" t="s">
+      <c r="K58" s="258" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="301"/>
-      <c r="B59" s="240">
+      <c r="A59" s="294"/>
+      <c r="B59" s="239">
         <v>1900107</v>
       </c>
-      <c r="C59" s="153" t="s">
+      <c r="C59" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="152" t="s">
+      <c r="D59" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="241">
+      <c r="E59" s="240">
         <v>1</v>
       </c>
-      <c r="F59" s="242" t="s">
+      <c r="F59" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="130" t="s">
+      <c r="G59" s="129" t="s">
         <v>157</v>
       </c>
       <c r="H59" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I59" s="258" t="s">
+      <c r="I59" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="J59" s="258" t="s">
+      <c r="J59" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="K59" s="259" t="s">
+      <c r="K59" s="258" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="301"/>
-      <c r="B60" s="265"/>
-      <c r="C60" s="155" t="s">
+      <c r="A60" s="294"/>
+      <c r="B60" s="264"/>
+      <c r="C60" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="156" t="s">
+      <c r="D60" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="266">
+      <c r="E60" s="265">
         <v>2</v>
       </c>
-      <c r="F60" s="267" t="s">
+      <c r="F60" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="130" t="s">
+      <c r="G60" s="129" t="s">
         <v>157</v>
       </c>
       <c r="H60" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I60" s="258" t="s">
+      <c r="I60" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="J60" s="258" t="s">
+      <c r="J60" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="K60" s="259" t="s">
+      <c r="K60" s="258" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="301"/>
-      <c r="B61" s="130">
+      <c r="A61" s="294"/>
+      <c r="B61" s="129">
         <v>1905050</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="258">
+      <c r="D61" s="257">
         <v>32</v>
       </c>
-      <c r="E61" s="258">
+      <c r="E61" s="257">
         <v>2</v>
       </c>
-      <c r="F61" s="259"/>
-      <c r="G61" s="130" t="s">
+      <c r="F61" s="258"/>
+      <c r="G61" s="129" t="s">
         <v>157</v>
       </c>
       <c r="H61" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I61" s="258" t="s">
+      <c r="I61" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="J61" s="258" t="s">
+      <c r="J61" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="K61" s="259"/>
+      <c r="K61" s="258"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="301"/>
+      <c r="A62" s="294"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
         <v>87</v>
@@ -7895,17 +7934,17 @@
       <c r="E62" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="204" t="s">
+      <c r="F62" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="210"/>
-      <c r="H62" s="271"/>
-      <c r="I62" s="212"/>
-      <c r="J62" s="212"/>
-      <c r="K62" s="213"/>
+      <c r="G62" s="209"/>
+      <c r="H62" s="270"/>
+      <c r="I62" s="211"/>
+      <c r="J62" s="211"/>
+      <c r="K62" s="212"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="301"/>
+      <c r="A63" s="294"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
         <v>85</v>
@@ -7916,23 +7955,23 @@
       <c r="E63" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="204" t="s">
+      <c r="F63" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="210"/>
-      <c r="H63" s="271"/>
-      <c r="I63" s="212"/>
-      <c r="J63" s="212"/>
-      <c r="K63" s="213"/>
+      <c r="G63" s="209"/>
+      <c r="H63" s="270"/>
+      <c r="I63" s="211"/>
+      <c r="J63" s="211"/>
+      <c r="K63" s="212"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="302"/>
+      <c r="A64" s="295"/>
       <c r="B64" s="94"/>
-      <c r="C64" s="268"/>
+      <c r="C64" s="267"/>
       <c r="D64" s="36"/>
-      <c r="E64" s="269"/>
-      <c r="F64" s="270"/>
-      <c r="G64" s="198">
+      <c r="E64" s="268"/>
+      <c r="F64" s="269"/>
+      <c r="G64" s="197">
         <v>199650</v>
       </c>
       <c r="H64" s="42" t="s">
@@ -7947,54 +7986,54 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="172" t="s">
+      <c r="A65" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="184">
+      <c r="B65" s="183">
         <v>1900106</v>
       </c>
-      <c r="C65" s="185" t="s">
+      <c r="C65" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="184" t="s">
+      <c r="D65" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="186">
+      <c r="E65" s="185">
         <v>3</v>
       </c>
-      <c r="F65" s="179" t="s">
+      <c r="F65" s="178" t="s">
         <v>41</v>
       </c>
       <c r="G65" s="121"/>
       <c r="H65" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I65" s="45"/>
       <c r="J65" s="46">
         <v>5</v>
       </c>
-      <c r="K65" s="276"/>
+      <c r="K65" s="275"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1">
       <c r="A66" s="47"/>
-      <c r="B66" s="187"/>
-      <c r="C66" s="188" t="s">
+      <c r="B66" s="186"/>
+      <c r="C66" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="189" t="s">
+      <c r="D66" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="190">
+      <c r="E66" s="189">
         <v>1</v>
       </c>
-      <c r="F66" s="191" t="s">
+      <c r="F66" s="190" t="s">
         <v>143</v>
       </c>
       <c r="G66" s="120"/>
       <c r="H66" s="42"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
-      <c r="K66" s="277"/>
+      <c r="K66" s="276"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1">
       <c r="A67" s="48"/>
@@ -8014,7 +8053,7 @@
       <c r="I67" s="51"/>
       <c r="J67" s="53">
         <f>SUM(J4:J66)</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K67" s="54"/>
     </row>
@@ -8084,34 +8123,34 @@
       <c r="J72" s="64"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="145" t="s">
+      <c r="A73" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="171"/>
-      <c r="C73" s="291" t="s">
+      <c r="B73" s="170"/>
+      <c r="C73" s="296" t="s">
         <v>117</v>
       </c>
-      <c r="D73" s="292"/>
-      <c r="E73" s="293"/>
-      <c r="F73" s="291" t="s">
+      <c r="D73" s="297"/>
+      <c r="E73" s="298"/>
+      <c r="F73" s="296" t="s">
         <v>118</v>
       </c>
-      <c r="G73" s="292"/>
-      <c r="H73" s="293"/>
-      <c r="I73" s="294" t="s">
+      <c r="G73" s="297"/>
+      <c r="H73" s="298"/>
+      <c r="I73" s="299" t="s">
         <v>119</v>
       </c>
-      <c r="J73" s="294"/>
-      <c r="K73" s="295"/>
+      <c r="J73" s="299"/>
+      <c r="K73" s="300"/>
     </row>
     <row r="74" spans="1:11" ht="26">
-      <c r="A74" s="167">
+      <c r="A74" s="166">
         <v>1</v>
       </c>
       <c r="B74" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="148" t="s">
+      <c r="C74" s="147" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="68">
@@ -8122,132 +8161,132 @@
         <f>SUM(E4,E5,E13,E14,E15,E23,E24,E31,E32)</f>
         <v>24</v>
       </c>
-      <c r="F74" s="149" t="s">
+      <c r="F74" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="G74" s="150">
+      <c r="G74" s="149">
         <f>SUM(D49:D50,D61,D69)</f>
         <v>112</v>
       </c>
-      <c r="H74" s="151">
+      <c r="H74" s="150">
         <v>18</v>
       </c>
-      <c r="I74" s="296" t="s">
+      <c r="I74" s="301" t="s">
         <v>121</v>
       </c>
-      <c r="J74" s="297"/>
-      <c r="K74" s="298"/>
+      <c r="J74" s="302"/>
+      <c r="K74" s="303"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="283">
+      <c r="A75" s="304">
         <v>2</v>
       </c>
-      <c r="B75" s="299" t="s">
+      <c r="B75" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="152"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="152"/>
-      <c r="F75" s="153" t="s">
+      <c r="C75" s="151"/>
+      <c r="D75" s="151"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="152"/>
-      <c r="H75" s="154">
+      <c r="G75" s="151"/>
+      <c r="H75" s="153">
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I75" s="287"/>
-      <c r="J75" s="287"/>
-      <c r="K75" s="288"/>
+      <c r="I75" s="307"/>
+      <c r="J75" s="307"/>
+      <c r="K75" s="308"/>
     </row>
     <row r="76" spans="1:11" ht="26">
-      <c r="A76" s="283"/>
-      <c r="B76" s="284"/>
-      <c r="C76" s="155"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="157" t="s">
+      <c r="A76" s="304"/>
+      <c r="B76" s="306"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="155"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156">
+      <c r="G76" s="155"/>
+      <c r="H76" s="155">
         <v>5</v>
       </c>
-      <c r="I76" s="287"/>
-      <c r="J76" s="287"/>
-      <c r="K76" s="288"/>
+      <c r="I76" s="307"/>
+      <c r="J76" s="307"/>
+      <c r="K76" s="308"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="283">
+      <c r="A77" s="304">
         <v>3</v>
       </c>
-      <c r="B77" s="284" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="158" t="s">
+      <c r="B77" s="306" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="159"/>
-      <c r="E77" s="160">
+      <c r="D77" s="158"/>
+      <c r="E77" s="159">
         <f>SUM(E9+E12+E17+E25+E26+E27+E28+J30+E49+E50+E39+E40+E41+E42+E43+E44+J54+J55)</f>
         <v>42.5</v>
       </c>
-      <c r="F77" s="161" t="s">
+      <c r="F77" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="G77" s="162"/>
-      <c r="H77" s="162">
+      <c r="G77" s="161"/>
+      <c r="H77" s="161">
         <v>30.5</v>
       </c>
-      <c r="I77" s="285"/>
-      <c r="J77" s="285"/>
-      <c r="K77" s="286"/>
+      <c r="I77" s="309"/>
+      <c r="J77" s="309"/>
+      <c r="K77" s="310"/>
     </row>
     <row r="78" spans="1:11" ht="26">
-      <c r="A78" s="283"/>
-      <c r="B78" s="284"/>
-      <c r="C78" s="158" t="s">
+      <c r="A78" s="304"/>
+      <c r="B78" s="306"/>
+      <c r="C78" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="159"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="163" t="s">
+      <c r="D78" s="158"/>
+      <c r="E78" s="159"/>
+      <c r="F78" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="G78" s="168"/>
+      <c r="G78" s="167"/>
       <c r="H78" s="69"/>
-      <c r="I78" s="287"/>
-      <c r="J78" s="287"/>
-      <c r="K78" s="288"/>
+      <c r="I78" s="307"/>
+      <c r="J78" s="307"/>
+      <c r="K78" s="308"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1">
-      <c r="A79" s="164" t="s">
+      <c r="A79" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="165">
+      <c r="B79" s="164">
         <f>E79+H74+H75+H76+H77</f>
         <v>130</v>
       </c>
-      <c r="C79" s="170">
+      <c r="C79" s="169">
         <v>66.5</v>
       </c>
-      <c r="D79" s="170"/>
-      <c r="E79" s="165">
+      <c r="D79" s="169"/>
+      <c r="E79" s="164">
         <f>SUM(E74:E77)</f>
         <v>66.5</v>
       </c>
-      <c r="F79" s="170">
+      <c r="F79" s="169">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G79" s="170"/>
-      <c r="H79" s="165">
+      <c r="G79" s="169"/>
+      <c r="H79" s="164">
         <f>SUM(H74:H78)</f>
         <v>63.5</v>
       </c>
-      <c r="I79" s="289"/>
-      <c r="J79" s="289"/>
-      <c r="K79" s="290"/>
+      <c r="I79" s="311"/>
+      <c r="J79" s="311"/>
+      <c r="K79" s="312"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="63"/>
@@ -8296,17 +8335,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
     <mergeCell ref="F73:H73"/>
     <mergeCell ref="I73:K73"/>
     <mergeCell ref="I74:K74"/>
@@ -8315,11 +8348,17 @@
     <mergeCell ref="I75:K75"/>
     <mergeCell ref="I76:K76"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="206">
   <si>
     <t>学期</t>
   </si>
@@ -1119,6 +1119,70 @@
   </si>
   <si>
     <t>网络安全实验</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
@@ -2054,7 +2118,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2634,8 +2698,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2924,9 +2994,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3368,9 +3435,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3482,46 +3546,28 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3548,38 +3594,56 @@
     <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="195">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -3678,6 +3742,7 @@
     <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -3773,6 +3838,7 @@
     <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3792,7 +3858,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3800,7 +3866,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3808,7 +3874,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3816,7 +3882,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4074,7 +4140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4084,8 +4150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4104,41 +4170,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="300" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="285" t="s">
+      <c r="B2" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="288" t="s">
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="306" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="290"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="308"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="284"/>
+      <c r="A3" s="302"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4171,13 +4237,13 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="309" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
         <v>309001</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5">
@@ -4189,26 +4255,28 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="134" t="s">
+      <c r="G4" s="81">
+        <v>1901023</v>
+      </c>
+      <c r="H4" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="97">
+      <c r="I4" s="96">
         <v>32</v>
       </c>
-      <c r="J4" s="98">
+      <c r="J4" s="97">
         <v>2</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="98" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="292"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7">
@@ -4222,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="85"/>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="134" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="12">
@@ -4231,16 +4299,16 @@
       <c r="J5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="292"/>
-      <c r="B6" s="101">
+      <c r="A6" s="310"/>
+      <c r="B6" s="100">
         <v>330001</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12">
@@ -4249,13 +4317,13 @@
       <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="134" t="s">
         <v>132</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -4264,16 +4332,16 @@
       <c r="J6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="99" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="292"/>
-      <c r="B7" s="101">
+      <c r="A7" s="310"/>
+      <c r="B7" s="100">
         <v>199023</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="134" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12">
@@ -4282,21 +4350,21 @@
       <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="292"/>
-      <c r="B8" s="101">
+      <c r="A8" s="310"/>
+      <c r="B8" s="100">
         <v>310017</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="134" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12">
@@ -4306,17 +4374,17 @@
       <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="292"/>
+      <c r="A9" s="310"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -4329,51 +4397,53 @@
       <c r="E9" s="76">
         <v>2</v>
       </c>
-      <c r="F9" s="195" t="s">
+      <c r="F9" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="102"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="292"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="310"/>
+      <c r="B10" s="87">
+        <v>1900101</v>
+      </c>
       <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="195" t="s">
+      <c r="F10" s="194" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="102"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="292"/>
+      <c r="A11" s="310"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="195" t="s">
+      <c r="F11" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="103"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="78"/>
       <c r="I11" s="79"/>
       <c r="J11" s="79"/>
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="292"/>
+      <c r="A12" s="310"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -4386,23 +4456,23 @@
       <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="195" t="s">
+      <c r="F12" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="103"/>
+      <c r="G12" s="102"/>
       <c r="H12" s="78"/>
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
       <c r="K12" s="80"/>
     </row>
-    <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="293" t="s">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
+      <c r="A13" s="297" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
         <v>309002</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="139" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5">
@@ -4414,26 +4484,26 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="243">
-        <v>198328</v>
-      </c>
-      <c r="H13" s="136" t="s">
+      <c r="G13" s="242">
+        <v>1902060</v>
+      </c>
+      <c r="H13" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="133">
+      <c r="J13" s="132">
         <v>2</v>
       </c>
-      <c r="K13" s="106"/>
+      <c r="K13" s="105"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="294"/>
+      <c r="A14" s="298"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="140" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7">
@@ -4446,26 +4516,28 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="244"/>
-      <c r="H14" s="137" t="s">
+      <c r="G14" s="242">
+        <v>1300004</v>
+      </c>
+      <c r="H14" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="107">
+      <c r="I14" s="106">
         <v>54</v>
       </c>
-      <c r="J14" s="107">
+      <c r="J14" s="106">
         <v>3</v>
       </c>
-      <c r="K14" s="108" t="s">
+      <c r="K14" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="294"/>
+      <c r="A15" s="298"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -4478,14 +4550,16 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="127" t="s">
+      <c r="G15" s="81">
+        <v>1300008</v>
+      </c>
+      <c r="H15" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="109">
         <v>48</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="109">
         <v>2</v>
       </c>
       <c r="K15" s="86" t="s">
@@ -4493,39 +4567,41 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="294"/>
-      <c r="B16" s="239">
+      <c r="A16" s="298"/>
+      <c r="B16" s="238">
         <v>1900102</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <v>1</v>
       </c>
-      <c r="F16" s="241" t="s">
+      <c r="F16" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="245"/>
+      <c r="G16" s="243">
+        <v>1900110</v>
+      </c>
       <c r="H16" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="112">
+      <c r="I16" s="111">
         <v>85</v>
       </c>
       <c r="J16" s="12">
         <v>4</v>
       </c>
-      <c r="K16" s="100" t="s">
+      <c r="K16" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17" s="294"/>
-      <c r="B17" s="202">
+      <c r="A17" s="298"/>
+      <c r="B17" s="201">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -4537,25 +4613,25 @@
       <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="F17" s="203" t="s">
+      <c r="F17" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="245"/>
+      <c r="G17" s="243"/>
       <c r="H17" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="112">
+      <c r="I17" s="111">
         <v>32</v>
       </c>
       <c r="J17" s="12">
         <v>2</v>
       </c>
-      <c r="K17" s="100" t="s">
+      <c r="K17" s="99" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="294"/>
+    <row r="18" spans="1:11" ht="15" thickBot="1">
+      <c r="A18" s="298"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
@@ -4568,99 +4644,101 @@
       <c r="E18" s="10">
         <v>2</v>
       </c>
-      <c r="F18" s="201" t="s">
+      <c r="F18" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="243">
+      <c r="G18" s="242">
         <v>1901002</v>
       </c>
-      <c r="H18" s="137" t="s">
+      <c r="H18" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="107">
+      <c r="I18" s="106">
         <v>54</v>
       </c>
-      <c r="J18" s="109">
+      <c r="J18" s="108">
         <v>3</v>
       </c>
-      <c r="K18" s="108" t="s">
+      <c r="K18" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="294"/>
-      <c r="B19" s="247" t="s">
+      <c r="A19" s="298"/>
+      <c r="B19" s="245" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="222" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="223" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="223" t="s">
+      <c r="E19" s="222" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="248" t="s">
+      <c r="F19" s="246" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="244"/>
-      <c r="H19" s="137" t="s">
+      <c r="G19" s="242">
+        <v>1900112</v>
+      </c>
+      <c r="H19" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="107">
+      <c r="I19" s="106">
         <v>68</v>
       </c>
-      <c r="J19" s="109">
+      <c r="J19" s="108">
         <v>3</v>
       </c>
-      <c r="K19" s="108" t="s">
+      <c r="K19" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="294"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="248"/>
+      <c r="A20" s="298"/>
+      <c r="B20" s="245"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="246"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="295"/>
+      <c r="A21" s="299"/>
       <c r="B21" s="94"/>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="172" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="204" t="s">
+      <c r="E21" s="173"/>
+      <c r="F21" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="246">
+      <c r="G21" s="244">
         <v>1905039</v>
       </c>
-      <c r="H21" s="127" t="s">
+      <c r="H21" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="111" t="s">
+      <c r="I21" s="110" t="s">
         <v>161</v>
       </c>
       <c r="J21" s="82">
         <v>3</v>
       </c>
-      <c r="K21" s="200" t="s">
+      <c r="K21" s="199" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="293" t="s">
+      <c r="A22" s="297" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
         <v>309003</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="142" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="5">
@@ -4675,25 +4753,25 @@
       <c r="G22" s="84">
         <v>1901027</v>
       </c>
-      <c r="H22" s="138" t="s">
+      <c r="H22" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="104">
+      <c r="I22" s="103">
         <v>68</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="104">
         <v>3</v>
       </c>
-      <c r="K22" s="106" t="s">
+      <c r="K22" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="294"/>
+      <c r="A23" s="298"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="140" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="7">
@@ -4707,21 +4785,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="85"/>
-      <c r="H23" s="137" t="s">
+      <c r="H23" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="107">
+      <c r="I23" s="106">
         <v>40</v>
       </c>
-      <c r="J23" s="109">
+      <c r="J23" s="108">
         <v>2.5</v>
       </c>
-      <c r="K23" s="108" t="s">
+      <c r="K23" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="294"/>
+      <c r="A24" s="298"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
@@ -4734,56 +4812,58 @@
       <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="195" t="s">
+      <c r="F24" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="199">
+      <c r="G24" s="198">
         <v>1905029</v>
       </c>
-      <c r="H24" s="127" t="s">
+      <c r="H24" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="111">
-        <v>48</v>
+      <c r="I24" s="110" t="s">
+        <v>202</v>
       </c>
       <c r="J24" s="82">
         <v>3</v>
       </c>
-      <c r="K24" s="200"/>
+      <c r="K24" s="199" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="294"/>
-      <c r="B25" s="205">
+      <c r="A25" s="298"/>
+      <c r="B25" s="204">
         <v>1905008</v>
       </c>
-      <c r="C25" s="223" t="s">
+      <c r="C25" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="206">
+      <c r="D25" s="205">
         <v>32</v>
       </c>
-      <c r="E25" s="224">
+      <c r="E25" s="223">
         <v>1</v>
       </c>
-      <c r="F25" s="223" t="s">
+      <c r="F25" s="222" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="199"/>
-      <c r="H25" s="127" t="s">
+      <c r="G25" s="198"/>
+      <c r="H25" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="111">
+      <c r="I25" s="110">
         <v>32</v>
       </c>
       <c r="J25" s="82">
         <v>1</v>
       </c>
-      <c r="K25" s="200" t="s">
+      <c r="K25" s="199" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="294"/>
+      <c r="A26" s="298"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
@@ -4796,58 +4876,58 @@
       <c r="E26" s="10">
         <v>4</v>
       </c>
-      <c r="F26" s="195" t="s">
+      <c r="F26" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="196"/>
+      <c r="G26" s="195"/>
       <c r="H26" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="112">
+      <c r="I26" s="111">
         <v>16</v>
       </c>
       <c r="J26" s="12">
         <v>1</v>
       </c>
-      <c r="K26" s="100" t="s">
+      <c r="K26" s="99" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="294"/>
+      <c r="A27" s="298"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
-      <c r="C27" s="223" t="s">
+      <c r="C27" s="222" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="206">
+      <c r="D27" s="205">
         <v>32</v>
       </c>
-      <c r="E27" s="224">
+      <c r="E27" s="223">
         <v>1</v>
       </c>
-      <c r="F27" s="223" t="s">
+      <c r="F27" s="222" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="129">
+      <c r="G27" s="128">
         <v>1905028</v>
       </c>
-      <c r="H27" s="254" t="s">
+      <c r="H27" s="252" t="s">
         <v>165</v>
       </c>
-      <c r="I27" s="125">
+      <c r="I27" s="124">
         <v>32</v>
       </c>
-      <c r="J27" s="126">
+      <c r="J27" s="125">
         <v>2</v>
       </c>
-      <c r="K27" s="108" t="s">
+      <c r="K27" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="294"/>
+      <c r="A28" s="298"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
@@ -4860,29 +4940,29 @@
       <c r="E28" s="10">
         <v>1</v>
       </c>
-      <c r="F28" s="201" t="s">
+      <c r="F28" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="129">
+      <c r="G28" s="128">
         <v>1905048</v>
       </c>
-      <c r="H28" s="124" t="s">
+      <c r="H28" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28" s="124">
         <v>48</v>
       </c>
-      <c r="J28" s="126">
+      <c r="J28" s="125">
         <v>3</v>
       </c>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
-      <c r="A29" s="295"/>
+      <c r="A29" s="299"/>
       <c r="B29" s="94"/>
-      <c r="C29" s="142" t="s">
+      <c r="C29" s="141" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="26"/>
@@ -4897,76 +4977,76 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="293" t="s">
+      <c r="A30" s="297" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
         <v>3009004</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="206" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="5">
         <v>36</v>
       </c>
-      <c r="E30" s="208">
+      <c r="E30" s="207">
         <v>2</v>
       </c>
       <c r="F30" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="112">
         <v>1901035</v>
       </c>
-      <c r="H30" s="114" t="s">
+      <c r="H30" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="104">
+      <c r="I30" s="103">
         <v>64</v>
       </c>
-      <c r="J30" s="115">
+      <c r="J30" s="114">
         <v>3</v>
       </c>
-      <c r="K30" s="106" t="s">
+      <c r="K30" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="294"/>
+      <c r="A31" s="298"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="190" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="7">
         <f>18*E31</f>
         <v>108</v>
       </c>
-      <c r="E31" s="192">
+      <c r="E31" s="191">
         <v>6</v>
       </c>
       <c r="F31" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="129">
+      <c r="G31" s="128">
         <v>1905053</v>
       </c>
-      <c r="H31" s="194" t="s">
+      <c r="H31" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="255">
+      <c r="I31" s="253">
         <v>48</v>
       </c>
-      <c r="J31" s="256">
+      <c r="J31" s="254">
         <v>3</v>
       </c>
-      <c r="K31" s="108" t="s">
+      <c r="K31" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="294"/>
+      <c r="A32" s="298"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
@@ -4979,27 +5059,27 @@
       <c r="E32" s="10">
         <v>2.5</v>
       </c>
-      <c r="F32" s="201" t="s">
+      <c r="F32" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="129">
+      <c r="G32" s="128">
         <v>1905026</v>
       </c>
-      <c r="H32" s="193" t="s">
+      <c r="H32" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="117">
+      <c r="I32" s="116">
         <v>32</v>
       </c>
-      <c r="J32" s="118">
+      <c r="J32" s="117">
         <v>2</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="294"/>
+      <c r="A33" s="298"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
@@ -5012,75 +5092,75 @@
       <c r="E33" s="10">
         <v>1</v>
       </c>
-      <c r="F33" s="201" t="s">
+      <c r="F33" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="193" t="s">
+      <c r="H33" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="117" t="s">
+      <c r="I33" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="118" t="s">
+      <c r="J33" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="K33" s="108" t="s">
+      <c r="K33" s="107" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="294"/>
-      <c r="B34" s="209"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="129">
+      <c r="A34" s="298"/>
+      <c r="B34" s="208"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="128">
         <v>1905030</v>
       </c>
-      <c r="H34" s="193" t="s">
+      <c r="H34" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="117">
+      <c r="I34" s="116">
         <v>48</v>
       </c>
-      <c r="J34" s="118">
+      <c r="J34" s="117">
         <v>3</v>
       </c>
-      <c r="K34" s="108" t="s">
+      <c r="K34" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="294"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="129" t="s">
+      <c r="A35" s="298"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="116" t="s">
+      <c r="H35" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="I35" s="117" t="s">
+      <c r="I35" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="118" t="s">
+      <c r="J35" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="K35" s="108" t="s">
+      <c r="K35" s="107" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="295"/>
+      <c r="A36" s="299"/>
       <c r="B36" s="94"/>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="141" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="26"/>
@@ -5088,120 +5168,120 @@
       <c r="F36" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="226">
+      <c r="G36" s="225">
         <v>1905041</v>
       </c>
-      <c r="H36" s="227" t="s">
+      <c r="H36" s="226" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="228">
+      <c r="I36" s="227" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" s="131">
+        <v>2</v>
+      </c>
+      <c r="K36" s="228" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="297" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="212">
+        <v>3300003</v>
+      </c>
+      <c r="C37" s="213" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="214">
+        <v>18</v>
+      </c>
+      <c r="E37" s="215">
+        <v>1</v>
+      </c>
+      <c r="F37" s="216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="229"/>
+      <c r="H37" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="103">
         <v>32</v>
       </c>
-      <c r="J36" s="132">
+      <c r="J37" s="104">
         <v>2</v>
       </c>
-      <c r="K36" s="229" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="293" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="213">
-        <v>3300003</v>
-      </c>
-      <c r="C37" s="214" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="215">
-        <v>18</v>
-      </c>
-      <c r="E37" s="216">
-        <v>1</v>
-      </c>
-      <c r="F37" s="217" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="230"/>
-      <c r="H37" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="104">
-        <v>32</v>
-      </c>
-      <c r="J37" s="105">
-        <v>2</v>
-      </c>
-      <c r="K37" s="106" t="s">
+      <c r="K37" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="294"/>
-      <c r="B38" s="218">
+      <c r="A38" s="298"/>
+      <c r="B38" s="217">
         <v>1905046</v>
       </c>
-      <c r="C38" s="219" t="s">
+      <c r="C38" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="220">
+      <c r="D38" s="219">
         <v>48</v>
       </c>
-      <c r="E38" s="221">
+      <c r="E38" s="220">
         <v>3</v>
       </c>
-      <c r="F38" s="195" t="s">
+      <c r="F38" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="130">
+      <c r="G38" s="129">
         <v>1905025</v>
       </c>
-      <c r="H38" s="139" t="s">
+      <c r="H38" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="128">
+      <c r="I38" s="127">
         <v>32</v>
       </c>
       <c r="J38" s="82">
         <v>2</v>
       </c>
-      <c r="K38" s="131"/>
+      <c r="K38" s="130"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="294"/>
-      <c r="B39" s="218">
+      <c r="A39" s="298"/>
+      <c r="B39" s="217">
         <v>1905047</v>
       </c>
-      <c r="C39" s="223" t="s">
+      <c r="C39" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="206">
+      <c r="D39" s="205">
         <v>32</v>
       </c>
-      <c r="E39" s="224">
+      <c r="E39" s="223">
         <v>1</v>
       </c>
-      <c r="F39" s="223" t="s">
+      <c r="F39" s="222" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="129">
+      <c r="G39" s="128">
         <v>1905024</v>
       </c>
       <c r="H39" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="167">
+      <c r="I39" s="166">
         <v>48</v>
       </c>
-      <c r="J39" s="167">
+      <c r="J39" s="166">
         <v>3</v>
       </c>
-      <c r="K39" s="168"/>
+      <c r="K39" s="167"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="294"/>
-      <c r="B40" s="218">
+      <c r="A40" s="298"/>
+      <c r="B40" s="217">
         <v>1901015</v>
       </c>
       <c r="C40" s="30" t="s">
@@ -5210,60 +5290,60 @@
       <c r="D40" s="9">
         <v>64</v>
       </c>
-      <c r="E40" s="222">
+      <c r="E40" s="221">
         <v>4</v>
       </c>
-      <c r="F40" s="195" t="s">
+      <c r="F40" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="129"/>
-      <c r="H40" s="124" t="s">
+      <c r="G40" s="128"/>
+      <c r="H40" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="125" t="s">
+      <c r="I40" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="126" t="s">
+      <c r="J40" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="108" t="s">
+      <c r="K40" s="107" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="294"/>
-      <c r="B41" s="218">
+      <c r="A41" s="298"/>
+      <c r="B41" s="217">
         <v>1901016</v>
       </c>
-      <c r="C41" s="223" t="s">
+      <c r="C41" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="206">
+      <c r="D41" s="205">
         <v>40</v>
       </c>
-      <c r="E41" s="224">
+      <c r="E41" s="223">
         <v>1</v>
       </c>
-      <c r="F41" s="223" t="s">
+      <c r="F41" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="129"/>
-      <c r="H41" s="124" t="s">
+      <c r="G41" s="128"/>
+      <c r="H41" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="125" t="s">
+      <c r="I41" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="126" t="s">
+      <c r="J41" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="108" t="s">
+      <c r="K41" s="107" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="294"/>
-      <c r="B42" s="218">
+      <c r="A42" s="298"/>
+      <c r="B42" s="217">
         <v>1901013</v>
       </c>
       <c r="C42" s="30" t="s">
@@ -5272,163 +5352,163 @@
       <c r="D42" s="9">
         <v>48</v>
       </c>
-      <c r="E42" s="222">
+      <c r="E42" s="221">
         <v>3</v>
       </c>
-      <c r="F42" s="195" t="s">
+      <c r="F42" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="129"/>
-      <c r="H42" s="124" t="s">
+      <c r="G42" s="128"/>
+      <c r="H42" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="125" t="s">
+      <c r="I42" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="126" t="s">
+      <c r="J42" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="K42" s="108" t="s">
+      <c r="K42" s="107" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="294"/>
-      <c r="B43" s="218">
+      <c r="A43" s="298"/>
+      <c r="B43" s="217">
         <v>1901014</v>
       </c>
-      <c r="C43" s="223" t="s">
+      <c r="C43" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="206">
+      <c r="D43" s="205">
         <v>16</v>
       </c>
-      <c r="E43" s="224">
+      <c r="E43" s="223">
         <v>0.5</v>
       </c>
-      <c r="F43" s="223" t="s">
+      <c r="F43" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="129" t="s">
+      <c r="G43" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="124" t="s">
+      <c r="H43" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="125" t="s">
+      <c r="I43" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="J43" s="126" t="s">
+      <c r="J43" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="108"/>
+      <c r="K43" s="107"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="294"/>
-      <c r="B44" s="218"/>
+      <c r="A44" s="298"/>
+      <c r="B44" s="217"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="129" t="s">
+      <c r="F44" s="202"/>
+      <c r="G44" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="124" t="s">
+      <c r="H44" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="125" t="s">
+      <c r="I44" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="126" t="s">
+      <c r="J44" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="K44" s="108"/>
+      <c r="K44" s="107"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="295"/>
+      <c r="A45" s="299"/>
       <c r="B45" s="94"/>
-      <c r="C45" s="142" t="s">
+      <c r="C45" s="141" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="225" t="s">
+      <c r="F45" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="197"/>
-      <c r="H45" s="231"/>
-      <c r="I45" s="232"/>
-      <c r="J45" s="233"/>
-      <c r="K45" s="198"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="230"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="197"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="294" t="s">
+      <c r="A46" s="298" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="213">
+      <c r="B46" s="212">
         <v>3300005</v>
       </c>
-      <c r="C46" s="238" t="s">
+      <c r="C46" s="237" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="215">
+      <c r="D46" s="214">
         <v>18</v>
       </c>
-      <c r="E46" s="216">
+      <c r="E46" s="215">
         <v>1</v>
       </c>
-      <c r="F46" s="217" t="s">
+      <c r="F46" s="216" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="84"/>
-      <c r="H46" s="138" t="s">
+      <c r="H46" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="104">
+      <c r="I46" s="103">
         <v>16</v>
       </c>
-      <c r="J46" s="104">
+      <c r="J46" s="103">
         <v>1</v>
       </c>
-      <c r="K46" s="106" t="s">
+      <c r="K46" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="294"/>
-      <c r="B47" s="239">
+      <c r="A47" s="298"/>
+      <c r="B47" s="238">
         <v>1900103</v>
       </c>
-      <c r="C47" s="152" t="s">
+      <c r="C47" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="240">
+      <c r="E47" s="239">
         <v>1</v>
       </c>
-      <c r="F47" s="241" t="s">
+      <c r="F47" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="129">
+      <c r="G47" s="128">
         <v>1905037</v>
       </c>
-      <c r="H47" s="124" t="s">
+      <c r="H47" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="125">
+      <c r="I47" s="124">
         <v>48</v>
       </c>
-      <c r="J47" s="126">
+      <c r="J47" s="125">
         <v>3</v>
       </c>
-      <c r="K47" s="108" t="s">
+      <c r="K47" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="294"/>
+      <c r="A48" s="298"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
@@ -5441,22 +5521,22 @@
       <c r="E48" s="10">
         <v>3</v>
       </c>
-      <c r="F48" s="201" t="s">
+      <c r="F48" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="199">
+      <c r="G48" s="198">
         <v>1905038</v>
       </c>
-      <c r="H48" s="127" t="s">
+      <c r="H48" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="111">
+      <c r="I48" s="110">
         <v>16</v>
       </c>
       <c r="J48" s="82">
         <v>1</v>
       </c>
-      <c r="K48" s="200" t="s">
+      <c r="K48" s="199" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5474,64 +5554,64 @@
       <c r="E49" s="10">
         <v>1</v>
       </c>
-      <c r="F49" s="201" t="s">
+      <c r="F49" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="129">
-        <v>199173</v>
-      </c>
-      <c r="H49" s="124" t="s">
+      <c r="G49" s="128">
+        <v>1901036</v>
+      </c>
+      <c r="H49" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="125">
+      <c r="I49" s="124">
         <v>32</v>
       </c>
-      <c r="J49" s="126">
+      <c r="J49" s="125">
         <v>2</v>
       </c>
-      <c r="K49" s="108"/>
+      <c r="K49" s="107"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="39"/>
-      <c r="B50" s="209"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="212"/>
-      <c r="G50" s="129">
-        <v>199621</v>
-      </c>
-      <c r="H50" s="124" t="s">
+      <c r="B50" s="208"/>
+      <c r="C50" s="209"/>
+      <c r="D50" s="210"/>
+      <c r="E50" s="210"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="128">
+        <v>1904020</v>
+      </c>
+      <c r="H50" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="125">
+      <c r="I50" s="124">
         <v>32</v>
       </c>
-      <c r="J50" s="126">
+      <c r="J50" s="125">
         <v>2</v>
       </c>
-      <c r="K50" s="108"/>
+      <c r="K50" s="107"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="39"/>
-      <c r="B51" s="209"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="211"/>
-      <c r="F51" s="212"/>
-      <c r="G51" s="129">
-        <v>199622</v>
-      </c>
-      <c r="H51" s="124" t="s">
+      <c r="B51" s="208"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="210"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="128">
+        <v>1904021</v>
+      </c>
+      <c r="H51" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="125">
+      <c r="I51" s="124">
         <v>32</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="125">
         <v>1</v>
       </c>
-      <c r="K51" s="108"/>
+      <c r="K51" s="107"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="39"/>
@@ -5539,43 +5619,43 @@
       <c r="C52" s="21"/>
       <c r="D52" s="25"/>
       <c r="E52" s="38"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="199">
+      <c r="F52" s="202"/>
+      <c r="G52" s="198">
         <v>1905041</v>
       </c>
-      <c r="H52" s="127" t="s">
+      <c r="H52" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="I52" s="111">
-        <v>32</v>
+      <c r="I52" s="110" t="s">
+        <v>205</v>
       </c>
       <c r="J52" s="82">
         <v>2</v>
       </c>
-      <c r="K52" s="200" t="s">
+      <c r="K52" s="199" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="171"/>
-      <c r="B53" s="249"/>
-      <c r="C53" s="250"/>
-      <c r="D53" s="251"/>
-      <c r="E53" s="252"/>
-      <c r="F53" s="253"/>
+      <c r="A53" s="170"/>
+      <c r="B53" s="247"/>
+      <c r="C53" s="248"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="250"/>
+      <c r="F53" s="251"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="171"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="250"/>
-      <c r="D54" s="251"/>
-      <c r="E54" s="252"/>
-      <c r="F54" s="253"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="247"/>
+      <c r="C54" s="248"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="250"/>
+      <c r="F54" s="251"/>
     </row>
     <row r="55" spans="1:11" ht="15" thickBot="1">
       <c r="A55" s="40"/>
       <c r="B55" s="94"/>
-      <c r="C55" s="142" t="s">
+      <c r="C55" s="141" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="32"/>
@@ -5583,7 +5663,7 @@
       <c r="F55" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="197" t="s">
+      <c r="G55" s="196" t="s">
         <v>89</v>
       </c>
       <c r="H55" s="42" t="s">
@@ -5598,135 +5678,135 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="293" t="s">
+      <c r="A56" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="175">
+      <c r="B56" s="174">
         <v>1900104</v>
       </c>
-      <c r="C56" s="176" t="s">
+      <c r="C56" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="175" t="s">
+      <c r="D56" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="177">
+      <c r="E56" s="176">
         <v>3</v>
       </c>
-      <c r="F56" s="235" t="s">
+      <c r="F56" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="237"/>
-      <c r="H56" s="138" t="s">
+      <c r="G56" s="236"/>
+      <c r="H56" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="104">
+      <c r="I56" s="103">
         <v>16</v>
       </c>
-      <c r="J56" s="115">
+      <c r="J56" s="114">
         <v>1</v>
       </c>
-      <c r="K56" s="106" t="s">
+      <c r="K56" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="294"/>
-      <c r="B57" s="175">
+      <c r="A57" s="298"/>
+      <c r="B57" s="174">
         <v>1900105</v>
       </c>
-      <c r="C57" s="176" t="s">
+      <c r="C57" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="175" t="s">
+      <c r="D57" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="177">
+      <c r="E57" s="176">
         <v>1</v>
       </c>
-      <c r="F57" s="234" t="s">
+      <c r="F57" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="129"/>
+      <c r="G57" s="128"/>
       <c r="H57" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I57" s="167" t="s">
+      <c r="I57" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="J57" s="167" t="s">
+      <c r="J57" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="K57" s="168" t="s">
+      <c r="K57" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="294"/>
-      <c r="B58" s="175">
+      <c r="A58" s="298"/>
+      <c r="B58" s="174">
         <v>1900107</v>
       </c>
-      <c r="C58" s="176" t="s">
+      <c r="C58" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="177">
+      <c r="E58" s="176">
         <v>1</v>
       </c>
-      <c r="F58" s="234" t="s">
+      <c r="F58" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="129" t="s">
+      <c r="G58" s="128" t="s">
         <v>157</v>
       </c>
       <c r="H58" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I58" s="167" t="s">
+      <c r="I58" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="167" t="s">
+      <c r="J58" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="K58" s="168" t="s">
+      <c r="K58" s="167" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="294"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="180" t="s">
+      <c r="A59" s="298"/>
+      <c r="B59" s="178"/>
+      <c r="C59" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="181" t="s">
+      <c r="D59" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="182">
+      <c r="E59" s="181">
         <v>2</v>
       </c>
-      <c r="F59" s="236" t="s">
+      <c r="F59" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="129" t="s">
+      <c r="G59" s="128" t="s">
         <v>157</v>
       </c>
       <c r="H59" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I59" s="167" t="s">
+      <c r="I59" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="J59" s="167" t="s">
+      <c r="J59" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="K59" s="168" t="s">
+      <c r="K59" s="167" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="294"/>
+      <c r="A60" s="298"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
         <v>101</v>
@@ -5737,25 +5817,25 @@
       <c r="E60" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="119" t="s">
+      <c r="F60" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="129" t="s">
+      <c r="G60" s="128" t="s">
         <v>157</v>
       </c>
       <c r="H60" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I60" s="167" t="s">
+      <c r="I60" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="J60" s="167" t="s">
+      <c r="J60" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="K60" s="168"/>
+      <c r="K60" s="167"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="294"/>
+      <c r="A61" s="298"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
         <v>87</v>
@@ -5766,25 +5846,25 @@
       <c r="E61" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="119" t="s">
+      <c r="F61" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="129" t="s">
+      <c r="G61" s="128" t="s">
         <v>157</v>
       </c>
       <c r="H61" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I61" s="167" t="s">
+      <c r="I61" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="J61" s="167" t="s">
+      <c r="J61" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="K61" s="168"/>
+      <c r="K61" s="167"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="294"/>
+      <c r="A62" s="298"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
         <v>95</v>
@@ -5795,31 +5875,31 @@
       <c r="E62" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="119" t="s">
+      <c r="F62" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="G62" s="129" t="s">
+      <c r="G62" s="128" t="s">
         <v>112</v>
       </c>
       <c r="H62" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I62" s="167" t="s">
+      <c r="I62" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="J62" s="167" t="s">
+      <c r="J62" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="K62" s="168"/>
+      <c r="K62" s="167"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1">
-      <c r="A63" s="295"/>
+      <c r="A63" s="299"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
       <c r="E63" s="38"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="197">
+      <c r="F63" s="118"/>
+      <c r="G63" s="196">
         <v>199650</v>
       </c>
       <c r="H63" s="42" t="s">
@@ -5837,22 +5917,22 @@
       <c r="A64" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="183">
+      <c r="B64" s="182">
         <v>1900106</v>
       </c>
-      <c r="C64" s="184" t="s">
+      <c r="C64" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="183" t="s">
+      <c r="D64" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="185">
+      <c r="E64" s="184">
         <v>3</v>
       </c>
-      <c r="F64" s="178" t="s">
+      <c r="F64" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="G64" s="121"/>
+      <c r="G64" s="120"/>
       <c r="H64" s="44" t="s">
         <v>171</v>
       </c>
@@ -5860,28 +5940,28 @@
       <c r="J64" s="46">
         <v>5</v>
       </c>
-      <c r="K64" s="122"/>
+      <c r="K64" s="121"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1">
       <c r="A65" s="47"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="187" t="s">
+      <c r="B65" s="185"/>
+      <c r="C65" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="188" t="s">
+      <c r="D65" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="189">
+      <c r="E65" s="188">
         <v>1</v>
       </c>
-      <c r="F65" s="190" t="s">
+      <c r="F65" s="189" t="s">
         <v>143</v>
       </c>
-      <c r="G65" s="120"/>
+      <c r="G65" s="119"/>
       <c r="H65" s="42"/>
       <c r="I65" s="43"/>
       <c r="J65" s="43"/>
-      <c r="K65" s="123"/>
+      <c r="K65" s="122"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1">
       <c r="A66" s="48"/>
@@ -5971,34 +6051,34 @@
       <c r="J71" s="64"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="144" t="s">
+      <c r="A72" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="145"/>
-      <c r="C72" s="296" t="s">
+      <c r="B72" s="144"/>
+      <c r="C72" s="288" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="297"/>
-      <c r="E72" s="298"/>
-      <c r="F72" s="296" t="s">
+      <c r="D72" s="289"/>
+      <c r="E72" s="290"/>
+      <c r="F72" s="288" t="s">
         <v>118</v>
       </c>
-      <c r="G72" s="297"/>
-      <c r="H72" s="298"/>
-      <c r="I72" s="299" t="s">
+      <c r="G72" s="289"/>
+      <c r="H72" s="290"/>
+      <c r="I72" s="291" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="299"/>
-      <c r="K72" s="300"/>
+      <c r="J72" s="291"/>
+      <c r="K72" s="292"/>
     </row>
     <row r="73" spans="1:11" ht="26">
-      <c r="A73" s="146">
+      <c r="A73" s="145">
         <v>1</v>
       </c>
       <c r="B73" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="147" t="s">
+      <c r="C73" s="146" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="68">
@@ -6009,130 +6089,130 @@
         <f>SUM(E4,E5,E13,E14,E15,E22,E23,E30,E31)</f>
         <v>24</v>
       </c>
-      <c r="F73" s="148" t="s">
+      <c r="F73" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="149">
+      <c r="G73" s="148">
         <f>SUM(D32:D33,D60,D68)</f>
         <v>72</v>
       </c>
-      <c r="H73" s="150">
+      <c r="H73" s="149">
         <v>18</v>
       </c>
-      <c r="I73" s="301" t="s">
+      <c r="I73" s="293" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="302"/>
-      <c r="K73" s="303"/>
+      <c r="J73" s="294"/>
+      <c r="K73" s="295"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="304">
+      <c r="A74" s="280">
         <v>2</v>
       </c>
-      <c r="B74" s="305" t="s">
+      <c r="B74" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="151"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="152" t="s">
+      <c r="C74" s="150"/>
+      <c r="D74" s="150"/>
+      <c r="E74" s="150"/>
+      <c r="F74" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="151"/>
-      <c r="H74" s="153">
+      <c r="G74" s="150"/>
+      <c r="H74" s="152">
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="I74" s="307"/>
-      <c r="J74" s="307"/>
-      <c r="K74" s="308"/>
+      <c r="I74" s="284"/>
+      <c r="J74" s="284"/>
+      <c r="K74" s="285"/>
     </row>
     <row r="75" spans="1:11" ht="26">
-      <c r="A75" s="304"/>
-      <c r="B75" s="306"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="155"/>
-      <c r="F75" s="156" t="s">
+      <c r="A75" s="280"/>
+      <c r="B75" s="281"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="154"/>
+      <c r="F75" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="G75" s="155"/>
-      <c r="H75" s="155">
+      <c r="G75" s="154"/>
+      <c r="H75" s="154">
         <v>5</v>
       </c>
-      <c r="I75" s="307"/>
-      <c r="J75" s="307"/>
-      <c r="K75" s="308"/>
+      <c r="I75" s="284"/>
+      <c r="J75" s="284"/>
+      <c r="K75" s="285"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="304">
+      <c r="A76" s="280">
         <v>3</v>
       </c>
-      <c r="B76" s="306" t="s">
+      <c r="B76" s="281" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="157" t="s">
+      <c r="C76" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="D76" s="158"/>
-      <c r="E76" s="159">
+      <c r="D76" s="157"/>
+      <c r="E76" s="158">
         <f>SUM(E9+E12+E17+E24+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+E48+E49)</f>
         <v>40</v>
       </c>
-      <c r="F76" s="160" t="s">
+      <c r="F76" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="G76" s="161"/>
-      <c r="H76" s="161">
+      <c r="G76" s="160"/>
+      <c r="H76" s="160">
         <v>26</v>
       </c>
-      <c r="I76" s="309"/>
-      <c r="J76" s="309"/>
-      <c r="K76" s="310"/>
+      <c r="I76" s="282"/>
+      <c r="J76" s="282"/>
+      <c r="K76" s="283"/>
     </row>
     <row r="77" spans="1:11" ht="26">
-      <c r="A77" s="304"/>
-      <c r="B77" s="306"/>
-      <c r="C77" s="157" t="s">
+      <c r="A77" s="280"/>
+      <c r="B77" s="281"/>
+      <c r="C77" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="158"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="162" t="s">
+      <c r="D77" s="157"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="161" t="s">
         <v>130</v>
       </c>
       <c r="G77" s="31"/>
       <c r="H77" s="69"/>
-      <c r="I77" s="307"/>
-      <c r="J77" s="307"/>
-      <c r="K77" s="308"/>
+      <c r="I77" s="284"/>
+      <c r="J77" s="284"/>
+      <c r="K77" s="285"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="164">
+      <c r="B78" s="163">
         <f>E78+H74+H73+H75+H76</f>
         <v>123</v>
       </c>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="164">
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="163">
         <f>SUM(E73:E76)</f>
         <v>64</v>
       </c>
-      <c r="F78" s="165">
+      <c r="F78" s="164">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G78" s="165"/>
-      <c r="H78" s="164">
+      <c r="G78" s="164"/>
+      <c r="H78" s="163">
         <f>SUM(H73:H77)</f>
         <v>59</v>
       </c>
-      <c r="I78" s="311"/>
-      <c r="J78" s="311"/>
-      <c r="K78" s="312"/>
+      <c r="I78" s="286"/>
+      <c r="J78" s="286"/>
+      <c r="K78" s="287"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="63"/>
@@ -6180,11 +6260,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="F72:H72"/>
     <mergeCell ref="I72:K72"/>
@@ -6193,17 +6279,11 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="I74:K74"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6221,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="C40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6241,41 +6321,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="300" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="285" t="s">
+      <c r="B2" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="288" t="s">
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="306" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="313"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="311"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="284"/>
+      <c r="A3" s="302"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6308,13 +6388,13 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="309" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
         <v>309001</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5">
@@ -6326,28 +6406,28 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="277">
+      <c r="G4" s="275">
         <v>1901023</v>
       </c>
-      <c r="H4" s="278" t="s">
+      <c r="H4" s="276" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="279">
+      <c r="I4" s="277">
         <v>32</v>
       </c>
-      <c r="J4" s="280">
+      <c r="J4" s="278">
         <v>1</v>
       </c>
-      <c r="K4" s="281" t="s">
+      <c r="K4" s="279" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="292"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7">
@@ -6361,7 +6441,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="85"/>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="134" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="12">
@@ -6370,16 +6450,16 @@
       <c r="J5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="292"/>
-      <c r="B6" s="101">
+      <c r="A6" s="310"/>
+      <c r="B6" s="100">
         <v>330001</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12">
@@ -6388,13 +6468,13 @@
       <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="134" t="s">
         <v>132</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -6403,16 +6483,16 @@
       <c r="J6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="99" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="292"/>
-      <c r="B7" s="101">
+      <c r="A7" s="310"/>
+      <c r="B7" s="100">
         <v>1900110</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="134" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12">
@@ -6421,21 +6501,21 @@
       <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="258"/>
+      <c r="K7" s="256"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="292"/>
-      <c r="B8" s="101">
+      <c r="A8" s="310"/>
+      <c r="B8" s="100">
         <v>310017</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="134" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12">
@@ -6445,17 +6525,17 @@
       <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="258"/>
+      <c r="K8" s="256"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="292"/>
+      <c r="A9" s="310"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -6468,17 +6548,17 @@
       <c r="E9" s="76">
         <v>2</v>
       </c>
-      <c r="F9" s="195" t="s">
+      <c r="F9" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="102"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="258"/>
+      <c r="K9" s="256"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="292"/>
+      <c r="A10" s="310"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -6487,34 +6567,34 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="195" t="s">
+      <c r="F10" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="102"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="258"/>
+      <c r="K10" s="256"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="292"/>
+      <c r="A11" s="310"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="195" t="s">
+      <c r="F11" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="103"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="78"/>
       <c r="I11" s="79"/>
       <c r="J11" s="79"/>
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="292"/>
+      <c r="A12" s="310"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -6527,23 +6607,23 @@
       <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="195" t="s">
+      <c r="F12" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="103"/>
+      <c r="G12" s="102"/>
       <c r="H12" s="78"/>
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
-      <c r="A13" s="293" t="s">
+      <c r="A13" s="297" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
         <v>309002</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="139" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5">
@@ -6555,26 +6635,26 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="243">
+      <c r="G13" s="242">
         <v>1902060</v>
       </c>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="133">
+      <c r="J13" s="132">
         <v>2</v>
       </c>
-      <c r="K13" s="106"/>
+      <c r="K13" s="105"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="294"/>
+      <c r="A14" s="298"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="140" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7">
@@ -6587,28 +6667,28 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="243">
+      <c r="G14" s="242">
         <v>1300004</v>
       </c>
-      <c r="H14" s="137" t="s">
+      <c r="H14" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="107">
+      <c r="I14" s="106">
         <v>54</v>
       </c>
-      <c r="J14" s="107">
+      <c r="J14" s="106">
         <v>3</v>
       </c>
-      <c r="K14" s="108" t="s">
+      <c r="K14" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="294"/>
+      <c r="A15" s="298"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -6621,48 +6701,48 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="277">
+      <c r="G15" s="275">
         <v>1300008</v>
       </c>
-      <c r="H15" s="278" t="s">
+      <c r="H15" s="276" t="s">
         <v>177</v>
       </c>
-      <c r="I15" s="279">
+      <c r="I15" s="277">
         <v>32</v>
       </c>
-      <c r="J15" s="280">
+      <c r="J15" s="278">
         <v>1</v>
       </c>
-      <c r="K15" s="281" t="s">
+      <c r="K15" s="279" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="294"/>
-      <c r="B16" s="239">
+      <c r="A16" s="298"/>
+      <c r="B16" s="238">
         <v>1900102</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <v>1</v>
       </c>
-      <c r="F16" s="241" t="s">
+      <c r="F16" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
-      <c r="I16" s="272"/>
-      <c r="J16" s="272"/>
-      <c r="K16" s="274"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="270"/>
+      <c r="J16" s="270"/>
+      <c r="K16" s="272"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="294"/>
-      <c r="B17" s="202">
+      <c r="A17" s="298"/>
+      <c r="B17" s="201">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -6674,94 +6754,94 @@
       <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="F17" s="203" t="s">
+      <c r="F17" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="245"/>
+      <c r="G17" s="243"/>
       <c r="H17" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="112">
+      <c r="I17" s="111">
         <v>32</v>
       </c>
       <c r="J17" s="12">
         <v>2</v>
       </c>
-      <c r="K17" s="100" t="s">
+      <c r="K17" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="294"/>
-      <c r="B18" s="245">
+      <c r="A18" s="298"/>
+      <c r="B18" s="243">
         <v>1900111</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="111">
         <v>80</v>
       </c>
       <c r="E18" s="12">
         <v>4</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
-      <c r="I18" s="272"/>
-      <c r="J18" s="272"/>
-      <c r="K18" s="274"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="270"/>
+      <c r="K18" s="272"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="294"/>
+      <c r="A19" s="298"/>
       <c r="B19" s="87">
         <v>1901002</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="107">
+      <c r="D19" s="106">
         <v>54</v>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="108">
         <v>3</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
-      <c r="I19" s="272"/>
-      <c r="J19" s="272"/>
-      <c r="K19" s="274"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
+      <c r="K19" s="272"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="294"/>
+      <c r="A20" s="298"/>
       <c r="B20" s="87">
         <v>1900112</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="106">
         <v>64</v>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="108">
         <v>3</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="272"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="272"/>
-      <c r="J20" s="272"/>
-      <c r="K20" s="274"/>
+      <c r="G20" s="270"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="270"/>
+      <c r="J20" s="270"/>
+      <c r="K20" s="272"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="294"/>
+      <c r="A21" s="298"/>
       <c r="B21" s="87">
         <v>1905045</v>
       </c>
@@ -6774,50 +6854,50 @@
       <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="195" t="s">
+      <c r="F21" s="194" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="246"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="111"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="82"/>
-      <c r="K21" s="200"/>
+      <c r="K21" s="199"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="295"/>
+      <c r="A22" s="299"/>
       <c r="B22" s="94"/>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="172" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="204" t="s">
+      <c r="E22" s="173"/>
+      <c r="F22" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="277">
+      <c r="G22" s="275">
         <v>1905039</v>
       </c>
-      <c r="H22" s="278" t="s">
+      <c r="H22" s="276" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="279" t="s">
+      <c r="I22" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="280">
+      <c r="J22" s="278">
         <v>3</v>
       </c>
-      <c r="K22" s="281" t="s">
+      <c r="K22" s="279" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="293" t="s">
+      <c r="A23" s="297" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
         <v>309003</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="142" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="5">
@@ -6832,25 +6912,25 @@
       <c r="G23" s="84">
         <v>1900113</v>
       </c>
-      <c r="H23" s="138" t="s">
+      <c r="H23" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="104">
+      <c r="I23" s="103">
         <v>64</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="104">
         <v>3</v>
       </c>
-      <c r="K23" s="106" t="s">
+      <c r="K23" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="294"/>
+      <c r="A24" s="298"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="140" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="7">
@@ -6864,21 +6944,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="85"/>
-      <c r="H24" s="137" t="s">
+      <c r="H24" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="107">
+      <c r="I24" s="106">
         <v>40</v>
       </c>
-      <c r="J24" s="109">
+      <c r="J24" s="108">
         <v>2.5</v>
       </c>
-      <c r="K24" s="108" t="s">
+      <c r="K24" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="294"/>
+      <c r="A25" s="298"/>
       <c r="B25" s="87">
         <v>1901007</v>
       </c>
@@ -6891,56 +6971,56 @@
       <c r="E25" s="10">
         <v>3</v>
       </c>
-      <c r="F25" s="195" t="s">
+      <c r="F25" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="277">
+      <c r="G25" s="275">
         <v>1905029</v>
       </c>
-      <c r="H25" s="278" t="s">
+      <c r="H25" s="276" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="279">
-        <v>48</v>
-      </c>
-      <c r="J25" s="280">
+      <c r="I25" s="277" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="278">
         <v>3</v>
       </c>
-      <c r="K25" s="281"/>
+      <c r="K25" s="279"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="294"/>
-      <c r="B26" s="205">
+      <c r="A26" s="298"/>
+      <c r="B26" s="204">
         <v>1901008</v>
       </c>
-      <c r="C26" s="223" t="s">
+      <c r="C26" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="206">
+      <c r="D26" s="205">
         <v>32</v>
       </c>
-      <c r="E26" s="224">
+      <c r="E26" s="223">
         <v>1</v>
       </c>
-      <c r="F26" s="223" t="s">
+      <c r="F26" s="222" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="277"/>
-      <c r="H26" s="278" t="s">
+      <c r="G26" s="275"/>
+      <c r="H26" s="276" t="s">
         <v>179</v>
       </c>
-      <c r="I26" s="279">
+      <c r="I26" s="277">
         <v>32</v>
       </c>
-      <c r="J26" s="280">
+      <c r="J26" s="278">
         <v>1</v>
       </c>
-      <c r="K26" s="281" t="s">
+      <c r="K26" s="279" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="294"/>
+      <c r="A27" s="298"/>
       <c r="B27" s="87">
         <v>1901006</v>
       </c>
@@ -6953,78 +7033,78 @@
       <c r="E27" s="10">
         <v>4</v>
       </c>
-      <c r="F27" s="195" t="s">
+      <c r="F27" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="196"/>
+      <c r="G27" s="195"/>
       <c r="H27" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="112">
+      <c r="I27" s="111">
         <v>16</v>
       </c>
       <c r="J27" s="12">
         <v>1</v>
       </c>
-      <c r="K27" s="100" t="s">
+      <c r="K27" s="99" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="294"/>
+      <c r="A28" s="298"/>
       <c r="B28" s="87">
         <v>1901007</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="222" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="206">
+      <c r="D28" s="205">
         <v>32</v>
       </c>
-      <c r="E28" s="224">
+      <c r="E28" s="223">
         <v>1</v>
       </c>
-      <c r="F28" s="223" t="s">
+      <c r="F28" s="222" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="129">
+      <c r="G28" s="128">
         <v>1905028</v>
       </c>
-      <c r="H28" s="254" t="s">
+      <c r="H28" s="252" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28" s="124">
         <v>32</v>
       </c>
-      <c r="J28" s="126">
+      <c r="J28" s="125">
         <v>2</v>
       </c>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="294"/>
-      <c r="G29" s="129">
+      <c r="A29" s="298"/>
+      <c r="G29" s="128">
         <v>1905048</v>
       </c>
-      <c r="H29" s="124" t="s">
+      <c r="H29" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="125">
+      <c r="I29" s="124">
         <v>48</v>
       </c>
-      <c r="J29" s="126">
+      <c r="J29" s="125">
         <v>3</v>
       </c>
-      <c r="K29" s="108" t="s">
+      <c r="K29" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="295"/>
+      <c r="A30" s="299"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="141" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="26"/>
@@ -7042,79 +7122,79 @@
       <c r="J30" s="10">
         <v>3</v>
       </c>
-      <c r="K30" s="271" t="s">
+      <c r="K30" s="269" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="293" t="s">
+      <c r="A31" s="297" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
         <v>3009004</v>
       </c>
-      <c r="C31" s="207" t="s">
+      <c r="C31" s="206" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
       </c>
-      <c r="E31" s="208">
+      <c r="E31" s="207">
         <v>2</v>
       </c>
       <c r="F31" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="113"/>
-      <c r="H31" s="114" t="s">
+      <c r="G31" s="112"/>
+      <c r="H31" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="104">
+      <c r="I31" s="103">
         <v>64</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="114">
         <v>3</v>
       </c>
-      <c r="K31" s="106" t="s">
+      <c r="K31" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="294"/>
+      <c r="A32" s="298"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="190" t="s">
         <v>147</v>
       </c>
       <c r="D32" s="7">
         <f>18*E32</f>
         <v>108</v>
       </c>
-      <c r="E32" s="192">
+      <c r="E32" s="191">
         <v>6</v>
       </c>
       <c r="F32" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="129">
+      <c r="G32" s="128">
         <v>1905053</v>
       </c>
-      <c r="H32" s="194" t="s">
+      <c r="H32" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="255">
+      <c r="I32" s="253">
         <v>48</v>
       </c>
-      <c r="J32" s="256">
+      <c r="J32" s="254">
         <v>3</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="294"/>
+      <c r="A33" s="298"/>
       <c r="B33" s="93">
         <v>1905010</v>
       </c>
@@ -7128,24 +7208,24 @@
         <v>3</v>
       </c>
       <c r="F33" s="83"/>
-      <c r="G33" s="129">
+      <c r="G33" s="128">
         <v>1905026</v>
       </c>
-      <c r="H33" s="193" t="s">
+      <c r="H33" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="I33" s="117">
+      <c r="I33" s="116">
         <v>48</v>
       </c>
-      <c r="J33" s="118">
+      <c r="J33" s="117">
         <v>3</v>
       </c>
-      <c r="K33" s="108" t="s">
+      <c r="K33" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="294"/>
+      <c r="A34" s="298"/>
       <c r="B34" s="93">
         <v>1905011</v>
       </c>
@@ -7159,66 +7239,66 @@
         <v>1</v>
       </c>
       <c r="F34" s="83"/>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="193" t="s">
+      <c r="H34" s="192" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="117" t="s">
+      <c r="I34" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="J34" s="118" t="s">
+      <c r="J34" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="K34" s="108" t="s">
+      <c r="K34" s="107" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="294"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="129">
+      <c r="A35" s="298"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="128">
         <v>1905030</v>
       </c>
-      <c r="H35" s="193" t="s">
+      <c r="H35" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="117">
+      <c r="I35" s="116">
         <v>48</v>
       </c>
-      <c r="J35" s="118">
+      <c r="J35" s="117">
         <v>3</v>
       </c>
-      <c r="K35" s="108" t="s">
+      <c r="K35" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="294"/>
-      <c r="B36" s="209"/>
-      <c r="C36" s="210"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="129" t="s">
+      <c r="A36" s="298"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="108" t="s">
+      <c r="H36" s="115"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="295"/>
+      <c r="A37" s="299"/>
       <c r="B37" s="94"/>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="141" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="26"/>
@@ -7226,120 +7306,120 @@
       <c r="F37" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="277">
+      <c r="G37" s="275">
         <v>199641</v>
       </c>
-      <c r="H37" s="278" t="s">
+      <c r="H37" s="276" t="s">
         <v>180</v>
       </c>
-      <c r="I37" s="279">
+      <c r="I37" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="J37" s="278">
+        <v>2</v>
+      </c>
+      <c r="K37" s="279" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="297" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="212">
+        <v>3300003</v>
+      </c>
+      <c r="C38" s="213" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="214">
+        <v>18</v>
+      </c>
+      <c r="E38" s="215">
+        <v>1</v>
+      </c>
+      <c r="F38" s="216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="229"/>
+      <c r="H38" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="103">
         <v>32</v>
       </c>
-      <c r="J37" s="280">
+      <c r="J38" s="104">
         <v>2</v>
       </c>
-      <c r="K37" s="281" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="293" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="213">
-        <v>3300003</v>
-      </c>
-      <c r="C38" s="214" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="215">
-        <v>18</v>
-      </c>
-      <c r="E38" s="216">
+      <c r="K38" s="105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="298"/>
+      <c r="B39" s="217">
+        <v>1905046</v>
+      </c>
+      <c r="C39" s="218" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="219">
+        <v>48</v>
+      </c>
+      <c r="E39" s="220">
+        <v>3</v>
+      </c>
+      <c r="F39" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="275">
+        <v>199625</v>
+      </c>
+      <c r="H39" s="276" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="277">
+        <v>32</v>
+      </c>
+      <c r="J39" s="278">
+        <v>2</v>
+      </c>
+      <c r="K39" s="279"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="298"/>
+      <c r="B40" s="217">
+        <v>1905047</v>
+      </c>
+      <c r="C40" s="222" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="205">
+        <v>32</v>
+      </c>
+      <c r="E40" s="223">
         <v>1</v>
       </c>
-      <c r="F38" s="217" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="230"/>
-      <c r="H38" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="104">
-        <v>32</v>
-      </c>
-      <c r="J38" s="105">
-        <v>2</v>
-      </c>
-      <c r="K38" s="106" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="294"/>
-      <c r="B39" s="218">
-        <v>1905046</v>
-      </c>
-      <c r="C39" s="219" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="220">
-        <v>48</v>
-      </c>
-      <c r="E39" s="221">
-        <v>3</v>
-      </c>
-      <c r="F39" s="195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="277">
-        <v>199625</v>
-      </c>
-      <c r="H39" s="278" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" s="279">
-        <v>32</v>
-      </c>
-      <c r="J39" s="280">
-        <v>2</v>
-      </c>
-      <c r="K39" s="281"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="294"/>
-      <c r="B40" s="218">
-        <v>1905047</v>
-      </c>
-      <c r="C40" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="206">
-        <v>32</v>
-      </c>
-      <c r="E40" s="224">
-        <v>1</v>
-      </c>
-      <c r="F40" s="223" t="s">
+      <c r="F40" s="222" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="129">
+      <c r="G40" s="128">
         <v>199624</v>
       </c>
       <c r="H40" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="257">
+      <c r="I40" s="255">
         <v>48</v>
       </c>
-      <c r="J40" s="257">
+      <c r="J40" s="255">
         <v>3</v>
       </c>
-      <c r="K40" s="258"/>
+      <c r="K40" s="256"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="294"/>
-      <c r="B41" s="218">
+      <c r="A41" s="298"/>
+      <c r="B41" s="217">
         <v>1901015</v>
       </c>
       <c r="C41" s="30" t="s">
@@ -7348,60 +7428,60 @@
       <c r="D41" s="9">
         <v>64</v>
       </c>
-      <c r="E41" s="222">
+      <c r="E41" s="221">
         <v>4</v>
       </c>
-      <c r="F41" s="195" t="s">
+      <c r="F41" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="129"/>
-      <c r="H41" s="124" t="s">
+      <c r="G41" s="128"/>
+      <c r="H41" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="125" t="s">
+      <c r="I41" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="J41" s="126" t="s">
+      <c r="J41" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="108" t="s">
+      <c r="K41" s="107" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="294"/>
-      <c r="B42" s="218">
+      <c r="A42" s="298"/>
+      <c r="B42" s="217">
         <v>1901016</v>
       </c>
-      <c r="C42" s="223" t="s">
+      <c r="C42" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="206">
+      <c r="D42" s="205">
         <v>40</v>
       </c>
-      <c r="E42" s="224">
+      <c r="E42" s="223">
         <v>1</v>
       </c>
-      <c r="F42" s="223" t="s">
+      <c r="F42" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="129"/>
-      <c r="H42" s="124" t="s">
+      <c r="G42" s="128"/>
+      <c r="H42" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="I42" s="125" t="s">
+      <c r="I42" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="J42" s="126" t="s">
+      <c r="J42" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="108" t="s">
+      <c r="K42" s="107" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="294"/>
-      <c r="B43" s="218">
+      <c r="A43" s="298"/>
+      <c r="B43" s="217">
         <v>1901013</v>
       </c>
       <c r="C43" s="30" t="s">
@@ -7410,163 +7490,163 @@
       <c r="D43" s="9">
         <v>48</v>
       </c>
-      <c r="E43" s="222">
+      <c r="E43" s="221">
         <v>3</v>
       </c>
-      <c r="F43" s="195" t="s">
+      <c r="F43" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="129"/>
-      <c r="H43" s="124" t="s">
+      <c r="G43" s="128"/>
+      <c r="H43" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="125" t="s">
+      <c r="I43" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="J43" s="126" t="s">
+      <c r="J43" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="K43" s="108" t="s">
+      <c r="K43" s="107" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="294"/>
-      <c r="B44" s="218">
+      <c r="A44" s="298"/>
+      <c r="B44" s="217">
         <v>1901014</v>
       </c>
-      <c r="C44" s="223" t="s">
+      <c r="C44" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="206">
+      <c r="D44" s="205">
         <v>16</v>
       </c>
-      <c r="E44" s="224">
+      <c r="E44" s="223">
         <v>0.5</v>
       </c>
-      <c r="F44" s="223" t="s">
+      <c r="F44" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="124" t="s">
+      <c r="H44" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="125" t="s">
+      <c r="I44" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="J44" s="126" t="s">
+      <c r="J44" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="K44" s="108"/>
+      <c r="K44" s="107"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="294"/>
-      <c r="B45" s="218"/>
+      <c r="A45" s="298"/>
+      <c r="B45" s="217"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="129" t="s">
+      <c r="F45" s="202"/>
+      <c r="G45" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="124" t="s">
+      <c r="H45" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="I45" s="125" t="s">
+      <c r="I45" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="J45" s="126" t="s">
+      <c r="J45" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="108"/>
+      <c r="K45" s="107"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1">
-      <c r="A46" s="295"/>
+      <c r="A46" s="299"/>
       <c r="B46" s="94"/>
-      <c r="C46" s="142" t="s">
+      <c r="C46" s="141" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="225" t="s">
+      <c r="F46" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="197"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="233"/>
-      <c r="K46" s="198"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="232"/>
+      <c r="K46" s="197"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="294" t="s">
+      <c r="A47" s="298" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="213">
+      <c r="B47" s="212">
         <v>3300005</v>
       </c>
-      <c r="C47" s="238" t="s">
+      <c r="C47" s="237" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="215">
+      <c r="D47" s="214">
         <v>18</v>
       </c>
-      <c r="E47" s="216">
+      <c r="E47" s="215">
         <v>1</v>
       </c>
-      <c r="F47" s="217" t="s">
+      <c r="F47" s="216" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="84"/>
-      <c r="H47" s="138" t="s">
+      <c r="H47" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="I47" s="104">
+      <c r="I47" s="103">
         <v>16</v>
       </c>
-      <c r="J47" s="104">
+      <c r="J47" s="103">
         <v>1</v>
       </c>
-      <c r="K47" s="106" t="s">
+      <c r="K47" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="294"/>
-      <c r="B48" s="239">
+      <c r="A48" s="298"/>
+      <c r="B48" s="238">
         <v>1900103</v>
       </c>
-      <c r="C48" s="152" t="s">
+      <c r="C48" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="D48" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="240">
+      <c r="E48" s="239">
         <v>1</v>
       </c>
-      <c r="F48" s="241" t="s">
+      <c r="F48" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="129">
+      <c r="G48" s="128">
         <v>1905037</v>
       </c>
-      <c r="H48" s="124" t="s">
+      <c r="H48" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="125">
+      <c r="I48" s="124">
         <v>48</v>
       </c>
-      <c r="J48" s="126">
+      <c r="J48" s="125">
         <v>3</v>
       </c>
-      <c r="K48" s="108" t="s">
+      <c r="K48" s="107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="294"/>
+      <c r="A49" s="298"/>
       <c r="B49" s="93">
         <v>1905033</v>
       </c>
@@ -7579,27 +7659,27 @@
       <c r="E49" s="10">
         <v>3</v>
       </c>
-      <c r="F49" s="201" t="s">
+      <c r="F49" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="277">
+      <c r="G49" s="275">
         <v>1905038</v>
       </c>
-      <c r="H49" s="278" t="s">
+      <c r="H49" s="276" t="s">
         <v>181</v>
       </c>
-      <c r="I49" s="279">
+      <c r="I49" s="277">
         <v>16</v>
       </c>
-      <c r="J49" s="280">
+      <c r="J49" s="278">
         <v>1</v>
       </c>
-      <c r="K49" s="281" t="s">
+      <c r="K49" s="279" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="171"/>
+      <c r="A50" s="170"/>
       <c r="B50" s="93">
         <v>1905034</v>
       </c>
@@ -7612,95 +7692,95 @@
       <c r="E50" s="10">
         <v>1</v>
       </c>
-      <c r="F50" s="201" t="s">
+      <c r="F50" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="129">
+      <c r="G50" s="128">
         <v>1901036</v>
       </c>
-      <c r="H50" s="124" t="s">
+      <c r="H50" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="I50" s="125">
+      <c r="I50" s="124">
         <v>32</v>
       </c>
-      <c r="J50" s="126">
+      <c r="J50" s="125">
         <v>2</v>
       </c>
-      <c r="K50" s="108"/>
+      <c r="K50" s="107"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="171"/>
-      <c r="B51" s="209"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="211"/>
-      <c r="F51" s="212"/>
-      <c r="G51" s="129">
+      <c r="A51" s="170"/>
+      <c r="B51" s="208"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="210"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="128">
         <v>1904020</v>
       </c>
-      <c r="H51" s="124" t="s">
+      <c r="H51" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="I51" s="125">
+      <c r="I51" s="124">
         <v>32</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="125">
         <v>2</v>
       </c>
-      <c r="K51" s="108"/>
+      <c r="K51" s="107"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="171"/>
-      <c r="B52" s="209"/>
-      <c r="C52" s="210"/>
-      <c r="D52" s="211"/>
-      <c r="E52" s="211"/>
-      <c r="F52" s="212"/>
-      <c r="G52" s="129">
+      <c r="A52" s="170"/>
+      <c r="B52" s="208"/>
+      <c r="C52" s="209"/>
+      <c r="D52" s="210"/>
+      <c r="E52" s="210"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="128">
         <v>1904021</v>
       </c>
-      <c r="H52" s="124" t="s">
+      <c r="H52" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="I52" s="125">
+      <c r="I52" s="124">
         <v>32</v>
       </c>
-      <c r="J52" s="126">
+      <c r="J52" s="125">
         <v>1</v>
       </c>
-      <c r="K52" s="108"/>
+      <c r="K52" s="107"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="171"/>
+      <c r="A53" s="170"/>
       <c r="B53" s="87"/>
       <c r="C53" s="21"/>
       <c r="D53" s="25"/>
       <c r="E53" s="38"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="277">
+      <c r="F53" s="202"/>
+      <c r="G53" s="275">
         <v>199641</v>
       </c>
-      <c r="H53" s="278" t="s">
+      <c r="H53" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="279">
-        <v>32</v>
-      </c>
-      <c r="J53" s="280">
+      <c r="I53" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="J53" s="278">
         <v>2</v>
       </c>
-      <c r="K53" s="281" t="s">
+      <c r="K53" s="279" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="171"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="250"/>
-      <c r="D54" s="251"/>
-      <c r="E54" s="252"/>
-      <c r="F54" s="253"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="247"/>
+      <c r="C54" s="248"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="250"/>
+      <c r="F54" s="251"/>
       <c r="G54" s="93">
         <v>199783</v>
       </c>
@@ -7713,17 +7793,17 @@
       <c r="J54" s="10">
         <v>3</v>
       </c>
-      <c r="K54" s="271" t="s">
+      <c r="K54" s="269" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="171"/>
-      <c r="B55" s="249"/>
-      <c r="C55" s="250"/>
-      <c r="D55" s="251"/>
-      <c r="E55" s="252"/>
-      <c r="F55" s="253"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="247"/>
+      <c r="C55" s="248"/>
+      <c r="D55" s="249"/>
+      <c r="E55" s="250"/>
+      <c r="F55" s="251"/>
       <c r="G55" s="93">
         <v>199784</v>
       </c>
@@ -7736,14 +7816,14 @@
       <c r="J55" s="10">
         <v>1</v>
       </c>
-      <c r="K55" s="271" t="s">
+      <c r="K55" s="269" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1">
-      <c r="A56" s="172"/>
+      <c r="A56" s="171"/>
       <c r="B56" s="94"/>
-      <c r="C56" s="142" t="s">
+      <c r="C56" s="141" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="32"/>
@@ -7751,7 +7831,7 @@
       <c r="F56" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="197" t="s">
+      <c r="G56" s="196" t="s">
         <v>85</v>
       </c>
       <c r="H56" s="42" t="s">
@@ -7766,164 +7846,164 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="293" t="s">
+      <c r="A57" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="259">
+      <c r="B57" s="257">
         <v>1900104</v>
       </c>
-      <c r="C57" s="260" t="s">
+      <c r="C57" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="261" t="s">
+      <c r="D57" s="259" t="s">
         <v>136</v>
       </c>
-      <c r="E57" s="262">
+      <c r="E57" s="260">
         <v>3</v>
       </c>
-      <c r="F57" s="263" t="s">
+      <c r="F57" s="261" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="237"/>
-      <c r="H57" s="138" t="s">
+      <c r="G57" s="236"/>
+      <c r="H57" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="104">
+      <c r="I57" s="103">
         <v>16</v>
       </c>
-      <c r="J57" s="115">
+      <c r="J57" s="114">
         <v>1</v>
       </c>
-      <c r="K57" s="106" t="s">
+      <c r="K57" s="105" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="294"/>
-      <c r="B58" s="239">
+      <c r="A58" s="298"/>
+      <c r="B58" s="238">
         <v>1900105</v>
       </c>
-      <c r="C58" s="152" t="s">
+      <c r="C58" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="151" t="s">
+      <c r="D58" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="240">
+      <c r="E58" s="239">
         <v>1</v>
       </c>
-      <c r="F58" s="241" t="s">
+      <c r="F58" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="129"/>
+      <c r="G58" s="128"/>
       <c r="H58" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I58" s="257" t="s">
+      <c r="I58" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="257" t="s">
+      <c r="J58" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="K58" s="258" t="s">
+      <c r="K58" s="256" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="294"/>
-      <c r="B59" s="239">
+      <c r="A59" s="298"/>
+      <c r="B59" s="238">
         <v>1900107</v>
       </c>
-      <c r="C59" s="152" t="s">
+      <c r="C59" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="151" t="s">
+      <c r="D59" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="240">
+      <c r="E59" s="239">
         <v>1</v>
       </c>
-      <c r="F59" s="241" t="s">
+      <c r="F59" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="129" t="s">
+      <c r="G59" s="128" t="s">
         <v>157</v>
       </c>
       <c r="H59" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I59" s="257" t="s">
+      <c r="I59" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="J59" s="257" t="s">
+      <c r="J59" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="K59" s="258" t="s">
+      <c r="K59" s="256" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="294"/>
-      <c r="B60" s="264"/>
-      <c r="C60" s="154" t="s">
+      <c r="A60" s="298"/>
+      <c r="B60" s="262"/>
+      <c r="C60" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="155" t="s">
+      <c r="D60" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="265">
+      <c r="E60" s="263">
         <v>2</v>
       </c>
-      <c r="F60" s="266" t="s">
+      <c r="F60" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="129" t="s">
+      <c r="G60" s="128" t="s">
         <v>157</v>
       </c>
       <c r="H60" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I60" s="257" t="s">
+      <c r="I60" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="J60" s="257" t="s">
+      <c r="J60" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="K60" s="258" t="s">
+      <c r="K60" s="256" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="294"/>
-      <c r="B61" s="129">
+      <c r="A61" s="298"/>
+      <c r="B61" s="128">
         <v>1905050</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="257">
+      <c r="D61" s="255">
         <v>32</v>
       </c>
-      <c r="E61" s="257">
+      <c r="E61" s="255">
         <v>2</v>
       </c>
-      <c r="F61" s="258"/>
-      <c r="G61" s="129" t="s">
+      <c r="F61" s="256"/>
+      <c r="G61" s="128" t="s">
         <v>157</v>
       </c>
       <c r="H61" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I61" s="257" t="s">
+      <c r="I61" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="J61" s="257" t="s">
+      <c r="J61" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="K61" s="258"/>
+      <c r="K61" s="256"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="294"/>
+      <c r="A62" s="298"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
         <v>87</v>
@@ -7934,17 +8014,17 @@
       <c r="E62" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="203" t="s">
+      <c r="F62" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="209"/>
-      <c r="H62" s="270"/>
-      <c r="I62" s="211"/>
-      <c r="J62" s="211"/>
-      <c r="K62" s="212"/>
+      <c r="G62" s="208"/>
+      <c r="H62" s="268"/>
+      <c r="I62" s="210"/>
+      <c r="J62" s="210"/>
+      <c r="K62" s="211"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="294"/>
+      <c r="A63" s="298"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
         <v>85</v>
@@ -7955,23 +8035,23 @@
       <c r="E63" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="203" t="s">
+      <c r="F63" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="209"/>
-      <c r="H63" s="270"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="212"/>
+      <c r="G63" s="208"/>
+      <c r="H63" s="268"/>
+      <c r="I63" s="210"/>
+      <c r="J63" s="210"/>
+      <c r="K63" s="211"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="295"/>
+      <c r="A64" s="299"/>
       <c r="B64" s="94"/>
-      <c r="C64" s="267"/>
+      <c r="C64" s="265"/>
       <c r="D64" s="36"/>
-      <c r="E64" s="268"/>
-      <c r="F64" s="269"/>
-      <c r="G64" s="197">
+      <c r="E64" s="266"/>
+      <c r="F64" s="267"/>
+      <c r="G64" s="196">
         <v>199650</v>
       </c>
       <c r="H64" s="42" t="s">
@@ -7986,25 +8066,25 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="171" t="s">
+      <c r="A65" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="183">
+      <c r="B65" s="182">
         <v>1900106</v>
       </c>
-      <c r="C65" s="184" t="s">
+      <c r="C65" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="183" t="s">
+      <c r="D65" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="185">
+      <c r="E65" s="184">
         <v>3</v>
       </c>
-      <c r="F65" s="178" t="s">
+      <c r="F65" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="121"/>
+      <c r="G65" s="120"/>
       <c r="H65" s="44" t="s">
         <v>170</v>
       </c>
@@ -8012,28 +8092,28 @@
       <c r="J65" s="46">
         <v>5</v>
       </c>
-      <c r="K65" s="275"/>
+      <c r="K65" s="273"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1">
       <c r="A66" s="47"/>
-      <c r="B66" s="186"/>
-      <c r="C66" s="187" t="s">
+      <c r="B66" s="185"/>
+      <c r="C66" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="188" t="s">
+      <c r="D66" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="189">
+      <c r="E66" s="188">
         <v>1</v>
       </c>
-      <c r="F66" s="190" t="s">
+      <c r="F66" s="189" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="120"/>
+      <c r="G66" s="119"/>
       <c r="H66" s="42"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
-      <c r="K66" s="276"/>
+      <c r="K66" s="274"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1">
       <c r="A67" s="48"/>
@@ -8123,34 +8203,34 @@
       <c r="J72" s="64"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="144" t="s">
+      <c r="A73" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="170"/>
-      <c r="C73" s="296" t="s">
+      <c r="B73" s="169"/>
+      <c r="C73" s="288" t="s">
         <v>117</v>
       </c>
-      <c r="D73" s="297"/>
-      <c r="E73" s="298"/>
-      <c r="F73" s="296" t="s">
+      <c r="D73" s="289"/>
+      <c r="E73" s="290"/>
+      <c r="F73" s="288" t="s">
         <v>118</v>
       </c>
-      <c r="G73" s="297"/>
-      <c r="H73" s="298"/>
-      <c r="I73" s="299" t="s">
+      <c r="G73" s="289"/>
+      <c r="H73" s="290"/>
+      <c r="I73" s="291" t="s">
         <v>119</v>
       </c>
-      <c r="J73" s="299"/>
-      <c r="K73" s="300"/>
+      <c r="J73" s="291"/>
+      <c r="K73" s="292"/>
     </row>
     <row r="74" spans="1:11" ht="26">
-      <c r="A74" s="166">
+      <c r="A74" s="165">
         <v>1</v>
       </c>
       <c r="B74" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="147" t="s">
+      <c r="C74" s="146" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="68">
@@ -8161,132 +8241,132 @@
         <f>SUM(E4,E5,E13,E14,E15,E23,E24,E31,E32)</f>
         <v>24</v>
       </c>
-      <c r="F74" s="148" t="s">
+      <c r="F74" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="G74" s="149">
+      <c r="G74" s="148">
         <f>SUM(D49:D50,D61,D69)</f>
         <v>112</v>
       </c>
-      <c r="H74" s="150">
+      <c r="H74" s="149">
         <v>18</v>
       </c>
-      <c r="I74" s="301" t="s">
+      <c r="I74" s="293" t="s">
         <v>121</v>
       </c>
-      <c r="J74" s="302"/>
-      <c r="K74" s="303"/>
+      <c r="J74" s="294"/>
+      <c r="K74" s="295"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="304">
+      <c r="A75" s="280">
         <v>2</v>
       </c>
-      <c r="B75" s="305" t="s">
+      <c r="B75" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="151"/>
-      <c r="D75" s="151"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="152" t="s">
+      <c r="C75" s="150"/>
+      <c r="D75" s="150"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="151"/>
-      <c r="H75" s="153">
+      <c r="G75" s="150"/>
+      <c r="H75" s="152">
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I75" s="307"/>
-      <c r="J75" s="307"/>
-      <c r="K75" s="308"/>
+      <c r="I75" s="284"/>
+      <c r="J75" s="284"/>
+      <c r="K75" s="285"/>
     </row>
     <row r="76" spans="1:11" ht="26">
-      <c r="A76" s="304"/>
-      <c r="B76" s="306"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="155"/>
-      <c r="E76" s="155"/>
-      <c r="F76" s="156" t="s">
+      <c r="A76" s="280"/>
+      <c r="B76" s="281"/>
+      <c r="C76" s="153"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="G76" s="155"/>
-      <c r="H76" s="155">
+      <c r="G76" s="154"/>
+      <c r="H76" s="154">
         <v>5</v>
       </c>
-      <c r="I76" s="307"/>
-      <c r="J76" s="307"/>
-      <c r="K76" s="308"/>
+      <c r="I76" s="284"/>
+      <c r="J76" s="284"/>
+      <c r="K76" s="285"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="304">
+      <c r="A77" s="280">
         <v>3</v>
       </c>
-      <c r="B77" s="306" t="s">
+      <c r="B77" s="281" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="157" t="s">
+      <c r="C77" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="158"/>
-      <c r="E77" s="159">
+      <c r="D77" s="157"/>
+      <c r="E77" s="158">
         <f>SUM(E9+E12+E17+E25+E26+E27+E28+J30+E49+E50+E39+E40+E41+E42+E43+E44+J54+J55)</f>
         <v>42.5</v>
       </c>
-      <c r="F77" s="160" t="s">
+      <c r="F77" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="G77" s="161"/>
-      <c r="H77" s="161">
+      <c r="G77" s="160"/>
+      <c r="H77" s="160">
         <v>30.5</v>
       </c>
-      <c r="I77" s="309"/>
-      <c r="J77" s="309"/>
-      <c r="K77" s="310"/>
+      <c r="I77" s="282"/>
+      <c r="J77" s="282"/>
+      <c r="K77" s="283"/>
     </row>
     <row r="78" spans="1:11" ht="26">
-      <c r="A78" s="304"/>
-      <c r="B78" s="306"/>
-      <c r="C78" s="157" t="s">
+      <c r="A78" s="280"/>
+      <c r="B78" s="281"/>
+      <c r="C78" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="158"/>
-      <c r="E78" s="159"/>
-      <c r="F78" s="162" t="s">
+      <c r="D78" s="157"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="G78" s="167"/>
+      <c r="G78" s="166"/>
       <c r="H78" s="69"/>
-      <c r="I78" s="307"/>
-      <c r="J78" s="307"/>
-      <c r="K78" s="308"/>
+      <c r="I78" s="284"/>
+      <c r="J78" s="284"/>
+      <c r="K78" s="285"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1">
-      <c r="A79" s="163" t="s">
+      <c r="A79" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="164">
+      <c r="B79" s="163">
         <f>E79+H74+H75+H76+H77</f>
         <v>130</v>
       </c>
-      <c r="C79" s="169">
+      <c r="C79" s="168">
         <v>66.5</v>
       </c>
-      <c r="D79" s="169"/>
-      <c r="E79" s="164">
+      <c r="D79" s="168"/>
+      <c r="E79" s="163">
         <f>SUM(E74:E77)</f>
         <v>66.5</v>
       </c>
-      <c r="F79" s="169">
+      <c r="F79" s="168">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G79" s="169"/>
-      <c r="H79" s="164">
+      <c r="G79" s="168"/>
+      <c r="H79" s="163">
         <f>SUM(H74:H78)</f>
         <v>63.5</v>
       </c>
-      <c r="I79" s="311"/>
-      <c r="J79" s="311"/>
-      <c r="K79" s="312"/>
+      <c r="I79" s="286"/>
+      <c r="J79" s="286"/>
+      <c r="K79" s="287"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="63"/>
@@ -8335,11 +8415,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
     <mergeCell ref="F73:H73"/>
     <mergeCell ref="I73:K73"/>
     <mergeCell ref="I74:K74"/>
@@ -8348,17 +8434,11 @@
     <mergeCell ref="I75:K75"/>
     <mergeCell ref="I76:K76"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="251">
   <si>
     <t>学期</t>
   </si>
@@ -493,10 +493,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>不计基点</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>c语言程序设计</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1185,6 +1181,184 @@
     </r>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
+  <si>
+    <t>类  别</t>
+  </si>
+  <si>
+    <t>开课</t>
+  </si>
+  <si>
+    <t>门数</t>
+  </si>
+  <si>
+    <t>学时</t>
+  </si>
+  <si>
+    <t>占总学时</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>占总学分</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>必修课程</t>
+  </si>
+  <si>
+    <t>公共必修课</t>
+  </si>
+  <si>
+    <t>专业必修课</t>
+  </si>
+  <si>
+    <t>学科基础课</t>
+  </si>
+  <si>
+    <t>专业核心课</t>
+  </si>
+  <si>
+    <t>选修课程</t>
+  </si>
+  <si>
+    <t>专业选修课</t>
+  </si>
+  <si>
+    <t>通识选修课</t>
+  </si>
+  <si>
+    <t>基础实践</t>
+  </si>
+  <si>
+    <t>军事训练</t>
+  </si>
+  <si>
+    <t>专业实践</t>
+  </si>
+  <si>
+    <t>社会调查</t>
+  </si>
+  <si>
+    <t>专业见习</t>
+  </si>
+  <si>
+    <t>专业实习</t>
+  </si>
+  <si>
+    <t>毕业实习专业研习</t>
+  </si>
+  <si>
+    <t>专业研习</t>
+  </si>
+  <si>
+    <t>毕业论文（设计）</t>
+  </si>
+  <si>
+    <t>综合创新实践</t>
+  </si>
+  <si>
+    <t>合  计</t>
+  </si>
+  <si>
+    <t>毕业学分</t>
+  </si>
+  <si>
+    <t>必修课学分</t>
+  </si>
+  <si>
+    <t>选修课学分</t>
+  </si>
+  <si>
+    <r>
+      <t>六、学时与学分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业核心</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>学科基础</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业核心</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业核心实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业核心实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>电子工艺实训</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>3周</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业选修实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业选修实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>换算课时</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>开课门数</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>换算课时</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>门数</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>4周</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1195,7 +1369,7 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,6 +1577,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1460,7 +1668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2117,8 +2325,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2704,8 +3013,32 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3546,104 +3879,227 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="203">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -3743,6 +4199,10 @@
     <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -3839,6 +4299,10 @@
     <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3858,7 +4322,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3866,7 +4330,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3874,7 +4338,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3882,7 +4346,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4140,7 +4604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4148,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4162,49 +4626,55 @@
     <col min="4" max="4" width="5.83203125" style="70" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="70" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="70" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="70" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" style="70" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="70" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" style="71" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="70" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="70" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="300" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="301" t="s">
+    <row r="1" spans="1:15" ht="21">
+      <c r="A1" s="282" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
+      <c r="L1" s="282"/>
+      <c r="M1" s="282"/>
+    </row>
+    <row r="2" spans="1:15" ht="15">
+      <c r="A2" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="303" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="306" t="s">
+      <c r="B2" s="285" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="308"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="302"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="290"/>
+    </row>
+    <row r="3" spans="1:15" ht="16" thickBot="1">
+      <c r="A3" s="284"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4220,24 +4690,36 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="342" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="342" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="309" t="s">
+      <c r="N3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="291" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -4255,24 +4737,38 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="5">
+        <f>D4</f>
+        <v>36</v>
+      </c>
+      <c r="H4" s="346">
+        <v>1</v>
+      </c>
+      <c r="I4" s="81">
         <v>1901023</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="J4" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="96">
+        <v>32</v>
+      </c>
+      <c r="L4" s="97">
+        <v>2</v>
+      </c>
+      <c r="M4" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="96">
+      <c r="N4">
+        <f>K4</f>
         <v>32</v>
       </c>
-      <c r="J4" s="97">
-        <v>2</v>
-      </c>
-      <c r="K4" s="98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="310"/>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1">
+      <c r="A5" s="292"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -4289,22 +4785,36 @@
       <c r="F5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="G5" s="7">
+        <f>D5</f>
+        <v>54</v>
+      </c>
+      <c r="H5" s="347">
+        <v>1</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="12">
         <v>32</v>
       </c>
-      <c r="J5" s="13">
+      <c r="L5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="310"/>
+      <c r="M5" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <f>K5</f>
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="292"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -4320,24 +4830,35 @@
       <c r="F6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G63" si="0">D6</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="348">
+        <v>1</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="K6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="M6" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="310"/>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N66" si="1">K6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1">
+      <c r="A7" s="292"/>
       <c r="B7" s="100">
         <v>199023</v>
       </c>
@@ -4353,14 +4874,25 @@
       <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="310"/>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H7" s="347">
+        <v>1</v>
+      </c>
+      <c r="I7" s="101"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="11"/>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="292"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -4377,14 +4909,25 @@
       <c r="F8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="310"/>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H8" s="348">
+        <v>1</v>
+      </c>
+      <c r="I8" s="101"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="11"/>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1">
+      <c r="A9" s="292"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -4400,14 +4943,25 @@
       <c r="F9" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="310"/>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H9" s="347">
+        <v>1</v>
+      </c>
+      <c r="I9" s="101"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="11"/>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="292"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -4417,16 +4971,27 @@
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="194" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="310"/>
+        <v>194</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="348">
+        <v>1</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="11"/>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1">
+      <c r="A11" s="292"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -4434,21 +4999,32 @@
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
       <c r="F11" s="194" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="310"/>
+        <v>194</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="349">
+        <v>1</v>
+      </c>
+      <c r="I11" s="102"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1">
+      <c r="A12" s="292"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="18">
         <v>80</v>
@@ -4459,14 +5035,25 @@
       <c r="F12" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1">
-      <c r="A13" s="297" t="s">
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H12" s="350">
+        <v>1</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17" thickBot="1">
+      <c r="A13" s="293" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -4484,22 +5071,37 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="242">
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="351">
+        <v>1</v>
+      </c>
+      <c r="I13" s="81">
         <v>1902060</v>
       </c>
-      <c r="H13" s="135" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="132">
+      <c r="J13" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="109">
         <v>2</v>
       </c>
-      <c r="K13" s="105"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="298"/>
+      <c r="M13" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="294"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -4516,24 +5118,38 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="242">
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H14" s="352">
+        <v>1</v>
+      </c>
+      <c r="I14" s="242">
         <v>1300004</v>
       </c>
-      <c r="H14" s="136" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="106">
+      <c r="J14" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="106">
         <v>54</v>
       </c>
-      <c r="J14" s="106">
+      <c r="L14" s="106">
         <v>3</v>
       </c>
-      <c r="K14" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="298"/>
+      <c r="M14" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1">
+      <c r="A15" s="294"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -4550,24 +5166,38 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H15" s="351">
+        <v>1</v>
+      </c>
+      <c r="I15" s="81">
         <v>1300008</v>
       </c>
-      <c r="H15" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="109">
+      <c r="J15" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="109">
         <v>48</v>
       </c>
-      <c r="J15" s="109">
+      <c r="L15" s="109">
         <v>2</v>
       </c>
-      <c r="K15" s="86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="298"/>
+      <c r="M15" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="294"/>
       <c r="B16" s="238">
         <v>1900102</v>
       </c>
@@ -4583,29 +5213,42 @@
       <c r="F16" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="243">
+      <c r="G16" s="5">
+        <v>40</v>
+      </c>
+      <c r="H16" s="348">
+        <v>1</v>
+      </c>
+      <c r="I16" s="243">
         <v>1900110</v>
       </c>
-      <c r="H16" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="111">
+      <c r="J16" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="111">
         <v>85</v>
       </c>
-      <c r="J16" s="12">
+      <c r="L16" s="12">
         <v>4</v>
       </c>
-      <c r="K16" s="99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17" s="298"/>
+      <c r="M16" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1">
+      <c r="A17" s="294"/>
       <c r="B17" s="201">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="22">
         <v>80</v>
@@ -4614,29 +5257,43 @@
         <v>4</v>
       </c>
       <c r="F17" s="202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="243"/>
-      <c r="H17" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="111">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H17" s="347">
+        <v>1</v>
+      </c>
+      <c r="I17" s="243"/>
+      <c r="J17" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="111">
         <v>32</v>
       </c>
-      <c r="J17" s="12">
+      <c r="L17" s="12">
         <v>2</v>
       </c>
-      <c r="K17" s="99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1">
-      <c r="A18" s="298"/>
+      <c r="M17" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1">
+      <c r="A18" s="294"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="9">
         <v>32</v>
@@ -4645,94 +5302,142 @@
         <v>2</v>
       </c>
       <c r="F18" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="242">
+        <v>237</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H18" s="352">
+        <v>1</v>
+      </c>
+      <c r="I18" s="242">
         <v>1901002</v>
       </c>
-      <c r="H18" s="136" t="s">
+      <c r="J18" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="106">
+        <v>54</v>
+      </c>
+      <c r="L18" s="108">
+        <v>3</v>
+      </c>
+      <c r="M18" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1">
+      <c r="A19" s="294"/>
+      <c r="B19" s="245" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="222" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="223" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="222" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="246" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H19" s="348"/>
+      <c r="I19" s="242">
+        <v>1900112</v>
+      </c>
+      <c r="J19" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="106">
-        <v>54</v>
-      </c>
-      <c r="J18" s="108">
+      <c r="K19" s="106">
+        <v>68</v>
+      </c>
+      <c r="L19" s="108">
         <v>3</v>
       </c>
-      <c r="K18" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="298"/>
-      <c r="B19" s="245" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="222" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="223" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="222" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="246" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="242">
-        <v>1900112</v>
-      </c>
-      <c r="H19" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="106">
+      <c r="M19" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="J19" s="108">
-        <v>3</v>
-      </c>
-      <c r="K19" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="298"/>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="294"/>
       <c r="B20" s="245"/>
       <c r="C20" s="222"/>
       <c r="D20" s="223"/>
       <c r="E20" s="222"/>
       <c r="F20" s="246"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="299"/>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="346"/>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1">
+      <c r="A21" s="295"/>
       <c r="B21" s="94"/>
       <c r="C21" s="172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="173"/>
       <c r="F21" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="244">
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="347">
+        <v>1</v>
+      </c>
+      <c r="I21" s="244">
         <v>1905039</v>
       </c>
-      <c r="H21" s="126" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21" s="82">
+      <c r="J21" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="82">
         <v>3</v>
       </c>
-      <c r="K21" s="199" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="297" t="s">
+      <c r="M21" s="199" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21">
+        <v>120</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="293" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
@@ -4750,24 +5455,38 @@
       <c r="F22" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H22" s="352">
+        <v>1</v>
+      </c>
+      <c r="I22" s="84">
         <v>1901027</v>
       </c>
-      <c r="H22" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="103">
+      <c r="J22" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="103">
         <v>68</v>
       </c>
-      <c r="J22" s="104">
+      <c r="L22" s="104">
         <v>3</v>
       </c>
-      <c r="K22" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="298"/>
+      <c r="M22" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1">
+      <c r="A23" s="294"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
@@ -4784,27 +5503,41 @@
       <c r="F23" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="106">
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H23" s="347">
+        <v>1</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="106">
         <v>40</v>
       </c>
-      <c r="J23" s="108">
+      <c r="L23" s="108">
         <v>2.5</v>
       </c>
-      <c r="K23" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="298"/>
+      <c r="M23" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="294"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="18">
         <v>48</v>
@@ -4813,31 +5546,44 @@
         <v>3</v>
       </c>
       <c r="F24" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="198">
+        <v>92</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H24" s="348">
+        <v>1</v>
+      </c>
+      <c r="I24" s="198">
         <v>1905029</v>
       </c>
-      <c r="H24" s="126" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="110" t="s">
-        <v>202</v>
-      </c>
-      <c r="J24" s="82">
+      <c r="J24" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="110" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" s="82">
         <v>3</v>
       </c>
-      <c r="K24" s="199" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="298"/>
+      <c r="M24" s="199" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24">
+        <v>120</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1">
+      <c r="A25" s="294"/>
       <c r="B25" s="204">
         <v>1905008</v>
       </c>
       <c r="C25" s="222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="205">
         <v>32</v>
@@ -4846,29 +5592,43 @@
         <v>1</v>
       </c>
       <c r="F25" s="222" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="198"/>
-      <c r="H25" s="126" t="s">
-        <v>156</v>
-      </c>
-      <c r="I25" s="110">
+        <v>62</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J25" s="82">
-        <v>1</v>
-      </c>
-      <c r="K25" s="199" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="298"/>
+      <c r="H25" s="347">
+        <v>1</v>
+      </c>
+      <c r="I25" s="198"/>
+      <c r="J25" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="110">
+        <v>32</v>
+      </c>
+      <c r="L25" s="82">
+        <v>1</v>
+      </c>
+      <c r="M25" s="199" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="294"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="18">
         <v>64</v>
@@ -4877,29 +5637,43 @@
         <v>4</v>
       </c>
       <c r="F26" s="194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="195"/>
-      <c r="H26" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="111">
+        <v>236</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H26" s="348">
+        <v>1</v>
+      </c>
+      <c r="I26" s="195"/>
+      <c r="J26" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="111">
         <v>16</v>
       </c>
-      <c r="J26" s="12">
-        <v>1</v>
-      </c>
-      <c r="K26" s="99" t="s">
+      <c r="L26" s="12">
+        <v>1</v>
+      </c>
+      <c r="M26" s="99" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="298"/>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1">
+      <c r="A27" s="294"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
       <c r="C27" s="222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="205">
         <v>32</v>
@@ -4908,31 +5682,45 @@
         <v>1</v>
       </c>
       <c r="F27" s="222" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="128">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H27" s="347">
+        <v>1</v>
+      </c>
+      <c r="I27" s="128">
         <v>1905028</v>
       </c>
-      <c r="H27" s="252" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="124">
+      <c r="J27" s="252" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="124">
         <v>32</v>
       </c>
-      <c r="J27" s="125">
+      <c r="L27" s="125">
         <v>2</v>
       </c>
-      <c r="K27" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="298"/>
+      <c r="M27" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="294"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="9">
         <v>32</v>
@@ -4941,26 +5729,40 @@
         <v>1</v>
       </c>
       <c r="F28" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="128">
+        <v>236</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H28" s="348">
+        <v>1</v>
+      </c>
+      <c r="I28" s="128">
         <v>1905048</v>
       </c>
-      <c r="H28" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="124">
+      <c r="J28" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="124">
         <v>48</v>
       </c>
-      <c r="J28" s="125">
+      <c r="L28" s="125">
         <v>3</v>
       </c>
-      <c r="K28" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1">
-      <c r="A29" s="299"/>
+      <c r="M28" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" thickBot="1">
+      <c r="A29" s="295"/>
       <c r="B29" s="94"/>
       <c r="C29" s="141" t="s">
         <v>32</v>
@@ -4970,21 +5772,32 @@
       <c r="F29" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="297" t="s">
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="349">
+        <v>1</v>
+      </c>
+      <c r="I29" s="88"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="20"/>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="293" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
         <v>3009004</v>
       </c>
       <c r="C30" s="206" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="5">
         <v>36</v>
@@ -4995,29 +5808,43 @@
       <c r="F30" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="112">
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H30" s="352">
+        <v>1</v>
+      </c>
+      <c r="I30" s="112">
         <v>1901035</v>
       </c>
-      <c r="H30" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="103">
+      <c r="J30" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="103">
         <v>64</v>
       </c>
-      <c r="J30" s="114">
+      <c r="L30" s="114">
         <v>3</v>
       </c>
-      <c r="K30" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="298"/>
+      <c r="M30" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1">
+      <c r="A31" s="294"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
       <c r="C31" s="190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="7">
         <f>18*E31</f>
@@ -5029,29 +5856,43 @@
       <c r="F31" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="128">
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="H31" s="347">
+        <v>1</v>
+      </c>
+      <c r="I31" s="128">
         <v>1905053</v>
       </c>
-      <c r="H31" s="193" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="253">
+      <c r="J31" s="193" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="253">
         <v>48</v>
       </c>
-      <c r="J31" s="254">
+      <c r="L31" s="254">
         <v>3</v>
       </c>
-      <c r="K31" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="298"/>
+      <c r="M31" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="294"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="9">
         <v>40</v>
@@ -5060,31 +5901,45 @@
         <v>2.5</v>
       </c>
       <c r="F32" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="128">
+        <v>236</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H32" s="348">
+        <v>1</v>
+      </c>
+      <c r="I32" s="128">
         <v>1905026</v>
       </c>
-      <c r="H32" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="116">
+      <c r="J32" s="192" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="116">
         <v>32</v>
       </c>
-      <c r="J32" s="117">
+      <c r="L32" s="117">
         <v>2</v>
       </c>
-      <c r="K32" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="298"/>
+      <c r="M32" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" thickBot="1">
+      <c r="A33" s="294"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="9">
         <v>32</v>
@@ -5093,72 +5948,104 @@
         <v>1</v>
       </c>
       <c r="F33" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="128" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="192" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H33" s="347">
+        <v>1</v>
+      </c>
+      <c r="I33" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" s="192" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="116" t="s">
+      <c r="L33" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="117" t="s">
-        <v>189</v>
-      </c>
-      <c r="K33" s="107" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="298"/>
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="294"/>
       <c r="B34" s="208"/>
       <c r="C34" s="209"/>
       <c r="D34" s="210"/>
       <c r="E34" s="210"/>
       <c r="F34" s="211"/>
-      <c r="G34" s="128">
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="348"/>
+      <c r="I34" s="128">
         <v>1905030</v>
       </c>
-      <c r="H34" s="192" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="116">
+      <c r="J34" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="116">
         <v>48</v>
       </c>
-      <c r="J34" s="117">
+      <c r="L34" s="117">
         <v>3</v>
       </c>
-      <c r="K34" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="298"/>
+      <c r="M34" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" thickBot="1">
+      <c r="A35" s="294"/>
       <c r="B35" s="208"/>
       <c r="C35" s="209"/>
       <c r="D35" s="210"/>
       <c r="E35" s="210"/>
       <c r="F35" s="211"/>
-      <c r="G35" s="128" t="s">
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="347"/>
+      <c r="I35" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="115" t="s">
+      <c r="K35" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="I35" s="116" t="s">
+      <c r="L35" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="117" t="s">
+      <c r="M35" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="K35" s="107" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="299"/>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" thickBot="1">
+      <c r="A36" s="295"/>
       <c r="B36" s="94"/>
       <c r="C36" s="141" t="s">
         <v>36</v>
@@ -5168,31 +6055,41 @@
       <c r="F36" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="225">
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="350">
+        <v>1</v>
+      </c>
+      <c r="I36" s="225">
         <v>1905041</v>
       </c>
-      <c r="H36" s="226" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="227" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="131">
+      <c r="J36" s="226" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="227" t="s">
+        <v>204</v>
+      </c>
+      <c r="L36" s="131">
         <v>2</v>
       </c>
-      <c r="K36" s="228" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="297" t="s">
+      <c r="M36" s="228" t="s">
+        <v>149</v>
+      </c>
+      <c r="N36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" thickBot="1">
+      <c r="A37" s="293" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="212">
         <v>3300003</v>
       </c>
       <c r="C37" s="213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="214">
         <v>18</v>
@@ -5203,27 +6100,41 @@
       <c r="F37" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="229"/>
-      <c r="H37" s="137" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="103">
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H37" s="348">
+        <v>1</v>
+      </c>
+      <c r="I37" s="229"/>
+      <c r="J37" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="103">
         <v>32</v>
       </c>
-      <c r="J37" s="104">
+      <c r="L37" s="104">
         <v>2</v>
       </c>
-      <c r="K37" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="298"/>
+      <c r="M37" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="294"/>
       <c r="B38" s="217">
         <v>1905046</v>
       </c>
       <c r="C38" s="218" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="219">
         <v>48</v>
@@ -5232,29 +6143,44 @@
         <v>3</v>
       </c>
       <c r="F38" s="194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="129">
+        <v>236</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H38" s="348">
+        <v>1</v>
+      </c>
+      <c r="I38" s="129">
         <v>1905025</v>
       </c>
-      <c r="H38" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="127">
-        <v>32</v>
-      </c>
-      <c r="J38" s="82">
+      <c r="J38" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="127" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" s="82">
         <v>2</v>
       </c>
-      <c r="K38" s="130"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="298"/>
+      <c r="M38" s="130" t="s">
+        <v>245</v>
+      </c>
+      <c r="N38">
+        <v>80</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1">
+      <c r="A39" s="294"/>
       <c r="B39" s="217">
         <v>1905047</v>
       </c>
       <c r="C39" s="222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="205">
         <v>32</v>
@@ -5263,29 +6189,44 @@
         <v>1</v>
       </c>
       <c r="F39" s="222" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="128">
+        <v>239</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H39" s="347">
+        <v>1</v>
+      </c>
+      <c r="I39" s="128">
         <v>1905024</v>
       </c>
-      <c r="H39" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="166">
-        <v>48</v>
-      </c>
-      <c r="J39" s="166">
+      <c r="J39" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="166" t="s">
+        <v>242</v>
+      </c>
+      <c r="L39" s="166">
         <v>3</v>
       </c>
-      <c r="K39" s="167"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="298"/>
+      <c r="M39" s="167" t="s">
+        <v>243</v>
+      </c>
+      <c r="N39">
+        <v>80</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="294"/>
       <c r="B40" s="217">
         <v>1901015</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="9">
         <v>64</v>
@@ -5294,29 +6235,40 @@
         <v>4</v>
       </c>
       <c r="F40" s="194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="128"/>
-      <c r="H40" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="K40" s="107" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="298"/>
+        <v>236</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H40" s="348">
+        <v>1</v>
+      </c>
+      <c r="I40" s="128"/>
+      <c r="J40" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickBot="1">
+      <c r="A41" s="294"/>
       <c r="B41" s="217">
         <v>1901016</v>
       </c>
       <c r="C41" s="222" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="205">
         <v>40</v>
@@ -5325,29 +6277,40 @@
         <v>1</v>
       </c>
       <c r="F41" s="222" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="128"/>
-      <c r="H41" s="123" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H41" s="347">
+        <v>1</v>
+      </c>
+      <c r="I41" s="128"/>
+      <c r="J41" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="107" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="298"/>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="294"/>
       <c r="B42" s="217">
         <v>1901013</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="9">
         <v>48</v>
@@ -5358,27 +6321,38 @@
       <c r="F42" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="123" t="s">
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H42" s="348">
+        <v>1</v>
+      </c>
+      <c r="I42" s="128"/>
+      <c r="J42" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42" s="107" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="298"/>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" thickBot="1">
+      <c r="A43" s="294"/>
       <c r="B43" s="217">
         <v>1901014</v>
       </c>
       <c r="C43" s="222" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="205">
         <v>16</v>
@@ -5387,45 +6361,65 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="222" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="128" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="J43" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="107"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="298"/>
+        <v>158</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H43" s="347">
+        <v>1</v>
+      </c>
+      <c r="I43" s="128" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="M43" s="107"/>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="294"/>
       <c r="B44" s="217"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
       <c r="E44" s="35"/>
       <c r="F44" s="202"/>
-      <c r="G44" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="H44" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44" s="107"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="299"/>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="348"/>
+      <c r="I44" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" s="107"/>
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" thickBot="1">
+      <c r="A45" s="295"/>
       <c r="B45" s="94"/>
       <c r="C45" s="141" t="s">
         <v>38</v>
@@ -5435,21 +6429,32 @@
       <c r="F45" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="196"/>
-      <c r="H45" s="230"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="197"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="298" t="s">
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="349">
+        <v>1</v>
+      </c>
+      <c r="I45" s="196"/>
+      <c r="J45" s="230"/>
+      <c r="K45" s="231"/>
+      <c r="L45" s="232"/>
+      <c r="M45" s="197"/>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="294" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="212">
         <v>3300005</v>
       </c>
       <c r="C46" s="237" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="214">
         <v>18</v>
@@ -5460,22 +6465,36 @@
       <c r="F46" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="84"/>
-      <c r="H46" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="103">
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H46" s="352">
+        <v>1</v>
+      </c>
+      <c r="I46" s="84"/>
+      <c r="J46" s="137" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="103">
         <v>16</v>
       </c>
-      <c r="J46" s="103">
-        <v>1</v>
-      </c>
-      <c r="K46" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="298"/>
+      <c r="L46" s="103">
+        <v>1</v>
+      </c>
+      <c r="M46" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1">
+      <c r="A47" s="294"/>
       <c r="B47" s="238">
         <v>1900103</v>
       </c>
@@ -5491,29 +6510,42 @@
       <c r="F47" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="128">
+      <c r="G47" s="7">
+        <v>40</v>
+      </c>
+      <c r="H47" s="347">
+        <v>1</v>
+      </c>
+      <c r="I47" s="128">
         <v>1905037</v>
       </c>
-      <c r="H47" s="123" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="124">
+      <c r="J47" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="K47" s="124">
         <v>48</v>
       </c>
-      <c r="J47" s="125">
+      <c r="L47" s="125">
         <v>3</v>
       </c>
-      <c r="K47" s="107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="298"/>
+      <c r="M47" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="294"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="9">
         <v>48</v>
@@ -5522,31 +6554,45 @@
         <v>3</v>
       </c>
       <c r="F48" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" s="198">
+        <v>236</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H48" s="348">
+        <v>1</v>
+      </c>
+      <c r="I48" s="198">
         <v>1905038</v>
       </c>
-      <c r="H48" s="126" t="s">
+      <c r="J48" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="K48" s="110">
+        <v>16</v>
+      </c>
+      <c r="L48" s="82">
+        <v>1</v>
+      </c>
+      <c r="M48" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="110">
+      <c r="N48">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J48" s="82">
-        <v>1</v>
-      </c>
-      <c r="K48" s="199" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" thickBot="1">
       <c r="A49" s="77"/>
       <c r="B49" s="93">
         <v>1905084</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" s="9">
         <v>32</v>
@@ -5555,104 +6601,172 @@
         <v>1</v>
       </c>
       <c r="F49" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="128">
+        <v>236</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H49" s="347">
+        <v>1</v>
+      </c>
+      <c r="I49" s="128">
         <v>1901036</v>
       </c>
-      <c r="H49" s="123" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" s="124">
+      <c r="J49" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" s="124">
         <v>32</v>
       </c>
-      <c r="J49" s="125">
+      <c r="L49" s="125">
         <v>2</v>
       </c>
-      <c r="K49" s="107"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="M49" s="107"/>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="39"/>
       <c r="B50" s="208"/>
       <c r="C50" s="209"/>
       <c r="D50" s="210"/>
       <c r="E50" s="210"/>
       <c r="F50" s="211"/>
-      <c r="G50" s="128">
+      <c r="G50" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="348"/>
+      <c r="I50" s="128">
         <v>1904020</v>
       </c>
-      <c r="H50" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="I50" s="124">
+      <c r="J50" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50" s="124">
         <v>32</v>
       </c>
-      <c r="J50" s="125">
+      <c r="L50" s="125">
         <v>2</v>
       </c>
-      <c r="K50" s="107"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="M50" s="107"/>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1">
       <c r="A51" s="39"/>
       <c r="B51" s="208"/>
       <c r="C51" s="209"/>
       <c r="D51" s="210"/>
       <c r="E51" s="210"/>
       <c r="F51" s="211"/>
-      <c r="G51" s="128">
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="347"/>
+      <c r="I51" s="128">
         <v>1904021</v>
       </c>
-      <c r="H51" s="123" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51" s="124">
+      <c r="J51" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51" s="124">
         <v>32</v>
       </c>
-      <c r="J51" s="125">
-        <v>1</v>
-      </c>
-      <c r="K51" s="107"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="125">
+        <v>1</v>
+      </c>
+      <c r="M51" s="107"/>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="39"/>
       <c r="B52" s="87"/>
       <c r="C52" s="21"/>
       <c r="D52" s="25"/>
       <c r="E52" s="38"/>
       <c r="F52" s="202"/>
-      <c r="G52" s="198">
+      <c r="G52" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="348"/>
+      <c r="I52" s="198">
         <v>1905041</v>
       </c>
-      <c r="H52" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="I52" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="J52" s="82">
+      <c r="J52" s="126" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="L52" s="82">
         <v>2</v>
       </c>
-      <c r="K52" s="199" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52" s="199" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="1"/>
+        <v>2周</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" thickBot="1">
       <c r="A53" s="170"/>
       <c r="B53" s="247"/>
       <c r="C53" s="248"/>
       <c r="D53" s="249"/>
       <c r="E53" s="250"/>
       <c r="F53" s="251"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="G53" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="346"/>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="170"/>
       <c r="B54" s="247"/>
       <c r="C54" s="248"/>
       <c r="D54" s="249"/>
       <c r="E54" s="250"/>
       <c r="F54" s="251"/>
-    </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1">
+      <c r="G54" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="346"/>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" thickBot="1">
       <c r="A55" s="40"/>
       <c r="B55" s="94"/>
       <c r="C55" s="141" t="s">
@@ -5663,22 +6777,33 @@
       <c r="F55" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="196" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J55" s="43" t="s">
+      <c r="G55" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="349">
+        <v>1</v>
+      </c>
+      <c r="I55" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="297" t="s">
+      <c r="J55" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="K55" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="L55" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="20"/>
+      <c r="N55" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="293" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="174">
@@ -5688,30 +6813,43 @@
         <v>44</v>
       </c>
       <c r="D56" s="174" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="E56" s="176">
         <v>3</v>
       </c>
       <c r="F56" s="234" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="236"/>
-      <c r="H56" s="137" t="s">
-        <v>82</v>
-      </c>
-      <c r="I56" s="103">
+        <v>136</v>
+      </c>
+      <c r="G56" s="5">
+        <v>560</v>
+      </c>
+      <c r="H56" s="352">
+        <v>1</v>
+      </c>
+      <c r="I56" s="236"/>
+      <c r="J56" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="103">
         <v>16</v>
       </c>
-      <c r="J56" s="114">
-        <v>1</v>
-      </c>
-      <c r="K56" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="298"/>
+      <c r="L56" s="114">
+        <v>1</v>
+      </c>
+      <c r="M56" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1">
+      <c r="A57" s="294"/>
       <c r="B57" s="174">
         <v>1900105</v>
       </c>
@@ -5727,22 +6865,32 @@
       <c r="F57" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="128"/>
-      <c r="H57" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I57" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="J57" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="K57" s="167" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="298"/>
+      <c r="G57" s="7">
+        <v>40</v>
+      </c>
+      <c r="H57" s="347">
+        <v>1</v>
+      </c>
+      <c r="I57" s="128"/>
+      <c r="J57" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K57" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="L57" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="M57" s="167" t="s">
+        <v>150</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="294"/>
       <c r="B58" s="174">
         <v>1900107</v>
       </c>
@@ -5758,30 +6906,40 @@
       <c r="F58" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I58" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="J58" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="K58" s="167" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="298"/>
+      <c r="G58" s="5">
+        <v>40</v>
+      </c>
+      <c r="H58" s="348">
+        <v>1</v>
+      </c>
+      <c r="I58" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="J58" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K58" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="L58" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="M58" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1">
+      <c r="A59" s="294"/>
       <c r="B59" s="178"/>
       <c r="C59" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="180" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="180" t="s">
-        <v>139</v>
       </c>
       <c r="E59" s="181">
         <v>2</v>
@@ -5789,131 +6947,180 @@
       <c r="F59" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I59" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="J59" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="K59" s="167" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="298"/>
+      <c r="G59" s="7">
+        <v>40</v>
+      </c>
+      <c r="H59" s="347">
+        <v>1</v>
+      </c>
+      <c r="I59" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="J59" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K59" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="L59" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="M59" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="294"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I60" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="J60" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="K60" s="167"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="298"/>
+        <v>95</v>
+      </c>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H60" s="348"/>
+      <c r="I60" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K60" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="L60" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="M60" s="167"/>
+      <c r="N60" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" thickBot="1">
+      <c r="A61" s="294"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="J61" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="K61" s="167"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="298"/>
+      <c r="G61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H61" s="347"/>
+      <c r="I61" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K61" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="L61" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="M61" s="167"/>
+      <c r="N61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="294"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>96</v>
-      </c>
       <c r="E62" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H62" s="348"/>
+      <c r="I62" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K62" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I62" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="J62" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="K62" s="167"/>
-    </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1">
-      <c r="A63" s="299"/>
+      <c r="L62" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="M62" s="167"/>
+      <c r="N62" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" thickBot="1">
+      <c r="A63" s="295"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
       <c r="E63" s="38"/>
       <c r="F63" s="118"/>
-      <c r="G63" s="196">
+      <c r="G63" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="349"/>
+      <c r="I63" s="196">
         <v>199650</v>
       </c>
-      <c r="H63" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="I63" s="43">
+      <c r="J63" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63" s="43">
         <v>24</v>
       </c>
-      <c r="J63" s="43">
+      <c r="L63" s="43">
         <v>1.5</v>
       </c>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="M63" s="20"/>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="39" t="s">
         <v>47</v>
       </c>
@@ -5921,10 +7128,10 @@
         <v>1900106</v>
       </c>
       <c r="C64" s="183" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="182" t="s">
         <v>140</v>
-      </c>
-      <c r="D64" s="182" t="s">
-        <v>141</v>
       </c>
       <c r="E64" s="184">
         <v>3</v>
@@ -5932,38 +7139,61 @@
       <c r="F64" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="G64" s="120"/>
-      <c r="H64" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="I64" s="45"/>
-      <c r="J64" s="46">
+      <c r="G64" s="5">
+        <v>480</v>
+      </c>
+      <c r="H64" s="348">
+        <v>1</v>
+      </c>
+      <c r="I64" s="120"/>
+      <c r="J64" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="K64" s="45"/>
+      <c r="L64" s="46">
         <v>5</v>
       </c>
-      <c r="K64" s="121"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1">
+      <c r="M64" s="121"/>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" thickBot="1">
       <c r="A65" s="47"/>
       <c r="B65" s="185"/>
       <c r="C65" s="186" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="187" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="188">
+        <v>1</v>
+      </c>
+      <c r="F65" s="189" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="188">
-        <v>1</v>
-      </c>
-      <c r="F65" s="189" t="s">
-        <v>143</v>
-      </c>
-      <c r="G65" s="119"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="122"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1">
+      <c r="G65" s="7">
+        <v>40</v>
+      </c>
+      <c r="H65" s="349">
+        <v>1</v>
+      </c>
+      <c r="I65" s="119"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="122"/>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickBot="1">
       <c r="A66" s="48"/>
       <c r="B66" s="49"/>
       <c r="C66" s="50"/>
@@ -5976,16 +7206,28 @@
         <f>SUM(F4:F65)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="53">
-        <f>SUM(J4:J65)</f>
+      <c r="G66" s="343">
+        <f>SUM(G3:G65)</f>
+        <v>2721</v>
+      </c>
+      <c r="H66" s="343">
+        <f>SUM(H3:H65)</f>
+        <v>48</v>
+      </c>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="53">
+        <f>SUM(L4:L65)</f>
         <v>81</v>
       </c>
-      <c r="K66" s="54"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="M66" s="54"/>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="55" t="s">
         <v>48</v>
       </c>
@@ -5995,12 +7237,14 @@
       <c r="E67" s="56"/>
       <c r="F67" s="56"/>
       <c r="G67" s="56"/>
-      <c r="H67" s="57"/>
+      <c r="H67" s="56"/>
       <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="58"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="J67" s="57"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="58"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="59"/>
       <c r="B68" s="60"/>
       <c r="C68" s="61"/>
@@ -6008,12 +7252,14 @@
       <c r="E68" s="60"/>
       <c r="F68" s="60"/>
       <c r="G68" s="60"/>
-      <c r="H68" s="61"/>
+      <c r="H68" s="60"/>
       <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="62"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="J68" s="61"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="62"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="63"/>
       <c r="B69" s="64"/>
       <c r="C69" s="65"/>
@@ -6021,12 +7267,14 @@
       <c r="E69" s="64"/>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
-      <c r="H69" s="65"/>
+      <c r="H69" s="64"/>
       <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="66"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="J69" s="65"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="66"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="63"/>
       <c r="B70" s="64"/>
       <c r="C70" s="73"/>
@@ -6034,11 +7282,13 @@
       <c r="E70" s="64"/>
       <c r="F70" s="64"/>
       <c r="G70" s="64"/>
-      <c r="H70" s="65"/>
+      <c r="H70" s="64"/>
       <c r="I70" s="64"/>
-      <c r="J70" s="64"/>
-    </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1">
+      <c r="J70" s="65"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+    </row>
+    <row r="71" spans="1:14" ht="15" thickBot="1">
       <c r="A71" s="63"/>
       <c r="B71" s="64"/>
       <c r="C71" s="73"/>
@@ -6046,37 +7296,41 @@
       <c r="E71" s="64"/>
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
-      <c r="H71" s="65"/>
+      <c r="H71" s="64"/>
       <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="J71" s="65"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="143" t="s">
         <v>48</v>
       </c>
       <c r="B72" s="144"/>
-      <c r="C72" s="288" t="s">
+      <c r="C72" s="296" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="297"/>
+      <c r="E72" s="298"/>
+      <c r="F72" s="296" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="289"/>
-      <c r="E72" s="290"/>
-      <c r="F72" s="288" t="s">
+      <c r="G72" s="297"/>
+      <c r="H72" s="297"/>
+      <c r="I72" s="297"/>
+      <c r="J72" s="298"/>
+      <c r="K72" s="299" t="s">
         <v>118</v>
       </c>
-      <c r="G72" s="289"/>
-      <c r="H72" s="290"/>
-      <c r="I72" s="291" t="s">
+      <c r="L72" s="299"/>
+      <c r="M72" s="300"/>
+    </row>
+    <row r="73" spans="1:14" ht="26">
+      <c r="A73" s="145">
+        <v>1</v>
+      </c>
+      <c r="B73" s="67" t="s">
         <v>119</v>
-      </c>
-      <c r="J72" s="291"/>
-      <c r="K72" s="292"/>
-    </row>
-    <row r="73" spans="1:11" ht="26">
-      <c r="A73" s="145">
-        <v>1</v>
-      </c>
-      <c r="B73" s="67" t="s">
-        <v>120</v>
       </c>
       <c r="C73" s="146" t="s">
         <v>49</v>
@@ -6092,24 +7346,26 @@
       <c r="F73" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="148">
+      <c r="G73" s="147"/>
+      <c r="H73" s="147"/>
+      <c r="I73" s="148">
         <f>SUM(D32:D33,D60,D68)</f>
         <v>72</v>
       </c>
-      <c r="H73" s="149">
+      <c r="J73" s="149">
         <v>18</v>
       </c>
-      <c r="I73" s="293" t="s">
-        <v>121</v>
-      </c>
-      <c r="J73" s="294"/>
-      <c r="K73" s="295"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="280">
+      <c r="K73" s="301" t="s">
+        <v>120</v>
+      </c>
+      <c r="L73" s="302"/>
+      <c r="M73" s="303"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="304">
         <v>2</v>
       </c>
-      <c r="B74" s="296" t="s">
+      <c r="B74" s="305" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="150"/>
@@ -6118,41 +7374,45 @@
       <c r="F74" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="150"/>
-      <c r="H74" s="152">
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="150"/>
+      <c r="J74" s="152">
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="I74" s="284"/>
-      <c r="J74" s="284"/>
-      <c r="K74" s="285"/>
-    </row>
-    <row r="75" spans="1:11" ht="26">
-      <c r="A75" s="280"/>
-      <c r="B75" s="281"/>
+      <c r="K74" s="307"/>
+      <c r="L74" s="307"/>
+      <c r="M74" s="308"/>
+    </row>
+    <row r="75" spans="1:14" ht="26">
+      <c r="A75" s="304"/>
+      <c r="B75" s="306"/>
       <c r="C75" s="153"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154">
+        <v>127</v>
+      </c>
+      <c r="G75" s="155"/>
+      <c r="H75" s="155"/>
+      <c r="I75" s="154"/>
+      <c r="J75" s="154">
         <v>5</v>
       </c>
-      <c r="I75" s="284"/>
-      <c r="J75" s="284"/>
-      <c r="K75" s="285"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="280">
+      <c r="K75" s="307"/>
+      <c r="L75" s="307"/>
+      <c r="M75" s="308"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="304">
         <v>3</v>
       </c>
-      <c r="B76" s="281" t="s">
+      <c r="B76" s="306" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="156" t="s">
         <v>122</v>
-      </c>
-      <c r="C76" s="156" t="s">
-        <v>123</v>
       </c>
       <c r="D76" s="157"/>
       <c r="E76" s="158">
@@ -6160,39 +7420,43 @@
         <v>40</v>
       </c>
       <c r="F76" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="G76" s="160"/>
-      <c r="H76" s="160">
+        <v>123</v>
+      </c>
+      <c r="G76" s="159"/>
+      <c r="H76" s="159"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="160">
         <v>26</v>
       </c>
-      <c r="I76" s="282"/>
-      <c r="J76" s="282"/>
-      <c r="K76" s="283"/>
-    </row>
-    <row r="77" spans="1:11" ht="26">
-      <c r="A77" s="280"/>
-      <c r="B77" s="281"/>
+      <c r="K76" s="309"/>
+      <c r="L76" s="309"/>
+      <c r="M76" s="310"/>
+    </row>
+    <row r="77" spans="1:14" ht="26">
+      <c r="A77" s="304"/>
+      <c r="B77" s="306"/>
       <c r="C77" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D77" s="157"/>
       <c r="E77" s="158"/>
       <c r="F77" s="161" t="s">
-        <v>130</v>
-      </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="284"/>
-      <c r="J77" s="284"/>
-      <c r="K77" s="285"/>
-    </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1">
+        <v>129</v>
+      </c>
+      <c r="G77" s="161"/>
+      <c r="H77" s="161"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="307"/>
+      <c r="L77" s="307"/>
+      <c r="M77" s="308"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" thickBot="1">
       <c r="A78" s="162" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="163">
-        <f>E78+H74+H73+H75+H76</f>
+        <f>E78+J74+J73+J75+J76</f>
         <v>123</v>
       </c>
       <c r="C78" s="164"/>
@@ -6205,16 +7469,18 @@
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G78" s="164"/>
-      <c r="H78" s="163">
-        <f>SUM(H73:H77)</f>
+      <c r="G78" s="280"/>
+      <c r="H78" s="280"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="163">
+        <f>SUM(J73:J77)</f>
         <v>59</v>
       </c>
-      <c r="I78" s="286"/>
-      <c r="J78" s="286"/>
-      <c r="K78" s="287"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="K78" s="311"/>
+      <c r="L78" s="311"/>
+      <c r="M78" s="312"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="63"/>
       <c r="B79" s="64"/>
       <c r="C79" s="73"/>
@@ -6222,68 +7488,471 @@
       <c r="E79" s="64"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
-      <c r="H79" s="65"/>
+      <c r="H79" s="64"/>
       <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="64"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="64"/>
+      <c r="M79" s="64"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="63"/>
       <c r="B80" s="64"/>
       <c r="C80" s="73"/>
       <c r="D80" s="64"/>
       <c r="E80" s="64"/>
       <c r="F80" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="G80" s="64"/>
-      <c r="H80" s="65" t="s">
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" customFormat="1">
-      <c r="A81" s="63"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
+    </row>
+    <row r="81" spans="1:14" ht="41" customHeight="1" thickBot="1">
+      <c r="A81" s="314" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+    </row>
+    <row r="82" spans="1:14" ht="19" customHeight="1">
+      <c r="A82" s="320"/>
+      <c r="B82" s="321"/>
+      <c r="C82" s="321"/>
+      <c r="D82" s="321"/>
+      <c r="E82" s="321"/>
+      <c r="F82" s="322"/>
+      <c r="G82" s="315"/>
+      <c r="H82" s="315"/>
+      <c r="I82" s="315" t="s">
+        <v>206</v>
+      </c>
+      <c r="J82" s="326" t="s">
+        <v>208</v>
+      </c>
+      <c r="K82" s="315" t="s">
+        <v>209</v>
+      </c>
+      <c r="L82" s="326" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82" s="315" t="s">
+        <v>211</v>
+      </c>
+      <c r="N82" s="326" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="29" thickBot="1">
+      <c r="A83" s="323" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="324"/>
+      <c r="C83" s="324"/>
+      <c r="D83" s="324"/>
+      <c r="E83" s="324"/>
+      <c r="F83" s="325"/>
+      <c r="G83" s="344"/>
+      <c r="H83" s="344"/>
+      <c r="I83" s="316" t="s">
+        <v>207</v>
+      </c>
+      <c r="J83" s="327"/>
+      <c r="K83" s="316" t="s">
+        <v>210</v>
+      </c>
+      <c r="L83" s="327"/>
+      <c r="M83" s="316" t="s">
+        <v>210</v>
+      </c>
+      <c r="N83" s="327"/>
+    </row>
+    <row r="84" spans="1:14" ht="15" thickBot="1">
+      <c r="A84" s="320" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" s="322"/>
+      <c r="C84" s="332" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="333"/>
+      <c r="E84" s="333"/>
+      <c r="F84" s="334"/>
+      <c r="G84" s="316"/>
+      <c r="H84" s="316"/>
+      <c r="I84" s="316"/>
+      <c r="J84" s="316"/>
+      <c r="K84" s="316"/>
+      <c r="L84" s="316"/>
+      <c r="M84" s="316"/>
+      <c r="N84" s="316"/>
+    </row>
+    <row r="85" spans="1:14" ht="15" thickBot="1">
+      <c r="A85" s="328"/>
+      <c r="B85" s="329"/>
+      <c r="C85" s="320" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" s="322"/>
+      <c r="E85" s="332" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" s="334"/>
+      <c r="G85" s="316"/>
+      <c r="H85" s="316"/>
+      <c r="I85" s="316"/>
+      <c r="J85" s="316"/>
+      <c r="K85" s="316"/>
+      <c r="L85" s="316"/>
+      <c r="M85" s="316"/>
+      <c r="N85" s="316"/>
+    </row>
+    <row r="86" spans="1:14" ht="15" thickBot="1">
+      <c r="A86" s="330"/>
+      <c r="B86" s="331"/>
+      <c r="C86" s="330"/>
+      <c r="D86" s="331"/>
+      <c r="E86" s="332" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" s="334"/>
+      <c r="G86" s="316"/>
+      <c r="H86" s="316"/>
+      <c r="I86" s="316"/>
+      <c r="J86" s="316"/>
+      <c r="K86" s="316"/>
+      <c r="L86" s="316"/>
+      <c r="M86" s="316"/>
+      <c r="N86" s="316"/>
+    </row>
+    <row r="87" spans="1:14" ht="15" thickBot="1">
+      <c r="A87" s="320" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="322"/>
+      <c r="C87" s="332" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" s="333"/>
+      <c r="E87" s="333"/>
+      <c r="F87" s="334"/>
+      <c r="G87" s="316"/>
+      <c r="H87" s="316"/>
+      <c r="I87" s="316"/>
+      <c r="J87" s="316"/>
+      <c r="K87" s="316"/>
+      <c r="L87" s="316"/>
+      <c r="M87" s="316"/>
+      <c r="N87" s="316"/>
+    </row>
+    <row r="88" spans="1:14" ht="15" thickBot="1">
+      <c r="A88" s="328"/>
+      <c r="B88" s="329"/>
+      <c r="C88" s="332" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="333"/>
+      <c r="E88" s="333"/>
+      <c r="F88" s="334"/>
+      <c r="G88" s="316"/>
+      <c r="H88" s="316"/>
+      <c r="I88" s="316"/>
+      <c r="J88" s="316"/>
+      <c r="K88" s="316"/>
+      <c r="L88" s="316"/>
+      <c r="M88" s="316"/>
+      <c r="N88" s="316"/>
+    </row>
+    <row r="89" spans="1:14" ht="15" thickBot="1">
+      <c r="A89" s="328"/>
+      <c r="B89" s="329"/>
+      <c r="C89" s="332" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" s="333"/>
+      <c r="E89" s="334"/>
+      <c r="F89" s="316" t="s">
+        <v>222</v>
+      </c>
+      <c r="G89" s="316"/>
+      <c r="H89" s="316"/>
+      <c r="I89" s="316"/>
+      <c r="J89" s="316"/>
+      <c r="K89" s="316"/>
+      <c r="L89" s="316"/>
+      <c r="M89" s="316"/>
+      <c r="N89" s="316"/>
+    </row>
+    <row r="90" spans="1:14" ht="15" thickBot="1">
+      <c r="A90" s="328"/>
+      <c r="B90" s="329"/>
+      <c r="C90" s="320"/>
+      <c r="D90" s="321"/>
+      <c r="E90" s="322"/>
+      <c r="F90" s="316" t="s">
+        <v>224</v>
+      </c>
+      <c r="G90" s="316"/>
+      <c r="H90" s="316"/>
+      <c r="I90" s="316"/>
+      <c r="J90" s="316"/>
+      <c r="K90" s="316"/>
+      <c r="L90" s="316"/>
+      <c r="M90" s="316"/>
+      <c r="N90" s="316"/>
+    </row>
+    <row r="91" spans="1:14" ht="15" thickBot="1">
+      <c r="A91" s="328"/>
+      <c r="B91" s="329"/>
+      <c r="C91" s="328"/>
+      <c r="D91" s="335"/>
+      <c r="E91" s="329"/>
+      <c r="F91" s="316" t="s">
+        <v>225</v>
+      </c>
+      <c r="G91" s="316"/>
+      <c r="H91" s="316"/>
+      <c r="I91" s="316"/>
+      <c r="J91" s="316"/>
+      <c r="K91" s="316"/>
+      <c r="L91" s="316"/>
+      <c r="M91" s="316"/>
+      <c r="N91" s="316"/>
+    </row>
+    <row r="92" spans="1:14" ht="15" thickBot="1">
+      <c r="A92" s="328"/>
+      <c r="B92" s="329"/>
+      <c r="C92" s="328" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" s="335"/>
+      <c r="E92" s="329"/>
+      <c r="F92" s="316" t="s">
+        <v>226</v>
+      </c>
+      <c r="G92" s="316"/>
+      <c r="H92" s="316"/>
+      <c r="I92" s="316"/>
+      <c r="J92" s="316"/>
+      <c r="K92" s="316"/>
+      <c r="L92" s="316"/>
+      <c r="M92" s="316"/>
+      <c r="N92" s="316"/>
+    </row>
+    <row r="93" spans="1:14" ht="15" thickBot="1">
+      <c r="A93" s="328"/>
+      <c r="B93" s="329"/>
+      <c r="C93" s="337"/>
+      <c r="D93" s="336"/>
+      <c r="E93" s="338"/>
+      <c r="F93" s="316" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" s="316"/>
+      <c r="H93" s="316"/>
+      <c r="I93" s="316"/>
+      <c r="J93" s="316"/>
+      <c r="K93" s="316"/>
+      <c r="L93" s="316"/>
+      <c r="M93" s="316"/>
+      <c r="N93" s="316"/>
+    </row>
+    <row r="94" spans="1:14" ht="15" thickBot="1">
+      <c r="A94" s="328"/>
+      <c r="B94" s="329"/>
+      <c r="C94" s="337"/>
+      <c r="D94" s="336"/>
+      <c r="E94" s="338"/>
+      <c r="F94" s="316" t="s">
+        <v>228</v>
+      </c>
+      <c r="G94" s="316"/>
+      <c r="H94" s="316"/>
+      <c r="I94" s="316"/>
+      <c r="J94" s="316"/>
+      <c r="K94" s="316"/>
+      <c r="L94" s="316"/>
+      <c r="M94" s="316"/>
+      <c r="N94" s="316"/>
+    </row>
+    <row r="95" spans="1:14" ht="15" thickBot="1">
+      <c r="A95" s="328"/>
+      <c r="B95" s="329"/>
+      <c r="C95" s="340"/>
+      <c r="D95" s="339"/>
+      <c r="E95" s="341"/>
+      <c r="F95" s="317" t="s">
+        <v>229</v>
+      </c>
+      <c r="G95" s="317"/>
+      <c r="H95" s="317"/>
+      <c r="I95" s="316"/>
+      <c r="J95" s="316"/>
+      <c r="K95" s="316"/>
+      <c r="L95" s="316"/>
+      <c r="M95" s="316"/>
+      <c r="N95" s="316"/>
+    </row>
+    <row r="96" spans="1:14" ht="15" thickBot="1">
+      <c r="A96" s="330"/>
+      <c r="B96" s="331"/>
+      <c r="C96" s="332" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" s="333"/>
+      <c r="E96" s="334"/>
+      <c r="F96" s="317"/>
+      <c r="G96" s="317"/>
+      <c r="H96" s="317"/>
+      <c r="I96" s="316"/>
+      <c r="J96" s="316"/>
+      <c r="K96" s="316"/>
+      <c r="L96" s="316"/>
+      <c r="M96" s="316"/>
+      <c r="N96" s="316"/>
+    </row>
+    <row r="97" spans="1:14" ht="15" thickBot="1">
+      <c r="A97" s="332" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="333"/>
+      <c r="C97" s="333"/>
+      <c r="D97" s="333"/>
+      <c r="E97" s="333"/>
+      <c r="F97" s="334"/>
+      <c r="G97" s="316"/>
+      <c r="H97" s="316"/>
+      <c r="I97" s="316"/>
+      <c r="J97" s="316"/>
+      <c r="K97" s="316"/>
+      <c r="L97" s="316"/>
+      <c r="M97" s="316"/>
+      <c r="N97" s="316"/>
+    </row>
+    <row r="98" spans="1:14" ht="29" thickBot="1">
+      <c r="A98" s="318" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="332"/>
+      <c r="C98" s="334"/>
+      <c r="D98" s="332" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="333"/>
+      <c r="F98" s="334"/>
+      <c r="G98" s="345"/>
+      <c r="H98" s="345"/>
+      <c r="I98" s="332"/>
+      <c r="J98" s="334"/>
+      <c r="K98" s="332" t="s">
+        <v>234</v>
+      </c>
+      <c r="L98" s="334"/>
+      <c r="M98" s="332"/>
+      <c r="N98" s="334"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="319"/>
+      <c r="B99" s="319"/>
+      <c r="C99" s="319"/>
+      <c r="D99" s="319"/>
+      <c r="E99" s="319"/>
+      <c r="F99" s="319"/>
+      <c r="G99" s="319"/>
+      <c r="H99" s="319"/>
+      <c r="I99" s="319"/>
+      <c r="J99" s="319"/>
+      <c r="K99" s="319"/>
+      <c r="L99" s="319"/>
+      <c r="M99" s="319"/>
+      <c r="N99" s="319"/>
+    </row>
+    <row r="100" spans="1:14" ht="17">
+      <c r="A100" s="314"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
+  <mergeCells count="51">
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A87:B96"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
     <mergeCell ref="A56:A63"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6321,41 +7990,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="300" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
+      <c r="A1" s="282" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="303" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="306" t="s">
+      <c r="B2" s="285" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="311"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="313"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="302"/>
+      <c r="A3" s="284"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6375,20 +8044,20 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="291" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -6410,7 +8079,7 @@
         <v>1901023</v>
       </c>
       <c r="H4" s="276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I4" s="277">
         <v>32</v>
@@ -6419,11 +8088,11 @@
         <v>1</v>
       </c>
       <c r="K4" s="279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="310"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -6442,7 +8111,7 @@
       </c>
       <c r="G5" s="85"/>
       <c r="H5" s="134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="12">
         <v>32</v>
@@ -6451,11 +8120,11 @@
         <v>2</v>
       </c>
       <c r="K5" s="99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="310"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -6472,23 +8141,23 @@
         <v>14</v>
       </c>
       <c r="G6" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="I6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="99" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="310"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="100">
         <v>1900110</v>
       </c>
@@ -6511,7 +8180,7 @@
       <c r="K7" s="256"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="310"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -6535,7 +8204,7 @@
       <c r="K8" s="256"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="310"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -6558,7 +8227,7 @@
       <c r="K9" s="256"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="310"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -6577,7 +8246,7 @@
       <c r="K10" s="256"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="310"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -6594,12 +8263,12 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="310"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="18">
         <v>80</v>
@@ -6617,7 +8286,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
-      <c r="A13" s="297" t="s">
+      <c r="A13" s="293" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -6639,10 +8308,10 @@
         <v>1902060</v>
       </c>
       <c r="H13" s="135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="132">
         <v>2</v>
@@ -6650,7 +8319,7 @@
       <c r="K13" s="105"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="298"/>
+      <c r="A14" s="294"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -6671,7 +8340,7 @@
         <v>1300004</v>
       </c>
       <c r="H14" s="136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I14" s="106">
         <v>54</v>
@@ -6680,11 +8349,11 @@
         <v>3</v>
       </c>
       <c r="K14" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="298"/>
+      <c r="A15" s="294"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -6705,7 +8374,7 @@
         <v>1300008</v>
       </c>
       <c r="H15" s="276" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I15" s="277">
         <v>32</v>
@@ -6714,11 +8383,11 @@
         <v>1</v>
       </c>
       <c r="K15" s="279" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="298"/>
+      <c r="A16" s="294"/>
       <c r="B16" s="238">
         <v>1900102</v>
       </c>
@@ -6741,12 +8410,12 @@
       <c r="K16" s="272"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="298"/>
+      <c r="A17" s="294"/>
       <c r="B17" s="201">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="22">
         <v>80</v>
@@ -6759,7 +8428,7 @@
       </c>
       <c r="G17" s="243"/>
       <c r="H17" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="111">
         <v>32</v>
@@ -6768,16 +8437,16 @@
         <v>2</v>
       </c>
       <c r="K17" s="99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="298"/>
+      <c r="A18" s="294"/>
       <c r="B18" s="243">
         <v>1900111</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="111">
         <v>80</v>
@@ -6786,7 +8455,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="270"/>
       <c r="H18" s="271"/>
@@ -6795,12 +8464,12 @@
       <c r="K18" s="272"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="298"/>
+      <c r="A19" s="294"/>
       <c r="B19" s="87">
         <v>1901002</v>
       </c>
       <c r="C19" s="136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="106">
         <v>54</v>
@@ -6809,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G19" s="270"/>
       <c r="H19" s="271"/>
@@ -6818,12 +8487,12 @@
       <c r="K19" s="272"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="298"/>
+      <c r="A20" s="294"/>
       <c r="B20" s="87">
         <v>1900112</v>
       </c>
       <c r="C20" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="106">
         <v>64</v>
@@ -6841,12 +8510,12 @@
       <c r="K20" s="272"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="298"/>
+      <c r="A21" s="294"/>
       <c r="B21" s="87">
         <v>1905045</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="18">
         <v>32</v>
@@ -6855,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="194" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" s="244"/>
       <c r="H21" s="126"/>
@@ -6864,10 +8533,10 @@
       <c r="K21" s="199"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="299"/>
+      <c r="A22" s="295"/>
       <c r="B22" s="94"/>
       <c r="C22" s="172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="173"/>
@@ -6878,20 +8547,20 @@
         <v>1905039</v>
       </c>
       <c r="H22" s="276" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" s="277" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J22" s="278">
         <v>3</v>
       </c>
       <c r="K22" s="279" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="297" t="s">
+      <c r="A23" s="293" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
@@ -6913,7 +8582,7 @@
         <v>1900113</v>
       </c>
       <c r="H23" s="137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="103">
         <v>64</v>
@@ -6922,11 +8591,11 @@
         <v>3</v>
       </c>
       <c r="K23" s="105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="298"/>
+      <c r="A24" s="294"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
@@ -6945,7 +8614,7 @@
       </c>
       <c r="G24" s="85"/>
       <c r="H24" s="136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="106">
         <v>40</v>
@@ -6954,16 +8623,16 @@
         <v>2.5</v>
       </c>
       <c r="K24" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="298"/>
+      <c r="A25" s="294"/>
       <c r="B25" s="87">
         <v>1901007</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="18">
         <v>48</v>
@@ -6972,16 +8641,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="194" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="275">
         <v>1905029</v>
       </c>
       <c r="H25" s="276" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I25" s="277" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J25" s="278">
         <v>3</v>
@@ -6989,12 +8658,12 @@
       <c r="K25" s="279"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="298"/>
+      <c r="A26" s="294"/>
       <c r="B26" s="204">
         <v>1901008</v>
       </c>
       <c r="C26" s="222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="205">
         <v>32</v>
@@ -7003,11 +8672,11 @@
         <v>1</v>
       </c>
       <c r="F26" s="222" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="275"/>
       <c r="H26" s="276" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I26" s="277">
         <v>32</v>
@@ -7016,16 +8685,16 @@
         <v>1</v>
       </c>
       <c r="K26" s="279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="298"/>
+      <c r="A27" s="294"/>
       <c r="B27" s="87">
         <v>1901006</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="18">
         <v>64</v>
@@ -7038,7 +8707,7 @@
       </c>
       <c r="G27" s="195"/>
       <c r="H27" s="72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="111">
         <v>16</v>
@@ -7051,12 +8720,12 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="298"/>
+      <c r="A28" s="294"/>
       <c r="B28" s="87">
         <v>1901007</v>
       </c>
       <c r="C28" s="222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="205">
         <v>32</v>
@@ -7065,13 +8734,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="222" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="128">
         <v>1905028</v>
       </c>
       <c r="H28" s="252" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I28" s="124">
         <v>32</v>
@@ -7080,16 +8749,16 @@
         <v>2</v>
       </c>
       <c r="K28" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="298"/>
+      <c r="A29" s="294"/>
       <c r="G29" s="128">
         <v>1905048</v>
       </c>
       <c r="H29" s="123" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I29" s="124">
         <v>48</v>
@@ -7098,11 +8767,11 @@
         <v>3</v>
       </c>
       <c r="K29" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="299"/>
+      <c r="A30" s="295"/>
       <c r="B30" s="94"/>
       <c r="C30" s="141" t="s">
         <v>32</v>
@@ -7114,7 +8783,7 @@
       </c>
       <c r="G30" s="93"/>
       <c r="H30" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9">
         <v>48</v>
@@ -7123,18 +8792,18 @@
         <v>3</v>
       </c>
       <c r="K30" s="269" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="297" t="s">
+      <c r="A31" s="293" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
         <v>3009004</v>
       </c>
       <c r="C31" s="206" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
@@ -7147,7 +8816,7 @@
       </c>
       <c r="G31" s="112"/>
       <c r="H31" s="113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I31" s="103">
         <v>64</v>
@@ -7156,16 +8825,16 @@
         <v>3</v>
       </c>
       <c r="K31" s="105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="298"/>
+      <c r="A32" s="294"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
       <c r="C32" s="190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="7">
         <f>18*E32</f>
@@ -7181,7 +8850,7 @@
         <v>1905053</v>
       </c>
       <c r="H32" s="193" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I32" s="253">
         <v>48</v>
@@ -7190,16 +8859,16 @@
         <v>3</v>
       </c>
       <c r="K32" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="298"/>
+      <c r="A33" s="294"/>
       <c r="B33" s="93">
         <v>1905010</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="9">
         <v>48</v>
@@ -7212,7 +8881,7 @@
         <v>1905026</v>
       </c>
       <c r="H33" s="192" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I33" s="116">
         <v>48</v>
@@ -7221,16 +8890,16 @@
         <v>3</v>
       </c>
       <c r="K33" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="298"/>
+      <c r="A34" s="294"/>
       <c r="B34" s="93">
         <v>1905011</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="9">
         <v>32</v>
@@ -7240,23 +8909,23 @@
       </c>
       <c r="F34" s="83"/>
       <c r="G34" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="192" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="117" t="s">
+      <c r="K34" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="K34" s="107" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="298"/>
+      <c r="A35" s="294"/>
       <c r="B35" s="208"/>
       <c r="C35" s="209"/>
       <c r="D35" s="210"/>
@@ -7266,7 +8935,7 @@
         <v>1905030</v>
       </c>
       <c r="H35" s="192" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I35" s="116">
         <v>48</v>
@@ -7275,28 +8944,28 @@
         <v>3</v>
       </c>
       <c r="K35" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="298"/>
+      <c r="A36" s="294"/>
       <c r="B36" s="208"/>
       <c r="C36" s="209"/>
       <c r="D36" s="210"/>
       <c r="E36" s="210"/>
       <c r="F36" s="211"/>
       <c r="G36" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="115"/>
       <c r="I36" s="116"/>
       <c r="J36" s="117"/>
       <c r="K36" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="299"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="94"/>
       <c r="C37" s="141" t="s">
         <v>36</v>
@@ -7310,27 +8979,27 @@
         <v>199641</v>
       </c>
       <c r="H37" s="276" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I37" s="277" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J37" s="278">
         <v>2</v>
       </c>
       <c r="K37" s="279" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="297" t="s">
+      <c r="A38" s="293" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="212">
         <v>3300003</v>
       </c>
       <c r="C38" s="213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="214">
         <v>18</v>
@@ -7343,7 +9012,7 @@
       </c>
       <c r="G38" s="229"/>
       <c r="H38" s="137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="103">
         <v>32</v>
@@ -7352,16 +9021,16 @@
         <v>2</v>
       </c>
       <c r="K38" s="105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="298"/>
+      <c r="A39" s="294"/>
       <c r="B39" s="217">
         <v>1905046</v>
       </c>
       <c r="C39" s="218" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="219">
         <v>48</v>
@@ -7376,7 +9045,7 @@
         <v>199625</v>
       </c>
       <c r="H39" s="276" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I39" s="277">
         <v>32</v>
@@ -7387,12 +9056,12 @@
       <c r="K39" s="279"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="298"/>
+      <c r="A40" s="294"/>
       <c r="B40" s="217">
         <v>1905047</v>
       </c>
       <c r="C40" s="222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="205">
         <v>32</v>
@@ -7401,13 +9070,13 @@
         <v>1</v>
       </c>
       <c r="F40" s="222" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="128">
         <v>199624</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I40" s="255">
         <v>48</v>
@@ -7418,12 +9087,12 @@
       <c r="K40" s="256"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="298"/>
+      <c r="A41" s="294"/>
       <c r="B41" s="217">
         <v>1901015</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="9">
         <v>64</v>
@@ -7436,25 +9105,25 @@
       </c>
       <c r="G41" s="128"/>
       <c r="H41" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J41" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K41" s="107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="298"/>
+      <c r="A42" s="294"/>
       <c r="B42" s="217">
         <v>1901016</v>
       </c>
       <c r="C42" s="222" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="205">
         <v>40</v>
@@ -7463,29 +9132,29 @@
         <v>1</v>
       </c>
       <c r="F42" s="222" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="128"/>
       <c r="H42" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J42" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="298"/>
+      <c r="A43" s="294"/>
       <c r="B43" s="217">
         <v>1901013</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D43" s="9">
         <v>48</v>
@@ -7498,25 +9167,25 @@
       </c>
       <c r="G43" s="128"/>
       <c r="H43" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K43" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="298"/>
+      <c r="A44" s="294"/>
       <c r="B44" s="217">
         <v>1901014</v>
       </c>
       <c r="C44" s="222" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="205">
         <v>16</v>
@@ -7525,45 +9194,45 @@
         <v>0.5</v>
       </c>
       <c r="F44" s="222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G44" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I44" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J44" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K44" s="107"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="298"/>
+      <c r="A45" s="294"/>
       <c r="B45" s="217"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
       <c r="E45" s="35"/>
       <c r="F45" s="202"/>
       <c r="G45" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J45" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K45" s="107"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1">
-      <c r="A46" s="299"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="94"/>
       <c r="C46" s="141" t="s">
         <v>38</v>
@@ -7580,14 +9249,14 @@
       <c r="K46" s="197"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="298" t="s">
+      <c r="A47" s="294" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="212">
         <v>3300005</v>
       </c>
       <c r="C47" s="237" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="214">
         <v>18</v>
@@ -7600,7 +9269,7 @@
       </c>
       <c r="G47" s="84"/>
       <c r="H47" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I47" s="103">
         <v>16</v>
@@ -7609,11 +9278,11 @@
         <v>1</v>
       </c>
       <c r="K47" s="105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="298"/>
+      <c r="A48" s="294"/>
       <c r="B48" s="238">
         <v>1900103</v>
       </c>
@@ -7633,7 +9302,7 @@
         <v>1905037</v>
       </c>
       <c r="H48" s="123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" s="124">
         <v>48</v>
@@ -7642,16 +9311,16 @@
         <v>3</v>
       </c>
       <c r="K48" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="298"/>
+      <c r="A49" s="294"/>
       <c r="B49" s="93">
         <v>1905033</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" s="9">
         <v>48</v>
@@ -7660,13 +9329,13 @@
         <v>3</v>
       </c>
       <c r="F49" s="200" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G49" s="275">
         <v>1905038</v>
       </c>
       <c r="H49" s="276" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I49" s="277">
         <v>16</v>
@@ -7675,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="279" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -7684,7 +9353,7 @@
         <v>1905034</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" s="9">
         <v>32</v>
@@ -7693,13 +9362,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="200" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G50" s="128">
         <v>1901036</v>
       </c>
       <c r="H50" s="123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I50" s="124">
         <v>32</v>
@@ -7720,7 +9389,7 @@
         <v>1904020</v>
       </c>
       <c r="H51" s="123" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I51" s="124">
         <v>32</v>
@@ -7741,7 +9410,7 @@
         <v>1904021</v>
       </c>
       <c r="H52" s="123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I52" s="124">
         <v>32</v>
@@ -7762,16 +9431,16 @@
         <v>199641</v>
       </c>
       <c r="H53" s="276" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I53" s="277" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J53" s="278">
         <v>2</v>
       </c>
       <c r="K53" s="279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7785,7 +9454,7 @@
         <v>199783</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I54" s="9">
         <v>48</v>
@@ -7794,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="269" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7808,7 +9477,7 @@
         <v>199784</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I55" s="9">
         <v>32</v>
@@ -7817,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="269" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1">
@@ -7832,21 +9501,21 @@
         <v>19</v>
       </c>
       <c r="G56" s="196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="297" t="s">
+      <c r="A57" s="293" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="257">
@@ -7856,17 +9525,17 @@
         <v>44</v>
       </c>
       <c r="D57" s="259" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="260">
         <v>3</v>
       </c>
       <c r="F57" s="261" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G57" s="236"/>
       <c r="H57" s="137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57" s="103">
         <v>16</v>
@@ -7875,11 +9544,11 @@
         <v>1</v>
       </c>
       <c r="K57" s="105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="298"/>
+      <c r="A58" s="294"/>
       <c r="B58" s="238">
         <v>1900105</v>
       </c>
@@ -7897,20 +9566,20 @@
       </c>
       <c r="G58" s="128"/>
       <c r="H58" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I58" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J58" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K58" s="256" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="298"/>
+      <c r="A59" s="294"/>
       <c r="B59" s="238">
         <v>1900107</v>
       </c>
@@ -7927,29 +9596,29 @@
         <v>26</v>
       </c>
       <c r="G59" s="128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I59" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J59" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K59" s="256" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="298"/>
+      <c r="A60" s="294"/>
       <c r="B60" s="262"/>
       <c r="C60" s="153" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="154" t="s">
         <v>138</v>
-      </c>
-      <c r="D60" s="154" t="s">
-        <v>139</v>
       </c>
       <c r="E60" s="263">
         <v>2</v>
@@ -7958,28 +9627,28 @@
         <v>31</v>
       </c>
       <c r="G60" s="128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I60" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J60" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K60" s="256" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="298"/>
+      <c r="A61" s="294"/>
       <c r="B61" s="128">
         <v>1905050</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" s="255">
         <v>32</v>
@@ -7989,33 +9658,33 @@
       </c>
       <c r="F61" s="256"/>
       <c r="G61" s="128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I61" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J61" s="255" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K61" s="256"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="298"/>
+      <c r="A62" s="294"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F62" s="202" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" s="208"/>
       <c r="H62" s="268"/>
@@ -8024,19 +9693,19 @@
       <c r="K62" s="211"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="298"/>
+      <c r="A63" s="294"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" s="202" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" s="208"/>
       <c r="H63" s="268"/>
@@ -8045,7 +9714,7 @@
       <c r="K63" s="211"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="299"/>
+      <c r="A64" s="295"/>
       <c r="B64" s="94"/>
       <c r="C64" s="265"/>
       <c r="D64" s="36"/>
@@ -8055,7 +9724,7 @@
         <v>199650</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I64" s="43">
         <v>24</v>
@@ -8073,10 +9742,10 @@
         <v>1900106</v>
       </c>
       <c r="C65" s="183" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="182" t="s">
         <v>140</v>
-      </c>
-      <c r="D65" s="182" t="s">
-        <v>141</v>
       </c>
       <c r="E65" s="184">
         <v>3</v>
@@ -8086,7 +9755,7 @@
       </c>
       <c r="G65" s="120"/>
       <c r="H65" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I65" s="45"/>
       <c r="J65" s="46">
@@ -8101,13 +9770,13 @@
         <v>46</v>
       </c>
       <c r="D66" s="187" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="188">
+        <v>1</v>
+      </c>
+      <c r="F66" s="189" t="s">
         <v>142</v>
-      </c>
-      <c r="E66" s="188">
-        <v>1</v>
-      </c>
-      <c r="F66" s="189" t="s">
-        <v>143</v>
       </c>
       <c r="G66" s="119"/>
       <c r="H66" s="42"/>
@@ -8207,28 +9876,28 @@
         <v>48</v>
       </c>
       <c r="B73" s="169"/>
-      <c r="C73" s="288" t="s">
+      <c r="C73" s="296" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="297"/>
+      <c r="E73" s="298"/>
+      <c r="F73" s="296" t="s">
         <v>117</v>
       </c>
-      <c r="D73" s="289"/>
-      <c r="E73" s="290"/>
-      <c r="F73" s="288" t="s">
+      <c r="G73" s="297"/>
+      <c r="H73" s="298"/>
+      <c r="I73" s="299" t="s">
         <v>118</v>
       </c>
-      <c r="G73" s="289"/>
-      <c r="H73" s="290"/>
-      <c r="I73" s="291" t="s">
-        <v>119</v>
-      </c>
-      <c r="J73" s="291"/>
-      <c r="K73" s="292"/>
+      <c r="J73" s="299"/>
+      <c r="K73" s="300"/>
     </row>
     <row r="74" spans="1:11" ht="26">
       <c r="A74" s="165">
         <v>1</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" s="146" t="s">
         <v>49</v>
@@ -8251,17 +9920,17 @@
       <c r="H74" s="149">
         <v>18</v>
       </c>
-      <c r="I74" s="293" t="s">
-        <v>121</v>
-      </c>
-      <c r="J74" s="294"/>
-      <c r="K74" s="295"/>
+      <c r="I74" s="301" t="s">
+        <v>120</v>
+      </c>
+      <c r="J74" s="302"/>
+      <c r="K74" s="303"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="280">
+      <c r="A75" s="304">
         <v>2</v>
       </c>
-      <c r="B75" s="296" t="s">
+      <c r="B75" s="305" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="150"/>
@@ -8275,36 +9944,36 @@
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I75" s="284"/>
-      <c r="J75" s="284"/>
-      <c r="K75" s="285"/>
+      <c r="I75" s="307"/>
+      <c r="J75" s="307"/>
+      <c r="K75" s="308"/>
     </row>
     <row r="76" spans="1:11" ht="26">
-      <c r="A76" s="280"/>
-      <c r="B76" s="281"/>
+      <c r="A76" s="304"/>
+      <c r="B76" s="306"/>
       <c r="C76" s="153"/>
       <c r="D76" s="154"/>
       <c r="E76" s="154"/>
       <c r="F76" s="155" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G76" s="154"/>
       <c r="H76" s="154">
         <v>5</v>
       </c>
-      <c r="I76" s="284"/>
-      <c r="J76" s="284"/>
-      <c r="K76" s="285"/>
+      <c r="I76" s="307"/>
+      <c r="J76" s="307"/>
+      <c r="K76" s="308"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="280">
+      <c r="A77" s="304">
         <v>3</v>
       </c>
-      <c r="B77" s="281" t="s">
-        <v>169</v>
+      <c r="B77" s="306" t="s">
+        <v>168</v>
       </c>
       <c r="C77" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D77" s="157"/>
       <c r="E77" s="158">
@@ -8312,32 +9981,32 @@
         <v>42.5</v>
       </c>
       <c r="F77" s="159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G77" s="160"/>
       <c r="H77" s="160">
         <v>30.5</v>
       </c>
-      <c r="I77" s="282"/>
-      <c r="J77" s="282"/>
-      <c r="K77" s="283"/>
+      <c r="I77" s="309"/>
+      <c r="J77" s="309"/>
+      <c r="K77" s="310"/>
     </row>
     <row r="78" spans="1:11" ht="26">
-      <c r="A78" s="280"/>
-      <c r="B78" s="281"/>
+      <c r="A78" s="304"/>
+      <c r="B78" s="306"/>
       <c r="C78" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="157"/>
       <c r="E78" s="158"/>
       <c r="F78" s="161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G78" s="166"/>
       <c r="H78" s="69"/>
-      <c r="I78" s="284"/>
-      <c r="J78" s="284"/>
-      <c r="K78" s="285"/>
+      <c r="I78" s="307"/>
+      <c r="J78" s="307"/>
+      <c r="K78" s="308"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1">
       <c r="A79" s="162" t="s">
@@ -8364,9 +10033,9 @@
         <f>SUM(H74:H78)</f>
         <v>63.5</v>
       </c>
-      <c r="I79" s="286"/>
-      <c r="J79" s="286"/>
-      <c r="K79" s="287"/>
+      <c r="I79" s="311"/>
+      <c r="J79" s="311"/>
+      <c r="K79" s="312"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="63"/>
@@ -8388,16 +10057,16 @@
       <c r="D81" s="64"/>
       <c r="E81" s="64"/>
       <c r="F81" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G81" s="64"/>
       <c r="H81" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I81" s="64"/>
       <c r="J81" s="64"/>
       <c r="K81" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8415,17 +10084,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
     <mergeCell ref="F73:H73"/>
     <mergeCell ref="I73:K73"/>
     <mergeCell ref="I74:K74"/>
@@ -8434,11 +10097,17 @@
     <mergeCell ref="I75:K75"/>
     <mergeCell ref="I76:K76"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="259">
   <si>
     <t>学期</t>
   </si>
@@ -456,9 +456,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>专业必修</t>
-  </si>
-  <si>
     <t>合计</t>
   </si>
   <si>
@@ -683,10 +680,6 @@
     </r>
   </si>
   <si>
-    <t>电子工艺实训</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>计算机图形学</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -818,10 +811,6 @@
   <si>
     <t>专业报告2</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
-    <t>14周</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>实践体系-专业实践</t>
@@ -923,10 +912,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>学科基础实践</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>计算机系统基础实验</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -968,10 +953,6 @@
   <si>
     <t>软件工程实验</t>
     <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业必修</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
     <t>专业教育（66.5+4=70.3学分）</t>
@@ -1345,6 +1326,69 @@
   </si>
   <si>
     <t>开课门数</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>换算课时</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>门数</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>4周</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科基础，不计基点</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>学科基础</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业核心</t>
+  </si>
+  <si>
+    <t>专业核心</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业核心实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业核心实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>电子工艺实训</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>专业选修实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>3周</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
@@ -1668,7 +1712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2426,8 +2470,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3037,8 +3092,50 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3435,18 +3532,12 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3885,46 +3976,151 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3951,155 +4147,137 @@
     <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="217">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -4203,6 +4381,13 @@
     <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -4303,6 +4488,13 @@
     <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4322,7 +4514,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4330,7 +4522,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4338,7 +4530,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4346,7 +4538,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4604,7 +4796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4614,7 +4806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView topLeftCell="F35" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -4636,45 +4828,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="282" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
+      <c r="A1" s="341" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="342" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="285" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="288" t="s">
+      <c r="B2" s="344" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="347" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="290"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="349"/>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="284"/>
+      <c r="A3" s="343"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4690,11 +4882,11 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="342" t="s">
-        <v>246</v>
-      </c>
-      <c r="H3" s="342" t="s">
-        <v>247</v>
+      <c r="G3" s="288" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="288" t="s">
+        <v>242</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
@@ -4712,20 +4904,20 @@
         <v>7</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="350" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
         <v>309001</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="137" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5">
@@ -4741,14 +4933,14 @@
         <f>D4</f>
         <v>36</v>
       </c>
-      <c r="H4" s="346">
+      <c r="H4" s="292">
         <v>1</v>
       </c>
       <c r="I4" s="81">
         <v>1901023</v>
       </c>
-      <c r="J4" s="133" t="s">
-        <v>72</v>
+      <c r="J4" s="132" t="s">
+        <v>71</v>
       </c>
       <c r="K4" s="96">
         <v>32</v>
@@ -4757,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4">
         <f>K4</f>
@@ -4768,11 +4960,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="292"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="138" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7">
@@ -4789,12 +4981,12 @@
         <f>D5</f>
         <v>54</v>
       </c>
-      <c r="H5" s="347">
+      <c r="H5" s="293">
         <v>1</v>
       </c>
       <c r="I5" s="85"/>
-      <c r="J5" s="134" t="s">
-        <v>67</v>
+      <c r="J5" s="133" t="s">
+        <v>66</v>
       </c>
       <c r="K5" s="12">
         <v>32</v>
@@ -4803,7 +4995,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <f>K5</f>
@@ -4814,11 +5006,11 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="292"/>
+      <c r="A6" s="351"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="133" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12">
@@ -4834,23 +5026,23 @@
         <f t="shared" ref="G6:G63" si="0">D6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="348">
+      <c r="H6" s="294">
         <v>1</v>
       </c>
       <c r="I6" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="134" t="s">
+      <c r="M6" s="99" t="s">
         <v>131</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M6" s="99" t="s">
-        <v>133</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" ref="N6:N66" si="1">K6</f>
@@ -4858,11 +5050,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1">
-      <c r="A7" s="292"/>
+      <c r="A7" s="351"/>
       <c r="B7" s="100">
         <v>199023</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="133" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12">
@@ -4878,7 +5070,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H7" s="347">
+      <c r="H7" s="293">
         <v>1</v>
       </c>
       <c r="I7" s="101"/>
@@ -4892,11 +5084,11 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="292"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="133" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12">
@@ -4913,7 +5105,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H8" s="348">
+      <c r="H8" s="294">
         <v>1</v>
       </c>
       <c r="I8" s="101"/>
@@ -4927,7 +5119,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1">
-      <c r="A9" s="292"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -4940,14 +5132,14 @@
       <c r="E9" s="76">
         <v>2</v>
       </c>
-      <c r="F9" s="194" t="s">
+      <c r="F9" s="192" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="347">
+      <c r="H9" s="293">
         <v>1</v>
       </c>
       <c r="I9" s="101"/>
@@ -4961,7 +5153,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="292"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -4970,14 +5162,14 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="194" t="s">
-        <v>194</v>
+      <c r="F10" s="192" t="s">
+        <v>189</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="348">
+      <c r="H10" s="294">
         <v>1</v>
       </c>
       <c r="I10" s="101"/>
@@ -4991,21 +5183,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1">
-      <c r="A11" s="292"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="194" t="s">
-        <v>194</v>
+      <c r="F11" s="192" t="s">
+        <v>189</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="349">
+      <c r="H11" s="295">
         <v>1</v>
       </c>
       <c r="I11" s="102"/>
@@ -5019,12 +5211,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="A12" s="292"/>
+      <c r="A12" s="351"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18">
         <v>80</v>
@@ -5032,14 +5224,14 @@
       <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="192" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="350">
+      <c r="H12" s="296">
         <v>1</v>
       </c>
       <c r="I12" s="102"/>
@@ -5053,14 +5245,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1">
-      <c r="A13" s="293" t="s">
+      <c r="A13" s="338" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
         <v>309002</v>
       </c>
-      <c r="C13" s="139" t="s">
-        <v>55</v>
+      <c r="C13" s="137" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="5">
         <v>36</v>
@@ -5075,23 +5267,23 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H13" s="351">
+      <c r="H13" s="297">
         <v>1</v>
       </c>
       <c r="I13" s="81">
         <v>1902060</v>
       </c>
       <c r="J13" s="126" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K13" s="109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" s="109">
         <v>2</v>
       </c>
       <c r="M13" s="86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>80</v>
@@ -5101,11 +5293,11 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="294"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="138" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7">
@@ -5122,14 +5314,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H14" s="352">
-        <v>1</v>
-      </c>
-      <c r="I14" s="242">
+      <c r="H14" s="298">
+        <v>1</v>
+      </c>
+      <c r="I14" s="240">
         <v>1300004</v>
       </c>
-      <c r="J14" s="136" t="s">
-        <v>68</v>
+      <c r="J14" s="134" t="s">
+        <v>67</v>
       </c>
       <c r="K14" s="106">
         <v>54</v>
@@ -5138,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
@@ -5149,11 +5341,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1">
-      <c r="A15" s="294"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="138" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -5170,14 +5362,14 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H15" s="351">
+      <c r="H15" s="297">
         <v>1</v>
       </c>
       <c r="I15" s="81">
         <v>1300008</v>
       </c>
       <c r="J15" s="126" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15" s="109">
         <v>48</v>
@@ -5186,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
@@ -5197,33 +5389,33 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="294"/>
-      <c r="B16" s="238">
+      <c r="A16" s="339"/>
+      <c r="B16" s="236">
         <v>1900102</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="241">
-        <v>1</v>
-      </c>
-      <c r="F16" s="240" t="s">
+      <c r="E16" s="239">
+        <v>1</v>
+      </c>
+      <c r="F16" s="238" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="5">
         <v>40</v>
       </c>
-      <c r="H16" s="348">
-        <v>1</v>
-      </c>
-      <c r="I16" s="243">
+      <c r="H16" s="294">
+        <v>1</v>
+      </c>
+      <c r="I16" s="241">
         <v>1900110</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="111">
         <v>85</v>
@@ -5232,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="M16" s="99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
@@ -5243,12 +5435,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="294"/>
-      <c r="B17" s="201">
+      <c r="A17" s="339"/>
+      <c r="B17" s="199">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="22">
         <v>80</v>
@@ -5256,19 +5448,19 @@
       <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="F17" s="202" t="s">
-        <v>236</v>
+      <c r="F17" s="200" t="s">
+        <v>231</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H17" s="347">
-        <v>1</v>
-      </c>
-      <c r="I17" s="243"/>
+      <c r="H17" s="293">
+        <v>1</v>
+      </c>
+      <c r="I17" s="241"/>
       <c r="J17" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K17" s="111">
         <v>32</v>
@@ -5277,7 +5469,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -5288,12 +5480,12 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="294"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D18" s="9">
         <v>32</v>
@@ -5301,21 +5493,21 @@
       <c r="E18" s="10">
         <v>2</v>
       </c>
-      <c r="F18" s="200" t="s">
-        <v>237</v>
+      <c r="F18" s="198" t="s">
+        <v>232</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H18" s="352">
-        <v>1</v>
-      </c>
-      <c r="I18" s="242">
+      <c r="H18" s="298">
+        <v>1</v>
+      </c>
+      <c r="I18" s="240">
         <v>1901002</v>
       </c>
-      <c r="J18" s="136" t="s">
-        <v>58</v>
+      <c r="J18" s="134" t="s">
+        <v>57</v>
       </c>
       <c r="K18" s="106">
         <v>54</v>
@@ -5324,7 +5516,7 @@
         <v>3</v>
       </c>
       <c r="M18" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
@@ -5335,32 +5527,32 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="294"/>
-      <c r="B19" s="245" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="222" t="s">
+      <c r="A19" s="339"/>
+      <c r="B19" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="222" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="246" t="s">
-        <v>133</v>
+      <c r="C19" s="220" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="221" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="220" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="244" t="s">
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H19" s="348"/>
-      <c r="I19" s="242">
+      <c r="H19" s="294"/>
+      <c r="I19" s="240">
         <v>1900112</v>
       </c>
-      <c r="J19" s="136" t="s">
-        <v>59</v>
+      <c r="J19" s="134" t="s">
+        <v>58</v>
       </c>
       <c r="K19" s="106">
         <v>68</v>
@@ -5369,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="M19" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
@@ -5380,54 +5572,54 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="294"/>
-      <c r="B20" s="245"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="246"/>
+      <c r="A20" s="339"/>
+      <c r="B20" s="243"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="244"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="346"/>
+      <c r="H20" s="292"/>
       <c r="N20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="295"/>
+      <c r="A21" s="340"/>
       <c r="B21" s="94"/>
-      <c r="C21" s="172" t="s">
-        <v>134</v>
+      <c r="C21" s="170" t="s">
+        <v>132</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="203" t="s">
+      <c r="E21" s="171"/>
+      <c r="F21" s="201" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="347">
-        <v>1</v>
-      </c>
-      <c r="I21" s="244">
+      <c r="H21" s="293">
+        <v>1</v>
+      </c>
+      <c r="I21" s="242">
         <v>1905039</v>
       </c>
       <c r="J21" s="126" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K21" s="110" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L21" s="82">
         <v>3</v>
       </c>
-      <c r="M21" s="199" t="s">
-        <v>154</v>
+      <c r="M21" s="197" t="s">
+        <v>151</v>
       </c>
       <c r="N21">
         <v>120</v>
@@ -5437,13 +5629,13 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="293" t="s">
+      <c r="A22" s="338" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
         <v>309003</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="140" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="5">
@@ -5459,14 +5651,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H22" s="352">
+      <c r="H22" s="298">
         <v>1</v>
       </c>
       <c r="I22" s="84">
         <v>1901027</v>
       </c>
-      <c r="J22" s="137" t="s">
-        <v>75</v>
+      <c r="J22" s="135" t="s">
+        <v>74</v>
       </c>
       <c r="K22" s="103">
         <v>68</v>
@@ -5475,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
@@ -5486,11 +5678,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="294"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="138" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="7">
@@ -5507,12 +5699,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H23" s="347">
+      <c r="H23" s="293">
         <v>1</v>
       </c>
       <c r="I23" s="85"/>
-      <c r="J23" s="136" t="s">
-        <v>77</v>
+      <c r="J23" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="K23" s="106">
         <v>40</v>
@@ -5521,7 +5713,7 @@
         <v>2.5</v>
       </c>
       <c r="M23" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
@@ -5532,12 +5724,12 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="294"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="18">
         <v>48</v>
@@ -5545,30 +5737,30 @@
       <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="194" t="s">
-        <v>92</v>
+      <c r="F24" s="192" t="s">
+        <v>91</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H24" s="348">
-        <v>1</v>
-      </c>
-      <c r="I24" s="198">
+      <c r="H24" s="294">
+        <v>1</v>
+      </c>
+      <c r="I24" s="196">
         <v>1905029</v>
       </c>
       <c r="J24" s="126" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K24" s="110" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L24" s="82">
         <v>3</v>
       </c>
-      <c r="M24" s="199" t="s">
-        <v>73</v>
+      <c r="M24" s="197" t="s">
+        <v>72</v>
       </c>
       <c r="N24">
         <v>120</v>
@@ -5578,32 +5770,32 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="294"/>
-      <c r="B25" s="204">
+      <c r="A25" s="339"/>
+      <c r="B25" s="202">
         <v>1905008</v>
       </c>
-      <c r="C25" s="222" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="205">
+      <c r="C25" s="220" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="203">
         <v>32</v>
       </c>
-      <c r="E25" s="223">
-        <v>1</v>
-      </c>
-      <c r="F25" s="222" t="s">
-        <v>62</v>
+      <c r="E25" s="221">
+        <v>1</v>
+      </c>
+      <c r="F25" s="220" t="s">
+        <v>61</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H25" s="347">
-        <v>1</v>
-      </c>
-      <c r="I25" s="198"/>
+      <c r="H25" s="293">
+        <v>1</v>
+      </c>
+      <c r="I25" s="196"/>
       <c r="J25" s="126" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K25" s="110">
         <v>32</v>
@@ -5611,8 +5803,8 @@
       <c r="L25" s="82">
         <v>1</v>
       </c>
-      <c r="M25" s="199" t="s">
-        <v>149</v>
+      <c r="M25" s="197" t="s">
+        <v>146</v>
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
@@ -5623,12 +5815,12 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="294"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="18">
         <v>64</v>
@@ -5636,19 +5828,19 @@
       <c r="E26" s="10">
         <v>4</v>
       </c>
-      <c r="F26" s="194" t="s">
-        <v>236</v>
+      <c r="F26" s="192" t="s">
+        <v>231</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H26" s="348">
-        <v>1</v>
-      </c>
-      <c r="I26" s="195"/>
+      <c r="H26" s="294">
+        <v>1</v>
+      </c>
+      <c r="I26" s="193"/>
       <c r="J26" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K26" s="111">
         <v>16</v>
@@ -5668,34 +5860,34 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="294"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
-      <c r="C27" s="222" t="s">
+      <c r="C27" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="203">
+        <v>32</v>
+      </c>
+      <c r="E27" s="221">
+        <v>1</v>
+      </c>
+      <c r="F27" s="220" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" s="205">
-        <v>32</v>
-      </c>
-      <c r="E27" s="223">
-        <v>1</v>
-      </c>
-      <c r="F27" s="222" t="s">
-        <v>62</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H27" s="347">
+      <c r="H27" s="293">
         <v>1</v>
       </c>
       <c r="I27" s="128">
         <v>1905028</v>
       </c>
-      <c r="J27" s="252" t="s">
-        <v>164</v>
+      <c r="J27" s="250" t="s">
+        <v>160</v>
       </c>
       <c r="K27" s="124">
         <v>32</v>
@@ -5704,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="M27" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
@@ -5715,12 +5907,12 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="294"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D28" s="9">
         <v>32</v>
@@ -5728,21 +5920,21 @@
       <c r="E28" s="10">
         <v>1</v>
       </c>
-      <c r="F28" s="200" t="s">
-        <v>236</v>
+      <c r="F28" s="198" t="s">
+        <v>231</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H28" s="348">
+      <c r="H28" s="294">
         <v>1</v>
       </c>
       <c r="I28" s="128">
         <v>1905048</v>
       </c>
       <c r="J28" s="123" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K28" s="124">
         <v>48</v>
@@ -5751,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
@@ -5762,9 +5954,9 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="295"/>
+      <c r="A29" s="340"/>
       <c r="B29" s="94"/>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="139" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="26"/>
@@ -5776,7 +5968,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="349">
+      <c r="H29" s="295">
         <v>1</v>
       </c>
       <c r="I29" s="88"/>
@@ -5790,19 +5982,19 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="293" t="s">
+      <c r="A30" s="338" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
         <v>3009004</v>
       </c>
-      <c r="C30" s="206" t="s">
-        <v>145</v>
+      <c r="C30" s="204" t="s">
+        <v>142</v>
       </c>
       <c r="D30" s="5">
         <v>36</v>
       </c>
-      <c r="E30" s="207">
+      <c r="E30" s="205">
         <v>2</v>
       </c>
       <c r="F30" s="90" t="s">
@@ -5812,14 +6004,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H30" s="352">
+      <c r="H30" s="298">
         <v>1</v>
       </c>
       <c r="I30" s="112">
         <v>1901035</v>
       </c>
       <c r="J30" s="113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K30" s="103">
         <v>64</v>
@@ -5828,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="M30" s="105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
@@ -5839,18 +6031,18 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="294"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
-      <c r="C31" s="190" t="s">
-        <v>146</v>
+      <c r="C31" s="188" t="s">
+        <v>143</v>
       </c>
       <c r="D31" s="7">
         <f>18*E31</f>
         <v>108</v>
       </c>
-      <c r="E31" s="191">
+      <c r="E31" s="189">
         <v>6</v>
       </c>
       <c r="F31" s="92" t="s">
@@ -5860,23 +6052,23 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H31" s="347">
+      <c r="H31" s="293">
         <v>1</v>
       </c>
       <c r="I31" s="128">
         <v>1905053</v>
       </c>
-      <c r="J31" s="193" t="s">
-        <v>148</v>
-      </c>
-      <c r="K31" s="253">
+      <c r="J31" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" s="251">
         <v>48</v>
       </c>
-      <c r="L31" s="254">
+      <c r="L31" s="252">
         <v>3</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N31">
         <f t="shared" si="1"/>
@@ -5887,12 +6079,12 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="294"/>
+      <c r="A32" s="339"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="9">
         <v>40</v>
@@ -5900,21 +6092,21 @@
       <c r="E32" s="10">
         <v>2.5</v>
       </c>
-      <c r="F32" s="200" t="s">
-        <v>236</v>
+      <c r="F32" s="198" t="s">
+        <v>231</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H32" s="348">
+      <c r="H32" s="294">
         <v>1</v>
       </c>
       <c r="I32" s="128">
         <v>1905026</v>
       </c>
-      <c r="J32" s="192" t="s">
-        <v>147</v>
+      <c r="J32" s="190" t="s">
+        <v>144</v>
       </c>
       <c r="K32" s="116">
         <v>32</v>
@@ -5923,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
@@ -5934,12 +6126,12 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="294"/>
+      <c r="A33" s="339"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="9">
         <v>32</v>
@@ -5947,30 +6139,30 @@
       <c r="E33" s="10">
         <v>1</v>
       </c>
-      <c r="F33" s="200" t="s">
-        <v>238</v>
+      <c r="F33" s="198" t="s">
+        <v>233</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H33" s="347">
+      <c r="H33" s="293">
         <v>1</v>
       </c>
       <c r="I33" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="J33" s="192" t="s">
-        <v>190</v>
-      </c>
       <c r="K33" s="116" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L33" s="117" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M33" s="107" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
@@ -5978,22 +6170,22 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="294"/>
-      <c r="B34" s="208"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="211"/>
+      <c r="A34" s="339"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="209"/>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="348"/>
+      <c r="H34" s="294"/>
       <c r="I34" s="128">
         <v>1905030</v>
       </c>
-      <c r="J34" s="192" t="s">
-        <v>103</v>
+      <c r="J34" s="190" t="s">
+        <v>101</v>
       </c>
       <c r="K34" s="116">
         <v>48</v>
@@ -6002,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N34">
         <f t="shared" si="1"/>
@@ -6013,31 +6205,31 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="294"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="211"/>
+      <c r="A35" s="339"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="347"/>
+      <c r="H35" s="293"/>
       <c r="I35" s="128" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J35" s="115" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K35" s="116" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L35" s="117" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M35" s="107" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="1"/>
@@ -6045,9 +6237,9 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1">
-      <c r="A36" s="295"/>
+      <c r="A36" s="340"/>
       <c r="B36" s="94"/>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="139" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="26"/>
@@ -6059,57 +6251,57 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="350">
-        <v>1</v>
-      </c>
-      <c r="I36" s="225">
+      <c r="H36" s="296">
+        <v>1</v>
+      </c>
+      <c r="I36" s="223">
         <v>1905041</v>
       </c>
-      <c r="J36" s="226" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36" s="227" t="s">
-        <v>204</v>
+      <c r="J36" s="224" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="225" t="s">
+        <v>199</v>
       </c>
       <c r="L36" s="131">
         <v>2</v>
       </c>
-      <c r="M36" s="228" t="s">
-        <v>149</v>
+      <c r="M36" s="226" t="s">
+        <v>146</v>
       </c>
       <c r="N36">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1">
-      <c r="A37" s="293" t="s">
+      <c r="A37" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="212">
+      <c r="B37" s="210">
         <v>3300003</v>
       </c>
-      <c r="C37" s="213" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="214">
+      <c r="C37" s="211" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="212">
         <v>18</v>
       </c>
-      <c r="E37" s="215">
-        <v>1</v>
-      </c>
-      <c r="F37" s="216" t="s">
+      <c r="E37" s="213">
+        <v>1</v>
+      </c>
+      <c r="F37" s="214" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H37" s="348">
-        <v>1</v>
-      </c>
-      <c r="I37" s="229"/>
-      <c r="J37" s="137" t="s">
-        <v>80</v>
+      <c r="H37" s="294">
+        <v>1</v>
+      </c>
+      <c r="I37" s="227"/>
+      <c r="J37" s="135" t="s">
+        <v>79</v>
       </c>
       <c r="K37" s="103">
         <v>32</v>
@@ -6118,7 +6310,7 @@
         <v>2</v>
       </c>
       <c r="M37" s="105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N37">
         <f t="shared" si="1"/>
@@ -6129,43 +6321,43 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="294"/>
-      <c r="B38" s="217">
+      <c r="A38" s="339"/>
+      <c r="B38" s="215">
         <v>1905046</v>
       </c>
-      <c r="C38" s="218" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="219">
+      <c r="C38" s="216" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="217">
         <v>48</v>
       </c>
-      <c r="E38" s="220">
+      <c r="E38" s="218">
         <v>3</v>
       </c>
-      <c r="F38" s="194" t="s">
-        <v>236</v>
+      <c r="F38" s="192" t="s">
+        <v>231</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H38" s="348">
+      <c r="H38" s="294">
         <v>1</v>
       </c>
       <c r="I38" s="129">
         <v>1905025</v>
       </c>
-      <c r="J38" s="138" t="s">
-        <v>107</v>
+      <c r="J38" s="136" t="s">
+        <v>105</v>
       </c>
       <c r="K38" s="127" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L38" s="82">
         <v>2</v>
       </c>
       <c r="M38" s="130" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N38">
         <v>80</v>
@@ -6175,43 +6367,43 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1">
-      <c r="A39" s="294"/>
-      <c r="B39" s="217">
+      <c r="A39" s="339"/>
+      <c r="B39" s="215">
         <v>1905047</v>
       </c>
-      <c r="C39" s="222" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="205">
+      <c r="C39" s="220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="203">
         <v>32</v>
       </c>
-      <c r="E39" s="223">
-        <v>1</v>
-      </c>
-      <c r="F39" s="222" t="s">
-        <v>239</v>
+      <c r="E39" s="221">
+        <v>1</v>
+      </c>
+      <c r="F39" s="220" t="s">
+        <v>234</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H39" s="347">
+      <c r="H39" s="293">
         <v>1</v>
       </c>
       <c r="I39" s="128">
         <v>1905024</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K39" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="L39" s="166">
+        <v>107</v>
+      </c>
+      <c r="K39" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="L39" s="164">
         <v>3</v>
       </c>
-      <c r="M39" s="167" t="s">
-        <v>243</v>
+      <c r="M39" s="165" t="s">
+        <v>238</v>
       </c>
       <c r="N39">
         <v>80</v>
@@ -6221,41 +6413,41 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="294"/>
-      <c r="B40" s="217">
+      <c r="A40" s="339"/>
+      <c r="B40" s="215">
         <v>1901015</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="9">
         <v>64</v>
       </c>
-      <c r="E40" s="221">
+      <c r="E40" s="219">
         <v>4</v>
       </c>
-      <c r="F40" s="194" t="s">
-        <v>236</v>
+      <c r="F40" s="192" t="s">
+        <v>231</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H40" s="348">
+      <c r="H40" s="294">
         <v>1</v>
       </c>
       <c r="I40" s="128"/>
       <c r="J40" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K40" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L40" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M40" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="1"/>
@@ -6263,41 +6455,41 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1">
-      <c r="A41" s="294"/>
-      <c r="B41" s="217">
+      <c r="A41" s="339"/>
+      <c r="B41" s="215">
         <v>1901016</v>
       </c>
-      <c r="C41" s="222" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="205">
+      <c r="C41" s="220" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="203">
         <v>40</v>
       </c>
-      <c r="E41" s="223">
-        <v>1</v>
-      </c>
-      <c r="F41" s="222" t="s">
-        <v>240</v>
+      <c r="E41" s="221">
+        <v>1</v>
+      </c>
+      <c r="F41" s="220" t="s">
+        <v>235</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H41" s="347">
+      <c r="H41" s="293">
         <v>1</v>
       </c>
       <c r="I41" s="128"/>
       <c r="J41" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="107" t="s">
         <v>85</v>
-      </c>
-      <c r="K41" s="124" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" s="125" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="107" t="s">
-        <v>86</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="1"/>
@@ -6305,41 +6497,41 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="294"/>
-      <c r="B42" s="217">
+      <c r="A42" s="339"/>
+      <c r="B42" s="215">
         <v>1901013</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D42" s="9">
         <v>48</v>
       </c>
-      <c r="E42" s="221">
+      <c r="E42" s="219">
         <v>3</v>
       </c>
-      <c r="F42" s="194" t="s">
+      <c r="F42" s="192" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H42" s="348">
+      <c r="H42" s="294">
         <v>1</v>
       </c>
       <c r="I42" s="128"/>
       <c r="J42" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="107" t="s">
         <v>85</v>
-      </c>
-      <c r="K42" s="124" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="125" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="107" t="s">
-        <v>86</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="1"/>
@@ -6347,40 +6539,40 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" thickBot="1">
-      <c r="A43" s="294"/>
-      <c r="B43" s="217">
+      <c r="A43" s="339"/>
+      <c r="B43" s="215">
         <v>1901014</v>
       </c>
-      <c r="C43" s="222" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="205">
+      <c r="C43" s="220" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="203">
         <v>16</v>
       </c>
-      <c r="E43" s="223">
+      <c r="E43" s="221">
         <v>0.5</v>
       </c>
-      <c r="F43" s="222" t="s">
-        <v>158</v>
+      <c r="F43" s="220" t="s">
+        <v>154</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H43" s="347">
+      <c r="H43" s="293">
         <v>1</v>
       </c>
       <c r="I43" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" s="123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K43" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L43" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M43" s="107"/>
       <c r="N43" t="str">
@@ -6389,28 +6581,28 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="294"/>
-      <c r="B44" s="217"/>
+      <c r="A44" s="339"/>
+      <c r="B44" s="215"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="202"/>
+      <c r="F44" s="200"/>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="348"/>
+      <c r="H44" s="294"/>
       <c r="I44" s="128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K44" s="124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L44" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M44" s="107"/>
       <c r="N44" t="str">
@@ -6419,62 +6611,62 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1">
-      <c r="A45" s="295"/>
+      <c r="A45" s="340"/>
       <c r="B45" s="94"/>
-      <c r="C45" s="141" t="s">
+      <c r="C45" s="139" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="224" t="s">
+      <c r="F45" s="222" t="s">
         <v>27</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="349">
-        <v>1</v>
-      </c>
-      <c r="I45" s="196"/>
-      <c r="J45" s="230"/>
-      <c r="K45" s="231"/>
-      <c r="L45" s="232"/>
-      <c r="M45" s="197"/>
+      <c r="H45" s="295">
+        <v>1</v>
+      </c>
+      <c r="I45" s="194"/>
+      <c r="J45" s="228"/>
+      <c r="K45" s="229"/>
+      <c r="L45" s="230"/>
+      <c r="M45" s="195"/>
       <c r="N45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="294" t="s">
+      <c r="A46" s="339" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="212">
+      <c r="B46" s="210">
         <v>3300005</v>
       </c>
-      <c r="C46" s="237" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="214">
+      <c r="C46" s="235" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="212">
         <v>18</v>
       </c>
-      <c r="E46" s="215">
-        <v>1</v>
-      </c>
-      <c r="F46" s="216" t="s">
+      <c r="E46" s="213">
+        <v>1</v>
+      </c>
+      <c r="F46" s="214" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H46" s="352">
+      <c r="H46" s="298">
         <v>1</v>
       </c>
       <c r="I46" s="84"/>
-      <c r="J46" s="137" t="s">
-        <v>70</v>
+      <c r="J46" s="135" t="s">
+        <v>69</v>
       </c>
       <c r="K46" s="103">
         <v>16</v>
@@ -6483,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="M46" s="105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N46">
         <f t="shared" si="1"/>
@@ -6494,33 +6686,33 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" thickBot="1">
-      <c r="A47" s="294"/>
-      <c r="B47" s="238">
+      <c r="A47" s="339"/>
+      <c r="B47" s="236">
         <v>1900103</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="C47" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="150" t="s">
+      <c r="D47" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="239">
-        <v>1</v>
-      </c>
-      <c r="F47" s="240" t="s">
+      <c r="E47" s="237">
+        <v>1</v>
+      </c>
+      <c r="F47" s="238" t="s">
         <v>41</v>
       </c>
       <c r="G47" s="7">
         <v>40</v>
       </c>
-      <c r="H47" s="347">
+      <c r="H47" s="293">
         <v>1</v>
       </c>
       <c r="I47" s="128">
         <v>1905037</v>
       </c>
       <c r="J47" s="123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K47" s="124">
         <v>48</v>
@@ -6529,7 +6721,7 @@
         <v>3</v>
       </c>
       <c r="M47" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N47">
         <f t="shared" si="1"/>
@@ -6540,12 +6732,12 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="294"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="9">
         <v>48</v>
@@ -6553,21 +6745,21 @@
       <c r="E48" s="10">
         <v>3</v>
       </c>
-      <c r="F48" s="200" t="s">
-        <v>236</v>
+      <c r="F48" s="198" t="s">
+        <v>231</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H48" s="348">
-        <v>1</v>
-      </c>
-      <c r="I48" s="198">
+      <c r="H48" s="294">
+        <v>1</v>
+      </c>
+      <c r="I48" s="196">
         <v>1905038</v>
       </c>
       <c r="J48" s="126" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K48" s="110">
         <v>16</v>
@@ -6575,8 +6767,8 @@
       <c r="L48" s="82">
         <v>1</v>
       </c>
-      <c r="M48" s="199" t="s">
-        <v>154</v>
+      <c r="M48" s="197" t="s">
+        <v>151</v>
       </c>
       <c r="N48">
         <f t="shared" si="1"/>
@@ -6592,7 +6784,7 @@
         <v>1905084</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="9">
         <v>32</v>
@@ -6600,21 +6792,21 @@
       <c r="E49" s="10">
         <v>1</v>
       </c>
-      <c r="F49" s="200" t="s">
-        <v>236</v>
+      <c r="F49" s="198" t="s">
+        <v>231</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H49" s="347">
+      <c r="H49" s="293">
         <v>1</v>
       </c>
       <c r="I49" s="128">
         <v>1901036</v>
       </c>
       <c r="J49" s="123" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K49" s="124">
         <v>32</v>
@@ -6633,21 +6825,21 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="39"/>
-      <c r="B50" s="208"/>
-      <c r="C50" s="209"/>
-      <c r="D50" s="210"/>
-      <c r="E50" s="210"/>
-      <c r="F50" s="211"/>
+      <c r="B50" s="206"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="208"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="209"/>
       <c r="G50" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H50" s="348"/>
+      <c r="H50" s="294"/>
       <c r="I50" s="128">
         <v>1904020</v>
       </c>
       <c r="J50" s="123" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K50" s="124">
         <v>32</v>
@@ -6666,21 +6858,21 @@
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1">
       <c r="A51" s="39"/>
-      <c r="B51" s="208"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
-      <c r="E51" s="210"/>
-      <c r="F51" s="211"/>
+      <c r="B51" s="206"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="208"/>
+      <c r="F51" s="209"/>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51" s="347"/>
+      <c r="H51" s="293"/>
       <c r="I51" s="128">
         <v>1904021</v>
       </c>
       <c r="J51" s="123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K51" s="124">
         <v>32</v>
@@ -6703,26 +6895,26 @@
       <c r="C52" s="21"/>
       <c r="D52" s="25"/>
       <c r="E52" s="38"/>
-      <c r="F52" s="202"/>
+      <c r="F52" s="200"/>
       <c r="G52" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H52" s="348"/>
-      <c r="I52" s="198">
+      <c r="H52" s="294"/>
+      <c r="I52" s="196">
         <v>1905041</v>
       </c>
       <c r="J52" s="126" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K52" s="110" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L52" s="82">
         <v>2</v>
       </c>
-      <c r="M52" s="199" t="s">
-        <v>149</v>
+      <c r="M52" s="197" t="s">
+        <v>146</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="1"/>
@@ -6733,34 +6925,34 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1">
-      <c r="A53" s="170"/>
-      <c r="B53" s="247"/>
-      <c r="C53" s="248"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="250"/>
-      <c r="F53" s="251"/>
+      <c r="A53" s="168"/>
+      <c r="B53" s="245"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
+      <c r="E53" s="248"/>
+      <c r="F53" s="249"/>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="346"/>
+      <c r="H53" s="292"/>
       <c r="N53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="170"/>
-      <c r="B54" s="247"/>
-      <c r="C54" s="248"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="250"/>
-      <c r="F54" s="251"/>
+      <c r="A54" s="168"/>
+      <c r="B54" s="245"/>
+      <c r="C54" s="246"/>
+      <c r="D54" s="247"/>
+      <c r="E54" s="248"/>
+      <c r="F54" s="249"/>
       <c r="G54" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54" s="346"/>
+      <c r="H54" s="292"/>
       <c r="N54">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6769,7 +6961,7 @@
     <row r="55" spans="1:15" ht="15" thickBot="1">
       <c r="A55" s="40"/>
       <c r="B55" s="94"/>
-      <c r="C55" s="141" t="s">
+      <c r="C55" s="139" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="32"/>
@@ -6781,20 +6973,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55" s="349">
-        <v>1</v>
-      </c>
-      <c r="I55" s="196" t="s">
-        <v>88</v>
+      <c r="H55" s="295">
+        <v>1</v>
+      </c>
+      <c r="I55" s="194" t="s">
+        <v>87</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K55" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L55" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M55" s="20"/>
       <c r="N55" t="str">
@@ -6803,33 +6995,33 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="293" t="s">
+      <c r="A56" s="338" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="174">
+      <c r="B56" s="172">
         <v>1900104</v>
       </c>
-      <c r="C56" s="175" t="s">
+      <c r="C56" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="174" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="176">
+      <c r="D56" s="172" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" s="174">
         <v>3</v>
       </c>
-      <c r="F56" s="234" t="s">
-        <v>136</v>
+      <c r="F56" s="232" t="s">
+        <v>133</v>
       </c>
       <c r="G56" s="5">
         <v>560</v>
       </c>
-      <c r="H56" s="352">
-        <v>1</v>
-      </c>
-      <c r="I56" s="236"/>
-      <c r="J56" s="137" t="s">
-        <v>81</v>
+      <c r="H56" s="298">
+        <v>1</v>
+      </c>
+      <c r="I56" s="234"/>
+      <c r="J56" s="135" t="s">
+        <v>80</v>
       </c>
       <c r="K56" s="103">
         <v>16</v>
@@ -6838,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N56">
         <f t="shared" si="1"/>
@@ -6849,40 +7041,40 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1">
-      <c r="A57" s="294"/>
-      <c r="B57" s="174">
+      <c r="A57" s="339"/>
+      <c r="B57" s="172">
         <v>1900105</v>
       </c>
-      <c r="C57" s="175" t="s">
+      <c r="C57" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="174" t="s">
+      <c r="D57" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="176">
-        <v>1</v>
-      </c>
-      <c r="F57" s="233" t="s">
+      <c r="E57" s="174">
+        <v>1</v>
+      </c>
+      <c r="F57" s="231" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7">
         <v>40</v>
       </c>
-      <c r="H57" s="347">
+      <c r="H57" s="293">
         <v>1</v>
       </c>
       <c r="I57" s="128"/>
       <c r="J57" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="K57" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="L57" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="M57" s="167" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="K57" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="M57" s="165" t="s">
+        <v>147</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="1"/>
@@ -6890,42 +7082,42 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="294"/>
-      <c r="B58" s="174">
+      <c r="A58" s="339"/>
+      <c r="B58" s="172">
         <v>1900107</v>
       </c>
-      <c r="C58" s="175" t="s">
+      <c r="C58" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="174" t="s">
+      <c r="D58" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="176">
-        <v>1</v>
-      </c>
-      <c r="F58" s="233" t="s">
+      <c r="E58" s="174">
+        <v>1</v>
+      </c>
+      <c r="F58" s="231" t="s">
         <v>26</v>
       </c>
       <c r="G58" s="5">
         <v>40</v>
       </c>
-      <c r="H58" s="348">
+      <c r="H58" s="294">
         <v>1</v>
       </c>
       <c r="I58" s="128" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="K58" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="L58" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="M58" s="167" t="s">
-        <v>95</v>
+        <v>153</v>
+      </c>
+      <c r="K58" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="L58" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="M58" s="165" t="s">
+        <v>94</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="1"/>
@@ -6933,40 +7125,40 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1">
-      <c r="A59" s="294"/>
-      <c r="B59" s="178"/>
-      <c r="C59" s="179" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="180" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="181">
+      <c r="A59" s="339"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="179">
         <v>2</v>
       </c>
-      <c r="F59" s="235" t="s">
+      <c r="F59" s="233" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="7">
         <v>40</v>
       </c>
-      <c r="H59" s="347">
+      <c r="H59" s="293">
         <v>1</v>
       </c>
       <c r="I59" s="128" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J59" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="K59" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="L59" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="M59" s="167" t="s">
-        <v>86</v>
+        <v>153</v>
+      </c>
+      <c r="K59" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59" s="165" t="s">
+        <v>85</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="1"/>
@@ -6974,121 +7166,121 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="294"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F60" s="118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G60" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H60" s="348"/>
+      <c r="H60" s="294"/>
       <c r="I60" s="128" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J60" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="K60" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="L60" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="M60" s="167"/>
+        <v>153</v>
+      </c>
+      <c r="K60" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="L60" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="M60" s="165"/>
       <c r="N60" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1">
-      <c r="A61" s="294"/>
+      <c r="A61" s="339"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="118" t="s">
         <v>86</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="118" t="s">
-        <v>87</v>
       </c>
       <c r="G61" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H61" s="347"/>
+      <c r="H61" s="293"/>
       <c r="I61" s="128" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J61" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="K61" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="L61" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="M61" s="167"/>
+        <v>153</v>
+      </c>
+      <c r="K61" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="M61" s="165"/>
       <c r="N61" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="294"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>95</v>
-      </c>
       <c r="E62" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F62" s="118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H62" s="348"/>
+      <c r="H62" s="294"/>
       <c r="I62" s="128" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J62" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="K62" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="L62" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="M62" s="167"/>
+        <v>92</v>
+      </c>
+      <c r="K62" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="M62" s="165"/>
       <c r="N62" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1">
-      <c r="A63" s="295"/>
+      <c r="A63" s="340"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
@@ -7098,12 +7290,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H63" s="349"/>
-      <c r="I63" s="196">
+      <c r="H63" s="295"/>
+      <c r="I63" s="194">
         <v>199650</v>
       </c>
       <c r="J63" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K63" s="43">
         <v>24</v>
@@ -7124,30 +7316,30 @@
       <c r="A64" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="182">
+      <c r="B64" s="180">
         <v>1900106</v>
       </c>
-      <c r="C64" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="182" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="184">
+      <c r="C64" s="181" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="180" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="182">
         <v>3</v>
       </c>
-      <c r="F64" s="177" t="s">
+      <c r="F64" s="175" t="s">
         <v>41</v>
       </c>
       <c r="G64" s="5">
         <v>480</v>
       </c>
-      <c r="H64" s="348">
+      <c r="H64" s="294">
         <v>1</v>
       </c>
       <c r="I64" s="120"/>
       <c r="J64" s="44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K64" s="45"/>
       <c r="L64" s="46">
@@ -7164,23 +7356,23 @@
     </row>
     <row r="65" spans="1:14" ht="15" thickBot="1">
       <c r="A65" s="47"/>
-      <c r="B65" s="185"/>
-      <c r="C65" s="186" t="s">
+      <c r="B65" s="183"/>
+      <c r="C65" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="187" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="188">
-        <v>1</v>
-      </c>
-      <c r="F65" s="189" t="s">
-        <v>142</v>
+      <c r="D65" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="186">
+        <v>1</v>
+      </c>
+      <c r="F65" s="187" t="s">
+        <v>139</v>
       </c>
       <c r="G65" s="7">
         <v>40</v>
       </c>
-      <c r="H65" s="349">
+      <c r="H65" s="295">
         <v>1</v>
       </c>
       <c r="I65" s="119"/>
@@ -7206,11 +7398,11 @@
         <f>SUM(F4:F65)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="343">
+      <c r="G66" s="289">
         <f>SUM(G3:G65)</f>
         <v>2721</v>
       </c>
-      <c r="H66" s="343">
+      <c r="H66" s="289">
         <f>SUM(H3:H65)</f>
         <v>48</v>
       </c>
@@ -7303,36 +7495,36 @@
       <c r="L71" s="64"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="143" t="s">
+      <c r="A72" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="144"/>
-      <c r="C72" s="296" t="s">
+      <c r="B72" s="142"/>
+      <c r="C72" s="329" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="330"/>
+      <c r="E72" s="331"/>
+      <c r="F72" s="329" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="330"/>
+      <c r="H72" s="330"/>
+      <c r="I72" s="330"/>
+      <c r="J72" s="331"/>
+      <c r="K72" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="297"/>
-      <c r="E72" s="298"/>
-      <c r="F72" s="296" t="s">
+      <c r="L72" s="332"/>
+      <c r="M72" s="333"/>
+    </row>
+    <row r="73" spans="1:14" ht="26">
+      <c r="A73" s="143">
+        <v>1</v>
+      </c>
+      <c r="B73" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="G72" s="297"/>
-      <c r="H72" s="297"/>
-      <c r="I72" s="297"/>
-      <c r="J72" s="298"/>
-      <c r="K72" s="299" t="s">
-        <v>118</v>
-      </c>
-      <c r="L72" s="299"/>
-      <c r="M72" s="300"/>
-    </row>
-    <row r="73" spans="1:14" ht="26">
-      <c r="A73" s="145">
-        <v>1</v>
-      </c>
-      <c r="B73" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="146" t="s">
+      <c r="C73" s="144" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="68">
@@ -7343,142 +7535,142 @@
         <f>SUM(E4,E5,E13,E14,E15,E22,E23,E30,E31)</f>
         <v>24</v>
       </c>
-      <c r="F73" s="147" t="s">
+      <c r="F73" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="147"/>
-      <c r="H73" s="147"/>
-      <c r="I73" s="148">
+      <c r="G73" s="145"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="146">
         <f>SUM(D32:D33,D60,D68)</f>
         <v>72</v>
       </c>
-      <c r="J73" s="149">
+      <c r="J73" s="147">
         <v>18</v>
       </c>
-      <c r="K73" s="301" t="s">
-        <v>120</v>
-      </c>
-      <c r="L73" s="302"/>
-      <c r="M73" s="303"/>
+      <c r="K73" s="334" t="s">
+        <v>118</v>
+      </c>
+      <c r="L73" s="335"/>
+      <c r="M73" s="336"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="304">
+      <c r="A74" s="321">
         <v>2</v>
       </c>
-      <c r="B74" s="305" t="s">
+      <c r="B74" s="337" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="150"/>
-      <c r="D74" s="150"/>
-      <c r="E74" s="150"/>
-      <c r="F74" s="151" t="s">
+      <c r="C74" s="148"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="151"/>
-      <c r="H74" s="151"/>
-      <c r="I74" s="150"/>
-      <c r="J74" s="152">
+      <c r="G74" s="149"/>
+      <c r="H74" s="149"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="150">
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="K74" s="307"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="308"/>
+      <c r="K74" s="325"/>
+      <c r="L74" s="325"/>
+      <c r="M74" s="326"/>
     </row>
     <row r="75" spans="1:14" ht="26">
-      <c r="A75" s="304"/>
-      <c r="B75" s="306"/>
-      <c r="C75" s="153"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="155" t="s">
-        <v>127</v>
-      </c>
-      <c r="G75" s="155"/>
-      <c r="H75" s="155"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154">
+      <c r="A75" s="321"/>
+      <c r="B75" s="322"/>
+      <c r="C75" s="151"/>
+      <c r="D75" s="152"/>
+      <c r="E75" s="152"/>
+      <c r="F75" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="153"/>
+      <c r="H75" s="153"/>
+      <c r="I75" s="152"/>
+      <c r="J75" s="152">
         <v>5</v>
       </c>
-      <c r="K75" s="307"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="308"/>
+      <c r="K75" s="325"/>
+      <c r="L75" s="325"/>
+      <c r="M75" s="326"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="304">
+      <c r="A76" s="321">
         <v>3</v>
       </c>
-      <c r="B76" s="306" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="157"/>
-      <c r="E76" s="158">
+      <c r="B76" s="322" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="155"/>
+      <c r="E76" s="156">
         <f>SUM(E9+E12+E17+E24+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+E48+E49)</f>
         <v>40</v>
       </c>
-      <c r="F76" s="159" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76" s="159"/>
-      <c r="H76" s="159"/>
-      <c r="I76" s="160"/>
-      <c r="J76" s="160">
+      <c r="F76" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="157"/>
+      <c r="H76" s="157"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="158">
         <v>26</v>
       </c>
-      <c r="K76" s="309"/>
-      <c r="L76" s="309"/>
-      <c r="M76" s="310"/>
+      <c r="K76" s="323"/>
+      <c r="L76" s="323"/>
+      <c r="M76" s="324"/>
     </row>
     <row r="77" spans="1:14" ht="26">
-      <c r="A77" s="304"/>
-      <c r="B77" s="306"/>
-      <c r="C77" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" s="157"/>
-      <c r="E77" s="158"/>
-      <c r="F77" s="161" t="s">
-        <v>129</v>
-      </c>
-      <c r="G77" s="161"/>
-      <c r="H77" s="161"/>
+      <c r="A77" s="321"/>
+      <c r="B77" s="322"/>
+      <c r="C77" s="154" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="155"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="159" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="159"/>
+      <c r="H77" s="159"/>
       <c r="I77" s="31"/>
       <c r="J77" s="69"/>
-      <c r="K77" s="307"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="308"/>
+      <c r="K77" s="325"/>
+      <c r="L77" s="325"/>
+      <c r="M77" s="326"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1">
-      <c r="A78" s="162" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="163">
+      <c r="A78" s="160" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="161">
         <f>E78+J74+J73+J75+J76</f>
         <v>123</v>
       </c>
-      <c r="C78" s="164"/>
-      <c r="D78" s="164"/>
-      <c r="E78" s="163">
+      <c r="C78" s="162"/>
+      <c r="D78" s="162"/>
+      <c r="E78" s="161">
         <f>SUM(E73:E76)</f>
         <v>64</v>
       </c>
-      <c r="F78" s="164">
+      <c r="F78" s="162">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G78" s="280"/>
-      <c r="H78" s="280"/>
-      <c r="I78" s="164"/>
-      <c r="J78" s="163">
+      <c r="G78" s="278"/>
+      <c r="H78" s="278"/>
+      <c r="I78" s="162"/>
+      <c r="J78" s="161">
         <f>SUM(J73:J77)</f>
         <v>59</v>
       </c>
-      <c r="K78" s="311"/>
-      <c r="L78" s="311"/>
-      <c r="M78" s="312"/>
+      <c r="K78" s="327"/>
+      <c r="L78" s="327"/>
+      <c r="M78" s="328"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="63"/>
@@ -7502,23 +7694,23 @@
       <c r="D80" s="64"/>
       <c r="E80" s="64"/>
       <c r="F80" s="64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
       <c r="I80" s="64"/>
       <c r="J80" s="65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K80" s="64"/>
       <c r="L80" s="64"/>
       <c r="M80" s="64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="41" customHeight="1" thickBot="1">
-      <c r="A81" s="314" t="s">
-        <v>235</v>
+      <c r="A81" s="282" t="s">
+        <v>230</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -7534,359 +7726,359 @@
       <c r="M81"/>
     </row>
     <row r="82" spans="1:14" ht="19" customHeight="1">
-      <c r="A82" s="320"/>
-      <c r="B82" s="321"/>
-      <c r="C82" s="321"/>
-      <c r="D82" s="321"/>
-      <c r="E82" s="321"/>
-      <c r="F82" s="322"/>
-      <c r="G82" s="315"/>
-      <c r="H82" s="315"/>
-      <c r="I82" s="315" t="s">
+      <c r="A82" s="302"/>
+      <c r="B82" s="308"/>
+      <c r="C82" s="308"/>
+      <c r="D82" s="308"/>
+      <c r="E82" s="308"/>
+      <c r="F82" s="303"/>
+      <c r="G82" s="283"/>
+      <c r="H82" s="283"/>
+      <c r="I82" s="283" t="s">
+        <v>201</v>
+      </c>
+      <c r="J82" s="319" t="s">
+        <v>203</v>
+      </c>
+      <c r="K82" s="283" t="s">
+        <v>204</v>
+      </c>
+      <c r="L82" s="319" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82" s="283" t="s">
         <v>206</v>
       </c>
-      <c r="J82" s="326" t="s">
+      <c r="N82" s="319" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="29" thickBot="1">
+      <c r="A83" s="316" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="317"/>
+      <c r="C83" s="317"/>
+      <c r="D83" s="317"/>
+      <c r="E83" s="317"/>
+      <c r="F83" s="318"/>
+      <c r="G83" s="290"/>
+      <c r="H83" s="290"/>
+      <c r="I83" s="284" t="s">
+        <v>202</v>
+      </c>
+      <c r="J83" s="320"/>
+      <c r="K83" s="284" t="s">
+        <v>205</v>
+      </c>
+      <c r="L83" s="320"/>
+      <c r="M83" s="284" t="s">
+        <v>205</v>
+      </c>
+      <c r="N83" s="320"/>
+    </row>
+    <row r="84" spans="1:14" ht="15" thickBot="1">
+      <c r="A84" s="302" t="s">
         <v>208</v>
       </c>
-      <c r="K82" s="315" t="s">
+      <c r="B84" s="303"/>
+      <c r="C84" s="299" t="s">
         <v>209</v>
       </c>
-      <c r="L82" s="326" t="s">
-        <v>6</v>
-      </c>
-      <c r="M82" s="315" t="s">
+      <c r="D84" s="301"/>
+      <c r="E84" s="301"/>
+      <c r="F84" s="300"/>
+      <c r="G84" s="284"/>
+      <c r="H84" s="284"/>
+      <c r="I84" s="284"/>
+      <c r="J84" s="284"/>
+      <c r="K84" s="284"/>
+      <c r="L84" s="284"/>
+      <c r="M84" s="284"/>
+      <c r="N84" s="284"/>
+    </row>
+    <row r="85" spans="1:14" ht="15" thickBot="1">
+      <c r="A85" s="304"/>
+      <c r="B85" s="305"/>
+      <c r="C85" s="302" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="303"/>
+      <c r="E85" s="299" t="s">
         <v>211</v>
       </c>
-      <c r="N82" s="326" t="s">
+      <c r="F85" s="300"/>
+      <c r="G85" s="284"/>
+      <c r="H85" s="284"/>
+      <c r="I85" s="284"/>
+      <c r="J85" s="284"/>
+      <c r="K85" s="284"/>
+      <c r="L85" s="284"/>
+      <c r="M85" s="284"/>
+      <c r="N85" s="284"/>
+    </row>
+    <row r="86" spans="1:14" ht="15" thickBot="1">
+      <c r="A86" s="306"/>
+      <c r="B86" s="307"/>
+      <c r="C86" s="306"/>
+      <c r="D86" s="307"/>
+      <c r="E86" s="299" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="29" thickBot="1">
-      <c r="A83" s="323" t="s">
-        <v>205</v>
-      </c>
-      <c r="B83" s="324"/>
-      <c r="C83" s="324"/>
-      <c r="D83" s="324"/>
-      <c r="E83" s="324"/>
-      <c r="F83" s="325"/>
-      <c r="G83" s="344"/>
-      <c r="H83" s="344"/>
-      <c r="I83" s="316" t="s">
-        <v>207</v>
-      </c>
-      <c r="J83" s="327"/>
-      <c r="K83" s="316" t="s">
-        <v>210</v>
-      </c>
-      <c r="L83" s="327"/>
-      <c r="M83" s="316" t="s">
-        <v>210</v>
-      </c>
-      <c r="N83" s="327"/>
-    </row>
-    <row r="84" spans="1:14" ht="15" thickBot="1">
-      <c r="A84" s="320" t="s">
+      <c r="F86" s="300"/>
+      <c r="G86" s="284"/>
+      <c r="H86" s="284"/>
+      <c r="I86" s="284"/>
+      <c r="J86" s="284"/>
+      <c r="K86" s="284"/>
+      <c r="L86" s="284"/>
+      <c r="M86" s="284"/>
+      <c r="N86" s="284"/>
+    </row>
+    <row r="87" spans="1:14" ht="15" thickBot="1">
+      <c r="A87" s="302" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="322"/>
-      <c r="C84" s="332" t="s">
+      <c r="B87" s="303"/>
+      <c r="C87" s="299" t="s">
         <v>214</v>
       </c>
-      <c r="D84" s="333"/>
-      <c r="E84" s="333"/>
-      <c r="F84" s="334"/>
-      <c r="G84" s="316"/>
-      <c r="H84" s="316"/>
-      <c r="I84" s="316"/>
-      <c r="J84" s="316"/>
-      <c r="K84" s="316"/>
-      <c r="L84" s="316"/>
-      <c r="M84" s="316"/>
-      <c r="N84" s="316"/>
-    </row>
-    <row r="85" spans="1:14" ht="15" thickBot="1">
-      <c r="A85" s="328"/>
-      <c r="B85" s="329"/>
-      <c r="C85" s="320" t="s">
+      <c r="D87" s="301"/>
+      <c r="E87" s="301"/>
+      <c r="F87" s="300"/>
+      <c r="G87" s="284"/>
+      <c r="H87" s="284"/>
+      <c r="I87" s="284"/>
+      <c r="J87" s="284"/>
+      <c r="K87" s="284"/>
+      <c r="L87" s="284"/>
+      <c r="M87" s="284"/>
+      <c r="N87" s="284"/>
+    </row>
+    <row r="88" spans="1:14" ht="15" thickBot="1">
+      <c r="A88" s="304"/>
+      <c r="B88" s="305"/>
+      <c r="C88" s="299" t="s">
         <v>215</v>
       </c>
-      <c r="D85" s="322"/>
-      <c r="E85" s="332" t="s">
+      <c r="D88" s="301"/>
+      <c r="E88" s="301"/>
+      <c r="F88" s="300"/>
+      <c r="G88" s="284"/>
+      <c r="H88" s="284"/>
+      <c r="I88" s="284"/>
+      <c r="J88" s="284"/>
+      <c r="K88" s="284"/>
+      <c r="L88" s="284"/>
+      <c r="M88" s="284"/>
+      <c r="N88" s="284"/>
+    </row>
+    <row r="89" spans="1:14" ht="15" thickBot="1">
+      <c r="A89" s="304"/>
+      <c r="B89" s="305"/>
+      <c r="C89" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="F85" s="334"/>
-      <c r="G85" s="316"/>
-      <c r="H85" s="316"/>
-      <c r="I85" s="316"/>
-      <c r="J85" s="316"/>
-      <c r="K85" s="316"/>
-      <c r="L85" s="316"/>
-      <c r="M85" s="316"/>
-      <c r="N85" s="316"/>
-    </row>
-    <row r="86" spans="1:14" ht="15" thickBot="1">
-      <c r="A86" s="330"/>
-      <c r="B86" s="331"/>
-      <c r="C86" s="330"/>
-      <c r="D86" s="331"/>
-      <c r="E86" s="332" t="s">
+      <c r="D89" s="301"/>
+      <c r="E89" s="300"/>
+      <c r="F89" s="284" t="s">
         <v>217</v>
       </c>
-      <c r="F86" s="334"/>
-      <c r="G86" s="316"/>
-      <c r="H86" s="316"/>
-      <c r="I86" s="316"/>
-      <c r="J86" s="316"/>
-      <c r="K86" s="316"/>
-      <c r="L86" s="316"/>
-      <c r="M86" s="316"/>
-      <c r="N86" s="316"/>
-    </row>
-    <row r="87" spans="1:14" ht="15" thickBot="1">
-      <c r="A87" s="320" t="s">
+      <c r="G89" s="284"/>
+      <c r="H89" s="284"/>
+      <c r="I89" s="284"/>
+      <c r="J89" s="284"/>
+      <c r="K89" s="284"/>
+      <c r="L89" s="284"/>
+      <c r="M89" s="284"/>
+      <c r="N89" s="284"/>
+    </row>
+    <row r="90" spans="1:14" ht="15" thickBot="1">
+      <c r="A90" s="304"/>
+      <c r="B90" s="305"/>
+      <c r="C90" s="302"/>
+      <c r="D90" s="308"/>
+      <c r="E90" s="303"/>
+      <c r="F90" s="284" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90" s="284"/>
+      <c r="H90" s="284"/>
+      <c r="I90" s="284"/>
+      <c r="J90" s="284"/>
+      <c r="K90" s="284"/>
+      <c r="L90" s="284"/>
+      <c r="M90" s="284"/>
+      <c r="N90" s="284"/>
+    </row>
+    <row r="91" spans="1:14" ht="15" thickBot="1">
+      <c r="A91" s="304"/>
+      <c r="B91" s="305"/>
+      <c r="C91" s="304"/>
+      <c r="D91" s="309"/>
+      <c r="E91" s="305"/>
+      <c r="F91" s="284" t="s">
+        <v>220</v>
+      </c>
+      <c r="G91" s="284"/>
+      <c r="H91" s="284"/>
+      <c r="I91" s="284"/>
+      <c r="J91" s="284"/>
+      <c r="K91" s="284"/>
+      <c r="L91" s="284"/>
+      <c r="M91" s="284"/>
+      <c r="N91" s="284"/>
+    </row>
+    <row r="92" spans="1:14" ht="15" thickBot="1">
+      <c r="A92" s="304"/>
+      <c r="B92" s="305"/>
+      <c r="C92" s="304" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="322"/>
-      <c r="C87" s="332" t="s">
-        <v>219</v>
-      </c>
-      <c r="D87" s="333"/>
-      <c r="E87" s="333"/>
-      <c r="F87" s="334"/>
-      <c r="G87" s="316"/>
-      <c r="H87" s="316"/>
-      <c r="I87" s="316"/>
-      <c r="J87" s="316"/>
-      <c r="K87" s="316"/>
-      <c r="L87" s="316"/>
-      <c r="M87" s="316"/>
-      <c r="N87" s="316"/>
-    </row>
-    <row r="88" spans="1:14" ht="15" thickBot="1">
-      <c r="A88" s="328"/>
-      <c r="B88" s="329"/>
-      <c r="C88" s="332" t="s">
-        <v>220</v>
-      </c>
-      <c r="D88" s="333"/>
-      <c r="E88" s="333"/>
-      <c r="F88" s="334"/>
-      <c r="G88" s="316"/>
-      <c r="H88" s="316"/>
-      <c r="I88" s="316"/>
-      <c r="J88" s="316"/>
-      <c r="K88" s="316"/>
-      <c r="L88" s="316"/>
-      <c r="M88" s="316"/>
-      <c r="N88" s="316"/>
-    </row>
-    <row r="89" spans="1:14" ht="15" thickBot="1">
-      <c r="A89" s="328"/>
-      <c r="B89" s="329"/>
-      <c r="C89" s="332" t="s">
+      <c r="D92" s="309"/>
+      <c r="E92" s="305"/>
+      <c r="F92" s="284" t="s">
         <v>221</v>
       </c>
-      <c r="D89" s="333"/>
-      <c r="E89" s="334"/>
-      <c r="F89" s="316" t="s">
+      <c r="G92" s="284"/>
+      <c r="H92" s="284"/>
+      <c r="I92" s="284"/>
+      <c r="J92" s="284"/>
+      <c r="K92" s="284"/>
+      <c r="L92" s="284"/>
+      <c r="M92" s="284"/>
+      <c r="N92" s="284"/>
+    </row>
+    <row r="93" spans="1:14" ht="15" thickBot="1">
+      <c r="A93" s="304"/>
+      <c r="B93" s="305"/>
+      <c r="C93" s="310"/>
+      <c r="D93" s="311"/>
+      <c r="E93" s="312"/>
+      <c r="F93" s="284" t="s">
         <v>222</v>
       </c>
-      <c r="G89" s="316"/>
-      <c r="H89" s="316"/>
-      <c r="I89" s="316"/>
-      <c r="J89" s="316"/>
-      <c r="K89" s="316"/>
-      <c r="L89" s="316"/>
-      <c r="M89" s="316"/>
-      <c r="N89" s="316"/>
-    </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1">
-      <c r="A90" s="328"/>
-      <c r="B90" s="329"/>
-      <c r="C90" s="320"/>
-      <c r="D90" s="321"/>
-      <c r="E90" s="322"/>
-      <c r="F90" s="316" t="s">
+      <c r="G93" s="284"/>
+      <c r="H93" s="284"/>
+      <c r="I93" s="284"/>
+      <c r="J93" s="284"/>
+      <c r="K93" s="284"/>
+      <c r="L93" s="284"/>
+      <c r="M93" s="284"/>
+      <c r="N93" s="284"/>
+    </row>
+    <row r="94" spans="1:14" ht="15" thickBot="1">
+      <c r="A94" s="304"/>
+      <c r="B94" s="305"/>
+      <c r="C94" s="310"/>
+      <c r="D94" s="311"/>
+      <c r="E94" s="312"/>
+      <c r="F94" s="284" t="s">
+        <v>223</v>
+      </c>
+      <c r="G94" s="284"/>
+      <c r="H94" s="284"/>
+      <c r="I94" s="284"/>
+      <c r="J94" s="284"/>
+      <c r="K94" s="284"/>
+      <c r="L94" s="284"/>
+      <c r="M94" s="284"/>
+      <c r="N94" s="284"/>
+    </row>
+    <row r="95" spans="1:14" ht="15" thickBot="1">
+      <c r="A95" s="304"/>
+      <c r="B95" s="305"/>
+      <c r="C95" s="313"/>
+      <c r="D95" s="314"/>
+      <c r="E95" s="315"/>
+      <c r="F95" s="285" t="s">
         <v>224</v>
       </c>
-      <c r="G90" s="316"/>
-      <c r="H90" s="316"/>
-      <c r="I90" s="316"/>
-      <c r="J90" s="316"/>
-      <c r="K90" s="316"/>
-      <c r="L90" s="316"/>
-      <c r="M90" s="316"/>
-      <c r="N90" s="316"/>
-    </row>
-    <row r="91" spans="1:14" ht="15" thickBot="1">
-      <c r="A91" s="328"/>
-      <c r="B91" s="329"/>
-      <c r="C91" s="328"/>
-      <c r="D91" s="335"/>
-      <c r="E91" s="329"/>
-      <c r="F91" s="316" t="s">
+      <c r="G95" s="285"/>
+      <c r="H95" s="285"/>
+      <c r="I95" s="284"/>
+      <c r="J95" s="284"/>
+      <c r="K95" s="284"/>
+      <c r="L95" s="284"/>
+      <c r="M95" s="284"/>
+      <c r="N95" s="284"/>
+    </row>
+    <row r="96" spans="1:14" ht="15" thickBot="1">
+      <c r="A96" s="306"/>
+      <c r="B96" s="307"/>
+      <c r="C96" s="299" t="s">
         <v>225</v>
       </c>
-      <c r="G91" s="316"/>
-      <c r="H91" s="316"/>
-      <c r="I91" s="316"/>
-      <c r="J91" s="316"/>
-      <c r="K91" s="316"/>
-      <c r="L91" s="316"/>
-      <c r="M91" s="316"/>
-      <c r="N91" s="316"/>
-    </row>
-    <row r="92" spans="1:14" ht="15" thickBot="1">
-      <c r="A92" s="328"/>
-      <c r="B92" s="329"/>
-      <c r="C92" s="328" t="s">
-        <v>223</v>
-      </c>
-      <c r="D92" s="335"/>
-      <c r="E92" s="329"/>
-      <c r="F92" s="316" t="s">
+      <c r="D96" s="301"/>
+      <c r="E96" s="300"/>
+      <c r="F96" s="285"/>
+      <c r="G96" s="285"/>
+      <c r="H96" s="285"/>
+      <c r="I96" s="284"/>
+      <c r="J96" s="284"/>
+      <c r="K96" s="284"/>
+      <c r="L96" s="284"/>
+      <c r="M96" s="284"/>
+      <c r="N96" s="284"/>
+    </row>
+    <row r="97" spans="1:14" ht="15" thickBot="1">
+      <c r="A97" s="299" t="s">
         <v>226</v>
       </c>
-      <c r="G92" s="316"/>
-      <c r="H92" s="316"/>
-      <c r="I92" s="316"/>
-      <c r="J92" s="316"/>
-      <c r="K92" s="316"/>
-      <c r="L92" s="316"/>
-      <c r="M92" s="316"/>
-      <c r="N92" s="316"/>
-    </row>
-    <row r="93" spans="1:14" ht="15" thickBot="1">
-      <c r="A93" s="328"/>
-      <c r="B93" s="329"/>
-      <c r="C93" s="337"/>
-      <c r="D93" s="336"/>
-      <c r="E93" s="338"/>
-      <c r="F93" s="316" t="s">
+      <c r="B97" s="301"/>
+      <c r="C97" s="301"/>
+      <c r="D97" s="301"/>
+      <c r="E97" s="301"/>
+      <c r="F97" s="300"/>
+      <c r="G97" s="284"/>
+      <c r="H97" s="284"/>
+      <c r="I97" s="284"/>
+      <c r="J97" s="284"/>
+      <c r="K97" s="284"/>
+      <c r="L97" s="284"/>
+      <c r="M97" s="284"/>
+      <c r="N97" s="284"/>
+    </row>
+    <row r="98" spans="1:14" ht="29" thickBot="1">
+      <c r="A98" s="286" t="s">
         <v>227</v>
       </c>
-      <c r="G93" s="316"/>
-      <c r="H93" s="316"/>
-      <c r="I93" s="316"/>
-      <c r="J93" s="316"/>
-      <c r="K93" s="316"/>
-      <c r="L93" s="316"/>
-      <c r="M93" s="316"/>
-      <c r="N93" s="316"/>
-    </row>
-    <row r="94" spans="1:14" ht="15" thickBot="1">
-      <c r="A94" s="328"/>
-      <c r="B94" s="329"/>
-      <c r="C94" s="337"/>
-      <c r="D94" s="336"/>
-      <c r="E94" s="338"/>
-      <c r="F94" s="316" t="s">
+      <c r="B98" s="299"/>
+      <c r="C98" s="300"/>
+      <c r="D98" s="299" t="s">
         <v>228</v>
       </c>
-      <c r="G94" s="316"/>
-      <c r="H94" s="316"/>
-      <c r="I94" s="316"/>
-      <c r="J94" s="316"/>
-      <c r="K94" s="316"/>
-      <c r="L94" s="316"/>
-      <c r="M94" s="316"/>
-      <c r="N94" s="316"/>
-    </row>
-    <row r="95" spans="1:14" ht="15" thickBot="1">
-      <c r="A95" s="328"/>
-      <c r="B95" s="329"/>
-      <c r="C95" s="340"/>
-      <c r="D95" s="339"/>
-      <c r="E95" s="341"/>
-      <c r="F95" s="317" t="s">
+      <c r="E98" s="301"/>
+      <c r="F98" s="300"/>
+      <c r="G98" s="291"/>
+      <c r="H98" s="291"/>
+      <c r="I98" s="299"/>
+      <c r="J98" s="300"/>
+      <c r="K98" s="299" t="s">
         <v>229</v>
       </c>
-      <c r="G95" s="317"/>
-      <c r="H95" s="317"/>
-      <c r="I95" s="316"/>
-      <c r="J95" s="316"/>
-      <c r="K95" s="316"/>
-      <c r="L95" s="316"/>
-      <c r="M95" s="316"/>
-      <c r="N95" s="316"/>
-    </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1">
-      <c r="A96" s="330"/>
-      <c r="B96" s="331"/>
-      <c r="C96" s="332" t="s">
-        <v>230</v>
-      </c>
-      <c r="D96" s="333"/>
-      <c r="E96" s="334"/>
-      <c r="F96" s="317"/>
-      <c r="G96" s="317"/>
-      <c r="H96" s="317"/>
-      <c r="I96" s="316"/>
-      <c r="J96" s="316"/>
-      <c r="K96" s="316"/>
-      <c r="L96" s="316"/>
-      <c r="M96" s="316"/>
-      <c r="N96" s="316"/>
-    </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1">
-      <c r="A97" s="332" t="s">
-        <v>231</v>
-      </c>
-      <c r="B97" s="333"/>
-      <c r="C97" s="333"/>
-      <c r="D97" s="333"/>
-      <c r="E97" s="333"/>
-      <c r="F97" s="334"/>
-      <c r="G97" s="316"/>
-      <c r="H97" s="316"/>
-      <c r="I97" s="316"/>
-      <c r="J97" s="316"/>
-      <c r="K97" s="316"/>
-      <c r="L97" s="316"/>
-      <c r="M97" s="316"/>
-      <c r="N97" s="316"/>
-    </row>
-    <row r="98" spans="1:14" ht="29" thickBot="1">
-      <c r="A98" s="318" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="332"/>
-      <c r="C98" s="334"/>
-      <c r="D98" s="332" t="s">
-        <v>233</v>
-      </c>
-      <c r="E98" s="333"/>
-      <c r="F98" s="334"/>
-      <c r="G98" s="345"/>
-      <c r="H98" s="345"/>
-      <c r="I98" s="332"/>
-      <c r="J98" s="334"/>
-      <c r="K98" s="332" t="s">
-        <v>234</v>
-      </c>
-      <c r="L98" s="334"/>
-      <c r="M98" s="332"/>
-      <c r="N98" s="334"/>
+      <c r="L98" s="300"/>
+      <c r="M98" s="299"/>
+      <c r="N98" s="300"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="319"/>
-      <c r="B99" s="319"/>
-      <c r="C99" s="319"/>
-      <c r="D99" s="319"/>
-      <c r="E99" s="319"/>
-      <c r="F99" s="319"/>
-      <c r="G99" s="319"/>
-      <c r="H99" s="319"/>
-      <c r="I99" s="319"/>
-      <c r="J99" s="319"/>
-      <c r="K99" s="319"/>
-      <c r="L99" s="319"/>
-      <c r="M99" s="319"/>
-      <c r="N99" s="319"/>
+      <c r="A99" s="287"/>
+      <c r="B99" s="287"/>
+      <c r="C99" s="287"/>
+      <c r="D99" s="287"/>
+      <c r="E99" s="287"/>
+      <c r="F99" s="287"/>
+      <c r="G99" s="287"/>
+      <c r="H99" s="287"/>
+      <c r="I99" s="287"/>
+      <c r="J99" s="287"/>
+      <c r="K99" s="287"/>
+      <c r="L99" s="287"/>
+      <c r="M99" s="287"/>
+      <c r="N99" s="287"/>
     </row>
     <row r="100" spans="1:14" ht="17">
-      <c r="A100" s="314"/>
+      <c r="A100" s="282"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -7902,12 +8094,40 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="A87:B96"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
@@ -7919,40 +8139,12 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7968,10 +8160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7982,49 +8174,56 @@
     <col min="4" max="4" width="7.33203125" style="70" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="70" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="70" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="70" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="70" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="70" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" style="71" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="70" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="70" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="70" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="282" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="283" t="s">
+    <row r="1" spans="1:15" ht="21">
+      <c r="A1" s="341" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+    </row>
+    <row r="2" spans="1:15" ht="15">
+      <c r="A2" s="342" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="285" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="344" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="347" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="313"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="284"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="352"/>
+    </row>
+    <row r="3" spans="1:15" ht="16" thickBot="1">
+      <c r="A3" s="343"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8040,30 +8239,42 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="288" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="288" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="291" t="s">
+      <c r="M3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="288" t="s">
+        <v>256</v>
+      </c>
+      <c r="O3" s="288" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="350" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
         <v>309001</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="137" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5">
@@ -8075,28 +8286,42 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="275">
+      <c r="G4" s="353">
+        <f>D4</f>
+        <v>36</v>
+      </c>
+      <c r="H4" s="353">
+        <v>1</v>
+      </c>
+      <c r="I4" s="273">
         <v>1901023</v>
       </c>
-      <c r="H4" s="276" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" s="277">
+      <c r="J4" s="274" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="275">
         <v>32</v>
       </c>
-      <c r="J4" s="278">
-        <v>1</v>
-      </c>
-      <c r="K4" s="279" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="292"/>
+      <c r="L4" s="276">
+        <v>1</v>
+      </c>
+      <c r="M4" s="277" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="379">
+        <f>K4</f>
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="351"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="138" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7">
@@ -8109,26 +8334,40 @@
       <c r="F5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="G5" s="354">
+        <f>D5</f>
+        <v>54</v>
+      </c>
+      <c r="H5" s="354">
+        <v>1</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="12">
         <v>32</v>
       </c>
-      <c r="J5" s="13">
+      <c r="L5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="292"/>
+      <c r="M5" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5">
+        <f>K5</f>
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="351"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="133" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12">
@@ -8140,28 +8379,39 @@
       <c r="F6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="353">
+        <f t="shared" ref="G6:G66" si="0">D6</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="355">
+        <v>1</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="M6" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="292"/>
+      <c r="N6" s="379" t="str">
+        <f t="shared" ref="N6:N67" si="1">K6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="351"/>
       <c r="B7" s="100">
         <v>1900110</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="133" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12">
@@ -8173,18 +8423,29 @@
       <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="256"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="292"/>
+      <c r="G7" s="354">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H7" s="355">
+        <v>1</v>
+      </c>
+      <c r="I7" s="101"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="254"/>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="351"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="133" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12">
@@ -8197,14 +8458,25 @@
       <c r="F8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="256"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="292"/>
+      <c r="G8" s="353">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H8" s="355">
+        <v>1</v>
+      </c>
+      <c r="I8" s="101"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="351"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -8217,17 +8489,28 @@
       <c r="E9" s="76">
         <v>2</v>
       </c>
-      <c r="F9" s="194" t="s">
+      <c r="F9" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="256"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="292"/>
+      <c r="G9" s="354">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H9" s="356">
+        <v>1</v>
+      </c>
+      <c r="I9" s="101"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="254"/>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="351"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -8236,39 +8519,61 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="194" t="s">
+      <c r="F10" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="256"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="292"/>
+      <c r="G10" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="356">
+        <v>1</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="351"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="194" t="s">
+      <c r="F11" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="292"/>
+      <c r="G11" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="357">
+        <v>1</v>
+      </c>
+      <c r="I11" s="102"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1">
+      <c r="A12" s="351"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18">
         <v>80</v>
@@ -8276,24 +8581,35 @@
       <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1">
-      <c r="A13" s="293" t="s">
+      <c r="G12" s="353">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H12" s="357">
+        <v>1</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17" thickBot="1">
+      <c r="A13" s="338" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
         <v>309002</v>
       </c>
-      <c r="C13" s="139" t="s">
-        <v>55</v>
+      <c r="C13" s="137" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="5">
         <v>36</v>
@@ -8304,26 +8620,41 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="242">
+      <c r="G13" s="354">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="353">
+        <v>1</v>
+      </c>
+      <c r="I13" s="273">
         <v>1902060</v>
       </c>
-      <c r="H13" s="135" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="132">
+      <c r="J13" s="274" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" s="275" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="276">
         <v>2</v>
       </c>
-      <c r="K13" s="105"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="294"/>
+      <c r="M13" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="339"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="138" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7">
@@ -8336,28 +8667,42 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="242">
+      <c r="G14" s="353">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H14" s="353">
+        <v>1</v>
+      </c>
+      <c r="I14" s="240">
         <v>1300004</v>
       </c>
-      <c r="H14" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="106">
+      <c r="J14" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="106">
         <v>54</v>
       </c>
-      <c r="J14" s="106">
+      <c r="L14" s="106">
         <v>3</v>
       </c>
-      <c r="K14" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="294"/>
+      <c r="M14" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="379">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="339"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="138" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -8370,52 +8715,76 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="275">
+      <c r="G15" s="354">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H15" s="354">
+        <v>1</v>
+      </c>
+      <c r="I15" s="273">
         <v>1300008</v>
       </c>
-      <c r="H15" s="276" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="277">
+      <c r="J15" s="274" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="275">
         <v>32</v>
       </c>
-      <c r="J15" s="278">
-        <v>1</v>
-      </c>
-      <c r="K15" s="279" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="294"/>
-      <c r="B16" s="238">
+      <c r="L15" s="276">
+        <v>1</v>
+      </c>
+      <c r="M15" s="277" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="339"/>
+      <c r="B16" s="236">
         <v>1900102</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="241">
-        <v>1</v>
-      </c>
-      <c r="F16" s="240" t="s">
+      <c r="E16" s="239">
+        <v>1</v>
+      </c>
+      <c r="F16" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="270"/>
-      <c r="H16" s="271"/>
-      <c r="I16" s="270"/>
-      <c r="J16" s="270"/>
-      <c r="K16" s="272"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="294"/>
-      <c r="B17" s="201">
+      <c r="G16" s="353">
+        <v>40</v>
+      </c>
+      <c r="H16" s="358">
+        <v>1</v>
+      </c>
+      <c r="I16" s="268"/>
+      <c r="J16" s="269"/>
+      <c r="K16" s="268"/>
+      <c r="L16" s="268"/>
+      <c r="M16" s="270"/>
+      <c r="N16" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="339"/>
+      <c r="B17" s="199">
         <v>1901003</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="22">
         <v>80</v>
@@ -8423,30 +8792,44 @@
       <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="F17" s="202" t="s">
+      <c r="F17" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="243"/>
-      <c r="H17" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="111">
+      <c r="G17" s="354">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H17" s="359">
+        <v>1</v>
+      </c>
+      <c r="I17" s="241"/>
+      <c r="J17" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="111">
         <v>32</v>
       </c>
-      <c r="J17" s="12">
+      <c r="L17" s="12">
         <v>2</v>
       </c>
-      <c r="K17" s="99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="294"/>
-      <c r="B18" s="243">
+      <c r="M17" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="339"/>
+      <c r="B18" s="241">
         <v>1900111</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="111">
         <v>80</v>
@@ -8455,21 +8838,32 @@
         <v>4</v>
       </c>
       <c r="F18" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="270"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="270"/>
-      <c r="J18" s="270"/>
-      <c r="K18" s="272"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="294"/>
+        <v>59</v>
+      </c>
+      <c r="G18" s="353">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H18" s="360">
+        <v>1</v>
+      </c>
+      <c r="I18" s="268"/>
+      <c r="J18" s="269"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="268"/>
+      <c r="M18" s="270"/>
+      <c r="N18" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="339"/>
       <c r="B19" s="87">
         <v>1901002</v>
       </c>
-      <c r="C19" s="136" t="s">
-        <v>58</v>
+      <c r="C19" s="134" t="s">
+        <v>57</v>
       </c>
       <c r="D19" s="106">
         <v>54</v>
@@ -8477,22 +8871,33 @@
       <c r="E19" s="108">
         <v>3</v>
       </c>
-      <c r="F19" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="270"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="270"/>
-      <c r="J19" s="270"/>
-      <c r="K19" s="272"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="294"/>
+      <c r="F19" s="200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="354">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H19" s="361">
+        <v>1</v>
+      </c>
+      <c r="I19" s="268"/>
+      <c r="J19" s="269"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="268"/>
+      <c r="M19" s="270"/>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="339"/>
       <c r="B20" s="87">
         <v>1900112</v>
       </c>
-      <c r="C20" s="136" t="s">
-        <v>59</v>
+      <c r="C20" s="134" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="106">
         <v>64</v>
@@ -8500,22 +8905,33 @@
       <c r="E20" s="108">
         <v>3</v>
       </c>
-      <c r="F20" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="270"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="270"/>
-      <c r="J20" s="270"/>
-      <c r="K20" s="272"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="294"/>
+      <c r="F20" s="200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="353">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H20" s="361">
+        <v>1</v>
+      </c>
+      <c r="I20" s="268"/>
+      <c r="J20" s="269"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="268"/>
+      <c r="M20" s="270"/>
+      <c r="N20" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="339"/>
       <c r="B21" s="87">
         <v>1905045</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D21" s="18">
         <v>32</v>
@@ -8523,50 +8939,72 @@
       <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="244"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="199"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="295"/>
+      <c r="F21" s="200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="354">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H21" s="359">
+        <v>1</v>
+      </c>
+      <c r="I21" s="242"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="197"/>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1">
+      <c r="A22" s="340"/>
       <c r="B22" s="94"/>
-      <c r="C22" s="172" t="s">
-        <v>134</v>
+      <c r="C22" s="170" t="s">
+        <v>132</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="203" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="275">
+      <c r="E22" s="171"/>
+      <c r="F22" s="201" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="362"/>
+      <c r="I22" s="273">
         <v>1905039</v>
       </c>
-      <c r="H22" s="276" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="277" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" s="278">
+      <c r="J22" s="274" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="275" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="276">
         <v>3</v>
       </c>
-      <c r="K22" s="279" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="293" t="s">
+      <c r="M22" s="277" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="379">
+        <v>120</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="338" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
         <v>309003</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="140" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="5">
@@ -8578,28 +9016,39 @@
       <c r="F23" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="354">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H23" s="363">
+        <v>1</v>
+      </c>
+      <c r="I23" s="84">
         <v>1900113</v>
       </c>
-      <c r="H23" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="103">
+      <c r="J23" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="103">
         <v>64</v>
       </c>
-      <c r="J23" s="104">
+      <c r="L23" s="104">
         <v>3</v>
       </c>
-      <c r="K23" s="105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="294"/>
+      <c r="M23" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="339"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="138" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="7">
@@ -8612,27 +9061,38 @@
       <c r="F24" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="136" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="106">
+      <c r="G24" s="353">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H24" s="354">
+        <v>1</v>
+      </c>
+      <c r="I24" s="85"/>
+      <c r="J24" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="106">
         <v>40</v>
       </c>
-      <c r="J24" s="108">
+      <c r="L24" s="108">
         <v>2.5</v>
       </c>
-      <c r="K24" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="294"/>
+      <c r="M24" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="379">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="339"/>
       <c r="B25" s="87">
         <v>1901007</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="18">
         <v>48</v>
@@ -8640,61 +9100,88 @@
       <c r="E25" s="10">
         <v>3</v>
       </c>
-      <c r="F25" s="194" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="275">
+      <c r="F25" s="192" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="354">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H25" s="356">
+        <v>1</v>
+      </c>
+      <c r="I25" s="273">
         <v>1905029</v>
       </c>
-      <c r="H25" s="276" t="s">
-        <v>163</v>
-      </c>
-      <c r="I25" s="277" t="s">
-        <v>202</v>
-      </c>
-      <c r="J25" s="278">
+      <c r="J25" s="274" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="275" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" s="276">
         <v>3</v>
       </c>
-      <c r="K25" s="279"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="294"/>
-      <c r="B26" s="204">
+      <c r="M25" s="277"/>
+      <c r="N25">
+        <v>120</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="339"/>
+      <c r="B26" s="202">
         <v>1901008</v>
       </c>
-      <c r="C26" s="222" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="205">
+      <c r="C26" s="220" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="203">
         <v>32</v>
       </c>
-      <c r="E26" s="223">
-        <v>1</v>
-      </c>
-      <c r="F26" s="222" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="275"/>
-      <c r="H26" s="276" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="277">
+      <c r="E26" s="221">
+        <v>1</v>
+      </c>
+      <c r="F26" s="220" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="353">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J26" s="278">
-        <v>1</v>
-      </c>
-      <c r="K26" s="279" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="294"/>
+      <c r="H26" s="364">
+        <v>1</v>
+      </c>
+      <c r="I26" s="273"/>
+      <c r="J26" s="274" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="275">
+        <v>32</v>
+      </c>
+      <c r="L26" s="276">
+        <v>1</v>
+      </c>
+      <c r="M26" s="277" t="s">
+        <v>172</v>
+      </c>
+      <c r="N26" s="379">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="339"/>
       <c r="B27" s="87">
         <v>1901006</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="18">
         <v>64</v>
@@ -8702,78 +9189,117 @@
       <c r="E27" s="10">
         <v>4</v>
       </c>
-      <c r="F27" s="194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="195"/>
-      <c r="H27" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="111">
+      <c r="F27" s="192" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="354">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H27" s="356">
+        <v>1</v>
+      </c>
+      <c r="I27" s="193"/>
+      <c r="J27" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="111">
         <v>16</v>
       </c>
-      <c r="J27" s="12">
-        <v>1</v>
-      </c>
-      <c r="K27" s="99" t="s">
+      <c r="L27" s="12">
+        <v>1</v>
+      </c>
+      <c r="M27" s="99" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="294"/>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="339"/>
       <c r="B28" s="87">
         <v>1901007</v>
       </c>
-      <c r="C28" s="222" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="205">
+      <c r="C28" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="203">
         <v>32</v>
       </c>
-      <c r="E28" s="223">
-        <v>1</v>
-      </c>
-      <c r="F28" s="222" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="128">
+      <c r="E28" s="221">
+        <v>1</v>
+      </c>
+      <c r="F28" s="220" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="353">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H28" s="364">
+        <v>1</v>
+      </c>
+      <c r="I28" s="128">
         <v>1905028</v>
       </c>
-      <c r="H28" s="252" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="124">
+      <c r="J28" s="250" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="124">
         <v>32</v>
       </c>
-      <c r="J28" s="125">
+      <c r="L28" s="125">
         <v>2</v>
       </c>
-      <c r="K28" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="294"/>
-      <c r="G29" s="128">
+      <c r="M28" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="379">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="339"/>
+      <c r="G29" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="128">
         <v>1905048</v>
       </c>
-      <c r="H29" s="123" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="124">
+      <c r="J29" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="124">
         <v>48</v>
       </c>
-      <c r="J29" s="125">
+      <c r="L29" s="125">
         <v>3</v>
       </c>
-      <c r="K29" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="295"/>
+      <c r="M29" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1">
+      <c r="A30" s="340"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="139" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="26"/>
@@ -8781,94 +9307,136 @@
       <c r="F30" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="G30" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="365">
+        <v>1</v>
+      </c>
+      <c r="I30" s="93"/>
+      <c r="J30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="9">
         <v>48</v>
       </c>
-      <c r="J30" s="10">
+      <c r="L30" s="10">
         <v>3</v>
       </c>
-      <c r="K30" s="269" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="293" t="s">
+      <c r="M30" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="379">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="338" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
         <v>3009004</v>
       </c>
-      <c r="C31" s="206" t="s">
-        <v>145</v>
+      <c r="C31" s="204" t="s">
+        <v>142</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
       </c>
-      <c r="E31" s="207">
+      <c r="E31" s="205">
         <v>2</v>
       </c>
       <c r="F31" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="103">
+      <c r="G31" s="354">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H31" s="363">
+        <v>1</v>
+      </c>
+      <c r="I31" s="112"/>
+      <c r="J31" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="103">
         <v>64</v>
       </c>
-      <c r="J31" s="114">
+      <c r="L31" s="114">
         <v>3</v>
       </c>
-      <c r="K31" s="105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="294"/>
+      <c r="M31" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="339"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
-      <c r="C32" s="190" t="s">
-        <v>146</v>
+      <c r="C32" s="188" t="s">
+        <v>143</v>
       </c>
       <c r="D32" s="7">
         <f>18*E32</f>
         <v>108</v>
       </c>
-      <c r="E32" s="191">
+      <c r="E32" s="189">
         <v>6</v>
       </c>
       <c r="F32" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="128">
+      <c r="G32" s="353">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="H32" s="354">
+        <v>1</v>
+      </c>
+      <c r="I32" s="128">
         <v>1905053</v>
       </c>
-      <c r="H32" s="193" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="253">
+      <c r="J32" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="251">
         <v>48</v>
       </c>
-      <c r="J32" s="254">
+      <c r="L32" s="252">
         <v>3</v>
       </c>
-      <c r="K32" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="294"/>
+      <c r="M32" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="379">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="339"/>
       <c r="B33" s="93">
         <v>1905010</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" s="9">
         <v>48</v>
@@ -8876,30 +9444,46 @@
       <c r="E33" s="10">
         <v>3</v>
       </c>
-      <c r="F33" s="83"/>
-      <c r="G33" s="128">
+      <c r="F33" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="354">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H33" s="366">
+        <v>1</v>
+      </c>
+      <c r="I33" s="128">
         <v>1905026</v>
       </c>
-      <c r="H33" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="116">
+      <c r="J33" s="190" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="116">
         <v>48</v>
       </c>
-      <c r="J33" s="117">
+      <c r="L33" s="117">
         <v>3</v>
       </c>
-      <c r="K33" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="294"/>
+      <c r="M33" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="339"/>
       <c r="B34" s="93">
         <v>1905011</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" s="9">
         <v>32</v>
@@ -8907,67 +9491,102 @@
       <c r="E34" s="10">
         <v>1</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="192" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="K34" s="107" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="294"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="128">
+      <c r="F34" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="353">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H34" s="366">
+        <v>1</v>
+      </c>
+      <c r="I34" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="190" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" s="379" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="339"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="367"/>
+      <c r="I35" s="128">
         <v>1905030</v>
       </c>
-      <c r="H35" s="192" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="116">
+      <c r="J35" s="190" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="116">
         <v>48</v>
       </c>
-      <c r="J35" s="117">
+      <c r="L35" s="117">
         <v>3</v>
       </c>
-      <c r="K35" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="294"/>
-      <c r="B36" s="208"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="295"/>
+      <c r="M35" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="339"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="367"/>
+      <c r="I36" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="115"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" thickBot="1">
+      <c r="A37" s="340"/>
       <c r="B37" s="94"/>
-      <c r="C37" s="141" t="s">
+      <c r="C37" s="139" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="26"/>
@@ -8975,352 +9594,491 @@
       <c r="F37" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="275">
+      <c r="G37" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="365"/>
+      <c r="I37" s="273">
         <v>199641</v>
       </c>
-      <c r="H37" s="276" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" s="277" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="278">
+      <c r="J37" s="274" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="275" t="s">
+        <v>198</v>
+      </c>
+      <c r="L37" s="276">
         <v>2</v>
       </c>
-      <c r="K37" s="279" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="293" t="s">
+      <c r="M37" s="277" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="212">
+      <c r="B38" s="210">
         <v>3300003</v>
       </c>
-      <c r="C38" s="213" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="214">
+      <c r="C38" s="211" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="212">
         <v>18</v>
       </c>
-      <c r="E38" s="215">
-        <v>1</v>
-      </c>
-      <c r="F38" s="216" t="s">
+      <c r="E38" s="213">
+        <v>1</v>
+      </c>
+      <c r="F38" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="229"/>
-      <c r="H38" s="137" t="s">
+      <c r="G38" s="353">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H38" s="368">
+        <v>1</v>
+      </c>
+      <c r="I38" s="227"/>
+      <c r="J38" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="103">
+        <v>32</v>
+      </c>
+      <c r="L38" s="104">
+        <v>2</v>
+      </c>
+      <c r="M38" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="379">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="339"/>
+      <c r="B39" s="215">
+        <v>1905046</v>
+      </c>
+      <c r="C39" s="216" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="217">
+        <v>48</v>
+      </c>
+      <c r="E39" s="218">
+        <v>3</v>
+      </c>
+      <c r="F39" s="192" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="354">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H39" s="356">
+        <v>1</v>
+      </c>
+      <c r="I39" s="273">
+        <v>199625</v>
+      </c>
+      <c r="J39" s="274" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" s="276">
+        <v>2</v>
+      </c>
+      <c r="M39" s="277" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39">
         <v>80</v>
       </c>
-      <c r="I38" s="103">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="339"/>
+      <c r="B40" s="215">
+        <v>1905047</v>
+      </c>
+      <c r="C40" s="220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="203">
         <v>32</v>
       </c>
-      <c r="J38" s="104">
-        <v>2</v>
-      </c>
-      <c r="K38" s="105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="294"/>
-      <c r="B39" s="217">
-        <v>1905046</v>
-      </c>
-      <c r="C39" s="218" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="219">
-        <v>48</v>
-      </c>
-      <c r="E39" s="220">
+      <c r="E40" s="221">
+        <v>1</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="353">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H40" s="366">
+        <v>1</v>
+      </c>
+      <c r="I40" s="128">
+        <v>199624</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="253" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" s="253">
         <v>3</v>
       </c>
-      <c r="F39" s="194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="275">
-        <v>199625</v>
-      </c>
-      <c r="H39" s="276" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="277">
-        <v>32</v>
-      </c>
-      <c r="J39" s="278">
-        <v>2</v>
-      </c>
-      <c r="K39" s="279"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="294"/>
-      <c r="B40" s="217">
-        <v>1905047</v>
-      </c>
-      <c r="C40" s="222" t="s">
+      <c r="M40" s="277" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" s="379">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="339"/>
+      <c r="B41" s="215">
+        <v>1901015</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="D40" s="205">
-        <v>32</v>
-      </c>
-      <c r="E40" s="223">
-        <v>1</v>
-      </c>
-      <c r="F40" s="222" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="128">
-        <v>199624</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="255">
-        <v>48</v>
-      </c>
-      <c r="J40" s="255">
-        <v>3</v>
-      </c>
-      <c r="K40" s="256"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="294"/>
-      <c r="B41" s="217">
-        <v>1901015</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="D41" s="9">
         <v>64</v>
       </c>
-      <c r="E41" s="221">
+      <c r="E41" s="219">
         <v>4</v>
       </c>
-      <c r="F41" s="194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="128"/>
-      <c r="H41" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="107" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="294"/>
-      <c r="B42" s="217">
+      <c r="F41" s="192" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" s="354">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H41" s="356">
+        <v>1</v>
+      </c>
+      <c r="I41" s="128"/>
+      <c r="J41" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="339"/>
+      <c r="B42" s="215">
         <v>1901016</v>
       </c>
-      <c r="C42" s="222" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="205">
+      <c r="C42" s="220" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="203">
         <v>40</v>
       </c>
-      <c r="E42" s="223">
-        <v>1</v>
-      </c>
-      <c r="F42" s="222" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="J42" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42" s="107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="294"/>
-      <c r="B43" s="217">
+      <c r="E42" s="221">
+        <v>1</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" s="353">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H42" s="366">
+        <v>1</v>
+      </c>
+      <c r="I42" s="128"/>
+      <c r="J42" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="L42" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="379" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="339"/>
+      <c r="B43" s="215">
         <v>1901013</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D43" s="9">
         <v>48</v>
       </c>
-      <c r="E43" s="221">
+      <c r="E43" s="219">
         <v>3</v>
       </c>
-      <c r="F43" s="194" t="s">
+      <c r="F43" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="128"/>
-      <c r="H43" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="J43" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="K43" s="107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="294"/>
-      <c r="B44" s="217">
+      <c r="G43" s="354">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H43" s="356">
+        <v>1</v>
+      </c>
+      <c r="I43" s="128"/>
+      <c r="J43" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="339"/>
+      <c r="B44" s="215">
         <v>1901014</v>
       </c>
-      <c r="C44" s="222" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44" s="205">
+      <c r="C44" s="220" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="203">
         <v>16</v>
       </c>
-      <c r="E44" s="223">
+      <c r="E44" s="221">
         <v>0.5</v>
       </c>
-      <c r="F44" s="222" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="J44" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44" s="107"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="294"/>
-      <c r="B45" s="217"/>
+      <c r="F44" s="220" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="353">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H44" s="364">
+        <v>1</v>
+      </c>
+      <c r="I44" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44" s="107"/>
+      <c r="N44" s="379" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="339"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="202"/>
-      <c r="G45" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="J45" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45" s="107"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1">
-      <c r="A46" s="295"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="359"/>
+      <c r="I45" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" s="107"/>
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" thickBot="1">
+      <c r="A46" s="340"/>
       <c r="B46" s="94"/>
-      <c r="C46" s="141" t="s">
+      <c r="C46" s="139" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="224" t="s">
+      <c r="F46" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="196"/>
-      <c r="H46" s="230"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="197"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="294" t="s">
+      <c r="G46" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="369"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="228"/>
+      <c r="K46" s="229"/>
+      <c r="L46" s="230"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="339" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="212">
+      <c r="B47" s="210">
         <v>3300005</v>
       </c>
-      <c r="C47" s="237" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="214">
+      <c r="C47" s="235" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="212">
         <v>18</v>
       </c>
-      <c r="E47" s="215">
-        <v>1</v>
-      </c>
-      <c r="F47" s="216" t="s">
+      <c r="E47" s="213">
+        <v>1</v>
+      </c>
+      <c r="F47" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="84"/>
-      <c r="H47" s="137" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="103">
+      <c r="G47" s="354">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H47" s="368">
+        <v>1</v>
+      </c>
+      <c r="I47" s="84"/>
+      <c r="J47" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="103">
         <v>16</v>
       </c>
-      <c r="J47" s="103">
-        <v>1</v>
-      </c>
-      <c r="K47" s="105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="294"/>
-      <c r="B48" s="238">
+      <c r="L47" s="103">
+        <v>1</v>
+      </c>
+      <c r="M47" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="339"/>
+      <c r="B48" s="236">
         <v>1900103</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="150" t="s">
+      <c r="D48" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="239">
-        <v>1</v>
-      </c>
-      <c r="F48" s="240" t="s">
+      <c r="E48" s="237">
+        <v>1</v>
+      </c>
+      <c r="F48" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="128">
+      <c r="G48" s="353" t="str">
+        <f t="shared" si="0"/>
+        <v>1周</v>
+      </c>
+      <c r="H48" s="370">
+        <v>1</v>
+      </c>
+      <c r="I48" s="128">
         <v>1905037</v>
       </c>
-      <c r="H48" s="123" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="124">
+      <c r="J48" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="124">
         <v>48</v>
       </c>
-      <c r="J48" s="125">
+      <c r="L48" s="125">
         <v>3</v>
       </c>
-      <c r="K48" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="294"/>
+      <c r="M48" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" s="379">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="339"/>
       <c r="B49" s="93">
         <v>1905033</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D49" s="9">
         <v>48</v>
@@ -9328,32 +10086,46 @@
       <c r="E49" s="10">
         <v>3</v>
       </c>
-      <c r="F49" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" s="275">
+      <c r="F49" s="192" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" s="354">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H49" s="356">
+        <v>1</v>
+      </c>
+      <c r="I49" s="273">
         <v>1905038</v>
       </c>
-      <c r="H49" s="276" t="s">
-        <v>180</v>
-      </c>
-      <c r="I49" s="277">
+      <c r="J49" s="274" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49" s="275">
         <v>16</v>
       </c>
-      <c r="J49" s="278">
-        <v>1</v>
-      </c>
-      <c r="K49" s="279" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="170"/>
+      <c r="L49" s="276">
+        <v>1</v>
+      </c>
+      <c r="M49" s="277" t="s">
+        <v>151</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="168"/>
       <c r="B50" s="93">
         <v>1905034</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D50" s="9">
         <v>32</v>
@@ -9361,138 +10133,211 @@
       <c r="E50" s="10">
         <v>1</v>
       </c>
-      <c r="F50" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="128">
+      <c r="F50" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="353">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H50" s="366">
+        <v>1</v>
+      </c>
+      <c r="I50" s="128">
         <v>1901036</v>
       </c>
-      <c r="H50" s="123" t="s">
-        <v>104</v>
-      </c>
-      <c r="I50" s="124">
+      <c r="J50" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="124">
         <v>32</v>
       </c>
-      <c r="J50" s="125">
+      <c r="L50" s="125">
         <v>2</v>
       </c>
-      <c r="K50" s="107"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="170"/>
-      <c r="B51" s="208"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
-      <c r="E51" s="210"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="128">
+      <c r="M50" s="107"/>
+      <c r="N50" s="379">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="168"/>
+      <c r="B51" s="206"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="208"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="367"/>
+      <c r="I51" s="128">
         <v>1904020</v>
       </c>
-      <c r="H51" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="I51" s="124">
+      <c r="J51" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="K51" s="124">
         <v>32</v>
       </c>
-      <c r="J51" s="125">
+      <c r="L51" s="125">
         <v>2</v>
       </c>
-      <c r="K51" s="107"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="170"/>
-      <c r="B52" s="208"/>
-      <c r="C52" s="209"/>
-      <c r="D52" s="210"/>
-      <c r="E52" s="210"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="128">
+      <c r="M51" s="107"/>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="168"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="209"/>
+      <c r="G52" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="367"/>
+      <c r="I52" s="128">
         <v>1904021</v>
       </c>
-      <c r="H52" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="I52" s="124">
+      <c r="J52" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="K52" s="124">
         <v>32</v>
       </c>
-      <c r="J52" s="125">
-        <v>1</v>
-      </c>
-      <c r="K52" s="107"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="170"/>
+      <c r="L52" s="125">
+        <v>1</v>
+      </c>
+      <c r="M52" s="107"/>
+      <c r="N52" s="379">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="168"/>
       <c r="B53" s="87"/>
       <c r="C53" s="21"/>
       <c r="D53" s="25"/>
       <c r="E53" s="38"/>
-      <c r="F53" s="202"/>
-      <c r="G53" s="275">
+      <c r="F53" s="200"/>
+      <c r="G53" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="359"/>
+      <c r="I53" s="273">
         <v>199641</v>
       </c>
-      <c r="H53" s="276" t="s">
-        <v>181</v>
-      </c>
-      <c r="I53" s="277" t="s">
-        <v>203</v>
-      </c>
-      <c r="J53" s="278">
+      <c r="J53" s="274" t="s">
+        <v>176</v>
+      </c>
+      <c r="K53" s="275" t="s">
+        <v>198</v>
+      </c>
+      <c r="L53" s="276">
         <v>2</v>
       </c>
-      <c r="K53" s="279" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="170"/>
-      <c r="B54" s="247"/>
-      <c r="C54" s="248"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="250"/>
-      <c r="F54" s="251"/>
-      <c r="G54" s="93">
+      <c r="M53" s="277" t="s">
+        <v>172</v>
+      </c>
+      <c r="N53">
+        <v>80</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="168"/>
+      <c r="B54" s="245"/>
+      <c r="C54" s="246"/>
+      <c r="D54" s="247"/>
+      <c r="E54" s="248"/>
+      <c r="F54" s="249"/>
+      <c r="G54" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="371"/>
+      <c r="I54" s="93">
         <v>199783</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="J54" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" s="9">
+        <v>48</v>
+      </c>
+      <c r="L54" s="10">
+        <v>3</v>
+      </c>
+      <c r="M54" s="267" t="s">
+        <v>157</v>
+      </c>
+      <c r="N54" s="379">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="168"/>
+      <c r="B55" s="245"/>
+      <c r="C55" s="246"/>
+      <c r="D55" s="247"/>
+      <c r="E55" s="248"/>
+      <c r="F55" s="249"/>
+      <c r="G55" s="354">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="371"/>
+      <c r="I55" s="93">
+        <v>199784</v>
+      </c>
+      <c r="J55" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I54" s="9">
-        <v>48</v>
-      </c>
-      <c r="J54" s="10">
-        <v>3</v>
-      </c>
-      <c r="K54" s="269" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="170"/>
-      <c r="B55" s="247"/>
-      <c r="C55" s="248"/>
-      <c r="D55" s="249"/>
-      <c r="E55" s="250"/>
-      <c r="F55" s="251"/>
-      <c r="G55" s="93">
-        <v>199784</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I55" s="9">
+      <c r="K55" s="9">
         <v>32</v>
       </c>
-      <c r="J55" s="10">
-        <v>1</v>
-      </c>
-      <c r="K55" s="269" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1">
-      <c r="A56" s="171"/>
+      <c r="L55" s="10">
+        <v>1</v>
+      </c>
+      <c r="M55" s="267" t="s">
+        <v>157</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" thickBot="1">
+      <c r="A56" s="169"/>
       <c r="B56" s="94"/>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="139" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="32"/>
@@ -9500,291 +10345,407 @@
       <c r="F56" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="196" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="293" t="s">
+      <c r="G56" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="372"/>
+      <c r="I56" s="194" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K56" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="L56" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="M56" s="20"/>
+      <c r="N56" s="379" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="338" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="257">
+      <c r="B57" s="255">
         <v>1900104</v>
       </c>
-      <c r="C57" s="258" t="s">
+      <c r="C57" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="257" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="258">
+        <v>3</v>
+      </c>
+      <c r="F57" s="259" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="354">
+        <v>160</v>
+      </c>
+      <c r="H57" s="373">
+        <v>1</v>
+      </c>
+      <c r="I57" s="234"/>
+      <c r="J57" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="103">
+        <v>16</v>
+      </c>
+      <c r="L57" s="114">
+        <v>1</v>
+      </c>
+      <c r="M57" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="339"/>
+      <c r="B58" s="236">
+        <v>1900105</v>
+      </c>
+      <c r="C58" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="237">
+        <v>1</v>
+      </c>
+      <c r="F58" s="238" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="353">
+        <v>40</v>
+      </c>
+      <c r="H58" s="370">
+        <v>1</v>
+      </c>
+      <c r="I58" s="128"/>
+      <c r="J58" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="K58" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="L58" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="M58" s="254" t="s">
+        <v>147</v>
+      </c>
+      <c r="N58" s="379" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="339"/>
+      <c r="B59" s="236">
+        <v>1900107</v>
+      </c>
+      <c r="C59" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="237">
+        <v>1</v>
+      </c>
+      <c r="F59" s="238" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="354">
+        <v>40</v>
+      </c>
+      <c r="H59" s="370">
+        <v>1</v>
+      </c>
+      <c r="I59" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="K59" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59" s="254" t="s">
+        <v>83</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="339"/>
+      <c r="B60" s="260"/>
+      <c r="C60" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="260">
-        <v>3</v>
-      </c>
-      <c r="F57" s="261" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="236"/>
-      <c r="H57" s="137" t="s">
-        <v>81</v>
-      </c>
-      <c r="I57" s="103">
-        <v>16</v>
-      </c>
-      <c r="J57" s="114">
-        <v>1</v>
-      </c>
-      <c r="K57" s="105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="294"/>
-      <c r="B58" s="238">
-        <v>1900105</v>
-      </c>
-      <c r="C58" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="150" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="239">
-        <v>1</v>
-      </c>
-      <c r="F58" s="240" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="128"/>
-      <c r="H58" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I58" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="J58" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="K58" s="256" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="294"/>
-      <c r="B59" s="238">
-        <v>1900107</v>
-      </c>
-      <c r="C59" s="151" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="150" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="239">
-        <v>1</v>
-      </c>
-      <c r="F59" s="240" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I59" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="J59" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="K59" s="256" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="294"/>
-      <c r="B60" s="262"/>
-      <c r="C60" s="153" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="154" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="263">
+      <c r="E60" s="261">
         <v>2</v>
       </c>
-      <c r="F60" s="264" t="s">
+      <c r="F60" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I60" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="J60" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="K60" s="256" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="294"/>
+      <c r="G60" s="353">
+        <v>80</v>
+      </c>
+      <c r="H60" s="374">
+        <v>1</v>
+      </c>
+      <c r="I60" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="K60" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="L60" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="M60" s="254" t="s">
+        <v>85</v>
+      </c>
+      <c r="N60" s="379" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="339"/>
       <c r="B61" s="128">
         <v>1905050</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="255">
+        <v>108</v>
+      </c>
+      <c r="D61" s="253">
         <v>32</v>
       </c>
-      <c r="E61" s="255">
+      <c r="E61" s="253">
         <v>2</v>
       </c>
-      <c r="F61" s="256"/>
-      <c r="G61" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I61" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="J61" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="K61" s="256"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="294"/>
+      <c r="F61" s="254"/>
+      <c r="G61" s="354">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H61" s="375">
+        <v>1</v>
+      </c>
+      <c r="I61" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="K61" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="M61" s="254"/>
+      <c r="N61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="339"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="202" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="208"/>
-      <c r="H62" s="268"/>
-      <c r="I62" s="210"/>
-      <c r="J62" s="210"/>
-      <c r="K62" s="211"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="294"/>
+        <v>83</v>
+      </c>
+      <c r="F62" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="353" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H62" s="359"/>
+      <c r="I62" s="206"/>
+      <c r="J62" s="266"/>
+      <c r="K62" s="208"/>
+      <c r="L62" s="208"/>
+      <c r="M62" s="209"/>
+      <c r="N62" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="339"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="202" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" s="208"/>
-      <c r="H63" s="268"/>
-      <c r="I63" s="210"/>
-      <c r="J63" s="210"/>
-      <c r="K63" s="211"/>
-    </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="295"/>
+        <v>83</v>
+      </c>
+      <c r="F63" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="354" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H63" s="359"/>
+      <c r="I63" s="206"/>
+      <c r="J63" s="266"/>
+      <c r="K63" s="208"/>
+      <c r="L63" s="208"/>
+      <c r="M63" s="209"/>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15" thickBot="1">
+      <c r="A64" s="340"/>
       <c r="B64" s="94"/>
-      <c r="C64" s="265"/>
+      <c r="C64" s="263"/>
       <c r="D64" s="36"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="267"/>
-      <c r="G64" s="196">
+      <c r="E64" s="264"/>
+      <c r="F64" s="265"/>
+      <c r="G64" s="353">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="376"/>
+      <c r="I64" s="194">
         <v>199650</v>
       </c>
-      <c r="H64" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I64" s="43">
+      <c r="J64" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K64" s="43">
         <v>24</v>
       </c>
-      <c r="J64" s="43">
+      <c r="L64" s="43">
         <v>1.5</v>
       </c>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="170" t="s">
+      <c r="M64" s="20"/>
+      <c r="N64" s="379">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="182">
+      <c r="B65" s="180">
         <v>1900106</v>
       </c>
-      <c r="C65" s="183" t="s">
+      <c r="C65" s="181" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="180" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="182">
+        <v>3</v>
+      </c>
+      <c r="F65" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="354">
+        <v>480</v>
+      </c>
+      <c r="H65" s="377">
+        <v>1</v>
+      </c>
+      <c r="I65" s="120"/>
+      <c r="J65" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="K65" s="45"/>
+      <c r="L65" s="46">
+        <v>5</v>
+      </c>
+      <c r="M65" s="271"/>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15" thickBot="1">
+      <c r="A66" s="47"/>
+      <c r="B66" s="183"/>
+      <c r="C66" s="184" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="186">
+        <v>1</v>
+      </c>
+      <c r="F66" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="182" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="184">
-        <v>3</v>
-      </c>
-      <c r="F65" s="177" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="120"/>
-      <c r="H65" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="I65" s="45"/>
-      <c r="J65" s="46">
-        <v>5</v>
-      </c>
-      <c r="K65" s="273"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1">
-      <c r="A66" s="47"/>
-      <c r="B66" s="185"/>
-      <c r="C66" s="186" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="187" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" s="188">
-        <v>1</v>
-      </c>
-      <c r="F66" s="189" t="s">
-        <v>142</v>
-      </c>
-      <c r="G66" s="119"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="274"/>
-    </row>
-    <row r="67" spans="1:11" ht="15" thickBot="1">
+      <c r="G66" s="353">
+        <v>40</v>
+      </c>
+      <c r="H66" s="378">
+        <v>1</v>
+      </c>
+      <c r="I66" s="119"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="272"/>
+      <c r="N66" s="379">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15" thickBot="1">
       <c r="A67" s="48"/>
       <c r="B67" s="49"/>
       <c r="C67" s="50"/>
@@ -9797,16 +10758,32 @@
         <f>SUM(F4:F66)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="53">
-        <f>SUM(J4:J66)</f>
+      <c r="G67" s="289">
+        <f>SUM(G3:G66)</f>
+        <v>2522</v>
+      </c>
+      <c r="H67" s="289">
+        <f>SUM(H3:H66)</f>
+        <v>47</v>
+      </c>
+      <c r="I67" s="49"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="53">
+        <f>SUM(L4:L66)</f>
         <v>77</v>
       </c>
-      <c r="K67" s="54"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="M67" s="54"/>
+      <c r="N67">
+        <f>SUM(N3:N66)</f>
+        <v>1678</v>
+      </c>
+      <c r="O67">
+        <f>SUM(O3:O66)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="55" t="s">
         <v>48</v>
       </c>
@@ -9816,12 +10793,14 @@
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
       <c r="G68" s="56"/>
-      <c r="H68" s="57"/>
+      <c r="H68" s="56"/>
       <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="58"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="J68" s="57"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="58"/>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="59"/>
       <c r="B69" s="60"/>
       <c r="C69" s="61"/>
@@ -9829,12 +10808,14 @@
       <c r="E69" s="60"/>
       <c r="F69" s="60"/>
       <c r="G69" s="60"/>
-      <c r="H69" s="61"/>
+      <c r="H69" s="60"/>
       <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="62"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="J69" s="61"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="62"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="63"/>
       <c r="B70" s="64"/>
       <c r="C70" s="65"/>
@@ -9842,12 +10823,14 @@
       <c r="E70" s="64"/>
       <c r="F70" s="64"/>
       <c r="G70" s="64"/>
-      <c r="H70" s="65"/>
+      <c r="H70" s="64"/>
       <c r="I70" s="64"/>
-      <c r="J70" s="64"/>
-      <c r="K70" s="66"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="J70" s="65"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="66"/>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="63"/>
       <c r="B71" s="64"/>
       <c r="C71" s="73"/>
@@ -9855,11 +10838,13 @@
       <c r="E71" s="64"/>
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
-      <c r="H71" s="65"/>
+      <c r="H71" s="64"/>
       <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-    </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1">
+      <c r="J71" s="65"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" thickBot="1">
       <c r="A72" s="63"/>
       <c r="B72" s="64"/>
       <c r="C72" s="73"/>
@@ -9867,39 +10852,43 @@
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
-      <c r="H72" s="65"/>
+      <c r="H72" s="64"/>
       <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="143" t="s">
+      <c r="J72" s="65"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="169"/>
-      <c r="C73" s="296" t="s">
+      <c r="B73" s="167"/>
+      <c r="C73" s="329" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="330"/>
+      <c r="E73" s="331"/>
+      <c r="F73" s="329" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="330"/>
+      <c r="H73" s="330"/>
+      <c r="I73" s="330"/>
+      <c r="J73" s="331"/>
+      <c r="K73" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="297"/>
-      <c r="E73" s="298"/>
-      <c r="F73" s="296" t="s">
+      <c r="L73" s="332"/>
+      <c r="M73" s="333"/>
+    </row>
+    <row r="74" spans="1:15" ht="26">
+      <c r="A74" s="163">
+        <v>1</v>
+      </c>
+      <c r="B74" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="G73" s="297"/>
-      <c r="H73" s="298"/>
-      <c r="I73" s="299" t="s">
-        <v>118</v>
-      </c>
-      <c r="J73" s="299"/>
-      <c r="K73" s="300"/>
-    </row>
-    <row r="74" spans="1:11" ht="26">
-      <c r="A74" s="165">
-        <v>1</v>
-      </c>
-      <c r="B74" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="146" t="s">
+      <c r="C74" s="144" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="68">
@@ -9910,134 +10899,146 @@
         <f>SUM(E4,E5,E13,E14,E15,E23,E24,E31,E32)</f>
         <v>24</v>
       </c>
-      <c r="F74" s="147" t="s">
+      <c r="F74" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="G74" s="148">
+      <c r="G74" s="145"/>
+      <c r="H74" s="145"/>
+      <c r="I74" s="146">
         <f>SUM(D49:D50,D61,D69)</f>
         <v>112</v>
       </c>
-      <c r="H74" s="149">
+      <c r="J74" s="147">
         <v>18</v>
       </c>
-      <c r="I74" s="301" t="s">
-        <v>120</v>
-      </c>
-      <c r="J74" s="302"/>
-      <c r="K74" s="303"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="304">
+      <c r="K74" s="334" t="s">
+        <v>118</v>
+      </c>
+      <c r="L74" s="335"/>
+      <c r="M74" s="336"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="321">
         <v>2</v>
       </c>
-      <c r="B75" s="305" t="s">
+      <c r="B75" s="337" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="150"/>
-      <c r="D75" s="150"/>
-      <c r="E75" s="150"/>
-      <c r="F75" s="151" t="s">
+      <c r="C75" s="148"/>
+      <c r="D75" s="148"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="150"/>
-      <c r="H75" s="152">
+      <c r="G75" s="149"/>
+      <c r="H75" s="149"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="150">
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="I75" s="307"/>
-      <c r="J75" s="307"/>
-      <c r="K75" s="308"/>
-    </row>
-    <row r="76" spans="1:11" ht="26">
-      <c r="A76" s="304"/>
-      <c r="B76" s="306"/>
-      <c r="C76" s="153"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="155" t="s">
+      <c r="K75" s="325"/>
+      <c r="L75" s="325"/>
+      <c r="M75" s="326"/>
+    </row>
+    <row r="76" spans="1:15" ht="26">
+      <c r="A76" s="321"/>
+      <c r="B76" s="322"/>
+      <c r="C76" s="151"/>
+      <c r="D76" s="152"/>
+      <c r="E76" s="152"/>
+      <c r="F76" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" s="153"/>
+      <c r="H76" s="153"/>
+      <c r="I76" s="152"/>
+      <c r="J76" s="152">
+        <v>5</v>
+      </c>
+      <c r="K76" s="325"/>
+      <c r="L76" s="325"/>
+      <c r="M76" s="326"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="321">
+        <v>3</v>
+      </c>
+      <c r="B77" s="322" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="155"/>
+      <c r="E77" s="156">
+        <f>SUM(E9+E12+E17+E25+E26+E27+E28+L30+E49+E50+E39+E40+E41+E42+E43+E44+L54+L55)</f>
+        <v>42.5</v>
+      </c>
+      <c r="F77" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="157"/>
+      <c r="H77" s="157"/>
+      <c r="I77" s="158"/>
+      <c r="J77" s="158">
+        <v>30.5</v>
+      </c>
+      <c r="K77" s="323"/>
+      <c r="L77" s="323"/>
+      <c r="M77" s="324"/>
+    </row>
+    <row r="78" spans="1:15" ht="26">
+      <c r="A78" s="321"/>
+      <c r="B78" s="322"/>
+      <c r="C78" s="154" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="155"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="159" t="s">
         <v>127</v>
       </c>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154">
-        <v>5</v>
-      </c>
-      <c r="I76" s="307"/>
-      <c r="J76" s="307"/>
-      <c r="K76" s="308"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="304">
-        <v>3</v>
-      </c>
-      <c r="B77" s="306" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="157"/>
-      <c r="E77" s="158">
-        <f>SUM(E9+E12+E17+E25+E26+E27+E28+J30+E49+E50+E39+E40+E41+E42+E43+E44+J54+J55)</f>
-        <v>42.5</v>
-      </c>
-      <c r="F77" s="159" t="s">
-        <v>123</v>
-      </c>
-      <c r="G77" s="160"/>
-      <c r="H77" s="160">
-        <v>30.5</v>
-      </c>
-      <c r="I77" s="309"/>
-      <c r="J77" s="309"/>
-      <c r="K77" s="310"/>
-    </row>
-    <row r="78" spans="1:11" ht="26">
-      <c r="A78" s="304"/>
-      <c r="B78" s="306"/>
-      <c r="C78" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78" s="157"/>
-      <c r="E78" s="158"/>
-      <c r="F78" s="161" t="s">
-        <v>129</v>
-      </c>
-      <c r="G78" s="166"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="307"/>
-      <c r="J78" s="307"/>
-      <c r="K78" s="308"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1">
-      <c r="A79" s="162" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="163">
-        <f>E79+H74+H75+H76+H77</f>
+      <c r="G78" s="159"/>
+      <c r="H78" s="159"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="325"/>
+      <c r="L78" s="325"/>
+      <c r="M78" s="326"/>
+    </row>
+    <row r="79" spans="1:15" ht="15" thickBot="1">
+      <c r="A79" s="160" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="161">
+        <f>E79+J74+J75+J76+J77</f>
         <v>130</v>
       </c>
-      <c r="C79" s="168">
+      <c r="C79" s="166">
         <v>66.5</v>
       </c>
-      <c r="D79" s="168"/>
-      <c r="E79" s="163">
+      <c r="D79" s="166"/>
+      <c r="E79" s="161">
         <f>SUM(E74:E77)</f>
         <v>66.5</v>
       </c>
-      <c r="F79" s="168">
+      <c r="F79" s="166">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G79" s="168"/>
-      <c r="H79" s="163">
-        <f>SUM(H74:H78)</f>
+      <c r="G79" s="281"/>
+      <c r="H79" s="281"/>
+      <c r="I79" s="166"/>
+      <c r="J79" s="161">
+        <f>SUM(J74:J78)</f>
         <v>63.5</v>
       </c>
-      <c r="I79" s="311"/>
-      <c r="J79" s="311"/>
-      <c r="K79" s="312"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="K79" s="327"/>
+      <c r="L79" s="327"/>
+      <c r="M79" s="328"/>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="63"/>
       <c r="B80" s="64"/>
       <c r="C80" s="73"/>
@@ -10045,69 +11046,75 @@
       <c r="E80" s="64"/>
       <c r="F80" s="64"/>
       <c r="G80" s="64"/>
-      <c r="H80" s="65"/>
+      <c r="H80" s="64"/>
       <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="64"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="64"/>
+      <c r="M80" s="64"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="63"/>
       <c r="B81" s="64"/>
       <c r="C81" s="73"/>
       <c r="D81" s="64"/>
       <c r="E81" s="64"/>
       <c r="F81" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G81" s="64"/>
-      <c r="H81" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="63"/>
       <c r="B82" s="64"/>
       <c r="C82" s="73"/>
       <c r="D82" s="64"/>
       <c r="E82" s="64"/>
       <c r="F82" s="65"/>
-      <c r="G82" s="64"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="65"/>
       <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
+      <c r="M82"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -4033,36 +4033,225 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4084,196 +4273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4514,7 +4514,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4522,7 +4522,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4530,7 +4530,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4538,7 +4538,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4796,7 +4796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4806,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView topLeftCell="F35" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4828,45 +4828,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="326" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="346"/>
+      <c r="B2" s="329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="331"/>
       <c r="G2" s="279"/>
       <c r="H2" s="279"/>
-      <c r="I2" s="347" t="s">
+      <c r="I2" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="348"/>
-      <c r="M2" s="349"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="334"/>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="343"/>
+      <c r="A3" s="328"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4911,7 +4911,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="350" t="s">
+      <c r="A4" s="335" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -4960,7 +4960,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="351"/>
+      <c r="A5" s="336"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -5006,7 +5006,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="351"/>
+      <c r="A6" s="336"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1">
-      <c r="A7" s="351"/>
+      <c r="A7" s="336"/>
       <c r="B7" s="100">
         <v>199023</v>
       </c>
@@ -5084,7 +5084,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="351"/>
+      <c r="A8" s="336"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -5119,7 +5119,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1">
-      <c r="A9" s="351"/>
+      <c r="A9" s="336"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="351"/>
+      <c r="A10" s="336"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -5183,7 +5183,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1">
-      <c r="A11" s="351"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -5211,7 +5211,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="A12" s="351"/>
+      <c r="A12" s="336"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1">
-      <c r="A13" s="338" t="s">
+      <c r="A13" s="337" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -5293,7 +5293,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="339"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1">
-      <c r="A15" s="339"/>
+      <c r="A15" s="338"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="339"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="236">
         <v>1900102</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="339"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="199">
         <v>1901003</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="339"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
@@ -5527,7 +5527,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="339"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="243" t="s">
         <v>131</v>
       </c>
@@ -5572,7 +5572,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="339"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="243"/>
       <c r="C20" s="220"/>
       <c r="D20" s="221"/>
@@ -5589,7 +5589,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="340"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="94"/>
       <c r="C21" s="170" t="s">
         <v>132</v>
@@ -5629,7 +5629,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="338" t="s">
+      <c r="A22" s="337" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
@@ -5678,7 +5678,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="339"/>
+      <c r="A23" s="338"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="339"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
@@ -5770,7 +5770,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="339"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="202">
         <v>1905008</v>
       </c>
@@ -5815,7 +5815,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="339"/>
+      <c r="A26" s="338"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
@@ -5860,7 +5860,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="339"/>
+      <c r="A27" s="338"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="339"/>
+      <c r="A28" s="338"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
@@ -5954,7 +5954,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="340"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="94"/>
       <c r="C29" s="139" t="s">
         <v>32</v>
@@ -5982,7 +5982,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="338" t="s">
+      <c r="A30" s="337" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="339"/>
+      <c r="A31" s="338"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
@@ -6079,7 +6079,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="339"/>
+      <c r="A32" s="338"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
@@ -6126,7 +6126,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="339"/>
+      <c r="A33" s="338"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
@@ -6170,7 +6170,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="339"/>
+      <c r="A34" s="338"/>
       <c r="B34" s="206"/>
       <c r="C34" s="207"/>
       <c r="D34" s="208"/>
@@ -6205,7 +6205,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="339"/>
+      <c r="A35" s="338"/>
       <c r="B35" s="206"/>
       <c r="C35" s="207"/>
       <c r="D35" s="208"/>
@@ -6237,7 +6237,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1">
-      <c r="A36" s="340"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="94"/>
       <c r="C36" s="139" t="s">
         <v>36</v>
@@ -6274,7 +6274,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1">
-      <c r="A37" s="338" t="s">
+      <c r="A37" s="337" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="210">
@@ -6321,7 +6321,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="339"/>
+      <c r="A38" s="338"/>
       <c r="B38" s="215">
         <v>1905046</v>
       </c>
@@ -6367,7 +6367,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1">
-      <c r="A39" s="339"/>
+      <c r="A39" s="338"/>
       <c r="B39" s="215">
         <v>1905047</v>
       </c>
@@ -6413,7 +6413,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="339"/>
+      <c r="A40" s="338"/>
       <c r="B40" s="215">
         <v>1901015</v>
       </c>
@@ -6455,7 +6455,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1">
-      <c r="A41" s="339"/>
+      <c r="A41" s="338"/>
       <c r="B41" s="215">
         <v>1901016</v>
       </c>
@@ -6497,7 +6497,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="339"/>
+      <c r="A42" s="338"/>
       <c r="B42" s="215">
         <v>1901013</v>
       </c>
@@ -6539,7 +6539,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" thickBot="1">
-      <c r="A43" s="339"/>
+      <c r="A43" s="338"/>
       <c r="B43" s="215">
         <v>1901014</v>
       </c>
@@ -6581,7 +6581,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="339"/>
+      <c r="A44" s="338"/>
       <c r="B44" s="215"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
@@ -6611,7 +6611,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1">
-      <c r="A45" s="340"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="94"/>
       <c r="C45" s="139" t="s">
         <v>38</v>
@@ -6639,7 +6639,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="339" t="s">
+      <c r="A46" s="338" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="210">
@@ -6686,7 +6686,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" thickBot="1">
-      <c r="A47" s="339"/>
+      <c r="A47" s="338"/>
       <c r="B47" s="236">
         <v>1900103</v>
       </c>
@@ -6732,7 +6732,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="339"/>
+      <c r="A48" s="338"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
@@ -6995,7 +6995,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="338" t="s">
+      <c r="A56" s="337" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="172">
@@ -7041,7 +7041,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1">
-      <c r="A57" s="339"/>
+      <c r="A57" s="338"/>
       <c r="B57" s="172">
         <v>1900105</v>
       </c>
@@ -7082,7 +7082,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="339"/>
+      <c r="A58" s="338"/>
       <c r="B58" s="172">
         <v>1900107</v>
       </c>
@@ -7125,7 +7125,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1">
-      <c r="A59" s="339"/>
+      <c r="A59" s="338"/>
       <c r="B59" s="176"/>
       <c r="C59" s="177" t="s">
         <v>134</v>
@@ -7166,7 +7166,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="339"/>
+      <c r="A60" s="338"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
         <v>99</v>
@@ -7204,7 +7204,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1">
-      <c r="A61" s="339"/>
+      <c r="A61" s="338"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
         <v>85</v>
@@ -7242,7 +7242,7 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="339"/>
+      <c r="A62" s="338"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
         <v>93</v>
@@ -7280,7 +7280,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1">
-      <c r="A63" s="340"/>
+      <c r="A63" s="339"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
@@ -7499,23 +7499,23 @@
         <v>48</v>
       </c>
       <c r="B72" s="142"/>
-      <c r="C72" s="329" t="s">
+      <c r="C72" s="340" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="330"/>
-      <c r="E72" s="331"/>
-      <c r="F72" s="329" t="s">
+      <c r="D72" s="341"/>
+      <c r="E72" s="342"/>
+      <c r="F72" s="340" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="330"/>
-      <c r="H72" s="330"/>
-      <c r="I72" s="330"/>
-      <c r="J72" s="331"/>
-      <c r="K72" s="332" t="s">
+      <c r="G72" s="341"/>
+      <c r="H72" s="341"/>
+      <c r="I72" s="341"/>
+      <c r="J72" s="342"/>
+      <c r="K72" s="343" t="s">
         <v>116</v>
       </c>
-      <c r="L72" s="332"/>
-      <c r="M72" s="333"/>
+      <c r="L72" s="343"/>
+      <c r="M72" s="344"/>
     </row>
     <row r="73" spans="1:14" ht="26">
       <c r="A73" s="143">
@@ -7547,17 +7547,17 @@
       <c r="J73" s="147">
         <v>18</v>
       </c>
-      <c r="K73" s="334" t="s">
+      <c r="K73" s="345" t="s">
         <v>118</v>
       </c>
-      <c r="L73" s="335"/>
-      <c r="M73" s="336"/>
+      <c r="L73" s="346"/>
+      <c r="M73" s="347"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="321">
+      <c r="A74" s="348">
         <v>2</v>
       </c>
-      <c r="B74" s="337" t="s">
+      <c r="B74" s="349" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="148"/>
@@ -7573,13 +7573,13 @@
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="K74" s="325"/>
-      <c r="L74" s="325"/>
-      <c r="M74" s="326"/>
+      <c r="K74" s="351"/>
+      <c r="L74" s="351"/>
+      <c r="M74" s="352"/>
     </row>
     <row r="75" spans="1:14" ht="26">
-      <c r="A75" s="321"/>
-      <c r="B75" s="322"/>
+      <c r="A75" s="348"/>
+      <c r="B75" s="350"/>
       <c r="C75" s="151"/>
       <c r="D75" s="152"/>
       <c r="E75" s="152"/>
@@ -7592,15 +7592,15 @@
       <c r="J75" s="152">
         <v>5</v>
       </c>
-      <c r="K75" s="325"/>
-      <c r="L75" s="325"/>
-      <c r="M75" s="326"/>
+      <c r="K75" s="351"/>
+      <c r="L75" s="351"/>
+      <c r="M75" s="352"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="321">
+      <c r="A76" s="348">
         <v>3</v>
       </c>
-      <c r="B76" s="322" t="s">
+      <c r="B76" s="350" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="154" t="s">
@@ -7620,13 +7620,13 @@
       <c r="J76" s="158">
         <v>26</v>
       </c>
-      <c r="K76" s="323"/>
-      <c r="L76" s="323"/>
-      <c r="M76" s="324"/>
+      <c r="K76" s="353"/>
+      <c r="L76" s="353"/>
+      <c r="M76" s="354"/>
     </row>
     <row r="77" spans="1:14" ht="26">
-      <c r="A77" s="321"/>
-      <c r="B77" s="322"/>
+      <c r="A77" s="348"/>
+      <c r="B77" s="350"/>
       <c r="C77" s="154" t="s">
         <v>126</v>
       </c>
@@ -7639,9 +7639,9 @@
       <c r="H77" s="159"/>
       <c r="I77" s="31"/>
       <c r="J77" s="69"/>
-      <c r="K77" s="325"/>
-      <c r="L77" s="325"/>
-      <c r="M77" s="326"/>
+      <c r="K77" s="351"/>
+      <c r="L77" s="351"/>
+      <c r="M77" s="352"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1">
       <c r="A78" s="160" t="s">
@@ -7668,9 +7668,9 @@
         <f>SUM(J73:J77)</f>
         <v>59</v>
       </c>
-      <c r="K78" s="327"/>
-      <c r="L78" s="327"/>
-      <c r="M78" s="328"/>
+      <c r="K78" s="355"/>
+      <c r="L78" s="355"/>
+      <c r="M78" s="356"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="63"/>
@@ -7708,7 +7708,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="41" customHeight="1" thickBot="1">
+    <row r="81" spans="1:14" ht="31" customHeight="1" thickBot="1">
       <c r="A81" s="282" t="s">
         <v>230</v>
       </c>
@@ -7725,69 +7725,69 @@
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:14" ht="19" customHeight="1">
-      <c r="A82" s="302"/>
-      <c r="B82" s="308"/>
-      <c r="C82" s="308"/>
-      <c r="D82" s="308"/>
-      <c r="E82" s="308"/>
-      <c r="F82" s="303"/>
+    <row r="82" spans="1:14" ht="39" customHeight="1">
+      <c r="A82" s="357"/>
+      <c r="B82" s="358"/>
+      <c r="C82" s="358"/>
+      <c r="D82" s="358"/>
+      <c r="E82" s="358"/>
+      <c r="F82" s="359"/>
       <c r="G82" s="283"/>
       <c r="H82" s="283"/>
       <c r="I82" s="283" t="s">
         <v>201</v>
       </c>
-      <c r="J82" s="319" t="s">
+      <c r="J82" s="363" t="s">
         <v>203</v>
       </c>
       <c r="K82" s="283" t="s">
         <v>204</v>
       </c>
-      <c r="L82" s="319" t="s">
+      <c r="L82" s="363" t="s">
         <v>6</v>
       </c>
       <c r="M82" s="283" t="s">
         <v>206</v>
       </c>
-      <c r="N82" s="319" t="s">
+      <c r="N82" s="363" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="29" thickBot="1">
-      <c r="A83" s="316" t="s">
+      <c r="A83" s="360" t="s">
         <v>200</v>
       </c>
-      <c r="B83" s="317"/>
-      <c r="C83" s="317"/>
-      <c r="D83" s="317"/>
-      <c r="E83" s="317"/>
-      <c r="F83" s="318"/>
+      <c r="B83" s="361"/>
+      <c r="C83" s="361"/>
+      <c r="D83" s="361"/>
+      <c r="E83" s="361"/>
+      <c r="F83" s="362"/>
       <c r="G83" s="290"/>
       <c r="H83" s="290"/>
       <c r="I83" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="J83" s="320"/>
+      <c r="J83" s="364"/>
       <c r="K83" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="L83" s="320"/>
+      <c r="L83" s="364"/>
       <c r="M83" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="N83" s="320"/>
+      <c r="N83" s="364"/>
     </row>
     <row r="84" spans="1:14" ht="15" thickBot="1">
-      <c r="A84" s="302" t="s">
+      <c r="A84" s="357" t="s">
         <v>208</v>
       </c>
-      <c r="B84" s="303"/>
-      <c r="C84" s="299" t="s">
+      <c r="B84" s="359"/>
+      <c r="C84" s="369" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="301"/>
-      <c r="E84" s="301"/>
-      <c r="F84" s="300"/>
+      <c r="D84" s="370"/>
+      <c r="E84" s="370"/>
+      <c r="F84" s="371"/>
       <c r="G84" s="284"/>
       <c r="H84" s="284"/>
       <c r="I84" s="284"/>
@@ -7798,19 +7798,22 @@
       <c r="N84" s="284"/>
     </row>
     <row r="85" spans="1:14" ht="15" thickBot="1">
-      <c r="A85" s="304"/>
-      <c r="B85" s="305"/>
-      <c r="C85" s="302" t="s">
+      <c r="A85" s="365"/>
+      <c r="B85" s="366"/>
+      <c r="C85" s="357" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="303"/>
-      <c r="E85" s="299" t="s">
+      <c r="D85" s="359"/>
+      <c r="E85" s="369" t="s">
         <v>211</v>
       </c>
-      <c r="F85" s="300"/>
+      <c r="F85" s="371"/>
       <c r="G85" s="284"/>
       <c r="H85" s="284"/>
-      <c r="I85" s="284"/>
+      <c r="I85" s="284">
+        <f>SUM(H9+H10+H11+H12+H18+H24+H25+H42+H43)</f>
+        <v>9</v>
+      </c>
       <c r="J85" s="284"/>
       <c r="K85" s="284"/>
       <c r="L85" s="284"/>
@@ -7818,17 +7821,20 @@
       <c r="N85" s="284"/>
     </row>
     <row r="86" spans="1:14" ht="15" thickBot="1">
-      <c r="A86" s="306"/>
-      <c r="B86" s="307"/>
-      <c r="C86" s="306"/>
-      <c r="D86" s="307"/>
-      <c r="E86" s="299" t="s">
+      <c r="A86" s="367"/>
+      <c r="B86" s="368"/>
+      <c r="C86" s="367"/>
+      <c r="D86" s="368"/>
+      <c r="E86" s="369" t="s">
         <v>212</v>
       </c>
-      <c r="F86" s="300"/>
+      <c r="F86" s="371"/>
       <c r="G86" s="284"/>
       <c r="H86" s="284"/>
-      <c r="I86" s="284"/>
+      <c r="I86" s="284">
+        <f>SUM(H17+H26+H27+H28+H32+H33+H38+H39+H40+H41+H48+H49)</f>
+        <v>12</v>
+      </c>
       <c r="J86" s="284"/>
       <c r="K86" s="284"/>
       <c r="L86" s="284"/>
@@ -7836,16 +7842,16 @@
       <c r="N86" s="284"/>
     </row>
     <row r="87" spans="1:14" ht="15" thickBot="1">
-      <c r="A87" s="302" t="s">
+      <c r="A87" s="357" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="303"/>
-      <c r="C87" s="299" t="s">
+      <c r="B87" s="359"/>
+      <c r="C87" s="369" t="s">
         <v>214</v>
       </c>
-      <c r="D87" s="301"/>
-      <c r="E87" s="301"/>
-      <c r="F87" s="300"/>
+      <c r="D87" s="370"/>
+      <c r="E87" s="370"/>
+      <c r="F87" s="371"/>
       <c r="G87" s="284"/>
       <c r="H87" s="284"/>
       <c r="I87" s="284"/>
@@ -7856,14 +7862,14 @@
       <c r="N87" s="284"/>
     </row>
     <row r="88" spans="1:14" ht="15" thickBot="1">
-      <c r="A88" s="304"/>
-      <c r="B88" s="305"/>
-      <c r="C88" s="299" t="s">
+      <c r="A88" s="365"/>
+      <c r="B88" s="366"/>
+      <c r="C88" s="369" t="s">
         <v>215</v>
       </c>
-      <c r="D88" s="301"/>
-      <c r="E88" s="301"/>
-      <c r="F88" s="300"/>
+      <c r="D88" s="370"/>
+      <c r="E88" s="370"/>
+      <c r="F88" s="371"/>
       <c r="G88" s="284"/>
       <c r="H88" s="284"/>
       <c r="I88" s="284"/>
@@ -7874,13 +7880,13 @@
       <c r="N88" s="284"/>
     </row>
     <row r="89" spans="1:14" ht="15" thickBot="1">
-      <c r="A89" s="304"/>
-      <c r="B89" s="305"/>
-      <c r="C89" s="299" t="s">
+      <c r="A89" s="365"/>
+      <c r="B89" s="366"/>
+      <c r="C89" s="369" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="301"/>
-      <c r="E89" s="300"/>
+      <c r="D89" s="370"/>
+      <c r="E89" s="371"/>
       <c r="F89" s="284" t="s">
         <v>217</v>
       </c>
@@ -7894,11 +7900,11 @@
       <c r="N89" s="284"/>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1">
-      <c r="A90" s="304"/>
-      <c r="B90" s="305"/>
-      <c r="C90" s="302"/>
-      <c r="D90" s="308"/>
-      <c r="E90" s="303"/>
+      <c r="A90" s="365"/>
+      <c r="B90" s="366"/>
+      <c r="C90" s="357"/>
+      <c r="D90" s="358"/>
+      <c r="E90" s="359"/>
       <c r="F90" s="284" t="s">
         <v>219</v>
       </c>
@@ -7912,11 +7918,11 @@
       <c r="N90" s="284"/>
     </row>
     <row r="91" spans="1:14" ht="15" thickBot="1">
-      <c r="A91" s="304"/>
-      <c r="B91" s="305"/>
-      <c r="C91" s="304"/>
-      <c r="D91" s="309"/>
-      <c r="E91" s="305"/>
+      <c r="A91" s="365"/>
+      <c r="B91" s="366"/>
+      <c r="C91" s="365"/>
+      <c r="D91" s="372"/>
+      <c r="E91" s="366"/>
       <c r="F91" s="284" t="s">
         <v>220</v>
       </c>
@@ -7930,13 +7936,13 @@
       <c r="N91" s="284"/>
     </row>
     <row r="92" spans="1:14" ht="15" thickBot="1">
-      <c r="A92" s="304"/>
-      <c r="B92" s="305"/>
-      <c r="C92" s="304" t="s">
+      <c r="A92" s="365"/>
+      <c r="B92" s="366"/>
+      <c r="C92" s="365" t="s">
         <v>218</v>
       </c>
-      <c r="D92" s="309"/>
-      <c r="E92" s="305"/>
+      <c r="D92" s="372"/>
+      <c r="E92" s="366"/>
       <c r="F92" s="284" t="s">
         <v>221</v>
       </c>
@@ -7950,11 +7956,11 @@
       <c r="N92" s="284"/>
     </row>
     <row r="93" spans="1:14" ht="15" thickBot="1">
-      <c r="A93" s="304"/>
-      <c r="B93" s="305"/>
-      <c r="C93" s="310"/>
-      <c r="D93" s="311"/>
-      <c r="E93" s="312"/>
+      <c r="A93" s="365"/>
+      <c r="B93" s="366"/>
+      <c r="C93" s="373"/>
+      <c r="D93" s="374"/>
+      <c r="E93" s="375"/>
       <c r="F93" s="284" t="s">
         <v>222</v>
       </c>
@@ -7968,11 +7974,11 @@
       <c r="N93" s="284"/>
     </row>
     <row r="94" spans="1:14" ht="15" thickBot="1">
-      <c r="A94" s="304"/>
-      <c r="B94" s="305"/>
-      <c r="C94" s="310"/>
-      <c r="D94" s="311"/>
-      <c r="E94" s="312"/>
+      <c r="A94" s="365"/>
+      <c r="B94" s="366"/>
+      <c r="C94" s="373"/>
+      <c r="D94" s="374"/>
+      <c r="E94" s="375"/>
       <c r="F94" s="284" t="s">
         <v>223</v>
       </c>
@@ -7986,11 +7992,11 @@
       <c r="N94" s="284"/>
     </row>
     <row r="95" spans="1:14" ht="15" thickBot="1">
-      <c r="A95" s="304"/>
-      <c r="B95" s="305"/>
-      <c r="C95" s="313"/>
-      <c r="D95" s="314"/>
-      <c r="E95" s="315"/>
+      <c r="A95" s="365"/>
+      <c r="B95" s="366"/>
+      <c r="C95" s="376"/>
+      <c r="D95" s="377"/>
+      <c r="E95" s="378"/>
       <c r="F95" s="285" t="s">
         <v>224</v>
       </c>
@@ -8004,13 +8010,13 @@
       <c r="N95" s="284"/>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1">
-      <c r="A96" s="306"/>
-      <c r="B96" s="307"/>
-      <c r="C96" s="299" t="s">
+      <c r="A96" s="367"/>
+      <c r="B96" s="368"/>
+      <c r="C96" s="369" t="s">
         <v>225</v>
       </c>
-      <c r="D96" s="301"/>
-      <c r="E96" s="300"/>
+      <c r="D96" s="370"/>
+      <c r="E96" s="371"/>
       <c r="F96" s="285"/>
       <c r="G96" s="285"/>
       <c r="H96" s="285"/>
@@ -8022,14 +8028,14 @@
       <c r="N96" s="284"/>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1">
-      <c r="A97" s="299" t="s">
+      <c r="A97" s="369" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="301"/>
-      <c r="C97" s="301"/>
-      <c r="D97" s="301"/>
-      <c r="E97" s="301"/>
-      <c r="F97" s="300"/>
+      <c r="B97" s="370"/>
+      <c r="C97" s="370"/>
+      <c r="D97" s="370"/>
+      <c r="E97" s="370"/>
+      <c r="F97" s="371"/>
       <c r="G97" s="284"/>
       <c r="H97" s="284"/>
       <c r="I97" s="284"/>
@@ -8043,23 +8049,23 @@
       <c r="A98" s="286" t="s">
         <v>227</v>
       </c>
-      <c r="B98" s="299"/>
-      <c r="C98" s="300"/>
-      <c r="D98" s="299" t="s">
+      <c r="B98" s="369"/>
+      <c r="C98" s="371"/>
+      <c r="D98" s="369" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="301"/>
-      <c r="F98" s="300"/>
+      <c r="E98" s="370"/>
+      <c r="F98" s="371"/>
       <c r="G98" s="291"/>
       <c r="H98" s="291"/>
-      <c r="I98" s="299"/>
-      <c r="J98" s="300"/>
-      <c r="K98" s="299" t="s">
+      <c r="I98" s="369"/>
+      <c r="J98" s="371"/>
+      <c r="K98" s="369" t="s">
         <v>229</v>
       </c>
-      <c r="L98" s="300"/>
-      <c r="M98" s="299"/>
-      <c r="N98" s="300"/>
+      <c r="L98" s="371"/>
+      <c r="M98" s="369"/>
+      <c r="N98" s="371"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="287"/>
@@ -8094,40 +8100,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
     <mergeCell ref="A87:B96"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
@@ -8139,12 +8117,40 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8162,7 +8168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
@@ -8185,45 +8191,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="326" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="346"/>
+      <c r="B2" s="329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="331"/>
       <c r="G2" s="280"/>
       <c r="H2" s="280"/>
-      <c r="I2" s="347" t="s">
+      <c r="I2" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="348"/>
-      <c r="M2" s="352"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="379"/>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="343"/>
+      <c r="A3" s="328"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8268,7 +8274,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="350" t="s">
+      <c r="A4" s="335" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -8286,11 +8292,11 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="353">
+      <c r="G4" s="299">
         <f>D4</f>
         <v>36</v>
       </c>
-      <c r="H4" s="353">
+      <c r="H4" s="299">
         <v>1</v>
       </c>
       <c r="I4" s="273">
@@ -8308,7 +8314,7 @@
       <c r="M4" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="379">
+      <c r="N4" s="325">
         <f>K4</f>
         <v>32</v>
       </c>
@@ -8317,7 +8323,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="351"/>
+      <c r="A5" s="336"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -8334,11 +8340,11 @@
       <c r="F5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="354">
+      <c r="G5" s="300">
         <f>D5</f>
         <v>54</v>
       </c>
-      <c r="H5" s="354">
+      <c r="H5" s="300">
         <v>1</v>
       </c>
       <c r="I5" s="85"/>
@@ -8363,7 +8369,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="351"/>
+      <c r="A6" s="336"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -8379,11 +8385,11 @@
       <c r="F6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="353">
-        <f t="shared" ref="G6:G66" si="0">D6</f>
+      <c r="G6" s="299">
+        <f t="shared" ref="G6:G64" si="0">D6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="355">
+      <c r="H6" s="301">
         <v>1</v>
       </c>
       <c r="I6" s="100" t="s">
@@ -8401,13 +8407,13 @@
       <c r="M6" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="N6" s="379" t="str">
-        <f t="shared" ref="N6:N67" si="1">K6</f>
+      <c r="N6" s="325" t="str">
+        <f t="shared" ref="N6:N66" si="1">K6</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="351"/>
+      <c r="A7" s="336"/>
       <c r="B7" s="100">
         <v>1900110</v>
       </c>
@@ -8423,11 +8429,11 @@
       <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="354">
+      <c r="G7" s="300">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H7" s="355">
+      <c r="H7" s="301">
         <v>1</v>
       </c>
       <c r="I7" s="101"/>
@@ -8441,7 +8447,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="351"/>
+      <c r="A8" s="336"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -8458,11 +8464,11 @@
       <c r="F8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="353">
+      <c r="G8" s="299">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H8" s="355">
+      <c r="H8" s="301">
         <v>1</v>
       </c>
       <c r="I8" s="101"/>
@@ -8470,13 +8476,13 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="254"/>
-      <c r="N8" s="379">
+      <c r="N8" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="351"/>
+      <c r="A9" s="336"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -8492,11 +8498,11 @@
       <c r="F9" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="354">
+      <c r="G9" s="300">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="356">
+      <c r="H9" s="302">
         <v>1</v>
       </c>
       <c r="I9" s="101"/>
@@ -8510,7 +8516,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="351"/>
+      <c r="A10" s="336"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -8522,11 +8528,11 @@
       <c r="F10" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="353">
+      <c r="G10" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="356">
+      <c r="H10" s="302">
         <v>1</v>
       </c>
       <c r="I10" s="101"/>
@@ -8534,13 +8540,13 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="254"/>
-      <c r="N10" s="379">
+      <c r="N10" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="351"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -8550,11 +8556,11 @@
       <c r="F11" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="354">
+      <c r="G11" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="357">
+      <c r="H11" s="303">
         <v>1</v>
       </c>
       <c r="I11" s="102"/>
@@ -8568,7 +8574,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="A12" s="351"/>
+      <c r="A12" s="336"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -8584,11 +8590,11 @@
       <c r="F12" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="353">
+      <c r="G12" s="299">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="357">
+      <c r="H12" s="303">
         <v>1</v>
       </c>
       <c r="I12" s="102"/>
@@ -8596,13 +8602,13 @@
       <c r="K12" s="79"/>
       <c r="L12" s="79"/>
       <c r="M12" s="80"/>
-      <c r="N12" s="379">
+      <c r="N12" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1">
-      <c r="A13" s="338" t="s">
+      <c r="A13" s="337" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -8620,11 +8626,11 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="354">
+      <c r="G13" s="300">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H13" s="353">
+      <c r="H13" s="299">
         <v>1</v>
       </c>
       <c r="I13" s="273">
@@ -8650,7 +8656,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="339"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -8667,11 +8673,11 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="353">
+      <c r="G14" s="299">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H14" s="353">
+      <c r="H14" s="299">
         <v>1</v>
       </c>
       <c r="I14" s="240">
@@ -8689,7 +8695,7 @@
       <c r="M14" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="379">
+      <c r="N14" s="325">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -8698,7 +8704,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="339"/>
+      <c r="A15" s="338"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -8715,11 +8721,11 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="354">
+      <c r="G15" s="300">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H15" s="354">
+      <c r="H15" s="300">
         <v>1</v>
       </c>
       <c r="I15" s="273">
@@ -8746,7 +8752,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="339"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="236">
         <v>1900102</v>
       </c>
@@ -8762,10 +8768,10 @@
       <c r="F16" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="353">
+      <c r="G16" s="299">
         <v>40</v>
       </c>
-      <c r="H16" s="358">
+      <c r="H16" s="304">
         <v>1</v>
       </c>
       <c r="I16" s="268"/>
@@ -8773,13 +8779,13 @@
       <c r="K16" s="268"/>
       <c r="L16" s="268"/>
       <c r="M16" s="270"/>
-      <c r="N16" s="379">
+      <c r="N16" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="339"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="199">
         <v>1901003</v>
       </c>
@@ -8795,11 +8801,11 @@
       <c r="F17" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="354">
+      <c r="G17" s="300">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H17" s="359">
+      <c r="H17" s="305">
         <v>1</v>
       </c>
       <c r="I17" s="241"/>
@@ -8824,7 +8830,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="339"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="241">
         <v>1900111</v>
       </c>
@@ -8840,11 +8846,11 @@
       <c r="F18" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="353">
+      <c r="G18" s="299">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H18" s="360">
+      <c r="H18" s="306">
         <v>1</v>
       </c>
       <c r="I18" s="268"/>
@@ -8852,13 +8858,13 @@
       <c r="K18" s="268"/>
       <c r="L18" s="268"/>
       <c r="M18" s="270"/>
-      <c r="N18" s="379">
+      <c r="N18" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="339"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="87">
         <v>1901002</v>
       </c>
@@ -8874,11 +8880,11 @@
       <c r="F19" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="354">
+      <c r="G19" s="300">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H19" s="361">
+      <c r="H19" s="307">
         <v>1</v>
       </c>
       <c r="I19" s="268"/>
@@ -8892,7 +8898,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="339"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="87">
         <v>1900112</v>
       </c>
@@ -8908,11 +8914,11 @@
       <c r="F20" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="353">
+      <c r="G20" s="299">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H20" s="361">
+      <c r="H20" s="307">
         <v>1</v>
       </c>
       <c r="I20" s="268"/>
@@ -8920,13 +8926,13 @@
       <c r="K20" s="268"/>
       <c r="L20" s="268"/>
       <c r="M20" s="270"/>
-      <c r="N20" s="379">
+      <c r="N20" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="339"/>
+      <c r="A21" s="338"/>
       <c r="B21" s="87">
         <v>1905045</v>
       </c>
@@ -8942,11 +8948,11 @@
       <c r="F21" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="354">
+      <c r="G21" s="300">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H21" s="359">
+      <c r="H21" s="305">
         <v>1</v>
       </c>
       <c r="I21" s="242"/>
@@ -8960,7 +8966,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="340"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="94"/>
       <c r="C22" s="170" t="s">
         <v>132</v>
@@ -8970,11 +8976,11 @@
       <c r="F22" s="201" t="s">
         <v>246</v>
       </c>
-      <c r="G22" s="353">
+      <c r="G22" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="362"/>
+      <c r="H22" s="308"/>
       <c r="I22" s="273">
         <v>1905039</v>
       </c>
@@ -8990,7 +8996,7 @@
       <c r="M22" s="277" t="s">
         <v>151</v>
       </c>
-      <c r="N22" s="379">
+      <c r="N22" s="325">
         <v>120</v>
       </c>
       <c r="O22">
@@ -8998,7 +9004,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="338" t="s">
+      <c r="A23" s="337" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
@@ -9016,11 +9022,11 @@
       <c r="F23" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="354">
+      <c r="G23" s="300">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H23" s="363">
+      <c r="H23" s="309">
         <v>1</v>
       </c>
       <c r="I23" s="84">
@@ -9044,7 +9050,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="339"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
@@ -9061,11 +9067,11 @@
       <c r="F24" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="353">
+      <c r="G24" s="299">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H24" s="354">
+      <c r="H24" s="300">
         <v>1</v>
       </c>
       <c r="I24" s="85"/>
@@ -9081,13 +9087,13 @@
       <c r="M24" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="379">
+      <c r="N24" s="325">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="339"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="87">
         <v>1901007</v>
       </c>
@@ -9103,11 +9109,11 @@
       <c r="F25" s="192" t="s">
         <v>247</v>
       </c>
-      <c r="G25" s="354">
+      <c r="G25" s="300">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H25" s="356">
+      <c r="H25" s="302">
         <v>1</v>
       </c>
       <c r="I25" s="273">
@@ -9131,7 +9137,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="339"/>
+      <c r="A26" s="338"/>
       <c r="B26" s="202">
         <v>1901008</v>
       </c>
@@ -9147,11 +9153,11 @@
       <c r="F26" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="353">
+      <c r="G26" s="299">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H26" s="364">
+      <c r="H26" s="310">
         <v>1</v>
       </c>
       <c r="I26" s="273"/>
@@ -9167,7 +9173,7 @@
       <c r="M26" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="N26" s="379">
+      <c r="N26" s="325">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -9176,7 +9182,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="339"/>
+      <c r="A27" s="338"/>
       <c r="B27" s="87">
         <v>1901006</v>
       </c>
@@ -9192,11 +9198,11 @@
       <c r="F27" s="192" t="s">
         <v>249</v>
       </c>
-      <c r="G27" s="354">
+      <c r="G27" s="300">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H27" s="356">
+      <c r="H27" s="302">
         <v>1</v>
       </c>
       <c r="I27" s="193"/>
@@ -9221,7 +9227,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="339"/>
+      <c r="A28" s="338"/>
       <c r="B28" s="87">
         <v>1901007</v>
       </c>
@@ -9237,11 +9243,11 @@
       <c r="F28" s="220" t="s">
         <v>250</v>
       </c>
-      <c r="G28" s="353">
+      <c r="G28" s="299">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H28" s="364">
+      <c r="H28" s="310">
         <v>1</v>
       </c>
       <c r="I28" s="128">
@@ -9259,7 +9265,7 @@
       <c r="M28" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N28" s="379">
+      <c r="N28" s="325">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -9268,8 +9274,8 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="339"/>
-      <c r="G29" s="354">
+      <c r="A29" s="338"/>
+      <c r="G29" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9297,7 +9303,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="340"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="94"/>
       <c r="C30" s="139" t="s">
         <v>32</v>
@@ -9307,11 +9313,11 @@
       <c r="F30" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="353">
+      <c r="G30" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="365">
+      <c r="H30" s="311">
         <v>1</v>
       </c>
       <c r="I30" s="93"/>
@@ -9327,7 +9333,7 @@
       <c r="M30" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="379">
+      <c r="N30" s="325">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -9336,7 +9342,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="338" t="s">
+      <c r="A31" s="337" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
@@ -9354,11 +9360,11 @@
       <c r="F31" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="354">
+      <c r="G31" s="300">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H31" s="363">
+      <c r="H31" s="309">
         <v>1</v>
       </c>
       <c r="I31" s="112"/>
@@ -9383,7 +9389,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="339"/>
+      <c r="A32" s="338"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
@@ -9400,11 +9406,11 @@
       <c r="F32" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="353">
+      <c r="G32" s="299">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H32" s="354">
+      <c r="H32" s="300">
         <v>1</v>
       </c>
       <c r="I32" s="128">
@@ -9422,7 +9428,7 @@
       <c r="M32" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="379">
+      <c r="N32" s="325">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -9431,7 +9437,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="339"/>
+      <c r="A33" s="338"/>
       <c r="B33" s="93">
         <v>1905010</v>
       </c>
@@ -9447,11 +9453,11 @@
       <c r="F33" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="G33" s="354">
+      <c r="G33" s="300">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H33" s="366">
+      <c r="H33" s="312">
         <v>1</v>
       </c>
       <c r="I33" s="128">
@@ -9478,7 +9484,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="339"/>
+      <c r="A34" s="338"/>
       <c r="B34" s="93">
         <v>1905011</v>
       </c>
@@ -9494,11 +9500,11 @@
       <c r="F34" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="G34" s="353">
+      <c r="G34" s="299">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H34" s="366">
+      <c r="H34" s="312">
         <v>1</v>
       </c>
       <c r="I34" s="128" t="s">
@@ -9516,7 +9522,7 @@
       <c r="M34" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="N34" s="379" t="str">
+      <c r="N34" s="325" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9525,17 +9531,17 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="339"/>
+      <c r="A35" s="338"/>
       <c r="B35" s="206"/>
       <c r="C35" s="207"/>
       <c r="D35" s="208"/>
       <c r="E35" s="208"/>
       <c r="F35" s="209"/>
-      <c r="G35" s="354">
+      <c r="G35" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="367"/>
+      <c r="H35" s="313"/>
       <c r="I35" s="128">
         <v>1905030</v>
       </c>
@@ -9560,17 +9566,17 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="339"/>
+      <c r="A36" s="338"/>
       <c r="B36" s="206"/>
       <c r="C36" s="207"/>
       <c r="D36" s="208"/>
       <c r="E36" s="208"/>
       <c r="F36" s="209"/>
-      <c r="G36" s="353">
+      <c r="G36" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="367"/>
+      <c r="H36" s="313"/>
       <c r="I36" s="128" t="s">
         <v>83</v>
       </c>
@@ -9578,13 +9584,13 @@
       <c r="K36" s="116"/>
       <c r="L36" s="117"/>
       <c r="M36" s="107"/>
-      <c r="N36" s="379">
+      <c r="N36" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1">
-      <c r="A37" s="340"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="94"/>
       <c r="C37" s="139" t="s">
         <v>36</v>
@@ -9594,11 +9600,11 @@
       <c r="F37" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="354">
+      <c r="G37" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="365"/>
+      <c r="H37" s="311"/>
       <c r="I37" s="273">
         <v>199641</v>
       </c>
@@ -9619,7 +9625,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="338" t="s">
+      <c r="A38" s="337" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="210">
@@ -9637,11 +9643,11 @@
       <c r="F38" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="353">
+      <c r="G38" s="299">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H38" s="368">
+      <c r="H38" s="314">
         <v>1</v>
       </c>
       <c r="I38" s="227"/>
@@ -9657,7 +9663,7 @@
       <c r="M38" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N38" s="379">
+      <c r="N38" s="325">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -9666,7 +9672,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="339"/>
+      <c r="A39" s="338"/>
       <c r="B39" s="215">
         <v>1905046</v>
       </c>
@@ -9682,11 +9688,11 @@
       <c r="F39" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="354">
+      <c r="G39" s="300">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H39" s="356">
+      <c r="H39" s="302">
         <v>1</v>
       </c>
       <c r="I39" s="273">
@@ -9712,7 +9718,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="339"/>
+      <c r="A40" s="338"/>
       <c r="B40" s="215">
         <v>1905047</v>
       </c>
@@ -9728,11 +9734,11 @@
       <c r="F40" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="G40" s="353">
+      <c r="G40" s="299">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H40" s="366">
+      <c r="H40" s="312">
         <v>1</v>
       </c>
       <c r="I40" s="128">
@@ -9750,12 +9756,12 @@
       <c r="M40" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="N40" s="379">
+      <c r="N40" s="325">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="339"/>
+      <c r="A41" s="338"/>
       <c r="B41" s="215">
         <v>1901015</v>
       </c>
@@ -9771,11 +9777,11 @@
       <c r="F41" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="G41" s="354">
+      <c r="G41" s="300">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H41" s="356">
+      <c r="H41" s="302">
         <v>1</v>
       </c>
       <c r="I41" s="128"/>
@@ -9797,7 +9803,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="339"/>
+      <c r="A42" s="338"/>
       <c r="B42" s="215">
         <v>1901016</v>
       </c>
@@ -9813,11 +9819,11 @@
       <c r="F42" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="G42" s="353">
+      <c r="G42" s="299">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H42" s="366">
+      <c r="H42" s="312">
         <v>1</v>
       </c>
       <c r="I42" s="128"/>
@@ -9833,13 +9839,13 @@
       <c r="M42" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="379" t="str">
+      <c r="N42" s="325" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="339"/>
+      <c r="A43" s="338"/>
       <c r="B43" s="215">
         <v>1901013</v>
       </c>
@@ -9855,11 +9861,11 @@
       <c r="F43" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="354">
+      <c r="G43" s="300">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H43" s="356">
+      <c r="H43" s="302">
         <v>1</v>
       </c>
       <c r="I43" s="128"/>
@@ -9881,7 +9887,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="339"/>
+      <c r="A44" s="338"/>
       <c r="B44" s="215">
         <v>1901014</v>
       </c>
@@ -9897,11 +9903,11 @@
       <c r="F44" s="220" t="s">
         <v>154</v>
       </c>
-      <c r="G44" s="353">
+      <c r="G44" s="299">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H44" s="364">
+      <c r="H44" s="310">
         <v>1</v>
       </c>
       <c r="I44" s="128" t="s">
@@ -9917,23 +9923,23 @@
         <v>83</v>
       </c>
       <c r="M44" s="107"/>
-      <c r="N44" s="379" t="str">
+      <c r="N44" s="325" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="339"/>
+      <c r="A45" s="338"/>
       <c r="B45" s="215"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
       <c r="E45" s="35"/>
       <c r="F45" s="200"/>
-      <c r="G45" s="354">
+      <c r="G45" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="359"/>
+      <c r="H45" s="305"/>
       <c r="I45" s="128" t="s">
         <v>83</v>
       </c>
@@ -9953,7 +9959,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1">
-      <c r="A46" s="340"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="94"/>
       <c r="C46" s="139" t="s">
         <v>38</v>
@@ -9963,23 +9969,23 @@
       <c r="F46" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="353">
+      <c r="G46" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46" s="369"/>
+      <c r="H46" s="315"/>
       <c r="I46" s="194"/>
       <c r="J46" s="228"/>
       <c r="K46" s="229"/>
       <c r="L46" s="230"/>
       <c r="M46" s="195"/>
-      <c r="N46" s="379">
+      <c r="N46" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="339" t="s">
+      <c r="A47" s="338" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="210">
@@ -9997,11 +10003,11 @@
       <c r="F47" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="354">
+      <c r="G47" s="300">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H47" s="368">
+      <c r="H47" s="314">
         <v>1</v>
       </c>
       <c r="I47" s="84"/>
@@ -10026,7 +10032,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="339"/>
+      <c r="A48" s="338"/>
       <c r="B48" s="236">
         <v>1900103</v>
       </c>
@@ -10042,11 +10048,11 @@
       <c r="F48" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="353" t="str">
+      <c r="G48" s="299" t="str">
         <f t="shared" si="0"/>
         <v>1周</v>
       </c>
-      <c r="H48" s="370">
+      <c r="H48" s="316">
         <v>1</v>
       </c>
       <c r="I48" s="128">
@@ -10064,7 +10070,7 @@
       <c r="M48" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N48" s="379">
+      <c r="N48" s="325">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -10073,7 +10079,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="339"/>
+      <c r="A49" s="338"/>
       <c r="B49" s="93">
         <v>1905033</v>
       </c>
@@ -10089,11 +10095,11 @@
       <c r="F49" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="G49" s="354">
+      <c r="G49" s="300">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H49" s="356">
+      <c r="H49" s="302">
         <v>1</v>
       </c>
       <c r="I49" s="273">
@@ -10136,11 +10142,11 @@
       <c r="F50" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="G50" s="353">
+      <c r="G50" s="299">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H50" s="366">
+      <c r="H50" s="312">
         <v>1</v>
       </c>
       <c r="I50" s="128">
@@ -10156,7 +10162,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="107"/>
-      <c r="N50" s="379">
+      <c r="N50" s="325">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -10171,11 +10177,11 @@
       <c r="D51" s="208"/>
       <c r="E51" s="208"/>
       <c r="F51" s="209"/>
-      <c r="G51" s="354">
+      <c r="G51" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51" s="367"/>
+      <c r="H51" s="313"/>
       <c r="I51" s="128">
         <v>1904020</v>
       </c>
@@ -10204,11 +10210,11 @@
       <c r="D52" s="208"/>
       <c r="E52" s="208"/>
       <c r="F52" s="209"/>
-      <c r="G52" s="353">
+      <c r="G52" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H52" s="367"/>
+      <c r="H52" s="313"/>
       <c r="I52" s="128">
         <v>1904021</v>
       </c>
@@ -10222,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="107"/>
-      <c r="N52" s="379">
+      <c r="N52" s="325">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -10237,11 +10243,11 @@
       <c r="D53" s="25"/>
       <c r="E53" s="38"/>
       <c r="F53" s="200"/>
-      <c r="G53" s="354">
+      <c r="G53" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="359"/>
+      <c r="H53" s="305"/>
       <c r="I53" s="273">
         <v>199641</v>
       </c>
@@ -10271,11 +10277,11 @@
       <c r="D54" s="247"/>
       <c r="E54" s="248"/>
       <c r="F54" s="249"/>
-      <c r="G54" s="353">
+      <c r="G54" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54" s="371"/>
+      <c r="H54" s="317"/>
       <c r="I54" s="93">
         <v>199783</v>
       </c>
@@ -10291,7 +10297,7 @@
       <c r="M54" s="267" t="s">
         <v>157</v>
       </c>
-      <c r="N54" s="379">
+      <c r="N54" s="325">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -10306,11 +10312,11 @@
       <c r="D55" s="247"/>
       <c r="E55" s="248"/>
       <c r="F55" s="249"/>
-      <c r="G55" s="354">
+      <c r="G55" s="300">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55" s="371"/>
+      <c r="H55" s="317"/>
       <c r="I55" s="93">
         <v>199784</v>
       </c>
@@ -10345,11 +10351,11 @@
       <c r="F56" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="353">
+      <c r="G56" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H56" s="372"/>
+      <c r="H56" s="318"/>
       <c r="I56" s="194" t="s">
         <v>83</v>
       </c>
@@ -10363,13 +10369,13 @@
         <v>83</v>
       </c>
       <c r="M56" s="20"/>
-      <c r="N56" s="379" t="str">
+      <c r="N56" s="325" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="338" t="s">
+      <c r="A57" s="337" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="255">
@@ -10387,10 +10393,10 @@
       <c r="F57" s="259" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="354">
+      <c r="G57" s="300">
         <v>160</v>
       </c>
-      <c r="H57" s="373">
+      <c r="H57" s="319">
         <v>1</v>
       </c>
       <c r="I57" s="234"/>
@@ -10415,7 +10421,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="339"/>
+      <c r="A58" s="338"/>
       <c r="B58" s="236">
         <v>1900105</v>
       </c>
@@ -10431,10 +10437,10 @@
       <c r="F58" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="353">
+      <c r="G58" s="299">
         <v>40</v>
       </c>
-      <c r="H58" s="370">
+      <c r="H58" s="316">
         <v>1</v>
       </c>
       <c r="I58" s="128"/>
@@ -10450,13 +10456,13 @@
       <c r="M58" s="254" t="s">
         <v>147</v>
       </c>
-      <c r="N58" s="379" t="str">
+      <c r="N58" s="325" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="339"/>
+      <c r="A59" s="338"/>
       <c r="B59" s="236">
         <v>1900107</v>
       </c>
@@ -10472,10 +10478,10 @@
       <c r="F59" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="354">
+      <c r="G59" s="300">
         <v>40</v>
       </c>
-      <c r="H59" s="370">
+      <c r="H59" s="316">
         <v>1</v>
       </c>
       <c r="I59" s="128" t="s">
@@ -10499,7 +10505,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="339"/>
+      <c r="A60" s="338"/>
       <c r="B60" s="260"/>
       <c r="C60" s="151" t="s">
         <v>134</v>
@@ -10513,10 +10519,10 @@
       <c r="F60" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="353">
+      <c r="G60" s="299">
         <v>80</v>
       </c>
-      <c r="H60" s="374">
+      <c r="H60" s="320">
         <v>1</v>
       </c>
       <c r="I60" s="128" t="s">
@@ -10534,13 +10540,13 @@
       <c r="M60" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="N60" s="379" t="str">
+      <c r="N60" s="325" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="339"/>
+      <c r="A61" s="338"/>
       <c r="B61" s="128">
         <v>1905050</v>
       </c>
@@ -10554,11 +10560,11 @@
         <v>2</v>
       </c>
       <c r="F61" s="254"/>
-      <c r="G61" s="354">
+      <c r="G61" s="300">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H61" s="375">
+      <c r="H61" s="321">
         <v>1</v>
       </c>
       <c r="I61" s="128" t="s">
@@ -10580,7 +10586,7 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="339"/>
+      <c r="A62" s="338"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
         <v>85</v>
@@ -10594,23 +10600,23 @@
       <c r="F62" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="353" t="str">
+      <c r="G62" s="299" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H62" s="359"/>
+      <c r="H62" s="305"/>
       <c r="I62" s="206"/>
       <c r="J62" s="266"/>
       <c r="K62" s="208"/>
       <c r="L62" s="208"/>
       <c r="M62" s="209"/>
-      <c r="N62" s="379">
+      <c r="N62" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="339"/>
+      <c r="A63" s="338"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
         <v>83</v>
@@ -10624,11 +10630,11 @@
       <c r="F63" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="354" t="str">
+      <c r="G63" s="300" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H63" s="359"/>
+      <c r="H63" s="305"/>
       <c r="I63" s="206"/>
       <c r="J63" s="266"/>
       <c r="K63" s="208"/>
@@ -10640,17 +10646,17 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1">
-      <c r="A64" s="340"/>
+      <c r="A64" s="339"/>
       <c r="B64" s="94"/>
       <c r="C64" s="263"/>
       <c r="D64" s="36"/>
       <c r="E64" s="264"/>
       <c r="F64" s="265"/>
-      <c r="G64" s="353">
+      <c r="G64" s="299">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H64" s="376"/>
+      <c r="H64" s="322"/>
       <c r="I64" s="194">
         <v>199650</v>
       </c>
@@ -10664,7 +10670,7 @@
         <v>1.5</v>
       </c>
       <c r="M64" s="20"/>
-      <c r="N64" s="379">
+      <c r="N64" s="325">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -10691,10 +10697,10 @@
       <c r="F65" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="354">
+      <c r="G65" s="300">
         <v>480</v>
       </c>
-      <c r="H65" s="377">
+      <c r="H65" s="323">
         <v>1</v>
       </c>
       <c r="I65" s="120"/>
@@ -10729,10 +10735,10 @@
       <c r="F66" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="353">
+      <c r="G66" s="299">
         <v>40</v>
       </c>
-      <c r="H66" s="378">
+      <c r="H66" s="324">
         <v>1</v>
       </c>
       <c r="I66" s="119"/>
@@ -10740,7 +10746,7 @@
       <c r="K66" s="43"/>
       <c r="L66" s="43"/>
       <c r="M66" s="272"/>
-      <c r="N66" s="379">
+      <c r="N66" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10863,23 +10869,23 @@
         <v>48</v>
       </c>
       <c r="B73" s="167"/>
-      <c r="C73" s="329" t="s">
+      <c r="C73" s="340" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="330"/>
-      <c r="E73" s="331"/>
-      <c r="F73" s="329" t="s">
+      <c r="D73" s="341"/>
+      <c r="E73" s="342"/>
+      <c r="F73" s="340" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="330"/>
-      <c r="H73" s="330"/>
-      <c r="I73" s="330"/>
-      <c r="J73" s="331"/>
-      <c r="K73" s="332" t="s">
+      <c r="G73" s="341"/>
+      <c r="H73" s="341"/>
+      <c r="I73" s="341"/>
+      <c r="J73" s="342"/>
+      <c r="K73" s="343" t="s">
         <v>116</v>
       </c>
-      <c r="L73" s="332"/>
-      <c r="M73" s="333"/>
+      <c r="L73" s="343"/>
+      <c r="M73" s="344"/>
     </row>
     <row r="74" spans="1:15" ht="26">
       <c r="A74" s="163">
@@ -10911,17 +10917,17 @@
       <c r="J74" s="147">
         <v>18</v>
       </c>
-      <c r="K74" s="334" t="s">
+      <c r="K74" s="345" t="s">
         <v>118</v>
       </c>
-      <c r="L74" s="335"/>
-      <c r="M74" s="336"/>
+      <c r="L74" s="346"/>
+      <c r="M74" s="347"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="321">
+      <c r="A75" s="348">
         <v>2</v>
       </c>
-      <c r="B75" s="337" t="s">
+      <c r="B75" s="349" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="148"/>
@@ -10937,13 +10943,13 @@
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="K75" s="325"/>
-      <c r="L75" s="325"/>
-      <c r="M75" s="326"/>
+      <c r="K75" s="351"/>
+      <c r="L75" s="351"/>
+      <c r="M75" s="352"/>
     </row>
     <row r="76" spans="1:15" ht="26">
-      <c r="A76" s="321"/>
-      <c r="B76" s="322"/>
+      <c r="A76" s="348"/>
+      <c r="B76" s="350"/>
       <c r="C76" s="151"/>
       <c r="D76" s="152"/>
       <c r="E76" s="152"/>
@@ -10956,15 +10962,15 @@
       <c r="J76" s="152">
         <v>5</v>
       </c>
-      <c r="K76" s="325"/>
-      <c r="L76" s="325"/>
-      <c r="M76" s="326"/>
+      <c r="K76" s="351"/>
+      <c r="L76" s="351"/>
+      <c r="M76" s="352"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="321">
+      <c r="A77" s="348">
         <v>3</v>
       </c>
-      <c r="B77" s="322" t="s">
+      <c r="B77" s="350" t="s">
         <v>163</v>
       </c>
       <c r="C77" s="154" t="s">
@@ -10984,13 +10990,13 @@
       <c r="J77" s="158">
         <v>30.5</v>
       </c>
-      <c r="K77" s="323"/>
-      <c r="L77" s="323"/>
-      <c r="M77" s="324"/>
+      <c r="K77" s="353"/>
+      <c r="L77" s="353"/>
+      <c r="M77" s="354"/>
     </row>
     <row r="78" spans="1:15" ht="26">
-      <c r="A78" s="321"/>
-      <c r="B78" s="322"/>
+      <c r="A78" s="348"/>
+      <c r="B78" s="350"/>
       <c r="C78" s="154" t="s">
         <v>126</v>
       </c>
@@ -11003,9 +11009,9 @@
       <c r="H78" s="159"/>
       <c r="I78" s="164"/>
       <c r="J78" s="69"/>
-      <c r="K78" s="325"/>
-      <c r="L78" s="325"/>
-      <c r="M78" s="326"/>
+      <c r="K78" s="351"/>
+      <c r="L78" s="351"/>
+      <c r="M78" s="352"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1">
       <c r="A79" s="160" t="s">
@@ -11034,9 +11040,9 @@
         <f>SUM(J74:J78)</f>
         <v>63.5</v>
       </c>
-      <c r="K79" s="327"/>
-      <c r="L79" s="327"/>
-      <c r="M79" s="328"/>
+      <c r="K79" s="355"/>
+      <c r="L79" s="355"/>
+      <c r="M79" s="356"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="63"/>
@@ -11091,17 +11097,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
     <mergeCell ref="F73:J73"/>
     <mergeCell ref="K73:M73"/>
     <mergeCell ref="K74:M74"/>
@@ -11110,11 +11110,17 @@
     <mergeCell ref="K75:M75"/>
     <mergeCell ref="K76:M76"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28308"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
+    <workbookView xWindow="16820" yWindow="40" windowWidth="23980" windowHeight="20240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="264">
   <si>
     <t>学期</t>
   </si>
@@ -931,10 +931,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>专业必修</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>软件工程与计算I</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1388,10 +1384,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>3周</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>换算课时</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1401,6 +1393,34 @@
   </si>
   <si>
     <t>4周</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业核心</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>.NET高级应用开发实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>选修部分（&gt;=40%,(56学分）</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1712,7 +1732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -2346,19 +2366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -2470,19 +2477,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3134,8 +3130,50 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3937,9 +3975,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3949,10 +3984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3985,175 +4017,145 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4180,107 +4182,184 @@
     <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="34" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="217">
+  <cellStyles count="231">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -4388,113 +4467,14 @@
     <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4514,7 +4494,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4522,7 +4502,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4530,7 +4510,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4538,7 +4518,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4796,7 +4776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4806,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView topLeftCell="A65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4815,58 +4795,57 @@
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="70" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="8" style="70" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="70" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="70" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="70" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" style="70" customWidth="1"/>
+    <col min="8" max="8" width="6" style="70" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" style="70" customWidth="1"/>
     <col min="10" max="10" width="26.1640625" style="71" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="70" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="70" customWidth="1"/>
+    <col min="11" max="12" width="5.6640625" style="70" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="340" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="341" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="329" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="332" t="s">
+      <c r="B2" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="346" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="334"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="348"/>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="328"/>
+      <c r="A3" s="342"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4882,11 +4861,11 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="288" t="s">
+      <c r="G3" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="286" t="s">
         <v>241</v>
-      </c>
-      <c r="H3" s="288" t="s">
-        <v>242</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
@@ -4904,14 +4883,14 @@
         <v>7</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="349" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -4933,7 +4912,7 @@
         <f>D4</f>
         <v>36</v>
       </c>
-      <c r="H4" s="292">
+      <c r="H4" s="288">
         <v>1</v>
       </c>
       <c r="I4" s="81">
@@ -4959,8 +4938,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="336"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="350"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -4981,7 +4960,7 @@
         <f>D5</f>
         <v>54</v>
       </c>
-      <c r="H5" s="293">
+      <c r="H5" s="289">
         <v>1</v>
       </c>
       <c r="I5" s="85"/>
@@ -5006,7 +4985,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="336"/>
+      <c r="A6" s="350"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -5022,11 +5001,11 @@
       <c r="F6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="99">
         <f t="shared" ref="G6:G63" si="0">D6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="294">
+      <c r="H6" s="12">
         <v>1</v>
       </c>
       <c r="I6" s="100" t="s">
@@ -5049,8 +5028,8 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1">
-      <c r="A7" s="336"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="350"/>
       <c r="B7" s="100">
         <v>199023</v>
       </c>
@@ -5066,11 +5045,11 @@
       <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="99">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H7" s="293">
+      <c r="H7" s="12">
         <v>1</v>
       </c>
       <c r="I7" s="101"/>
@@ -5084,7 +5063,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="336"/>
+      <c r="A8" s="350"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -5101,11 +5080,11 @@
       <c r="F8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="99">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H8" s="294">
+      <c r="H8" s="12">
         <v>1</v>
       </c>
       <c r="I8" s="101"/>
@@ -5118,8 +5097,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
-      <c r="A9" s="336"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="350"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -5135,11 +5114,11 @@
       <c r="F9" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="293">
+      <c r="H9" s="75">
         <v>1</v>
       </c>
       <c r="I9" s="101"/>
@@ -5153,7 +5132,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="336"/>
+      <c r="A10" s="350"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -5163,13 +5142,13 @@
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="192" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="5">
+        <v>188</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="294">
+      <c r="H10" s="75">
         <v>1</v>
       </c>
       <c r="I10" s="101"/>
@@ -5182,8 +5161,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
-      <c r="A11" s="336"/>
+    <row r="11" spans="1:15">
+      <c r="A11" s="350"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -5191,13 +5170,13 @@
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
       <c r="F11" s="192" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="7">
+        <v>188</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="295">
+      <c r="H11" s="75">
         <v>1</v>
       </c>
       <c r="I11" s="102"/>
@@ -5211,7 +5190,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="A12" s="336"/>
+      <c r="A12" s="350"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -5227,11 +5206,11 @@
       <c r="F12" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="296">
+      <c r="H12" s="75">
         <v>1</v>
       </c>
       <c r="I12" s="102"/>
@@ -5263,18 +5242,18 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H13" s="297">
+      <c r="H13" s="288">
         <v>1</v>
       </c>
       <c r="I13" s="81">
         <v>1902060</v>
       </c>
       <c r="J13" s="126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K13" s="109" t="s">
         <v>100</v>
@@ -5292,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
       <c r="A14" s="338"/>
       <c r="B14" s="91">
         <v>310009</v>
@@ -5310,11 +5289,11 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H14" s="298">
+      <c r="H14" s="289">
         <v>1</v>
       </c>
       <c r="I14" s="240">
@@ -5340,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15">
       <c r="A15" s="338"/>
       <c r="B15" s="91">
         <v>310013</v>
@@ -5358,11 +5337,11 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H15" s="297">
+      <c r="H15" s="288">
         <v>1</v>
       </c>
       <c r="I15" s="81">
@@ -5405,10 +5384,10 @@
       <c r="F16" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="148">
         <v>40</v>
       </c>
-      <c r="H16" s="294">
+      <c r="H16" s="148">
         <v>1</v>
       </c>
       <c r="I16" s="241">
@@ -5449,13 +5428,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="200" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="7">
+        <v>230</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H17" s="293">
+      <c r="H17" s="75">
         <v>1</v>
       </c>
       <c r="I17" s="241"/>
@@ -5485,7 +5464,7 @@
         <v>1905045</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="9">
         <v>32</v>
@@ -5494,13 +5473,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="198" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="5">
+        <v>231</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H18" s="298">
+      <c r="H18" s="75">
         <v>1</v>
       </c>
       <c r="I18" s="240">
@@ -5526,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1">
+    <row r="19" spans="1:15">
       <c r="A19" s="338"/>
       <c r="B19" s="243" t="s">
         <v>131</v>
@@ -5543,11 +5522,11 @@
       <c r="F19" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="7" t="str">
+      <c r="G19" s="9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H19" s="294"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="240">
         <v>1900112</v>
       </c>
@@ -5578,11 +5557,11 @@
       <c r="D20" s="221"/>
       <c r="E20" s="220"/>
       <c r="F20" s="244"/>
-      <c r="G20" s="5">
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="292"/>
+      <c r="H20" s="75"/>
       <c r="N20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5599,18 +5578,18 @@
       <c r="F21" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="293">
+      <c r="H21" s="75">
         <v>1</v>
       </c>
       <c r="I21" s="242">
         <v>1905039</v>
       </c>
       <c r="J21" s="126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K21" s="110" t="s">
         <v>156</v>
@@ -5651,7 +5630,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H22" s="298">
+      <c r="H22" s="292">
         <v>1</v>
       </c>
       <c r="I22" s="84">
@@ -5677,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1">
+    <row r="23" spans="1:15">
       <c r="A23" s="338"/>
       <c r="B23" s="91">
         <v>310015</v>
@@ -5699,7 +5678,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H23" s="293">
+      <c r="H23" s="289">
         <v>1</v>
       </c>
       <c r="I23" s="85"/>
@@ -5740,21 +5719,21 @@
       <c r="F24" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H24" s="294">
+      <c r="H24" s="75">
         <v>1</v>
       </c>
       <c r="I24" s="196">
         <v>1905029</v>
       </c>
       <c r="J24" s="126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K24" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L24" s="82">
         <v>3</v>
@@ -5769,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1">
+    <row r="25" spans="1:15">
       <c r="A25" s="338"/>
       <c r="B25" s="202">
         <v>1905008</v>
@@ -5786,11 +5765,11 @@
       <c r="F25" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H25" s="293">
+      <c r="H25" s="75">
         <v>1</v>
       </c>
       <c r="I25" s="196"/>
@@ -5829,13 +5808,13 @@
         <v>4</v>
       </c>
       <c r="F26" s="192" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="5">
+        <v>230</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H26" s="294">
+      <c r="H26" s="75">
         <v>1</v>
       </c>
       <c r="I26" s="193"/>
@@ -5859,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1">
+    <row r="27" spans="1:15">
       <c r="A27" s="338"/>
       <c r="B27" s="87">
         <v>1901007</v>
@@ -5876,18 +5855,18 @@
       <c r="F27" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H27" s="293">
+      <c r="H27" s="75">
         <v>1</v>
       </c>
       <c r="I27" s="128">
         <v>1905028</v>
       </c>
       <c r="J27" s="250" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" s="124">
         <v>32</v>
@@ -5912,7 +5891,7 @@
         <v>1901028</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="9">
         <v>32</v>
@@ -5921,13 +5900,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="198" t="s">
-        <v>231</v>
-      </c>
-      <c r="G28" s="5">
+        <v>230</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H28" s="294">
+      <c r="H28" s="75">
         <v>1</v>
       </c>
       <c r="I28" s="128">
@@ -5964,11 +5943,11 @@
       <c r="F29" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="295">
+      <c r="H29" s="75">
         <v>1</v>
       </c>
       <c r="I29" s="88"/>
@@ -6004,7 +5983,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H30" s="298">
+      <c r="H30" s="292">
         <v>1</v>
       </c>
       <c r="I30" s="112">
@@ -6030,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1">
+    <row r="31" spans="1:15">
       <c r="A31" s="338"/>
       <c r="B31" s="91">
         <v>3100014</v>
@@ -6052,7 +6031,7 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H31" s="293">
+      <c r="H31" s="289">
         <v>1</v>
       </c>
       <c r="I31" s="128">
@@ -6093,13 +6072,13 @@
         <v>2.5</v>
       </c>
       <c r="F32" s="198" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="5">
+        <v>230</v>
+      </c>
+      <c r="G32" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H32" s="294">
+      <c r="H32" s="75">
         <v>1</v>
       </c>
       <c r="I32" s="128">
@@ -6125,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1">
+    <row r="33" spans="1:15">
       <c r="A33" s="338"/>
       <c r="B33" s="93">
         <v>1905036</v>
@@ -6140,29 +6119,29 @@
         <v>1</v>
       </c>
       <c r="F33" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="7">
+        <v>232</v>
+      </c>
+      <c r="G33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H33" s="293">
+      <c r="H33" s="75">
         <v>1</v>
       </c>
       <c r="I33" s="128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J33" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="K33" s="116" t="s">
+      <c r="L33" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="M33" s="107" t="s">
         <v>186</v>
-      </c>
-      <c r="L33" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="M33" s="107" t="s">
-        <v>187</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
@@ -6176,11 +6155,11 @@
       <c r="D34" s="208"/>
       <c r="E34" s="208"/>
       <c r="F34" s="209"/>
-      <c r="G34" s="5">
+      <c r="G34" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="294"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="128">
         <v>1905030</v>
       </c>
@@ -6204,32 +6183,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1">
+    <row r="35" spans="1:15">
       <c r="A35" s="338"/>
       <c r="B35" s="206"/>
       <c r="C35" s="207"/>
       <c r="D35" s="208"/>
       <c r="E35" s="208"/>
       <c r="F35" s="209"/>
-      <c r="G35" s="7">
+      <c r="G35" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="293"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="J35" s="115" t="s">
+      <c r="K35" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="116" t="s">
+      <c r="L35" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="117" t="s">
+      <c r="M35" s="107" t="s">
         <v>183</v>
-      </c>
-      <c r="M35" s="107" t="s">
-        <v>184</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="1"/>
@@ -6247,11 +6226,11 @@
       <c r="F36" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="296">
+      <c r="H36" s="75">
         <v>1</v>
       </c>
       <c r="I36" s="223">
@@ -6261,7 +6240,7 @@
         <v>148</v>
       </c>
       <c r="K36" s="225" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L36" s="131">
         <v>2</v>
@@ -6272,8 +6251,11 @@
       <c r="N36">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="337" t="s">
         <v>37</v>
       </c>
@@ -6296,7 +6278,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H37" s="294">
+      <c r="H37" s="290">
         <v>1</v>
       </c>
       <c r="I37" s="227"/>
@@ -6335,13 +6317,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="192" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="5">
+        <v>230</v>
+      </c>
+      <c r="G38" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H38" s="294">
+      <c r="H38" s="75">
         <v>1</v>
       </c>
       <c r="I38" s="129">
@@ -6351,13 +6333,13 @@
         <v>105</v>
       </c>
       <c r="K38" s="127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L38" s="82">
         <v>2</v>
       </c>
       <c r="M38" s="130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N38">
         <v>80</v>
@@ -6366,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1">
+    <row r="39" spans="1:15">
       <c r="A39" s="338"/>
       <c r="B39" s="215">
         <v>1905047</v>
@@ -6381,13 +6363,13 @@
         <v>1</v>
       </c>
       <c r="F39" s="220" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39" s="7">
+        <v>233</v>
+      </c>
+      <c r="G39" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H39" s="293">
+      <c r="H39" s="75">
         <v>1</v>
       </c>
       <c r="I39" s="128">
@@ -6397,13 +6379,13 @@
         <v>107</v>
       </c>
       <c r="K39" s="164" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L39" s="164">
         <v>3</v>
       </c>
       <c r="M39" s="165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N39">
         <v>80</v>
@@ -6427,13 +6409,13 @@
         <v>4</v>
       </c>
       <c r="F40" s="192" t="s">
-        <v>231</v>
-      </c>
-      <c r="G40" s="5">
+        <v>230</v>
+      </c>
+      <c r="G40" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H40" s="294">
+      <c r="H40" s="75">
         <v>1</v>
       </c>
       <c r="I40" s="128"/>
@@ -6454,7 +6436,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1">
+    <row r="41" spans="1:15">
       <c r="A41" s="338"/>
       <c r="B41" s="215">
         <v>1901016</v>
@@ -6469,13 +6451,13 @@
         <v>1</v>
       </c>
       <c r="F41" s="220" t="s">
-        <v>235</v>
-      </c>
-      <c r="G41" s="7">
+        <v>234</v>
+      </c>
+      <c r="G41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H41" s="293">
+      <c r="H41" s="75">
         <v>1</v>
       </c>
       <c r="I41" s="128"/>
@@ -6502,7 +6484,7 @@
         <v>1901013</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42" s="9">
         <v>48</v>
@@ -6513,11 +6495,11 @@
       <c r="F42" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H42" s="294">
+      <c r="H42" s="75">
         <v>1</v>
       </c>
       <c r="I42" s="128"/>
@@ -6538,13 +6520,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1">
+    <row r="43" spans="1:15">
       <c r="A43" s="338"/>
       <c r="B43" s="215">
         <v>1901014</v>
       </c>
       <c r="C43" s="220" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D43" s="203">
         <v>16</v>
@@ -6555,11 +6537,11 @@
       <c r="F43" s="220" t="s">
         <v>154</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H43" s="293">
+      <c r="H43" s="75">
         <v>1</v>
       </c>
       <c r="I43" s="128" t="s">
@@ -6587,11 +6569,11 @@
       <c r="D44" s="25"/>
       <c r="E44" s="35"/>
       <c r="F44" s="200"/>
-      <c r="G44" s="5">
+      <c r="G44" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="294"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="128" t="s">
         <v>87</v>
       </c>
@@ -6621,11 +6603,11 @@
       <c r="F45" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="295">
+      <c r="H45" s="75">
         <v>1</v>
       </c>
       <c r="I45" s="194"/>
@@ -6661,7 +6643,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H46" s="298">
+      <c r="H46" s="292">
         <v>1</v>
       </c>
       <c r="I46" s="84"/>
@@ -6685,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1">
+    <row r="47" spans="1:15">
       <c r="A47" s="338"/>
       <c r="B47" s="236">
         <v>1900103</v>
@@ -6705,7 +6687,7 @@
       <c r="G47" s="7">
         <v>40</v>
       </c>
-      <c r="H47" s="293">
+      <c r="H47" s="289">
         <v>1</v>
       </c>
       <c r="I47" s="128">
@@ -6746,13 +6728,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="198" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" s="5">
+        <v>230</v>
+      </c>
+      <c r="G48" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H48" s="294">
+      <c r="H48" s="75">
         <v>1</v>
       </c>
       <c r="I48" s="196">
@@ -6778,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1">
+    <row r="49" spans="1:15">
       <c r="A49" s="77"/>
       <c r="B49" s="93">
         <v>1905084</v>
@@ -6793,13 +6775,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="198" t="s">
-        <v>231</v>
-      </c>
-      <c r="G49" s="7">
+        <v>230</v>
+      </c>
+      <c r="G49" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H49" s="293">
+      <c r="H49" s="75">
         <v>1</v>
       </c>
       <c r="I49" s="128">
@@ -6830,11 +6812,11 @@
       <c r="D50" s="208"/>
       <c r="E50" s="208"/>
       <c r="F50" s="209"/>
-      <c r="G50" s="5">
+      <c r="G50" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H50" s="294"/>
+      <c r="H50" s="75"/>
       <c r="I50" s="128">
         <v>1904020</v>
       </c>
@@ -6856,18 +6838,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1">
+    <row r="51" spans="1:15">
       <c r="A51" s="39"/>
       <c r="B51" s="206"/>
       <c r="C51" s="207"/>
       <c r="D51" s="208"/>
       <c r="E51" s="208"/>
       <c r="F51" s="209"/>
-      <c r="G51" s="7">
+      <c r="G51" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51" s="293"/>
+      <c r="H51" s="75"/>
       <c r="I51" s="128">
         <v>1904021</v>
       </c>
@@ -6896,11 +6878,11 @@
       <c r="D52" s="25"/>
       <c r="E52" s="38"/>
       <c r="F52" s="200"/>
-      <c r="G52" s="5">
+      <c r="G52" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H52" s="294"/>
+      <c r="H52" s="75"/>
       <c r="I52" s="196">
         <v>1905041</v>
       </c>
@@ -6908,7 +6890,7 @@
         <v>149</v>
       </c>
       <c r="K52" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L52" s="82">
         <v>2</v>
@@ -6924,18 +6906,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1">
+    <row r="53" spans="1:15">
       <c r="A53" s="168"/>
       <c r="B53" s="245"/>
       <c r="C53" s="246"/>
       <c r="D53" s="247"/>
       <c r="E53" s="248"/>
       <c r="F53" s="249"/>
-      <c r="G53" s="7">
+      <c r="G53" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="292"/>
+      <c r="H53" s="75"/>
       <c r="N53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6948,11 +6930,11 @@
       <c r="D54" s="247"/>
       <c r="E54" s="248"/>
       <c r="F54" s="249"/>
-      <c r="G54" s="5">
+      <c r="G54" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54" s="292"/>
+      <c r="H54" s="75"/>
       <c r="N54">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6969,11 +6951,11 @@
       <c r="F55" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55" s="295">
+      <c r="H55" s="75">
         <v>1</v>
       </c>
       <c r="I55" s="194" t="s">
@@ -7005,7 +6987,7 @@
         <v>44</v>
       </c>
       <c r="D56" s="172" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E56" s="174">
         <v>3</v>
@@ -7014,9 +6996,9 @@
         <v>133</v>
       </c>
       <c r="G56" s="5">
-        <v>560</v>
-      </c>
-      <c r="H56" s="298">
+        <v>160</v>
+      </c>
+      <c r="H56" s="292">
         <v>1</v>
       </c>
       <c r="I56" s="234"/>
@@ -7060,7 +7042,7 @@
       <c r="G57" s="7">
         <v>40</v>
       </c>
-      <c r="H57" s="293">
+      <c r="H57" s="289">
         <v>1</v>
       </c>
       <c r="I57" s="128"/>
@@ -7101,7 +7083,7 @@
       <c r="G58" s="5">
         <v>40</v>
       </c>
-      <c r="H58" s="294">
+      <c r="H58" s="290">
         <v>1</v>
       </c>
       <c r="I58" s="128" t="s">
@@ -7124,7 +7106,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1">
+    <row r="59" spans="1:15">
       <c r="A59" s="338"/>
       <c r="B59" s="176"/>
       <c r="C59" s="177" t="s">
@@ -7142,7 +7124,7 @@
       <c r="G59" s="7">
         <v>40</v>
       </c>
-      <c r="H59" s="293">
+      <c r="H59" s="289">
         <v>1</v>
       </c>
       <c r="I59" s="128" t="s">
@@ -7180,11 +7162,11 @@
       <c r="F60" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="5" t="str">
+      <c r="G60" s="118" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H60" s="294"/>
+      <c r="H60" s="118"/>
       <c r="I60" s="128" t="s">
         <v>153</v>
       </c>
@@ -7203,7 +7185,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1">
+    <row r="61" spans="1:15">
       <c r="A61" s="338"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
@@ -7218,11 +7200,11 @@
       <c r="F61" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="G61" s="7" t="str">
+      <c r="G61" s="118" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H61" s="293"/>
+      <c r="H61" s="118"/>
       <c r="I61" s="128" t="s">
         <v>153</v>
       </c>
@@ -7256,11 +7238,11 @@
       <c r="F62" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="5" t="str">
+      <c r="G62" s="118" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H62" s="294"/>
+      <c r="H62" s="118"/>
       <c r="I62" s="128" t="s">
         <v>109</v>
       </c>
@@ -7286,11 +7268,11 @@
       <c r="D63" s="25"/>
       <c r="E63" s="38"/>
       <c r="F63" s="118"/>
-      <c r="G63" s="7">
+      <c r="G63" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H63" s="295"/>
+      <c r="H63" s="118"/>
       <c r="I63" s="194">
         <v>199650</v>
       </c>
@@ -7334,12 +7316,12 @@
       <c r="G64" s="5">
         <v>480</v>
       </c>
-      <c r="H64" s="294">
+      <c r="H64" s="290">
         <v>1</v>
       </c>
       <c r="I64" s="120"/>
       <c r="J64" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K64" s="45"/>
       <c r="L64" s="46">
@@ -7372,7 +7354,7 @@
       <c r="G65" s="7">
         <v>40</v>
       </c>
-      <c r="H65" s="295">
+      <c r="H65" s="291">
         <v>1</v>
       </c>
       <c r="I65" s="119"/>
@@ -7398,11 +7380,11 @@
         <f>SUM(F4:F65)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="289">
+      <c r="G66" s="287">
         <f>SUM(G3:G65)</f>
-        <v>2721</v>
-      </c>
-      <c r="H66" s="289">
+        <v>2321</v>
+      </c>
+      <c r="H66" s="287">
         <f>SUM(H3:H65)</f>
         <v>48</v>
       </c>
@@ -7415,8 +7397,8 @@
       </c>
       <c r="M66" s="54"/>
       <c r="N66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(N3:N65)</f>
+        <v>1641</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7484,12 +7466,18 @@
       <c r="A71" s="63"/>
       <c r="B71" s="64"/>
       <c r="C71" s="73"/>
-      <c r="D71" s="64"/>
+      <c r="D71" s="64">
+        <f>B78*0.6</f>
+        <v>75</v>
+      </c>
       <c r="E71" s="64"/>
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
+      <c r="I71" s="64">
+        <f>B78*0.4</f>
+        <v>50</v>
+      </c>
       <c r="J71" s="65"/>
       <c r="K71" s="64"/>
       <c r="L71" s="64"/>
@@ -7499,23 +7487,23 @@
         <v>48</v>
       </c>
       <c r="B72" s="142"/>
-      <c r="C72" s="340" t="s">
+      <c r="C72" s="328" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="341"/>
-      <c r="E72" s="342"/>
-      <c r="F72" s="340" t="s">
+      <c r="D72" s="329"/>
+      <c r="E72" s="330"/>
+      <c r="F72" s="328" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="341"/>
-      <c r="H72" s="341"/>
-      <c r="I72" s="341"/>
-      <c r="J72" s="342"/>
-      <c r="K72" s="343" t="s">
+      <c r="G72" s="329"/>
+      <c r="H72" s="329"/>
+      <c r="I72" s="329"/>
+      <c r="J72" s="330"/>
+      <c r="K72" s="331" t="s">
         <v>116</v>
       </c>
-      <c r="L72" s="343"/>
-      <c r="M72" s="344"/>
+      <c r="L72" s="331"/>
+      <c r="M72" s="332"/>
     </row>
     <row r="73" spans="1:14" ht="26">
       <c r="A73" s="143">
@@ -7547,17 +7535,17 @@
       <c r="J73" s="147">
         <v>18</v>
       </c>
-      <c r="K73" s="345" t="s">
+      <c r="K73" s="333" t="s">
         <v>118</v>
       </c>
-      <c r="L73" s="346"/>
-      <c r="M73" s="347"/>
+      <c r="L73" s="334"/>
+      <c r="M73" s="335"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="348">
+      <c r="A74" s="320">
         <v>2</v>
       </c>
-      <c r="B74" s="349" t="s">
+      <c r="B74" s="336" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="148"/>
@@ -7573,13 +7561,13 @@
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="K74" s="351"/>
-      <c r="L74" s="351"/>
-      <c r="M74" s="352"/>
+      <c r="K74" s="324"/>
+      <c r="L74" s="324"/>
+      <c r="M74" s="325"/>
     </row>
     <row r="75" spans="1:14" ht="26">
-      <c r="A75" s="348"/>
-      <c r="B75" s="350"/>
+      <c r="A75" s="320"/>
+      <c r="B75" s="321"/>
       <c r="C75" s="151"/>
       <c r="D75" s="152"/>
       <c r="E75" s="152"/>
@@ -7592,15 +7580,15 @@
       <c r="J75" s="152">
         <v>5</v>
       </c>
-      <c r="K75" s="351"/>
-      <c r="L75" s="351"/>
-      <c r="M75" s="352"/>
+      <c r="K75" s="324"/>
+      <c r="L75" s="324"/>
+      <c r="M75" s="325"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="348">
+      <c r="A76" s="320">
         <v>3</v>
       </c>
-      <c r="B76" s="350" t="s">
+      <c r="B76" s="321" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="154" t="s">
@@ -7608,8 +7596,8 @@
       </c>
       <c r="D76" s="155"/>
       <c r="E76" s="156">
-        <f>SUM(E9+E12+E17+E24+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+E48+E49)</f>
-        <v>40</v>
+        <f>SUM(E9+E12+E17+E24+E18+E25+E26+E27+E28+E32+E33+E38+E39+E40+E41+E42+E43+E48+E49)</f>
+        <v>42</v>
       </c>
       <c r="F76" s="157" t="s">
         <v>121</v>
@@ -7620,13 +7608,13 @@
       <c r="J76" s="158">
         <v>26</v>
       </c>
-      <c r="K76" s="353"/>
-      <c r="L76" s="353"/>
-      <c r="M76" s="354"/>
+      <c r="K76" s="322"/>
+      <c r="L76" s="322"/>
+      <c r="M76" s="323"/>
     </row>
     <row r="77" spans="1:14" ht="26">
-      <c r="A77" s="348"/>
-      <c r="B77" s="350"/>
+      <c r="A77" s="320"/>
+      <c r="B77" s="321"/>
       <c r="C77" s="154" t="s">
         <v>126</v>
       </c>
@@ -7639,38 +7627,38 @@
       <c r="H77" s="159"/>
       <c r="I77" s="31"/>
       <c r="J77" s="69"/>
-      <c r="K77" s="351"/>
-      <c r="L77" s="351"/>
-      <c r="M77" s="352"/>
+      <c r="K77" s="324"/>
+      <c r="L77" s="324"/>
+      <c r="M77" s="325"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1">
       <c r="A78" s="160" t="s">
         <v>53</v>
       </c>
       <c r="B78" s="161">
-        <f>E78+J74+J73+J75+J76</f>
-        <v>123</v>
+        <f>E78+J78</f>
+        <v>125</v>
       </c>
       <c r="C78" s="162"/>
       <c r="D78" s="162"/>
       <c r="E78" s="161">
         <f>SUM(E73:E76)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F78" s="162">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G78" s="278"/>
-      <c r="H78" s="278"/>
+      <c r="G78" s="276"/>
+      <c r="H78" s="276"/>
       <c r="I78" s="162"/>
       <c r="J78" s="161">
         <f>SUM(J73:J77)</f>
         <v>59</v>
       </c>
-      <c r="K78" s="355"/>
-      <c r="L78" s="355"/>
-      <c r="M78" s="356"/>
+      <c r="K78" s="326"/>
+      <c r="L78" s="326"/>
+      <c r="M78" s="327"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="63"/>
@@ -7708,9 +7696,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="31" customHeight="1" thickBot="1">
-      <c r="A81" s="282" t="s">
-        <v>230</v>
+    <row r="81" spans="1:13" ht="31" customHeight="1" thickBot="1">
+      <c r="A81" s="280" t="s">
+        <v>229</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -7725,366 +7713,480 @@
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:14" ht="39" customHeight="1">
-      <c r="A82" s="357"/>
-      <c r="B82" s="358"/>
-      <c r="C82" s="358"/>
-      <c r="D82" s="358"/>
-      <c r="E82" s="358"/>
-      <c r="F82" s="359"/>
-      <c r="G82" s="283"/>
-      <c r="H82" s="283"/>
-      <c r="I82" s="283" t="s">
+    <row r="82" spans="1:13" ht="39" customHeight="1">
+      <c r="A82" s="301"/>
+      <c r="B82" s="307"/>
+      <c r="C82" s="307"/>
+      <c r="D82" s="307"/>
+      <c r="E82" s="307"/>
+      <c r="F82" s="302"/>
+      <c r="G82" s="281" t="s">
+        <v>200</v>
+      </c>
+      <c r="H82" s="318" t="s">
+        <v>202</v>
+      </c>
+      <c r="I82" s="281" t="s">
+        <v>203</v>
+      </c>
+      <c r="J82" s="318" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" s="281" t="s">
+        <v>205</v>
+      </c>
+      <c r="L82" s="318" t="s">
+        <v>206</v>
+      </c>
+      <c r="M82"/>
+    </row>
+    <row r="83" spans="1:13" ht="15" thickBot="1">
+      <c r="A83" s="315" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="316"/>
+      <c r="C83" s="316"/>
+      <c r="D83" s="316"/>
+      <c r="E83" s="316"/>
+      <c r="F83" s="317"/>
+      <c r="G83" s="282" t="s">
         <v>201</v>
       </c>
-      <c r="J82" s="363" t="s">
-        <v>203</v>
-      </c>
-      <c r="K82" s="283" t="s">
+      <c r="H83" s="319"/>
+      <c r="I83" s="282" t="s">
         <v>204</v>
       </c>
-      <c r="L82" s="363" t="s">
-        <v>6</v>
-      </c>
-      <c r="M82" s="283" t="s">
-        <v>206</v>
-      </c>
-      <c r="N82" s="363" t="s">
+      <c r="J83" s="319"/>
+      <c r="K83" s="282" t="s">
+        <v>204</v>
+      </c>
+      <c r="L83" s="319"/>
+      <c r="M83"/>
+    </row>
+    <row r="84" spans="1:13" ht="15" thickBot="1">
+      <c r="A84" s="301" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="29" thickBot="1">
-      <c r="A83" s="360" t="s">
-        <v>200</v>
-      </c>
-      <c r="B83" s="361"/>
-      <c r="C83" s="361"/>
-      <c r="D83" s="361"/>
-      <c r="E83" s="361"/>
-      <c r="F83" s="362"/>
-      <c r="G83" s="290"/>
-      <c r="H83" s="290"/>
-      <c r="I83" s="284" t="s">
-        <v>202</v>
-      </c>
-      <c r="J83" s="364"/>
-      <c r="K83" s="284" t="s">
-        <v>205</v>
-      </c>
-      <c r="L83" s="364"/>
-      <c r="M83" s="284" t="s">
-        <v>205</v>
-      </c>
-      <c r="N83" s="364"/>
-    </row>
-    <row r="84" spans="1:14" ht="15" thickBot="1">
-      <c r="A84" s="357" t="s">
+      <c r="B84" s="302"/>
+      <c r="C84" s="298" t="s">
         <v>208</v>
       </c>
-      <c r="B84" s="359"/>
-      <c r="C84" s="369" t="s">
+      <c r="D84" s="300"/>
+      <c r="E84" s="300"/>
+      <c r="F84" s="299"/>
+      <c r="G84" s="282">
+        <v>7</v>
+      </c>
+      <c r="H84" s="282">
+        <v>432</v>
+      </c>
+      <c r="I84" s="297">
+        <f>H84/(J76*16+G66)</f>
+        <v>0.15783704786262331</v>
+      </c>
+      <c r="J84" s="282">
+        <v>24</v>
+      </c>
+      <c r="K84" s="282">
+        <f>J84/B78</f>
+        <v>0.192</v>
+      </c>
+      <c r="L84" s="282"/>
+      <c r="M84"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" thickBot="1">
+      <c r="A85" s="303"/>
+      <c r="B85" s="304"/>
+      <c r="C85" s="301" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="370"/>
-      <c r="E84" s="370"/>
-      <c r="F84" s="371"/>
-      <c r="G84" s="284"/>
-      <c r="H84" s="284"/>
-      <c r="I84" s="284"/>
-      <c r="J84" s="284"/>
-      <c r="K84" s="284"/>
-      <c r="L84" s="284"/>
-      <c r="M84" s="284"/>
-      <c r="N84" s="284"/>
-    </row>
-    <row r="85" spans="1:14" ht="15" thickBot="1">
-      <c r="A85" s="365"/>
-      <c r="B85" s="366"/>
-      <c r="C85" s="357" t="s">
+      <c r="D85" s="302"/>
+      <c r="E85" s="298" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="359"/>
-      <c r="E85" s="369" t="s">
-        <v>211</v>
-      </c>
-      <c r="F85" s="371"/>
-      <c r="G85" s="284"/>
-      <c r="H85" s="284"/>
-      <c r="I85" s="284">
+      <c r="F85" s="299"/>
+      <c r="G85" s="282">
         <f>SUM(H9+H10+H11+H12+H18+H24+H25+H42+H43)</f>
         <v>9</v>
       </c>
-      <c r="J85" s="284"/>
-      <c r="K85" s="284"/>
-      <c r="L85" s="284"/>
-      <c r="M85" s="284"/>
-      <c r="N85" s="284"/>
-    </row>
-    <row r="86" spans="1:14" ht="15" thickBot="1">
-      <c r="A86" s="367"/>
-      <c r="B86" s="368"/>
-      <c r="C86" s="367"/>
-      <c r="D86" s="368"/>
-      <c r="E86" s="369" t="s">
-        <v>212</v>
-      </c>
-      <c r="F86" s="371"/>
-      <c r="G86" s="284"/>
-      <c r="H86" s="284"/>
-      <c r="I86" s="284">
+      <c r="H85" s="282">
+        <f>G9+G10+G11+G12+G18+G24+G25+G42+G43</f>
+        <v>288</v>
+      </c>
+      <c r="I85" s="282">
+        <f>H85/(J76*16+G66)</f>
+        <v>0.10522469857508221</v>
+      </c>
+      <c r="J85" s="352">
+        <f>E9+E10+E11+E12+E18+E24+E25+E42+E43</f>
+        <v>15.5</v>
+      </c>
+      <c r="K85" s="282">
+        <f>J85/B78</f>
+        <v>0.124</v>
+      </c>
+      <c r="L85" s="282"/>
+      <c r="M85"/>
+    </row>
+    <row r="86" spans="1:13" ht="15" thickBot="1">
+      <c r="A86" s="305"/>
+      <c r="B86" s="306"/>
+      <c r="C86" s="305"/>
+      <c r="D86" s="306"/>
+      <c r="E86" s="298" t="s">
+        <v>211</v>
+      </c>
+      <c r="F86" s="299"/>
+      <c r="G86" s="282">
         <f>SUM(H17+H26+H27+H28+H32+H33+H38+H39+H40+H41+H48+H49)</f>
         <v>12</v>
       </c>
-      <c r="J86" s="284"/>
-      <c r="K86" s="284"/>
-      <c r="L86" s="284"/>
-      <c r="M86" s="284"/>
-      <c r="N86" s="284"/>
-    </row>
-    <row r="87" spans="1:14" ht="15" thickBot="1">
-      <c r="A87" s="357" t="s">
+      <c r="H86" s="282">
+        <f>G17+G26+G27+G28+G32+G33+G38+G39+G40+G41+G48+G49</f>
+        <v>544</v>
+      </c>
+      <c r="I86" s="297">
+        <f>H86/(J76*16+G66)</f>
+        <v>0.19875776397515527</v>
+      </c>
+      <c r="J86" s="353">
+        <f>E17+E26+E27+E28+E32+E33+E38+E39+E40+E41+E49+E48</f>
+        <v>26.5</v>
+      </c>
+      <c r="K86" s="282">
+        <f>J86/B78</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="L86" s="282"/>
+      <c r="M86"/>
+    </row>
+    <row r="87" spans="1:13" ht="15" thickBot="1">
+      <c r="A87" s="301" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="302"/>
+      <c r="C87" s="298" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="359"/>
-      <c r="C87" s="369" t="s">
+      <c r="D87" s="300"/>
+      <c r="E87" s="300"/>
+      <c r="F87" s="299"/>
+      <c r="G87" s="282">
+        <f>O4+O13+O14+O15+O18+O19+O21+O22+O23+O24+O25+O27+O28+O30+O31+O32+O34+O37+O38+O39+O36+O46+O47+O48+O49+O50+O51+O52+O63+O64</f>
+        <v>30</v>
+      </c>
+      <c r="H87" s="282">
+        <f>N66</f>
+        <v>1641</v>
+      </c>
+      <c r="I87" s="282">
+        <f>H87/(J76*16+G66)</f>
+        <v>0.59956156375593717</v>
+      </c>
+      <c r="J87" s="353">
+        <f>L66</f>
+        <v>81</v>
+      </c>
+      <c r="K87" s="282">
+        <f>J87/B78</f>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="L87" s="282"/>
+      <c r="M87"/>
+    </row>
+    <row r="88" spans="1:13" ht="15" thickBot="1">
+      <c r="A88" s="303"/>
+      <c r="B88" s="304"/>
+      <c r="C88" s="298" t="s">
         <v>214</v>
       </c>
-      <c r="D87" s="370"/>
-      <c r="E87" s="370"/>
-      <c r="F87" s="371"/>
-      <c r="G87" s="284"/>
-      <c r="H87" s="284"/>
-      <c r="I87" s="284"/>
-      <c r="J87" s="284"/>
-      <c r="K87" s="284"/>
-      <c r="L87" s="284"/>
-      <c r="M87" s="284"/>
-      <c r="N87" s="284"/>
-    </row>
-    <row r="88" spans="1:14" ht="15" thickBot="1">
-      <c r="A88" s="365"/>
-      <c r="B88" s="366"/>
-      <c r="C88" s="369" t="s">
+      <c r="D88" s="300"/>
+      <c r="E88" s="300"/>
+      <c r="F88" s="299"/>
+      <c r="G88" s="282">
+        <v>7</v>
+      </c>
+      <c r="H88" s="282">
+        <v>334</v>
+      </c>
+      <c r="I88" s="297">
+        <f>H88/(J76*16+G66)</f>
+        <v>0.12203142126415784</v>
+      </c>
+      <c r="J88" s="282">
+        <v>18</v>
+      </c>
+      <c r="K88" s="282">
+        <f>J88/B78</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L88" s="282"/>
+      <c r="M88"/>
+    </row>
+    <row r="89" spans="1:13" ht="15" thickBot="1">
+      <c r="A89" s="303"/>
+      <c r="B89" s="304"/>
+      <c r="C89" s="298" t="s">
         <v>215</v>
       </c>
-      <c r="D88" s="370"/>
-      <c r="E88" s="370"/>
-      <c r="F88" s="371"/>
-      <c r="G88" s="284"/>
-      <c r="H88" s="284"/>
-      <c r="I88" s="284"/>
-      <c r="J88" s="284"/>
-      <c r="K88" s="284"/>
-      <c r="L88" s="284"/>
-      <c r="M88" s="284"/>
-      <c r="N88" s="284"/>
-    </row>
-    <row r="89" spans="1:14" ht="15" thickBot="1">
-      <c r="A89" s="365"/>
-      <c r="B89" s="366"/>
-      <c r="C89" s="369" t="s">
+      <c r="D89" s="300"/>
+      <c r="E89" s="299"/>
+      <c r="F89" s="282" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="370"/>
-      <c r="E89" s="371"/>
-      <c r="F89" s="284" t="s">
+      <c r="G89" s="282">
+        <v>1</v>
+      </c>
+      <c r="H89" s="282"/>
+      <c r="I89" s="282"/>
+      <c r="J89" s="282"/>
+      <c r="K89" s="297" t="s">
+        <v>83</v>
+      </c>
+      <c r="L89" s="282"/>
+      <c r="M89"/>
+    </row>
+    <row r="90" spans="1:13" ht="15" thickBot="1">
+      <c r="A90" s="303"/>
+      <c r="B90" s="304"/>
+      <c r="C90" s="301"/>
+      <c r="D90" s="307"/>
+      <c r="E90" s="302"/>
+      <c r="F90" s="282" t="s">
+        <v>218</v>
+      </c>
+      <c r="G90" s="282">
+        <v>1</v>
+      </c>
+      <c r="H90" s="282"/>
+      <c r="I90" s="282"/>
+      <c r="J90" s="282">
+        <v>1</v>
+      </c>
+      <c r="K90" s="297">
+        <f>J90/B78</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L90" s="282"/>
+      <c r="M90"/>
+    </row>
+    <row r="91" spans="1:13" ht="15" thickBot="1">
+      <c r="A91" s="303"/>
+      <c r="B91" s="304"/>
+      <c r="C91" s="303"/>
+      <c r="D91" s="308"/>
+      <c r="E91" s="304"/>
+      <c r="F91" s="282" t="s">
+        <v>219</v>
+      </c>
+      <c r="G91" s="282">
+        <v>1</v>
+      </c>
+      <c r="H91" s="282"/>
+      <c r="I91" s="282"/>
+      <c r="J91" s="282">
+        <v>1</v>
+      </c>
+      <c r="K91" s="297">
+        <f>J91/B78</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L91" s="282"/>
+      <c r="M91"/>
+    </row>
+    <row r="92" spans="1:13" ht="15" thickBot="1">
+      <c r="A92" s="303"/>
+      <c r="B92" s="304"/>
+      <c r="C92" s="303" t="s">
         <v>217</v>
       </c>
-      <c r="G89" s="284"/>
-      <c r="H89" s="284"/>
-      <c r="I89" s="284"/>
-      <c r="J89" s="284"/>
-      <c r="K89" s="284"/>
-      <c r="L89" s="284"/>
-      <c r="M89" s="284"/>
-      <c r="N89" s="284"/>
-    </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1">
-      <c r="A90" s="365"/>
-      <c r="B90" s="366"/>
-      <c r="C90" s="357"/>
-      <c r="D90" s="358"/>
-      <c r="E90" s="359"/>
-      <c r="F90" s="284" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90" s="284"/>
-      <c r="H90" s="284"/>
-      <c r="I90" s="284"/>
-      <c r="J90" s="284"/>
-      <c r="K90" s="284"/>
-      <c r="L90" s="284"/>
-      <c r="M90" s="284"/>
-      <c r="N90" s="284"/>
-    </row>
-    <row r="91" spans="1:14" ht="15" thickBot="1">
-      <c r="A91" s="365"/>
-      <c r="B91" s="366"/>
-      <c r="C91" s="365"/>
-      <c r="D91" s="372"/>
-      <c r="E91" s="366"/>
-      <c r="F91" s="284" t="s">
+      <c r="D92" s="308"/>
+      <c r="E92" s="304"/>
+      <c r="F92" s="282" t="s">
         <v>220</v>
       </c>
-      <c r="G91" s="284"/>
-      <c r="H91" s="284"/>
-      <c r="I91" s="284"/>
-      <c r="J91" s="284"/>
-      <c r="K91" s="284"/>
-      <c r="L91" s="284"/>
-      <c r="M91" s="284"/>
-      <c r="N91" s="284"/>
-    </row>
-    <row r="92" spans="1:14" ht="15" thickBot="1">
-      <c r="A92" s="365"/>
-      <c r="B92" s="366"/>
-      <c r="C92" s="365" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="372"/>
-      <c r="E92" s="366"/>
-      <c r="F92" s="284" t="s">
+      <c r="G92" s="282">
+        <v>1</v>
+      </c>
+      <c r="H92" s="282"/>
+      <c r="I92" s="282"/>
+      <c r="J92" s="282">
+        <v>1</v>
+      </c>
+      <c r="K92" s="297">
+        <f>J92/B78</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L92" s="282"/>
+      <c r="M92"/>
+    </row>
+    <row r="93" spans="1:13" ht="15" thickBot="1">
+      <c r="A93" s="303"/>
+      <c r="B93" s="304"/>
+      <c r="C93" s="309"/>
+      <c r="D93" s="310"/>
+      <c r="E93" s="311"/>
+      <c r="F93" s="282" t="s">
         <v>221</v>
       </c>
-      <c r="G92" s="284"/>
-      <c r="H92" s="284"/>
-      <c r="I92" s="284"/>
-      <c r="J92" s="284"/>
-      <c r="K92" s="284"/>
-      <c r="L92" s="284"/>
-      <c r="M92" s="284"/>
-      <c r="N92" s="284"/>
-    </row>
-    <row r="93" spans="1:14" ht="15" thickBot="1">
-      <c r="A93" s="365"/>
-      <c r="B93" s="366"/>
-      <c r="C93" s="373"/>
-      <c r="D93" s="374"/>
-      <c r="E93" s="375"/>
-      <c r="F93" s="284" t="s">
+      <c r="G93" s="282">
+        <v>1</v>
+      </c>
+      <c r="H93" s="282"/>
+      <c r="I93" s="282"/>
+      <c r="J93" s="282">
+        <v>3</v>
+      </c>
+      <c r="K93" s="297">
+        <f>J93/B78</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="L93" s="282"/>
+      <c r="M93"/>
+    </row>
+    <row r="94" spans="1:13" ht="15" thickBot="1">
+      <c r="A94" s="303"/>
+      <c r="B94" s="304"/>
+      <c r="C94" s="309"/>
+      <c r="D94" s="310"/>
+      <c r="E94" s="311"/>
+      <c r="F94" s="282" t="s">
         <v>222</v>
       </c>
-      <c r="G93" s="284"/>
-      <c r="H93" s="284"/>
-      <c r="I93" s="284"/>
-      <c r="J93" s="284"/>
-      <c r="K93" s="284"/>
-      <c r="L93" s="284"/>
-      <c r="M93" s="284"/>
-      <c r="N93" s="284"/>
-    </row>
-    <row r="94" spans="1:14" ht="15" thickBot="1">
-      <c r="A94" s="365"/>
-      <c r="B94" s="366"/>
-      <c r="C94" s="373"/>
-      <c r="D94" s="374"/>
-      <c r="E94" s="375"/>
-      <c r="F94" s="284" t="s">
+      <c r="G94" s="282">
+        <v>1</v>
+      </c>
+      <c r="H94" s="282"/>
+      <c r="I94" s="282"/>
+      <c r="J94" s="282">
+        <v>1</v>
+      </c>
+      <c r="K94" s="297">
+        <f>J94/B78</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L94" s="282"/>
+      <c r="M94"/>
+    </row>
+    <row r="95" spans="1:13" ht="15" thickBot="1">
+      <c r="A95" s="303"/>
+      <c r="B95" s="304"/>
+      <c r="C95" s="312"/>
+      <c r="D95" s="313"/>
+      <c r="E95" s="314"/>
+      <c r="F95" s="283" t="s">
         <v>223</v>
       </c>
-      <c r="G94" s="284"/>
-      <c r="H94" s="284"/>
-      <c r="I94" s="284"/>
-      <c r="J94" s="284"/>
-      <c r="K94" s="284"/>
-      <c r="L94" s="284"/>
-      <c r="M94" s="284"/>
-      <c r="N94" s="284"/>
-    </row>
-    <row r="95" spans="1:14" ht="15" thickBot="1">
-      <c r="A95" s="365"/>
-      <c r="B95" s="366"/>
-      <c r="C95" s="376"/>
-      <c r="D95" s="377"/>
-      <c r="E95" s="378"/>
-      <c r="F95" s="285" t="s">
+      <c r="G95" s="282">
+        <v>1</v>
+      </c>
+      <c r="H95" s="282"/>
+      <c r="I95" s="282"/>
+      <c r="J95" s="282">
+        <v>3</v>
+      </c>
+      <c r="K95" s="297">
+        <f>J95/B78</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="L95" s="282"/>
+      <c r="M95"/>
+    </row>
+    <row r="96" spans="1:13" ht="15" thickBot="1">
+      <c r="A96" s="305"/>
+      <c r="B96" s="306"/>
+      <c r="C96" s="298" t="s">
         <v>224</v>
       </c>
-      <c r="G95" s="285"/>
-      <c r="H95" s="285"/>
-      <c r="I95" s="284"/>
-      <c r="J95" s="284"/>
-      <c r="K95" s="284"/>
-      <c r="L95" s="284"/>
-      <c r="M95" s="284"/>
-      <c r="N95" s="284"/>
-    </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1">
-      <c r="A96" s="367"/>
-      <c r="B96" s="368"/>
-      <c r="C96" s="369" t="s">
+      <c r="D96" s="300"/>
+      <c r="E96" s="299"/>
+      <c r="F96" s="283"/>
+      <c r="G96" s="282">
+        <v>7</v>
+      </c>
+      <c r="H96" s="282"/>
+      <c r="I96" s="282"/>
+      <c r="J96" s="282">
+        <v>10</v>
+      </c>
+      <c r="K96" s="297">
+        <f>J96/B78</f>
+        <v>0.08</v>
+      </c>
+      <c r="L96" s="282"/>
+      <c r="M96"/>
+    </row>
+    <row r="97" spans="1:14" ht="43" thickBot="1">
+      <c r="A97" s="298" t="s">
         <v>225</v>
       </c>
-      <c r="D96" s="370"/>
-      <c r="E96" s="371"/>
-      <c r="F96" s="285"/>
-      <c r="G96" s="285"/>
-      <c r="H96" s="285"/>
-      <c r="I96" s="284"/>
-      <c r="J96" s="284"/>
-      <c r="K96" s="284"/>
-      <c r="L96" s="284"/>
-      <c r="M96" s="284"/>
-      <c r="N96" s="284"/>
-    </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1">
-      <c r="A97" s="369" t="s">
+      <c r="B97" s="300"/>
+      <c r="C97" s="300"/>
+      <c r="D97" s="300"/>
+      <c r="E97" s="300"/>
+      <c r="F97" s="299"/>
+      <c r="G97" s="282">
+        <f>SUM(G84:G96)</f>
+        <v>79</v>
+      </c>
+      <c r="H97" s="282">
+        <f>(J76*16+G66)</f>
+        <v>2737</v>
+      </c>
+      <c r="I97" s="282"/>
+      <c r="J97" s="282"/>
+      <c r="K97" s="282"/>
+      <c r="L97" s="282"/>
+      <c r="M97"/>
+    </row>
+    <row r="98" spans="1:14" ht="29" thickBot="1">
+      <c r="A98" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="370"/>
-      <c r="C97" s="370"/>
-      <c r="D97" s="370"/>
-      <c r="E97" s="370"/>
-      <c r="F97" s="371"/>
-      <c r="G97" s="284"/>
-      <c r="H97" s="284"/>
-      <c r="I97" s="284"/>
-      <c r="J97" s="284"/>
-      <c r="K97" s="284"/>
-      <c r="L97" s="284"/>
-      <c r="M97" s="284"/>
-      <c r="N97" s="284"/>
-    </row>
-    <row r="98" spans="1:14" ht="29" thickBot="1">
-      <c r="A98" s="286" t="s">
+      <c r="B98" s="354">
+        <f>B78</f>
+        <v>125</v>
+      </c>
+      <c r="C98" s="299"/>
+      <c r="D98" s="298" t="s">
         <v>227</v>
       </c>
-      <c r="B98" s="369"/>
-      <c r="C98" s="371"/>
-      <c r="D98" s="369" t="s">
+      <c r="E98" s="300"/>
+      <c r="F98" s="299"/>
+      <c r="G98" s="354">
+        <f>B78-J78</f>
+        <v>66</v>
+      </c>
+      <c r="H98" s="299"/>
+      <c r="I98" s="298" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="370"/>
-      <c r="F98" s="371"/>
-      <c r="G98" s="291"/>
-      <c r="H98" s="291"/>
-      <c r="I98" s="369"/>
-      <c r="J98" s="371"/>
-      <c r="K98" s="369" t="s">
-        <v>229</v>
-      </c>
-      <c r="L98" s="371"/>
-      <c r="M98" s="369"/>
-      <c r="N98" s="371"/>
+      <c r="J98" s="299"/>
+      <c r="K98" s="354">
+        <f>J78</f>
+        <v>59</v>
+      </c>
+      <c r="L98" s="299"/>
+      <c r="M98"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="287"/>
-      <c r="B99" s="287"/>
-      <c r="C99" s="287"/>
-      <c r="D99" s="287"/>
-      <c r="E99" s="287"/>
-      <c r="F99" s="287"/>
-      <c r="G99" s="287"/>
-      <c r="H99" s="287"/>
-      <c r="I99" s="287"/>
-      <c r="J99" s="287"/>
-      <c r="K99" s="287"/>
-      <c r="L99" s="287"/>
-      <c r="M99" s="287"/>
-      <c r="N99" s="287"/>
+      <c r="A99" s="285"/>
+      <c r="B99" s="285"/>
+      <c r="C99" s="285"/>
+      <c r="D99" s="285"/>
+      <c r="E99" s="285"/>
+      <c r="F99" s="285"/>
+      <c r="G99" s="285"/>
+      <c r="H99" s="285"/>
+      <c r="I99" s="285"/>
+      <c r="J99" s="285"/>
+      <c r="K99" s="285"/>
+      <c r="L99" s="285"/>
+      <c r="M99" s="285"/>
+      <c r="N99" s="285"/>
     </row>
     <row r="100" spans="1:14" ht="17">
-      <c r="A100" s="282"/>
+      <c r="A100" s="280"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -8100,12 +8202,40 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="A87:B96"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
@@ -8117,40 +8247,12 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8166,10 +8268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8180,8 +8282,8 @@
     <col min="4" max="4" width="7.33203125" style="70" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="70" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="70" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="70" customWidth="1"/>
+    <col min="8" max="8" width="7" style="70" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" style="70" customWidth="1"/>
     <col min="10" max="10" width="26.1640625" style="71" customWidth="1"/>
     <col min="11" max="11" width="4.33203125" style="70" customWidth="1"/>
@@ -8191,45 +8293,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="340" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="341" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="329" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="332" t="s">
+      <c r="B2" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="346" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="379"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="351"/>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="328"/>
+      <c r="A3" s="342"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8245,36 +8347,36 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="288" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="288" t="s">
-        <v>257</v>
+      <c r="G3" s="286" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="286" t="s">
+        <v>255</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="288" t="s">
-        <v>256</v>
-      </c>
-      <c r="O3" s="288" t="s">
-        <v>257</v>
+        <v>168</v>
+      </c>
+      <c r="N3" s="286" t="s">
+        <v>254</v>
+      </c>
+      <c r="O3" s="286" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="349" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -8292,38 +8394,38 @@
       <c r="F4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="299">
+      <c r="G4" s="5">
         <f>D4</f>
         <v>36</v>
       </c>
-      <c r="H4" s="299">
-        <v>1</v>
-      </c>
-      <c r="I4" s="273">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="271">
         <v>1901023</v>
       </c>
-      <c r="J4" s="274" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" s="275">
+      <c r="J4" s="272" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="273">
         <v>32</v>
       </c>
-      <c r="L4" s="276">
-        <v>1</v>
-      </c>
-      <c r="M4" s="277" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" s="325">
+      <c r="L4" s="274">
+        <v>1</v>
+      </c>
+      <c r="M4" s="275" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="273">
         <f>K4</f>
         <v>32</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="274">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="336"/>
+      <c r="A5" s="350"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -8340,11 +8442,11 @@
       <c r="F5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="300">
+      <c r="G5" s="7">
         <f>D5</f>
         <v>54</v>
       </c>
-      <c r="H5" s="300">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
       <c r="I5" s="85"/>
@@ -8360,16 +8462,15 @@
       <c r="M5" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N5">
-        <f>K5</f>
-        <v>32</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="336"/>
+      <c r="A6" s="350"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -8385,11 +8486,11 @@
       <c r="F6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="299">
+      <c r="G6" s="12">
         <f t="shared" ref="G6:G64" si="0">D6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="301">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
       <c r="I6" s="100" t="s">
@@ -8407,13 +8508,13 @@
       <c r="M6" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="N6" s="325" t="str">
+      <c r="N6" s="293" t="str">
         <f t="shared" ref="N6:N66" si="1">K6</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="336"/>
+      <c r="A7" s="350"/>
       <c r="B7" s="100">
         <v>1900110</v>
       </c>
@@ -8429,11 +8530,11 @@
       <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="300">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H7" s="301">
+      <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="101"/>
@@ -8447,7 +8548,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="336"/>
+      <c r="A8" s="350"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -8464,11 +8565,11 @@
       <c r="F8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="299">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H8" s="301">
+      <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="101"/>
@@ -8476,13 +8577,13 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="254"/>
-      <c r="N8" s="325">
+      <c r="N8" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="336"/>
+      <c r="A9" s="350"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -8498,11 +8599,11 @@
       <c r="F9" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="300">
+      <c r="G9" s="75">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="302">
+      <c r="H9" s="76">
         <v>1</v>
       </c>
       <c r="I9" s="101"/>
@@ -8516,7 +8617,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="336"/>
+      <c r="A10" s="350"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -8528,11 +8629,11 @@
       <c r="F10" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="299">
+      <c r="G10" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="302">
+      <c r="H10" s="76">
         <v>1</v>
       </c>
       <c r="I10" s="101"/>
@@ -8540,13 +8641,13 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="254"/>
-      <c r="N10" s="325">
+      <c r="N10" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="336"/>
+      <c r="A11" s="350"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -8556,11 +8657,11 @@
       <c r="F11" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="300">
+      <c r="G11" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="303">
+      <c r="H11" s="76">
         <v>1</v>
       </c>
       <c r="I11" s="102"/>
@@ -8574,7 +8675,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="A12" s="336"/>
+      <c r="A12" s="350"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -8590,11 +8691,11 @@
       <c r="F12" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="299">
+      <c r="G12" s="75">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="303">
+      <c r="H12" s="76">
         <v>1</v>
       </c>
       <c r="I12" s="102"/>
@@ -8602,7 +8703,7 @@
       <c r="K12" s="79"/>
       <c r="L12" s="79"/>
       <c r="M12" s="80"/>
-      <c r="N12" s="325">
+      <c r="N12" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8626,36 +8727,36 @@
       <c r="F13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="300">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H13" s="299">
-        <v>1</v>
-      </c>
-      <c r="I13" s="273">
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="271">
         <v>1902060</v>
       </c>
-      <c r="J13" s="274" t="s">
+      <c r="J13" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" s="273" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="274">
+        <v>2</v>
+      </c>
+      <c r="M13" s="275" t="s">
         <v>252</v>
       </c>
-      <c r="K13" s="275" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="276">
-        <v>2</v>
-      </c>
-      <c r="M13" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="N13">
+      <c r="N13" s="273">
         <v>80</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1">
       <c r="A14" s="338"/>
       <c r="B14" s="91">
         <v>310009</v>
@@ -8673,18 +8774,18 @@
       <c r="F14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="299">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H14" s="299">
+      <c r="H14" s="8">
         <v>1</v>
       </c>
       <c r="I14" s="240">
         <v>1300004</v>
       </c>
       <c r="J14" s="134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K14" s="106">
         <v>54</v>
@@ -8695,7 +8796,7 @@
       <c r="M14" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="325">
+      <c r="N14" s="293">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -8721,33 +8822,33 @@
       <c r="F15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="300">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H15" s="300">
-        <v>1</v>
-      </c>
-      <c r="I15" s="273">
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="271">
         <v>1300008</v>
       </c>
-      <c r="J15" s="274" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="275">
+      <c r="J15" s="272" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="273">
         <v>32</v>
       </c>
-      <c r="L15" s="276">
-        <v>1</v>
-      </c>
-      <c r="M15" s="277" t="s">
+      <c r="L15" s="274">
+        <v>1</v>
+      </c>
+      <c r="M15" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="273">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="274">
         <v>1</v>
       </c>
     </row>
@@ -8768,23 +8869,23 @@
       <c r="F16" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="299">
+      <c r="G16" s="148">
         <v>40</v>
       </c>
-      <c r="H16" s="304">
-        <v>1</v>
-      </c>
-      <c r="I16" s="268"/>
-      <c r="J16" s="269"/>
-      <c r="K16" s="268"/>
-      <c r="L16" s="268"/>
-      <c r="M16" s="270"/>
-      <c r="N16" s="325">
+      <c r="H16" s="239">
+        <v>1</v>
+      </c>
+      <c r="I16" s="267"/>
+      <c r="J16" s="268"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="269"/>
+      <c r="N16" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="A17" s="338"/>
       <c r="B17" s="199">
         <v>1901003</v>
@@ -8799,13 +8900,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="300">
+        <v>257</v>
+      </c>
+      <c r="G17" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H17" s="305">
+      <c r="H17" s="10">
         <v>1</v>
       </c>
       <c r="I17" s="241"/>
@@ -8821,12 +8922,11 @@
       <c r="M17" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -8846,19 +8946,19 @@
       <c r="F18" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="299">
+      <c r="G18" s="212">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H18" s="306">
-        <v>1</v>
-      </c>
-      <c r="I18" s="268"/>
-      <c r="J18" s="269"/>
-      <c r="K18" s="268"/>
-      <c r="L18" s="268"/>
-      <c r="M18" s="270"/>
-      <c r="N18" s="325">
+      <c r="H18" s="213">
+        <v>1</v>
+      </c>
+      <c r="I18" s="267"/>
+      <c r="J18" s="268"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="269"/>
+      <c r="N18" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8880,18 +8980,18 @@
       <c r="F19" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="300">
+      <c r="G19" s="18">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H19" s="307">
-        <v>1</v>
-      </c>
-      <c r="I19" s="268"/>
-      <c r="J19" s="269"/>
-      <c r="K19" s="268"/>
-      <c r="L19" s="268"/>
-      <c r="M19" s="270"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="267"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="267"/>
+      <c r="M19" s="269"/>
       <c r="N19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8914,19 +9014,19 @@
       <c r="F20" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="299">
+      <c r="G20" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H20" s="307">
-        <v>1</v>
-      </c>
-      <c r="I20" s="268"/>
-      <c r="J20" s="269"/>
-      <c r="K20" s="268"/>
-      <c r="L20" s="268"/>
-      <c r="M20" s="270"/>
-      <c r="N20" s="325">
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="267"/>
+      <c r="J20" s="268"/>
+      <c r="K20" s="267"/>
+      <c r="L20" s="267"/>
+      <c r="M20" s="269"/>
+      <c r="N20" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8937,7 +9037,7 @@
         <v>1905045</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="18">
         <v>32</v>
@@ -8948,11 +9048,11 @@
       <c r="F21" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="300">
+      <c r="G21" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H21" s="305">
+      <c r="H21" s="10">
         <v>1</v>
       </c>
       <c r="I21" s="242"/>
@@ -8974,32 +9074,32 @@
       <c r="D22" s="24"/>
       <c r="E22" s="171"/>
       <c r="F22" s="201" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="299">
+        <v>245</v>
+      </c>
+      <c r="G22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="308"/>
-      <c r="I22" s="273">
+      <c r="H22" s="10"/>
+      <c r="I22" s="271">
         <v>1905039</v>
       </c>
-      <c r="J22" s="274" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="275" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="276">
+      <c r="J22" s="272" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="273" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="274">
         <v>3</v>
       </c>
-      <c r="M22" s="277" t="s">
+      <c r="M22" s="275" t="s">
         <v>151</v>
       </c>
-      <c r="N22" s="325">
+      <c r="N22" s="273">
         <v>120</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="274">
         <v>1</v>
       </c>
     </row>
@@ -9022,11 +9122,11 @@
       <c r="F23" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="300">
+      <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H23" s="309">
+      <c r="H23" s="6">
         <v>1</v>
       </c>
       <c r="I23" s="84">
@@ -9067,11 +9167,11 @@
       <c r="F24" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="299">
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H24" s="300">
+      <c r="H24" s="8">
         <v>1</v>
       </c>
       <c r="I24" s="85"/>
@@ -9087,7 +9187,7 @@
       <c r="M24" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="325">
+      <c r="N24" s="293">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -9107,32 +9207,32 @@
         <v>3</v>
       </c>
       <c r="F25" s="192" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" s="300">
+        <v>246</v>
+      </c>
+      <c r="G25" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H25" s="302">
-        <v>1</v>
-      </c>
-      <c r="I25" s="273">
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="271">
         <v>1905029</v>
       </c>
-      <c r="J25" s="274" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="275" t="s">
-        <v>197</v>
-      </c>
-      <c r="L25" s="276">
+      <c r="J25" s="272" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="273" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" s="274">
         <v>3</v>
       </c>
-      <c r="M25" s="277"/>
-      <c r="N25">
+      <c r="M25" s="275"/>
+      <c r="N25" s="273">
         <v>120</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="274">
         <v>1</v>
       </c>
     </row>
@@ -9153,31 +9253,31 @@
       <c r="F26" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="299">
+      <c r="G26" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H26" s="310">
-        <v>1</v>
-      </c>
-      <c r="I26" s="273"/>
-      <c r="J26" s="274" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="275">
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="271"/>
+      <c r="J26" s="272" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="273">
         <v>32</v>
       </c>
-      <c r="L26" s="276">
-        <v>1</v>
-      </c>
-      <c r="M26" s="277" t="s">
-        <v>172</v>
-      </c>
-      <c r="N26" s="325">
+      <c r="L26" s="274">
+        <v>1</v>
+      </c>
+      <c r="M26" s="275" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="273">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="274">
         <v>1</v>
       </c>
     </row>
@@ -9196,13 +9296,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="192" t="s">
-        <v>249</v>
-      </c>
-      <c r="G27" s="300">
+        <v>248</v>
+      </c>
+      <c r="G27" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H27" s="302">
+      <c r="H27" s="10">
         <v>1</v>
       </c>
       <c r="I27" s="193"/>
@@ -9218,12 +9318,11 @@
       <c r="M27" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -9241,20 +9340,20 @@
         <v>1</v>
       </c>
       <c r="F28" s="220" t="s">
-        <v>250</v>
-      </c>
-      <c r="G28" s="299">
+        <v>249</v>
+      </c>
+      <c r="G28" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H28" s="310">
+      <c r="H28" s="10">
         <v>1</v>
       </c>
       <c r="I28" s="128">
         <v>1905028</v>
       </c>
       <c r="J28" s="250" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" s="124">
         <v>32</v>
@@ -9265,20 +9364,21 @@
       <c r="M28" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N28" s="325">
+      <c r="N28" s="124">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="338"/>
-      <c r="G29" s="300">
+      <c r="G29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H29" s="10"/>
       <c r="I29" s="128">
         <v>1905048</v>
       </c>
@@ -9294,11 +9394,11 @@
       <c r="M29" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="125">
         <v>1</v>
       </c>
     </row>
@@ -9313,11 +9413,11 @@
       <c r="F30" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="299">
+      <c r="G30" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="311">
+      <c r="H30" s="10">
         <v>1</v>
       </c>
       <c r="I30" s="93"/>
@@ -9333,11 +9433,11 @@
       <c r="M30" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="325">
+      <c r="N30" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="125">
         <v>1</v>
       </c>
     </row>
@@ -9360,11 +9460,11 @@
       <c r="F31" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="300">
+      <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H31" s="309">
+      <c r="H31" s="6">
         <v>1</v>
       </c>
       <c r="I31" s="112"/>
@@ -9380,11 +9480,11 @@
       <c r="M31" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="124">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="125">
         <v>1</v>
       </c>
     </row>
@@ -9406,11 +9506,11 @@
       <c r="F32" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="299">
+      <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H32" s="300">
+      <c r="H32" s="8">
         <v>1</v>
       </c>
       <c r="I32" s="128">
@@ -9428,11 +9528,11 @@
       <c r="M32" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="325">
+      <c r="N32" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="125">
         <v>1</v>
       </c>
     </row>
@@ -9451,13 +9551,13 @@
         <v>3</v>
       </c>
       <c r="F33" s="83" t="s">
-        <v>248</v>
-      </c>
-      <c r="G33" s="300">
+        <v>247</v>
+      </c>
+      <c r="G33" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H33" s="312">
+      <c r="H33" s="10">
         <v>1</v>
       </c>
       <c r="I33" s="128">
@@ -9475,11 +9575,11 @@
       <c r="M33" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="125">
         <v>1</v>
       </c>
     </row>
@@ -9498,35 +9598,35 @@
         <v>1</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" s="299">
+        <v>250</v>
+      </c>
+      <c r="G34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H34" s="312">
+      <c r="H34" s="10">
         <v>1</v>
       </c>
       <c r="I34" s="128" t="s">
         <v>83</v>
       </c>
       <c r="J34" s="190" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K34" s="116" t="s">
         <v>83</v>
       </c>
       <c r="L34" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="M34" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="M34" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="N34" s="325" t="str">
+      <c r="N34" s="124" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O34">
+      <c r="O34" s="125">
         <v>1</v>
       </c>
     </row>
@@ -9537,11 +9637,11 @@
       <c r="D35" s="208"/>
       <c r="E35" s="208"/>
       <c r="F35" s="209"/>
-      <c r="G35" s="300">
+      <c r="G35" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="313"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="128">
         <v>1905030</v>
       </c>
@@ -9557,11 +9657,11 @@
       <c r="M35" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="125">
         <v>1</v>
       </c>
     </row>
@@ -9572,11 +9672,11 @@
       <c r="D36" s="208"/>
       <c r="E36" s="208"/>
       <c r="F36" s="209"/>
-      <c r="G36" s="299">
+      <c r="G36" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="313"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="128" t="s">
         <v>83</v>
       </c>
@@ -9584,7 +9684,7 @@
       <c r="K36" s="116"/>
       <c r="L36" s="117"/>
       <c r="M36" s="107"/>
-      <c r="N36" s="325">
+      <c r="N36" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9600,29 +9700,30 @@
       <c r="F37" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="300">
+      <c r="G37" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="311"/>
-      <c r="I37" s="273">
+      <c r="H37" s="10"/>
+      <c r="I37" s="271">
         <v>199641</v>
       </c>
-      <c r="J37" s="274" t="s">
-        <v>174</v>
-      </c>
-      <c r="K37" s="275" t="s">
-        <v>198</v>
-      </c>
-      <c r="L37" s="276">
+      <c r="J37" s="272" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="273" t="s">
+        <v>197</v>
+      </c>
+      <c r="L37" s="274">
         <v>2</v>
       </c>
-      <c r="M37" s="277" t="s">
+      <c r="M37" s="275" t="s">
         <v>146</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="273">
         <v>80</v>
       </c>
+      <c r="O37" s="274"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="337" t="s">
@@ -9643,11 +9744,11 @@
       <c r="F38" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="299">
+      <c r="G38" s="212">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H38" s="314">
+      <c r="H38" s="213">
         <v>1</v>
       </c>
       <c r="I38" s="227"/>
@@ -9663,7 +9764,7 @@
       <c r="M38" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N38" s="325">
+      <c r="N38" s="293">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -9686,34 +9787,34 @@
         <v>3</v>
       </c>
       <c r="F39" s="192" t="s">
-        <v>248</v>
-      </c>
-      <c r="G39" s="300">
+        <v>247</v>
+      </c>
+      <c r="G39" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H39" s="302">
-        <v>1</v>
-      </c>
-      <c r="I39" s="273">
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="271">
         <v>199625</v>
       </c>
-      <c r="J39" s="274" t="s">
+      <c r="J39" s="272" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="L39" s="276">
+      <c r="K39" s="273" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" s="274">
         <v>2</v>
       </c>
-      <c r="M39" s="277" t="s">
+      <c r="M39" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="273">
         <v>80</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="274">
         <v>1</v>
       </c>
     </row>
@@ -9732,33 +9833,34 @@
         <v>1</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="G40" s="299">
+        <v>250</v>
+      </c>
+      <c r="G40" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H40" s="312">
-        <v>1</v>
-      </c>
-      <c r="I40" s="128">
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="271">
         <v>199624</v>
       </c>
-      <c r="J40" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K40" s="253" t="s">
-        <v>255</v>
-      </c>
-      <c r="L40" s="253">
+      <c r="J40" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="273" t="s">
+        <v>236</v>
+      </c>
+      <c r="L40" s="274">
         <v>3</v>
       </c>
-      <c r="M40" s="277" t="s">
+      <c r="M40" s="271" t="s">
         <v>72</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="273">
         <v>120</v>
       </c>
+      <c r="O40" s="274"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="338"/>
@@ -9775,13 +9877,13 @@
         <v>4</v>
       </c>
       <c r="F41" s="192" t="s">
-        <v>248</v>
-      </c>
-      <c r="G41" s="300">
+        <v>247</v>
+      </c>
+      <c r="G41" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H41" s="302">
+      <c r="H41" s="10">
         <v>1</v>
       </c>
       <c r="I41" s="128"/>
@@ -9817,13 +9919,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="299">
+        <v>250</v>
+      </c>
+      <c r="G42" s="18">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H42" s="312">
+      <c r="H42" s="10">
         <v>1</v>
       </c>
       <c r="I42" s="128"/>
@@ -9839,7 +9941,7 @@
       <c r="M42" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="325" t="str">
+      <c r="N42" s="293" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9850,7 +9952,7 @@
         <v>1901013</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="9">
         <v>48</v>
@@ -9861,11 +9963,11 @@
       <c r="F43" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="300">
+      <c r="G43" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H43" s="302">
+      <c r="H43" s="10">
         <v>1</v>
       </c>
       <c r="I43" s="128"/>
@@ -9892,7 +9994,7 @@
         <v>1901014</v>
       </c>
       <c r="C44" s="220" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="203">
         <v>16</v>
@@ -9903,11 +10005,11 @@
       <c r="F44" s="220" t="s">
         <v>154</v>
       </c>
-      <c r="G44" s="299">
+      <c r="G44" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H44" s="310">
+      <c r="H44" s="10">
         <v>1</v>
       </c>
       <c r="I44" s="128" t="s">
@@ -9923,7 +10025,7 @@
         <v>83</v>
       </c>
       <c r="M44" s="107"/>
-      <c r="N44" s="325" t="str">
+      <c r="N44" s="293" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9935,11 +10037,11 @@
       <c r="D45" s="25"/>
       <c r="E45" s="35"/>
       <c r="F45" s="200"/>
-      <c r="G45" s="300">
+      <c r="G45" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="305"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="128" t="s">
         <v>83</v>
       </c>
@@ -9969,17 +10071,17 @@
       <c r="F46" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="299">
+      <c r="G46" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46" s="315"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="194"/>
       <c r="J46" s="228"/>
       <c r="K46" s="229"/>
       <c r="L46" s="230"/>
       <c r="M46" s="195"/>
-      <c r="N46" s="325">
+      <c r="N46" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10003,11 +10105,11 @@
       <c r="F47" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="300">
+      <c r="G47" s="212">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H47" s="314">
+      <c r="H47" s="213">
         <v>1</v>
       </c>
       <c r="I47" s="84"/>
@@ -10048,11 +10150,11 @@
       <c r="F48" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="299" t="str">
+      <c r="G48" s="148" t="str">
         <f t="shared" si="0"/>
         <v>1周</v>
       </c>
-      <c r="H48" s="316">
+      <c r="H48" s="237">
         <v>1</v>
       </c>
       <c r="I48" s="128">
@@ -10070,7 +10172,7 @@
       <c r="M48" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N48" s="325">
+      <c r="N48" s="293">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -10084,7 +10186,7 @@
         <v>1905033</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="9">
         <v>48</v>
@@ -10093,35 +10195,35 @@
         <v>3</v>
       </c>
       <c r="F49" s="192" t="s">
-        <v>248</v>
-      </c>
-      <c r="G49" s="300">
+        <v>247</v>
+      </c>
+      <c r="G49" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H49" s="302">
-        <v>1</v>
-      </c>
-      <c r="I49" s="273">
+      <c r="H49" s="10">
+        <v>1</v>
+      </c>
+      <c r="I49" s="271">
         <v>1905038</v>
       </c>
-      <c r="J49" s="274" t="s">
-        <v>175</v>
-      </c>
-      <c r="K49" s="275">
+      <c r="J49" s="272" t="s">
+        <v>174</v>
+      </c>
+      <c r="K49" s="273">
         <v>16</v>
       </c>
-      <c r="L49" s="276">
-        <v>1</v>
-      </c>
-      <c r="M49" s="277" t="s">
+      <c r="L49" s="274">
+        <v>1</v>
+      </c>
+      <c r="M49" s="275" t="s">
         <v>151</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="273">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="274">
         <v>1</v>
       </c>
     </row>
@@ -10131,7 +10233,7 @@
         <v>1905034</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="9">
         <v>32</v>
@@ -10140,13 +10242,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" s="299">
+        <v>250</v>
+      </c>
+      <c r="G50" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H50" s="312">
+      <c r="H50" s="10">
         <v>1</v>
       </c>
       <c r="I50" s="128">
@@ -10162,7 +10264,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="107"/>
-      <c r="N50" s="325">
+      <c r="N50" s="293">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -10177,16 +10279,16 @@
       <c r="D51" s="208"/>
       <c r="E51" s="208"/>
       <c r="F51" s="209"/>
-      <c r="G51" s="300">
+      <c r="G51" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51" s="313"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="128">
         <v>1904020</v>
       </c>
       <c r="J51" s="123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K51" s="124">
         <v>32</v>
@@ -10210,16 +10312,16 @@
       <c r="D52" s="208"/>
       <c r="E52" s="208"/>
       <c r="F52" s="209"/>
-      <c r="G52" s="299">
+      <c r="G52" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H52" s="313"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="128">
         <v>1904021</v>
       </c>
       <c r="J52" s="123" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K52" s="124">
         <v>32</v>
@@ -10228,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="107"/>
-      <c r="N52" s="325">
+      <c r="N52" s="293">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -10236,52 +10338,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="15" thickBot="1">
       <c r="A53" s="168"/>
       <c r="B53" s="87"/>
       <c r="C53" s="21"/>
       <c r="D53" s="25"/>
       <c r="E53" s="38"/>
       <c r="F53" s="200"/>
-      <c r="G53" s="300">
+      <c r="G53" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="305"/>
-      <c r="I53" s="273">
+      <c r="H53" s="10"/>
+      <c r="I53" s="271">
         <v>199641</v>
       </c>
-      <c r="J53" s="274" t="s">
-        <v>176</v>
-      </c>
-      <c r="K53" s="275" t="s">
-        <v>198</v>
-      </c>
-      <c r="L53" s="276">
+      <c r="J53" s="272" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="273" t="s">
+        <v>197</v>
+      </c>
+      <c r="L53" s="274">
         <v>2</v>
       </c>
-      <c r="M53" s="277" t="s">
-        <v>172</v>
-      </c>
-      <c r="N53">
+      <c r="M53" s="275" t="s">
+        <v>171</v>
+      </c>
+      <c r="N53" s="273">
         <v>80</v>
       </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="O53" s="274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1">
       <c r="A54" s="168"/>
       <c r="B54" s="245"/>
       <c r="C54" s="246"/>
       <c r="D54" s="247"/>
       <c r="E54" s="248"/>
       <c r="F54" s="249"/>
-      <c r="G54" s="299">
+      <c r="G54" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54" s="317"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="93">
         <v>199783</v>
       </c>
@@ -10294,10 +10396,10 @@
       <c r="L54" s="10">
         <v>3</v>
       </c>
-      <c r="M54" s="267" t="s">
-        <v>157</v>
-      </c>
-      <c r="N54" s="325">
+      <c r="M54" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N54" s="293">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -10312,11 +10414,11 @@
       <c r="D55" s="247"/>
       <c r="E55" s="248"/>
       <c r="F55" s="249"/>
-      <c r="G55" s="300">
+      <c r="G55" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55" s="317"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="93">
         <v>199784</v>
       </c>
@@ -10329,8 +10431,8 @@
       <c r="L55" s="10">
         <v>1</v>
       </c>
-      <c r="M55" s="267" t="s">
-        <v>157</v>
+      <c r="M55" s="105" t="s">
+        <v>73</v>
       </c>
       <c r="N55">
         <f t="shared" si="1"/>
@@ -10351,11 +10453,11 @@
       <c r="F56" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="299">
+      <c r="G56" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H56" s="318"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="194" t="s">
         <v>83</v>
       </c>
@@ -10369,12 +10471,12 @@
         <v>83</v>
       </c>
       <c r="M56" s="20"/>
-      <c r="N56" s="325" t="str">
+      <c r="N56" s="293" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="15" thickBot="1">
       <c r="A57" s="337" t="s">
         <v>43</v>
       </c>
@@ -10385,7 +10487,7 @@
         <v>44</v>
       </c>
       <c r="D57" s="257" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E57" s="258">
         <v>3</v>
@@ -10393,10 +10495,10 @@
       <c r="F57" s="259" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="300">
+      <c r="G57" s="257">
         <v>160</v>
       </c>
-      <c r="H57" s="319">
+      <c r="H57" s="258">
         <v>1</v>
       </c>
       <c r="I57" s="234"/>
@@ -10437,28 +10539,33 @@
       <c r="F58" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="299">
+      <c r="G58" s="148">
         <v>40</v>
       </c>
-      <c r="H58" s="316">
-        <v>1</v>
-      </c>
-      <c r="I58" s="128"/>
+      <c r="H58" s="237">
+        <v>1</v>
+      </c>
+      <c r="I58" s="128">
+        <v>1905050</v>
+      </c>
       <c r="J58" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="K58" s="253" t="s">
-        <v>153</v>
-      </c>
-      <c r="L58" s="253" t="s">
-        <v>153</v>
-      </c>
-      <c r="M58" s="254" t="s">
-        <v>147</v>
-      </c>
-      <c r="N58" s="325" t="str">
+        <v>108</v>
+      </c>
+      <c r="K58" s="294">
+        <v>32</v>
+      </c>
+      <c r="L58" s="294">
+        <v>2</v>
+      </c>
+      <c r="M58" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N58" s="18">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>32</v>
+      </c>
+      <c r="O58" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -10478,10 +10585,10 @@
       <c r="F59" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="300">
+      <c r="G59" s="148">
         <v>40</v>
       </c>
-      <c r="H59" s="316">
+      <c r="H59" s="237">
         <v>1</v>
       </c>
       <c r="I59" s="128" t="s">
@@ -10519,10 +10626,10 @@
       <c r="F60" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="299">
+      <c r="G60" s="152">
         <v>80</v>
       </c>
-      <c r="H60" s="320">
+      <c r="H60" s="261">
         <v>1</v>
       </c>
       <c r="I60" s="128" t="s">
@@ -10540,32 +10647,34 @@
       <c r="M60" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="N60" s="325" t="str">
+      <c r="N60" s="293" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="338"/>
-      <c r="B61" s="128">
-        <v>1905050</v>
+      <c r="B61" s="128" t="s">
+        <v>259</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="253">
-        <v>32</v>
-      </c>
-      <c r="E61" s="253">
-        <v>2</v>
-      </c>
-      <c r="F61" s="254"/>
-      <c r="G61" s="300">
+        <v>260</v>
+      </c>
+      <c r="D61" s="253" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" s="253" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" s="192" t="s">
+        <v>261</v>
+      </c>
+      <c r="G61" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H61" s="321">
-        <v>1</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="I61" s="128" t="s">
         <v>153</v>
@@ -10600,22 +10709,22 @@
       <c r="F62" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="299" t="str">
+      <c r="G62" s="18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H62" s="305"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="206"/>
       <c r="J62" s="266"/>
       <c r="K62" s="208"/>
       <c r="L62" s="208"/>
       <c r="M62" s="209"/>
-      <c r="N62" s="325">
+      <c r="N62" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="15" thickBot="1">
       <c r="A63" s="338"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
@@ -10630,11 +10739,11 @@
       <c r="F63" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="300" t="str">
+      <c r="G63" s="18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H63" s="305"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="206"/>
       <c r="J63" s="266"/>
       <c r="K63" s="208"/>
@@ -10652,11 +10761,11 @@
       <c r="D64" s="36"/>
       <c r="E64" s="264"/>
       <c r="F64" s="265"/>
-      <c r="G64" s="299">
+      <c r="G64" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H64" s="322"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="194">
         <v>199650</v>
       </c>
@@ -10669,8 +10778,10 @@
       <c r="L64" s="43">
         <v>1.5</v>
       </c>
-      <c r="M64" s="20"/>
-      <c r="N64" s="325">
+      <c r="M64" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="N64" s="293">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -10697,21 +10808,23 @@
       <c r="F65" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="300">
+      <c r="G65" s="180">
         <v>480</v>
       </c>
-      <c r="H65" s="323">
+      <c r="H65" s="182">
         <v>1</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K65" s="45"/>
       <c r="L65" s="46">
         <v>5</v>
       </c>
-      <c r="M65" s="271"/>
+      <c r="M65" s="105" t="s">
+        <v>73</v>
+      </c>
       <c r="N65">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10735,18 +10848,18 @@
       <c r="F66" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="299">
+      <c r="G66" s="185">
         <v>40</v>
       </c>
-      <c r="H66" s="324">
+      <c r="H66" s="186">
         <v>1</v>
       </c>
       <c r="I66" s="119"/>
       <c r="J66" s="42"/>
       <c r="K66" s="43"/>
       <c r="L66" s="43"/>
-      <c r="M66" s="272"/>
-      <c r="N66" s="325">
+      <c r="M66" s="270"/>
+      <c r="N66" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10758,35 +10871,35 @@
       <c r="D67" s="51"/>
       <c r="E67" s="51">
         <f>SUM(E4:E66)</f>
-        <v>99.5</v>
+        <v>97.5</v>
       </c>
       <c r="F67" s="52">
         <f>SUM(F4:F66)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="289">
+      <c r="G67" s="287">
         <f>SUM(G3:G66)</f>
-        <v>2522</v>
-      </c>
-      <c r="H67" s="289">
+        <v>2490</v>
+      </c>
+      <c r="H67" s="287">
         <f>SUM(H3:H66)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" s="49"/>
       <c r="J67" s="50"/>
       <c r="K67" s="51"/>
       <c r="L67" s="53">
         <f>SUM(L4:L66)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M67" s="54"/>
-      <c r="N67">
-        <f>SUM(N3:N66)</f>
-        <v>1678</v>
+      <c r="N67" s="293">
+        <f>N65+N64+N58+N57+N55+N54+N53+N52+N51+N50+N49+N48+N47+N40+N39+N38+N37+N35+N33+N32+N31+N30+N29+N28+N26+N25+N24+N23+N22+N21+N15+N13+N4</f>
+        <v>1576</v>
       </c>
       <c r="O67">
         <f>SUM(O3:O66)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -10854,12 +10967,18 @@
       <c r="A72" s="63"/>
       <c r="B72" s="64"/>
       <c r="C72" s="73"/>
-      <c r="D72" s="64"/>
+      <c r="D72" s="64">
+        <f>B79*0.6</f>
+        <v>78.899999999999991</v>
+      </c>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
+      <c r="I72" s="64">
+        <f>B79*0.4</f>
+        <v>52.6</v>
+      </c>
       <c r="J72" s="65"/>
       <c r="K72" s="64"/>
       <c r="L72" s="64"/>
@@ -10869,23 +10988,23 @@
         <v>48</v>
       </c>
       <c r="B73" s="167"/>
-      <c r="C73" s="340" t="s">
+      <c r="C73" s="328" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="341"/>
-      <c r="E73" s="342"/>
-      <c r="F73" s="340" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" s="341"/>
-      <c r="H73" s="341"/>
-      <c r="I73" s="341"/>
-      <c r="J73" s="342"/>
-      <c r="K73" s="343" t="s">
+      <c r="D73" s="329"/>
+      <c r="E73" s="330"/>
+      <c r="F73" s="328" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73" s="329"/>
+      <c r="H73" s="329"/>
+      <c r="I73" s="329"/>
+      <c r="J73" s="330"/>
+      <c r="K73" s="331" t="s">
         <v>116</v>
       </c>
-      <c r="L73" s="343"/>
-      <c r="M73" s="344"/>
+      <c r="L73" s="331"/>
+      <c r="M73" s="332"/>
     </row>
     <row r="74" spans="1:15" ht="26">
       <c r="A74" s="163">
@@ -10912,22 +11031,22 @@
       <c r="H74" s="145"/>
       <c r="I74" s="146">
         <f>SUM(D49:D50,D61,D69)</f>
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="J74" s="147">
         <v>18</v>
       </c>
-      <c r="K74" s="345" t="s">
+      <c r="K74" s="333" t="s">
         <v>118</v>
       </c>
-      <c r="L74" s="346"/>
-      <c r="M74" s="347"/>
+      <c r="L74" s="334"/>
+      <c r="M74" s="335"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="348">
+      <c r="A75" s="320">
         <v>2</v>
       </c>
-      <c r="B75" s="349" t="s">
+      <c r="B75" s="336" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="148"/>
@@ -10943,13 +11062,13 @@
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="K75" s="351"/>
-      <c r="L75" s="351"/>
-      <c r="M75" s="352"/>
+      <c r="K75" s="324"/>
+      <c r="L75" s="324"/>
+      <c r="M75" s="325"/>
     </row>
     <row r="76" spans="1:15" ht="26">
-      <c r="A76" s="348"/>
-      <c r="B76" s="350"/>
+      <c r="A76" s="320"/>
+      <c r="B76" s="321"/>
       <c r="C76" s="151"/>
       <c r="D76" s="152"/>
       <c r="E76" s="152"/>
@@ -10962,41 +11081,44 @@
       <c r="J76" s="152">
         <v>5</v>
       </c>
-      <c r="K76" s="351"/>
-      <c r="L76" s="351"/>
-      <c r="M76" s="352"/>
+      <c r="K76" s="324"/>
+      <c r="L76" s="324"/>
+      <c r="M76" s="325"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="348">
+      <c r="A77" s="320">
         <v>3</v>
       </c>
-      <c r="B77" s="350" t="s">
-        <v>163</v>
+      <c r="B77" s="321" t="s">
+        <v>162</v>
       </c>
       <c r="C77" s="154" t="s">
         <v>120</v>
       </c>
       <c r="D77" s="155"/>
       <c r="E77" s="156">
-        <f>SUM(E9+E12+E17+E25+E26+E27+E28+L30+E49+E50+E39+E40+E41+E42+E43+E44+L54+L55)</f>
-        <v>42.5</v>
+        <f>SUM(E9+E10+E11+E19+E20+E21+E33+E34+E12+E17+E25+E26+E27+E28+L30+E49+E50+E39+E40+E41+E42+E43+E44+L54+L55)</f>
+        <v>54.5</v>
       </c>
       <c r="F77" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="G77" s="157"/>
+      <c r="G77" s="355">
+        <f>I72-J74-J75-J76</f>
+        <v>19.600000000000001</v>
+      </c>
       <c r="H77" s="157"/>
       <c r="I77" s="158"/>
       <c r="J77" s="158">
-        <v>30.5</v>
-      </c>
-      <c r="K77" s="353"/>
-      <c r="L77" s="353"/>
-      <c r="M77" s="354"/>
+        <v>20</v>
+      </c>
+      <c r="K77" s="322"/>
+      <c r="L77" s="322"/>
+      <c r="M77" s="323"/>
     </row>
     <row r="78" spans="1:15" ht="26">
-      <c r="A78" s="348"/>
-      <c r="B78" s="350"/>
+      <c r="A78" s="320"/>
+      <c r="B78" s="321"/>
       <c r="C78" s="154" t="s">
         <v>126</v>
       </c>
@@ -11009,9 +11131,9 @@
       <c r="H78" s="159"/>
       <c r="I78" s="164"/>
       <c r="J78" s="69"/>
-      <c r="K78" s="351"/>
-      <c r="L78" s="351"/>
-      <c r="M78" s="352"/>
+      <c r="K78" s="324"/>
+      <c r="L78" s="324"/>
+      <c r="M78" s="325"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1">
       <c r="A79" s="160" t="s">
@@ -11019,7 +11141,7 @@
       </c>
       <c r="B79" s="161">
         <f>E79+J74+J75+J76+J77</f>
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="C79" s="166">
         <v>66.5</v>
@@ -11027,22 +11149,22 @@
       <c r="D79" s="166"/>
       <c r="E79" s="161">
         <f>SUM(E74:E77)</f>
-        <v>66.5</v>
+        <v>78.5</v>
       </c>
       <c r="F79" s="166">
         <f>18+2+18+18</f>
         <v>56</v>
       </c>
-      <c r="G79" s="281"/>
-      <c r="H79" s="281"/>
+      <c r="G79" s="279"/>
+      <c r="H79" s="279"/>
       <c r="I79" s="166"/>
       <c r="J79" s="161">
         <f>SUM(J74:J78)</f>
-        <v>63.5</v>
-      </c>
-      <c r="K79" s="355"/>
-      <c r="L79" s="355"/>
-      <c r="M79" s="356"/>
+        <v>53</v>
+      </c>
+      <c r="K79" s="326"/>
+      <c r="L79" s="326"/>
+      <c r="M79" s="327"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="63"/>
@@ -11080,7 +11202,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" ht="15" thickBot="1">
       <c r="A82" s="63"/>
       <c r="B82" s="64"/>
       <c r="C82" s="73"/>
@@ -11095,13 +11217,485 @@
       <c r="L82" s="64"/>
       <c r="M82"/>
     </row>
+    <row r="83" spans="1:13" ht="56">
+      <c r="A83" s="301"/>
+      <c r="B83" s="307"/>
+      <c r="C83" s="307"/>
+      <c r="D83" s="307"/>
+      <c r="E83" s="307"/>
+      <c r="F83" s="302"/>
+      <c r="G83" s="295" t="s">
+        <v>200</v>
+      </c>
+      <c r="H83" s="318" t="s">
+        <v>202</v>
+      </c>
+      <c r="I83" s="295" t="s">
+        <v>203</v>
+      </c>
+      <c r="J83" s="318" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" s="295" t="s">
+        <v>205</v>
+      </c>
+      <c r="L83" s="318" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="29" thickBot="1">
+      <c r="A84" s="315" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="316"/>
+      <c r="C84" s="316"/>
+      <c r="D84" s="316"/>
+      <c r="E84" s="316"/>
+      <c r="F84" s="317"/>
+      <c r="G84" s="297" t="s">
+        <v>201</v>
+      </c>
+      <c r="H84" s="319"/>
+      <c r="I84" s="297" t="s">
+        <v>204</v>
+      </c>
+      <c r="J84" s="319"/>
+      <c r="K84" s="297" t="s">
+        <v>204</v>
+      </c>
+      <c r="L84" s="319"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" thickBot="1">
+      <c r="A85" s="301" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="302"/>
+      <c r="C85" s="298" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="300"/>
+      <c r="E85" s="300"/>
+      <c r="F85" s="299"/>
+      <c r="G85" s="297">
+        <v>7</v>
+      </c>
+      <c r="H85" s="297">
+        <v>432</v>
+      </c>
+      <c r="I85" s="297">
+        <f>H85/(J77*16+G67)</f>
+        <v>0.15373665480427046</v>
+      </c>
+      <c r="J85" s="297">
+        <v>24</v>
+      </c>
+      <c r="K85" s="297">
+        <f>J85/B79</f>
+        <v>0.18250950570342206</v>
+      </c>
+      <c r="L85" s="297"/>
+    </row>
+    <row r="86" spans="1:13" ht="15" thickBot="1">
+      <c r="A86" s="303"/>
+      <c r="B86" s="304"/>
+      <c r="C86" s="301" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="302"/>
+      <c r="E86" s="298" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="299"/>
+      <c r="G86" s="353">
+        <f>SUM(H10+H11+H12+H9+H20+H21+H19+H25+H26+H43+H44)</f>
+        <v>11</v>
+      </c>
+      <c r="H86" s="352">
+        <f>G10+G11+G12+G9+G20+G21+G19+G25+G26+G43+G44</f>
+        <v>406</v>
+      </c>
+      <c r="I86" s="297">
+        <f>H86/(J77*16+G67)</f>
+        <v>0.14448398576512456</v>
+      </c>
+      <c r="J86" s="352">
+        <f>E10+E11+E12+E13+E19+E25+E26+E43+E44</f>
+        <v>16.5</v>
+      </c>
+      <c r="K86" s="297">
+        <f>J86/B79</f>
+        <v>0.12547528517110265</v>
+      </c>
+      <c r="L86" s="297"/>
+    </row>
+    <row r="87" spans="1:13" ht="15" thickBot="1">
+      <c r="A87" s="305"/>
+      <c r="B87" s="306"/>
+      <c r="C87" s="305"/>
+      <c r="D87" s="306"/>
+      <c r="E87" s="298" t="s">
+        <v>211</v>
+      </c>
+      <c r="F87" s="299"/>
+      <c r="G87" s="353">
+        <f>SUM(H17+H27+H28+H33+H34+H39+H40+H41+H42+H49+H50)</f>
+        <v>11</v>
+      </c>
+      <c r="H87" s="297">
+        <f>G17+G27+G28+G33+G34+G39+G40+G41+G42+G49+G50</f>
+        <v>520</v>
+      </c>
+      <c r="I87" s="297">
+        <f>H87/(J77*16+G67)</f>
+        <v>0.18505338078291814</v>
+      </c>
+      <c r="J87" s="353">
+        <f>E18+E27+E28+E29+E33+E34+E39+E40+E41+E42+E50+E49</f>
+        <v>26</v>
+      </c>
+      <c r="K87" s="297">
+        <f>J87/B79</f>
+        <v>0.19771863117870722</v>
+      </c>
+      <c r="L87" s="297"/>
+    </row>
+    <row r="88" spans="1:13" ht="15" thickBot="1">
+      <c r="A88" s="301" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="302"/>
+      <c r="C88" s="298" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="300"/>
+      <c r="E88" s="300"/>
+      <c r="F88" s="299"/>
+      <c r="G88" s="297">
+        <f>O67</f>
+        <v>30</v>
+      </c>
+      <c r="H88" s="297">
+        <f>N67</f>
+        <v>1576</v>
+      </c>
+      <c r="I88" s="297">
+        <f>H88/(J77*16+G67)</f>
+        <v>0.56085409252669038</v>
+      </c>
+      <c r="J88" s="353">
+        <f>L67</f>
+        <v>79</v>
+      </c>
+      <c r="K88" s="297">
+        <f>J88/B79</f>
+        <v>0.60076045627376429</v>
+      </c>
+      <c r="L88" s="297"/>
+    </row>
+    <row r="89" spans="1:13" ht="15" thickBot="1">
+      <c r="A89" s="303"/>
+      <c r="B89" s="304"/>
+      <c r="C89" s="298" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="300"/>
+      <c r="E89" s="300"/>
+      <c r="F89" s="299"/>
+      <c r="G89" s="297">
+        <v>7</v>
+      </c>
+      <c r="H89" s="297">
+        <v>334</v>
+      </c>
+      <c r="I89" s="297">
+        <f>H89/(J77*16+G67)</f>
+        <v>0.11886120996441281</v>
+      </c>
+      <c r="J89" s="297">
+        <v>18</v>
+      </c>
+      <c r="K89" s="297">
+        <f>J89/B79</f>
+        <v>0.13688212927756654</v>
+      </c>
+      <c r="L89" s="297"/>
+    </row>
+    <row r="90" spans="1:13" ht="15" thickBot="1">
+      <c r="A90" s="303"/>
+      <c r="B90" s="304"/>
+      <c r="C90" s="298" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" s="300"/>
+      <c r="E90" s="299"/>
+      <c r="F90" s="297" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" s="297">
+        <v>1</v>
+      </c>
+      <c r="H90" s="297"/>
+      <c r="I90" s="297"/>
+      <c r="J90" s="297"/>
+      <c r="K90" s="297" t="s">
+        <v>83</v>
+      </c>
+      <c r="L90" s="297"/>
+    </row>
+    <row r="91" spans="1:13" ht="15" thickBot="1">
+      <c r="A91" s="303"/>
+      <c r="B91" s="304"/>
+      <c r="C91" s="301"/>
+      <c r="D91" s="307"/>
+      <c r="E91" s="302"/>
+      <c r="F91" s="297" t="s">
+        <v>218</v>
+      </c>
+      <c r="G91" s="297">
+        <v>1</v>
+      </c>
+      <c r="H91" s="297"/>
+      <c r="I91" s="297"/>
+      <c r="J91" s="297">
+        <v>1</v>
+      </c>
+      <c r="K91" s="297">
+        <f>J91/B79</f>
+        <v>7.6045627376425855E-3</v>
+      </c>
+      <c r="L91" s="297"/>
+    </row>
+    <row r="92" spans="1:13" ht="15" thickBot="1">
+      <c r="A92" s="303"/>
+      <c r="B92" s="304"/>
+      <c r="C92" s="303"/>
+      <c r="D92" s="308"/>
+      <c r="E92" s="304"/>
+      <c r="F92" s="297" t="s">
+        <v>219</v>
+      </c>
+      <c r="G92" s="297">
+        <v>1</v>
+      </c>
+      <c r="H92" s="297"/>
+      <c r="I92" s="297"/>
+      <c r="J92" s="297">
+        <v>1</v>
+      </c>
+      <c r="K92" s="297">
+        <f>J92/B79</f>
+        <v>7.6045627376425855E-3</v>
+      </c>
+      <c r="L92" s="297"/>
+    </row>
+    <row r="93" spans="1:13" ht="15" thickBot="1">
+      <c r="A93" s="303"/>
+      <c r="B93" s="304"/>
+      <c r="C93" s="303" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="308"/>
+      <c r="E93" s="304"/>
+      <c r="F93" s="297" t="s">
+        <v>220</v>
+      </c>
+      <c r="G93" s="297">
+        <v>1</v>
+      </c>
+      <c r="H93" s="297"/>
+      <c r="I93" s="297"/>
+      <c r="J93" s="297">
+        <v>1</v>
+      </c>
+      <c r="K93" s="297">
+        <f>J93/B79</f>
+        <v>7.6045627376425855E-3</v>
+      </c>
+      <c r="L93" s="297"/>
+    </row>
+    <row r="94" spans="1:13" ht="15" thickBot="1">
+      <c r="A94" s="303"/>
+      <c r="B94" s="304"/>
+      <c r="C94" s="309"/>
+      <c r="D94" s="310"/>
+      <c r="E94" s="311"/>
+      <c r="F94" s="297" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" s="297">
+        <v>1</v>
+      </c>
+      <c r="H94" s="297"/>
+      <c r="I94" s="297"/>
+      <c r="J94" s="297">
+        <v>3</v>
+      </c>
+      <c r="K94" s="297">
+        <f>J94/B79</f>
+        <v>2.2813688212927757E-2</v>
+      </c>
+      <c r="L94" s="297"/>
+    </row>
+    <row r="95" spans="1:13" ht="15" thickBot="1">
+      <c r="A95" s="303"/>
+      <c r="B95" s="304"/>
+      <c r="C95" s="309"/>
+      <c r="D95" s="310"/>
+      <c r="E95" s="311"/>
+      <c r="F95" s="297" t="s">
+        <v>222</v>
+      </c>
+      <c r="G95" s="297">
+        <v>1</v>
+      </c>
+      <c r="H95" s="297"/>
+      <c r="I95" s="297"/>
+      <c r="J95" s="297">
+        <v>1</v>
+      </c>
+      <c r="K95" s="297">
+        <f>J95/B79</f>
+        <v>7.6045627376425855E-3</v>
+      </c>
+      <c r="L95" s="297"/>
+    </row>
+    <row r="96" spans="1:13" ht="15" thickBot="1">
+      <c r="A96" s="303"/>
+      <c r="B96" s="304"/>
+      <c r="C96" s="312"/>
+      <c r="D96" s="313"/>
+      <c r="E96" s="314"/>
+      <c r="F96" s="283" t="s">
+        <v>223</v>
+      </c>
+      <c r="G96" s="297">
+        <v>1</v>
+      </c>
+      <c r="H96" s="297"/>
+      <c r="I96" s="297"/>
+      <c r="J96" s="297">
+        <v>3</v>
+      </c>
+      <c r="K96" s="297">
+        <f>J96/B79</f>
+        <v>2.2813688212927757E-2</v>
+      </c>
+      <c r="L96" s="297"/>
+    </row>
+    <row r="97" spans="1:12" ht="15" thickBot="1">
+      <c r="A97" s="305"/>
+      <c r="B97" s="306"/>
+      <c r="C97" s="298" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="300"/>
+      <c r="E97" s="299"/>
+      <c r="F97" s="283"/>
+      <c r="G97" s="297">
+        <v>7</v>
+      </c>
+      <c r="H97" s="297"/>
+      <c r="I97" s="297"/>
+      <c r="J97" s="297">
+        <v>10</v>
+      </c>
+      <c r="K97" s="297">
+        <f>J97/B79</f>
+        <v>7.6045627376425853E-2</v>
+      </c>
+      <c r="L97" s="297"/>
+    </row>
+    <row r="98" spans="1:12" ht="15" thickBot="1">
+      <c r="A98" s="298" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="300"/>
+      <c r="C98" s="300"/>
+      <c r="D98" s="300"/>
+      <c r="E98" s="300"/>
+      <c r="F98" s="299"/>
+      <c r="G98" s="297">
+        <f>SUM(G85:G97)</f>
+        <v>80</v>
+      </c>
+      <c r="H98" s="297">
+        <f>(J77*16+G67)</f>
+        <v>2810</v>
+      </c>
+      <c r="I98" s="297"/>
+      <c r="J98" s="297"/>
+      <c r="K98" s="297"/>
+      <c r="L98" s="297"/>
+    </row>
+    <row r="99" spans="1:12" ht="29" thickBot="1">
+      <c r="A99" s="296" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="354">
+        <f>B79</f>
+        <v>131.5</v>
+      </c>
+      <c r="C99" s="299"/>
+      <c r="D99" s="298" t="s">
+        <v>227</v>
+      </c>
+      <c r="E99" s="300"/>
+      <c r="F99" s="299"/>
+      <c r="G99" s="354">
+        <f>B79-J77-J74-J75-J76</f>
+        <v>78.5</v>
+      </c>
+      <c r="H99" s="299"/>
+      <c r="I99" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J99" s="299"/>
+      <c r="K99" s="354">
+        <f>J79</f>
+        <v>53</v>
+      </c>
+      <c r="L99" s="299"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
+  <mergeCells count="51">
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="A88:B97"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="A85:B87"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
     <mergeCell ref="F73:J73"/>
     <mergeCell ref="K73:M73"/>
     <mergeCell ref="K74:M74"/>
@@ -11110,19 +11704,13 @@
     <mergeCell ref="K75:M75"/>
     <mergeCell ref="K76:M76"/>
     <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28331"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="40" windowWidth="23980" windowHeight="20240" activeTab="1"/>
+    <workbookView xWindow="16780" yWindow="2120" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="284">
   <si>
     <t>学期</t>
   </si>
@@ -1321,10 +1321,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>开课门数</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <t>换算课时</t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1421,6 +1417,90 @@
   </si>
   <si>
     <t>选修部分（&gt;=40%,(56学分）</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲授</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>门数</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>讲授</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>基础讲授</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>基础实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>核心讲授</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>核心实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>核心实践实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>选修讲授</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>选修实践</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              </t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2478,7 +2558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="231">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3172,8 +3252,38 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4068,36 +4178,168 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4119,131 +4361,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="34" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="34" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="231">
+  <cellStyles count="241">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -4360,6 +4506,11 @@
     <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -4474,6 +4625,11 @@
     <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4494,7 +4650,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4502,7 +4658,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4510,7 +4666,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4518,7 +4674,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4776,7 +4932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4784,68 +4940,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A59" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="8" style="70" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="70" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="74" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="70" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="70" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="70" customWidth="1"/>
-    <col min="8" max="8" width="6" style="70" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="70" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" style="71" customWidth="1"/>
-    <col min="11" max="12" width="5.6640625" style="70" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="70" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="70" customWidth="1"/>
+    <col min="12" max="12" width="26.1640625" style="71" customWidth="1"/>
+    <col min="13" max="14" width="5.6640625" style="70" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="70" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
+    <col min="18" max="19" width="5.1640625" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="340" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="341" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15">
+      <c r="A2" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="343" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
+      <c r="B2" s="309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="311"/>
       <c r="G2" s="277"/>
       <c r="H2" s="277"/>
-      <c r="I2" s="346" t="s">
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="348"/>
-    </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="342"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="314"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="302"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" thickBot="1">
+      <c r="A3" s="308"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4865,32 +5030,44 @@
         <v>240</v>
       </c>
       <c r="H3" s="286" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="286" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="286" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="349" t="s">
+      <c r="R3" s="286" t="s">
+        <v>266</v>
+      </c>
+      <c r="S3" s="286" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="315" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -4915,31 +5092,37 @@
       <c r="H4" s="288">
         <v>1</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="81">
         <v>1901023</v>
       </c>
-      <c r="J4" s="132" t="s">
+      <c r="L4" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="96">
+      <c r="M4" s="96">
         <v>32</v>
       </c>
-      <c r="L4" s="97">
+      <c r="N4" s="97">
         <v>2</v>
       </c>
-      <c r="M4" s="98" t="s">
+      <c r="O4" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="N4">
-        <f>K4</f>
+      <c r="P4">
+        <f>M4</f>
         <v>32</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="350"/>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="288"/>
+      <c r="S4" s="288">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="316"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -4963,29 +5146,33 @@
       <c r="H5" s="289">
         <v>1</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="133" t="s">
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="12">
+      <c r="M5" s="12">
         <v>32</v>
       </c>
-      <c r="L5" s="13">
+      <c r="N5" s="13">
         <v>2</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="O5" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N5">
-        <f>K5</f>
+      <c r="P5">
+        <f>M5</f>
         <v>32</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="350"/>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="289"/>
+      <c r="S5" s="289"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="316"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -5008,28 +5195,32 @@
       <c r="H6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="I6" s="361"/>
+      <c r="J6" s="361"/>
+      <c r="K6" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="L6" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="O6" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" ref="N6:N66" si="1">K6</f>
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P65" si="1">M6</f>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="350"/>
+      <c r="R6" s="361"/>
+      <c r="S6" s="361"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="316"/>
       <c r="B7" s="100">
         <v>199023</v>
       </c>
@@ -5052,18 +5243,22 @@
       <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="11"/>
-      <c r="N7">
+      <c r="I7" s="361"/>
+      <c r="J7" s="361"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="11"/>
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="350"/>
+      <c r="R7" s="361"/>
+      <c r="S7" s="361"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="316"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -5087,18 +5282,22 @@
       <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="11"/>
-      <c r="N8">
+      <c r="I8" s="361"/>
+      <c r="J8" s="361"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="11"/>
+      <c r="P8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="350"/>
+      <c r="R8" s="361"/>
+      <c r="S8" s="361"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="316"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -5121,18 +5320,24 @@
       <c r="H9" s="75">
         <v>1</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="11"/>
-      <c r="N9">
+      <c r="I9" s="362">
+        <v>32</v>
+      </c>
+      <c r="J9" s="362"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="11"/>
+      <c r="P9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="350"/>
+      <c r="R9" s="362"/>
+      <c r="S9" s="362"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="316"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -5151,18 +5356,22 @@
       <c r="H10" s="75">
         <v>1</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="11"/>
-      <c r="N10">
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="11"/>
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="350"/>
+      <c r="R10" s="362"/>
+      <c r="S10" s="362"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="316"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -5179,18 +5388,22 @@
       <c r="H11" s="75">
         <v>1</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
-      <c r="N11">
+      <c r="I11" s="363"/>
+      <c r="J11" s="363"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
+      <c r="P11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="A12" s="350"/>
+      <c r="R11" s="363"/>
+      <c r="S11" s="363"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1">
+      <c r="A12" s="316"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -5213,18 +5426,26 @@
       <c r="H12" s="75">
         <v>1</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
-      <c r="N12">
+      <c r="I12" s="363">
+        <v>48</v>
+      </c>
+      <c r="J12" s="363">
+        <v>32</v>
+      </c>
+      <c r="K12" s="102"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1">
-      <c r="A13" s="337" t="s">
+      <c r="R12" s="363"/>
+      <c r="S12" s="363"/>
+    </row>
+    <row r="13" spans="1:19" ht="17" thickBot="1">
+      <c r="A13" s="317" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -5249,30 +5470,36 @@
       <c r="H13" s="288">
         <v>1</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="81">
         <v>1902060</v>
       </c>
-      <c r="J13" s="126" t="s">
+      <c r="L13" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="K13" s="109" t="s">
+      <c r="M13" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="109">
+      <c r="N13" s="109">
         <v>2</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="O13" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>80</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="338"/>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="288"/>
+      <c r="S13" s="288">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1">
+      <c r="A14" s="318"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -5296,31 +5523,37 @@
       <c r="H14" s="289">
         <v>1</v>
       </c>
-      <c r="I14" s="240">
+      <c r="I14" s="290"/>
+      <c r="J14" s="290"/>
+      <c r="K14" s="240">
         <v>1300004</v>
       </c>
-      <c r="J14" s="134" t="s">
+      <c r="L14" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="106">
+      <c r="M14" s="106">
         <v>54</v>
       </c>
-      <c r="L14" s="106">
+      <c r="N14" s="106">
         <v>3</v>
       </c>
-      <c r="M14" s="107" t="s">
+      <c r="O14" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="338"/>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="290">
+        <v>54</v>
+      </c>
+      <c r="S14" s="290"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="318"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -5344,31 +5577,37 @@
       <c r="H15" s="288">
         <v>1</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="288"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="81">
         <v>1300008</v>
       </c>
-      <c r="J15" s="126" t="s">
+      <c r="L15" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="109">
+      <c r="M15" s="109">
         <v>48</v>
       </c>
-      <c r="L15" s="109">
+      <c r="N15" s="109">
         <v>2</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="O15" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="338"/>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" s="288"/>
+      <c r="S15" s="288">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="318"/>
       <c r="B16" s="236">
         <v>1900102</v>
       </c>
@@ -5390,31 +5629,35 @@
       <c r="H16" s="148">
         <v>1</v>
       </c>
-      <c r="I16" s="241">
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="241">
         <v>1900110</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="L16" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="111">
+      <c r="M16" s="111">
         <v>85</v>
       </c>
-      <c r="L16" s="12">
+      <c r="N16" s="12">
         <v>4</v>
       </c>
-      <c r="M16" s="99" t="s">
+      <c r="O16" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="338"/>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1">
+      <c r="A17" s="318"/>
       <c r="B17" s="199">
         <v>1901003</v>
       </c>
@@ -5437,29 +5680,37 @@
       <c r="H17" s="75">
         <v>1</v>
       </c>
-      <c r="I17" s="241"/>
-      <c r="J17" s="72" t="s">
+      <c r="I17" s="362">
+        <v>48</v>
+      </c>
+      <c r="J17" s="362">
+        <v>32</v>
+      </c>
+      <c r="K17" s="241"/>
+      <c r="L17" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="111">
+      <c r="M17" s="111">
         <v>32</v>
       </c>
-      <c r="L17" s="12">
+      <c r="N17" s="12">
         <v>2</v>
       </c>
-      <c r="M17" s="99" t="s">
+      <c r="O17" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="338"/>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="362"/>
+      <c r="S17" s="362"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1">
+      <c r="A18" s="318"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
@@ -5482,31 +5733,39 @@
       <c r="H18" s="75">
         <v>1</v>
       </c>
-      <c r="I18" s="240">
+      <c r="I18" s="364">
+        <v>32</v>
+      </c>
+      <c r="J18" s="364"/>
+      <c r="K18" s="240">
         <v>1901002</v>
       </c>
-      <c r="J18" s="134" t="s">
+      <c r="L18" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="106">
+      <c r="M18" s="106">
         <v>54</v>
       </c>
-      <c r="L18" s="108">
+      <c r="N18" s="108">
         <v>3</v>
       </c>
-      <c r="M18" s="107" t="s">
+      <c r="O18" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="338"/>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" s="364">
+        <v>54</v>
+      </c>
+      <c r="S18" s="364"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="318"/>
       <c r="B19" s="243" t="s">
         <v>131</v>
       </c>
@@ -5527,31 +5786,37 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H19" s="75"/>
-      <c r="I19" s="240">
+      <c r="I19" s="364"/>
+      <c r="J19" s="364"/>
+      <c r="K19" s="240">
         <v>1900112</v>
       </c>
-      <c r="J19" s="134" t="s">
+      <c r="L19" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="106">
+      <c r="M19" s="106">
         <v>68</v>
       </c>
-      <c r="L19" s="108">
+      <c r="N19" s="108">
         <v>3</v>
       </c>
-      <c r="M19" s="107" t="s">
+      <c r="O19" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="338"/>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="364">
+        <v>68</v>
+      </c>
+      <c r="S19" s="364"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="318"/>
       <c r="B20" s="243"/>
       <c r="C20" s="220"/>
       <c r="D20" s="221"/>
@@ -5562,13 +5827,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="75"/>
-      <c r="N20">
+      <c r="I20" s="365"/>
+      <c r="J20" s="365"/>
+      <c r="P20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="339"/>
+      <c r="R20" s="365"/>
+      <c r="S20" s="365"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1">
+      <c r="A21" s="319"/>
       <c r="B21" s="94"/>
       <c r="C21" s="170" t="s">
         <v>132</v>
@@ -5585,30 +5854,36 @@
       <c r="H21" s="75">
         <v>1</v>
       </c>
-      <c r="I21" s="242">
+      <c r="I21" s="362"/>
+      <c r="J21" s="362"/>
+      <c r="K21" s="242">
         <v>1905039</v>
       </c>
-      <c r="J21" s="126" t="s">
+      <c r="L21" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="M21" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="82">
+      <c r="N21" s="82">
         <v>3</v>
       </c>
-      <c r="M21" s="197" t="s">
+      <c r="O21" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>120</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="337" t="s">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" s="362"/>
+      <c r="S21" s="362">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="317" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
@@ -5633,31 +5908,37 @@
       <c r="H22" s="292">
         <v>1</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="292"/>
+      <c r="J22" s="292"/>
+      <c r="K22" s="84">
         <v>1901027</v>
       </c>
-      <c r="J22" s="135" t="s">
+      <c r="L22" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="103">
+      <c r="M22" s="103">
         <v>68</v>
       </c>
-      <c r="L22" s="104">
+      <c r="N22" s="104">
         <v>3</v>
       </c>
-      <c r="M22" s="105" t="s">
+      <c r="O22" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="338"/>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="292">
+        <v>68</v>
+      </c>
+      <c r="S22" s="292"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="318"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
@@ -5681,29 +5962,35 @@
       <c r="H23" s="289">
         <v>1</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="134" t="s">
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="106">
+      <c r="M23" s="106">
         <v>40</v>
       </c>
-      <c r="L23" s="108">
+      <c r="N23" s="108">
         <v>2.5</v>
       </c>
-      <c r="M23" s="107" t="s">
+      <c r="O23" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="338"/>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="289">
+        <v>40</v>
+      </c>
+      <c r="S23" s="289"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="318"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
@@ -5726,30 +6013,38 @@
       <c r="H24" s="75">
         <v>1</v>
       </c>
-      <c r="I24" s="196">
+      <c r="I24" s="362">
+        <v>48</v>
+      </c>
+      <c r="J24" s="362"/>
+      <c r="K24" s="196">
         <v>1905029</v>
       </c>
-      <c r="J24" s="126" t="s">
+      <c r="L24" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="K24" s="110" t="s">
+      <c r="M24" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="L24" s="82">
+      <c r="N24" s="82">
         <v>3</v>
       </c>
-      <c r="M24" s="197" t="s">
+      <c r="O24" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>120</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="338"/>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="362"/>
+      <c r="S24" s="362">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="318"/>
       <c r="B25" s="202">
         <v>1905008</v>
       </c>
@@ -5772,29 +6067,37 @@
       <c r="H25" s="75">
         <v>1</v>
       </c>
-      <c r="I25" s="196"/>
-      <c r="J25" s="126" t="s">
+      <c r="I25" s="362"/>
+      <c r="J25" s="362">
+        <v>32</v>
+      </c>
+      <c r="K25" s="196"/>
+      <c r="L25" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="110">
+      <c r="M25" s="110">
         <v>32</v>
       </c>
-      <c r="L25" s="82">
-        <v>1</v>
-      </c>
-      <c r="M25" s="197" t="s">
+      <c r="N25" s="82">
+        <v>1</v>
+      </c>
+      <c r="O25" s="197" t="s">
         <v>146</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="338"/>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" s="362">
+        <v>32</v>
+      </c>
+      <c r="S25" s="362"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="318"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
@@ -5817,29 +6120,35 @@
       <c r="H26" s="75">
         <v>1</v>
       </c>
-      <c r="I26" s="193"/>
-      <c r="J26" s="72" t="s">
+      <c r="I26" s="362">
+        <v>64</v>
+      </c>
+      <c r="J26" s="362"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="111">
+      <c r="M26" s="111">
         <v>16</v>
       </c>
-      <c r="L26" s="12">
-        <v>1</v>
-      </c>
-      <c r="M26" s="99" t="s">
+      <c r="N26" s="12">
+        <v>1</v>
+      </c>
+      <c r="O26" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="338"/>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="362"/>
+      <c r="S26" s="362"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="318"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
@@ -5853,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="220" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="0"/>
@@ -5862,31 +6171,39 @@
       <c r="H27" s="75">
         <v>1</v>
       </c>
-      <c r="I27" s="128">
+      <c r="I27" s="362"/>
+      <c r="J27" s="362">
+        <v>32</v>
+      </c>
+      <c r="K27" s="128">
         <v>1905028</v>
       </c>
-      <c r="J27" s="250" t="s">
+      <c r="L27" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="K27" s="124">
+      <c r="M27" s="124">
         <v>32</v>
       </c>
-      <c r="L27" s="125">
+      <c r="N27" s="125">
         <v>2</v>
       </c>
-      <c r="M27" s="107" t="s">
+      <c r="O27" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="338"/>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" s="362">
+        <v>32</v>
+      </c>
+      <c r="S27" s="362"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="318"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
@@ -5909,31 +6226,39 @@
       <c r="H28" s="75">
         <v>1</v>
       </c>
-      <c r="I28" s="128">
+      <c r="I28" s="362"/>
+      <c r="J28" s="362">
+        <v>32</v>
+      </c>
+      <c r="K28" s="128">
         <v>1905048</v>
       </c>
-      <c r="J28" s="123" t="s">
+      <c r="L28" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="124">
+      <c r="M28" s="124">
         <v>48</v>
       </c>
-      <c r="L28" s="125">
+      <c r="N28" s="125">
         <v>3</v>
       </c>
-      <c r="M28" s="107" t="s">
+      <c r="O28" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="339"/>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" s="362">
+        <v>48</v>
+      </c>
+      <c r="S28" s="362"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1">
+      <c r="A29" s="319"/>
       <c r="B29" s="94"/>
       <c r="C29" s="139" t="s">
         <v>32</v>
@@ -5950,18 +6275,22 @@
       <c r="H29" s="75">
         <v>1</v>
       </c>
-      <c r="I29" s="88"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="20"/>
-      <c r="N29">
+      <c r="I29" s="363"/>
+      <c r="J29" s="363"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="20"/>
+      <c r="P29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="337" t="s">
+      <c r="R29" s="363"/>
+      <c r="S29" s="363"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="317" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
@@ -5986,31 +6315,37 @@
       <c r="H30" s="292">
         <v>1</v>
       </c>
-      <c r="I30" s="112">
+      <c r="I30" s="292"/>
+      <c r="J30" s="292"/>
+      <c r="K30" s="112">
         <v>1901035</v>
       </c>
-      <c r="J30" s="113" t="s">
+      <c r="L30" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="103">
+      <c r="M30" s="103">
         <v>64</v>
       </c>
-      <c r="L30" s="114">
+      <c r="N30" s="114">
         <v>3</v>
       </c>
-      <c r="M30" s="105" t="s">
+      <c r="O30" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="338"/>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" s="292">
+        <v>64</v>
+      </c>
+      <c r="S30" s="292"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="318"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
@@ -6034,31 +6369,37 @@
       <c r="H31" s="289">
         <v>1</v>
       </c>
-      <c r="I31" s="128">
+      <c r="I31" s="289"/>
+      <c r="J31" s="289"/>
+      <c r="K31" s="128">
         <v>1905053</v>
       </c>
-      <c r="J31" s="191" t="s">
+      <c r="L31" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="K31" s="251">
+      <c r="M31" s="251">
         <v>48</v>
       </c>
-      <c r="L31" s="252">
+      <c r="N31" s="252">
         <v>3</v>
       </c>
-      <c r="M31" s="107" t="s">
+      <c r="O31" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="338"/>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" s="289">
+        <v>48</v>
+      </c>
+      <c r="S31" s="289"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="318"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
@@ -6081,31 +6422,39 @@
       <c r="H32" s="75">
         <v>1</v>
       </c>
-      <c r="I32" s="128">
+      <c r="I32" s="362">
+        <v>40</v>
+      </c>
+      <c r="J32" s="362"/>
+      <c r="K32" s="128">
         <v>1905026</v>
       </c>
-      <c r="J32" s="190" t="s">
+      <c r="L32" s="190" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="116">
+      <c r="M32" s="116">
         <v>32</v>
       </c>
-      <c r="L32" s="117">
+      <c r="N32" s="117">
         <v>2</v>
       </c>
-      <c r="M32" s="107" t="s">
+      <c r="O32" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="338"/>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" s="362">
+        <v>32</v>
+      </c>
+      <c r="S32" s="362"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="318"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
@@ -6128,28 +6477,34 @@
       <c r="H33" s="75">
         <v>1</v>
       </c>
-      <c r="I33" s="128" t="s">
+      <c r="I33" s="362"/>
+      <c r="J33" s="362">
+        <v>32</v>
+      </c>
+      <c r="K33" s="128" t="s">
         <v>179</v>
       </c>
-      <c r="J33" s="190" t="s">
+      <c r="L33" s="190" t="s">
         <v>184</v>
       </c>
-      <c r="K33" s="116" t="s">
+      <c r="M33" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="L33" s="117" t="s">
+      <c r="N33" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="M33" s="107" t="s">
+      <c r="O33" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="N33" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="338"/>
+      <c r="R33" s="362"/>
+      <c r="S33" s="362"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="318"/>
       <c r="B34" s="206"/>
       <c r="C34" s="207"/>
       <c r="D34" s="208"/>
@@ -6160,31 +6515,37 @@
         <v>0</v>
       </c>
       <c r="H34" s="75"/>
-      <c r="I34" s="128">
+      <c r="I34" s="362"/>
+      <c r="J34" s="362"/>
+      <c r="K34" s="128">
         <v>1905030</v>
       </c>
-      <c r="J34" s="190" t="s">
+      <c r="L34" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="116">
+      <c r="M34" s="116">
         <v>48</v>
       </c>
-      <c r="L34" s="117">
+      <c r="N34" s="117">
         <v>3</v>
       </c>
-      <c r="M34" s="107" t="s">
+      <c r="O34" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="338"/>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" s="362">
+        <v>48</v>
+      </c>
+      <c r="S34" s="362"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="318"/>
       <c r="B35" s="206"/>
       <c r="C35" s="207"/>
       <c r="D35" s="208"/>
@@ -6195,28 +6556,32 @@
         <v>0</v>
       </c>
       <c r="H35" s="75"/>
-      <c r="I35" s="128" t="s">
+      <c r="I35" s="362"/>
+      <c r="J35" s="362"/>
+      <c r="K35" s="128" t="s">
         <v>179</v>
       </c>
-      <c r="J35" s="115" t="s">
+      <c r="L35" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="K35" s="116" t="s">
+      <c r="M35" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="117" t="s">
+      <c r="N35" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="O35" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="N35" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1">
-      <c r="A36" s="339"/>
+      <c r="R35" s="362"/>
+      <c r="S35" s="362"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" thickBot="1">
+      <c r="A36" s="319"/>
       <c r="B36" s="94"/>
       <c r="C36" s="139" t="s">
         <v>36</v>
@@ -6233,30 +6598,36 @@
       <c r="H36" s="75">
         <v>1</v>
       </c>
-      <c r="I36" s="223">
+      <c r="I36" s="363"/>
+      <c r="J36" s="363"/>
+      <c r="K36" s="223">
         <v>1905041</v>
       </c>
-      <c r="J36" s="224" t="s">
+      <c r="L36" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="K36" s="225" t="s">
+      <c r="M36" s="225" t="s">
         <v>198</v>
       </c>
-      <c r="L36" s="131">
+      <c r="N36" s="131">
         <v>2</v>
       </c>
-      <c r="M36" s="226" t="s">
+      <c r="O36" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>80</v>
       </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="337" t="s">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" s="363"/>
+      <c r="S36" s="363">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="317" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="210">
@@ -6281,29 +6652,35 @@
       <c r="H37" s="290">
         <v>1</v>
       </c>
-      <c r="I37" s="227"/>
-      <c r="J37" s="135" t="s">
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
+      <c r="K37" s="227"/>
+      <c r="L37" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="103">
+      <c r="M37" s="103">
         <v>32</v>
       </c>
-      <c r="L37" s="104">
+      <c r="N37" s="104">
         <v>2</v>
       </c>
-      <c r="M37" s="105" t="s">
+      <c r="O37" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="338"/>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" s="290">
+        <v>32</v>
+      </c>
+      <c r="S37" s="290"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="318"/>
       <c r="B38" s="215">
         <v>1905046</v>
       </c>
@@ -6326,30 +6703,38 @@
       <c r="H38" s="75">
         <v>1</v>
       </c>
-      <c r="I38" s="129">
+      <c r="I38" s="362">
+        <v>48</v>
+      </c>
+      <c r="J38" s="362"/>
+      <c r="K38" s="129">
         <v>1905025</v>
       </c>
-      <c r="J38" s="136" t="s">
+      <c r="L38" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="127" t="s">
+      <c r="M38" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="L38" s="82">
+      <c r="N38" s="82">
         <v>2</v>
       </c>
-      <c r="M38" s="130" t="s">
+      <c r="O38" s="130" t="s">
         <v>239</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>80</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="338"/>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" s="362"/>
+      <c r="S38" s="362">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="318"/>
       <c r="B39" s="215">
         <v>1905047</v>
       </c>
@@ -6372,30 +6757,38 @@
       <c r="H39" s="75">
         <v>1</v>
       </c>
-      <c r="I39" s="128">
+      <c r="I39" s="362"/>
+      <c r="J39" s="362">
+        <v>32</v>
+      </c>
+      <c r="K39" s="128">
         <v>1905024</v>
       </c>
-      <c r="J39" s="41" t="s">
+      <c r="L39" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="K39" s="164" t="s">
+      <c r="M39" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="L39" s="164">
+      <c r="N39" s="164">
         <v>3</v>
       </c>
-      <c r="M39" s="165" t="s">
+      <c r="O39" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>80</v>
       </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="338"/>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" s="362"/>
+      <c r="S39" s="362">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="318"/>
       <c r="B40" s="215">
         <v>1901015</v>
       </c>
@@ -6418,26 +6811,32 @@
       <c r="H40" s="75">
         <v>1</v>
       </c>
-      <c r="I40" s="128"/>
-      <c r="J40" s="123" t="s">
+      <c r="I40" s="362">
+        <v>64</v>
+      </c>
+      <c r="J40" s="362"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K40" s="124" t="s">
+      <c r="M40" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="L40" s="125" t="s">
+      <c r="N40" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="107" t="s">
+      <c r="O40" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="N40" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="338"/>
+      <c r="R40" s="362"/>
+      <c r="S40" s="362"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="318"/>
       <c r="B41" s="215">
         <v>1901016</v>
       </c>
@@ -6460,26 +6859,32 @@
       <c r="H41" s="75">
         <v>1</v>
       </c>
-      <c r="I41" s="128"/>
-      <c r="J41" s="123" t="s">
+      <c r="I41" s="362"/>
+      <c r="J41" s="362">
+        <v>40</v>
+      </c>
+      <c r="K41" s="128"/>
+      <c r="L41" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K41" s="124" t="s">
+      <c r="M41" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="L41" s="125" t="s">
+      <c r="N41" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="M41" s="107" t="s">
+      <c r="O41" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="338"/>
+      <c r="R41" s="362"/>
+      <c r="S41" s="362"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="318"/>
       <c r="B42" s="215">
         <v>1901013</v>
       </c>
@@ -6502,26 +6907,32 @@
       <c r="H42" s="75">
         <v>1</v>
       </c>
-      <c r="I42" s="128"/>
-      <c r="J42" s="123" t="s">
+      <c r="I42" s="362">
+        <v>48</v>
+      </c>
+      <c r="J42" s="362"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K42" s="124" t="s">
+      <c r="M42" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="L42" s="125" t="s">
+      <c r="N42" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="M42" s="107" t="s">
+      <c r="O42" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N42" t="str">
+      <c r="P42" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="338"/>
+      <c r="R42" s="362"/>
+      <c r="S42" s="362"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="318"/>
       <c r="B43" s="215">
         <v>1901014</v>
       </c>
@@ -6544,26 +6955,32 @@
       <c r="H43" s="75">
         <v>1</v>
       </c>
-      <c r="I43" s="128" t="s">
+      <c r="I43" s="362"/>
+      <c r="J43" s="362">
+        <v>16</v>
+      </c>
+      <c r="K43" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="J43" s="123" t="s">
+      <c r="L43" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="K43" s="124" t="s">
+      <c r="M43" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="L43" s="125" t="s">
+      <c r="N43" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="M43" s="107"/>
-      <c r="N43" t="str">
+      <c r="O43" s="107"/>
+      <c r="P43" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="338"/>
+      <c r="R43" s="362"/>
+      <c r="S43" s="362"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="318"/>
       <c r="B44" s="215"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
@@ -6574,26 +6991,30 @@
         <v>0</v>
       </c>
       <c r="H44" s="75"/>
-      <c r="I44" s="128" t="s">
+      <c r="I44" s="362"/>
+      <c r="J44" s="362"/>
+      <c r="K44" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="J44" s="123" t="s">
+      <c r="L44" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K44" s="124" t="s">
+      <c r="M44" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="L44" s="125" t="s">
+      <c r="N44" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="M44" s="107"/>
-      <c r="N44" t="str">
+      <c r="O44" s="107"/>
+      <c r="P44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1">
-      <c r="A45" s="339"/>
+      <c r="R44" s="362"/>
+      <c r="S44" s="362"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" thickBot="1">
+      <c r="A45" s="319"/>
       <c r="B45" s="94"/>
       <c r="C45" s="139" t="s">
         <v>38</v>
@@ -6610,18 +7031,22 @@
       <c r="H45" s="75">
         <v>1</v>
       </c>
-      <c r="I45" s="194"/>
-      <c r="J45" s="228"/>
-      <c r="K45" s="229"/>
-      <c r="L45" s="230"/>
-      <c r="M45" s="195"/>
-      <c r="N45">
+      <c r="I45" s="363"/>
+      <c r="J45" s="363"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="228"/>
+      <c r="M45" s="229"/>
+      <c r="N45" s="230"/>
+      <c r="O45" s="195"/>
+      <c r="P45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="338" t="s">
+      <c r="R45" s="363"/>
+      <c r="S45" s="363"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="318" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="210">
@@ -6646,29 +7071,33 @@
       <c r="H46" s="292">
         <v>1</v>
       </c>
-      <c r="I46" s="84"/>
-      <c r="J46" s="135" t="s">
+      <c r="I46" s="292"/>
+      <c r="J46" s="292"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="103">
+      <c r="M46" s="103">
         <v>16</v>
       </c>
-      <c r="L46" s="103">
-        <v>1</v>
-      </c>
-      <c r="M46" s="105" t="s">
+      <c r="N46" s="103">
+        <v>1</v>
+      </c>
+      <c r="O46" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="338"/>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46" s="292"/>
+      <c r="S46" s="292"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="318"/>
       <c r="B47" s="236">
         <v>1900103</v>
       </c>
@@ -6690,31 +7119,37 @@
       <c r="H47" s="289">
         <v>1</v>
       </c>
-      <c r="I47" s="128">
+      <c r="I47" s="289"/>
+      <c r="J47" s="289"/>
+      <c r="K47" s="128">
         <v>1905037</v>
       </c>
-      <c r="J47" s="123" t="s">
+      <c r="L47" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="K47" s="124">
+      <c r="M47" s="124">
         <v>48</v>
       </c>
-      <c r="L47" s="125">
+      <c r="N47" s="125">
         <v>3</v>
       </c>
-      <c r="M47" s="107" t="s">
+      <c r="O47" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="338"/>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" s="289">
+        <v>48</v>
+      </c>
+      <c r="S47" s="289"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="318"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
@@ -6737,30 +7172,38 @@
       <c r="H48" s="75">
         <v>1</v>
       </c>
-      <c r="I48" s="196">
+      <c r="I48" s="362">
+        <v>48</v>
+      </c>
+      <c r="J48" s="362"/>
+      <c r="K48" s="196">
         <v>1905038</v>
       </c>
-      <c r="J48" s="126" t="s">
+      <c r="L48" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="110">
+      <c r="M48" s="110">
         <v>16</v>
       </c>
-      <c r="L48" s="82">
-        <v>1</v>
-      </c>
-      <c r="M48" s="197" t="s">
+      <c r="N48" s="82">
+        <v>1</v>
+      </c>
+      <c r="O48" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" s="362"/>
+      <c r="S48" s="362">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="77"/>
       <c r="B49" s="93">
         <v>1905084</v>
@@ -6784,28 +7227,34 @@
       <c r="H49" s="75">
         <v>1</v>
       </c>
-      <c r="I49" s="128">
+      <c r="I49" s="362"/>
+      <c r="J49" s="362">
+        <v>32</v>
+      </c>
+      <c r="K49" s="128">
         <v>1901036</v>
       </c>
-      <c r="J49" s="123" t="s">
+      <c r="L49" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="K49" s="124">
+      <c r="M49" s="124">
         <v>32</v>
       </c>
-      <c r="L49" s="125">
+      <c r="N49" s="125">
         <v>2</v>
       </c>
-      <c r="M49" s="107"/>
-      <c r="N49">
+      <c r="O49" s="107"/>
+      <c r="P49">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49" s="362"/>
+      <c r="S49" s="362"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="39"/>
       <c r="B50" s="206"/>
       <c r="C50" s="207"/>
@@ -6817,28 +7266,34 @@
         <v>0</v>
       </c>
       <c r="H50" s="75"/>
-      <c r="I50" s="128">
+      <c r="I50" s="362"/>
+      <c r="J50" s="362"/>
+      <c r="K50" s="128">
         <v>1904020</v>
       </c>
-      <c r="J50" s="123" t="s">
+      <c r="L50" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="K50" s="124">
+      <c r="M50" s="124">
         <v>32</v>
       </c>
-      <c r="L50" s="125">
+      <c r="N50" s="125">
         <v>2</v>
       </c>
-      <c r="M50" s="107"/>
-      <c r="N50">
+      <c r="O50" s="107"/>
+      <c r="P50">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50" s="362">
+        <v>32</v>
+      </c>
+      <c r="S50" s="362"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="39"/>
       <c r="B51" s="206"/>
       <c r="C51" s="207"/>
@@ -6850,28 +7305,34 @@
         <v>0</v>
       </c>
       <c r="H51" s="75"/>
-      <c r="I51" s="128">
+      <c r="I51" s="362"/>
+      <c r="J51" s="362"/>
+      <c r="K51" s="128">
         <v>1904021</v>
       </c>
-      <c r="J51" s="123" t="s">
+      <c r="L51" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="K51" s="124">
+      <c r="M51" s="124">
         <v>32</v>
       </c>
-      <c r="L51" s="125">
-        <v>1</v>
-      </c>
-      <c r="M51" s="107"/>
-      <c r="N51">
+      <c r="N51" s="125">
+        <v>1</v>
+      </c>
+      <c r="O51" s="107"/>
+      <c r="P51">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51" s="362"/>
+      <c r="S51" s="362">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="39"/>
       <c r="B52" s="87"/>
       <c r="C52" s="21"/>
@@ -6883,30 +7344,36 @@
         <v>0</v>
       </c>
       <c r="H52" s="75"/>
-      <c r="I52" s="196">
+      <c r="I52" s="362"/>
+      <c r="J52" s="362"/>
+      <c r="K52" s="196">
         <v>1905041</v>
       </c>
-      <c r="J52" s="126" t="s">
+      <c r="L52" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="K52" s="110" t="s">
+      <c r="M52" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="L52" s="82">
+      <c r="N52" s="82">
         <v>2</v>
       </c>
-      <c r="M52" s="197" t="s">
+      <c r="O52" s="197" t="s">
         <v>146</v>
       </c>
-      <c r="N52" t="str">
+      <c r="P52" t="str">
         <f t="shared" si="1"/>
         <v>2周</v>
       </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52" s="362"/>
+      <c r="S52" s="362">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="168"/>
       <c r="B53" s="245"/>
       <c r="C53" s="246"/>
@@ -6918,12 +7385,16 @@
         <v>0</v>
       </c>
       <c r="H53" s="75"/>
-      <c r="N53">
+      <c r="I53" s="365"/>
+      <c r="J53" s="365"/>
+      <c r="P53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="R53" s="365"/>
+      <c r="S53" s="365"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="168"/>
       <c r="B54" s="245"/>
       <c r="C54" s="246"/>
@@ -6935,12 +7406,16 @@
         <v>0</v>
       </c>
       <c r="H54" s="75"/>
-      <c r="N54">
+      <c r="I54" s="365"/>
+      <c r="J54" s="365"/>
+      <c r="P54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1">
+      <c r="R54" s="365"/>
+      <c r="S54" s="365"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" thickBot="1">
       <c r="A55" s="40"/>
       <c r="B55" s="94"/>
       <c r="C55" s="139" t="s">
@@ -6958,26 +7433,30 @@
       <c r="H55" s="75">
         <v>1</v>
       </c>
-      <c r="I55" s="194" t="s">
+      <c r="I55" s="363"/>
+      <c r="J55" s="363"/>
+      <c r="K55" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="42" t="s">
+      <c r="L55" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="K55" s="43" t="s">
+      <c r="M55" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="L55" s="43" t="s">
+      <c r="N55" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="M55" s="20"/>
-      <c r="N55" t="str">
+      <c r="O55" s="20"/>
+      <c r="P55" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="337" t="s">
+      <c r="R55" s="363"/>
+      <c r="S55" s="363"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="317" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="172">
@@ -6987,7 +7466,7 @@
         <v>44</v>
       </c>
       <c r="D56" s="172" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="174">
         <v>3</v>
@@ -7001,29 +7480,33 @@
       <c r="H56" s="292">
         <v>1</v>
       </c>
-      <c r="I56" s="234"/>
-      <c r="J56" s="135" t="s">
+      <c r="I56" s="292"/>
+      <c r="J56" s="292"/>
+      <c r="K56" s="234"/>
+      <c r="L56" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="103">
+      <c r="M56" s="103">
         <v>16</v>
       </c>
-      <c r="L56" s="114">
-        <v>1</v>
-      </c>
-      <c r="M56" s="105" t="s">
+      <c r="N56" s="114">
+        <v>1</v>
+      </c>
+      <c r="O56" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1">
-      <c r="A57" s="338"/>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56" s="292"/>
+      <c r="S56" s="292"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" thickBot="1">
+      <c r="A57" s="318"/>
       <c r="B57" s="172">
         <v>1900105</v>
       </c>
@@ -7045,26 +7528,30 @@
       <c r="H57" s="289">
         <v>1</v>
       </c>
-      <c r="I57" s="128"/>
-      <c r="J57" s="41" t="s">
+      <c r="I57" s="289"/>
+      <c r="J57" s="289"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K57" s="164" t="s">
+      <c r="M57" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="L57" s="164" t="s">
+      <c r="N57" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="M57" s="165" t="s">
+      <c r="O57" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="N57" t="str">
+      <c r="P57" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="338"/>
+      <c r="R57" s="289"/>
+      <c r="S57" s="289"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="318"/>
       <c r="B58" s="172">
         <v>1900107</v>
       </c>
@@ -7086,28 +7573,32 @@
       <c r="H58" s="290">
         <v>1</v>
       </c>
-      <c r="I58" s="128" t="s">
+      <c r="I58" s="290"/>
+      <c r="J58" s="290"/>
+      <c r="K58" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J58" s="41" t="s">
+      <c r="L58" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K58" s="164" t="s">
+      <c r="M58" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="L58" s="164" t="s">
+      <c r="N58" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="M58" s="165" t="s">
+      <c r="O58" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="N58" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="338"/>
+      <c r="R58" s="290"/>
+      <c r="S58" s="290"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="318"/>
       <c r="B59" s="176"/>
       <c r="C59" s="177" t="s">
         <v>134</v>
@@ -7127,28 +7618,32 @@
       <c r="H59" s="289">
         <v>1</v>
       </c>
-      <c r="I59" s="128" t="s">
+      <c r="I59" s="289"/>
+      <c r="J59" s="289"/>
+      <c r="K59" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J59" s="41" t="s">
+      <c r="L59" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K59" s="164" t="s">
+      <c r="M59" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="L59" s="164" t="s">
+      <c r="N59" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="M59" s="165" t="s">
+      <c r="O59" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="N59" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="338"/>
+      <c r="R59" s="289"/>
+      <c r="S59" s="289"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="318"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
         <v>99</v>
@@ -7167,26 +7662,30 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H60" s="118"/>
-      <c r="I60" s="128" t="s">
+      <c r="I60" s="366"/>
+      <c r="J60" s="366"/>
+      <c r="K60" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J60" s="41" t="s">
+      <c r="L60" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K60" s="164" t="s">
+      <c r="M60" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="L60" s="164" t="s">
+      <c r="N60" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="M60" s="165"/>
-      <c r="N60" t="str">
+      <c r="O60" s="165"/>
+      <c r="P60" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="338"/>
+      <c r="R60" s="366"/>
+      <c r="S60" s="366"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="318"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
         <v>85</v>
@@ -7205,26 +7704,30 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H61" s="118"/>
-      <c r="I61" s="128" t="s">
+      <c r="I61" s="366"/>
+      <c r="J61" s="366"/>
+      <c r="K61" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J61" s="41" t="s">
+      <c r="L61" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K61" s="164" t="s">
+      <c r="M61" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="L61" s="164" t="s">
+      <c r="N61" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="M61" s="165"/>
-      <c r="N61" t="str">
+      <c r="O61" s="165"/>
+      <c r="P61" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="338"/>
+      <c r="R61" s="366"/>
+      <c r="S61" s="366"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="318"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
         <v>93</v>
@@ -7243,26 +7746,30 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H62" s="118"/>
-      <c r="I62" s="128" t="s">
+      <c r="I62" s="366"/>
+      <c r="J62" s="366"/>
+      <c r="K62" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="41" t="s">
+      <c r="L62" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="K62" s="164" t="s">
+      <c r="M62" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="L62" s="164" t="s">
+      <c r="N62" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="M62" s="165"/>
-      <c r="N62" t="str">
+      <c r="O62" s="165"/>
+      <c r="P62" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1">
-      <c r="A63" s="339"/>
+      <c r="R62" s="366"/>
+      <c r="S62" s="366"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" thickBot="1">
+      <c r="A63" s="319"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
@@ -7273,28 +7780,34 @@
         <v>0</v>
       </c>
       <c r="H63" s="118"/>
-      <c r="I63" s="194">
+      <c r="I63" s="367"/>
+      <c r="J63" s="367"/>
+      <c r="K63" s="194">
         <v>199650</v>
       </c>
-      <c r="J63" s="42" t="s">
+      <c r="L63" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="K63" s="43">
+      <c r="M63" s="43">
         <v>24</v>
       </c>
-      <c r="L63" s="43">
+      <c r="N63" s="43">
         <v>1.5</v>
       </c>
-      <c r="M63" s="20"/>
-      <c r="N63">
+      <c r="O63" s="20"/>
+      <c r="P63">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63" s="367">
+        <v>24</v>
+      </c>
+      <c r="S63" s="367"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="39" t="s">
         <v>47</v>
       </c>
@@ -7319,24 +7832,30 @@
       <c r="H64" s="290">
         <v>1</v>
       </c>
-      <c r="I64" s="120"/>
-      <c r="J64" s="44" t="s">
+      <c r="I64" s="290"/>
+      <c r="J64" s="290"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="K64" s="45"/>
-      <c r="L64" s="46">
+      <c r="M64" s="45"/>
+      <c r="N64" s="46">
         <v>5</v>
       </c>
-      <c r="M64" s="121"/>
-      <c r="N64">
+      <c r="O64" s="121"/>
+      <c r="P64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="15" thickBot="1">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64" s="290"/>
+      <c r="S64" s="290" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="15" thickBot="1">
       <c r="A65" s="47"/>
       <c r="B65" s="183"/>
       <c r="C65" s="184" t="s">
@@ -7357,17 +7876,21 @@
       <c r="H65" s="291">
         <v>1</v>
       </c>
-      <c r="I65" s="119"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="122"/>
-      <c r="N65">
+      <c r="I65" s="291"/>
+      <c r="J65" s="291"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="122"/>
+      <c r="P65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1">
+      <c r="R65" s="291"/>
+      <c r="S65" s="291"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" thickBot="1">
       <c r="A66" s="48"/>
       <c r="B66" s="49"/>
       <c r="C66" s="50"/>
@@ -7388,20 +7911,36 @@
         <f>SUM(H3:H65)</f>
         <v>48</v>
       </c>
-      <c r="I66" s="49"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="53">
-        <f>SUM(L4:L65)</f>
+      <c r="I66" s="287">
+        <f>SUM(I4:I65)</f>
+        <v>520</v>
+      </c>
+      <c r="J66" s="287">
+        <f>SUM(J4:J65)</f>
+        <v>312</v>
+      </c>
+      <c r="K66" s="49"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="53">
+        <f>SUM(N4:N65)</f>
         <v>81</v>
       </c>
-      <c r="M66" s="54"/>
-      <c r="N66">
-        <f>SUM(N3:N65)</f>
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="54"/>
+      <c r="P66">
+        <f>SUM(R66+S66)</f>
+        <v>1532</v>
+      </c>
+      <c r="R66" s="287">
+        <f>SUM(R4:R65)</f>
+        <v>724</v>
+      </c>
+      <c r="S66" s="287">
+        <f>SUM(S4:S65)</f>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="55" t="s">
         <v>48</v>
       </c>
@@ -7413,42 +7952,84 @@
       <c r="G67" s="56"/>
       <c r="H67" s="56"/>
       <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="58"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="59"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="60"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="58"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="60">
+        <f>I9+I12+I18+I24+I42</f>
+        <v>208</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="60">
+        <f>I17+I26+I32+I38+I40+I48</f>
+        <v>312</v>
+      </c>
       <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
+      <c r="F68" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" s="60">
+        <f>R66</f>
+        <v>724</v>
+      </c>
       <c r="H68" s="60"/>
       <c r="I68" s="60"/>
-      <c r="J68" s="61"/>
+      <c r="J68" s="60"/>
       <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="62"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="63"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="64"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="62"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="60"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="64">
+        <f>J12+J25+J43</f>
+        <v>80</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="64">
+        <f>J49+J41+J39+J33+J28+J27+J17</f>
+        <v>232</v>
+      </c>
       <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
+      <c r="F69" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="64">
+        <f>S66</f>
+        <v>808</v>
+      </c>
       <c r="H69" s="64"/>
       <c r="I69" s="64"/>
-      <c r="J69" s="65"/>
+      <c r="J69" s="64"/>
       <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="66"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="L69" s="65"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="66"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="63"/>
       <c r="B70" s="64"/>
       <c r="C70" s="73"/>
@@ -7458,11 +8039,15 @@
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
       <c r="I70" s="64"/>
-      <c r="J70" s="65"/>
+      <c r="J70" s="64"/>
       <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-    </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1">
+      <c r="L70" s="65"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" thickBot="1">
       <c r="A71" s="63"/>
       <c r="B71" s="64"/>
       <c r="C71" s="73"/>
@@ -7474,38 +8059,46 @@
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
-      <c r="I71" s="64">
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64">
         <f>B78*0.4</f>
         <v>50</v>
       </c>
-      <c r="J71" s="65"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="L71" s="65"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="141" t="s">
         <v>48</v>
       </c>
       <c r="B72" s="142"/>
-      <c r="C72" s="328" t="s">
+      <c r="C72" s="320" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="329"/>
-      <c r="E72" s="330"/>
-      <c r="F72" s="328" t="s">
+      <c r="D72" s="321"/>
+      <c r="E72" s="322"/>
+      <c r="F72" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="329"/>
-      <c r="H72" s="329"/>
-      <c r="I72" s="329"/>
-      <c r="J72" s="330"/>
-      <c r="K72" s="331" t="s">
+      <c r="G72" s="321"/>
+      <c r="H72" s="321"/>
+      <c r="I72" s="321"/>
+      <c r="J72" s="321"/>
+      <c r="K72" s="321"/>
+      <c r="L72" s="322"/>
+      <c r="M72" s="323" t="s">
         <v>116</v>
       </c>
-      <c r="L72" s="331"/>
-      <c r="M72" s="332"/>
-    </row>
-    <row r="73" spans="1:14" ht="26">
+      <c r="N72" s="323"/>
+      <c r="O72" s="324"/>
+      <c r="R72"/>
+      <c r="S72"/>
+    </row>
+    <row r="73" spans="1:19" ht="39">
       <c r="A73" s="143">
         <v>1</v>
       </c>
@@ -7528,24 +8121,28 @@
       </c>
       <c r="G73" s="145"/>
       <c r="H73" s="145"/>
-      <c r="I73" s="146">
+      <c r="I73" s="145"/>
+      <c r="J73" s="145"/>
+      <c r="K73" s="146">
         <f>SUM(D32:D33,D60,D68)</f>
-        <v>72</v>
-      </c>
-      <c r="J73" s="147">
+        <v>384</v>
+      </c>
+      <c r="L73" s="147">
         <v>18</v>
       </c>
-      <c r="K73" s="333" t="s">
+      <c r="M73" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="L73" s="334"/>
-      <c r="M73" s="335"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="320">
+      <c r="N73" s="326"/>
+      <c r="O73" s="327"/>
+      <c r="R73" s="145"/>
+      <c r="S73" s="145"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="328">
         <v>2</v>
       </c>
-      <c r="B74" s="336" t="s">
+      <c r="B74" s="329" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="148"/>
@@ -7556,18 +8153,22 @@
       </c>
       <c r="G74" s="149"/>
       <c r="H74" s="149"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="150">
+      <c r="I74" s="149"/>
+      <c r="J74" s="149"/>
+      <c r="K74" s="148"/>
+      <c r="L74" s="150">
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="K74" s="324"/>
-      <c r="L74" s="324"/>
-      <c r="M74" s="325"/>
-    </row>
-    <row r="75" spans="1:14" ht="26">
-      <c r="A75" s="320"/>
-      <c r="B75" s="321"/>
+      <c r="M74" s="331"/>
+      <c r="N74" s="331"/>
+      <c r="O74" s="332"/>
+      <c r="R74" s="149"/>
+      <c r="S74" s="149"/>
+    </row>
+    <row r="75" spans="1:19" ht="26">
+      <c r="A75" s="328"/>
+      <c r="B75" s="330"/>
       <c r="C75" s="151"/>
       <c r="D75" s="152"/>
       <c r="E75" s="152"/>
@@ -7576,19 +8177,23 @@
       </c>
       <c r="G75" s="153"/>
       <c r="H75" s="153"/>
-      <c r="I75" s="152"/>
-      <c r="J75" s="152">
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="152"/>
+      <c r="L75" s="152">
         <v>5</v>
       </c>
-      <c r="K75" s="324"/>
-      <c r="L75" s="324"/>
-      <c r="M75" s="325"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="320">
+      <c r="M75" s="331"/>
+      <c r="N75" s="331"/>
+      <c r="O75" s="332"/>
+      <c r="R75" s="153"/>
+      <c r="S75" s="153"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="328">
         <v>3</v>
       </c>
-      <c r="B76" s="321" t="s">
+      <c r="B76" s="330" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="154" t="s">
@@ -7604,17 +8209,21 @@
       </c>
       <c r="G76" s="157"/>
       <c r="H76" s="157"/>
-      <c r="I76" s="158"/>
-      <c r="J76" s="158">
+      <c r="I76" s="157"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="158"/>
+      <c r="L76" s="158">
         <v>26</v>
       </c>
-      <c r="K76" s="322"/>
-      <c r="L76" s="322"/>
-      <c r="M76" s="323"/>
-    </row>
-    <row r="77" spans="1:14" ht="26">
-      <c r="A77" s="320"/>
-      <c r="B77" s="321"/>
+      <c r="M76" s="333"/>
+      <c r="N76" s="333"/>
+      <c r="O76" s="334"/>
+      <c r="R76" s="157"/>
+      <c r="S76" s="157"/>
+    </row>
+    <row r="77" spans="1:19" ht="26">
+      <c r="A77" s="328"/>
+      <c r="B77" s="330"/>
       <c r="C77" s="154" t="s">
         <v>126</v>
       </c>
@@ -7625,18 +8234,22 @@
       </c>
       <c r="G77" s="159"/>
       <c r="H77" s="159"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="324"/>
-      <c r="L77" s="324"/>
-      <c r="M77" s="325"/>
-    </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1">
+      <c r="I77" s="159"/>
+      <c r="J77" s="159"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="331"/>
+      <c r="N77" s="331"/>
+      <c r="O77" s="332"/>
+      <c r="R77" s="159"/>
+      <c r="S77" s="159"/>
+    </row>
+    <row r="78" spans="1:19" ht="15" thickBot="1">
       <c r="A78" s="160" t="s">
         <v>53</v>
       </c>
       <c r="B78" s="161">
-        <f>E78+J78</f>
+        <f>E78+L78</f>
         <v>125</v>
       </c>
       <c r="C78" s="162"/>
@@ -7651,16 +8264,20 @@
       </c>
       <c r="G78" s="276"/>
       <c r="H78" s="276"/>
-      <c r="I78" s="162"/>
-      <c r="J78" s="161">
-        <f>SUM(J73:J77)</f>
+      <c r="I78" s="301"/>
+      <c r="J78" s="301"/>
+      <c r="K78" s="162"/>
+      <c r="L78" s="161">
+        <f>SUM(L73:L77)</f>
         <v>59</v>
       </c>
-      <c r="K78" s="326"/>
-      <c r="L78" s="326"/>
-      <c r="M78" s="327"/>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="M78" s="335"/>
+      <c r="N78" s="335"/>
+      <c r="O78" s="336"/>
+      <c r="R78" s="301"/>
+      <c r="S78" s="301"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="63"/>
       <c r="B79" s="64"/>
       <c r="C79" s="73"/>
@@ -7670,12 +8287,16 @@
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
       <c r="I79" s="64"/>
-      <c r="J79" s="65"/>
+      <c r="J79" s="64"/>
       <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
+      <c r="L79" s="65"/>
       <c r="M79" s="64"/>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="N79" s="64"/>
+      <c r="O79" s="64"/>
+      <c r="R79" s="64"/>
+      <c r="S79" s="64"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="63"/>
       <c r="B80" s="64"/>
       <c r="C80" s="73"/>
@@ -7687,16 +8308,20 @@
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
       <c r="I80" s="64"/>
-      <c r="J80" s="65" t="s">
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="64" t="s">
+      <c r="M80" s="64"/>
+      <c r="N80" s="64"/>
+      <c r="O80" s="64" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="31" customHeight="1" thickBot="1">
+      <c r="R80" s="64"/>
+      <c r="S80" s="64"/>
+    </row>
+    <row r="81" spans="1:19" ht="31" customHeight="1" thickBot="1">
       <c r="A81" s="280" t="s">
         <v>229</v>
       </c>
@@ -7712,99 +8337,120 @@
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
-    </row>
-    <row r="82" spans="1:13" ht="39" customHeight="1">
-      <c r="A82" s="301"/>
-      <c r="B82" s="307"/>
-      <c r="C82" s="307"/>
-      <c r="D82" s="307"/>
-      <c r="E82" s="307"/>
-      <c r="F82" s="302"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+    </row>
+    <row r="82" spans="1:19" ht="39" customHeight="1">
+      <c r="A82" s="337"/>
+      <c r="B82" s="338"/>
+      <c r="C82" s="338"/>
+      <c r="D82" s="338"/>
+      <c r="E82" s="338"/>
+      <c r="F82" s="339"/>
       <c r="G82" s="281" t="s">
         <v>200</v>
       </c>
-      <c r="H82" s="318" t="s">
+      <c r="H82" s="343" t="s">
         <v>202</v>
       </c>
-      <c r="I82" s="281" t="s">
+      <c r="I82" s="299"/>
+      <c r="J82" s="299"/>
+      <c r="K82" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="J82" s="318" t="s">
+      <c r="L82" s="343" t="s">
         <v>6</v>
       </c>
-      <c r="K82" s="281" t="s">
+      <c r="M82" s="281" t="s">
         <v>205</v>
       </c>
-      <c r="L82" s="318" t="s">
+      <c r="N82" s="343" t="s">
         <v>206</v>
       </c>
-      <c r="M82"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1">
-      <c r="A83" s="315" t="s">
+      <c r="O82" t="s">
+        <v>263</v>
+      </c>
+      <c r="P82" t="s">
+        <v>264</v>
+      </c>
+      <c r="R82" s="299"/>
+      <c r="S82" s="299"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" thickBot="1">
+      <c r="A83" s="340" t="s">
         <v>199</v>
       </c>
-      <c r="B83" s="316"/>
-      <c r="C83" s="316"/>
-      <c r="D83" s="316"/>
-      <c r="E83" s="316"/>
-      <c r="F83" s="317"/>
+      <c r="B83" s="341"/>
+      <c r="C83" s="341"/>
+      <c r="D83" s="341"/>
+      <c r="E83" s="341"/>
+      <c r="F83" s="342"/>
       <c r="G83" s="282" t="s">
         <v>201</v>
       </c>
-      <c r="H83" s="319"/>
-      <c r="I83" s="282" t="s">
-        <v>204</v>
-      </c>
-      <c r="J83" s="319"/>
+      <c r="H83" s="344"/>
+      <c r="I83" s="300"/>
+      <c r="J83" s="300"/>
       <c r="K83" s="282" t="s">
         <v>204</v>
       </c>
-      <c r="L83" s="319"/>
-      <c r="M83"/>
-    </row>
-    <row r="84" spans="1:13" ht="15" thickBot="1">
-      <c r="A84" s="301" t="s">
+      <c r="L83" s="344"/>
+      <c r="M83" s="282" t="s">
+        <v>204</v>
+      </c>
+      <c r="N83" s="344"/>
+      <c r="O83"/>
+      <c r="R83" s="300"/>
+      <c r="S83" s="300"/>
+    </row>
+    <row r="84" spans="1:19" ht="15" thickBot="1">
+      <c r="A84" s="337" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="302"/>
-      <c r="C84" s="298" t="s">
+      <c r="B84" s="339"/>
+      <c r="C84" s="349" t="s">
         <v>208</v>
       </c>
-      <c r="D84" s="300"/>
-      <c r="E84" s="300"/>
-      <c r="F84" s="299"/>
+      <c r="D84" s="350"/>
+      <c r="E84" s="350"/>
+      <c r="F84" s="351"/>
       <c r="G84" s="282">
         <v>7</v>
       </c>
       <c r="H84" s="282">
         <v>432</v>
       </c>
-      <c r="I84" s="297">
-        <f>H84/(J76*16+G66)</f>
+      <c r="I84" s="300"/>
+      <c r="J84" s="300"/>
+      <c r="K84" s="297">
+        <f>H84/(L76*16+G66)</f>
         <v>0.15783704786262331</v>
       </c>
-      <c r="J84" s="282">
+      <c r="L84" s="282">
         <v>24</v>
       </c>
-      <c r="K84" s="282">
-        <f>J84/B78</f>
+      <c r="M84" s="282">
+        <f>L84/B78</f>
         <v>0.192</v>
       </c>
-      <c r="L84" s="282"/>
-      <c r="M84"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1">
-      <c r="A85" s="303"/>
-      <c r="B85" s="304"/>
-      <c r="C85" s="301" t="s">
+      <c r="N84" s="282"/>
+      <c r="O84"/>
+      <c r="R84" s="300"/>
+      <c r="S84" s="300"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" thickBot="1">
+      <c r="A85" s="345"/>
+      <c r="B85" s="346"/>
+      <c r="C85" s="337" t="s">
         <v>209</v>
       </c>
-      <c r="D85" s="302"/>
-      <c r="E85" s="298" t="s">
+      <c r="D85" s="339"/>
+      <c r="E85" s="349" t="s">
         <v>210</v>
       </c>
-      <c r="F85" s="299"/>
+      <c r="F85" s="351"/>
       <c r="G85" s="282">
         <f>SUM(H9+H10+H11+H12+H18+H24+H25+H42+H43)</f>
         <v>9</v>
@@ -7813,30 +8459,34 @@
         <f>G9+G10+G11+G12+G18+G24+G25+G42+G43</f>
         <v>288</v>
       </c>
-      <c r="I85" s="282">
-        <f>H85/(J76*16+G66)</f>
+      <c r="I85" s="300"/>
+      <c r="J85" s="300"/>
+      <c r="K85" s="282">
+        <f>H85/(L76*16+G66)</f>
         <v>0.10522469857508221</v>
       </c>
-      <c r="J85" s="352">
+      <c r="L85" s="303">
         <f>E9+E10+E11+E12+E18+E24+E25+E42+E43</f>
         <v>15.5</v>
       </c>
-      <c r="K85" s="282">
-        <f>J85/B78</f>
+      <c r="M85" s="282">
+        <f>L85/B78</f>
         <v>0.124</v>
       </c>
-      <c r="L85" s="282"/>
-      <c r="M85"/>
-    </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1">
-      <c r="A86" s="305"/>
-      <c r="B86" s="306"/>
-      <c r="C86" s="305"/>
-      <c r="D86" s="306"/>
-      <c r="E86" s="298" t="s">
+      <c r="N85" s="282"/>
+      <c r="O85"/>
+      <c r="R85" s="300"/>
+      <c r="S85" s="300"/>
+    </row>
+    <row r="86" spans="1:19" ht="15" thickBot="1">
+      <c r="A86" s="347"/>
+      <c r="B86" s="348"/>
+      <c r="C86" s="347"/>
+      <c r="D86" s="348"/>
+      <c r="E86" s="349" t="s">
         <v>211</v>
       </c>
-      <c r="F86" s="299"/>
+      <c r="F86" s="351"/>
       <c r="G86" s="282">
         <f>SUM(H17+H26+H27+H28+H32+H33+H38+H39+H40+H41+H48+H49)</f>
         <v>12</v>
@@ -7845,92 +8495,104 @@
         <f>G17+G26+G27+G28+G32+G33+G38+G39+G40+G41+G48+G49</f>
         <v>544</v>
       </c>
-      <c r="I86" s="297">
-        <f>H86/(J76*16+G66)</f>
+      <c r="I86" s="300"/>
+      <c r="J86" s="300"/>
+      <c r="K86" s="297">
+        <f>H86/(L76*16+G66)</f>
         <v>0.19875776397515527</v>
       </c>
-      <c r="J86" s="353">
+      <c r="L86" s="304">
         <f>E17+E26+E27+E28+E32+E33+E38+E39+E40+E41+E49+E48</f>
         <v>26.5</v>
       </c>
-      <c r="K86" s="282">
-        <f>J86/B78</f>
+      <c r="M86" s="282">
+        <f>L86/B78</f>
         <v>0.21199999999999999</v>
       </c>
-      <c r="L86" s="282"/>
-      <c r="M86"/>
-    </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1">
-      <c r="A87" s="301" t="s">
+      <c r="N86" s="282"/>
+      <c r="O86"/>
+      <c r="R86" s="300"/>
+      <c r="S86" s="300"/>
+    </row>
+    <row r="87" spans="1:19" ht="15" thickBot="1">
+      <c r="A87" s="337" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="302"/>
-      <c r="C87" s="298" t="s">
+      <c r="B87" s="339"/>
+      <c r="C87" s="349" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="300"/>
-      <c r="E87" s="300"/>
-      <c r="F87" s="299"/>
+      <c r="D87" s="350"/>
+      <c r="E87" s="350"/>
+      <c r="F87" s="351"/>
       <c r="G87" s="282">
-        <f>O4+O13+O14+O15+O18+O19+O21+O22+O23+O24+O25+O27+O28+O30+O31+O32+O34+O37+O38+O39+O36+O46+O47+O48+O49+O50+O51+O52+O63+O64</f>
+        <f>Q4+Q13+Q14+Q15+Q18+Q19+Q21+Q22+Q23+Q24+Q25+Q27+Q28+Q30+Q31+Q32+Q34+Q37+Q38+Q39+Q36+Q46+Q47+Q48+Q49+Q50+Q51+Q52+Q63+Q64</f>
         <v>30</v>
       </c>
       <c r="H87" s="282">
+        <f>P66</f>
+        <v>1532</v>
+      </c>
+      <c r="I87" s="300"/>
+      <c r="J87" s="300"/>
+      <c r="K87" s="282">
+        <f>H87/(L76*16+G66)</f>
+        <v>0.5597369382535623</v>
+      </c>
+      <c r="L87" s="304">
         <f>N66</f>
-        <v>1641</v>
-      </c>
-      <c r="I87" s="282">
-        <f>H87/(J76*16+G66)</f>
-        <v>0.59956156375593717</v>
-      </c>
-      <c r="J87" s="353">
-        <f>L66</f>
         <v>81</v>
       </c>
-      <c r="K87" s="282">
-        <f>J87/B78</f>
+      <c r="M87" s="282">
+        <f>L87/B78</f>
         <v>0.64800000000000002</v>
       </c>
-      <c r="L87" s="282"/>
-      <c r="M87"/>
-    </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1">
-      <c r="A88" s="303"/>
-      <c r="B88" s="304"/>
-      <c r="C88" s="298" t="s">
+      <c r="N87" s="282"/>
+      <c r="O87"/>
+      <c r="R87" s="300"/>
+      <c r="S87" s="300"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" thickBot="1">
+      <c r="A88" s="345"/>
+      <c r="B88" s="346"/>
+      <c r="C88" s="349" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="300"/>
-      <c r="E88" s="300"/>
-      <c r="F88" s="299"/>
+      <c r="D88" s="350"/>
+      <c r="E88" s="350"/>
+      <c r="F88" s="351"/>
       <c r="G88" s="282">
         <v>7</v>
       </c>
       <c r="H88" s="282">
         <v>334</v>
       </c>
-      <c r="I88" s="297">
-        <f>H88/(J76*16+G66)</f>
+      <c r="I88" s="300"/>
+      <c r="J88" s="300"/>
+      <c r="K88" s="297">
+        <f>H88/(L76*16+G66)</f>
         <v>0.12203142126415784</v>
       </c>
-      <c r="J88" s="282">
+      <c r="L88" s="282">
         <v>18</v>
       </c>
-      <c r="K88" s="282">
-        <f>J88/B78</f>
+      <c r="M88" s="282">
+        <f>L88/B78</f>
         <v>0.14399999999999999</v>
       </c>
-      <c r="L88" s="282"/>
-      <c r="M88"/>
-    </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1">
-      <c r="A89" s="303"/>
-      <c r="B89" s="304"/>
-      <c r="C89" s="298" t="s">
+      <c r="N88" s="282"/>
+      <c r="O88"/>
+      <c r="R88" s="300"/>
+      <c r="S88" s="300"/>
+    </row>
+    <row r="89" spans="1:19" ht="15" thickBot="1">
+      <c r="A89" s="345"/>
+      <c r="B89" s="346"/>
+      <c r="C89" s="349" t="s">
         <v>215</v>
       </c>
-      <c r="D89" s="300"/>
-      <c r="E89" s="299"/>
+      <c r="D89" s="350"/>
+      <c r="E89" s="351"/>
       <c r="F89" s="282" t="s">
         <v>216</v>
       </c>
@@ -7938,20 +8600,24 @@
         <v>1</v>
       </c>
       <c r="H89" s="282"/>
-      <c r="I89" s="282"/>
-      <c r="J89" s="282"/>
-      <c r="K89" s="297" t="s">
+      <c r="I89" s="300"/>
+      <c r="J89" s="300"/>
+      <c r="K89" s="282"/>
+      <c r="L89" s="282"/>
+      <c r="M89" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="L89" s="282"/>
-      <c r="M89"/>
-    </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1">
-      <c r="A90" s="303"/>
-      <c r="B90" s="304"/>
-      <c r="C90" s="301"/>
-      <c r="D90" s="307"/>
-      <c r="E90" s="302"/>
+      <c r="N89" s="282"/>
+      <c r="O89"/>
+      <c r="R89" s="300"/>
+      <c r="S89" s="300"/>
+    </row>
+    <row r="90" spans="1:19" ht="15" thickBot="1">
+      <c r="A90" s="345"/>
+      <c r="B90" s="346"/>
+      <c r="C90" s="337"/>
+      <c r="D90" s="338"/>
+      <c r="E90" s="339"/>
       <c r="F90" s="282" t="s">
         <v>218</v>
       </c>
@@ -7959,23 +8625,27 @@
         <v>1</v>
       </c>
       <c r="H90" s="282"/>
-      <c r="I90" s="282"/>
-      <c r="J90" s="282">
-        <v>1</v>
-      </c>
-      <c r="K90" s="297">
-        <f>J90/B78</f>
+      <c r="I90" s="300"/>
+      <c r="J90" s="300"/>
+      <c r="K90" s="282"/>
+      <c r="L90" s="282">
+        <v>1</v>
+      </c>
+      <c r="M90" s="297">
+        <f>L90/B78</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L90" s="282"/>
-      <c r="M90"/>
-    </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1">
-      <c r="A91" s="303"/>
-      <c r="B91" s="304"/>
-      <c r="C91" s="303"/>
-      <c r="D91" s="308"/>
-      <c r="E91" s="304"/>
+      <c r="N90" s="282"/>
+      <c r="O90"/>
+      <c r="R90" s="300"/>
+      <c r="S90" s="300"/>
+    </row>
+    <row r="91" spans="1:19" ht="15" thickBot="1">
+      <c r="A91" s="345"/>
+      <c r="B91" s="346"/>
+      <c r="C91" s="345"/>
+      <c r="D91" s="352"/>
+      <c r="E91" s="346"/>
       <c r="F91" s="282" t="s">
         <v>219</v>
       </c>
@@ -7983,25 +8653,29 @@
         <v>1</v>
       </c>
       <c r="H91" s="282"/>
-      <c r="I91" s="282"/>
-      <c r="J91" s="282">
-        <v>1</v>
-      </c>
-      <c r="K91" s="297">
-        <f>J91/B78</f>
+      <c r="I91" s="300"/>
+      <c r="J91" s="300"/>
+      <c r="K91" s="282"/>
+      <c r="L91" s="282">
+        <v>1</v>
+      </c>
+      <c r="M91" s="297">
+        <f>L91/B78</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L91" s="282"/>
-      <c r="M91"/>
-    </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1">
-      <c r="A92" s="303"/>
-      <c r="B92" s="304"/>
-      <c r="C92" s="303" t="s">
+      <c r="N91" s="282"/>
+      <c r="O91"/>
+      <c r="R91" s="300"/>
+      <c r="S91" s="300"/>
+    </row>
+    <row r="92" spans="1:19" ht="15" thickBot="1">
+      <c r="A92" s="345"/>
+      <c r="B92" s="346"/>
+      <c r="C92" s="345" t="s">
         <v>217</v>
       </c>
-      <c r="D92" s="308"/>
-      <c r="E92" s="304"/>
+      <c r="D92" s="352"/>
+      <c r="E92" s="346"/>
       <c r="F92" s="282" t="s">
         <v>220</v>
       </c>
@@ -8009,23 +8683,27 @@
         <v>1</v>
       </c>
       <c r="H92" s="282"/>
-      <c r="I92" s="282"/>
-      <c r="J92" s="282">
-        <v>1</v>
-      </c>
-      <c r="K92" s="297">
-        <f>J92/B78</f>
+      <c r="I92" s="300"/>
+      <c r="J92" s="300"/>
+      <c r="K92" s="282"/>
+      <c r="L92" s="282">
+        <v>1</v>
+      </c>
+      <c r="M92" s="297">
+        <f>L92/B78</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L92" s="282"/>
-      <c r="M92"/>
-    </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1">
-      <c r="A93" s="303"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="309"/>
-      <c r="D93" s="310"/>
-      <c r="E93" s="311"/>
+      <c r="N92" s="282"/>
+      <c r="O92"/>
+      <c r="R92" s="300"/>
+      <c r="S92" s="300"/>
+    </row>
+    <row r="93" spans="1:19" ht="15" thickBot="1">
+      <c r="A93" s="345"/>
+      <c r="B93" s="346"/>
+      <c r="C93" s="353"/>
+      <c r="D93" s="354"/>
+      <c r="E93" s="355"/>
       <c r="F93" s="282" t="s">
         <v>221</v>
       </c>
@@ -8033,23 +8711,27 @@
         <v>1</v>
       </c>
       <c r="H93" s="282"/>
-      <c r="I93" s="282"/>
-      <c r="J93" s="282">
+      <c r="I93" s="300"/>
+      <c r="J93" s="300"/>
+      <c r="K93" s="282"/>
+      <c r="L93" s="282">
         <v>3</v>
       </c>
-      <c r="K93" s="297">
-        <f>J93/B78</f>
+      <c r="M93" s="297">
+        <f>L93/B78</f>
         <v>2.4E-2</v>
       </c>
-      <c r="L93" s="282"/>
-      <c r="M93"/>
-    </row>
-    <row r="94" spans="1:13" ht="15" thickBot="1">
-      <c r="A94" s="303"/>
-      <c r="B94" s="304"/>
-      <c r="C94" s="309"/>
-      <c r="D94" s="310"/>
-      <c r="E94" s="311"/>
+      <c r="N93" s="282"/>
+      <c r="O93"/>
+      <c r="R93" s="300"/>
+      <c r="S93" s="300"/>
+    </row>
+    <row r="94" spans="1:19" ht="15" thickBot="1">
+      <c r="A94" s="345"/>
+      <c r="B94" s="346"/>
+      <c r="C94" s="353"/>
+      <c r="D94" s="354"/>
+      <c r="E94" s="355"/>
       <c r="F94" s="282" t="s">
         <v>222</v>
       </c>
@@ -8057,23 +8739,27 @@
         <v>1</v>
       </c>
       <c r="H94" s="282"/>
-      <c r="I94" s="282"/>
-      <c r="J94" s="282">
-        <v>1</v>
-      </c>
-      <c r="K94" s="297">
-        <f>J94/B78</f>
+      <c r="I94" s="300"/>
+      <c r="J94" s="300"/>
+      <c r="K94" s="282"/>
+      <c r="L94" s="282">
+        <v>1</v>
+      </c>
+      <c r="M94" s="297">
+        <f>L94/B78</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L94" s="282"/>
-      <c r="M94"/>
-    </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1">
-      <c r="A95" s="303"/>
-      <c r="B95" s="304"/>
-      <c r="C95" s="312"/>
-      <c r="D95" s="313"/>
-      <c r="E95" s="314"/>
+      <c r="N94" s="282"/>
+      <c r="O94"/>
+      <c r="R94" s="300"/>
+      <c r="S94" s="300"/>
+    </row>
+    <row r="95" spans="1:19" ht="15" thickBot="1">
+      <c r="A95" s="345"/>
+      <c r="B95" s="346"/>
+      <c r="C95" s="356"/>
+      <c r="D95" s="357"/>
+      <c r="E95" s="358"/>
       <c r="F95" s="283" t="s">
         <v>223</v>
       </c>
@@ -8081,95 +8767,111 @@
         <v>1</v>
       </c>
       <c r="H95" s="282"/>
-      <c r="I95" s="282"/>
-      <c r="J95" s="282">
+      <c r="I95" s="300"/>
+      <c r="J95" s="300"/>
+      <c r="K95" s="282"/>
+      <c r="L95" s="282">
         <v>3</v>
       </c>
-      <c r="K95" s="297">
-        <f>J95/B78</f>
+      <c r="M95" s="297">
+        <f>L95/B78</f>
         <v>2.4E-2</v>
       </c>
-      <c r="L95" s="282"/>
-      <c r="M95"/>
-    </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1">
-      <c r="A96" s="305"/>
-      <c r="B96" s="306"/>
-      <c r="C96" s="298" t="s">
+      <c r="N95" s="282"/>
+      <c r="O95"/>
+      <c r="R95" s="300"/>
+      <c r="S95" s="300"/>
+    </row>
+    <row r="96" spans="1:19" ht="15" thickBot="1">
+      <c r="A96" s="347"/>
+      <c r="B96" s="348"/>
+      <c r="C96" s="349" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="300"/>
-      <c r="E96" s="299"/>
+      <c r="D96" s="350"/>
+      <c r="E96" s="351"/>
       <c r="F96" s="283"/>
       <c r="G96" s="282">
         <v>7</v>
       </c>
       <c r="H96" s="282"/>
-      <c r="I96" s="282"/>
-      <c r="J96" s="282">
+      <c r="I96" s="300"/>
+      <c r="J96" s="300"/>
+      <c r="K96" s="282"/>
+      <c r="L96" s="282">
         <v>10</v>
       </c>
-      <c r="K96" s="297">
-        <f>J96/B78</f>
+      <c r="M96" s="297">
+        <f>L96/B78</f>
         <v>0.08</v>
       </c>
-      <c r="L96" s="282"/>
-      <c r="M96"/>
-    </row>
-    <row r="97" spans="1:14" ht="43" thickBot="1">
-      <c r="A97" s="298" t="s">
+      <c r="N96" s="282"/>
+      <c r="O96"/>
+      <c r="R96" s="300"/>
+      <c r="S96" s="300"/>
+    </row>
+    <row r="97" spans="1:19" ht="15" thickBot="1">
+      <c r="A97" s="349" t="s">
         <v>225</v>
       </c>
-      <c r="B97" s="300"/>
-      <c r="C97" s="300"/>
-      <c r="D97" s="300"/>
-      <c r="E97" s="300"/>
-      <c r="F97" s="299"/>
+      <c r="B97" s="350"/>
+      <c r="C97" s="350"/>
+      <c r="D97" s="350"/>
+      <c r="E97" s="350"/>
+      <c r="F97" s="351"/>
       <c r="G97" s="282">
         <f>SUM(G84:G96)</f>
         <v>79</v>
       </c>
       <c r="H97" s="282">
-        <f>(J76*16+G66)</f>
+        <f>(L76*16+G66)</f>
         <v>2737</v>
       </c>
-      <c r="I97" s="282"/>
-      <c r="J97" s="282"/>
+      <c r="I97" s="300"/>
+      <c r="J97" s="300"/>
       <c r="K97" s="282"/>
       <c r="L97" s="282"/>
-      <c r="M97"/>
-    </row>
-    <row r="98" spans="1:14" ht="29" thickBot="1">
+      <c r="M97" s="282"/>
+      <c r="N97" s="282"/>
+      <c r="O97"/>
+      <c r="R97" s="300"/>
+      <c r="S97" s="300"/>
+    </row>
+    <row r="98" spans="1:19" ht="29" thickBot="1">
       <c r="A98" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="354">
+      <c r="B98" s="359">
         <f>B78</f>
         <v>125</v>
       </c>
-      <c r="C98" s="299"/>
-      <c r="D98" s="298" t="s">
+      <c r="C98" s="351"/>
+      <c r="D98" s="349" t="s">
         <v>227</v>
       </c>
-      <c r="E98" s="300"/>
-      <c r="F98" s="299"/>
-      <c r="G98" s="354">
-        <f>B78-J78</f>
+      <c r="E98" s="350"/>
+      <c r="F98" s="351"/>
+      <c r="G98" s="359">
+        <f>B78-L78</f>
         <v>66</v>
       </c>
-      <c r="H98" s="299"/>
-      <c r="I98" s="298" t="s">
+      <c r="H98" s="351"/>
+      <c r="I98" s="298"/>
+      <c r="J98" s="298"/>
+      <c r="K98" s="349" t="s">
         <v>228</v>
       </c>
-      <c r="J98" s="299"/>
-      <c r="K98" s="354">
-        <f>J78</f>
+      <c r="L98" s="351"/>
+      <c r="M98" s="359">
+        <f>L78</f>
         <v>59</v>
       </c>
-      <c r="L98" s="299"/>
-      <c r="M98"/>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="N98" s="351"/>
+      <c r="O98"/>
+      <c r="R98" s="298"/>
+      <c r="S98" s="298"/>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="285"/>
       <c r="B99" s="285"/>
       <c r="C99" s="285"/>
@@ -8184,8 +8886,12 @@
       <c r="L99" s="285"/>
       <c r="M99" s="285"/>
       <c r="N99" s="285"/>
-    </row>
-    <row r="100" spans="1:14" ht="17">
+      <c r="O99" s="285"/>
+      <c r="P99" s="285"/>
+      <c r="R99" s="285"/>
+      <c r="S99" s="285"/>
+    </row>
+    <row r="100" spans="1:19" ht="17">
       <c r="A100" s="280"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -8199,43 +8905,19 @@
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="R100"/>
+      <c r="S100"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="K98:L98"/>
     <mergeCell ref="A87:B96"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
@@ -8247,12 +8929,40 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8268,10 +8978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="H65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8284,54 +8994,64 @@
     <col min="6" max="6" width="15.83203125" style="70" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="70" customWidth="1"/>
     <col min="8" max="8" width="7" style="70" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="70" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" style="71" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="70" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="70" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="70" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" customWidth="1"/>
+    <col min="9" max="10" width="5.1640625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="70" customWidth="1"/>
+    <col min="12" max="12" width="26.1640625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="70" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="70" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="70" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" customWidth="1"/>
+    <col min="18" max="19" width="5.1640625" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="340" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="341" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15">
+      <c r="A2" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="343" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
+      <c r="B2" s="309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="311"/>
       <c r="G2" s="278"/>
       <c r="H2" s="278"/>
-      <c r="I2" s="346" t="s">
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="351"/>
-    </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="342"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="360"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="302"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" thickBot="1">
+      <c r="A3" s="308"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8348,35 +9068,47 @@
         <v>7</v>
       </c>
       <c r="G3" s="286" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="286" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="286" t="s">
-        <v>255</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="286" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="286" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="286" t="s">
+      <c r="P3" s="286" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q3" s="286" t="s">
         <v>254</v>
       </c>
-      <c r="O3" s="286" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="349" t="s">
+      <c r="R3" s="286" t="s">
+        <v>266</v>
+      </c>
+      <c r="S3" s="286" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="315" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -8401,31 +9133,37 @@
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="271">
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="271">
         <v>1901023</v>
       </c>
-      <c r="J4" s="272" t="s">
+      <c r="L4" s="272" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="273">
+      <c r="M4" s="273">
         <v>32</v>
       </c>
-      <c r="L4" s="274">
-        <v>1</v>
-      </c>
-      <c r="M4" s="275" t="s">
+      <c r="N4" s="274">
+        <v>1</v>
+      </c>
+      <c r="O4" s="275" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="273">
-        <f>K4</f>
+      <c r="P4" s="273">
+        <f>M4</f>
         <v>32</v>
       </c>
-      <c r="O4" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="350"/>
+      <c r="Q4" s="274">
+        <v>1</v>
+      </c>
+      <c r="R4" s="288"/>
+      <c r="S4" s="288">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="316"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -8449,28 +9187,32 @@
       <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="133" t="s">
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="12">
+      <c r="M5" s="12">
         <v>32</v>
       </c>
-      <c r="L5" s="13">
+      <c r="N5" s="13">
         <v>2</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="O5" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="12">
+      <c r="P5" s="12">
         <v>0</v>
       </c>
-      <c r="O5" s="13">
+      <c r="Q5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="350"/>
+      <c r="R5" s="289"/>
+      <c r="S5" s="289"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="316"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -8493,28 +9235,32 @@
       <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="I6" s="361"/>
+      <c r="J6" s="361"/>
+      <c r="K6" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="L6" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="O6" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="N6" s="293" t="str">
-        <f t="shared" ref="N6:N66" si="1">K6</f>
+      <c r="P6" s="293" t="str">
+        <f t="shared" ref="P6:P66" si="1">M6</f>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="350"/>
+      <c r="R6" s="361"/>
+      <c r="S6" s="361"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="316"/>
       <c r="B7" s="100">
         <v>1900110</v>
       </c>
@@ -8537,18 +9283,22 @@
       <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="254"/>
-      <c r="N7">
+      <c r="I7" s="361"/>
+      <c r="J7" s="361"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="254"/>
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="350"/>
+      <c r="R7" s="361"/>
+      <c r="S7" s="361"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="316"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -8572,18 +9322,22 @@
       <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="293">
+      <c r="I8" s="361"/>
+      <c r="J8" s="361"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="350"/>
+      <c r="R8" s="361"/>
+      <c r="S8" s="361"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="316"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -8606,18 +9360,26 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="254"/>
-      <c r="N9">
+      <c r="I9" s="362">
+        <v>32</v>
+      </c>
+      <c r="J9" s="362"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="254"/>
+      <c r="P9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="350"/>
+      <c r="R9" s="362" t="s">
+        <v>276</v>
+      </c>
+      <c r="S9" s="362"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="316"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -8625,7 +9387,9 @@
         <v>18</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
       <c r="F10" s="192" t="s">
         <v>19</v>
       </c>
@@ -8636,24 +9400,30 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="293">
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="350"/>
+      <c r="R10" s="362"/>
+      <c r="S10" s="362"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="316"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
+      <c r="E11" s="76">
+        <v>0</v>
+      </c>
       <c r="F11" s="192" t="s">
         <v>19</v>
       </c>
@@ -8664,18 +9434,22 @@
       <c r="H11" s="76">
         <v>1</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
-      <c r="N11">
+      <c r="I11" s="363"/>
+      <c r="J11" s="363"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
+      <c r="P11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="A12" s="350"/>
+      <c r="R11" s="363"/>
+      <c r="S11" s="363"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1">
+      <c r="A12" s="316"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -8698,18 +9472,30 @@
       <c r="H12" s="76">
         <v>1</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="293">
+      <c r="I12" s="363">
+        <v>48</v>
+      </c>
+      <c r="J12" s="363">
+        <v>32</v>
+      </c>
+      <c r="K12" s="102"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1">
-      <c r="A13" s="337" t="s">
+      <c r="R12" s="363" t="s">
+        <v>276</v>
+      </c>
+      <c r="S12" s="363" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17" thickBot="1">
+      <c r="A13" s="317" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -8734,30 +9520,36 @@
       <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="271">
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="271">
         <v>1902060</v>
       </c>
-      <c r="J13" s="272" t="s">
+      <c r="L13" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="273" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="274">
+        <v>2</v>
+      </c>
+      <c r="O13" s="275" t="s">
         <v>251</v>
       </c>
-      <c r="K13" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="274">
-        <v>2</v>
-      </c>
-      <c r="M13" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="N13" s="273">
+      <c r="P13" s="273">
         <v>80</v>
       </c>
-      <c r="O13" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="338"/>
+      <c r="Q13" s="274">
+        <v>1</v>
+      </c>
+      <c r="R13" s="288"/>
+      <c r="S13" s="288">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1">
+      <c r="A14" s="318"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -8781,31 +9573,37 @@
       <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="240">
+      <c r="I14" s="290"/>
+      <c r="J14" s="290"/>
+      <c r="K14" s="240">
         <v>1300004</v>
       </c>
-      <c r="J14" s="134" t="s">
+      <c r="L14" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="106">
+      <c r="M14" s="106">
         <v>54</v>
       </c>
-      <c r="L14" s="106">
+      <c r="N14" s="106">
         <v>3</v>
       </c>
-      <c r="M14" s="107" t="s">
+      <c r="O14" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="293">
+      <c r="P14" s="293">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="338"/>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="290">
+        <v>54</v>
+      </c>
+      <c r="S14" s="290"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="318"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -8829,31 +9627,37 @@
       <c r="H15" s="6">
         <v>1</v>
       </c>
-      <c r="I15" s="271">
+      <c r="I15" s="288"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="271">
         <v>1300008</v>
       </c>
-      <c r="J15" s="272" t="s">
+      <c r="L15" s="272" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="273">
+      <c r="M15" s="273">
         <v>32</v>
       </c>
-      <c r="L15" s="274">
-        <v>1</v>
-      </c>
-      <c r="M15" s="275" t="s">
+      <c r="N15" s="274">
+        <v>1</v>
+      </c>
+      <c r="O15" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="273">
+      <c r="P15" s="273">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O15" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="338"/>
+      <c r="Q15" s="274">
+        <v>1</v>
+      </c>
+      <c r="R15" s="288"/>
+      <c r="S15" s="288">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="318"/>
       <c r="B16" s="236">
         <v>1900102</v>
       </c>
@@ -8875,18 +9679,22 @@
       <c r="H16" s="239">
         <v>1</v>
       </c>
-      <c r="I16" s="267"/>
-      <c r="J16" s="268"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
       <c r="K16" s="267"/>
-      <c r="L16" s="267"/>
-      <c r="M16" s="269"/>
-      <c r="N16" s="293">
+      <c r="L16" s="268"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="267"/>
+      <c r="O16" s="269"/>
+      <c r="P16" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="338"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1">
+      <c r="A17" s="318"/>
       <c r="B17" s="199">
         <v>1901003</v>
       </c>
@@ -8900,7 +9708,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="200" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="0"/>
@@ -8909,28 +9717,40 @@
       <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="I17" s="241"/>
-      <c r="J17" s="72" t="s">
+      <c r="I17" s="362">
+        <v>48</v>
+      </c>
+      <c r="J17" s="362">
+        <v>32</v>
+      </c>
+      <c r="K17" s="241"/>
+      <c r="L17" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="111">
+      <c r="M17" s="111">
         <v>32</v>
       </c>
-      <c r="L17" s="12">
+      <c r="N17" s="12">
         <v>2</v>
       </c>
-      <c r="M17" s="99" t="s">
+      <c r="O17" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="12">
+      <c r="P17" s="12">
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="Q17" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="338"/>
+      <c r="R17" s="362" t="s">
+        <v>278</v>
+      </c>
+      <c r="S17" s="362" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="318"/>
       <c r="B18" s="241">
         <v>1900111</v>
       </c>
@@ -8953,18 +9773,24 @@
       <c r="H18" s="213">
         <v>1</v>
       </c>
-      <c r="I18" s="267"/>
-      <c r="J18" s="268"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="364"/>
       <c r="K18" s="267"/>
-      <c r="L18" s="267"/>
-      <c r="M18" s="269"/>
-      <c r="N18" s="293">
+      <c r="L18" s="268"/>
+      <c r="M18" s="267"/>
+      <c r="N18" s="267"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="338"/>
+      <c r="R18" s="364" t="s">
+        <v>276</v>
+      </c>
+      <c r="S18" s="364"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="318"/>
       <c r="B19" s="87">
         <v>1901002</v>
       </c>
@@ -8987,18 +9813,24 @@
       <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="I19" s="267"/>
-      <c r="J19" s="268"/>
+      <c r="I19" s="364">
+        <v>54</v>
+      </c>
+      <c r="J19" s="364"/>
       <c r="K19" s="267"/>
-      <c r="L19" s="267"/>
-      <c r="M19" s="269"/>
-      <c r="N19">
+      <c r="L19" s="268"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="267"/>
+      <c r="O19" s="269"/>
+      <c r="P19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="338"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="318"/>
       <c r="B20" s="87">
         <v>1900112</v>
       </c>
@@ -9021,18 +9853,24 @@
       <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="267"/>
-      <c r="J20" s="268"/>
+      <c r="I20" s="365">
+        <v>64</v>
+      </c>
+      <c r="J20" s="365"/>
       <c r="K20" s="267"/>
-      <c r="L20" s="267"/>
-      <c r="M20" s="269"/>
-      <c r="N20" s="293">
+      <c r="L20" s="268"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="267"/>
+      <c r="O20" s="269"/>
+      <c r="P20" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="338"/>
+      <c r="R20" s="365"/>
+      <c r="S20" s="365"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1">
+      <c r="A21" s="318"/>
       <c r="B21" s="87">
         <v>1905045</v>
       </c>
@@ -9055,18 +9893,24 @@
       <c r="H21" s="10">
         <v>1</v>
       </c>
-      <c r="I21" s="242"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="197"/>
-      <c r="N21">
+      <c r="I21" s="362">
+        <v>32</v>
+      </c>
+      <c r="J21" s="362"/>
+      <c r="K21" s="242"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="197"/>
+      <c r="P21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="339"/>
+      <c r="R21" s="362"/>
+      <c r="S21" s="362"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1">
+      <c r="A22" s="319"/>
       <c r="B22" s="94"/>
       <c r="C22" s="170" t="s">
         <v>132</v>
@@ -9074,37 +9918,43 @@
       <c r="D22" s="24"/>
       <c r="E22" s="171"/>
       <c r="F22" s="201" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="271">
+      <c r="I22" s="292"/>
+      <c r="J22" s="292"/>
+      <c r="K22" s="271">
         <v>1905039</v>
       </c>
-      <c r="J22" s="272" t="s">
+      <c r="L22" s="272" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="273" t="s">
+      <c r="M22" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="L22" s="274">
+      <c r="N22" s="274">
         <v>3</v>
       </c>
-      <c r="M22" s="275" t="s">
+      <c r="O22" s="275" t="s">
         <v>151</v>
       </c>
-      <c r="N22" s="273">
+      <c r="P22" s="273">
         <v>120</v>
       </c>
-      <c r="O22" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="337" t="s">
+      <c r="Q22" s="274">
+        <v>1</v>
+      </c>
+      <c r="R22" s="292"/>
+      <c r="S22" s="292">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="317" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
@@ -9129,28 +9979,34 @@
       <c r="H23" s="6">
         <v>1</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="84">
         <v>1900113</v>
       </c>
-      <c r="J23" s="135" t="s">
+      <c r="L23" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="103">
+      <c r="M23" s="103">
         <v>64</v>
       </c>
-      <c r="L23" s="104">
+      <c r="N23" s="104">
         <v>3</v>
       </c>
-      <c r="M23" s="105" t="s">
+      <c r="O23" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="338"/>
+      <c r="R23" s="289">
+        <v>64</v>
+      </c>
+      <c r="S23" s="289"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="318"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
@@ -9174,26 +10030,32 @@
       <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="134" t="s">
+      <c r="I24" s="362"/>
+      <c r="J24" s="362"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="106">
+      <c r="M24" s="106">
         <v>40</v>
       </c>
-      <c r="L24" s="108">
+      <c r="N24" s="108">
         <v>2.5</v>
       </c>
-      <c r="M24" s="107" t="s">
+      <c r="O24" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="293">
+      <c r="P24" s="293">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="338"/>
+      <c r="R24" s="362">
+        <v>64</v>
+      </c>
+      <c r="S24" s="362"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="318"/>
       <c r="B25" s="87">
         <v>1901007</v>
       </c>
@@ -9207,7 +10069,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="192" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="0"/>
@@ -9216,28 +10078,38 @@
       <c r="H25" s="10">
         <v>1</v>
       </c>
-      <c r="I25" s="271">
+      <c r="I25" s="362">
+        <v>48</v>
+      </c>
+      <c r="J25" s="362" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="271">
         <v>1905029</v>
       </c>
-      <c r="J25" s="272" t="s">
+      <c r="L25" s="272" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="273" t="s">
+      <c r="M25" s="273" t="s">
         <v>196</v>
       </c>
-      <c r="L25" s="274">
+      <c r="N25" s="274">
         <v>3</v>
       </c>
-      <c r="M25" s="275"/>
-      <c r="N25" s="273">
+      <c r="O25" s="275"/>
+      <c r="P25" s="273">
         <v>120</v>
       </c>
-      <c r="O25" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="338"/>
+      <c r="Q25" s="274">
+        <v>1</v>
+      </c>
+      <c r="R25" s="362"/>
+      <c r="S25" s="362">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="318"/>
       <c r="B26" s="202">
         <v>1901008</v>
       </c>
@@ -9260,29 +10132,39 @@
       <c r="H26" s="10">
         <v>1</v>
       </c>
-      <c r="I26" s="271"/>
-      <c r="J26" s="272" t="s">
+      <c r="I26" s="362" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" s="362">
+        <v>32</v>
+      </c>
+      <c r="K26" s="271"/>
+      <c r="L26" s="272" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="273">
+      <c r="M26" s="273">
         <v>32</v>
       </c>
-      <c r="L26" s="274">
-        <v>1</v>
-      </c>
-      <c r="M26" s="275" t="s">
+      <c r="N26" s="274">
+        <v>1</v>
+      </c>
+      <c r="O26" s="275" t="s">
         <v>171</v>
       </c>
-      <c r="N26" s="273">
+      <c r="P26" s="273">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O26" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="338"/>
+      <c r="Q26" s="274">
+        <v>1</v>
+      </c>
+      <c r="R26" s="362">
+        <v>32</v>
+      </c>
+      <c r="S26" s="362"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="318"/>
       <c r="B27" s="87">
         <v>1901006</v>
       </c>
@@ -9296,7 +10178,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="192" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="0"/>
@@ -9305,28 +10187,38 @@
       <c r="H27" s="10">
         <v>1</v>
       </c>
-      <c r="I27" s="193"/>
-      <c r="J27" s="72" t="s">
+      <c r="I27" s="362">
+        <v>64</v>
+      </c>
+      <c r="J27" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="K27" s="193"/>
+      <c r="L27" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="111">
+      <c r="M27" s="111">
         <v>16</v>
       </c>
-      <c r="L27" s="12">
-        <v>1</v>
-      </c>
-      <c r="M27" s="99" t="s">
+      <c r="N27" s="12">
+        <v>1</v>
+      </c>
+      <c r="O27" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="12">
+      <c r="P27" s="12">
         <v>0</v>
       </c>
-      <c r="O27" s="13">
+      <c r="Q27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="338"/>
+      <c r="R27" s="362"/>
+      <c r="S27" s="362" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="318"/>
       <c r="B28" s="87">
         <v>1901007</v>
       </c>
@@ -9340,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="0"/>
@@ -9349,61 +10241,77 @@
       <c r="H28" s="10">
         <v>1</v>
       </c>
-      <c r="I28" s="128">
+      <c r="I28" s="362"/>
+      <c r="J28" s="362">
+        <v>32</v>
+      </c>
+      <c r="K28" s="128">
         <v>1905028</v>
       </c>
-      <c r="J28" s="250" t="s">
+      <c r="L28" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="K28" s="124">
+      <c r="M28" s="124">
         <v>32</v>
       </c>
-      <c r="L28" s="125">
+      <c r="N28" s="125">
         <v>2</v>
       </c>
-      <c r="M28" s="107" t="s">
+      <c r="O28" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N28" s="124">
+      <c r="P28" s="124">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O28" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="338"/>
+      <c r="Q28" s="125">
+        <v>1</v>
+      </c>
+      <c r="R28" s="362">
+        <v>32</v>
+      </c>
+      <c r="S28" s="362" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1">
+      <c r="A29" s="318"/>
       <c r="G29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="I29" s="128">
+      <c r="I29" s="363"/>
+      <c r="J29" s="363"/>
+      <c r="K29" s="128">
         <v>1905048</v>
       </c>
-      <c r="J29" s="123" t="s">
+      <c r="L29" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="124">
+      <c r="M29" s="124">
         <v>48</v>
       </c>
-      <c r="L29" s="125">
+      <c r="N29" s="125">
         <v>3</v>
       </c>
-      <c r="M29" s="107" t="s">
+      <c r="O29" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="124">
+      <c r="P29" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O29" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="339"/>
+      <c r="Q29" s="125">
+        <v>1</v>
+      </c>
+      <c r="R29" s="363">
+        <v>48</v>
+      </c>
+      <c r="S29" s="363"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1">
+      <c r="A30" s="319"/>
       <c r="B30" s="94"/>
       <c r="C30" s="139" t="s">
         <v>32</v>
@@ -9420,29 +10328,35 @@
       <c r="H30" s="10">
         <v>1</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="17" t="s">
+      <c r="I30" s="292"/>
+      <c r="J30" s="292"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="9">
+      <c r="M30" s="9">
         <v>48</v>
       </c>
-      <c r="L30" s="10">
+      <c r="N30" s="10">
         <v>3</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="O30" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="124">
+      <c r="P30" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O30" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="337" t="s">
+      <c r="Q30" s="125">
+        <v>1</v>
+      </c>
+      <c r="R30" s="292">
+        <v>48</v>
+      </c>
+      <c r="S30" s="292"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="317" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
@@ -9467,29 +10381,35 @@
       <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113" t="s">
+      <c r="I31" s="289"/>
+      <c r="J31" s="289"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="103">
+      <c r="M31" s="103">
         <v>64</v>
       </c>
-      <c r="L31" s="114">
+      <c r="N31" s="114">
         <v>3</v>
       </c>
-      <c r="M31" s="105" t="s">
+      <c r="O31" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N31" s="124">
+      <c r="P31" s="124">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="O31" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="338"/>
+      <c r="Q31" s="125">
+        <v>1</v>
+      </c>
+      <c r="R31" s="289">
+        <v>64</v>
+      </c>
+      <c r="S31" s="289"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="318"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
@@ -9513,31 +10433,39 @@
       <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="I32" s="128">
+      <c r="I32" s="362" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" s="362"/>
+      <c r="K32" s="128">
         <v>1905053</v>
       </c>
-      <c r="J32" s="191" t="s">
+      <c r="L32" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="251">
+      <c r="M32" s="251">
         <v>48</v>
       </c>
-      <c r="L32" s="252">
+      <c r="N32" s="252">
         <v>3</v>
       </c>
-      <c r="M32" s="107" t="s">
+      <c r="O32" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="124">
+      <c r="P32" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O32" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="338"/>
+      <c r="Q32" s="125">
+        <v>1</v>
+      </c>
+      <c r="R32" s="362">
+        <v>48</v>
+      </c>
+      <c r="S32" s="362"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="318"/>
       <c r="B33" s="93">
         <v>1905010</v>
       </c>
@@ -9551,7 +10479,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G33" s="18">
         <f t="shared" si="0"/>
@@ -9560,31 +10488,43 @@
       <c r="H33" s="10">
         <v>1</v>
       </c>
-      <c r="I33" s="128">
+      <c r="I33" s="362">
+        <v>48</v>
+      </c>
+      <c r="J33" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" s="128">
         <v>1905026</v>
       </c>
-      <c r="J33" s="190" t="s">
+      <c r="L33" s="190" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="116">
+      <c r="M33" s="116">
         <v>48</v>
       </c>
-      <c r="L33" s="117">
+      <c r="N33" s="117">
         <v>3</v>
       </c>
-      <c r="M33" s="107" t="s">
+      <c r="O33" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N33" s="124">
+      <c r="P33" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O33" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="338"/>
+      <c r="Q33" s="125">
+        <v>1</v>
+      </c>
+      <c r="R33" s="362">
+        <v>48</v>
+      </c>
+      <c r="S33" s="362" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="318"/>
       <c r="B34" s="93">
         <v>1905011</v>
       </c>
@@ -9598,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="18">
         <f t="shared" si="0"/>
@@ -9607,31 +10547,37 @@
       <c r="H34" s="10">
         <v>1</v>
       </c>
-      <c r="I34" s="128" t="s">
+      <c r="I34" s="362"/>
+      <c r="J34" s="362">
+        <v>32</v>
+      </c>
+      <c r="K34" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="J34" s="190" t="s">
+      <c r="L34" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="K34" s="116" t="s">
+      <c r="M34" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="117" t="s">
+      <c r="N34" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="M34" s="107" t="s">
+      <c r="O34" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="N34" s="124" t="str">
+      <c r="P34" s="124" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O34" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="338"/>
+      <c r="Q34" s="125">
+        <v>1</v>
+      </c>
+      <c r="R34" s="362"/>
+      <c r="S34" s="362"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="318"/>
       <c r="B35" s="206"/>
       <c r="C35" s="207"/>
       <c r="D35" s="208"/>
@@ -9642,31 +10588,37 @@
         <v>0</v>
       </c>
       <c r="H35" s="10"/>
-      <c r="I35" s="128">
+      <c r="I35" s="362"/>
+      <c r="J35" s="362"/>
+      <c r="K35" s="128">
         <v>1905030</v>
       </c>
-      <c r="J35" s="190" t="s">
+      <c r="L35" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="116">
+      <c r="M35" s="116">
         <v>48</v>
       </c>
-      <c r="L35" s="117">
+      <c r="N35" s="117">
         <v>3</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="O35" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N35" s="124">
+      <c r="P35" s="124">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O35" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="338"/>
+      <c r="Q35" s="125">
+        <v>1</v>
+      </c>
+      <c r="R35" s="362">
+        <v>48</v>
+      </c>
+      <c r="S35" s="362"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="318"/>
       <c r="B36" s="206"/>
       <c r="C36" s="207"/>
       <c r="D36" s="208"/>
@@ -9677,20 +10629,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="10"/>
-      <c r="I36" s="128" t="s">
+      <c r="I36" s="363"/>
+      <c r="J36" s="363"/>
+      <c r="K36" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="J36" s="115"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="293">
+      <c r="L36" s="115"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1">
-      <c r="A37" s="339"/>
+      <c r="R36" s="363"/>
+      <c r="S36" s="363"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" thickBot="1">
+      <c r="A37" s="319"/>
       <c r="B37" s="94"/>
       <c r="C37" s="139" t="s">
         <v>36</v>
@@ -9705,28 +10661,34 @@
         <v>0</v>
       </c>
       <c r="H37" s="10"/>
-      <c r="I37" s="271">
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
+      <c r="K37" s="271">
         <v>199641</v>
       </c>
-      <c r="J37" s="272" t="s">
+      <c r="L37" s="272" t="s">
         <v>173</v>
       </c>
-      <c r="K37" s="273" t="s">
+      <c r="M37" s="273" t="s">
         <v>197</v>
       </c>
-      <c r="L37" s="274">
+      <c r="N37" s="274">
         <v>2</v>
       </c>
-      <c r="M37" s="275" t="s">
+      <c r="O37" s="275" t="s">
         <v>146</v>
       </c>
-      <c r="N37" s="273">
+      <c r="P37" s="273">
         <v>80</v>
       </c>
-      <c r="O37" s="274"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="337" t="s">
+      <c r="Q37" s="274"/>
+      <c r="R37" s="290"/>
+      <c r="S37" s="290">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="317" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="210">
@@ -9751,29 +10713,36 @@
       <c r="H38" s="213">
         <v>1</v>
       </c>
-      <c r="I38" s="227"/>
-      <c r="J38" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="103">
-        <v>32</v>
-      </c>
-      <c r="L38" s="104">
-        <v>2</v>
-      </c>
-      <c r="M38" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="N38" s="293">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="338"/>
+      <c r="I38" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" s="362"/>
+      <c r="K38" s="227"/>
+      <c r="L38" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="N38" s="104" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="P38" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>276</v>
+      </c>
+      <c r="R38" s="362" t="s">
+        <v>276</v>
+      </c>
+      <c r="S38" s="362"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="318"/>
       <c r="B39" s="215">
         <v>1905046</v>
       </c>
@@ -9787,7 +10756,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G39" s="18">
         <f t="shared" si="0"/>
@@ -9796,30 +10765,42 @@
       <c r="H39" s="10">
         <v>1</v>
       </c>
-      <c r="I39" s="271">
+      <c r="I39" s="362">
+        <v>48</v>
+      </c>
+      <c r="J39" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" s="271">
         <v>199625</v>
       </c>
-      <c r="J39" s="272" t="s">
+      <c r="L39" s="272" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="273" t="s">
-        <v>253</v>
-      </c>
-      <c r="L39" s="274">
+      <c r="M39" s="273" t="s">
+        <v>252</v>
+      </c>
+      <c r="N39" s="274">
         <v>2</v>
       </c>
-      <c r="M39" s="275" t="s">
+      <c r="O39" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="N39" s="273">
+      <c r="P39" s="273">
         <v>80</v>
       </c>
-      <c r="O39" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="338"/>
+      <c r="Q39" s="274">
+        <v>1</v>
+      </c>
+      <c r="R39" s="362" t="s">
+        <v>279</v>
+      </c>
+      <c r="S39" s="362">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="318"/>
       <c r="B40" s="215">
         <v>1905047</v>
       </c>
@@ -9833,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" si="0"/>
@@ -9842,28 +10823,40 @@
       <c r="H40" s="10">
         <v>1</v>
       </c>
-      <c r="I40" s="271">
+      <c r="I40" s="362" t="s">
+        <v>276</v>
+      </c>
+      <c r="J40" s="362">
+        <v>32</v>
+      </c>
+      <c r="K40" s="271">
         <v>199624</v>
       </c>
-      <c r="J40" s="272" t="s">
-        <v>258</v>
-      </c>
-      <c r="K40" s="273" t="s">
+      <c r="L40" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="M40" s="273" t="s">
         <v>236</v>
       </c>
-      <c r="L40" s="274">
+      <c r="N40" s="274">
         <v>3</v>
       </c>
-      <c r="M40" s="271" t="s">
+      <c r="O40" s="271" t="s">
         <v>72</v>
       </c>
-      <c r="N40" s="273">
+      <c r="P40" s="273">
         <v>120</v>
       </c>
-      <c r="O40" s="274"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="338"/>
+      <c r="Q40" s="274"/>
+      <c r="R40" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="S40" s="362">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="318"/>
       <c r="B41" s="215">
         <v>1901015</v>
       </c>
@@ -9877,7 +10870,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" s="18">
         <f t="shared" si="0"/>
@@ -9886,26 +10879,36 @@
       <c r="H41" s="10">
         <v>1</v>
       </c>
-      <c r="I41" s="128"/>
-      <c r="J41" s="123" t="s">
+      <c r="I41" s="362">
+        <v>64</v>
+      </c>
+      <c r="J41" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" s="128"/>
+      <c r="L41" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="K41" s="124" t="s">
+      <c r="M41" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="125" t="s">
+      <c r="N41" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="107" t="s">
+      <c r="O41" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="N41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="338"/>
+      <c r="R41" s="362"/>
+      <c r="S41" s="362" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="318"/>
       <c r="B42" s="215">
         <v>1901016</v>
       </c>
@@ -9919,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="18">
         <f t="shared" si="0"/>
@@ -9928,26 +10931,36 @@
       <c r="H42" s="10">
         <v>1</v>
       </c>
-      <c r="I42" s="128"/>
-      <c r="J42" s="123" t="s">
+      <c r="I42" s="362" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" s="362">
+        <v>40</v>
+      </c>
+      <c r="K42" s="128"/>
+      <c r="L42" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="K42" s="124" t="s">
+      <c r="M42" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="L42" s="125" t="s">
+      <c r="N42" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="M42" s="107" t="s">
+      <c r="O42" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="293" t="str">
+      <c r="P42" s="293" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="338"/>
+      <c r="R42" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="S42" s="362"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="318"/>
       <c r="B43" s="215">
         <v>1901013</v>
       </c>
@@ -9970,26 +10983,36 @@
       <c r="H43" s="10">
         <v>1</v>
       </c>
-      <c r="I43" s="128"/>
-      <c r="J43" s="123" t="s">
+      <c r="I43" s="362">
+        <v>48</v>
+      </c>
+      <c r="J43" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" s="128"/>
+      <c r="L43" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="K43" s="124" t="s">
+      <c r="M43" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="L43" s="125" t="s">
+      <c r="N43" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="M43" s="107" t="s">
+      <c r="O43" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N43" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="338"/>
+      <c r="R43" s="362"/>
+      <c r="S43" s="362" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="318"/>
       <c r="B44" s="215">
         <v>1901014</v>
       </c>
@@ -10012,26 +11035,32 @@
       <c r="H44" s="10">
         <v>1</v>
       </c>
-      <c r="I44" s="128" t="s">
+      <c r="I44" s="362"/>
+      <c r="J44" s="362">
+        <v>16</v>
+      </c>
+      <c r="K44" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="123" t="s">
+      <c r="L44" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="K44" s="124" t="s">
+      <c r="M44" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="L44" s="125" t="s">
+      <c r="N44" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="M44" s="107"/>
-      <c r="N44" s="293" t="str">
+      <c r="O44" s="107"/>
+      <c r="P44" s="293" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="338"/>
+      <c r="R44" s="362"/>
+      <c r="S44" s="362"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" thickBot="1">
+      <c r="A45" s="318"/>
       <c r="B45" s="215"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
@@ -10042,26 +11071,30 @@
         <v>0</v>
       </c>
       <c r="H45" s="10"/>
-      <c r="I45" s="128" t="s">
+      <c r="I45" s="363"/>
+      <c r="J45" s="363"/>
+      <c r="K45" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="123" t="s">
+      <c r="L45" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="K45" s="124" t="s">
+      <c r="M45" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="L45" s="125" t="s">
+      <c r="N45" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="M45" s="107"/>
-      <c r="N45" t="str">
+      <c r="O45" s="107"/>
+      <c r="P45" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1">
-      <c r="A46" s="339"/>
+      <c r="R45" s="363"/>
+      <c r="S45" s="363"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" thickBot="1">
+      <c r="A46" s="319"/>
       <c r="B46" s="94"/>
       <c r="C46" s="139" t="s">
         <v>38</v>
@@ -10076,18 +11109,22 @@
         <v>0</v>
       </c>
       <c r="H46" s="10"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="229"/>
-      <c r="L46" s="230"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="293">
+      <c r="I46" s="292"/>
+      <c r="J46" s="292"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="228"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="230"/>
+      <c r="O46" s="195"/>
+      <c r="P46" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="338" t="s">
+      <c r="R46" s="292"/>
+      <c r="S46" s="292"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="318" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="210">
@@ -10112,29 +11149,33 @@
       <c r="H47" s="213">
         <v>1</v>
       </c>
-      <c r="I47" s="84"/>
-      <c r="J47" s="135" t="s">
+      <c r="I47" s="289"/>
+      <c r="J47" s="289"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="K47" s="103">
+      <c r="M47" s="103">
         <v>16</v>
       </c>
-      <c r="L47" s="103">
-        <v>1</v>
-      </c>
-      <c r="M47" s="105" t="s">
+      <c r="N47" s="103">
+        <v>1</v>
+      </c>
+      <c r="O47" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="338"/>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" s="289"/>
+      <c r="S47" s="289"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="318"/>
       <c r="B48" s="236">
         <v>1900103</v>
       </c>
@@ -10157,31 +11198,39 @@
       <c r="H48" s="237">
         <v>1</v>
       </c>
-      <c r="I48" s="128">
+      <c r="I48" s="362" t="s">
+        <v>276</v>
+      </c>
+      <c r="J48" s="362"/>
+      <c r="K48" s="128">
         <v>1905037</v>
       </c>
-      <c r="J48" s="123" t="s">
+      <c r="L48" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="K48" s="124">
+      <c r="M48" s="124">
         <v>48</v>
       </c>
-      <c r="L48" s="125">
+      <c r="N48" s="125">
         <v>3</v>
       </c>
-      <c r="M48" s="107" t="s">
+      <c r="O48" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="N48" s="293">
+      <c r="P48" s="293">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="338"/>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" s="362">
+        <v>48</v>
+      </c>
+      <c r="S48" s="362"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="318"/>
       <c r="B49" s="93">
         <v>1905033</v>
       </c>
@@ -10195,7 +11244,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G49" s="18">
         <f t="shared" si="0"/>
@@ -10204,30 +11253,38 @@
       <c r="H49" s="10">
         <v>1</v>
       </c>
-      <c r="I49" s="271">
+      <c r="I49" s="362">
+        <v>48</v>
+      </c>
+      <c r="J49" s="362"/>
+      <c r="K49" s="271">
         <v>1905038</v>
       </c>
-      <c r="J49" s="272" t="s">
+      <c r="L49" s="272" t="s">
         <v>174</v>
       </c>
-      <c r="K49" s="273">
+      <c r="M49" s="273">
         <v>16</v>
       </c>
-      <c r="L49" s="274">
-        <v>1</v>
-      </c>
-      <c r="M49" s="275" t="s">
+      <c r="N49" s="274">
+        <v>1</v>
+      </c>
+      <c r="O49" s="275" t="s">
         <v>151</v>
       </c>
-      <c r="N49" s="273">
+      <c r="P49" s="273">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O49" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="Q49" s="274">
+        <v>1</v>
+      </c>
+      <c r="R49" s="362"/>
+      <c r="S49" s="362">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="168"/>
       <c r="B50" s="93">
         <v>1905034</v>
@@ -10242,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G50" s="18">
         <f t="shared" si="0"/>
@@ -10251,28 +11308,36 @@
       <c r="H50" s="10">
         <v>1</v>
       </c>
-      <c r="I50" s="128">
+      <c r="I50" s="362"/>
+      <c r="J50" s="362">
+        <v>32</v>
+      </c>
+      <c r="K50" s="128">
         <v>1901036</v>
       </c>
-      <c r="J50" s="123" t="s">
+      <c r="L50" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="K50" s="124">
+      <c r="M50" s="124">
         <v>32</v>
       </c>
-      <c r="L50" s="125">
+      <c r="N50" s="125">
         <v>2</v>
       </c>
-      <c r="M50" s="107"/>
-      <c r="N50" s="293">
+      <c r="O50" s="107"/>
+      <c r="P50" s="293">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50" s="362">
+        <v>32</v>
+      </c>
+      <c r="S50" s="362"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="168"/>
       <c r="B51" s="206"/>
       <c r="C51" s="207"/>
@@ -10284,28 +11349,34 @@
         <v>0</v>
       </c>
       <c r="H51" s="10"/>
-      <c r="I51" s="128">
+      <c r="I51" s="362"/>
+      <c r="J51" s="362"/>
+      <c r="K51" s="128">
         <v>1904020</v>
       </c>
-      <c r="J51" s="123" t="s">
+      <c r="L51" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="K51" s="124">
+      <c r="M51" s="124">
         <v>32</v>
       </c>
-      <c r="L51" s="125">
+      <c r="N51" s="125">
         <v>2</v>
       </c>
-      <c r="M51" s="107"/>
-      <c r="N51">
+      <c r="O51" s="107"/>
+      <c r="P51">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51" s="362">
+        <v>32</v>
+      </c>
+      <c r="S51" s="362"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="168"/>
       <c r="B52" s="206"/>
       <c r="C52" s="207"/>
@@ -10317,28 +11388,34 @@
         <v>0</v>
       </c>
       <c r="H52" s="10"/>
-      <c r="I52" s="128">
+      <c r="I52" s="362"/>
+      <c r="J52" s="362"/>
+      <c r="K52" s="128">
         <v>1904021</v>
       </c>
-      <c r="J52" s="123" t="s">
+      <c r="L52" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="K52" s="124">
+      <c r="M52" s="124">
         <v>32</v>
       </c>
-      <c r="L52" s="125">
-        <v>1</v>
-      </c>
-      <c r="M52" s="107"/>
-      <c r="N52" s="293">
+      <c r="N52" s="125">
+        <v>1</v>
+      </c>
+      <c r="O52" s="107"/>
+      <c r="P52" s="293">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52" s="362"/>
+      <c r="S52" s="362">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15" thickBot="1">
       <c r="A53" s="168"/>
       <c r="B53" s="87"/>
       <c r="C53" s="21"/>
@@ -10350,29 +11427,35 @@
         <v>0</v>
       </c>
       <c r="H53" s="10"/>
-      <c r="I53" s="271">
+      <c r="I53" s="365"/>
+      <c r="J53" s="365"/>
+      <c r="K53" s="271">
         <v>199641</v>
       </c>
-      <c r="J53" s="272" t="s">
+      <c r="L53" s="272" t="s">
         <v>175</v>
       </c>
-      <c r="K53" s="273" t="s">
+      <c r="M53" s="273" t="s">
         <v>197</v>
       </c>
-      <c r="L53" s="274">
+      <c r="N53" s="274">
         <v>2</v>
       </c>
-      <c r="M53" s="275" t="s">
+      <c r="O53" s="275" t="s">
         <v>171</v>
       </c>
-      <c r="N53" s="273">
+      <c r="P53" s="273">
         <v>80</v>
       </c>
-      <c r="O53" s="274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1">
+      <c r="Q53" s="274">
+        <v>1</v>
+      </c>
+      <c r="R53" s="365"/>
+      <c r="S53" s="365">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15" thickBot="1">
       <c r="A54" s="168"/>
       <c r="B54" s="245"/>
       <c r="C54" s="246"/>
@@ -10384,30 +11467,36 @@
         <v>0</v>
       </c>
       <c r="H54" s="10"/>
-      <c r="I54" s="93">
+      <c r="I54" s="365"/>
+      <c r="J54" s="365"/>
+      <c r="K54" s="93">
         <v>199783</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="L54" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="K54" s="9">
+      <c r="M54" s="9">
         <v>48</v>
       </c>
-      <c r="L54" s="10">
+      <c r="N54" s="10">
         <v>3</v>
       </c>
-      <c r="M54" s="105" t="s">
+      <c r="O54" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N54" s="293">
+      <c r="P54" s="293">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54" s="365">
+        <v>48</v>
+      </c>
+      <c r="S54" s="365"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" thickBot="1">
       <c r="A55" s="168"/>
       <c r="B55" s="245"/>
       <c r="C55" s="246"/>
@@ -10419,30 +11508,36 @@
         <v>0</v>
       </c>
       <c r="H55" s="10"/>
-      <c r="I55" s="93">
+      <c r="I55" s="363"/>
+      <c r="J55" s="363"/>
+      <c r="K55" s="93">
         <v>199784</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="L55" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="K55" s="9">
+      <c r="M55" s="9">
         <v>32</v>
       </c>
-      <c r="L55" s="10">
-        <v>1</v>
-      </c>
-      <c r="M55" s="105" t="s">
+      <c r="N55" s="10">
+        <v>1</v>
+      </c>
+      <c r="O55" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1">
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55" s="363"/>
+      <c r="S55" s="363">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15" thickBot="1">
       <c r="A56" s="169"/>
       <c r="B56" s="94"/>
       <c r="C56" s="139" t="s">
@@ -10458,161 +11553,177 @@
         <v>0</v>
       </c>
       <c r="H56" s="10"/>
-      <c r="I56" s="194" t="s">
+      <c r="I56" s="292"/>
+      <c r="J56" s="292"/>
+      <c r="K56" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="J56" s="42" t="s">
+      <c r="L56" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="K56" s="43" t="s">
+      <c r="M56" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="L56" s="43" t="s">
+      <c r="N56" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="M56" s="20"/>
-      <c r="N56" s="293" t="str">
+      <c r="O56" s="20"/>
+      <c r="P56" s="293">
+        <v>0</v>
+      </c>
+      <c r="R56" s="292"/>
+      <c r="S56" s="292"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" thickBot="1">
+      <c r="A57" s="317" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="255">
+        <v>1900104</v>
+      </c>
+      <c r="C57" s="256" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="257" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="258">
+        <v>3</v>
+      </c>
+      <c r="F57" s="259" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="257">
+        <v>160</v>
+      </c>
+      <c r="H57" s="258">
+        <v>1</v>
+      </c>
+      <c r="I57" s="289"/>
+      <c r="J57" s="289"/>
+      <c r="K57" s="234"/>
+      <c r="L57" s="135" t="s">
+        <v>281</v>
+      </c>
+      <c r="M57" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="N57" s="114" t="s">
+        <v>279</v>
+      </c>
+      <c r="O57" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>276</v>
+      </c>
+      <c r="R57" s="289"/>
+      <c r="S57" s="289"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="318"/>
+      <c r="B58" s="236">
+        <v>1900105</v>
+      </c>
+      <c r="C58" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="237">
+        <v>1</v>
+      </c>
+      <c r="F58" s="238" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="148">
+        <v>40</v>
+      </c>
+      <c r="H58" s="237">
+        <v>1</v>
+      </c>
+      <c r="I58" s="290"/>
+      <c r="J58" s="290"/>
+      <c r="K58" s="128">
+        <v>1905050</v>
+      </c>
+      <c r="L58" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="M58" s="294">
+        <v>32</v>
+      </c>
+      <c r="N58" s="294">
+        <v>2</v>
+      </c>
+      <c r="O58" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" s="18">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>1</v>
+      </c>
+      <c r="R58" s="290">
+        <v>32</v>
+      </c>
+      <c r="S58" s="290"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="318"/>
+      <c r="B59" s="236">
+        <v>1900107</v>
+      </c>
+      <c r="C59" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="237">
+        <v>1</v>
+      </c>
+      <c r="F59" s="238" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="148">
+        <v>40</v>
+      </c>
+      <c r="H59" s="237">
+        <v>1</v>
+      </c>
+      <c r="I59" s="289"/>
+      <c r="J59" s="289"/>
+      <c r="K59" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="N59" s="253" t="s">
+        <v>153</v>
+      </c>
+      <c r="O59" s="254" t="s">
+        <v>83</v>
+      </c>
+      <c r="P59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1">
-      <c r="A57" s="337" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="255">
-        <v>1900104</v>
-      </c>
-      <c r="C57" s="256" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="257" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57" s="258">
-        <v>3</v>
-      </c>
-      <c r="F57" s="259" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="257">
-        <v>160</v>
-      </c>
-      <c r="H57" s="258">
-        <v>1</v>
-      </c>
-      <c r="I57" s="234"/>
-      <c r="J57" s="135" t="s">
-        <v>80</v>
-      </c>
-      <c r="K57" s="103">
-        <v>16</v>
-      </c>
-      <c r="L57" s="114">
-        <v>1</v>
-      </c>
-      <c r="M57" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="338"/>
-      <c r="B58" s="236">
-        <v>1900105</v>
-      </c>
-      <c r="C58" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="148" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="237">
-        <v>1</v>
-      </c>
-      <c r="F58" s="238" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="148">
-        <v>40</v>
-      </c>
-      <c r="H58" s="237">
-        <v>1</v>
-      </c>
-      <c r="I58" s="128">
-        <v>1905050</v>
-      </c>
-      <c r="J58" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K58" s="294">
-        <v>32</v>
-      </c>
-      <c r="L58" s="294">
-        <v>2</v>
-      </c>
-      <c r="M58" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="N58" s="18">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="338"/>
-      <c r="B59" s="236">
-        <v>1900107</v>
-      </c>
-      <c r="C59" s="149" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="237">
-        <v>1</v>
-      </c>
-      <c r="F59" s="238" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="148">
-        <v>40</v>
-      </c>
-      <c r="H59" s="237">
-        <v>1</v>
-      </c>
-      <c r="I59" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="J59" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="K59" s="253" t="s">
-        <v>153</v>
-      </c>
-      <c r="L59" s="253" t="s">
-        <v>153</v>
-      </c>
-      <c r="M59" s="254" t="s">
-        <v>83</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="338"/>
+      <c r="R59" s="289"/>
+      <c r="S59" s="289"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="318"/>
       <c r="B60" s="260"/>
       <c r="C60" s="151" t="s">
         <v>134</v>
@@ -10632,70 +11743,78 @@
       <c r="H60" s="261">
         <v>1</v>
       </c>
-      <c r="I60" s="128" t="s">
+      <c r="I60" s="366"/>
+      <c r="J60" s="366"/>
+      <c r="K60" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J60" s="41" t="s">
+      <c r="L60" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K60" s="253" t="s">
+      <c r="M60" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="L60" s="253" t="s">
+      <c r="N60" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="M60" s="254" t="s">
+      <c r="O60" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="N60" s="293" t="str">
+      <c r="P60" s="293" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="338"/>
+      <c r="R60" s="366"/>
+      <c r="S60" s="366"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="318"/>
       <c r="B61" s="128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="D61" s="253" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="253" t="s">
-        <v>261</v>
-      </c>
       <c r="E61" s="253" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F61" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G61" s="18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="I61" s="128" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" s="366"/>
+      <c r="J61" s="366"/>
+      <c r="K61" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J61" s="41" t="s">
+      <c r="L61" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K61" s="253" t="s">
+      <c r="M61" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="L61" s="253" t="s">
+      <c r="N61" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="M61" s="254"/>
-      <c r="N61" t="str">
+      <c r="O61" s="254"/>
+      <c r="P61" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="338"/>
+      <c r="R61" s="366"/>
+      <c r="S61" s="366"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="318"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
         <v>85</v>
@@ -10714,18 +11833,22 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H62" s="10"/>
-      <c r="I62" s="206"/>
-      <c r="J62" s="266"/>
-      <c r="K62" s="208"/>
-      <c r="L62" s="208"/>
-      <c r="M62" s="209"/>
-      <c r="N62" s="293">
+      <c r="I62" s="366"/>
+      <c r="J62" s="366"/>
+      <c r="K62" s="206"/>
+      <c r="L62" s="266"/>
+      <c r="M62" s="208"/>
+      <c r="N62" s="208"/>
+      <c r="O62" s="209"/>
+      <c r="P62" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1">
-      <c r="A63" s="338"/>
+      <c r="R62" s="366"/>
+      <c r="S62" s="366"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" thickBot="1">
+      <c r="A63" s="318"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
         <v>83</v>
@@ -10744,18 +11867,22 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H63" s="10"/>
-      <c r="I63" s="206"/>
-      <c r="J63" s="266"/>
-      <c r="K63" s="208"/>
-      <c r="L63" s="208"/>
-      <c r="M63" s="209"/>
-      <c r="N63">
+      <c r="I63" s="367"/>
+      <c r="J63" s="367"/>
+      <c r="K63" s="206"/>
+      <c r="L63" s="266"/>
+      <c r="M63" s="208"/>
+      <c r="N63" s="208"/>
+      <c r="O63" s="209"/>
+      <c r="P63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1">
-      <c r="A64" s="339"/>
+      <c r="R63" s="367"/>
+      <c r="S63" s="367"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" thickBot="1">
+      <c r="A64" s="319"/>
       <c r="B64" s="94"/>
       <c r="C64" s="263"/>
       <c r="D64" s="36"/>
@@ -10766,30 +11893,33 @@
         <v>0</v>
       </c>
       <c r="H64" s="10"/>
-      <c r="I64" s="194">
-        <v>199650</v>
-      </c>
-      <c r="J64" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="K64" s="43">
-        <v>24</v>
-      </c>
-      <c r="L64" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="M64" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="N64" s="293">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="I64" s="290"/>
+      <c r="J64" s="290"/>
+      <c r="K64" s="194" t="s">
+        <v>275</v>
+      </c>
+      <c r="L64" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="M64" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="N64" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="O64" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="P64" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>276</v>
+      </c>
+      <c r="R64" s="290"/>
+      <c r="S64" s="290"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" thickBot="1">
       <c r="A65" s="168" t="s">
         <v>47</v>
       </c>
@@ -10814,26 +11944,30 @@
       <c r="H65" s="182">
         <v>1</v>
       </c>
-      <c r="I65" s="120"/>
-      <c r="J65" s="44" t="s">
+      <c r="I65" s="291"/>
+      <c r="J65" s="291"/>
+      <c r="K65" s="120"/>
+      <c r="L65" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="K65" s="45"/>
-      <c r="L65" s="46">
+      <c r="M65" s="45"/>
+      <c r="N65" s="46">
         <v>5</v>
       </c>
-      <c r="M65" s="105" t="s">
+      <c r="O65" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1">
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65" s="291"/>
+      <c r="S65" s="291"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" thickBot="1">
       <c r="A66" s="47"/>
       <c r="B66" s="183"/>
       <c r="C66" s="184" t="s">
@@ -10854,17 +11988,31 @@
       <c r="H66" s="186">
         <v>1</v>
       </c>
-      <c r="I66" s="119"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="270"/>
-      <c r="N66" s="293">
+      <c r="I66" s="287">
+        <f>SUM(I4:I65)</f>
+        <v>646</v>
+      </c>
+      <c r="J66" s="287">
+        <f>SUM(J4:J65)</f>
+        <v>280</v>
+      </c>
+      <c r="K66" s="119"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="270"/>
+      <c r="P66" s="293">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="15" thickBot="1">
+      <c r="R66" s="287" t="s">
+        <v>275</v>
+      </c>
+      <c r="S66" s="287" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15" thickBot="1">
       <c r="A67" s="48"/>
       <c r="B67" s="49"/>
       <c r="C67" s="50"/>
@@ -10885,71 +12033,128 @@
         <f>SUM(H3:H66)</f>
         <v>46</v>
       </c>
-      <c r="I67" s="49"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="53">
-        <f>SUM(L4:L66)</f>
-        <v>79</v>
-      </c>
-      <c r="M67" s="54"/>
-      <c r="N67" s="293">
-        <f>N65+N64+N58+N57+N55+N54+N53+N52+N51+N50+N49+N48+N47+N40+N39+N38+N37+N35+N33+N32+N31+N30+N29+N28+N26+N25+N24+N23+N22+N21+N15+N13+N4</f>
-        <v>1576</v>
-      </c>
-      <c r="O67">
-        <f>SUM(O3:O66)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="53">
+        <f>SUM(N4:N66)</f>
+        <v>74.5</v>
+      </c>
+      <c r="O67" s="54"/>
+      <c r="P67" s="293">
+        <f>P65+P64+P58+P57+P55+P54+P53+P52+P51+P50+P49+P48+P47+P40+P39+P38+P37+P35+P33+P32+P31+P30+P29+P28+P26+P25+P24+P23+P22+P21+P15+P13+P4</f>
+        <v>1504</v>
+      </c>
+      <c r="Q67">
+        <f>SUM(Q3:Q66)</f>
+        <v>27</v>
+      </c>
+      <c r="R67" s="56">
+        <f>SUM(Q4:R66)</f>
+        <v>769</v>
+      </c>
+      <c r="S67" s="56">
+        <f>SUM(S4:S65)</f>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
       <c r="G68" s="56"/>
       <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="57"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
       <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="58"/>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="L68" s="57"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="58"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="60"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="59"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
+      <c r="B69" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="60">
+        <f>I9+I12+I19+I20+I21+I25+I43</f>
+        <v>326</v>
+      </c>
+      <c r="D69" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="60">
+        <f>I17+I27+I33+I39+I41+I49</f>
+        <v>320</v>
+      </c>
       <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="61"/>
+      <c r="G69" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" s="60">
+        <f>R67</f>
+        <v>769</v>
+      </c>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
       <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="62"/>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="L69" s="61"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="62"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="63"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
+      <c r="B70" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="64">
+        <f>J12+J26+J44</f>
+        <v>80</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="64">
+        <f>J50+J42+J40+J34+J28+J17</f>
+        <v>200</v>
+      </c>
       <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
+      <c r="G70" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H70" s="64">
+        <f>S67</f>
+        <v>824</v>
+      </c>
       <c r="I70" s="64"/>
-      <c r="J70" s="65"/>
+      <c r="J70" s="64"/>
       <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="66"/>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="L70" s="65"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="O70" s="66"/>
+      <c r="P70" t="s">
+        <v>283</v>
+      </c>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="63"/>
       <c r="B71" s="64"/>
       <c r="C71" s="73"/>
@@ -10959,11 +12164,15 @@
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
       <c r="I71" s="64"/>
-      <c r="J71" s="65"/>
+      <c r="J71" s="64"/>
       <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-    </row>
-    <row r="72" spans="1:15" ht="15" thickBot="1">
+      <c r="L71" s="65"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+    </row>
+    <row r="72" spans="1:19" ht="15" thickBot="1">
       <c r="A72" s="63"/>
       <c r="B72" s="64"/>
       <c r="C72" s="73"/>
@@ -10975,38 +12184,46 @@
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
-      <c r="I72" s="64">
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64">
         <f>B79*0.4</f>
         <v>52.6</v>
       </c>
-      <c r="J72" s="65"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="L72" s="65"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="R72"/>
+      <c r="S72"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="141" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="167"/>
-      <c r="C73" s="328" t="s">
+      <c r="C73" s="320" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="329"/>
-      <c r="E73" s="330"/>
-      <c r="F73" s="328" t="s">
-        <v>263</v>
-      </c>
-      <c r="G73" s="329"/>
-      <c r="H73" s="329"/>
-      <c r="I73" s="329"/>
-      <c r="J73" s="330"/>
-      <c r="K73" s="331" t="s">
+      <c r="D73" s="321"/>
+      <c r="E73" s="322"/>
+      <c r="F73" s="320" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" s="321"/>
+      <c r="H73" s="321"/>
+      <c r="I73" s="321"/>
+      <c r="J73" s="321"/>
+      <c r="K73" s="321"/>
+      <c r="L73" s="322"/>
+      <c r="M73" s="323" t="s">
         <v>116</v>
       </c>
-      <c r="L73" s="331"/>
-      <c r="M73" s="332"/>
-    </row>
-    <row r="74" spans="1:15" ht="26">
+      <c r="N73" s="323"/>
+      <c r="O73" s="324"/>
+      <c r="R73" s="145"/>
+      <c r="S73" s="145"/>
+    </row>
+    <row r="74" spans="1:19" ht="26">
       <c r="A74" s="163">
         <v>1</v>
       </c>
@@ -11029,24 +12246,28 @@
       </c>
       <c r="G74" s="145"/>
       <c r="H74" s="145"/>
-      <c r="I74" s="146">
+      <c r="I74" s="149"/>
+      <c r="J74" s="149"/>
+      <c r="K74" s="146">
         <f>SUM(D49:D50,D61,D69)</f>
         <v>80</v>
       </c>
-      <c r="J74" s="147">
+      <c r="L74" s="147">
         <v>18</v>
       </c>
-      <c r="K74" s="333" t="s">
+      <c r="M74" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="L74" s="334"/>
-      <c r="M74" s="335"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="320">
+      <c r="N74" s="326"/>
+      <c r="O74" s="327"/>
+      <c r="R74" s="149"/>
+      <c r="S74" s="149"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="328">
         <v>2</v>
       </c>
-      <c r="B75" s="336" t="s">
+      <c r="B75" s="329" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="148"/>
@@ -11057,18 +12278,22 @@
       </c>
       <c r="G75" s="149"/>
       <c r="H75" s="149"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="150">
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="150">
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="K75" s="324"/>
-      <c r="L75" s="324"/>
-      <c r="M75" s="325"/>
-    </row>
-    <row r="76" spans="1:15" ht="26">
-      <c r="A76" s="320"/>
-      <c r="B76" s="321"/>
+      <c r="M75" s="331"/>
+      <c r="N75" s="331"/>
+      <c r="O75" s="332"/>
+      <c r="R75" s="153"/>
+      <c r="S75" s="153"/>
+    </row>
+    <row r="76" spans="1:19" ht="26">
+      <c r="A76" s="328"/>
+      <c r="B76" s="330"/>
       <c r="C76" s="151"/>
       <c r="D76" s="152"/>
       <c r="E76" s="152"/>
@@ -11077,19 +12302,23 @@
       </c>
       <c r="G76" s="153"/>
       <c r="H76" s="153"/>
-      <c r="I76" s="152"/>
-      <c r="J76" s="152">
+      <c r="I76" s="157"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="152"/>
+      <c r="L76" s="152">
         <v>5</v>
       </c>
-      <c r="K76" s="324"/>
-      <c r="L76" s="324"/>
-      <c r="M76" s="325"/>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="320">
+      <c r="M76" s="331"/>
+      <c r="N76" s="331"/>
+      <c r="O76" s="332"/>
+      <c r="R76" s="157"/>
+      <c r="S76" s="157"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="328">
         <v>3</v>
       </c>
-      <c r="B77" s="321" t="s">
+      <c r="B77" s="330" t="s">
         <v>162</v>
       </c>
       <c r="C77" s="154" t="s">
@@ -11097,28 +12326,32 @@
       </c>
       <c r="D77" s="155"/>
       <c r="E77" s="156">
-        <f>SUM(E9+E10+E11+E19+E20+E21+E33+E34+E12+E17+E25+E26+E27+E28+L30+E49+E50+E39+E40+E41+E42+E43+E44+L54+L55)</f>
+        <f>SUM(E9+E10+E11+E19+E20+E21+E33+E34+E12+E17+E25+E26+E27+E28+N30+E49+E50+E39+E40+E41+E42+E43+E44+N54+N55)</f>
         <v>54.5</v>
       </c>
       <c r="F77" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="G77" s="355">
-        <f>I72-J74-J75-J76</f>
+      <c r="G77" s="305">
+        <f>K72-L74-L75-L76</f>
         <v>19.600000000000001</v>
       </c>
       <c r="H77" s="157"/>
-      <c r="I77" s="158"/>
-      <c r="J77" s="158">
+      <c r="I77" s="159"/>
+      <c r="J77" s="159"/>
+      <c r="K77" s="158"/>
+      <c r="L77" s="158">
         <v>20</v>
       </c>
-      <c r="K77" s="322"/>
-      <c r="L77" s="322"/>
-      <c r="M77" s="323"/>
-    </row>
-    <row r="78" spans="1:15" ht="26">
-      <c r="A78" s="320"/>
-      <c r="B78" s="321"/>
+      <c r="M77" s="333"/>
+      <c r="N77" s="333"/>
+      <c r="O77" s="334"/>
+      <c r="R77" s="159"/>
+      <c r="S77" s="159"/>
+    </row>
+    <row r="78" spans="1:19" ht="27" thickBot="1">
+      <c r="A78" s="328"/>
+      <c r="B78" s="330"/>
       <c r="C78" s="154" t="s">
         <v>126</v>
       </c>
@@ -11129,18 +12362,22 @@
       </c>
       <c r="G78" s="159"/>
       <c r="H78" s="159"/>
-      <c r="I78" s="164"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="324"/>
-      <c r="L78" s="324"/>
-      <c r="M78" s="325"/>
-    </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1">
+      <c r="I78" s="301"/>
+      <c r="J78" s="301"/>
+      <c r="K78" s="164"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="331"/>
+      <c r="N78" s="331"/>
+      <c r="O78" s="332"/>
+      <c r="R78" s="301"/>
+      <c r="S78" s="301"/>
+    </row>
+    <row r="79" spans="1:19" ht="15" thickBot="1">
       <c r="A79" s="160" t="s">
         <v>53</v>
       </c>
       <c r="B79" s="161">
-        <f>E79+J74+J75+J76+J77</f>
+        <f>E79+L74+L75+L76+L77</f>
         <v>131.5</v>
       </c>
       <c r="C79" s="166">
@@ -11157,16 +12394,20 @@
       </c>
       <c r="G79" s="279"/>
       <c r="H79" s="279"/>
-      <c r="I79" s="166"/>
-      <c r="J79" s="161">
-        <f>SUM(J74:J78)</f>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="166"/>
+      <c r="L79" s="161">
+        <f>SUM(L74:L78)</f>
         <v>53</v>
       </c>
-      <c r="K79" s="326"/>
-      <c r="L79" s="326"/>
-      <c r="M79" s="327"/>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="M79" s="335"/>
+      <c r="N79" s="335"/>
+      <c r="O79" s="336"/>
+      <c r="R79" s="64"/>
+      <c r="S79" s="64"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="63"/>
       <c r="B80" s="64"/>
       <c r="C80" s="73"/>
@@ -11176,12 +12417,16 @@
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
       <c r="I80" s="64"/>
-      <c r="J80" s="65"/>
+      <c r="J80" s="64"/>
       <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
+      <c r="L80" s="65"/>
       <c r="M80" s="64"/>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="64"/>
+      <c r="O80" s="64"/>
+      <c r="R80" s="64"/>
+      <c r="S80" s="64"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" thickBot="1">
       <c r="A81" s="63"/>
       <c r="B81" s="64"/>
       <c r="C81" s="73"/>
@@ -11192,17 +12437,21 @@
       </c>
       <c r="G81" s="64"/>
       <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="65" t="s">
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="64" t="s">
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+      <c r="O81" s="64" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1">
+      <c r="R81"/>
+      <c r="S81"/>
+    </row>
+    <row r="82" spans="1:19" ht="15" thickBot="1">
       <c r="A82" s="63"/>
       <c r="B82" s="64"/>
       <c r="C82" s="73"/>
@@ -11211,133 +12460,153 @@
       <c r="F82" s="65"/>
       <c r="G82" s="65"/>
       <c r="H82" s="65"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="65"/>
+      <c r="I82" s="299"/>
+      <c r="J82" s="299"/>
       <c r="K82" s="64"/>
-      <c r="L82" s="64"/>
-      <c r="M82"/>
-    </row>
-    <row r="83" spans="1:13" ht="56">
-      <c r="A83" s="301"/>
-      <c r="B83" s="307"/>
-      <c r="C83" s="307"/>
-      <c r="D83" s="307"/>
-      <c r="E83" s="307"/>
-      <c r="F83" s="302"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="64"/>
+      <c r="N82" s="64"/>
+      <c r="O82"/>
+      <c r="R82" s="299"/>
+      <c r="S82" s="299"/>
+    </row>
+    <row r="83" spans="1:19" ht="57" thickBot="1">
+      <c r="A83" s="337"/>
+      <c r="B83" s="338"/>
+      <c r="C83" s="338"/>
+      <c r="D83" s="338"/>
+      <c r="E83" s="338"/>
+      <c r="F83" s="339"/>
       <c r="G83" s="295" t="s">
         <v>200</v>
       </c>
-      <c r="H83" s="318" t="s">
+      <c r="H83" s="343" t="s">
         <v>202</v>
       </c>
-      <c r="I83" s="295" t="s">
+      <c r="I83" s="300"/>
+      <c r="J83" s="300"/>
+      <c r="K83" s="295" t="s">
         <v>203</v>
       </c>
-      <c r="J83" s="318" t="s">
+      <c r="L83" s="343" t="s">
         <v>6</v>
       </c>
-      <c r="K83" s="295" t="s">
+      <c r="M83" s="295" t="s">
         <v>205</v>
       </c>
-      <c r="L83" s="318" t="s">
+      <c r="N83" s="343" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="29" thickBot="1">
-      <c r="A84" s="315" t="s">
+      <c r="R83" s="300"/>
+      <c r="S83" s="300"/>
+    </row>
+    <row r="84" spans="1:19" ht="29" thickBot="1">
+      <c r="A84" s="340" t="s">
         <v>199</v>
       </c>
-      <c r="B84" s="316"/>
-      <c r="C84" s="316"/>
-      <c r="D84" s="316"/>
-      <c r="E84" s="316"/>
-      <c r="F84" s="317"/>
+      <c r="B84" s="341"/>
+      <c r="C84" s="341"/>
+      <c r="D84" s="341"/>
+      <c r="E84" s="341"/>
+      <c r="F84" s="342"/>
       <c r="G84" s="297" t="s">
         <v>201</v>
       </c>
-      <c r="H84" s="319"/>
-      <c r="I84" s="297" t="s">
-        <v>204</v>
-      </c>
-      <c r="J84" s="319"/>
+      <c r="H84" s="344"/>
+      <c r="I84" s="300"/>
+      <c r="J84" s="300"/>
       <c r="K84" s="297" t="s">
         <v>204</v>
       </c>
-      <c r="L84" s="319"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1">
-      <c r="A85" s="301" t="s">
+      <c r="L84" s="344"/>
+      <c r="M84" s="297" t="s">
+        <v>204</v>
+      </c>
+      <c r="N84" s="344"/>
+      <c r="R84" s="300"/>
+      <c r="S84" s="300"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" thickBot="1">
+      <c r="A85" s="337" t="s">
         <v>207</v>
       </c>
-      <c r="B85" s="302"/>
-      <c r="C85" s="298" t="s">
+      <c r="B85" s="339"/>
+      <c r="C85" s="349" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="300"/>
-      <c r="E85" s="300"/>
-      <c r="F85" s="299"/>
+      <c r="D85" s="350"/>
+      <c r="E85" s="350"/>
+      <c r="F85" s="351"/>
       <c r="G85" s="297">
         <v>7</v>
       </c>
       <c r="H85" s="297">
         <v>432</v>
       </c>
-      <c r="I85" s="297">
-        <f>H85/(J77*16+G67)</f>
+      <c r="I85" s="300"/>
+      <c r="J85" s="300"/>
+      <c r="K85" s="297">
+        <f>H85/(L77*16+G67)</f>
         <v>0.15373665480427046</v>
       </c>
-      <c r="J85" s="297">
+      <c r="L85" s="297">
         <v>24</v>
       </c>
-      <c r="K85" s="297">
-        <f>J85/B79</f>
+      <c r="M85" s="297">
+        <f>L85/B79</f>
         <v>0.18250950570342206</v>
       </c>
-      <c r="L85" s="297"/>
-    </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1">
-      <c r="A86" s="303"/>
-      <c r="B86" s="304"/>
-      <c r="C86" s="301" t="s">
+      <c r="N85" s="297"/>
+      <c r="R85" s="300"/>
+      <c r="S85" s="300"/>
+    </row>
+    <row r="86" spans="1:19" ht="15" thickBot="1">
+      <c r="A86" s="345"/>
+      <c r="B86" s="346"/>
+      <c r="C86" s="337" t="s">
         <v>209</v>
       </c>
-      <c r="D86" s="302"/>
-      <c r="E86" s="298" t="s">
+      <c r="D86" s="339"/>
+      <c r="E86" s="349" t="s">
         <v>210</v>
       </c>
-      <c r="F86" s="299"/>
-      <c r="G86" s="353">
+      <c r="F86" s="351"/>
+      <c r="G86" s="304">
         <f>SUM(H10+H11+H12+H9+H20+H21+H19+H25+H26+H43+H44)</f>
         <v>11</v>
       </c>
-      <c r="H86" s="352">
-        <f>G10+G11+G12+G9+G20+G21+G19+G25+G26+G43+G44</f>
+      <c r="H86" s="303">
+        <f>G9+G12+G19+G20+G21+G25+G26+G43+G44</f>
         <v>406</v>
       </c>
-      <c r="I86" s="297">
-        <f>H86/(J77*16+G67)</f>
+      <c r="I86" s="300"/>
+      <c r="J86" s="300"/>
+      <c r="K86" s="297">
+        <f>H86/(L77*16+G67)</f>
         <v>0.14448398576512456</v>
       </c>
-      <c r="J86" s="352">
-        <f>E10+E11+E12+E13+E19+E25+E26+E43+E44</f>
-        <v>16.5</v>
-      </c>
-      <c r="K86" s="297">
-        <f>J86/B79</f>
-        <v>0.12547528517110265</v>
-      </c>
-      <c r="L86" s="297"/>
-    </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1">
-      <c r="A87" s="305"/>
-      <c r="B87" s="306"/>
-      <c r="C87" s="305"/>
-      <c r="D87" s="306"/>
-      <c r="E87" s="298" t="s">
+      <c r="L86" s="303">
+        <f>E10+E9+E11+E12+E20+E21+E25+E19+E25+E26+E43+E44</f>
+        <v>24.5</v>
+      </c>
+      <c r="M86" s="297">
+        <f>L86/B79</f>
+        <v>0.18631178707224336</v>
+      </c>
+      <c r="N86" s="297"/>
+      <c r="R86" s="300"/>
+      <c r="S86" s="300"/>
+    </row>
+    <row r="87" spans="1:19" ht="15" thickBot="1">
+      <c r="A87" s="347"/>
+      <c r="B87" s="348"/>
+      <c r="C87" s="347"/>
+      <c r="D87" s="348"/>
+      <c r="E87" s="349" t="s">
         <v>211</v>
       </c>
-      <c r="F87" s="299"/>
-      <c r="G87" s="353">
+      <c r="F87" s="351"/>
+      <c r="G87" s="304">
         <f>SUM(H17+H27+H28+H33+H34+H39+H40+H41+H42+H49+H50)</f>
         <v>11</v>
       </c>
@@ -11345,89 +12614,101 @@
         <f>G17+G27+G28+G33+G34+G39+G40+G41+G42+G49+G50</f>
         <v>520</v>
       </c>
-      <c r="I87" s="297">
-        <f>H87/(J77*16+G67)</f>
+      <c r="I87" s="300"/>
+      <c r="J87" s="300"/>
+      <c r="K87" s="297">
+        <f>H87/(L77*16+G67)</f>
         <v>0.18505338078291814</v>
       </c>
-      <c r="J87" s="353">
+      <c r="L87" s="304">
         <f>E18+E27+E28+E29+E33+E34+E39+E40+E41+E42+E50+E49</f>
         <v>26</v>
       </c>
-      <c r="K87" s="297">
-        <f>J87/B79</f>
+      <c r="M87" s="297">
+        <f>L87/B79</f>
         <v>0.19771863117870722</v>
       </c>
-      <c r="L87" s="297"/>
-    </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1">
-      <c r="A88" s="301" t="s">
+      <c r="N87" s="297"/>
+      <c r="R87" s="300"/>
+      <c r="S87" s="300"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" thickBot="1">
+      <c r="A88" s="337" t="s">
         <v>212</v>
       </c>
-      <c r="B88" s="302"/>
-      <c r="C88" s="298" t="s">
+      <c r="B88" s="339"/>
+      <c r="C88" s="349" t="s">
         <v>213</v>
       </c>
-      <c r="D88" s="300"/>
-      <c r="E88" s="300"/>
-      <c r="F88" s="299"/>
+      <c r="D88" s="350"/>
+      <c r="E88" s="350"/>
+      <c r="F88" s="351"/>
       <c r="G88" s="297">
-        <f>O67</f>
-        <v>30</v>
+        <f>Q67</f>
+        <v>27</v>
       </c>
       <c r="H88" s="297">
+        <f>R67+S67</f>
+        <v>1593</v>
+      </c>
+      <c r="I88" s="300"/>
+      <c r="J88" s="300"/>
+      <c r="K88" s="297">
+        <f>H88/(L77*16+G67)</f>
+        <v>0.56690391459074729</v>
+      </c>
+      <c r="L88" s="304">
         <f>N67</f>
-        <v>1576</v>
-      </c>
-      <c r="I88" s="297">
-        <f>H88/(J77*16+G67)</f>
-        <v>0.56085409252669038</v>
-      </c>
-      <c r="J88" s="353">
-        <f>L67</f>
-        <v>79</v>
-      </c>
-      <c r="K88" s="297">
-        <f>J88/B79</f>
-        <v>0.60076045627376429</v>
-      </c>
-      <c r="L88" s="297"/>
-    </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1">
-      <c r="A89" s="303"/>
-      <c r="B89" s="304"/>
-      <c r="C89" s="298" t="s">
+        <v>74.5</v>
+      </c>
+      <c r="M88" s="297">
+        <f>L88/B79</f>
+        <v>0.56653992395437258</v>
+      </c>
+      <c r="N88" s="297"/>
+      <c r="R88" s="300"/>
+      <c r="S88" s="300"/>
+    </row>
+    <row r="89" spans="1:19" ht="15" thickBot="1">
+      <c r="A89" s="345"/>
+      <c r="B89" s="346"/>
+      <c r="C89" s="349" t="s">
         <v>214</v>
       </c>
-      <c r="D89" s="300"/>
-      <c r="E89" s="300"/>
-      <c r="F89" s="299"/>
+      <c r="D89" s="350"/>
+      <c r="E89" s="350"/>
+      <c r="F89" s="351"/>
       <c r="G89" s="297">
         <v>7</v>
       </c>
       <c r="H89" s="297">
         <v>334</v>
       </c>
-      <c r="I89" s="297">
-        <f>H89/(J77*16+G67)</f>
+      <c r="I89" s="300"/>
+      <c r="J89" s="300"/>
+      <c r="K89" s="297">
+        <f>H89/(L77*16+G67)</f>
         <v>0.11886120996441281</v>
       </c>
-      <c r="J89" s="297">
+      <c r="L89" s="297">
         <v>18</v>
       </c>
-      <c r="K89" s="297">
-        <f>J89/B79</f>
+      <c r="M89" s="297">
+        <f>L89/B79</f>
         <v>0.13688212927756654</v>
       </c>
-      <c r="L89" s="297"/>
-    </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1">
-      <c r="A90" s="303"/>
-      <c r="B90" s="304"/>
-      <c r="C90" s="298" t="s">
+      <c r="N89" s="297"/>
+      <c r="R89" s="300"/>
+      <c r="S89" s="300"/>
+    </row>
+    <row r="90" spans="1:19" ht="15" thickBot="1">
+      <c r="A90" s="345"/>
+      <c r="B90" s="346"/>
+      <c r="C90" s="349" t="s">
         <v>215</v>
       </c>
-      <c r="D90" s="300"/>
-      <c r="E90" s="299"/>
+      <c r="D90" s="350"/>
+      <c r="E90" s="351"/>
       <c r="F90" s="297" t="s">
         <v>216</v>
       </c>
@@ -11435,19 +12716,23 @@
         <v>1</v>
       </c>
       <c r="H90" s="297"/>
-      <c r="I90" s="297"/>
-      <c r="J90" s="297"/>
-      <c r="K90" s="297" t="s">
+      <c r="I90" s="300"/>
+      <c r="J90" s="300"/>
+      <c r="K90" s="297"/>
+      <c r="L90" s="297"/>
+      <c r="M90" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="L90" s="297"/>
-    </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1">
-      <c r="A91" s="303"/>
-      <c r="B91" s="304"/>
-      <c r="C91" s="301"/>
-      <c r="D91" s="307"/>
-      <c r="E91" s="302"/>
+      <c r="N90" s="297"/>
+      <c r="R90" s="300"/>
+      <c r="S90" s="300"/>
+    </row>
+    <row r="91" spans="1:19" ht="15" thickBot="1">
+      <c r="A91" s="345"/>
+      <c r="B91" s="346"/>
+      <c r="C91" s="337"/>
+      <c r="D91" s="338"/>
+      <c r="E91" s="339"/>
       <c r="F91" s="297" t="s">
         <v>218</v>
       </c>
@@ -11455,22 +12740,26 @@
         <v>1</v>
       </c>
       <c r="H91" s="297"/>
-      <c r="I91" s="297"/>
-      <c r="J91" s="297">
-        <v>1</v>
-      </c>
-      <c r="K91" s="297">
-        <f>J91/B79</f>
+      <c r="I91" s="300"/>
+      <c r="J91" s="300"/>
+      <c r="K91" s="297"/>
+      <c r="L91" s="297">
+        <v>1</v>
+      </c>
+      <c r="M91" s="297">
+        <f>L91/B79</f>
         <v>7.6045627376425855E-3</v>
       </c>
-      <c r="L91" s="297"/>
-    </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1">
-      <c r="A92" s="303"/>
-      <c r="B92" s="304"/>
-      <c r="C92" s="303"/>
-      <c r="D92" s="308"/>
-      <c r="E92" s="304"/>
+      <c r="N91" s="297"/>
+      <c r="R91" s="300"/>
+      <c r="S91" s="300"/>
+    </row>
+    <row r="92" spans="1:19" ht="15" thickBot="1">
+      <c r="A92" s="345"/>
+      <c r="B92" s="346"/>
+      <c r="C92" s="345"/>
+      <c r="D92" s="352"/>
+      <c r="E92" s="346"/>
       <c r="F92" s="297" t="s">
         <v>219</v>
       </c>
@@ -11478,24 +12767,28 @@
         <v>1</v>
       </c>
       <c r="H92" s="297"/>
-      <c r="I92" s="297"/>
-      <c r="J92" s="297">
-        <v>1</v>
-      </c>
-      <c r="K92" s="297">
-        <f>J92/B79</f>
+      <c r="I92" s="300"/>
+      <c r="J92" s="300"/>
+      <c r="K92" s="297"/>
+      <c r="L92" s="297">
+        <v>1</v>
+      </c>
+      <c r="M92" s="297">
+        <f>L92/B79</f>
         <v>7.6045627376425855E-3</v>
       </c>
-      <c r="L92" s="297"/>
-    </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1">
-      <c r="A93" s="303"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="303" t="s">
+      <c r="N92" s="297"/>
+      <c r="R92" s="300"/>
+      <c r="S92" s="300"/>
+    </row>
+    <row r="93" spans="1:19" ht="15" thickBot="1">
+      <c r="A93" s="345"/>
+      <c r="B93" s="346"/>
+      <c r="C93" s="345" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="308"/>
-      <c r="E93" s="304"/>
+      <c r="D93" s="352"/>
+      <c r="E93" s="346"/>
       <c r="F93" s="297" t="s">
         <v>220</v>
       </c>
@@ -11503,22 +12796,26 @@
         <v>1</v>
       </c>
       <c r="H93" s="297"/>
-      <c r="I93" s="297"/>
-      <c r="J93" s="297">
-        <v>1</v>
-      </c>
-      <c r="K93" s="297">
-        <f>J93/B79</f>
+      <c r="I93" s="300"/>
+      <c r="J93" s="300"/>
+      <c r="K93" s="297"/>
+      <c r="L93" s="297">
+        <v>1</v>
+      </c>
+      <c r="M93" s="297">
+        <f>L93/B79</f>
         <v>7.6045627376425855E-3</v>
       </c>
-      <c r="L93" s="297"/>
-    </row>
-    <row r="94" spans="1:13" ht="15" thickBot="1">
-      <c r="A94" s="303"/>
-      <c r="B94" s="304"/>
-      <c r="C94" s="309"/>
-      <c r="D94" s="310"/>
-      <c r="E94" s="311"/>
+      <c r="N93" s="297"/>
+      <c r="R93" s="300"/>
+      <c r="S93" s="300"/>
+    </row>
+    <row r="94" spans="1:19" ht="15" thickBot="1">
+      <c r="A94" s="345"/>
+      <c r="B94" s="346"/>
+      <c r="C94" s="353"/>
+      <c r="D94" s="354"/>
+      <c r="E94" s="355"/>
       <c r="F94" s="297" t="s">
         <v>221</v>
       </c>
@@ -11526,22 +12823,26 @@
         <v>1</v>
       </c>
       <c r="H94" s="297"/>
-      <c r="I94" s="297"/>
-      <c r="J94" s="297">
+      <c r="I94" s="300"/>
+      <c r="J94" s="300"/>
+      <c r="K94" s="297"/>
+      <c r="L94" s="297">
         <v>3</v>
       </c>
-      <c r="K94" s="297">
-        <f>J94/B79</f>
+      <c r="M94" s="297">
+        <f>L94/B79</f>
         <v>2.2813688212927757E-2</v>
       </c>
-      <c r="L94" s="297"/>
-    </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1">
-      <c r="A95" s="303"/>
-      <c r="B95" s="304"/>
-      <c r="C95" s="309"/>
-      <c r="D95" s="310"/>
-      <c r="E95" s="311"/>
+      <c r="N94" s="297"/>
+      <c r="R94" s="300"/>
+      <c r="S94" s="300"/>
+    </row>
+    <row r="95" spans="1:19" ht="15" thickBot="1">
+      <c r="A95" s="345"/>
+      <c r="B95" s="346"/>
+      <c r="C95" s="353"/>
+      <c r="D95" s="354"/>
+      <c r="E95" s="355"/>
       <c r="F95" s="297" t="s">
         <v>222</v>
       </c>
@@ -11549,22 +12850,26 @@
         <v>1</v>
       </c>
       <c r="H95" s="297"/>
-      <c r="I95" s="297"/>
-      <c r="J95" s="297">
-        <v>1</v>
-      </c>
-      <c r="K95" s="297">
-        <f>J95/B79</f>
+      <c r="I95" s="300"/>
+      <c r="J95" s="300"/>
+      <c r="K95" s="297"/>
+      <c r="L95" s="297">
+        <v>1</v>
+      </c>
+      <c r="M95" s="297">
+        <f>L95/B79</f>
         <v>7.6045627376425855E-3</v>
       </c>
-      <c r="L95" s="297"/>
-    </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1">
-      <c r="A96" s="303"/>
-      <c r="B96" s="304"/>
-      <c r="C96" s="312"/>
-      <c r="D96" s="313"/>
-      <c r="E96" s="314"/>
+      <c r="N95" s="297"/>
+      <c r="R95" s="300"/>
+      <c r="S95" s="300"/>
+    </row>
+    <row r="96" spans="1:19" ht="15" thickBot="1">
+      <c r="A96" s="345"/>
+      <c r="B96" s="346"/>
+      <c r="C96" s="356"/>
+      <c r="D96" s="357"/>
+      <c r="E96" s="358"/>
       <c r="F96" s="283" t="s">
         <v>223</v>
       </c>
@@ -11572,98 +12877,148 @@
         <v>1</v>
       </c>
       <c r="H96" s="297"/>
-      <c r="I96" s="297"/>
-      <c r="J96" s="297">
+      <c r="I96" s="300"/>
+      <c r="J96" s="300"/>
+      <c r="K96" s="297"/>
+      <c r="L96" s="297">
         <v>3</v>
       </c>
-      <c r="K96" s="297">
-        <f>J96/B79</f>
+      <c r="M96" s="297">
+        <f>L96/B79</f>
         <v>2.2813688212927757E-2</v>
       </c>
-      <c r="L96" s="297"/>
-    </row>
-    <row r="97" spans="1:12" ht="15" thickBot="1">
-      <c r="A97" s="305"/>
-      <c r="B97" s="306"/>
-      <c r="C97" s="298" t="s">
+      <c r="N96" s="297"/>
+      <c r="R96" s="300"/>
+      <c r="S96" s="300"/>
+    </row>
+    <row r="97" spans="1:19" ht="15" thickBot="1">
+      <c r="A97" s="347"/>
+      <c r="B97" s="348"/>
+      <c r="C97" s="349" t="s">
         <v>224</v>
       </c>
-      <c r="D97" s="300"/>
-      <c r="E97" s="299"/>
+      <c r="D97" s="350"/>
+      <c r="E97" s="351"/>
       <c r="F97" s="283"/>
       <c r="G97" s="297">
         <v>7</v>
       </c>
       <c r="H97" s="297"/>
-      <c r="I97" s="297"/>
-      <c r="J97" s="297">
+      <c r="I97" s="300"/>
+      <c r="J97" s="300"/>
+      <c r="K97" s="297"/>
+      <c r="L97" s="297">
         <v>10</v>
       </c>
-      <c r="K97" s="297">
-        <f>J97/B79</f>
+      <c r="M97" s="297">
+        <f>L97/B79</f>
         <v>7.6045627376425853E-2</v>
       </c>
-      <c r="L97" s="297"/>
-    </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1">
-      <c r="A98" s="298" t="s">
+      <c r="N97" s="297"/>
+      <c r="R97" s="300"/>
+      <c r="S97" s="300"/>
+    </row>
+    <row r="98" spans="1:19" ht="15" thickBot="1">
+      <c r="A98" s="349" t="s">
         <v>225</v>
       </c>
-      <c r="B98" s="300"/>
-      <c r="C98" s="300"/>
-      <c r="D98" s="300"/>
-      <c r="E98" s="300"/>
-      <c r="F98" s="299"/>
+      <c r="B98" s="350"/>
+      <c r="C98" s="350"/>
+      <c r="D98" s="350"/>
+      <c r="E98" s="350"/>
+      <c r="F98" s="351"/>
       <c r="G98" s="297">
         <f>SUM(G85:G97)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H98" s="297">
-        <f>(J77*16+G67)</f>
+        <f>(L77*16+G67)</f>
         <v>2810</v>
       </c>
-      <c r="I98" s="297"/>
-      <c r="J98" s="297"/>
+      <c r="I98" s="298"/>
+      <c r="J98" s="298"/>
       <c r="K98" s="297"/>
       <c r="L98" s="297"/>
-    </row>
-    <row r="99" spans="1:12" ht="29" thickBot="1">
+      <c r="M98" s="297"/>
+      <c r="N98" s="297"/>
+      <c r="R98" s="298"/>
+      <c r="S98" s="298"/>
+    </row>
+    <row r="99" spans="1:19" ht="29" thickBot="1">
       <c r="A99" s="296" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="354">
+      <c r="B99" s="359">
         <f>B79</f>
         <v>131.5</v>
       </c>
-      <c r="C99" s="299"/>
-      <c r="D99" s="298" t="s">
+      <c r="C99" s="351"/>
+      <c r="D99" s="349" t="s">
         <v>227</v>
       </c>
-      <c r="E99" s="300"/>
-      <c r="F99" s="299"/>
-      <c r="G99" s="354">
-        <f>B79-J77-J74-J75-J76</f>
+      <c r="E99" s="350"/>
+      <c r="F99" s="351"/>
+      <c r="G99" s="359">
+        <f>B79-L77-L74-L75-L76</f>
         <v>78.5</v>
       </c>
-      <c r="H99" s="299"/>
-      <c r="I99" s="298" t="s">
+      <c r="H99" s="351"/>
+      <c r="I99" s="285"/>
+      <c r="J99" s="285"/>
+      <c r="K99" s="349" t="s">
         <v>228</v>
       </c>
-      <c r="J99" s="299"/>
-      <c r="K99" s="354">
-        <f>J79</f>
+      <c r="L99" s="351"/>
+      <c r="M99" s="359">
+        <f>L79</f>
         <v>53</v>
       </c>
-      <c r="L99" s="299"/>
+      <c r="N99" s="351"/>
+      <c r="R99" s="285"/>
+      <c r="S99" s="285"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="R100"/>
+      <c r="S100"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="F73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:B87"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
     <mergeCell ref="A88:B97"/>
     <mergeCell ref="C88:F88"/>
     <mergeCell ref="C89:F89"/>
@@ -11675,40 +13030,12 @@
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="C97:E97"/>
-    <mergeCell ref="A85:B87"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="K99:L99"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28331"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="2120" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="1340" yWindow="0" windowWidth="25600" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -4202,46 +4202,118 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4268,130 +4340,178 @@
     <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -4511,126 +4631,6 @@
     <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4650,7 +4650,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4658,7 +4658,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4666,7 +4666,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4674,7 +4674,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4932,7 +4932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4942,7 +4942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A67" sqref="A67:G69"/>
     </sheetView>
   </sheetViews>
@@ -4964,53 +4964,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="356" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
+      <c r="O1" s="356"/>
       <c r="R1"/>
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="357" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="309" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="311"/>
+      <c r="B2" s="359" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="361"/>
       <c r="G2" s="277"/>
       <c r="H2" s="277"/>
       <c r="I2" s="302"/>
       <c r="J2" s="302"/>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="314"/>
+      <c r="L2" s="363"/>
+      <c r="M2" s="363"/>
+      <c r="N2" s="363"/>
+      <c r="O2" s="364"/>
       <c r="R2" s="302"/>
       <c r="S2" s="302"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1">
-      <c r="A3" s="308"/>
+      <c r="A3" s="358"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5067,7 +5067,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="315" t="s">
+      <c r="A4" s="365" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="316"/>
+      <c r="A5" s="366"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="S5" s="289"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="316"/>
+      <c r="A6" s="366"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -5195,8 +5195,8 @@
       <c r="H6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="361"/>
-      <c r="J6" s="361"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="306"/>
       <c r="K6" s="100" t="s">
         <v>128</v>
       </c>
@@ -5216,11 +5216,11 @@
         <f t="shared" ref="P6:P65" si="1">M6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R6" s="361"/>
-      <c r="S6" s="361"/>
+      <c r="R6" s="306"/>
+      <c r="S6" s="306"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="316"/>
+      <c r="A7" s="366"/>
       <c r="B7" s="100">
         <v>199023</v>
       </c>
@@ -5243,8 +5243,8 @@
       <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="361"/>
-      <c r="J7" s="361"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
       <c r="K7" s="101"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
@@ -5254,11 +5254,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="361"/>
-      <c r="S7" s="361"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="316"/>
+      <c r="A8" s="366"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -5282,8 +5282,8 @@
       <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="I8" s="361"/>
-      <c r="J8" s="361"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
       <c r="K8" s="101"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
@@ -5293,11 +5293,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="361"/>
-      <c r="S8" s="361"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="306"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="316"/>
+      <c r="A9" s="366"/>
       <c r="B9" s="87">
         <v>1901000</v>
       </c>
@@ -5320,10 +5320,10 @@
       <c r="H9" s="75">
         <v>1</v>
       </c>
-      <c r="I9" s="362">
+      <c r="I9" s="307">
         <v>32</v>
       </c>
-      <c r="J9" s="362"/>
+      <c r="J9" s="307"/>
       <c r="K9" s="101"/>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
@@ -5333,11 +5333,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="362"/>
-      <c r="S9" s="362"/>
+      <c r="R9" s="307"/>
+      <c r="S9" s="307"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="316"/>
+      <c r="A10" s="366"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -5356,8 +5356,8 @@
       <c r="H10" s="75">
         <v>1</v>
       </c>
-      <c r="I10" s="362"/>
-      <c r="J10" s="362"/>
+      <c r="I10" s="307"/>
+      <c r="J10" s="307"/>
       <c r="K10" s="101"/>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -5367,11 +5367,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="362"/>
-      <c r="S10" s="362"/>
+      <c r="R10" s="307"/>
+      <c r="S10" s="307"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="316"/>
+      <c r="A11" s="366"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -5388,8 +5388,8 @@
       <c r="H11" s="75">
         <v>1</v>
       </c>
-      <c r="I11" s="363"/>
-      <c r="J11" s="363"/>
+      <c r="I11" s="308"/>
+      <c r="J11" s="308"/>
       <c r="K11" s="102"/>
       <c r="L11" s="78"/>
       <c r="M11" s="79"/>
@@ -5399,11 +5399,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="363"/>
-      <c r="S11" s="363"/>
+      <c r="R11" s="308"/>
+      <c r="S11" s="308"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="A12" s="316"/>
+      <c r="A12" s="366"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -5426,10 +5426,10 @@
       <c r="H12" s="75">
         <v>1</v>
       </c>
-      <c r="I12" s="363">
+      <c r="I12" s="308">
         <v>48</v>
       </c>
-      <c r="J12" s="363">
+      <c r="J12" s="308">
         <v>32</v>
       </c>
       <c r="K12" s="102"/>
@@ -5441,11 +5441,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="363"/>
-      <c r="S12" s="363"/>
+      <c r="R12" s="308"/>
+      <c r="S12" s="308"/>
     </row>
     <row r="13" spans="1:19" ht="17" thickBot="1">
-      <c r="A13" s="317" t="s">
+      <c r="A13" s="353" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -5499,7 +5499,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
-      <c r="A14" s="318"/>
+      <c r="A14" s="354"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="S14" s="290"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="318"/>
+      <c r="A15" s="354"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -5607,7 +5607,7 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="318"/>
+      <c r="A16" s="354"/>
       <c r="B16" s="236">
         <v>1900102</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="S16" s="172"/>
     </row>
     <row r="17" spans="1:19" ht="15" thickBot="1">
-      <c r="A17" s="318"/>
+      <c r="A17" s="354"/>
       <c r="B17" s="199">
         <v>1901003</v>
       </c>
@@ -5680,10 +5680,10 @@
       <c r="H17" s="75">
         <v>1</v>
       </c>
-      <c r="I17" s="362">
+      <c r="I17" s="307">
         <v>48</v>
       </c>
-      <c r="J17" s="362">
+      <c r="J17" s="307">
         <v>32</v>
       </c>
       <c r="K17" s="241"/>
@@ -5706,11 +5706,11 @@
       <c r="Q17">
         <v>1</v>
       </c>
-      <c r="R17" s="362"/>
-      <c r="S17" s="362"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="307"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
-      <c r="A18" s="318"/>
+      <c r="A18" s="354"/>
       <c r="B18" s="93">
         <v>1905045</v>
       </c>
@@ -5733,10 +5733,10 @@
       <c r="H18" s="75">
         <v>1</v>
       </c>
-      <c r="I18" s="364">
+      <c r="I18" s="309">
         <v>32</v>
       </c>
-      <c r="J18" s="364"/>
+      <c r="J18" s="309"/>
       <c r="K18" s="240">
         <v>1901002</v>
       </c>
@@ -5759,13 +5759,13 @@
       <c r="Q18">
         <v>1</v>
       </c>
-      <c r="R18" s="364">
+      <c r="R18" s="309">
         <v>54</v>
       </c>
-      <c r="S18" s="364"/>
+      <c r="S18" s="309"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="318"/>
+      <c r="A19" s="354"/>
       <c r="B19" s="243" t="s">
         <v>131</v>
       </c>
@@ -5786,8 +5786,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H19" s="75"/>
-      <c r="I19" s="364"/>
-      <c r="J19" s="364"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
       <c r="K19" s="240">
         <v>1900112</v>
       </c>
@@ -5810,13 +5810,13 @@
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="R19" s="364">
+      <c r="R19" s="309">
         <v>68</v>
       </c>
-      <c r="S19" s="364"/>
+      <c r="S19" s="309"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="318"/>
+      <c r="A20" s="354"/>
       <c r="B20" s="243"/>
       <c r="C20" s="220"/>
       <c r="D20" s="221"/>
@@ -5827,17 +5827,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="75"/>
-      <c r="I20" s="365"/>
-      <c r="J20" s="365"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="310"/>
       <c r="P20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="365"/>
-      <c r="S20" s="365"/>
+      <c r="R20" s="310"/>
+      <c r="S20" s="310"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1">
-      <c r="A21" s="319"/>
+      <c r="A21" s="355"/>
       <c r="B21" s="94"/>
       <c r="C21" s="170" t="s">
         <v>132</v>
@@ -5854,8 +5854,8 @@
       <c r="H21" s="75">
         <v>1</v>
       </c>
-      <c r="I21" s="362"/>
-      <c r="J21" s="362"/>
+      <c r="I21" s="307"/>
+      <c r="J21" s="307"/>
       <c r="K21" s="242">
         <v>1905039</v>
       </c>
@@ -5877,13 +5877,13 @@
       <c r="Q21">
         <v>1</v>
       </c>
-      <c r="R21" s="362"/>
-      <c r="S21" s="362">
+      <c r="R21" s="307"/>
+      <c r="S21" s="307">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="317" t="s">
+      <c r="A22" s="353" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="89">
@@ -5938,7 +5938,7 @@
       <c r="S22" s="292"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="318"/>
+      <c r="A23" s="354"/>
       <c r="B23" s="91">
         <v>310015</v>
       </c>
@@ -5990,7 +5990,7 @@
       <c r="S23" s="289"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="318"/>
+      <c r="A24" s="354"/>
       <c r="B24" s="87">
         <v>1905007</v>
       </c>
@@ -6013,10 +6013,10 @@
       <c r="H24" s="75">
         <v>1</v>
       </c>
-      <c r="I24" s="362">
+      <c r="I24" s="307">
         <v>48</v>
       </c>
-      <c r="J24" s="362"/>
+      <c r="J24" s="307"/>
       <c r="K24" s="196">
         <v>1905029</v>
       </c>
@@ -6038,13 +6038,13 @@
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24" s="362"/>
-      <c r="S24" s="362">
+      <c r="R24" s="307"/>
+      <c r="S24" s="307">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="318"/>
+      <c r="A25" s="354"/>
       <c r="B25" s="202">
         <v>1905008</v>
       </c>
@@ -6067,8 +6067,8 @@
       <c r="H25" s="75">
         <v>1</v>
       </c>
-      <c r="I25" s="362"/>
-      <c r="J25" s="362">
+      <c r="I25" s="307"/>
+      <c r="J25" s="307">
         <v>32</v>
       </c>
       <c r="K25" s="196"/>
@@ -6091,13 +6091,13 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25" s="362">
+      <c r="R25" s="307">
         <v>32</v>
       </c>
-      <c r="S25" s="362"/>
+      <c r="S25" s="307"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="318"/>
+      <c r="A26" s="354"/>
       <c r="B26" s="87">
         <v>1901006</v>
       </c>
@@ -6120,10 +6120,10 @@
       <c r="H26" s="75">
         <v>1</v>
       </c>
-      <c r="I26" s="362">
+      <c r="I26" s="307">
         <v>64</v>
       </c>
-      <c r="J26" s="362"/>
+      <c r="J26" s="307"/>
       <c r="K26" s="193"/>
       <c r="L26" s="72" t="s">
         <v>77</v>
@@ -6144,11 +6144,11 @@
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26" s="362"/>
-      <c r="S26" s="362"/>
+      <c r="R26" s="307"/>
+      <c r="S26" s="307"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="318"/>
+      <c r="A27" s="354"/>
       <c r="B27" s="87">
         <v>1901007</v>
       </c>
@@ -6171,8 +6171,8 @@
       <c r="H27" s="75">
         <v>1</v>
       </c>
-      <c r="I27" s="362"/>
-      <c r="J27" s="362">
+      <c r="I27" s="307"/>
+      <c r="J27" s="307">
         <v>32</v>
       </c>
       <c r="K27" s="128">
@@ -6197,13 +6197,13 @@
       <c r="Q27">
         <v>1</v>
       </c>
-      <c r="R27" s="362">
+      <c r="R27" s="307">
         <v>32</v>
       </c>
-      <c r="S27" s="362"/>
+      <c r="S27" s="307"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="318"/>
+      <c r="A28" s="354"/>
       <c r="B28" s="93">
         <v>1901028</v>
       </c>
@@ -6226,8 +6226,8 @@
       <c r="H28" s="75">
         <v>1</v>
       </c>
-      <c r="I28" s="362"/>
-      <c r="J28" s="362">
+      <c r="I28" s="307"/>
+      <c r="J28" s="307">
         <v>32</v>
       </c>
       <c r="K28" s="128">
@@ -6252,13 +6252,13 @@
       <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28" s="362">
+      <c r="R28" s="307">
         <v>48</v>
       </c>
-      <c r="S28" s="362"/>
+      <c r="S28" s="307"/>
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1">
-      <c r="A29" s="319"/>
+      <c r="A29" s="355"/>
       <c r="B29" s="94"/>
       <c r="C29" s="139" t="s">
         <v>32</v>
@@ -6275,8 +6275,8 @@
       <c r="H29" s="75">
         <v>1</v>
       </c>
-      <c r="I29" s="363"/>
-      <c r="J29" s="363"/>
+      <c r="I29" s="308"/>
+      <c r="J29" s="308"/>
       <c r="K29" s="88"/>
       <c r="L29" s="27"/>
       <c r="M29" s="28"/>
@@ -6286,11 +6286,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="363"/>
-      <c r="S29" s="363"/>
+      <c r="R29" s="308"/>
+      <c r="S29" s="308"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="317" t="s">
+      <c r="A30" s="353" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="89">
@@ -6345,7 +6345,7 @@
       <c r="S30" s="292"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="318"/>
+      <c r="A31" s="354"/>
       <c r="B31" s="91">
         <v>3100014</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="S31" s="289"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="318"/>
+      <c r="A32" s="354"/>
       <c r="B32" s="93">
         <v>1905035</v>
       </c>
@@ -6422,10 +6422,10 @@
       <c r="H32" s="75">
         <v>1</v>
       </c>
-      <c r="I32" s="362">
+      <c r="I32" s="307">
         <v>40</v>
       </c>
-      <c r="J32" s="362"/>
+      <c r="J32" s="307"/>
       <c r="K32" s="128">
         <v>1905026</v>
       </c>
@@ -6448,13 +6448,13 @@
       <c r="Q32">
         <v>1</v>
       </c>
-      <c r="R32" s="362">
+      <c r="R32" s="307">
         <v>32</v>
       </c>
-      <c r="S32" s="362"/>
+      <c r="S32" s="307"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="318"/>
+      <c r="A33" s="354"/>
       <c r="B33" s="93">
         <v>1905036</v>
       </c>
@@ -6477,8 +6477,8 @@
       <c r="H33" s="75">
         <v>1</v>
       </c>
-      <c r="I33" s="362"/>
-      <c r="J33" s="362">
+      <c r="I33" s="307"/>
+      <c r="J33" s="307">
         <v>32</v>
       </c>
       <c r="K33" s="128" t="s">
@@ -6500,11 +6500,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R33" s="362"/>
-      <c r="S33" s="362"/>
+      <c r="R33" s="307"/>
+      <c r="S33" s="307"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="318"/>
+      <c r="A34" s="354"/>
       <c r="B34" s="206"/>
       <c r="C34" s="207"/>
       <c r="D34" s="208"/>
@@ -6515,8 +6515,8 @@
         <v>0</v>
       </c>
       <c r="H34" s="75"/>
-      <c r="I34" s="362"/>
-      <c r="J34" s="362"/>
+      <c r="I34" s="307"/>
+      <c r="J34" s="307"/>
       <c r="K34" s="128">
         <v>1905030</v>
       </c>
@@ -6539,13 +6539,13 @@
       <c r="Q34">
         <v>1</v>
       </c>
-      <c r="R34" s="362">
+      <c r="R34" s="307">
         <v>48</v>
       </c>
-      <c r="S34" s="362"/>
+      <c r="S34" s="307"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="318"/>
+      <c r="A35" s="354"/>
       <c r="B35" s="206"/>
       <c r="C35" s="207"/>
       <c r="D35" s="208"/>
@@ -6556,8 +6556,8 @@
         <v>0</v>
       </c>
       <c r="H35" s="75"/>
-      <c r="I35" s="362"/>
-      <c r="J35" s="362"/>
+      <c r="I35" s="307"/>
+      <c r="J35" s="307"/>
       <c r="K35" s="128" t="s">
         <v>179</v>
       </c>
@@ -6577,11 +6577,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R35" s="362"/>
-      <c r="S35" s="362"/>
+      <c r="R35" s="307"/>
+      <c r="S35" s="307"/>
     </row>
     <row r="36" spans="1:19" ht="15" thickBot="1">
-      <c r="A36" s="319"/>
+      <c r="A36" s="355"/>
       <c r="B36" s="94"/>
       <c r="C36" s="139" t="s">
         <v>36</v>
@@ -6598,8 +6598,8 @@
       <c r="H36" s="75">
         <v>1</v>
       </c>
-      <c r="I36" s="363"/>
-      <c r="J36" s="363"/>
+      <c r="I36" s="308"/>
+      <c r="J36" s="308"/>
       <c r="K36" s="223">
         <v>1905041</v>
       </c>
@@ -6621,13 +6621,13 @@
       <c r="Q36">
         <v>1</v>
       </c>
-      <c r="R36" s="363"/>
-      <c r="S36" s="363">
+      <c r="R36" s="308"/>
+      <c r="S36" s="308">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="317" t="s">
+      <c r="A37" s="353" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="210">
@@ -6680,7 +6680,7 @@
       <c r="S37" s="290"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="318"/>
+      <c r="A38" s="354"/>
       <c r="B38" s="215">
         <v>1905046</v>
       </c>
@@ -6703,10 +6703,10 @@
       <c r="H38" s="75">
         <v>1</v>
       </c>
-      <c r="I38" s="362">
+      <c r="I38" s="307">
         <v>48</v>
       </c>
-      <c r="J38" s="362"/>
+      <c r="J38" s="307"/>
       <c r="K38" s="129">
         <v>1905025</v>
       </c>
@@ -6728,13 +6728,13 @@
       <c r="Q38">
         <v>1</v>
       </c>
-      <c r="R38" s="362"/>
-      <c r="S38" s="362">
+      <c r="R38" s="307"/>
+      <c r="S38" s="307">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="318"/>
+      <c r="A39" s="354"/>
       <c r="B39" s="215">
         <v>1905047</v>
       </c>
@@ -6757,8 +6757,8 @@
       <c r="H39" s="75">
         <v>1</v>
       </c>
-      <c r="I39" s="362"/>
-      <c r="J39" s="362">
+      <c r="I39" s="307"/>
+      <c r="J39" s="307">
         <v>32</v>
       </c>
       <c r="K39" s="128">
@@ -6782,13 +6782,13 @@
       <c r="Q39">
         <v>1</v>
       </c>
-      <c r="R39" s="362"/>
-      <c r="S39" s="362">
+      <c r="R39" s="307"/>
+      <c r="S39" s="307">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="318"/>
+      <c r="A40" s="354"/>
       <c r="B40" s="215">
         <v>1901015</v>
       </c>
@@ -6811,10 +6811,10 @@
       <c r="H40" s="75">
         <v>1</v>
       </c>
-      <c r="I40" s="362">
+      <c r="I40" s="307">
         <v>64</v>
       </c>
-      <c r="J40" s="362"/>
+      <c r="J40" s="307"/>
       <c r="K40" s="128"/>
       <c r="L40" s="123" t="s">
         <v>84</v>
@@ -6832,11 +6832,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R40" s="362"/>
-      <c r="S40" s="362"/>
+      <c r="R40" s="307"/>
+      <c r="S40" s="307"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="318"/>
+      <c r="A41" s="354"/>
       <c r="B41" s="215">
         <v>1901016</v>
       </c>
@@ -6859,8 +6859,8 @@
       <c r="H41" s="75">
         <v>1</v>
       </c>
-      <c r="I41" s="362"/>
-      <c r="J41" s="362">
+      <c r="I41" s="307"/>
+      <c r="J41" s="307">
         <v>40</v>
       </c>
       <c r="K41" s="128"/>
@@ -6880,11 +6880,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R41" s="362"/>
-      <c r="S41" s="362"/>
+      <c r="R41" s="307"/>
+      <c r="S41" s="307"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="318"/>
+      <c r="A42" s="354"/>
       <c r="B42" s="215">
         <v>1901013</v>
       </c>
@@ -6907,10 +6907,10 @@
       <c r="H42" s="75">
         <v>1</v>
       </c>
-      <c r="I42" s="362">
+      <c r="I42" s="307">
         <v>48</v>
       </c>
-      <c r="J42" s="362"/>
+      <c r="J42" s="307"/>
       <c r="K42" s="128"/>
       <c r="L42" s="123" t="s">
         <v>84</v>
@@ -6928,11 +6928,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R42" s="362"/>
-      <c r="S42" s="362"/>
+      <c r="R42" s="307"/>
+      <c r="S42" s="307"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="318"/>
+      <c r="A43" s="354"/>
       <c r="B43" s="215">
         <v>1901014</v>
       </c>
@@ -6955,8 +6955,8 @@
       <c r="H43" s="75">
         <v>1</v>
       </c>
-      <c r="I43" s="362"/>
-      <c r="J43" s="362">
+      <c r="I43" s="307"/>
+      <c r="J43" s="307">
         <v>16</v>
       </c>
       <c r="K43" s="128" t="s">
@@ -6976,11 +6976,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R43" s="362"/>
-      <c r="S43" s="362"/>
+      <c r="R43" s="307"/>
+      <c r="S43" s="307"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="318"/>
+      <c r="A44" s="354"/>
       <c r="B44" s="215"/>
       <c r="C44" s="34"/>
       <c r="D44" s="25"/>
@@ -6991,8 +6991,8 @@
         <v>0</v>
       </c>
       <c r="H44" s="75"/>
-      <c r="I44" s="362"/>
-      <c r="J44" s="362"/>
+      <c r="I44" s="307"/>
+      <c r="J44" s="307"/>
       <c r="K44" s="128" t="s">
         <v>87</v>
       </c>
@@ -7010,11 +7010,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R44" s="362"/>
-      <c r="S44" s="362"/>
+      <c r="R44" s="307"/>
+      <c r="S44" s="307"/>
     </row>
     <row r="45" spans="1:19" ht="15" thickBot="1">
-      <c r="A45" s="319"/>
+      <c r="A45" s="355"/>
       <c r="B45" s="94"/>
       <c r="C45" s="139" t="s">
         <v>38</v>
@@ -7031,8 +7031,8 @@
       <c r="H45" s="75">
         <v>1</v>
       </c>
-      <c r="I45" s="363"/>
-      <c r="J45" s="363"/>
+      <c r="I45" s="308"/>
+      <c r="J45" s="308"/>
       <c r="K45" s="194"/>
       <c r="L45" s="228"/>
       <c r="M45" s="229"/>
@@ -7042,11 +7042,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R45" s="363"/>
-      <c r="S45" s="363"/>
+      <c r="R45" s="308"/>
+      <c r="S45" s="308"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="318" t="s">
+      <c r="A46" s="354" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="210">
@@ -7097,7 +7097,7 @@
       <c r="S46" s="292"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="318"/>
+      <c r="A47" s="354"/>
       <c r="B47" s="236">
         <v>1900103</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="S47" s="289"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="318"/>
+      <c r="A48" s="354"/>
       <c r="B48" s="93">
         <v>1905083</v>
       </c>
@@ -7172,10 +7172,10 @@
       <c r="H48" s="75">
         <v>1</v>
       </c>
-      <c r="I48" s="362">
+      <c r="I48" s="307">
         <v>48</v>
       </c>
-      <c r="J48" s="362"/>
+      <c r="J48" s="307"/>
       <c r="K48" s="196">
         <v>1905038</v>
       </c>
@@ -7198,8 +7198,8 @@
       <c r="Q48">
         <v>1</v>
       </c>
-      <c r="R48" s="362"/>
-      <c r="S48" s="362">
+      <c r="R48" s="307"/>
+      <c r="S48" s="307">
         <v>16</v>
       </c>
     </row>
@@ -7227,8 +7227,8 @@
       <c r="H49" s="75">
         <v>1</v>
       </c>
-      <c r="I49" s="362"/>
-      <c r="J49" s="362">
+      <c r="I49" s="307"/>
+      <c r="J49" s="307">
         <v>32</v>
       </c>
       <c r="K49" s="128">
@@ -7251,8 +7251,8 @@
       <c r="Q49">
         <v>1</v>
       </c>
-      <c r="R49" s="362"/>
-      <c r="S49" s="362"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="307"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="39"/>
@@ -7266,8 +7266,8 @@
         <v>0</v>
       </c>
       <c r="H50" s="75"/>
-      <c r="I50" s="362"/>
-      <c r="J50" s="362"/>
+      <c r="I50" s="307"/>
+      <c r="J50" s="307"/>
       <c r="K50" s="128">
         <v>1904020</v>
       </c>
@@ -7288,10 +7288,10 @@
       <c r="Q50">
         <v>1</v>
       </c>
-      <c r="R50" s="362">
+      <c r="R50" s="307">
         <v>32</v>
       </c>
-      <c r="S50" s="362"/>
+      <c r="S50" s="307"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="39"/>
@@ -7305,8 +7305,8 @@
         <v>0</v>
       </c>
       <c r="H51" s="75"/>
-      <c r="I51" s="362"/>
-      <c r="J51" s="362"/>
+      <c r="I51" s="307"/>
+      <c r="J51" s="307"/>
       <c r="K51" s="128">
         <v>1904021</v>
       </c>
@@ -7327,8 +7327,8 @@
       <c r="Q51">
         <v>1</v>
       </c>
-      <c r="R51" s="362"/>
-      <c r="S51" s="362">
+      <c r="R51" s="307"/>
+      <c r="S51" s="307">
         <v>32</v>
       </c>
     </row>
@@ -7344,8 +7344,8 @@
         <v>0</v>
       </c>
       <c r="H52" s="75"/>
-      <c r="I52" s="362"/>
-      <c r="J52" s="362"/>
+      <c r="I52" s="307"/>
+      <c r="J52" s="307"/>
       <c r="K52" s="196">
         <v>1905041</v>
       </c>
@@ -7368,8 +7368,8 @@
       <c r="Q52">
         <v>1</v>
       </c>
-      <c r="R52" s="362"/>
-      <c r="S52" s="362">
+      <c r="R52" s="307"/>
+      <c r="S52" s="307">
         <v>80</v>
       </c>
     </row>
@@ -7385,14 +7385,14 @@
         <v>0</v>
       </c>
       <c r="H53" s="75"/>
-      <c r="I53" s="365"/>
-      <c r="J53" s="365"/>
+      <c r="I53" s="310"/>
+      <c r="J53" s="310"/>
       <c r="P53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R53" s="365"/>
-      <c r="S53" s="365"/>
+      <c r="R53" s="310"/>
+      <c r="S53" s="310"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="168"/>
@@ -7406,14 +7406,14 @@
         <v>0</v>
       </c>
       <c r="H54" s="75"/>
-      <c r="I54" s="365"/>
-      <c r="J54" s="365"/>
+      <c r="I54" s="310"/>
+      <c r="J54" s="310"/>
       <c r="P54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R54" s="365"/>
-      <c r="S54" s="365"/>
+      <c r="R54" s="310"/>
+      <c r="S54" s="310"/>
     </row>
     <row r="55" spans="1:19" ht="15" thickBot="1">
       <c r="A55" s="40"/>
@@ -7433,8 +7433,8 @@
       <c r="H55" s="75">
         <v>1</v>
       </c>
-      <c r="I55" s="363"/>
-      <c r="J55" s="363"/>
+      <c r="I55" s="308"/>
+      <c r="J55" s="308"/>
       <c r="K55" s="194" t="s">
         <v>87</v>
       </c>
@@ -7452,11 +7452,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R55" s="363"/>
-      <c r="S55" s="363"/>
+      <c r="R55" s="308"/>
+      <c r="S55" s="308"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="317" t="s">
+      <c r="A56" s="353" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="172">
@@ -7506,7 +7506,7 @@
       <c r="S56" s="292"/>
     </row>
     <row r="57" spans="1:19" ht="15" thickBot="1">
-      <c r="A57" s="318"/>
+      <c r="A57" s="354"/>
       <c r="B57" s="172">
         <v>1900105</v>
       </c>
@@ -7551,7 +7551,7 @@
       <c r="S57" s="289"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="318"/>
+      <c r="A58" s="354"/>
       <c r="B58" s="172">
         <v>1900107</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="S58" s="290"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="318"/>
+      <c r="A59" s="354"/>
       <c r="B59" s="176"/>
       <c r="C59" s="177" t="s">
         <v>134</v>
@@ -7643,7 +7643,7 @@
       <c r="S59" s="289"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="318"/>
+      <c r="A60" s="354"/>
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
         <v>99</v>
@@ -7662,8 +7662,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H60" s="118"/>
-      <c r="I60" s="366"/>
-      <c r="J60" s="366"/>
+      <c r="I60" s="311"/>
+      <c r="J60" s="311"/>
       <c r="K60" s="128" t="s">
         <v>153</v>
       </c>
@@ -7681,11 +7681,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R60" s="366"/>
-      <c r="S60" s="366"/>
+      <c r="R60" s="311"/>
+      <c r="S60" s="311"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="318"/>
+      <c r="A61" s="354"/>
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
         <v>85</v>
@@ -7704,8 +7704,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H61" s="118"/>
-      <c r="I61" s="366"/>
-      <c r="J61" s="366"/>
+      <c r="I61" s="311"/>
+      <c r="J61" s="311"/>
       <c r="K61" s="128" t="s">
         <v>153</v>
       </c>
@@ -7723,11 +7723,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R61" s="366"/>
-      <c r="S61" s="366"/>
+      <c r="R61" s="311"/>
+      <c r="S61" s="311"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="318"/>
+      <c r="A62" s="354"/>
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
         <v>93</v>
@@ -7746,8 +7746,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H62" s="118"/>
-      <c r="I62" s="366"/>
-      <c r="J62" s="366"/>
+      <c r="I62" s="311"/>
+      <c r="J62" s="311"/>
       <c r="K62" s="128" t="s">
         <v>109</v>
       </c>
@@ -7765,11 +7765,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R62" s="366"/>
-      <c r="S62" s="366"/>
+      <c r="R62" s="311"/>
+      <c r="S62" s="311"/>
     </row>
     <row r="63" spans="1:19" ht="15" thickBot="1">
-      <c r="A63" s="319"/>
+      <c r="A63" s="355"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="25"/>
@@ -7780,8 +7780,8 @@
         <v>0</v>
       </c>
       <c r="H63" s="118"/>
-      <c r="I63" s="367"/>
-      <c r="J63" s="367"/>
+      <c r="I63" s="312"/>
+      <c r="J63" s="312"/>
       <c r="K63" s="194">
         <v>199650</v>
       </c>
@@ -7802,10 +7802,10 @@
       <c r="Q63">
         <v>1</v>
       </c>
-      <c r="R63" s="367">
+      <c r="R63" s="312">
         <v>24</v>
       </c>
-      <c r="S63" s="367"/>
+      <c r="S63" s="312"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="39" t="s">
@@ -8076,25 +8076,25 @@
         <v>48</v>
       </c>
       <c r="B72" s="142"/>
-      <c r="C72" s="320" t="s">
+      <c r="C72" s="344" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="321"/>
-      <c r="E72" s="322"/>
-      <c r="F72" s="320" t="s">
+      <c r="D72" s="345"/>
+      <c r="E72" s="346"/>
+      <c r="F72" s="344" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="321"/>
-      <c r="H72" s="321"/>
-      <c r="I72" s="321"/>
-      <c r="J72" s="321"/>
-      <c r="K72" s="321"/>
-      <c r="L72" s="322"/>
-      <c r="M72" s="323" t="s">
+      <c r="G72" s="345"/>
+      <c r="H72" s="345"/>
+      <c r="I72" s="345"/>
+      <c r="J72" s="345"/>
+      <c r="K72" s="345"/>
+      <c r="L72" s="346"/>
+      <c r="M72" s="347" t="s">
         <v>116</v>
       </c>
-      <c r="N72" s="323"/>
-      <c r="O72" s="324"/>
+      <c r="N72" s="347"/>
+      <c r="O72" s="348"/>
       <c r="R72"/>
       <c r="S72"/>
     </row>
@@ -8130,19 +8130,19 @@
       <c r="L73" s="147">
         <v>18</v>
       </c>
-      <c r="M73" s="325" t="s">
+      <c r="M73" s="349" t="s">
         <v>118</v>
       </c>
-      <c r="N73" s="326"/>
-      <c r="O73" s="327"/>
+      <c r="N73" s="350"/>
+      <c r="O73" s="351"/>
       <c r="R73" s="145"/>
       <c r="S73" s="145"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="328">
+      <c r="A74" s="336">
         <v>2</v>
       </c>
-      <c r="B74" s="329" t="s">
+      <c r="B74" s="352" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="148"/>
@@ -8160,15 +8160,15 @@
         <f>SUM(E16+E47+E56+E57+E58+E64)</f>
         <v>10</v>
       </c>
-      <c r="M74" s="331"/>
-      <c r="N74" s="331"/>
-      <c r="O74" s="332"/>
+      <c r="M74" s="340"/>
+      <c r="N74" s="340"/>
+      <c r="O74" s="341"/>
       <c r="R74" s="149"/>
       <c r="S74" s="149"/>
     </row>
     <row r="75" spans="1:19" ht="26">
-      <c r="A75" s="328"/>
-      <c r="B75" s="330"/>
+      <c r="A75" s="336"/>
+      <c r="B75" s="337"/>
       <c r="C75" s="151"/>
       <c r="D75" s="152"/>
       <c r="E75" s="152"/>
@@ -8183,17 +8183,17 @@
       <c r="L75" s="152">
         <v>5</v>
       </c>
-      <c r="M75" s="331"/>
-      <c r="N75" s="331"/>
-      <c r="O75" s="332"/>
+      <c r="M75" s="340"/>
+      <c r="N75" s="340"/>
+      <c r="O75" s="341"/>
       <c r="R75" s="153"/>
       <c r="S75" s="153"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="328">
+      <c r="A76" s="336">
         <v>3</v>
       </c>
-      <c r="B76" s="330" t="s">
+      <c r="B76" s="337" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="154" t="s">
@@ -8215,15 +8215,15 @@
       <c r="L76" s="158">
         <v>26</v>
       </c>
-      <c r="M76" s="333"/>
-      <c r="N76" s="333"/>
-      <c r="O76" s="334"/>
+      <c r="M76" s="338"/>
+      <c r="N76" s="338"/>
+      <c r="O76" s="339"/>
       <c r="R76" s="157"/>
       <c r="S76" s="157"/>
     </row>
     <row r="77" spans="1:19" ht="26">
-      <c r="A77" s="328"/>
-      <c r="B77" s="330"/>
+      <c r="A77" s="336"/>
+      <c r="B77" s="337"/>
       <c r="C77" s="154" t="s">
         <v>126</v>
       </c>
@@ -8238,9 +8238,9 @@
       <c r="J77" s="159"/>
       <c r="K77" s="31"/>
       <c r="L77" s="69"/>
-      <c r="M77" s="331"/>
-      <c r="N77" s="331"/>
-      <c r="O77" s="332"/>
+      <c r="M77" s="340"/>
+      <c r="N77" s="340"/>
+      <c r="O77" s="341"/>
       <c r="R77" s="159"/>
       <c r="S77" s="159"/>
     </row>
@@ -8271,9 +8271,9 @@
         <f>SUM(L73:L77)</f>
         <v>59</v>
       </c>
-      <c r="M78" s="335"/>
-      <c r="N78" s="335"/>
-      <c r="O78" s="336"/>
+      <c r="M78" s="342"/>
+      <c r="N78" s="342"/>
+      <c r="O78" s="343"/>
       <c r="R78" s="301"/>
       <c r="S78" s="301"/>
     </row>
@@ -8343,16 +8343,16 @@
       <c r="S81"/>
     </row>
     <row r="82" spans="1:19" ht="39" customHeight="1">
-      <c r="A82" s="337"/>
-      <c r="B82" s="338"/>
-      <c r="C82" s="338"/>
-      <c r="D82" s="338"/>
-      <c r="E82" s="338"/>
-      <c r="F82" s="339"/>
+      <c r="A82" s="317"/>
+      <c r="B82" s="323"/>
+      <c r="C82" s="323"/>
+      <c r="D82" s="323"/>
+      <c r="E82" s="323"/>
+      <c r="F82" s="318"/>
       <c r="G82" s="281" t="s">
         <v>200</v>
       </c>
-      <c r="H82" s="343" t="s">
+      <c r="H82" s="334" t="s">
         <v>202</v>
       </c>
       <c r="I82" s="299"/>
@@ -8360,13 +8360,13 @@
       <c r="K82" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="L82" s="343" t="s">
+      <c r="L82" s="334" t="s">
         <v>6</v>
       </c>
       <c r="M82" s="281" t="s">
         <v>205</v>
       </c>
-      <c r="N82" s="343" t="s">
+      <c r="N82" s="334" t="s">
         <v>206</v>
       </c>
       <c r="O82" t="s">
@@ -8379,43 +8379,43 @@
       <c r="S82" s="299"/>
     </row>
     <row r="83" spans="1:19" ht="15" thickBot="1">
-      <c r="A83" s="340" t="s">
+      <c r="A83" s="331" t="s">
         <v>199</v>
       </c>
-      <c r="B83" s="341"/>
-      <c r="C83" s="341"/>
-      <c r="D83" s="341"/>
-      <c r="E83" s="341"/>
-      <c r="F83" s="342"/>
+      <c r="B83" s="332"/>
+      <c r="C83" s="332"/>
+      <c r="D83" s="332"/>
+      <c r="E83" s="332"/>
+      <c r="F83" s="333"/>
       <c r="G83" s="282" t="s">
         <v>201</v>
       </c>
-      <c r="H83" s="344"/>
+      <c r="H83" s="335"/>
       <c r="I83" s="300"/>
       <c r="J83" s="300"/>
       <c r="K83" s="282" t="s">
         <v>204</v>
       </c>
-      <c r="L83" s="344"/>
+      <c r="L83" s="335"/>
       <c r="M83" s="282" t="s">
         <v>204</v>
       </c>
-      <c r="N83" s="344"/>
+      <c r="N83" s="335"/>
       <c r="O83"/>
       <c r="R83" s="300"/>
       <c r="S83" s="300"/>
     </row>
     <row r="84" spans="1:19" ht="15" thickBot="1">
-      <c r="A84" s="337" t="s">
+      <c r="A84" s="317" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="339"/>
-      <c r="C84" s="349" t="s">
+      <c r="B84" s="318"/>
+      <c r="C84" s="315" t="s">
         <v>208</v>
       </c>
-      <c r="D84" s="350"/>
-      <c r="E84" s="350"/>
-      <c r="F84" s="351"/>
+      <c r="D84" s="316"/>
+      <c r="E84" s="316"/>
+      <c r="F84" s="314"/>
       <c r="G84" s="282">
         <v>7</v>
       </c>
@@ -8441,16 +8441,16 @@
       <c r="S84" s="300"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1">
-      <c r="A85" s="345"/>
-      <c r="B85" s="346"/>
-      <c r="C85" s="337" t="s">
+      <c r="A85" s="319"/>
+      <c r="B85" s="320"/>
+      <c r="C85" s="317" t="s">
         <v>209</v>
       </c>
-      <c r="D85" s="339"/>
-      <c r="E85" s="349" t="s">
+      <c r="D85" s="318"/>
+      <c r="E85" s="315" t="s">
         <v>210</v>
       </c>
-      <c r="F85" s="351"/>
+      <c r="F85" s="314"/>
       <c r="G85" s="282">
         <f>SUM(H9+H10+H11+H12+H18+H24+H25+H42+H43)</f>
         <v>9</v>
@@ -8479,14 +8479,14 @@
       <c r="S85" s="300"/>
     </row>
     <row r="86" spans="1:19" ht="15" thickBot="1">
-      <c r="A86" s="347"/>
-      <c r="B86" s="348"/>
-      <c r="C86" s="347"/>
-      <c r="D86" s="348"/>
-      <c r="E86" s="349" t="s">
+      <c r="A86" s="321"/>
+      <c r="B86" s="322"/>
+      <c r="C86" s="321"/>
+      <c r="D86" s="322"/>
+      <c r="E86" s="315" t="s">
         <v>211</v>
       </c>
-      <c r="F86" s="351"/>
+      <c r="F86" s="314"/>
       <c r="G86" s="282">
         <f>SUM(H17+H26+H27+H28+H32+H33+H38+H39+H40+H41+H48+H49)</f>
         <v>12</v>
@@ -8515,16 +8515,16 @@
       <c r="S86" s="300"/>
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1">
-      <c r="A87" s="337" t="s">
+      <c r="A87" s="317" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="339"/>
-      <c r="C87" s="349" t="s">
+      <c r="B87" s="318"/>
+      <c r="C87" s="315" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="350"/>
-      <c r="E87" s="350"/>
-      <c r="F87" s="351"/>
+      <c r="D87" s="316"/>
+      <c r="E87" s="316"/>
+      <c r="F87" s="314"/>
       <c r="G87" s="282">
         <f>Q4+Q13+Q14+Q15+Q18+Q19+Q21+Q22+Q23+Q24+Q25+Q27+Q28+Q30+Q31+Q32+Q34+Q37+Q38+Q39+Q36+Q46+Q47+Q48+Q49+Q50+Q51+Q52+Q63+Q64</f>
         <v>30</v>
@@ -8553,14 +8553,14 @@
       <c r="S87" s="300"/>
     </row>
     <row r="88" spans="1:19" ht="15" thickBot="1">
-      <c r="A88" s="345"/>
-      <c r="B88" s="346"/>
-      <c r="C88" s="349" t="s">
+      <c r="A88" s="319"/>
+      <c r="B88" s="320"/>
+      <c r="C88" s="315" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="350"/>
-      <c r="E88" s="350"/>
-      <c r="F88" s="351"/>
+      <c r="D88" s="316"/>
+      <c r="E88" s="316"/>
+      <c r="F88" s="314"/>
       <c r="G88" s="282">
         <v>7</v>
       </c>
@@ -8586,13 +8586,13 @@
       <c r="S88" s="300"/>
     </row>
     <row r="89" spans="1:19" ht="15" thickBot="1">
-      <c r="A89" s="345"/>
-      <c r="B89" s="346"/>
-      <c r="C89" s="349" t="s">
+      <c r="A89" s="319"/>
+      <c r="B89" s="320"/>
+      <c r="C89" s="315" t="s">
         <v>215</v>
       </c>
-      <c r="D89" s="350"/>
-      <c r="E89" s="351"/>
+      <c r="D89" s="316"/>
+      <c r="E89" s="314"/>
       <c r="F89" s="282" t="s">
         <v>216</v>
       </c>
@@ -8613,11 +8613,11 @@
       <c r="S89" s="300"/>
     </row>
     <row r="90" spans="1:19" ht="15" thickBot="1">
-      <c r="A90" s="345"/>
-      <c r="B90" s="346"/>
-      <c r="C90" s="337"/>
-      <c r="D90" s="338"/>
-      <c r="E90" s="339"/>
+      <c r="A90" s="319"/>
+      <c r="B90" s="320"/>
+      <c r="C90" s="317"/>
+      <c r="D90" s="323"/>
+      <c r="E90" s="318"/>
       <c r="F90" s="282" t="s">
         <v>218</v>
       </c>
@@ -8641,11 +8641,11 @@
       <c r="S90" s="300"/>
     </row>
     <row r="91" spans="1:19" ht="15" thickBot="1">
-      <c r="A91" s="345"/>
-      <c r="B91" s="346"/>
-      <c r="C91" s="345"/>
-      <c r="D91" s="352"/>
-      <c r="E91" s="346"/>
+      <c r="A91" s="319"/>
+      <c r="B91" s="320"/>
+      <c r="C91" s="319"/>
+      <c r="D91" s="324"/>
+      <c r="E91" s="320"/>
       <c r="F91" s="282" t="s">
         <v>219</v>
       </c>
@@ -8669,13 +8669,13 @@
       <c r="S91" s="300"/>
     </row>
     <row r="92" spans="1:19" ht="15" thickBot="1">
-      <c r="A92" s="345"/>
-      <c r="B92" s="346"/>
-      <c r="C92" s="345" t="s">
+      <c r="A92" s="319"/>
+      <c r="B92" s="320"/>
+      <c r="C92" s="319" t="s">
         <v>217</v>
       </c>
-      <c r="D92" s="352"/>
-      <c r="E92" s="346"/>
+      <c r="D92" s="324"/>
+      <c r="E92" s="320"/>
       <c r="F92" s="282" t="s">
         <v>220</v>
       </c>
@@ -8699,11 +8699,11 @@
       <c r="S92" s="300"/>
     </row>
     <row r="93" spans="1:19" ht="15" thickBot="1">
-      <c r="A93" s="345"/>
-      <c r="B93" s="346"/>
-      <c r="C93" s="353"/>
-      <c r="D93" s="354"/>
-      <c r="E93" s="355"/>
+      <c r="A93" s="319"/>
+      <c r="B93" s="320"/>
+      <c r="C93" s="325"/>
+      <c r="D93" s="326"/>
+      <c r="E93" s="327"/>
       <c r="F93" s="282" t="s">
         <v>221</v>
       </c>
@@ -8727,11 +8727,11 @@
       <c r="S93" s="300"/>
     </row>
     <row r="94" spans="1:19" ht="15" thickBot="1">
-      <c r="A94" s="345"/>
-      <c r="B94" s="346"/>
-      <c r="C94" s="353"/>
-      <c r="D94" s="354"/>
-      <c r="E94" s="355"/>
+      <c r="A94" s="319"/>
+      <c r="B94" s="320"/>
+      <c r="C94" s="325"/>
+      <c r="D94" s="326"/>
+      <c r="E94" s="327"/>
       <c r="F94" s="282" t="s">
         <v>222</v>
       </c>
@@ -8755,11 +8755,11 @@
       <c r="S94" s="300"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1">
-      <c r="A95" s="345"/>
-      <c r="B95" s="346"/>
-      <c r="C95" s="356"/>
-      <c r="D95" s="357"/>
-      <c r="E95" s="358"/>
+      <c r="A95" s="319"/>
+      <c r="B95" s="320"/>
+      <c r="C95" s="328"/>
+      <c r="D95" s="329"/>
+      <c r="E95" s="330"/>
       <c r="F95" s="283" t="s">
         <v>223</v>
       </c>
@@ -8783,13 +8783,13 @@
       <c r="S95" s="300"/>
     </row>
     <row r="96" spans="1:19" ht="15" thickBot="1">
-      <c r="A96" s="347"/>
-      <c r="B96" s="348"/>
-      <c r="C96" s="349" t="s">
+      <c r="A96" s="321"/>
+      <c r="B96" s="322"/>
+      <c r="C96" s="315" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="350"/>
-      <c r="E96" s="351"/>
+      <c r="D96" s="316"/>
+      <c r="E96" s="314"/>
       <c r="F96" s="283"/>
       <c r="G96" s="282">
         <v>7</v>
@@ -8811,14 +8811,14 @@
       <c r="S96" s="300"/>
     </row>
     <row r="97" spans="1:19" ht="15" thickBot="1">
-      <c r="A97" s="349" t="s">
+      <c r="A97" s="315" t="s">
         <v>225</v>
       </c>
-      <c r="B97" s="350"/>
-      <c r="C97" s="350"/>
-      <c r="D97" s="350"/>
-      <c r="E97" s="350"/>
-      <c r="F97" s="351"/>
+      <c r="B97" s="316"/>
+      <c r="C97" s="316"/>
+      <c r="D97" s="316"/>
+      <c r="E97" s="316"/>
+      <c r="F97" s="314"/>
       <c r="G97" s="282">
         <f>SUM(G84:G96)</f>
         <v>79</v>
@@ -8841,32 +8841,32 @@
       <c r="A98" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="359">
+      <c r="B98" s="313">
         <f>B78</f>
         <v>125</v>
       </c>
-      <c r="C98" s="351"/>
-      <c r="D98" s="349" t="s">
+      <c r="C98" s="314"/>
+      <c r="D98" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="E98" s="350"/>
-      <c r="F98" s="351"/>
-      <c r="G98" s="359">
+      <c r="E98" s="316"/>
+      <c r="F98" s="314"/>
+      <c r="G98" s="313">
         <f>B78-L78</f>
         <v>66</v>
       </c>
-      <c r="H98" s="351"/>
+      <c r="H98" s="314"/>
       <c r="I98" s="298"/>
       <c r="J98" s="298"/>
-      <c r="K98" s="349" t="s">
+      <c r="K98" s="315" t="s">
         <v>228</v>
       </c>
-      <c r="L98" s="351"/>
-      <c r="M98" s="359">
+      <c r="L98" s="314"/>
+      <c r="M98" s="313">
         <f>L78</f>
         <v>59</v>
       </c>
-      <c r="N98" s="351"/>
+      <c r="N98" s="314"/>
       <c r="O98"/>
       <c r="R98" s="298"/>
       <c r="S98" s="298"/>
@@ -8912,12 +8912,40 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="A87:B96"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
@@ -8929,40 +8957,12 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="K98:L98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8980,7 +8980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
@@ -9005,53 +9005,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="356" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
+      <c r="O1" s="356"/>
       <c r="R1"/>
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="357" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="309" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="311"/>
+      <c r="B2" s="359" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="361"/>
       <c r="G2" s="278"/>
       <c r="H2" s="278"/>
       <c r="I2" s="302"/>
       <c r="J2" s="302"/>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="360"/>
+      <c r="L2" s="363"/>
+      <c r="M2" s="363"/>
+      <c r="N2" s="363"/>
+      <c r="O2" s="367"/>
       <c r="R2" s="302"/>
       <c r="S2" s="302"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1">
-      <c r="A3" s="308"/>
+      <c r="A3" s="358"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9108,7 +9108,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="315" t="s">
+      <c r="A4" s="365" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="89">
@@ -9163,7 +9163,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="316"/>
+      <c r="A5" s="366"/>
       <c r="B5" s="91">
         <v>310016</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="S5" s="289"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="316"/>
+      <c r="A6" s="366"/>
       <c r="B6" s="100">
         <v>330001</v>
       </c>
@@ -9235,8 +9235,8 @@
       <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="361"/>
-      <c r="J6" s="361"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="306"/>
       <c r="K6" s="100" t="s">
         <v>128</v>
       </c>
@@ -9256,11 +9256,11 @@
         <f t="shared" ref="P6:P66" si="1">M6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R6" s="361"/>
-      <c r="S6" s="361"/>
+      <c r="R6" s="306"/>
+      <c r="S6" s="306"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="316"/>
+      <c r="A7" s="366"/>
       <c r="B7" s="100">
         <v>1900110</v>
       </c>
@@ -9283,8 +9283,8 @@
       <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="361"/>
-      <c r="J7" s="361"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
       <c r="K7" s="101"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
@@ -9294,11 +9294,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="361"/>
-      <c r="S7" s="361"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="316"/>
+      <c r="A8" s="366"/>
       <c r="B8" s="100">
         <v>310017</v>
       </c>
@@ -9322,8 +9322,8 @@
       <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="I8" s="361"/>
-      <c r="J8" s="361"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
       <c r="K8" s="101"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
@@ -9333,11 +9333,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="361"/>
-      <c r="S8" s="361"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="306"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="316"/>
+      <c r="A9" s="366"/>
       <c r="B9" s="87">
         <v>199186</v>
       </c>
@@ -9360,10 +9360,10 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="362">
+      <c r="I9" s="307">
         <v>32</v>
       </c>
-      <c r="J9" s="362"/>
+      <c r="J9" s="307"/>
       <c r="K9" s="101"/>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
@@ -9373,13 +9373,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="362" t="s">
+      <c r="R9" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="S9" s="362"/>
+      <c r="S9" s="307"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="316"/>
+      <c r="A10" s="366"/>
       <c r="B10" s="87">
         <v>1900101</v>
       </c>
@@ -9400,8 +9400,8 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="362"/>
-      <c r="J10" s="362"/>
+      <c r="I10" s="307"/>
+      <c r="J10" s="307"/>
       <c r="K10" s="101"/>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -9411,11 +9411,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="362"/>
-      <c r="S10" s="362"/>
+      <c r="R10" s="307"/>
+      <c r="S10" s="307"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="316"/>
+      <c r="A11" s="366"/>
       <c r="B11" s="87"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
@@ -9434,8 +9434,8 @@
       <c r="H11" s="76">
         <v>1</v>
       </c>
-      <c r="I11" s="363"/>
-      <c r="J11" s="363"/>
+      <c r="I11" s="308"/>
+      <c r="J11" s="308"/>
       <c r="K11" s="102"/>
       <c r="L11" s="78"/>
       <c r="M11" s="79"/>
@@ -9445,11 +9445,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="363"/>
-      <c r="S11" s="363"/>
+      <c r="R11" s="308"/>
+      <c r="S11" s="308"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="A12" s="316"/>
+      <c r="A12" s="366"/>
       <c r="B12" s="87">
         <v>1901001</v>
       </c>
@@ -9472,10 +9472,10 @@
       <c r="H12" s="76">
         <v>1</v>
       </c>
-      <c r="I12" s="363">
+      <c r="I12" s="308">
         <v>48</v>
       </c>
-      <c r="J12" s="363">
+      <c r="J12" s="308">
         <v>32</v>
       </c>
       <c r="K12" s="102"/>
@@ -9487,15 +9487,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="363" t="s">
+      <c r="R12" s="308" t="s">
         <v>276</v>
       </c>
-      <c r="S12" s="363" t="s">
+      <c r="S12" s="308" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17" thickBot="1">
-      <c r="A13" s="317" t="s">
+      <c r="A13" s="353" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="89">
@@ -9549,7 +9549,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
-      <c r="A14" s="318"/>
+      <c r="A14" s="354"/>
       <c r="B14" s="91">
         <v>310009</v>
       </c>
@@ -9603,7 +9603,7 @@
       <c r="S14" s="290"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="318"/>
+      <c r="A15" s="354"/>
       <c r="B15" s="91">
         <v>310013</v>
       </c>
@@ -9657,7 +9657,7 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="318"/>
+      <c r="A16" s="354"/>
       <c r="B16" s="236">
         <v>1900102</v>
       </c>
@@ -9694,7 +9694,7 @@
       <c r="S16" s="172"/>
     </row>
     <row r="17" spans="1:19" ht="15" thickBot="1">
-      <c r="A17" s="318"/>
+      <c r="A17" s="354"/>
       <c r="B17" s="199">
         <v>1901003</v>
       </c>
@@ -9717,10 +9717,10 @@
       <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="I17" s="362">
+      <c r="I17" s="307">
         <v>48</v>
       </c>
-      <c r="J17" s="362">
+      <c r="J17" s="307">
         <v>32</v>
       </c>
       <c r="K17" s="241"/>
@@ -9742,15 +9742,15 @@
       <c r="Q17" s="13">
         <v>0</v>
       </c>
-      <c r="R17" s="362" t="s">
+      <c r="R17" s="307" t="s">
         <v>278</v>
       </c>
-      <c r="S17" s="362" t="s">
+      <c r="S17" s="307" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="318"/>
+      <c r="A18" s="354"/>
       <c r="B18" s="241">
         <v>1900111</v>
       </c>
@@ -9773,8 +9773,8 @@
       <c r="H18" s="213">
         <v>1</v>
       </c>
-      <c r="I18" s="364"/>
-      <c r="J18" s="364"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
       <c r="K18" s="267"/>
       <c r="L18" s="268"/>
       <c r="M18" s="267"/>
@@ -9784,13 +9784,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="364" t="s">
+      <c r="R18" s="309" t="s">
         <v>276</v>
       </c>
-      <c r="S18" s="364"/>
+      <c r="S18" s="309"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="318"/>
+      <c r="A19" s="354"/>
       <c r="B19" s="87">
         <v>1901002</v>
       </c>
@@ -9813,10 +9813,10 @@
       <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="I19" s="364">
+      <c r="I19" s="309">
         <v>54</v>
       </c>
-      <c r="J19" s="364"/>
+      <c r="J19" s="309"/>
       <c r="K19" s="267"/>
       <c r="L19" s="268"/>
       <c r="M19" s="267"/>
@@ -9826,11 +9826,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
+      <c r="R19" s="309"/>
+      <c r="S19" s="309"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="318"/>
+      <c r="A20" s="354"/>
       <c r="B20" s="87">
         <v>1900112</v>
       </c>
@@ -9853,10 +9853,10 @@
       <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="365">
+      <c r="I20" s="310">
         <v>64</v>
       </c>
-      <c r="J20" s="365"/>
+      <c r="J20" s="310"/>
       <c r="K20" s="267"/>
       <c r="L20" s="268"/>
       <c r="M20" s="267"/>
@@ -9866,11 +9866,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="365"/>
-      <c r="S20" s="365"/>
+      <c r="R20" s="310"/>
+      <c r="S20" s="310"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1">
-      <c r="A21" s="318"/>
+      <c r="A21" s="354"/>
       <c r="B21" s="87">
         <v>1905045</v>
       </c>
@@ -9893,10 +9893,10 @@
       <c r="H21" s="10">
         <v>1</v>
       </c>
-      <c r="I21" s="362">
+      <c r="I21" s="307">
         <v>32</v>
       </c>
-      <c r="J21" s="362"/>
+      <c r="J21" s="307"/>
       <c r="K21" s="242"/>
       <c r="L21" s="126"/>
       <c r="M21" s="110"/>
@@ -9906,11 +9906,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R21" s="362"/>
-      <c r="S21" s="362"/>
+      <c r="R21" s="307"/>
+      <c r="S21" s="307"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1">
-      <c r="A22" s="319"/>
+      <c r="A22" s="355"/>
       <c r="B22" s="94"/>
       <c r="C22" s="170" t="s">
         <v>132</v>
@@ -9954,7 +9954,7 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="317" t="s">
+      <c r="A23" s="353" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="89">
@@ -10006,7 +10006,7 @@
       <c r="S23" s="289"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="318"/>
+      <c r="A24" s="354"/>
       <c r="B24" s="91">
         <v>310015</v>
       </c>
@@ -10030,8 +10030,8 @@
       <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="I24" s="362"/>
-      <c r="J24" s="362"/>
+      <c r="I24" s="307"/>
+      <c r="J24" s="307"/>
       <c r="K24" s="85"/>
       <c r="L24" s="134" t="s">
         <v>76</v>
@@ -10049,13 +10049,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="R24" s="362">
+      <c r="R24" s="307">
         <v>64</v>
       </c>
-      <c r="S24" s="362"/>
+      <c r="S24" s="307"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="318"/>
+      <c r="A25" s="354"/>
       <c r="B25" s="87">
         <v>1901007</v>
       </c>
@@ -10078,10 +10078,10 @@
       <c r="H25" s="10">
         <v>1</v>
       </c>
-      <c r="I25" s="362">
+      <c r="I25" s="307">
         <v>48</v>
       </c>
-      <c r="J25" s="362" t="s">
+      <c r="J25" s="307" t="s">
         <v>276</v>
       </c>
       <c r="K25" s="271">
@@ -10103,13 +10103,13 @@
       <c r="Q25" s="274">
         <v>1</v>
       </c>
-      <c r="R25" s="362"/>
-      <c r="S25" s="362">
+      <c r="R25" s="307"/>
+      <c r="S25" s="307">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="318"/>
+      <c r="A26" s="354"/>
       <c r="B26" s="202">
         <v>1901008</v>
       </c>
@@ -10132,10 +10132,10 @@
       <c r="H26" s="10">
         <v>1</v>
       </c>
-      <c r="I26" s="362" t="s">
+      <c r="I26" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="J26" s="362">
+      <c r="J26" s="307">
         <v>32</v>
       </c>
       <c r="K26" s="271"/>
@@ -10158,13 +10158,13 @@
       <c r="Q26" s="274">
         <v>1</v>
       </c>
-      <c r="R26" s="362">
+      <c r="R26" s="307">
         <v>32</v>
       </c>
-      <c r="S26" s="362"/>
+      <c r="S26" s="307"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="318"/>
+      <c r="A27" s="354"/>
       <c r="B27" s="87">
         <v>1901006</v>
       </c>
@@ -10187,10 +10187,10 @@
       <c r="H27" s="10">
         <v>1</v>
       </c>
-      <c r="I27" s="362">
+      <c r="I27" s="307">
         <v>64</v>
       </c>
-      <c r="J27" s="362" t="s">
+      <c r="J27" s="307" t="s">
         <v>275</v>
       </c>
       <c r="K27" s="193"/>
@@ -10212,13 +10212,13 @@
       <c r="Q27" s="13">
         <v>0</v>
       </c>
-      <c r="R27" s="362"/>
-      <c r="S27" s="362" t="s">
+      <c r="R27" s="307"/>
+      <c r="S27" s="307" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="318"/>
+      <c r="A28" s="354"/>
       <c r="B28" s="87">
         <v>1901007</v>
       </c>
@@ -10241,8 +10241,8 @@
       <c r="H28" s="10">
         <v>1</v>
       </c>
-      <c r="I28" s="362"/>
-      <c r="J28" s="362">
+      <c r="I28" s="307"/>
+      <c r="J28" s="307">
         <v>32</v>
       </c>
       <c r="K28" s="128">
@@ -10267,22 +10267,22 @@
       <c r="Q28" s="125">
         <v>1</v>
       </c>
-      <c r="R28" s="362">
+      <c r="R28" s="307">
         <v>32</v>
       </c>
-      <c r="S28" s="362" t="s">
+      <c r="S28" s="307" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1">
-      <c r="A29" s="318"/>
+      <c r="A29" s="354"/>
       <c r="G29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="I29" s="363"/>
-      <c r="J29" s="363"/>
+      <c r="I29" s="308"/>
+      <c r="J29" s="308"/>
       <c r="K29" s="128">
         <v>1905048</v>
       </c>
@@ -10305,13 +10305,13 @@
       <c r="Q29" s="125">
         <v>1</v>
       </c>
-      <c r="R29" s="363">
+      <c r="R29" s="308">
         <v>48</v>
       </c>
-      <c r="S29" s="363"/>
+      <c r="S29" s="308"/>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1">
-      <c r="A30" s="319"/>
+      <c r="A30" s="355"/>
       <c r="B30" s="94"/>
       <c r="C30" s="139" t="s">
         <v>32</v>
@@ -10356,7 +10356,7 @@
       <c r="S30" s="292"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="317" t="s">
+      <c r="A31" s="353" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="89">
@@ -10409,7 +10409,7 @@
       <c r="S31" s="289"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="318"/>
+      <c r="A32" s="354"/>
       <c r="B32" s="91">
         <v>3100014</v>
       </c>
@@ -10433,10 +10433,10 @@
       <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="I32" s="362" t="s">
+      <c r="I32" s="307" t="s">
         <v>277</v>
       </c>
-      <c r="J32" s="362"/>
+      <c r="J32" s="307"/>
       <c r="K32" s="128">
         <v>1905053</v>
       </c>
@@ -10459,13 +10459,13 @@
       <c r="Q32" s="125">
         <v>1</v>
       </c>
-      <c r="R32" s="362">
+      <c r="R32" s="307">
         <v>48</v>
       </c>
-      <c r="S32" s="362"/>
+      <c r="S32" s="307"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="318"/>
+      <c r="A33" s="354"/>
       <c r="B33" s="93">
         <v>1905010</v>
       </c>
@@ -10488,10 +10488,10 @@
       <c r="H33" s="10">
         <v>1</v>
       </c>
-      <c r="I33" s="362">
+      <c r="I33" s="307">
         <v>48</v>
       </c>
-      <c r="J33" s="362" t="s">
+      <c r="J33" s="307" t="s">
         <v>275</v>
       </c>
       <c r="K33" s="128">
@@ -10516,15 +10516,15 @@
       <c r="Q33" s="125">
         <v>1</v>
       </c>
-      <c r="R33" s="362">
+      <c r="R33" s="307">
         <v>48</v>
       </c>
-      <c r="S33" s="362" t="s">
+      <c r="S33" s="307" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="318"/>
+      <c r="A34" s="354"/>
       <c r="B34" s="93">
         <v>1905011</v>
       </c>
@@ -10547,8 +10547,8 @@
       <c r="H34" s="10">
         <v>1</v>
       </c>
-      <c r="I34" s="362"/>
-      <c r="J34" s="362">
+      <c r="I34" s="307"/>
+      <c r="J34" s="307">
         <v>32</v>
       </c>
       <c r="K34" s="128" t="s">
@@ -10573,11 +10573,11 @@
       <c r="Q34" s="125">
         <v>1</v>
       </c>
-      <c r="R34" s="362"/>
-      <c r="S34" s="362"/>
+      <c r="R34" s="307"/>
+      <c r="S34" s="307"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="318"/>
+      <c r="A35" s="354"/>
       <c r="B35" s="206"/>
       <c r="C35" s="207"/>
       <c r="D35" s="208"/>
@@ -10588,8 +10588,8 @@
         <v>0</v>
       </c>
       <c r="H35" s="10"/>
-      <c r="I35" s="362"/>
-      <c r="J35" s="362"/>
+      <c r="I35" s="307"/>
+      <c r="J35" s="307"/>
       <c r="K35" s="128">
         <v>1905030</v>
       </c>
@@ -10612,13 +10612,13 @@
       <c r="Q35" s="125">
         <v>1</v>
       </c>
-      <c r="R35" s="362">
+      <c r="R35" s="307">
         <v>48</v>
       </c>
-      <c r="S35" s="362"/>
+      <c r="S35" s="307"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="318"/>
+      <c r="A36" s="354"/>
       <c r="B36" s="206"/>
       <c r="C36" s="207"/>
       <c r="D36" s="208"/>
@@ -10629,8 +10629,8 @@
         <v>0</v>
       </c>
       <c r="H36" s="10"/>
-      <c r="I36" s="363"/>
-      <c r="J36" s="363"/>
+      <c r="I36" s="308"/>
+      <c r="J36" s="308"/>
       <c r="K36" s="128" t="s">
         <v>83</v>
       </c>
@@ -10642,11 +10642,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="363"/>
-      <c r="S36" s="363"/>
+      <c r="R36" s="308"/>
+      <c r="S36" s="308"/>
     </row>
     <row r="37" spans="1:19" ht="15" thickBot="1">
-      <c r="A37" s="319"/>
+      <c r="A37" s="355"/>
       <c r="B37" s="94"/>
       <c r="C37" s="139" t="s">
         <v>36</v>
@@ -10688,7 +10688,7 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="317" t="s">
+      <c r="A38" s="353" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="210">
@@ -10713,10 +10713,10 @@
       <c r="H38" s="213">
         <v>1</v>
       </c>
-      <c r="I38" s="362" t="s">
+      <c r="I38" s="307" t="s">
         <v>275</v>
       </c>
-      <c r="J38" s="362"/>
+      <c r="J38" s="307"/>
       <c r="K38" s="227"/>
       <c r="L38" s="135" t="s">
         <v>280</v>
@@ -10736,13 +10736,13 @@
       <c r="Q38" t="s">
         <v>276</v>
       </c>
-      <c r="R38" s="362" t="s">
+      <c r="R38" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="S38" s="362"/>
+      <c r="S38" s="307"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="318"/>
+      <c r="A39" s="354"/>
       <c r="B39" s="215">
         <v>1905046</v>
       </c>
@@ -10765,10 +10765,10 @@
       <c r="H39" s="10">
         <v>1</v>
       </c>
-      <c r="I39" s="362">
+      <c r="I39" s="307">
         <v>48</v>
       </c>
-      <c r="J39" s="362" t="s">
+      <c r="J39" s="307" t="s">
         <v>275</v>
       </c>
       <c r="K39" s="271">
@@ -10792,15 +10792,15 @@
       <c r="Q39" s="274">
         <v>1</v>
       </c>
-      <c r="R39" s="362" t="s">
+      <c r="R39" s="307" t="s">
         <v>279</v>
       </c>
-      <c r="S39" s="362">
+      <c r="S39" s="307">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="318"/>
+      <c r="A40" s="354"/>
       <c r="B40" s="215">
         <v>1905047</v>
       </c>
@@ -10823,10 +10823,10 @@
       <c r="H40" s="10">
         <v>1</v>
       </c>
-      <c r="I40" s="362" t="s">
+      <c r="I40" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="J40" s="362">
+      <c r="J40" s="307">
         <v>32</v>
       </c>
       <c r="K40" s="271">
@@ -10848,15 +10848,15 @@
         <v>120</v>
       </c>
       <c r="Q40" s="274"/>
-      <c r="R40" s="362" t="s">
+      <c r="R40" s="307" t="s">
         <v>275</v>
       </c>
-      <c r="S40" s="362">
+      <c r="S40" s="307">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="318"/>
+      <c r="A41" s="354"/>
       <c r="B41" s="215">
         <v>1901015</v>
       </c>
@@ -10879,10 +10879,10 @@
       <c r="H41" s="10">
         <v>1</v>
       </c>
-      <c r="I41" s="362">
+      <c r="I41" s="307">
         <v>64</v>
       </c>
-      <c r="J41" s="362" t="s">
+      <c r="J41" s="307" t="s">
         <v>275</v>
       </c>
       <c r="K41" s="128"/>
@@ -10902,13 +10902,13 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R41" s="362"/>
-      <c r="S41" s="362" t="s">
+      <c r="R41" s="307"/>
+      <c r="S41" s="307" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="318"/>
+      <c r="A42" s="354"/>
       <c r="B42" s="215">
         <v>1901016</v>
       </c>
@@ -10931,10 +10931,10 @@
       <c r="H42" s="10">
         <v>1</v>
       </c>
-      <c r="I42" s="362" t="s">
+      <c r="I42" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="J42" s="362">
+      <c r="J42" s="307">
         <v>40</v>
       </c>
       <c r="K42" s="128"/>
@@ -10954,13 +10954,13 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R42" s="362" t="s">
+      <c r="R42" s="307" t="s">
         <v>275</v>
       </c>
-      <c r="S42" s="362"/>
+      <c r="S42" s="307"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="318"/>
+      <c r="A43" s="354"/>
       <c r="B43" s="215">
         <v>1901013</v>
       </c>
@@ -10983,10 +10983,10 @@
       <c r="H43" s="10">
         <v>1</v>
       </c>
-      <c r="I43" s="362">
+      <c r="I43" s="307">
         <v>48</v>
       </c>
-      <c r="J43" s="362" t="s">
+      <c r="J43" s="307" t="s">
         <v>275</v>
       </c>
       <c r="K43" s="128"/>
@@ -11006,13 +11006,13 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R43" s="362"/>
-      <c r="S43" s="362" t="s">
+      <c r="R43" s="307"/>
+      <c r="S43" s="307" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="318"/>
+      <c r="A44" s="354"/>
       <c r="B44" s="215">
         <v>1901014</v>
       </c>
@@ -11035,8 +11035,8 @@
       <c r="H44" s="10">
         <v>1</v>
       </c>
-      <c r="I44" s="362"/>
-      <c r="J44" s="362">
+      <c r="I44" s="307"/>
+      <c r="J44" s="307">
         <v>16</v>
       </c>
       <c r="K44" s="128" t="s">
@@ -11056,11 +11056,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R44" s="362"/>
-      <c r="S44" s="362"/>
+      <c r="R44" s="307"/>
+      <c r="S44" s="307"/>
     </row>
     <row r="45" spans="1:19" ht="15" thickBot="1">
-      <c r="A45" s="318"/>
+      <c r="A45" s="354"/>
       <c r="B45" s="215"/>
       <c r="C45" s="34"/>
       <c r="D45" s="25"/>
@@ -11071,8 +11071,8 @@
         <v>0</v>
       </c>
       <c r="H45" s="10"/>
-      <c r="I45" s="363"/>
-      <c r="J45" s="363"/>
+      <c r="I45" s="308"/>
+      <c r="J45" s="308"/>
       <c r="K45" s="128" t="s">
         <v>83</v>
       </c>
@@ -11090,11 +11090,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R45" s="363"/>
-      <c r="S45" s="363"/>
+      <c r="R45" s="308"/>
+      <c r="S45" s="308"/>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1">
-      <c r="A46" s="319"/>
+      <c r="A46" s="355"/>
       <c r="B46" s="94"/>
       <c r="C46" s="139" t="s">
         <v>38</v>
@@ -11124,7 +11124,7 @@
       <c r="S46" s="292"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="318" t="s">
+      <c r="A47" s="354" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="210">
@@ -11175,7 +11175,7 @@
       <c r="S47" s="289"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="318"/>
+      <c r="A48" s="354"/>
       <c r="B48" s="236">
         <v>1900103</v>
       </c>
@@ -11198,10 +11198,10 @@
       <c r="H48" s="237">
         <v>1</v>
       </c>
-      <c r="I48" s="362" t="s">
+      <c r="I48" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="J48" s="362"/>
+      <c r="J48" s="307"/>
       <c r="K48" s="128">
         <v>1905037</v>
       </c>
@@ -11224,13 +11224,13 @@
       <c r="Q48">
         <v>1</v>
       </c>
-      <c r="R48" s="362">
+      <c r="R48" s="307">
         <v>48</v>
       </c>
-      <c r="S48" s="362"/>
+      <c r="S48" s="307"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="318"/>
+      <c r="A49" s="354"/>
       <c r="B49" s="93">
         <v>1905033</v>
       </c>
@@ -11253,10 +11253,10 @@
       <c r="H49" s="10">
         <v>1</v>
       </c>
-      <c r="I49" s="362">
+      <c r="I49" s="307">
         <v>48</v>
       </c>
-      <c r="J49" s="362"/>
+      <c r="J49" s="307"/>
       <c r="K49" s="271">
         <v>1905038</v>
       </c>
@@ -11279,8 +11279,8 @@
       <c r="Q49" s="274">
         <v>1</v>
       </c>
-      <c r="R49" s="362"/>
-      <c r="S49" s="362">
+      <c r="R49" s="307"/>
+      <c r="S49" s="307">
         <v>16</v>
       </c>
     </row>
@@ -11308,8 +11308,8 @@
       <c r="H50" s="10">
         <v>1</v>
       </c>
-      <c r="I50" s="362"/>
-      <c r="J50" s="362">
+      <c r="I50" s="307"/>
+      <c r="J50" s="307">
         <v>32</v>
       </c>
       <c r="K50" s="128">
@@ -11332,10 +11332,10 @@
       <c r="Q50">
         <v>1</v>
       </c>
-      <c r="R50" s="362">
+      <c r="R50" s="307">
         <v>32</v>
       </c>
-      <c r="S50" s="362"/>
+      <c r="S50" s="307"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="168"/>
@@ -11349,8 +11349,8 @@
         <v>0</v>
       </c>
       <c r="H51" s="10"/>
-      <c r="I51" s="362"/>
-      <c r="J51" s="362"/>
+      <c r="I51" s="307"/>
+      <c r="J51" s="307"/>
       <c r="K51" s="128">
         <v>1904020</v>
       </c>
@@ -11371,10 +11371,10 @@
       <c r="Q51">
         <v>1</v>
       </c>
-      <c r="R51" s="362">
+      <c r="R51" s="307">
         <v>32</v>
       </c>
-      <c r="S51" s="362"/>
+      <c r="S51" s="307"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="168"/>
@@ -11388,8 +11388,8 @@
         <v>0</v>
       </c>
       <c r="H52" s="10"/>
-      <c r="I52" s="362"/>
-      <c r="J52" s="362"/>
+      <c r="I52" s="307"/>
+      <c r="J52" s="307"/>
       <c r="K52" s="128">
         <v>1904021</v>
       </c>
@@ -11410,8 +11410,8 @@
       <c r="Q52">
         <v>1</v>
       </c>
-      <c r="R52" s="362"/>
-      <c r="S52" s="362">
+      <c r="R52" s="307"/>
+      <c r="S52" s="307">
         <v>32</v>
       </c>
     </row>
@@ -11427,8 +11427,8 @@
         <v>0</v>
       </c>
       <c r="H53" s="10"/>
-      <c r="I53" s="365"/>
-      <c r="J53" s="365"/>
+      <c r="I53" s="310"/>
+      <c r="J53" s="310"/>
       <c r="K53" s="271">
         <v>199641</v>
       </c>
@@ -11450,8 +11450,8 @@
       <c r="Q53" s="274">
         <v>1</v>
       </c>
-      <c r="R53" s="365"/>
-      <c r="S53" s="365">
+      <c r="R53" s="310"/>
+      <c r="S53" s="310">
         <v>80</v>
       </c>
     </row>
@@ -11467,8 +11467,8 @@
         <v>0</v>
       </c>
       <c r="H54" s="10"/>
-      <c r="I54" s="365"/>
-      <c r="J54" s="365"/>
+      <c r="I54" s="310"/>
+      <c r="J54" s="310"/>
       <c r="K54" s="93">
         <v>199783</v>
       </c>
@@ -11491,10 +11491,10 @@
       <c r="Q54">
         <v>1</v>
       </c>
-      <c r="R54" s="365">
+      <c r="R54" s="310">
         <v>48</v>
       </c>
-      <c r="S54" s="365"/>
+      <c r="S54" s="310"/>
     </row>
     <row r="55" spans="1:19" ht="15" thickBot="1">
       <c r="A55" s="168"/>
@@ -11508,8 +11508,8 @@
         <v>0</v>
       </c>
       <c r="H55" s="10"/>
-      <c r="I55" s="363"/>
-      <c r="J55" s="363"/>
+      <c r="I55" s="308"/>
+      <c r="J55" s="308"/>
       <c r="K55" s="93">
         <v>199784</v>
       </c>
@@ -11532,8 +11532,8 @@
       <c r="Q55">
         <v>1</v>
       </c>
-      <c r="R55" s="363"/>
-      <c r="S55" s="363">
+      <c r="R55" s="308"/>
+      <c r="S55" s="308">
         <v>32</v>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
       <c r="S56" s="292"/>
     </row>
     <row r="57" spans="1:19" ht="15" thickBot="1">
-      <c r="A57" s="317" t="s">
+      <c r="A57" s="353" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="255">
@@ -11624,7 +11624,7 @@
       <c r="S57" s="289"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="318"/>
+      <c r="A58" s="354"/>
       <c r="B58" s="236">
         <v>1900105</v>
       </c>
@@ -11676,7 +11676,7 @@
       <c r="S58" s="290"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="318"/>
+      <c r="A59" s="354"/>
       <c r="B59" s="236">
         <v>1900107</v>
       </c>
@@ -11723,7 +11723,7 @@
       <c r="S59" s="289"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="318"/>
+      <c r="A60" s="354"/>
       <c r="B60" s="260"/>
       <c r="C60" s="151" t="s">
         <v>134</v>
@@ -11743,8 +11743,8 @@
       <c r="H60" s="261">
         <v>1</v>
       </c>
-      <c r="I60" s="366"/>
-      <c r="J60" s="366"/>
+      <c r="I60" s="311"/>
+      <c r="J60" s="311"/>
       <c r="K60" s="128" t="s">
         <v>153</v>
       </c>
@@ -11764,11 +11764,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R60" s="366"/>
-      <c r="S60" s="366"/>
+      <c r="R60" s="311"/>
+      <c r="S60" s="311"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="318"/>
+      <c r="A61" s="354"/>
       <c r="B61" s="128" t="s">
         <v>258</v>
       </c>
@@ -11791,8 +11791,8 @@
       <c r="H61" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I61" s="366"/>
-      <c r="J61" s="366"/>
+      <c r="I61" s="311"/>
+      <c r="J61" s="311"/>
       <c r="K61" s="128" t="s">
         <v>153</v>
       </c>
@@ -11810,11 +11810,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R61" s="366"/>
-      <c r="S61" s="366"/>
+      <c r="R61" s="311"/>
+      <c r="S61" s="311"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="318"/>
+      <c r="A62" s="354"/>
       <c r="B62" s="87"/>
       <c r="C62" s="21" t="s">
         <v>85</v>
@@ -11833,8 +11833,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H62" s="10"/>
-      <c r="I62" s="366"/>
-      <c r="J62" s="366"/>
+      <c r="I62" s="311"/>
+      <c r="J62" s="311"/>
       <c r="K62" s="206"/>
       <c r="L62" s="266"/>
       <c r="M62" s="208"/>
@@ -11844,11 +11844,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R62" s="366"/>
-      <c r="S62" s="366"/>
+      <c r="R62" s="311"/>
+      <c r="S62" s="311"/>
     </row>
     <row r="63" spans="1:19" ht="15" thickBot="1">
-      <c r="A63" s="318"/>
+      <c r="A63" s="354"/>
       <c r="B63" s="87"/>
       <c r="C63" s="21" t="s">
         <v>83</v>
@@ -11867,8 +11867,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H63" s="10"/>
-      <c r="I63" s="367"/>
-      <c r="J63" s="367"/>
+      <c r="I63" s="312"/>
+      <c r="J63" s="312"/>
       <c r="K63" s="206"/>
       <c r="L63" s="266"/>
       <c r="M63" s="208"/>
@@ -11878,11 +11878,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R63" s="367"/>
-      <c r="S63" s="367"/>
+      <c r="R63" s="312"/>
+      <c r="S63" s="312"/>
     </row>
     <row r="64" spans="1:19" ht="15" thickBot="1">
-      <c r="A64" s="319"/>
+      <c r="A64" s="355"/>
       <c r="B64" s="94"/>
       <c r="C64" s="263"/>
       <c r="D64" s="36"/>
@@ -12201,25 +12201,25 @@
         <v>48</v>
       </c>
       <c r="B73" s="167"/>
-      <c r="C73" s="320" t="s">
+      <c r="C73" s="344" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="321"/>
-      <c r="E73" s="322"/>
-      <c r="F73" s="320" t="s">
+      <c r="D73" s="345"/>
+      <c r="E73" s="346"/>
+      <c r="F73" s="344" t="s">
         <v>262</v>
       </c>
-      <c r="G73" s="321"/>
-      <c r="H73" s="321"/>
-      <c r="I73" s="321"/>
-      <c r="J73" s="321"/>
-      <c r="K73" s="321"/>
-      <c r="L73" s="322"/>
-      <c r="M73" s="323" t="s">
+      <c r="G73" s="345"/>
+      <c r="H73" s="345"/>
+      <c r="I73" s="345"/>
+      <c r="J73" s="345"/>
+      <c r="K73" s="345"/>
+      <c r="L73" s="346"/>
+      <c r="M73" s="347" t="s">
         <v>116</v>
       </c>
-      <c r="N73" s="323"/>
-      <c r="O73" s="324"/>
+      <c r="N73" s="347"/>
+      <c r="O73" s="348"/>
       <c r="R73" s="145"/>
       <c r="S73" s="145"/>
     </row>
@@ -12255,19 +12255,19 @@
       <c r="L74" s="147">
         <v>18</v>
       </c>
-      <c r="M74" s="325" t="s">
+      <c r="M74" s="349" t="s">
         <v>118</v>
       </c>
-      <c r="N74" s="326"/>
-      <c r="O74" s="327"/>
+      <c r="N74" s="350"/>
+      <c r="O74" s="351"/>
       <c r="R74" s="149"/>
       <c r="S74" s="149"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="328">
+      <c r="A75" s="336">
         <v>2</v>
       </c>
-      <c r="B75" s="329" t="s">
+      <c r="B75" s="352" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="148"/>
@@ -12285,15 +12285,15 @@
         <f>SUM(E16+E48+E57+E58+E59+E65)</f>
         <v>10</v>
       </c>
-      <c r="M75" s="331"/>
-      <c r="N75" s="331"/>
-      <c r="O75" s="332"/>
+      <c r="M75" s="340"/>
+      <c r="N75" s="340"/>
+      <c r="O75" s="341"/>
       <c r="R75" s="153"/>
       <c r="S75" s="153"/>
     </row>
     <row r="76" spans="1:19" ht="26">
-      <c r="A76" s="328"/>
-      <c r="B76" s="330"/>
+      <c r="A76" s="336"/>
+      <c r="B76" s="337"/>
       <c r="C76" s="151"/>
       <c r="D76" s="152"/>
       <c r="E76" s="152"/>
@@ -12308,17 +12308,17 @@
       <c r="L76" s="152">
         <v>5</v>
       </c>
-      <c r="M76" s="331"/>
-      <c r="N76" s="331"/>
-      <c r="O76" s="332"/>
+      <c r="M76" s="340"/>
+      <c r="N76" s="340"/>
+      <c r="O76" s="341"/>
       <c r="R76" s="157"/>
       <c r="S76" s="157"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="328">
+      <c r="A77" s="336">
         <v>3</v>
       </c>
-      <c r="B77" s="330" t="s">
+      <c r="B77" s="337" t="s">
         <v>162</v>
       </c>
       <c r="C77" s="154" t="s">
@@ -12343,15 +12343,15 @@
       <c r="L77" s="158">
         <v>20</v>
       </c>
-      <c r="M77" s="333"/>
-      <c r="N77" s="333"/>
-      <c r="O77" s="334"/>
+      <c r="M77" s="338"/>
+      <c r="N77" s="338"/>
+      <c r="O77" s="339"/>
       <c r="R77" s="159"/>
       <c r="S77" s="159"/>
     </row>
     <row r="78" spans="1:19" ht="27" thickBot="1">
-      <c r="A78" s="328"/>
-      <c r="B78" s="330"/>
+      <c r="A78" s="336"/>
+      <c r="B78" s="337"/>
       <c r="C78" s="154" t="s">
         <v>126</v>
       </c>
@@ -12366,9 +12366,9 @@
       <c r="J78" s="301"/>
       <c r="K78" s="164"/>
       <c r="L78" s="69"/>
-      <c r="M78" s="331"/>
-      <c r="N78" s="331"/>
-      <c r="O78" s="332"/>
+      <c r="M78" s="340"/>
+      <c r="N78" s="340"/>
+      <c r="O78" s="341"/>
       <c r="R78" s="301"/>
       <c r="S78" s="301"/>
     </row>
@@ -12401,9 +12401,9 @@
         <f>SUM(L74:L78)</f>
         <v>53</v>
       </c>
-      <c r="M79" s="335"/>
-      <c r="N79" s="335"/>
-      <c r="O79" s="336"/>
+      <c r="M79" s="342"/>
+      <c r="N79" s="342"/>
+      <c r="O79" s="343"/>
       <c r="R79" s="64"/>
       <c r="S79" s="64"/>
     </row>
@@ -12471,16 +12471,16 @@
       <c r="S82" s="299"/>
     </row>
     <row r="83" spans="1:19" ht="57" thickBot="1">
-      <c r="A83" s="337"/>
-      <c r="B83" s="338"/>
-      <c r="C83" s="338"/>
-      <c r="D83" s="338"/>
-      <c r="E83" s="338"/>
-      <c r="F83" s="339"/>
+      <c r="A83" s="317"/>
+      <c r="B83" s="323"/>
+      <c r="C83" s="323"/>
+      <c r="D83" s="323"/>
+      <c r="E83" s="323"/>
+      <c r="F83" s="318"/>
       <c r="G83" s="295" t="s">
         <v>200</v>
       </c>
-      <c r="H83" s="343" t="s">
+      <c r="H83" s="334" t="s">
         <v>202</v>
       </c>
       <c r="I83" s="300"/>
@@ -12488,55 +12488,55 @@
       <c r="K83" s="295" t="s">
         <v>203</v>
       </c>
-      <c r="L83" s="343" t="s">
+      <c r="L83" s="334" t="s">
         <v>6</v>
       </c>
       <c r="M83" s="295" t="s">
         <v>205</v>
       </c>
-      <c r="N83" s="343" t="s">
+      <c r="N83" s="334" t="s">
         <v>206</v>
       </c>
       <c r="R83" s="300"/>
       <c r="S83" s="300"/>
     </row>
     <row r="84" spans="1:19" ht="29" thickBot="1">
-      <c r="A84" s="340" t="s">
+      <c r="A84" s="331" t="s">
         <v>199</v>
       </c>
-      <c r="B84" s="341"/>
-      <c r="C84" s="341"/>
-      <c r="D84" s="341"/>
-      <c r="E84" s="341"/>
-      <c r="F84" s="342"/>
+      <c r="B84" s="332"/>
+      <c r="C84" s="332"/>
+      <c r="D84" s="332"/>
+      <c r="E84" s="332"/>
+      <c r="F84" s="333"/>
       <c r="G84" s="297" t="s">
         <v>201</v>
       </c>
-      <c r="H84" s="344"/>
+      <c r="H84" s="335"/>
       <c r="I84" s="300"/>
       <c r="J84" s="300"/>
       <c r="K84" s="297" t="s">
         <v>204</v>
       </c>
-      <c r="L84" s="344"/>
+      <c r="L84" s="335"/>
       <c r="M84" s="297" t="s">
         <v>204</v>
       </c>
-      <c r="N84" s="344"/>
+      <c r="N84" s="335"/>
       <c r="R84" s="300"/>
       <c r="S84" s="300"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1">
-      <c r="A85" s="337" t="s">
+      <c r="A85" s="317" t="s">
         <v>207</v>
       </c>
-      <c r="B85" s="339"/>
-      <c r="C85" s="349" t="s">
+      <c r="B85" s="318"/>
+      <c r="C85" s="315" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="350"/>
-      <c r="E85" s="350"/>
-      <c r="F85" s="351"/>
+      <c r="D85" s="316"/>
+      <c r="E85" s="316"/>
+      <c r="F85" s="314"/>
       <c r="G85" s="297">
         <v>7</v>
       </c>
@@ -12561,16 +12561,16 @@
       <c r="S85" s="300"/>
     </row>
     <row r="86" spans="1:19" ht="15" thickBot="1">
-      <c r="A86" s="345"/>
-      <c r="B86" s="346"/>
-      <c r="C86" s="337" t="s">
+      <c r="A86" s="319"/>
+      <c r="B86" s="320"/>
+      <c r="C86" s="317" t="s">
         <v>209</v>
       </c>
-      <c r="D86" s="339"/>
-      <c r="E86" s="349" t="s">
+      <c r="D86" s="318"/>
+      <c r="E86" s="315" t="s">
         <v>210</v>
       </c>
-      <c r="F86" s="351"/>
+      <c r="F86" s="314"/>
       <c r="G86" s="304">
         <f>SUM(H10+H11+H12+H9+H20+H21+H19+H25+H26+H43+H44)</f>
         <v>11</v>
@@ -12598,14 +12598,14 @@
       <c r="S86" s="300"/>
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1">
-      <c r="A87" s="347"/>
-      <c r="B87" s="348"/>
-      <c r="C87" s="347"/>
-      <c r="D87" s="348"/>
-      <c r="E87" s="349" t="s">
+      <c r="A87" s="321"/>
+      <c r="B87" s="322"/>
+      <c r="C87" s="321"/>
+      <c r="D87" s="322"/>
+      <c r="E87" s="315" t="s">
         <v>211</v>
       </c>
-      <c r="F87" s="351"/>
+      <c r="F87" s="314"/>
       <c r="G87" s="304">
         <f>SUM(H17+H27+H28+H33+H34+H39+H40+H41+H42+H49+H50)</f>
         <v>11</v>
@@ -12633,16 +12633,16 @@
       <c r="S87" s="300"/>
     </row>
     <row r="88" spans="1:19" ht="15" thickBot="1">
-      <c r="A88" s="337" t="s">
+      <c r="A88" s="317" t="s">
         <v>212</v>
       </c>
-      <c r="B88" s="339"/>
-      <c r="C88" s="349" t="s">
+      <c r="B88" s="318"/>
+      <c r="C88" s="315" t="s">
         <v>213</v>
       </c>
-      <c r="D88" s="350"/>
-      <c r="E88" s="350"/>
-      <c r="F88" s="351"/>
+      <c r="D88" s="316"/>
+      <c r="E88" s="316"/>
+      <c r="F88" s="314"/>
       <c r="G88" s="297">
         <f>Q67</f>
         <v>27</v>
@@ -12670,14 +12670,14 @@
       <c r="S88" s="300"/>
     </row>
     <row r="89" spans="1:19" ht="15" thickBot="1">
-      <c r="A89" s="345"/>
-      <c r="B89" s="346"/>
-      <c r="C89" s="349" t="s">
+      <c r="A89" s="319"/>
+      <c r="B89" s="320"/>
+      <c r="C89" s="315" t="s">
         <v>214</v>
       </c>
-      <c r="D89" s="350"/>
-      <c r="E89" s="350"/>
-      <c r="F89" s="351"/>
+      <c r="D89" s="316"/>
+      <c r="E89" s="316"/>
+      <c r="F89" s="314"/>
       <c r="G89" s="297">
         <v>7</v>
       </c>
@@ -12702,13 +12702,13 @@
       <c r="S89" s="300"/>
     </row>
     <row r="90" spans="1:19" ht="15" thickBot="1">
-      <c r="A90" s="345"/>
-      <c r="B90" s="346"/>
-      <c r="C90" s="349" t="s">
+      <c r="A90" s="319"/>
+      <c r="B90" s="320"/>
+      <c r="C90" s="315" t="s">
         <v>215</v>
       </c>
-      <c r="D90" s="350"/>
-      <c r="E90" s="351"/>
+      <c r="D90" s="316"/>
+      <c r="E90" s="314"/>
       <c r="F90" s="297" t="s">
         <v>216</v>
       </c>
@@ -12728,11 +12728,11 @@
       <c r="S90" s="300"/>
     </row>
     <row r="91" spans="1:19" ht="15" thickBot="1">
-      <c r="A91" s="345"/>
-      <c r="B91" s="346"/>
-      <c r="C91" s="337"/>
-      <c r="D91" s="338"/>
-      <c r="E91" s="339"/>
+      <c r="A91" s="319"/>
+      <c r="B91" s="320"/>
+      <c r="C91" s="317"/>
+      <c r="D91" s="323"/>
+      <c r="E91" s="318"/>
       <c r="F91" s="297" t="s">
         <v>218</v>
       </c>
@@ -12755,11 +12755,11 @@
       <c r="S91" s="300"/>
     </row>
     <row r="92" spans="1:19" ht="15" thickBot="1">
-      <c r="A92" s="345"/>
-      <c r="B92" s="346"/>
-      <c r="C92" s="345"/>
-      <c r="D92" s="352"/>
-      <c r="E92" s="346"/>
+      <c r="A92" s="319"/>
+      <c r="B92" s="320"/>
+      <c r="C92" s="319"/>
+      <c r="D92" s="324"/>
+      <c r="E92" s="320"/>
       <c r="F92" s="297" t="s">
         <v>219</v>
       </c>
@@ -12782,13 +12782,13 @@
       <c r="S92" s="300"/>
     </row>
     <row r="93" spans="1:19" ht="15" thickBot="1">
-      <c r="A93" s="345"/>
-      <c r="B93" s="346"/>
-      <c r="C93" s="345" t="s">
+      <c r="A93" s="319"/>
+      <c r="B93" s="320"/>
+      <c r="C93" s="319" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="352"/>
-      <c r="E93" s="346"/>
+      <c r="D93" s="324"/>
+      <c r="E93" s="320"/>
       <c r="F93" s="297" t="s">
         <v>220</v>
       </c>
@@ -12811,11 +12811,11 @@
       <c r="S93" s="300"/>
     </row>
     <row r="94" spans="1:19" ht="15" thickBot="1">
-      <c r="A94" s="345"/>
-      <c r="B94" s="346"/>
-      <c r="C94" s="353"/>
-      <c r="D94" s="354"/>
-      <c r="E94" s="355"/>
+      <c r="A94" s="319"/>
+      <c r="B94" s="320"/>
+      <c r="C94" s="325"/>
+      <c r="D94" s="326"/>
+      <c r="E94" s="327"/>
       <c r="F94" s="297" t="s">
         <v>221</v>
       </c>
@@ -12838,11 +12838,11 @@
       <c r="S94" s="300"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1">
-      <c r="A95" s="345"/>
-      <c r="B95" s="346"/>
-      <c r="C95" s="353"/>
-      <c r="D95" s="354"/>
-      <c r="E95" s="355"/>
+      <c r="A95" s="319"/>
+      <c r="B95" s="320"/>
+      <c r="C95" s="325"/>
+      <c r="D95" s="326"/>
+      <c r="E95" s="327"/>
       <c r="F95" s="297" t="s">
         <v>222</v>
       </c>
@@ -12865,11 +12865,11 @@
       <c r="S95" s="300"/>
     </row>
     <row r="96" spans="1:19" ht="15" thickBot="1">
-      <c r="A96" s="345"/>
-      <c r="B96" s="346"/>
-      <c r="C96" s="356"/>
-      <c r="D96" s="357"/>
-      <c r="E96" s="358"/>
+      <c r="A96" s="319"/>
+      <c r="B96" s="320"/>
+      <c r="C96" s="328"/>
+      <c r="D96" s="329"/>
+      <c r="E96" s="330"/>
       <c r="F96" s="283" t="s">
         <v>223</v>
       </c>
@@ -12892,13 +12892,13 @@
       <c r="S96" s="300"/>
     </row>
     <row r="97" spans="1:19" ht="15" thickBot="1">
-      <c r="A97" s="347"/>
-      <c r="B97" s="348"/>
-      <c r="C97" s="349" t="s">
+      <c r="A97" s="321"/>
+      <c r="B97" s="322"/>
+      <c r="C97" s="315" t="s">
         <v>224</v>
       </c>
-      <c r="D97" s="350"/>
-      <c r="E97" s="351"/>
+      <c r="D97" s="316"/>
+      <c r="E97" s="314"/>
       <c r="F97" s="283"/>
       <c r="G97" s="297">
         <v>7</v>
@@ -12919,14 +12919,14 @@
       <c r="S97" s="300"/>
     </row>
     <row r="98" spans="1:19" ht="15" thickBot="1">
-      <c r="A98" s="349" t="s">
+      <c r="A98" s="315" t="s">
         <v>225</v>
       </c>
-      <c r="B98" s="350"/>
-      <c r="C98" s="350"/>
-      <c r="D98" s="350"/>
-      <c r="E98" s="350"/>
-      <c r="F98" s="351"/>
+      <c r="B98" s="316"/>
+      <c r="C98" s="316"/>
+      <c r="D98" s="316"/>
+      <c r="E98" s="316"/>
+      <c r="F98" s="314"/>
       <c r="G98" s="297">
         <f>SUM(G85:G97)</f>
         <v>77</v>
@@ -12948,32 +12948,32 @@
       <c r="A99" s="296" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="359">
+      <c r="B99" s="313">
         <f>B79</f>
         <v>131.5</v>
       </c>
-      <c r="C99" s="351"/>
-      <c r="D99" s="349" t="s">
+      <c r="C99" s="314"/>
+      <c r="D99" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="E99" s="350"/>
-      <c r="F99" s="351"/>
-      <c r="G99" s="359">
+      <c r="E99" s="316"/>
+      <c r="F99" s="314"/>
+      <c r="G99" s="313">
         <f>B79-L77-L74-L75-L76</f>
         <v>78.5</v>
       </c>
-      <c r="H99" s="351"/>
+      <c r="H99" s="314"/>
       <c r="I99" s="285"/>
       <c r="J99" s="285"/>
-      <c r="K99" s="349" t="s">
+      <c r="K99" s="315" t="s">
         <v>228</v>
       </c>
-      <c r="L99" s="351"/>
-      <c r="M99" s="359">
+      <c r="L99" s="314"/>
+      <c r="M99" s="313">
         <f>L79</f>
         <v>53</v>
       </c>
-      <c r="N99" s="351"/>
+      <c r="N99" s="314"/>
       <c r="R99" s="285"/>
       <c r="S99" s="285"/>
     </row>
@@ -12985,40 +12985,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="F73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:B87"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="K99:L99"/>
     <mergeCell ref="A88:B97"/>
     <mergeCell ref="C88:F88"/>
     <mergeCell ref="C89:F89"/>
@@ -13030,12 +13002,40 @@
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="C97:E97"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="A85:B87"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="F73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="0" windowWidth="25600" windowHeight="14820"/>
+    <workbookView xWindow="1340" yWindow="0" windowWidth="25600" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="289">
   <si>
     <t>学期</t>
   </si>
@@ -1091,10 +1091,6 @@
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
-    <t>网络安全实验</t>
-    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -1502,6 +1498,30 @@
   <si>
     <t xml:space="preserve">                              </t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>网络编程技术实验</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>网络安全实验</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
 </sst>
 </file>
@@ -4223,167 +4243,167 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="34" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" ap